--- a/SubRES_TMPL/SubRes_RSD_Trans.xlsx
+++ b/SubRES_TMPL/SubRes_RSD_Trans.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB04F20E-EC70-491C-97DE-CA9BAB0FCCCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872D15F6-9CA0-4459-83C9-FB213FF82293}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="909" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="819" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E06E441F-BBBC-4A24-8114-5D6359B091B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="46" r:id="rId1"/>
     <sheet name="TechSelection" sheetId="34" r:id="rId2"/>
+    <sheet name="FillTable" sheetId="47" r:id="rId3"/>
+    <sheet name="Veda_Tables" sheetId="48" r:id="rId4"/>
+    <sheet name="BY-RSD" sheetId="49" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
@@ -46,7 +50,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -76,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="138">
   <si>
     <t>IE</t>
   </si>
@@ -294,16 +297,230 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://en.wikipedia.org/wiki/ISO_3166-2:IE</t>
     </r>
+  </si>
+  <si>
+    <t>Fill Table to capture Base-Year Efficiencies and Availability</t>
+  </si>
+  <si>
+    <t>~TFM_Fill-R: w=BY-RSD; Hcol=Region</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>LimType</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>AllRegions</t>
+  </si>
+  <si>
+    <t>Pset_CI</t>
+  </si>
+  <si>
+    <t>Pset_PN</t>
+  </si>
+  <si>
+    <t>Pset_CO</t>
+  </si>
+  <si>
+    <t>Cset_CN</t>
+  </si>
+  <si>
+    <t>BASE</t>
+  </si>
+  <si>
+    <t>AFA</t>
+  </si>
+  <si>
+    <t>R-SC*00</t>
+  </si>
+  <si>
+    <t>R-WH*00</t>
+  </si>
+  <si>
+    <t>EFF</t>
+  </si>
+  <si>
+    <t>R-CK*00</t>
+  </si>
+  <si>
+    <t>R-LIG*00</t>
+  </si>
+  <si>
+    <t>AFA &amp; EFF multiplyers</t>
+  </si>
+  <si>
+    <t>~TFM_UPD</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Building type</t>
+  </si>
+  <si>
+    <t>Fuel</t>
+  </si>
+  <si>
+    <t>PSet_PN</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>WH</t>
+  </si>
+  <si>
+    <t>COA</t>
+  </si>
+  <si>
+    <t>LPG</t>
+  </si>
+  <si>
+    <t>KER</t>
+  </si>
+  <si>
+    <t>GAS</t>
+  </si>
+  <si>
+    <t>BIO</t>
+  </si>
+  <si>
+    <t>ELC</t>
+  </si>
+  <si>
+    <t>HET</t>
+  </si>
+  <si>
+    <t>GEO</t>
+  </si>
+  <si>
+    <t>SOL</t>
+  </si>
+  <si>
+    <t>CK</t>
+  </si>
+  <si>
+    <t>FH</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>LIG</t>
+  </si>
+  <si>
+    <t>R-RSDCK*0</t>
+  </si>
+  <si>
+    <t>R-SC*X0</t>
+  </si>
+  <si>
+    <t>R-RSDRF*0</t>
+  </si>
+  <si>
+    <t>R-RSDCW*0</t>
+  </si>
+  <si>
+    <t>R-RSDCD*0</t>
+  </si>
+  <si>
+    <t>R-RSDDW*0</t>
+  </si>
+  <si>
+    <t>R-RSDOE*0</t>
+  </si>
+  <si>
+    <t>R-RSDOA*0</t>
+  </si>
+  <si>
+    <t>R-WH*X0</t>
+  </si>
+  <si>
+    <t>R-LT*X0</t>
+  </si>
+  <si>
+    <t>R-PF*X0</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>CW</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>DW</t>
+  </si>
+  <si>
+    <t>OE</t>
+  </si>
+  <si>
+    <t>OA</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>Apt</t>
+  </si>
+  <si>
+    <t>BIODST</t>
+  </si>
+  <si>
+    <t>BIOETH</t>
+  </si>
+  <si>
+    <t>OILLPG</t>
+  </si>
+  <si>
+    <t>OILKER</t>
+  </si>
+  <si>
+    <t>GASNAT</t>
+  </si>
+  <si>
+    <t>PEA</t>
+  </si>
+  <si>
+    <t>BIOWOO</t>
+  </si>
+  <si>
+    <t>RENGEO</t>
+  </si>
+  <si>
+    <t>R-SH*X*,*0,*1</t>
+  </si>
+  <si>
+    <t>Archetype:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -334,8 +551,58 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,8 +633,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -447,11 +738,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -478,9 +811,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 10 2 2" xfId="1" xr:uid="{8A1A0FDE-14DF-42CA-9ABA-0CF68C9F79A0}"/>
+    <cellStyle name="Normal 2 7" xfId="2" xr:uid="{784509D5-A0E9-4598-8B9E-9B3373940DD3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1024,6 +1493,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1788,9 +2258,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B3:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1975,4 +2446,1625 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B2D9AA-4BE5-4F38-9B6C-B8B42CE79AC5}">
+  <dimension ref="B1:L24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
+    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="D5" sqref="D5:D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="16"/>
+    <col min="2" max="2" width="11" style="16" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="16"/>
+    <col min="6" max="6" width="10.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="16" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="16"/>
+    <col min="11" max="11" width="26.28515625" style="16" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="B1" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="B3" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="38"/>
+      <c r="D5" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="39">
+        <v>2018</v>
+      </c>
+      <c r="F5" s="40">
+        <v>1</v>
+      </c>
+      <c r="G5" s="38"/>
+      <c r="H5" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="I5" s="38"/>
+      <c r="J5" s="37"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="42"/>
+      <c r="D6" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="43">
+        <v>2018</v>
+      </c>
+      <c r="F6" s="44">
+        <v>1</v>
+      </c>
+      <c r="G6" s="42"/>
+      <c r="H6" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" s="42"/>
+      <c r="J6" s="41"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="47">
+        <v>2018</v>
+      </c>
+      <c r="F7" s="48">
+        <v>1</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" s="46"/>
+      <c r="J7" s="45"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="42"/>
+      <c r="D8" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="43">
+        <v>2018</v>
+      </c>
+      <c r="F8" s="44">
+        <v>1</v>
+      </c>
+      <c r="G8" s="42"/>
+      <c r="H8" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8" s="42"/>
+      <c r="J8" s="41"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="46"/>
+      <c r="D9" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="47">
+        <v>2018</v>
+      </c>
+      <c r="F9" s="48">
+        <v>1</v>
+      </c>
+      <c r="G9" s="46"/>
+      <c r="H9" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="I9" s="46"/>
+      <c r="J9" s="45"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="43">
+        <v>2018</v>
+      </c>
+      <c r="F10" s="44">
+        <v>1</v>
+      </c>
+      <c r="G10" s="42"/>
+      <c r="H10" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="I10" s="42"/>
+      <c r="J10" s="41"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="51"/>
+      <c r="D11" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="52">
+        <v>2018</v>
+      </c>
+      <c r="F11" s="53">
+        <v>1</v>
+      </c>
+      <c r="G11" s="51"/>
+      <c r="H11" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="I11" s="51"/>
+      <c r="J11" s="50"/>
+    </row>
+    <row r="12" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B12" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="42"/>
+      <c r="D12" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="43">
+        <v>2018</v>
+      </c>
+      <c r="F12" s="44">
+        <v>1</v>
+      </c>
+      <c r="G12" s="42"/>
+      <c r="H12" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="I12" s="42"/>
+      <c r="J12" s="41"/>
+      <c r="L12" s="20"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="46"/>
+      <c r="D13" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="47">
+        <v>2018</v>
+      </c>
+      <c r="F13" s="48">
+        <v>1</v>
+      </c>
+      <c r="G13" s="46"/>
+      <c r="H13" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="46"/>
+      <c r="J13" s="45"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="43">
+        <v>2018</v>
+      </c>
+      <c r="F14" s="44">
+        <v>1</v>
+      </c>
+      <c r="G14" s="42"/>
+      <c r="H14" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="I14" s="42"/>
+      <c r="J14" s="41"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="46"/>
+      <c r="D15" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="47">
+        <v>2018</v>
+      </c>
+      <c r="F15" s="48">
+        <v>1</v>
+      </c>
+      <c r="G15" s="46"/>
+      <c r="H15" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="I15" s="46"/>
+      <c r="J15" s="45"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="55"/>
+      <c r="D16" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="56">
+        <v>2018</v>
+      </c>
+      <c r="F16" s="57">
+        <v>1</v>
+      </c>
+      <c r="G16" s="55"/>
+      <c r="H16" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="I16" s="55"/>
+      <c r="J16" s="54"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="41"/>
+    </row>
+    <row r="18" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B18" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="18">
+        <v>2018</v>
+      </c>
+      <c r="F18" s="18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+    </row>
+    <row r="19" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B19" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="18">
+        <v>2018</v>
+      </c>
+      <c r="F19" s="18">
+        <v>1</v>
+      </c>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+    </row>
+    <row r="20" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B20" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="18">
+        <v>2018</v>
+      </c>
+      <c r="F20" s="18">
+        <v>1</v>
+      </c>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+    </row>
+    <row r="21" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B21" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="18">
+        <v>2018</v>
+      </c>
+      <c r="F21" s="22">
+        <v>1</v>
+      </c>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+    </row>
+    <row r="22" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29FD3173-2D6F-48A2-940D-F2E05DDC5B9F}">
+  <dimension ref="A1:H78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="12.28515625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="26" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="26" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="26" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="26" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="25"/>
+      <c r="F2" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="F3" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="26" t="str">
+        <f>FillTable!H5</f>
+        <v>R-RSDRF*0</v>
+      </c>
+      <c r="H5" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A5,'BY-RSD'!$C$2:$C$500,Veda_Tables!G5,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="26" t="str">
+        <f>FillTable!H6</f>
+        <v>R-RSDCK*0</v>
+      </c>
+      <c r="H6" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A6,'BY-RSD'!$C$2:$C$500,Veda_Tables!G6,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="F7" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="26" t="str">
+        <f>FillTable!H7</f>
+        <v>R-RSDCW*0</v>
+      </c>
+      <c r="H7" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A7,'BY-RSD'!$C$2:$C$500,Veda_Tables!G7,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="F8" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="26" t="str">
+        <f>FillTable!H8</f>
+        <v>R-RSDCD*0</v>
+      </c>
+      <c r="H8" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A8,'BY-RSD'!$C$2:$C$500,Veda_Tables!G8,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="F9" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="26" t="str">
+        <f>FillTable!H9</f>
+        <v>R-RSDDW*0</v>
+      </c>
+      <c r="H9" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A9,'BY-RSD'!$C$2:$C$500,Veda_Tables!G9,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="F10" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="26" t="str">
+        <f>FillTable!H10</f>
+        <v>R-RSDOE*0</v>
+      </c>
+      <c r="H10" s="59"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="F11" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="26" t="str">
+        <f>FillTable!H11</f>
+        <v>R-RSDOA*0</v>
+      </c>
+      <c r="H11" s="59"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="58"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="F12" s="60"/>
+      <c r="H12" s="59"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="59"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" s="58"/>
+      <c r="H14" s="59"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" s="58"/>
+      <c r="H15" s="59"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="59"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="59"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="59"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="59"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="59"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="59"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="59"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="59"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="59"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="59"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="59"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="59"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="59"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="59"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="59"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="59"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="59"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="59"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="59"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="59"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="59"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="58"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="59"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="58"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="59"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F39" s="26" t="str">
+        <f>IF(H39="","*",$A39)</f>
+        <v>*</v>
+      </c>
+      <c r="G39" s="26" t="str">
+        <f t="shared" ref="G39:G52" si="0">"R-"&amp;$B39&amp;"*"&amp;G$2&amp;"*"&amp;$D39&amp;"*"</f>
+        <v>R-SH*Apt*COA*</v>
+      </c>
+      <c r="H39" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A39,'BY-RSD'!$C$2:$C$500,Veda_Tables!G39,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F40" s="26" t="str">
+        <f>IF(H40="","*",$A40)</f>
+        <v>*</v>
+      </c>
+      <c r="G40" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>R-SH*Apt*LPG*</v>
+      </c>
+      <c r="H40" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A40,'BY-RSD'!$C$2:$C$500,Veda_Tables!G40,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="F41" s="26" t="str">
+        <f t="shared" ref="F41:F60" si="1">IF(H41="","*",$A41)</f>
+        <v>*</v>
+      </c>
+      <c r="G41" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>R-SH*Apt*KER*</v>
+      </c>
+      <c r="H41" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A41,'BY-RSD'!$C$2:$C$500,Veda_Tables!G41,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="F42" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>*</v>
+      </c>
+      <c r="G42" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>R-SH*Apt*GAS*</v>
+      </c>
+      <c r="H42" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A42,'BY-RSD'!$C$2:$C$500,Veda_Tables!G42,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F43" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>*</v>
+      </c>
+      <c r="G43" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>R-SH*Apt*BIO*</v>
+      </c>
+      <c r="H43" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A43,'BY-RSD'!$C$2:$C$500,Veda_Tables!G43,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="F44" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>*</v>
+      </c>
+      <c r="G44" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>R-SH*Apt*ELC*</v>
+      </c>
+      <c r="H44" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A44,'BY-RSD'!$C$2:$C$500,Veda_Tables!G44,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F45" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>*</v>
+      </c>
+      <c r="G45" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>R-SH*Apt*HET*</v>
+      </c>
+      <c r="H45" s="34" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A45,'BY-RSD'!$C$2:$C$500,Veda_Tables!G45,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="F46" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>*</v>
+      </c>
+      <c r="G46" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>R-SC*Apt*ELC*</v>
+      </c>
+      <c r="H46" s="36" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A46,'BY-RSD'!$C$2:$C$500,Veda_Tables!G46,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F47" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>*</v>
+      </c>
+      <c r="G47" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>R-WH*Apt*LPG*</v>
+      </c>
+      <c r="H47" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A47,'BY-RSD'!$C$2:$C$500,Veda_Tables!G47,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="F48" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>*</v>
+      </c>
+      <c r="G48" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>R-WH*Apt*KER*</v>
+      </c>
+      <c r="H48" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A48,'BY-RSD'!$C$2:$C$500,Veda_Tables!G48,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="F49" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>*</v>
+      </c>
+      <c r="G49" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>R-WH*Apt*GAS*</v>
+      </c>
+      <c r="H49" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A49,'BY-RSD'!$C$2:$C$500,Veda_Tables!G49,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="F50" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>*</v>
+      </c>
+      <c r="G50" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>R-WH*Apt*ELC*</v>
+      </c>
+      <c r="H50" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A50,'BY-RSD'!$C$2:$C$500,Veda_Tables!G50,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F51" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>*</v>
+      </c>
+      <c r="G51" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>R-WH*Apt*GEO*</v>
+      </c>
+      <c r="H51" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A51,'BY-RSD'!$C$2:$C$500,Veda_Tables!G51,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="F52" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>*</v>
+      </c>
+      <c r="G52" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>R-WH*Apt*SOL*</v>
+      </c>
+      <c r="H52" s="34" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A52,'BY-RSD'!$C$2:$C$500,Veda_Tables!G52,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F53" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>*</v>
+      </c>
+      <c r="G53" s="26" t="str">
+        <f t="shared" ref="G53:G60" si="2">"R-"&amp;$B53&amp;"*"&amp;$C53&amp;"*"&amp;G$2&amp;"*"&amp;$D53&amp;"*"</f>
+        <v>R-CK*FH*Apt*LPG*</v>
+      </c>
+      <c r="H53" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A53,'BY-RSD'!$C$2:$C$500,Veda_Tables!G53,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="F54" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>*</v>
+      </c>
+      <c r="G54" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>R-CK*FH*Apt*GAS*</v>
+      </c>
+      <c r="H54" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A54,'BY-RSD'!$C$2:$C$500,Veda_Tables!G54,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="F55" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>*</v>
+      </c>
+      <c r="G55" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>R-CK*FH*Apt*ELC*</v>
+      </c>
+      <c r="H55" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A55,'BY-RSD'!$C$2:$C$500,Veda_Tables!G55,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F56" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>*</v>
+      </c>
+      <c r="G56" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>R-CK*AB*Apt*LPG*</v>
+      </c>
+      <c r="H56" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A56,'BY-RSD'!$C$2:$C$500,Veda_Tables!G56,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="F57" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>*</v>
+      </c>
+      <c r="G57" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>R-CK*AB*Apt*GAS*</v>
+      </c>
+      <c r="H57" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A57,'BY-RSD'!$C$2:$C$500,Veda_Tables!G57,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D58" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="F58" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>*</v>
+      </c>
+      <c r="G58" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v>R-CK*AB*Apt*ELC*</v>
+      </c>
+      <c r="H58" s="34" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A58,'BY-RSD'!$C$2:$C$500,Veda_Tables!G58,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="F59" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>*</v>
+      </c>
+      <c r="G59" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>R-LIG*FH*Apt*ELC*</v>
+      </c>
+      <c r="H59" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A59,'BY-RSD'!$C$2:$C$500,Veda_Tables!G59,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D60" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="F60" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>*</v>
+      </c>
+      <c r="G60" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v>R-LIG*AB*Apt*ELC*</v>
+      </c>
+      <c r="H60" s="34" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A60,'BY-RSD'!$C$2:$C$500,Veda_Tables!G60,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H61" s="32"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H62" s="32"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H63" s="32"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H64" s="32"/>
+    </row>
+    <row r="65" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H65" s="32"/>
+    </row>
+    <row r="66" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H66" s="32"/>
+    </row>
+    <row r="67" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H67" s="32"/>
+    </row>
+    <row r="68" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H68" s="32"/>
+    </row>
+    <row r="69" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H69" s="32"/>
+    </row>
+    <row r="70" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H70" s="32"/>
+    </row>
+    <row r="71" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H71" s="32"/>
+    </row>
+    <row r="72" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H72" s="32"/>
+    </row>
+    <row r="73" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H73" s="32"/>
+    </row>
+    <row r="74" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H74" s="32"/>
+    </row>
+    <row r="75" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H75" s="32"/>
+    </row>
+    <row r="76" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H76" s="32"/>
+    </row>
+    <row r="77" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H77" s="32"/>
+    </row>
+    <row r="78" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H78" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31CDF0BF-0C91-4CE2-B5CF-56AFF1A290A3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="8"/>
+    <col min="3" max="3" width="21.85546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="8" customWidth="1"/>
+    <col min="5" max="6" width="11.5703125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="8"/>
+    <col min="8" max="8" width="19.42578125" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="8"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SubRES_TMPL/SubRes_RSD_Trans.xlsx
+++ b/SubRES_TMPL/SubRes_RSD_Trans.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872D15F6-9CA0-4459-83C9-FB213FF82293}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC953517-CA9B-4A2C-A7BA-7C53833A3588}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="819" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E06E441F-BBBC-4A24-8114-5D6359B091B1}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="819" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{000C143C-CDF2-4B54-8925-7EB8533449BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="46" r:id="rId1"/>
     <sheet name="TechSelection" sheetId="34" r:id="rId2"/>
     <sheet name="FillTable" sheetId="47" r:id="rId3"/>
-    <sheet name="Veda_Tables" sheetId="48" r:id="rId4"/>
-    <sheet name="BY-RSD" sheetId="49" r:id="rId5"/>
+    <sheet name="AF" sheetId="48" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
@@ -56,6 +55,85 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Alessandro Chiodi</author>
+  </authors>
+  <commentList>
+    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{01272BB8-E2B6-438D-929B-459C29D25D22}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">E4SMA: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Technology not available as future option</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{E87E9E66-B085-4C35-B4E6-3E638C46D86E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">E4SMA: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Technology not available as future option</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A33" authorId="0" shapeId="0" xr:uid="{67D77C6D-F6B6-4D02-B938-A4624F2897FB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">E4SMA: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Technology not available as future option</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
@@ -79,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="142">
   <si>
     <t>IE</t>
   </si>
@@ -303,12 +381,6 @@
     </r>
   </si>
   <si>
-    <t>Fill Table to capture Base-Year Efficiencies and Availability</t>
-  </si>
-  <si>
-    <t>~TFM_Fill-R: w=BY-RSD; Hcol=Region</t>
-  </si>
-  <si>
     <t>Scenario</t>
   </si>
   <si>
@@ -342,142 +414,109 @@
     <t>AFA</t>
   </si>
   <si>
-    <t>R-SC*00</t>
-  </si>
-  <si>
-    <t>R-WH*00</t>
-  </si>
-  <si>
-    <t>EFF</t>
-  </si>
-  <si>
-    <t>R-CK*00</t>
-  </si>
-  <si>
-    <t>R-LIG*00</t>
-  </si>
-  <si>
-    <t>AFA &amp; EFF multiplyers</t>
-  </si>
-  <si>
-    <t>~TFM_UPD</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
-    <t>Building type</t>
-  </si>
-  <si>
     <t>Fuel</t>
   </si>
   <si>
     <t>PSet_PN</t>
   </si>
   <si>
-    <t>SH</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>WH</t>
-  </si>
-  <si>
     <t>COA</t>
   </si>
   <si>
-    <t>LPG</t>
-  </si>
-  <si>
-    <t>KER</t>
-  </si>
-  <si>
-    <t>GAS</t>
-  </si>
-  <si>
-    <t>BIO</t>
-  </si>
-  <si>
     <t>ELC</t>
   </si>
   <si>
     <t>HET</t>
   </si>
   <si>
-    <t>GEO</t>
-  </si>
-  <si>
-    <t>SOL</t>
-  </si>
-  <si>
-    <t>CK</t>
-  </si>
-  <si>
-    <t>FH</t>
-  </si>
-  <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>LIG</t>
-  </si>
-  <si>
-    <t>R-RSDCK*0</t>
-  </si>
-  <si>
-    <t>R-SC*X0</t>
-  </si>
-  <si>
-    <t>R-RSDRF*0</t>
-  </si>
-  <si>
-    <t>R-RSDCW*0</t>
-  </si>
-  <si>
-    <t>R-RSDCD*0</t>
-  </si>
-  <si>
-    <t>R-RSDDW*0</t>
-  </si>
-  <si>
-    <t>R-RSDOE*0</t>
-  </si>
-  <si>
-    <t>R-RSDOA*0</t>
-  </si>
-  <si>
-    <t>R-WH*X0</t>
-  </si>
-  <si>
-    <t>R-LT*X0</t>
-  </si>
-  <si>
-    <t>R-PF*X0</t>
-  </si>
-  <si>
-    <t>RF</t>
-  </si>
-  <si>
-    <t>CW</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>DW</t>
-  </si>
-  <si>
-    <t>OE</t>
-  </si>
-  <si>
-    <t>OA</t>
-  </si>
-  <si>
-    <t>LT</t>
-  </si>
-  <si>
-    <t>PF</t>
+    <t>~TFM_Fill-R: w=BY-RSD-SH_AF; Hcol=Region</t>
+  </si>
+  <si>
+    <t>R-SH*</t>
+  </si>
+  <si>
+    <t>~TFM_Fill-R: w=BY-RSD-WH_AF; Hcol=Region</t>
+  </si>
+  <si>
+    <t>R-WH*</t>
+  </si>
+  <si>
+    <t>R-SC*</t>
+  </si>
+  <si>
+    <t>R-LT*</t>
+  </si>
+  <si>
+    <t>R-PF*</t>
+  </si>
+  <si>
+    <t>Fill Table to capture Base-Year Availability</t>
+  </si>
+  <si>
+    <t>~TFM_Fill-R: w=BY-RSD-RF; Hcol=Region</t>
+  </si>
+  <si>
+    <t>R-RSDRF*</t>
+  </si>
+  <si>
+    <t>~TFM_Fill-R: w=BY-RSD-CK; Hcol=Region</t>
+  </si>
+  <si>
+    <t>R-RSDCK*</t>
+  </si>
+  <si>
+    <t>~TFM_Fill-R: w=BY-RSD-CW; Hcol=Region</t>
+  </si>
+  <si>
+    <t>R-RSDCW*</t>
+  </si>
+  <si>
+    <t>~TFM_Fill-R: w=BY-RSD-CD; Hcol=Region</t>
+  </si>
+  <si>
+    <t>R-RSDCD*</t>
+  </si>
+  <si>
+    <t>~TFM_Fill-R: w=BY-RSD-DW; Hcol=Region</t>
+  </si>
+  <si>
+    <t>R-RSDDW*</t>
+  </si>
+  <si>
+    <t>R-RSDOE*</t>
+  </si>
+  <si>
+    <t>~TFM_Fill-R: w=BY-RSD-OA; Hcol=Region</t>
+  </si>
+  <si>
+    <t>R-RSDOA*</t>
+  </si>
+  <si>
+    <t>~TFM_INS</t>
+  </si>
+  <si>
+    <t>AFC</t>
+  </si>
+  <si>
+    <t>Reference Tech</t>
+  </si>
+  <si>
+    <t>Att</t>
+  </si>
+  <si>
+    <t>*Appliances</t>
+  </si>
+  <si>
+    <t>AFA for RSD techs</t>
+  </si>
+  <si>
+    <t>**~TFM_Fill-R: w=BY-RSD-SC_AF; Hcol=Region</t>
+  </si>
+  <si>
+    <t>**~TFM_Fill-R: w=BY-RSD-OE; Hcol=Region</t>
   </si>
   <si>
     <t>Apt</t>
@@ -501,26 +540,74 @@
     <t>PEA</t>
   </si>
   <si>
+    <t>SMF</t>
+  </si>
+  <si>
     <t>BIOWOO</t>
   </si>
   <si>
     <t>RENGEO</t>
   </si>
   <si>
-    <t>R-SH*X*,*0,*1</t>
-  </si>
-  <si>
-    <t>Archetype:</t>
+    <t>RSDSH_Apt</t>
+  </si>
+  <si>
+    <t>*Apartment Space Heat</t>
+  </si>
+  <si>
+    <t>*Attached Space Heat</t>
+  </si>
+  <si>
+    <t>*Detached Space Heat</t>
+  </si>
+  <si>
+    <t>Det</t>
+  </si>
+  <si>
+    <t>RSDSH_Det</t>
+  </si>
+  <si>
+    <t>RSDSH_Att</t>
+  </si>
+  <si>
+    <t>RSDLT_Apt</t>
+  </si>
+  <si>
+    <t>RSDLT_Att</t>
+  </si>
+  <si>
+    <t>RSDLT_Det</t>
+  </si>
+  <si>
+    <t>RSDPF_Apt</t>
+  </si>
+  <si>
+    <t>RSDPF_Att</t>
+  </si>
+  <si>
+    <t>RSDPF_Det</t>
+  </si>
+  <si>
+    <t>*Apartment Water Heat</t>
+  </si>
+  <si>
+    <t>*Attached Water Heat</t>
+  </si>
+  <si>
+    <t>*Detached Water Heat</t>
+  </si>
+  <si>
+    <t>~TFM_Fill-R: w=BY-RSD-LT; Hcol=Region</t>
+  </si>
+  <si>
+    <t>~TFM_Fill-R: w=BY-RSD-PF; Hcol=Region</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-  </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -587,7 +674,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -595,11 +681,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -641,7 +733,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,14 +749,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -749,42 +841,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -829,18 +892,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -850,101 +901,32 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2450,38 +2432,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B2D9AA-4BE5-4F38-9B6C-B8B42CE79AC5}">
-  <dimension ref="B1:L24"/>
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="B1:T35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
     <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="D5" sqref="D5:D16"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="16"/>
-    <col min="2" max="2" width="11" style="16" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="16"/>
-    <col min="6" max="6" width="10.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="16" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="16"/>
-    <col min="11" max="11" width="26.28515625" style="16" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="5" width="9.140625" style="16"/>
+    <col min="6" max="6" width="12.85546875" style="16" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:20" ht="23.25" x14ac:dyDescent="0.2">
       <c r="B1" s="15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="17" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -2491,1580 +2468,2702 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+    </row>
+    <row r="4" spans="2:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="E4" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="F4" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="G4" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="H4" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="I4" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="J4" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="L4" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="R4" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="S4" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="T4" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="B5" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="27" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="39">
+      <c r="E5" s="26">
         <v>2018</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="26">
         <v>1</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="I5" s="38"/>
-      <c r="J5" s="37"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="43">
+      <c r="G5" s="28"/>
+      <c r="H5" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="L5" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" s="26"/>
+      <c r="N5" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" s="26">
         <v>2018</v>
       </c>
-      <c r="F6" s="44">
+      <c r="P5" s="26">
         <v>1</v>
       </c>
-      <c r="G6" s="42"/>
-      <c r="H6" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="I6" s="42"/>
-      <c r="J6" s="41"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="47">
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+    </row>
+    <row r="6" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="8" spans="2:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="B8" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="L8" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+    </row>
+    <row r="9" spans="2:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="R9" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="S9" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="T9" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="B10" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="26">
         <v>2018</v>
       </c>
-      <c r="F7" s="48">
+      <c r="F10" s="26">
         <v>1</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="I7" s="46"/>
-      <c r="J7" s="45"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="43">
+      <c r="G10" s="28"/>
+      <c r="H10" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="L10" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="M10" s="26"/>
+      <c r="N10" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="O10" s="26">
         <v>2018</v>
       </c>
-      <c r="F8" s="44">
+      <c r="P10" s="26">
         <v>1</v>
       </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="41" t="s">
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+    </row>
+    <row r="13" spans="2:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="B13" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="I8" s="42"/>
-      <c r="J8" s="41"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="47">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="L13" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+    </row>
+    <row r="14" spans="2:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="M14" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="O14" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q14" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="R14" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="S14" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="T14" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="B15" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="26">
         <v>2018</v>
       </c>
-      <c r="F9" s="48">
+      <c r="F15" s="26">
         <v>1</v>
       </c>
-      <c r="G9" s="46"/>
-      <c r="H9" s="45" t="s">
+      <c r="G15" s="28"/>
+      <c r="H15" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="L15" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="M15" s="26"/>
+      <c r="N15" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="O15" s="26">
+        <v>2018</v>
+      </c>
+      <c r="P15" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+    </row>
+    <row r="18" spans="2:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="B18" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="L18" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+    </row>
+    <row r="19" spans="2:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="M19" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="N19" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="O19" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q19" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="R19" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="S19" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="T19" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="B20" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="26">
+        <v>2018</v>
+      </c>
+      <c r="F20" s="26">
+        <v>1</v>
+      </c>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="L20" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="M20" s="26"/>
+      <c r="N20" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="O20" s="26">
+        <v>2018</v>
+      </c>
+      <c r="P20" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+    </row>
+    <row r="23" spans="2:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="B23" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="L23" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+    </row>
+    <row r="24" spans="2:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="L24" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="M24" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="N24" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="O24" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="P24" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q24" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="R24" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="S24" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="T24" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="B25" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="26">
+        <v>2018</v>
+      </c>
+      <c r="F25" s="26">
+        <v>1</v>
+      </c>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="L25" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="M25" s="26"/>
+      <c r="N25" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="O25" s="26">
+        <v>2018</v>
+      </c>
+      <c r="P25" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+    </row>
+    <row r="28" spans="2:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="L28" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="I9" s="46"/>
-      <c r="J9" s="45"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="43">
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+    </row>
+    <row r="29" spans="2:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L29" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="P29" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q29" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="R29" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="S29" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="T29" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="L30" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="M30" s="26"/>
+      <c r="N30" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="O30" s="26">
         <v>2018</v>
       </c>
-      <c r="F10" s="44">
+      <c r="P30" s="26">
         <v>1</v>
       </c>
-      <c r="G10" s="42"/>
-      <c r="H10" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="I10" s="42"/>
-      <c r="J10" s="41"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="52">
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="S30" s="28"/>
+      <c r="T30" s="28"/>
+    </row>
+    <row r="33" spans="12:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="L33" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="18"/>
+    </row>
+    <row r="34" spans="12:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L34" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="M34" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="N34" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="O34" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="P34" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q34" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="R34" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="S34" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="T34" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="12:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="L35" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="M35" s="26"/>
+      <c r="N35" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="O35" s="26">
         <v>2018</v>
       </c>
-      <c r="F11" s="53">
+      <c r="P35" s="26">
         <v>1</v>
       </c>
-      <c r="G11" s="51"/>
-      <c r="H11" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="I11" s="51"/>
-      <c r="J11" s="50"/>
-    </row>
-    <row r="12" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="43">
-        <v>2018</v>
-      </c>
-      <c r="F12" s="44">
-        <v>1</v>
-      </c>
-      <c r="G12" s="42"/>
-      <c r="H12" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="I12" s="42"/>
-      <c r="J12" s="41"/>
-      <c r="L12" s="20"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="47">
-        <v>2018</v>
-      </c>
-      <c r="F13" s="48">
-        <v>1</v>
-      </c>
-      <c r="G13" s="46"/>
-      <c r="H13" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="I13" s="46"/>
-      <c r="J13" s="45"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="43">
-        <v>2018</v>
-      </c>
-      <c r="F14" s="44">
-        <v>1</v>
-      </c>
-      <c r="G14" s="42"/>
-      <c r="H14" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="I14" s="42"/>
-      <c r="J14" s="41"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="47">
-        <v>2018</v>
-      </c>
-      <c r="F15" s="48">
-        <v>1</v>
-      </c>
-      <c r="G15" s="46"/>
-      <c r="H15" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="I15" s="46"/>
-      <c r="J15" s="45"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="56">
-        <v>2018</v>
-      </c>
-      <c r="F16" s="57">
-        <v>1</v>
-      </c>
-      <c r="G16" s="55"/>
-      <c r="H16" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="I16" s="55"/>
-      <c r="J16" s="54"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="41"/>
-    </row>
-    <row r="18" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B18" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" s="18">
-        <v>2018</v>
-      </c>
-      <c r="F18" s="18">
-        <v>1</v>
-      </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B19" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="18">
-        <v>2018</v>
-      </c>
-      <c r="F19" s="18">
-        <v>1</v>
-      </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B20" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="18">
-        <v>2018</v>
-      </c>
-      <c r="F20" s="18">
-        <v>1</v>
-      </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="E21" s="18">
-        <v>2018</v>
-      </c>
-      <c r="F21" s="22">
-        <v>1</v>
-      </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-    </row>
-    <row r="22" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="S35" s="28"/>
+      <c r="T35" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29FD3173-2D6F-48A2-940D-F2E05DDC5B9F}">
-  <dimension ref="A1:H78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29FD3173-2D6F-48A2-940D-F2E05DDC5B9F}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:N82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C6" sqref="C6:C17"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView topLeftCell="A3" workbookViewId="1">
+      <selection activeCell="K34" sqref="K34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="12.28515625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="26" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="26" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="26" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="26" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="26" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="26"/>
+    <col min="1" max="1" width="12.28515625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="22" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" style="22" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="22"/>
+    <col min="11" max="11" width="13.140625" style="22" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="22" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="22" customWidth="1"/>
+    <col min="14" max="14" width="13" style="22" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="25"/>
-      <c r="F2" s="27" t="s">
+    <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="21"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="K5" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="31"/>
+    </row>
+    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="32" t="str">
+        <f>"R-SH-"&amp;F6&amp;"_"&amp;G6&amp;"*"</f>
+        <v>R-SH-Apt_COA*</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="32"/>
+      <c r="F6" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="32" t="str">
+        <f>"R-SH-"&amp;F6&amp;"_"&amp;G6&amp;"*"</f>
+        <v>R-SH-Apt_COA*</v>
+      </c>
+      <c r="K6" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" s="32" t="str">
+        <f>FillTable!R5</f>
+        <v>R-RSDRF*</v>
+      </c>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+    </row>
+    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="33" t="str">
+        <f>"R-SH-"&amp;F7&amp;"_"&amp;G7&amp;"*"</f>
+        <v>R-SH-Apt_BIODST*</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="F7" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" s="33" t="str">
+        <f>"R-SH-"&amp;F7&amp;"_"&amp;G7&amp;"*"</f>
+        <v>R-SH-Apt_BIODST*</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" s="33" t="str">
+        <f>FillTable!R10</f>
+        <v>R-RSDCK*</v>
+      </c>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+    </row>
+    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="32" t="str">
+        <f>"R-SH-"&amp;F8&amp;"_"&amp;G8&amp;"*"</f>
+        <v>R-SH-Apt_BIOETH*</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="32"/>
+      <c r="F8" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="32" t="str">
+        <f t="shared" ref="H8:H17" si="0">"R-SH-"&amp;F8&amp;"_"&amp;G8&amp;"*"</f>
+        <v>R-SH-Apt_BIOETH*</v>
+      </c>
+      <c r="K8" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="32" t="str">
+        <f>FillTable!R15</f>
+        <v>R-RSDCW*</v>
+      </c>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+    </row>
+    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="33" t="str">
+        <f>"R-SH-"&amp;F9&amp;"_"&amp;G9&amp;"*"</f>
+        <v>R-SH-Apt_OILLPG*</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="F9" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="H9" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>R-SH-Apt_OILLPG*</v>
+      </c>
+      <c r="K9" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="33" t="str">
+        <f>FillTable!R20</f>
+        <v>R-RSDCD*</v>
+      </c>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="32" t="str">
+        <f>"R-SH-"&amp;F10&amp;"_"&amp;G10&amp;"*"</f>
+        <v>R-SH-Apt_ELC*</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="F10" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>R-SH-Apt_ELC*</v>
+      </c>
+      <c r="K10" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="32" t="str">
+        <f>FillTable!R25</f>
+        <v>R-RSDDW*</v>
+      </c>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+    </row>
+    <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="33" t="str">
+        <f>"R-SH-"&amp;F11&amp;"_"&amp;G11&amp;"*"</f>
+        <v>R-SH-Apt_OILKER*</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="33"/>
+      <c r="F11" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H11" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>R-SH-Apt_OILKER*</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="33" t="str">
+        <f>FillTable!R30</f>
+        <v>R-RSDOE*</v>
+      </c>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="32" t="str">
+        <f>"R-SH-"&amp;F12&amp;"_"&amp;G12&amp;"*"</f>
+        <v>R-SH-Apt_GASNAT*</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="F12" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="H12" s="32" t="str">
+        <f>"R-SH-"&amp;F11&amp;"_"&amp;G12&amp;"*"</f>
+        <v>R-SH-Apt_GASNAT*</v>
+      </c>
+      <c r="K12" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" s="32" t="str">
+        <f>FillTable!R35</f>
+        <v>R-RSDOA*</v>
+      </c>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="33" t="str">
+        <f>"R-SH-"&amp;F13&amp;"_"&amp;G13&amp;"*"</f>
+        <v>R-SH-Apt_PEA*</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="F13" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="H13" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>R-SH-Apt_PEA*</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="32" t="str">
+        <f>"R-SH-"&amp;F14&amp;"_"&amp;G14&amp;"*"</f>
+        <v>R-SH-Apt_SMF*</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="32"/>
+      <c r="F14" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="H14" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>R-SH-Apt_SMF*</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="33" t="str">
+        <f>"R-SH-"&amp;F15&amp;"_"&amp;G15&amp;"*"</f>
+        <v>R-SH-Apt_BIOWOO*</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="F15" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="H15" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>R-SH-Apt_BIOWOO*</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="32" t="str">
+        <f>"R-SH-"&amp;F16&amp;"_"&amp;G16&amp;"*"</f>
+        <v>R-SH-Apt_HET*</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="F16" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>R-SH-Apt_HET*</v>
+      </c>
+      <c r="K16" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="M16" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="33" t="str">
+        <f>"R-SH-"&amp;F17&amp;"_"&amp;G17&amp;"*"</f>
+        <v>R-SH-Apt_RENGEO*</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="F17" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="H17" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>R-SH-Apt_RENGEO*</v>
+      </c>
+      <c r="K17" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="31"/>
+    </row>
+    <row r="18" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="K18" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="L18" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="M18" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="N18" s="32"/>
+    </row>
+    <row r="19" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="32" t="str">
+        <f>"R-SH-"&amp;F19&amp;"_"&amp;G19&amp;"*"</f>
+        <v>R-SH-Att_COA*</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="32"/>
+      <c r="F19" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="32" t="str">
+        <f>"R-SH-"&amp;F19&amp;"_"&amp;G19&amp;"*"</f>
+        <v>R-SH-Att_COA*</v>
+      </c>
+      <c r="K19" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="L19" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="M19" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="N19" s="33"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="33" t="str">
+        <f>"R-SH-"&amp;F20&amp;"_"&amp;G20&amp;"*"</f>
+        <v>R-SH-Att_BIODST*</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="F20" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" s="33" t="str">
+        <f>"R-SH-"&amp;F20&amp;"_"&amp;G20&amp;"*"</f>
+        <v>R-SH-Att_BIODST*</v>
+      </c>
+      <c r="K20" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="L20" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="M20" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="N20" s="32"/>
+    </row>
+    <row r="21" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="32" t="str">
+        <f>"R-SH-"&amp;F21&amp;"_"&amp;G21&amp;"*"</f>
+        <v>R-SH-Att_BIOETH*</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="32"/>
+      <c r="F21" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" s="32" t="str">
+        <f t="shared" ref="H21:H30" si="1">"R-SH-"&amp;F21&amp;"_"&amp;G21&amp;"*"</f>
+        <v>R-SH-Att_BIOETH*</v>
+      </c>
+      <c r="K21" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="L21" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="M21" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="N21" s="33"/>
+    </row>
+    <row r="22" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="33" t="str">
+        <f>"R-SH-"&amp;F22&amp;"_"&amp;G22&amp;"*"</f>
+        <v>R-SH-Att_OILLPG*</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="33"/>
+      <c r="F22" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="H22" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>R-SH-Att_OILLPG*</v>
+      </c>
+      <c r="K22" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="L22" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="M22" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="N22" s="32"/>
+    </row>
+    <row r="23" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="32" t="str">
+        <f>"R-SH-"&amp;F23&amp;"_"&amp;G23&amp;"*"</f>
+        <v>R-SH-Att_ELC*</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="32"/>
+      <c r="F23" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>R-SH-Att_ELC*</v>
+      </c>
+      <c r="K23" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="L23" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="M23" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="N23" s="33"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="33" t="str">
+        <f>"R-SH-"&amp;F24&amp;"_"&amp;G24&amp;"*"</f>
+        <v>R-SH-Att_OILKER*</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="F24" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H24" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>R-SH-Att_OILKER*</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="32" t="str">
+        <f>"R-SH-"&amp;F25&amp;"_"&amp;G25&amp;"*"</f>
+        <v>R-SH-Att_GASNAT*</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="32"/>
+      <c r="F25" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="H25" s="32" t="str">
+        <f>"R-SH-"&amp;F24&amp;"_"&amp;G25&amp;"*"</f>
+        <v>R-SH-Att_GASNAT*</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="33" t="str">
+        <f>"R-SH-"&amp;F26&amp;"_"&amp;G26&amp;"*"</f>
+        <v>R-SH-Att_PEA*</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="33"/>
+      <c r="F26" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="H26" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>R-SH-Att_PEA*</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="32" t="str">
+        <f>"R-SH-"&amp;F27&amp;"_"&amp;G27&amp;"*"</f>
+        <v>R-SH-Att_SMF*</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="32"/>
+      <c r="F27" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="H27" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>R-SH-Att_SMF*</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="33" t="str">
+        <f>"R-SH-"&amp;F28&amp;"_"&amp;G28&amp;"*"</f>
+        <v>R-SH-Att_BIOWOO*</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="33"/>
+      <c r="F28" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="H28" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>R-SH-Att_BIOWOO*</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="32" t="str">
+        <f>"R-SH-"&amp;F29&amp;"_"&amp;G29&amp;"*"</f>
+        <v>R-SH-Att_HET*</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="32"/>
+      <c r="F29" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G29" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="H29" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>R-SH-Att_HET*</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="33" t="str">
+        <f>"R-SH-"&amp;F30&amp;"_"&amp;G30&amp;"*"</f>
+        <v>R-SH-Att_RENGEO*</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="33"/>
+      <c r="F30" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>R-SH-Att_RENGEO*</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+    </row>
+    <row r="32" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="32" t="str">
+        <f>"R-SH-"&amp;F32&amp;"_"&amp;G32&amp;"*"</f>
+        <v>R-SH-Det_COA*</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="32"/>
+      <c r="F32" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="H32" s="32" t="str">
+        <f>"R-SH-"&amp;F32&amp;"_"&amp;G32&amp;"*"</f>
+        <v>R-SH-Det_COA*</v>
+      </c>
+      <c r="I32" s="25"/>
+    </row>
+    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="33" t="str">
+        <f>"R-SH-"&amp;F33&amp;"_"&amp;G33&amp;"*"</f>
+        <v>R-SH-Det_BIODST*</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" s="33"/>
+      <c r="F33" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="H33" s="33" t="str">
+        <f>"R-SH-"&amp;F33&amp;"_"&amp;G33&amp;"*"</f>
+        <v>R-SH-Det_BIODST*</v>
+      </c>
+      <c r="I33" s="25"/>
+    </row>
+    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="32" t="str">
+        <f>"R-SH-"&amp;F34&amp;"_"&amp;G34&amp;"*"</f>
+        <v>R-SH-Det_BIOETH*</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" s="32"/>
+      <c r="F34" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G34" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="H34" s="32" t="str">
+        <f t="shared" ref="H34:H37" si="2">"R-SH-"&amp;F34&amp;"_"&amp;G34&amp;"*"</f>
+        <v>R-SH-Det_BIOETH*</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="33" t="str">
+        <f>"R-SH-"&amp;F35&amp;"_"&amp;G35&amp;"*"</f>
+        <v>R-SH-Det_OILLPG*</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" s="33"/>
+      <c r="F35" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="H35" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v>R-SH-Det_OILLPG*</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" s="32" t="str">
+        <f>"R-SH-"&amp;F36&amp;"_"&amp;G36&amp;"*"</f>
+        <v>R-SH-Det_ELC*</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" s="32"/>
+      <c r="F36" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G36" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="H36" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>R-SH-Det_ELC*</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="33" t="str">
+        <f>"R-SH-"&amp;F37&amp;"_"&amp;G37&amp;"*"</f>
+        <v>R-SH-Det_OILKER*</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" s="33"/>
+      <c r="F37" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="G37" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H37" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v>R-SH-Det_OILKER*</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="32" t="str">
+        <f>"R-SH-"&amp;F38&amp;"_"&amp;G38&amp;"*"</f>
+        <v>R-SH-Det_GASNAT*</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" s="32"/>
+      <c r="F38" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G38" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="H38" s="32" t="str">
+        <f>"R-SH-"&amp;F37&amp;"_"&amp;G38&amp;"*"</f>
+        <v>R-SH-Det_GASNAT*</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" s="33" t="str">
+        <f>"R-SH-"&amp;F39&amp;"_"&amp;G39&amp;"*"</f>
+        <v>R-SH-Det_PEA*</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" s="33"/>
+      <c r="F39" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="G39" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="H39" s="33" t="str">
+        <f t="shared" ref="H39:H43" si="3">"R-SH-"&amp;F39&amp;"_"&amp;G39&amp;"*"</f>
+        <v>R-SH-Det_PEA*</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="32" t="str">
+        <f>"R-SH-"&amp;F40&amp;"_"&amp;G40&amp;"*"</f>
+        <v>R-SH-Det_SMF*</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="32"/>
+      <c r="F40" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G40" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="H40" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>R-SH-Det_SMF*</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="33" t="str">
+        <f>"R-SH-"&amp;F41&amp;"_"&amp;G41&amp;"*"</f>
+        <v>R-SH-Det_BIOWOO*</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" s="33"/>
+      <c r="F41" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="G41" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="H41" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v>R-SH-Det_BIOWOO*</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="32" t="str">
+        <f>"R-SH-"&amp;F42&amp;"_"&amp;G42&amp;"*"</f>
+        <v>R-SH-Det_HET*</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" s="32"/>
+      <c r="F42" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G42" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="H42" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>R-SH-Det_HET*</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" s="33" t="str">
+        <f>"R-SH-"&amp;F43&amp;"_"&amp;G43&amp;"*"</f>
+        <v>R-SH-Det_RENGEO*</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="33"/>
+      <c r="F43" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="G43" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="H43" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v>R-SH-Det_RENGEO*</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="F3" s="17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="60" t="s">
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="31"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+    </row>
+    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" s="32" t="str">
+        <f>"R-WH-"&amp;F45&amp;"_"&amp;G45&amp;"*"</f>
+        <v>R-WH-Apt_COA*</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" s="32"/>
+      <c r="F45" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G45" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="H45" s="32" t="str">
+        <f>"R-SH-"&amp;F45&amp;"_"&amp;G45&amp;"*"</f>
+        <v>R-SH-Apt_COA*</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="33" t="str">
+        <f>"R-WH-"&amp;F46&amp;"_"&amp;G46&amp;"*"</f>
+        <v>R-WH-Apt_BIODST*</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" s="33"/>
+      <c r="F46" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G46" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="H46" s="33" t="str">
+        <f>"R-SH-"&amp;F46&amp;"_"&amp;G46&amp;"*"</f>
+        <v>R-SH-Apt_BIODST*</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" s="32" t="str">
+        <f>"R-WH-"&amp;F47&amp;"_"&amp;G47&amp;"*"</f>
+        <v>R-WH-Apt_BIOETH*</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D47" s="32"/>
+      <c r="F47" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G47" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="H47" s="32" t="str">
+        <f t="shared" ref="H47:H50" si="4">"R-SH-"&amp;F47&amp;"_"&amp;G47&amp;"*"</f>
+        <v>R-SH-Apt_BIOETH*</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="33" t="str">
+        <f>"R-WH-"&amp;F48&amp;"_"&amp;G48&amp;"*"</f>
+        <v>R-WH-Apt_OILLPG*</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D48" s="33"/>
+      <c r="F48" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G48" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="H48" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>R-SH-Apt_OILLPG*</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" s="32" t="str">
+        <f>"R-WH-"&amp;F49&amp;"_"&amp;G49&amp;"*"</f>
+        <v>R-WH-Apt_ELC*</v>
+      </c>
+      <c r="C49" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D49" s="32"/>
+      <c r="F49" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G49" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="H49" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v>R-SH-Apt_ELC*</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" s="33" t="str">
+        <f>"R-WH-"&amp;F50&amp;"_"&amp;G50&amp;"*"</f>
+        <v>R-WH-Apt_OILKER*</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D50" s="33"/>
+      <c r="F50" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G50" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H50" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>R-SH-Apt_OILKER*</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="32" t="str">
+        <f>"R-WH-"&amp;F51&amp;"_"&amp;G51&amp;"*"</f>
+        <v>R-WH-Apt_GASNAT*</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" s="32"/>
+      <c r="F51" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G51" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="F5" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" s="26" t="str">
-        <f>FillTable!H5</f>
-        <v>R-RSDRF*0</v>
-      </c>
-      <c r="H5" s="32" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A5,'BY-RSD'!$C$2:$C$500,Veda_Tables!G5,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="G6" s="26" t="str">
-        <f>FillTable!H6</f>
-        <v>R-RSDCK*0</v>
-      </c>
-      <c r="H6" s="32" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A6,'BY-RSD'!$C$2:$C$500,Veda_Tables!G6,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="61" t="s">
+      <c r="H51" s="32" t="str">
+        <f>"R-SH-"&amp;F50&amp;"_"&amp;G51&amp;"*"</f>
+        <v>R-SH-Apt_GASNAT*</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="33" t="str">
+        <f>"R-WH-"&amp;F52&amp;"_"&amp;G52&amp;"*"</f>
+        <v>R-WH-Apt_PEA*</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D52" s="33"/>
+      <c r="F52" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G52" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="F7" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" s="26" t="str">
-        <f>FillTable!H7</f>
-        <v>R-RSDCW*0</v>
-      </c>
-      <c r="H7" s="32" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A7,'BY-RSD'!$C$2:$C$500,Veda_Tables!G7,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="64" t="s">
+      <c r="H52" s="33" t="str">
+        <f t="shared" ref="H52:H56" si="5">"R-SH-"&amp;F52&amp;"_"&amp;G52&amp;"*"</f>
+        <v>R-SH-Apt_PEA*</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="32" t="str">
+        <f>"R-WH-"&amp;F53&amp;"_"&amp;G53&amp;"*"</f>
+        <v>R-WH-Apt_SMF*</v>
+      </c>
+      <c r="C53" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D53" s="32"/>
+      <c r="F53" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G53" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="F8" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" s="26" t="str">
-        <f>FillTable!H8</f>
-        <v>R-RSDCD*0</v>
-      </c>
-      <c r="H8" s="32" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A8,'BY-RSD'!$C$2:$C$500,Veda_Tables!G8,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="62" t="s">
+      <c r="H53" s="32" t="str">
+        <f t="shared" si="5"/>
+        <v>R-SH-Apt_SMF*</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" s="33" t="str">
+        <f>"R-WH-"&amp;F54&amp;"_"&amp;G54&amp;"*"</f>
+        <v>R-WH-Apt_BIOWOO*</v>
+      </c>
+      <c r="C54" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D54" s="33"/>
+      <c r="F54" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G54" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="F9" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="G9" s="26" t="str">
-        <f>FillTable!H9</f>
-        <v>R-RSDDW*0</v>
-      </c>
-      <c r="H9" s="32" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A9,'BY-RSD'!$C$2:$C$500,Veda_Tables!G9,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="62" t="s">
+      <c r="H54" s="33" t="str">
+        <f t="shared" si="5"/>
+        <v>R-SH-Apt_BIOWOO*</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="32" t="str">
+        <f>"R-WH-"&amp;F55&amp;"_"&amp;G55&amp;"*"</f>
+        <v>R-WH-Apt_HET*</v>
+      </c>
+      <c r="C55" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D55" s="32"/>
+      <c r="F55" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G55" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="H55" s="32" t="str">
+        <f t="shared" si="5"/>
+        <v>R-SH-Apt_HET*</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="33" t="str">
+        <f>"R-WH-"&amp;F56&amp;"_"&amp;G56&amp;"*"</f>
+        <v>R-WH-Apt_RENGEO*</v>
+      </c>
+      <c r="C56" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D56" s="33"/>
+      <c r="F56" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G56" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="F10" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" s="26" t="str">
-        <f>FillTable!H10</f>
-        <v>R-RSDOE*0</v>
-      </c>
-      <c r="H10" s="59"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="61" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="F11" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="26" t="str">
-        <f>FillTable!H11</f>
-        <v>R-RSDOA*0</v>
-      </c>
-      <c r="H11" s="59"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="58"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="F12" s="60"/>
-      <c r="H12" s="59"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13" s="65" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="59"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="62" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14" s="66" t="s">
-        <v>133</v>
-      </c>
-      <c r="G14" s="58"/>
-      <c r="H14" s="59"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="62" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="66" t="s">
-        <v>134</v>
-      </c>
-      <c r="G15" s="58"/>
-      <c r="H15" s="59"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="62" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16" s="58" t="s">
+      <c r="H56" s="33" t="str">
+        <f t="shared" si="5"/>
+        <v>R-SH-Apt_RENGEO*</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A57" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+    </row>
+    <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B58" s="32" t="str">
+        <f>"R-WH-"&amp;F58&amp;"_"&amp;G58&amp;"*"</f>
+        <v>R-WH-Att_COA*</v>
+      </c>
+      <c r="C58" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" s="32"/>
+      <c r="F58" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G58" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="H58" s="32" t="str">
+        <f>"R-SH-"&amp;F58&amp;"_"&amp;G58&amp;"*"</f>
+        <v>R-SH-Att_COA*</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" s="33" t="str">
+        <f>"R-WH-"&amp;F59&amp;"_"&amp;G59&amp;"*"</f>
+        <v>R-WH-Att_BIODST*</v>
+      </c>
+      <c r="C59" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D59" s="33"/>
+      <c r="F59" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="G59" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="H59" s="33" t="str">
+        <f>"R-SH-"&amp;F59&amp;"_"&amp;G59&amp;"*"</f>
+        <v>R-SH-Att_BIODST*</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" s="32" t="str">
+        <f>"R-WH-"&amp;F60&amp;"_"&amp;G60&amp;"*"</f>
+        <v>R-WH-Att_BIOETH*</v>
+      </c>
+      <c r="C60" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D60" s="32"/>
+      <c r="F60" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G60" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="H60" s="32" t="str">
+        <f t="shared" ref="H60:H63" si="6">"R-SH-"&amp;F60&amp;"_"&amp;G60&amp;"*"</f>
+        <v>R-SH-Att_BIOETH*</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" s="33" t="str">
+        <f>"R-WH-"&amp;F61&amp;"_"&amp;G61&amp;"*"</f>
+        <v>R-WH-Att_OILLPG*</v>
+      </c>
+      <c r="C61" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D61" s="33"/>
+      <c r="F61" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="G61" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="H61" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>R-SH-Att_OILLPG*</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" s="32" t="str">
+        <f>"R-WH-"&amp;F62&amp;"_"&amp;G62&amp;"*"</f>
+        <v>R-WH-Att_ELC*</v>
+      </c>
+      <c r="C62" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D62" s="32"/>
+      <c r="F62" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G62" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="H62" s="32" t="str">
+        <f t="shared" si="6"/>
+        <v>R-SH-Att_ELC*</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63" s="33" t="str">
+        <f>"R-WH-"&amp;F63&amp;"_"&amp;G63&amp;"*"</f>
+        <v>R-WH-Att_OILKER*</v>
+      </c>
+      <c r="C63" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" s="33"/>
+      <c r="F63" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="G63" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H63" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>R-SH-Att_OILKER*</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B64" s="32" t="str">
+        <f>"R-WH-"&amp;F64&amp;"_"&amp;G64&amp;"*"</f>
+        <v>R-WH-Att_GASNAT*</v>
+      </c>
+      <c r="C64" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D64" s="32"/>
+      <c r="F64" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G64" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="H64" s="32" t="str">
+        <f>"R-SH-"&amp;F63&amp;"_"&amp;G64&amp;"*"</f>
+        <v>R-SH-Att_GASNAT*</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B65" s="33" t="str">
+        <f>"R-WH-"&amp;F65&amp;"_"&amp;G65&amp;"*"</f>
+        <v>R-WH-Att_PEA*</v>
+      </c>
+      <c r="C65" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D65" s="33"/>
+      <c r="F65" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="G65" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="H65" s="33" t="str">
+        <f t="shared" ref="H65:H69" si="7">"R-SH-"&amp;F65&amp;"_"&amp;G65&amp;"*"</f>
+        <v>R-SH-Att_PEA*</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B66" s="32" t="str">
+        <f>"R-WH-"&amp;F66&amp;"_"&amp;G66&amp;"*"</f>
+        <v>R-WH-Att_SMF*</v>
+      </c>
+      <c r="C66" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D66" s="32"/>
+      <c r="F66" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G66" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="H66" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>R-SH-Att_SMF*</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B67" s="33" t="str">
+        <f>"R-WH-"&amp;F67&amp;"_"&amp;G67&amp;"*"</f>
+        <v>R-WH-Att_BIOWOO*</v>
+      </c>
+      <c r="C67" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D67" s="33"/>
+      <c r="F67" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="G67" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="H67" s="33" t="str">
+        <f t="shared" si="7"/>
+        <v>R-SH-Att_BIOWOO*</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B68" s="32" t="str">
+        <f>"R-WH-"&amp;F68&amp;"_"&amp;G68&amp;"*"</f>
+        <v>R-WH-Att_HET*</v>
+      </c>
+      <c r="C68" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D68" s="32"/>
+      <c r="F68" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G68" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="H68" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>R-SH-Att_HET*</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B69" s="33" t="str">
+        <f>"R-WH-"&amp;F69&amp;"_"&amp;G69&amp;"*"</f>
+        <v>R-WH-Att_RENGEO*</v>
+      </c>
+      <c r="C69" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D69" s="33"/>
+      <c r="F69" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="G69" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="H69" s="33" t="str">
+        <f t="shared" si="7"/>
+        <v>R-SH-Att_RENGEO*</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A70" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B70" s="30"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+    </row>
+    <row r="71" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B71" s="32" t="str">
+        <f>"R-WH-"&amp;F71&amp;"_"&amp;G71&amp;"*"</f>
+        <v>R-WH-Det_COA*</v>
+      </c>
+      <c r="C71" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D71" s="32"/>
+      <c r="F71" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="59"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="62" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" s="58" t="s">
+      <c r="G71" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="H71" s="32" t="str">
+        <f>"R-SH-"&amp;F71&amp;"_"&amp;G71&amp;"*"</f>
+        <v>R-SH-Det_COA*</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A72" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B72" s="33" t="str">
+        <f>"R-WH-"&amp;F72&amp;"_"&amp;G72&amp;"*"</f>
+        <v>R-WH-Det_BIODST*</v>
+      </c>
+      <c r="C72" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="59"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="62" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="D18" s="58" t="s">
-        <v>130</v>
-      </c>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="59"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="62" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="59"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="62" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="59"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="62" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="59"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="62" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="59"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="61" t="s">
-        <v>127</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="59"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="59"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" s="62" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="59"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="C26" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="59"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="C27" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="59"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="59"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="59"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="59"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="59"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="59"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="59"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="59"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="59"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="59"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="58"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="59"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="58"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="59"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="26" t="s">
+      <c r="D72" s="33"/>
+      <c r="F72" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="G72" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="H72" s="33" t="str">
+        <f>"R-SH-"&amp;F72&amp;"_"&amp;G72&amp;"*"</f>
+        <v>R-SH-Det_BIODST*</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A73" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B73" s="32" t="str">
+        <f>"R-WH-"&amp;F73&amp;"_"&amp;G73&amp;"*"</f>
+        <v>R-WH-Det_BIOETH*</v>
+      </c>
+      <c r="C73" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D73" s="32"/>
+      <c r="F73" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G73" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="H73" s="32" t="str">
+        <f t="shared" ref="H73:H76" si="8">"R-SH-"&amp;F73&amp;"_"&amp;G73&amp;"*"</f>
+        <v>R-SH-Det_BIOETH*</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A74" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B74" s="33" t="str">
+        <f>"R-WH-"&amp;F74&amp;"_"&amp;G74&amp;"*"</f>
+        <v>R-WH-Det_OILLPG*</v>
+      </c>
+      <c r="C74" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="D74" s="33"/>
+      <c r="F74" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="G74" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="H74" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>R-SH-Det_OILLPG*</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A75" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B75" s="32" t="str">
+        <f>"R-WH-"&amp;F75&amp;"_"&amp;G75&amp;"*"</f>
+        <v>R-WH-Det_ELC*</v>
+      </c>
+      <c r="C75" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D75" s="32"/>
+      <c r="F75" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G75" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="F39" s="26" t="str">
-        <f>IF(H39="","*",$A39)</f>
-        <v>*</v>
-      </c>
-      <c r="G39" s="26" t="str">
-        <f t="shared" ref="G39:G52" si="0">"R-"&amp;$B39&amp;"*"&amp;G$2&amp;"*"&amp;$D39&amp;"*"</f>
-        <v>R-SH*Apt*COA*</v>
-      </c>
-      <c r="H39" s="32" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A39,'BY-RSD'!$C$2:$C$500,Veda_Tables!G39,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="F40" s="26" t="str">
-        <f>IF(H40="","*",$A40)</f>
-        <v>*</v>
-      </c>
-      <c r="G40" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>R-SH*Apt*LPG*</v>
-      </c>
-      <c r="H40" s="32" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A40,'BY-RSD'!$C$2:$C$500,Veda_Tables!G40,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="F41" s="26" t="str">
-        <f t="shared" ref="F41:F60" si="1">IF(H41="","*",$A41)</f>
-        <v>*</v>
-      </c>
-      <c r="G41" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>R-SH*Apt*KER*</v>
-      </c>
-      <c r="H41" s="32" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A41,'BY-RSD'!$C$2:$C$500,Veda_Tables!G41,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="F42" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v>*</v>
-      </c>
-      <c r="G42" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>R-SH*Apt*GAS*</v>
-      </c>
-      <c r="H42" s="32" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A42,'BY-RSD'!$C$2:$C$500,Veda_Tables!G42,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="F43" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v>*</v>
-      </c>
-      <c r="G43" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>R-SH*Apt*BIO*</v>
-      </c>
-      <c r="H43" s="32" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A43,'BY-RSD'!$C$2:$C$500,Veda_Tables!G43,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="F44" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v>*</v>
-      </c>
-      <c r="G44" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>R-SH*Apt*ELC*</v>
-      </c>
-      <c r="H44" s="32" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A44,'BY-RSD'!$C$2:$C$500,Veda_Tables!G44,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="B45" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="F45" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>*</v>
-      </c>
-      <c r="G45" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>R-SH*Apt*HET*</v>
-      </c>
-      <c r="H45" s="34" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A45,'BY-RSD'!$C$2:$C$500,Veda_Tables!G45,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="B46" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="F46" s="35" t="str">
-        <f t="shared" si="1"/>
-        <v>*</v>
-      </c>
-      <c r="G46" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>R-SC*Apt*ELC*</v>
-      </c>
-      <c r="H46" s="36" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A46,'BY-RSD'!$C$2:$C$500,Veda_Tables!G46,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="D47" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="F47" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v>*</v>
-      </c>
-      <c r="G47" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>R-WH*Apt*LPG*</v>
-      </c>
-      <c r="H47" s="32" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A47,'BY-RSD'!$C$2:$C$500,Veda_Tables!G47,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B48" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="D48" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="F48" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v>*</v>
-      </c>
-      <c r="G48" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>R-WH*Apt*KER*</v>
-      </c>
-      <c r="H48" s="32" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A48,'BY-RSD'!$C$2:$C$500,Veda_Tables!G48,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="D49" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="F49" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v>*</v>
-      </c>
-      <c r="G49" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>R-WH*Apt*GAS*</v>
-      </c>
-      <c r="H49" s="32" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A49,'BY-RSD'!$C$2:$C$500,Veda_Tables!G49,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B50" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="D50" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="F50" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v>*</v>
-      </c>
-      <c r="G50" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>R-WH*Apt*ELC*</v>
-      </c>
-      <c r="H50" s="32" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A50,'BY-RSD'!$C$2:$C$500,Veda_Tables!G50,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="D51" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="F51" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v>*</v>
-      </c>
-      <c r="G51" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>R-WH*Apt*GEO*</v>
-      </c>
-      <c r="H51" s="32" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A51,'BY-RSD'!$C$2:$C$500,Veda_Tables!G51,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="B52" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="F52" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>*</v>
-      </c>
-      <c r="G52" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>R-WH*Apt*SOL*</v>
-      </c>
-      <c r="H52" s="34" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A52,'BY-RSD'!$C$2:$C$500,Veda_Tables!G52,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B53" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="C53" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D53" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="F53" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v>*</v>
-      </c>
-      <c r="G53" s="26" t="str">
-        <f t="shared" ref="G53:G60" si="2">"R-"&amp;$B53&amp;"*"&amp;$C53&amp;"*"&amp;G$2&amp;"*"&amp;$D53&amp;"*"</f>
-        <v>R-CK*FH*Apt*LPG*</v>
-      </c>
-      <c r="H53" s="32" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A53,'BY-RSD'!$C$2:$C$500,Veda_Tables!G53,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B54" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="C54" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D54" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="F54" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v>*</v>
-      </c>
-      <c r="G54" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>R-CK*FH*Apt*GAS*</v>
-      </c>
-      <c r="H54" s="32" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A54,'BY-RSD'!$C$2:$C$500,Veda_Tables!G54,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B55" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="C55" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D55" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="F55" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v>*</v>
-      </c>
-      <c r="G55" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>R-CK*FH*Apt*ELC*</v>
-      </c>
-      <c r="H55" s="32" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A55,'BY-RSD'!$C$2:$C$500,Veda_Tables!G55,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B56" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="C56" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="D56" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="F56" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v>*</v>
-      </c>
-      <c r="G56" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>R-CK*AB*Apt*LPG*</v>
-      </c>
-      <c r="H56" s="32" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A56,'BY-RSD'!$C$2:$C$500,Veda_Tables!G56,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="C57" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="D57" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="F57" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v>*</v>
-      </c>
-      <c r="G57" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>R-CK*AB*Apt*GAS*</v>
-      </c>
-      <c r="H57" s="32" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A57,'BY-RSD'!$C$2:$C$500,Veda_Tables!G57,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="B58" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="C58" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="D58" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="F58" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>*</v>
-      </c>
-      <c r="G58" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>R-CK*AB*Apt*ELC*</v>
-      </c>
-      <c r="H58" s="34" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A58,'BY-RSD'!$C$2:$C$500,Veda_Tables!G58,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B59" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="C59" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D59" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="F59" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v>*</v>
-      </c>
-      <c r="G59" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>R-LIG*FH*Apt*ELC*</v>
-      </c>
-      <c r="H59" s="32" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A59,'BY-RSD'!$C$2:$C$500,Veda_Tables!G59,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="B60" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="C60" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="D60" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="F60" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>*</v>
-      </c>
-      <c r="G60" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>R-LIG*AB*Apt*ELC*</v>
-      </c>
-      <c r="H60" s="34" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD'!$L$2:$L$500,'BY-RSD'!$B$2:$B$500,Veda_Tables!$A60,'BY-RSD'!$C$2:$C$500,Veda_Tables!G60,'BY-RSD'!$A$2:$A$500,"BASE"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H61" s="32"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H62" s="32"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H63" s="32"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H64" s="32"/>
-    </row>
-    <row r="65" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H65" s="32"/>
-    </row>
-    <row r="66" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H66" s="32"/>
-    </row>
-    <row r="67" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H67" s="32"/>
-    </row>
-    <row r="68" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H68" s="32"/>
-    </row>
-    <row r="69" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H69" s="32"/>
-    </row>
-    <row r="70" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H70" s="32"/>
-    </row>
-    <row r="71" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H71" s="32"/>
-    </row>
-    <row r="72" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H72" s="32"/>
-    </row>
-    <row r="73" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H73" s="32"/>
-    </row>
-    <row r="74" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H74" s="32"/>
-    </row>
-    <row r="75" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H75" s="32"/>
-    </row>
-    <row r="76" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H76" s="32"/>
-    </row>
-    <row r="77" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H77" s="32"/>
-    </row>
-    <row r="78" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H78" s="32"/>
+      <c r="H75" s="32" t="str">
+        <f t="shared" si="8"/>
+        <v>R-SH-Det_ELC*</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A76" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B76" s="33" t="str">
+        <f>"R-WH-"&amp;F76&amp;"_"&amp;G76&amp;"*"</f>
+        <v>R-WH-Det_OILKER*</v>
+      </c>
+      <c r="C76" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="D76" s="33"/>
+      <c r="F76" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="G76" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H76" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>R-SH-Det_OILKER*</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A77" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B77" s="32" t="str">
+        <f>"R-WH-"&amp;F77&amp;"_"&amp;G77&amp;"*"</f>
+        <v>R-WH-Det_GASNAT*</v>
+      </c>
+      <c r="C77" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D77" s="32"/>
+      <c r="F77" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G77" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="H77" s="32" t="str">
+        <f>"R-SH-"&amp;F76&amp;"_"&amp;G77&amp;"*"</f>
+        <v>R-SH-Det_GASNAT*</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A78" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B78" s="33" t="str">
+        <f>"R-WH-"&amp;F78&amp;"_"&amp;G78&amp;"*"</f>
+        <v>R-WH-Det_PEA*</v>
+      </c>
+      <c r="C78" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="D78" s="33"/>
+      <c r="F78" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="G78" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="H78" s="33" t="str">
+        <f t="shared" ref="H78:H82" si="9">"R-SH-"&amp;F78&amp;"_"&amp;G78&amp;"*"</f>
+        <v>R-SH-Det_PEA*</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A79" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B79" s="32" t="str">
+        <f>"R-WH-"&amp;F79&amp;"_"&amp;G79&amp;"*"</f>
+        <v>R-WH-Det_SMF*</v>
+      </c>
+      <c r="C79" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D79" s="32"/>
+      <c r="F79" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G79" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="H79" s="32" t="str">
+        <f t="shared" si="9"/>
+        <v>R-SH-Det_SMF*</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A80" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B80" s="33" t="str">
+        <f>"R-WH-"&amp;F80&amp;"_"&amp;G80&amp;"*"</f>
+        <v>R-WH-Det_BIOWOO*</v>
+      </c>
+      <c r="C80" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="D80" s="33"/>
+      <c r="F80" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="G80" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="H80" s="33" t="str">
+        <f t="shared" si="9"/>
+        <v>R-SH-Det_BIOWOO*</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A81" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B81" s="32" t="str">
+        <f>"R-WH-"&amp;F81&amp;"_"&amp;G81&amp;"*"</f>
+        <v>R-WH-Det_HET*</v>
+      </c>
+      <c r="C81" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D81" s="32"/>
+      <c r="F81" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G81" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="H81" s="32" t="str">
+        <f t="shared" si="9"/>
+        <v>R-SH-Det_HET*</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A82" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B82" s="33" t="str">
+        <f>"R-WH-"&amp;F82&amp;"_"&amp;G82&amp;"*"</f>
+        <v>R-WH-Det_RENGEO*</v>
+      </c>
+      <c r="C82" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="D82" s="33"/>
+      <c r="F82" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="G82" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="H82" s="33" t="str">
+        <f t="shared" si="9"/>
+        <v>R-SH-Det_RENGEO*</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31CDF0BF-0C91-4CE2-B5CF-56AFF1A290A3}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="9.140625" style="8"/>
-    <col min="3" max="3" width="21.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="8" customWidth="1"/>
-    <col min="5" max="6" width="11.5703125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="8"/>
-    <col min="8" max="8" width="19.42578125" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="8"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/SubRES_TMPL/SubRes_RSD_Trans.xlsx
+++ b/SubRES_TMPL/SubRes_RSD_Trans.xlsx
@@ -5,40 +5,51 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\~g2v_Irish-TIMES-model\rsd-subres\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC953517-CA9B-4A2C-A7BA-7C53833A3588}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2583FF32-CDE4-4492-824C-DE517D7656E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="819" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{000C143C-CDF2-4B54-8925-7EB8533449BA}"/>
+    <workbookView xWindow="3975" yWindow="2880" windowWidth="21600" windowHeight="11385" tabRatio="819" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Regions" sheetId="46" r:id="rId1"/>
-    <sheet name="TechSelection" sheetId="34" r:id="rId2"/>
-    <sheet name="FillTable" sheetId="47" r:id="rId3"/>
-    <sheet name="AF" sheetId="48" r:id="rId4"/>
+    <sheet name="BY-RSD-OE" sheetId="59" r:id="rId1"/>
+    <sheet name="Regions" sheetId="46" r:id="rId2"/>
+    <sheet name="TechSelection" sheetId="34" r:id="rId3"/>
+    <sheet name="FillTable" sheetId="47" r:id="rId4"/>
+    <sheet name="AF" sheetId="48" r:id="rId5"/>
+    <sheet name="BY-RSD-OA" sheetId="58" r:id="rId6"/>
+    <sheet name="BY-RSD-DW" sheetId="57" r:id="rId7"/>
+    <sheet name="BY-RSD-PF" sheetId="56" r:id="rId8"/>
+    <sheet name="BY-RSD-CD" sheetId="55" r:id="rId9"/>
+    <sheet name="BY-RSD-LT" sheetId="54" r:id="rId10"/>
+    <sheet name="BY-RSD-CW" sheetId="53" r:id="rId11"/>
+    <sheet name="BY-RSD-CK" sheetId="52" r:id="rId12"/>
+    <sheet name="BY-RSD-WH_AF" sheetId="51" r:id="rId13"/>
+    <sheet name="BY-RSD-RF" sheetId="50" r:id="rId14"/>
+    <sheet name="BY-RSD-SH_AF" sheetId="49" r:id="rId15"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId16"/>
+    <externalReference r:id="rId17"/>
   </externalReferences>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
     <definedName name="_Regression_Y" hidden="1">#REF!</definedName>
-    <definedName name="aa" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="aa" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="aa" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="elec" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="elec2" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec2" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="elec3" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec3" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="elecc" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elecc" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elecc" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
-    <definedName name="table6" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="table6" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="table6" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="wrn.Electricity._.Questionnaire." localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="wrn.Electricity._.Questionnaire." localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="wrn.Electricity._.Questionnaire." hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -157,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="240">
   <si>
     <t>IE</t>
   </si>
@@ -489,9 +500,6 @@
     <t>R-RSDOE*</t>
   </si>
   <si>
-    <t>~TFM_Fill-R: w=BY-RSD-OA; Hcol=Region</t>
-  </si>
-  <si>
     <t>R-RSDOA*</t>
   </si>
   <si>
@@ -516,9 +524,6 @@
     <t>**~TFM_Fill-R: w=BY-RSD-SC_AF; Hcol=Region</t>
   </si>
   <si>
-    <t>**~TFM_Fill-R: w=BY-RSD-OE; Hcol=Region</t>
-  </si>
-  <si>
     <t>Apt</t>
   </si>
   <si>
@@ -570,24 +575,6 @@
     <t>RSDSH_Att</t>
   </si>
   <si>
-    <t>RSDLT_Apt</t>
-  </si>
-  <si>
-    <t>RSDLT_Att</t>
-  </si>
-  <si>
-    <t>RSDLT_Det</t>
-  </si>
-  <si>
-    <t>RSDPF_Apt</t>
-  </si>
-  <si>
-    <t>RSDPF_Att</t>
-  </si>
-  <si>
-    <t>RSDPF_Det</t>
-  </si>
-  <si>
     <t>*Apartment Water Heat</t>
   </si>
   <si>
@@ -601,12 +588,333 @@
   </si>
   <si>
     <t>~TFM_Fill-R: w=BY-RSD-PF; Hcol=Region</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>lim_type</t>
+  </si>
+  <si>
+    <t>time_slice</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>commodity_group</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>sow</t>
+  </si>
+  <si>
+    <t>R-SH_Apt_BIODST_X0</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>R-SH_Apt_BIOETH_X0</t>
+  </si>
+  <si>
+    <t>R-SH_Apt_BIOWOO_X0</t>
+  </si>
+  <si>
+    <t>R-SH_Apt_COA_X0</t>
+  </si>
+  <si>
+    <t>R-SH_Apt_ELC_X0</t>
+  </si>
+  <si>
+    <t>R-SH_Apt_ELC_X1</t>
+  </si>
+  <si>
+    <t>R-SH_Apt_GASNAT_X0</t>
+  </si>
+  <si>
+    <t>R-SH_Apt_HET_X0</t>
+  </si>
+  <si>
+    <t>R-SH_Apt_OILKER_X0</t>
+  </si>
+  <si>
+    <t>R-SH_Apt_OILLPG_X0</t>
+  </si>
+  <si>
+    <t>R-SH_Apt_PEA_X0</t>
+  </si>
+  <si>
+    <t>R-SH_Apt_RENGEO_X0</t>
+  </si>
+  <si>
+    <t>R-SH_Apt_SMF_X0</t>
+  </si>
+  <si>
+    <t>R-SH_Att_BIODST_X0</t>
+  </si>
+  <si>
+    <t>R-SH_Att_BIOETH_X0</t>
+  </si>
+  <si>
+    <t>R-SH_Att_BIOWOO_X0</t>
+  </si>
+  <si>
+    <t>R-SH_Att_COA_X0</t>
+  </si>
+  <si>
+    <t>R-SH_Att_ELC_X0</t>
+  </si>
+  <si>
+    <t>R-SH_Att_ELC_X1</t>
+  </si>
+  <si>
+    <t>R-SH_Att_GASNAT_X0</t>
+  </si>
+  <si>
+    <t>R-SH_Att_HET_X0</t>
+  </si>
+  <si>
+    <t>R-SH_Att_OILKER_X0</t>
+  </si>
+  <si>
+    <t>R-SH_Att_OILLPG_X0</t>
+  </si>
+  <si>
+    <t>R-SH_Att_PEA_X0</t>
+  </si>
+  <si>
+    <t>R-SH_Att_RENGEO_X0</t>
+  </si>
+  <si>
+    <t>R-SH_Att_SMF_X0</t>
+  </si>
+  <si>
+    <t>R-SH_Det_BIODST_X0</t>
+  </si>
+  <si>
+    <t>R-SH_Det_BIOETH_X0</t>
+  </si>
+  <si>
+    <t>R-SH_Det_BIOWOO_X0</t>
+  </si>
+  <si>
+    <t>R-SH_Det_COA_X0</t>
+  </si>
+  <si>
+    <t>R-SH_Det_ELC_X0</t>
+  </si>
+  <si>
+    <t>R-SH_Det_ELC_X1</t>
+  </si>
+  <si>
+    <t>R-SH_Det_GASNAT_X0</t>
+  </si>
+  <si>
+    <t>R-SH_Det_HET_X0</t>
+  </si>
+  <si>
+    <t>R-SH_Det_OILKER_X0</t>
+  </si>
+  <si>
+    <t>R-SH_Det_OILLPG_X0</t>
+  </si>
+  <si>
+    <t>R-SH_Det_PEA_X0</t>
+  </si>
+  <si>
+    <t>R-SH_Det_RENGEO_X0</t>
+  </si>
+  <si>
+    <t>R-SH_Det_SMF_X0</t>
+  </si>
+  <si>
+    <t>R-RSDRF_X0</t>
+  </si>
+  <si>
+    <t>R-WH_Apt_BIODST_X0</t>
+  </si>
+  <si>
+    <t>R-WH_Apt_BIOETH_X0</t>
+  </si>
+  <si>
+    <t>R-WH_Apt_BIOWOO_X0</t>
+  </si>
+  <si>
+    <t>R-WH_Apt_COA_X0</t>
+  </si>
+  <si>
+    <t>R-WH_Apt_ELC_X0</t>
+  </si>
+  <si>
+    <t>R-WH_Apt_ELC_X1</t>
+  </si>
+  <si>
+    <t>R-WH_Apt_GASNAT_X0</t>
+  </si>
+  <si>
+    <t>R-WH_Apt_HET_X0</t>
+  </si>
+  <si>
+    <t>R-WH_Apt_OILKER_X0</t>
+  </si>
+  <si>
+    <t>R-WH_Apt_OILLPG_X0</t>
+  </si>
+  <si>
+    <t>R-WH_Apt_PEA_X0</t>
+  </si>
+  <si>
+    <t>R-WH_Apt_RENSOL_X0</t>
+  </si>
+  <si>
+    <t>R-WH_Apt_SMF_X0</t>
+  </si>
+  <si>
+    <t>R-WH_Att_BIODST_X0</t>
+  </si>
+  <si>
+    <t>R-WH_Att_BIOETH_X0</t>
+  </si>
+  <si>
+    <t>R-WH_Att_BIOWOO_X0</t>
+  </si>
+  <si>
+    <t>R-WH_Att_COA_X0</t>
+  </si>
+  <si>
+    <t>R-WH_Att_ELC_X0</t>
+  </si>
+  <si>
+    <t>R-WH_Att_ELC_X1</t>
+  </si>
+  <si>
+    <t>R-WH_Att_GASNAT_X0</t>
+  </si>
+  <si>
+    <t>R-WH_Att_HET_X0</t>
+  </si>
+  <si>
+    <t>R-WH_Att_OILKER_X0</t>
+  </si>
+  <si>
+    <t>R-WH_Att_OILLPG_X0</t>
+  </si>
+  <si>
+    <t>R-WH_Att_PEA_X0</t>
+  </si>
+  <si>
+    <t>R-WH_Att_RENSOL_X0</t>
+  </si>
+  <si>
+    <t>R-WH_Att_SMF_X0</t>
+  </si>
+  <si>
+    <t>R-WH_Det_BIODST_X0</t>
+  </si>
+  <si>
+    <t>R-WH_Det_BIOETH_X0</t>
+  </si>
+  <si>
+    <t>R-WH_Det_BIOWOO_X0</t>
+  </si>
+  <si>
+    <t>R-WH_Det_COA_X0</t>
+  </si>
+  <si>
+    <t>R-WH_Det_ELC_X0</t>
+  </si>
+  <si>
+    <t>R-WH_Det_ELC_X1</t>
+  </si>
+  <si>
+    <t>R-WH_Det_GASNAT_X0</t>
+  </si>
+  <si>
+    <t>R-WH_Det_HET_X0</t>
+  </si>
+  <si>
+    <t>R-WH_Det_OILKER_X0</t>
+  </si>
+  <si>
+    <t>R-WH_Det_OILLPG_X0</t>
+  </si>
+  <si>
+    <t>R-WH_Det_PEA_X0</t>
+  </si>
+  <si>
+    <t>R-WH_Det_RENSOL_X0</t>
+  </si>
+  <si>
+    <t>R-WH_Det_SMF_X0</t>
+  </si>
+  <si>
+    <t>R-RSDCK_X0</t>
+  </si>
+  <si>
+    <t>R-RSDCW_X0</t>
+  </si>
+  <si>
+    <t>R-LT_Apt_X0</t>
+  </si>
+  <si>
+    <t>R-LT_Att_X0</t>
+  </si>
+  <si>
+    <t>R-LT_Det_X0</t>
+  </si>
+  <si>
+    <t>R-RSDCD_X0</t>
+  </si>
+  <si>
+    <t>R-PF_Apt_X0</t>
+  </si>
+  <si>
+    <t>R-PF_Att_X0</t>
+  </si>
+  <si>
+    <t>R-PF_Det_X0</t>
+  </si>
+  <si>
+    <t>R-RSDDW_X0</t>
+  </si>
+  <si>
+    <t>R-RSDOA_X0</t>
+  </si>
+  <si>
+    <t>~TFM_Fill-R: w=BY-RSD-OE; Hcol=Region</t>
+  </si>
+  <si>
+    <t>**~TFM_Fill-R: w=BY-RSD-OA; Hcol=Region</t>
+  </si>
+  <si>
+    <t>R-RSDOE_X0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -847,7 +1155,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -927,6 +1235,8 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -975,7 +1285,7 @@
                   <a14:compatExt spid="_x0000_s89089"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000015C0100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000015C0100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1143,6 +1453,19 @@
       <sheetData sheetId="56"/>
       <sheetData sheetId="57"/>
       <sheetData sheetId="58"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="BY-RSD-OE"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1468,6 +1791,3878 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA0718C5-D068-4563-B06A-974D1CF3294C}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2">
+        <v>2018</v>
+      </c>
+      <c r="H2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K2" t="s">
+        <v>146</v>
+      </c>
+      <c r="L2">
+        <v>7.5148092892872798E-3</v>
+      </c>
+      <c r="M2">
+        <v>7.5148092892872798E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A33C8A0-6F39-4FB7-B653-B5172ACE9A22}">
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2">
+        <v>2018</v>
+      </c>
+      <c r="H2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K2" t="s">
+        <v>146</v>
+      </c>
+      <c r="L2">
+        <v>1.6114677026113401E-3</v>
+      </c>
+      <c r="M2">
+        <v>1.6114677026113401E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3">
+        <v>2018</v>
+      </c>
+      <c r="H3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J3" t="s">
+        <v>146</v>
+      </c>
+      <c r="K3" t="s">
+        <v>146</v>
+      </c>
+      <c r="L3">
+        <v>2.287177034804E-3</v>
+      </c>
+      <c r="M3">
+        <v>2.287177034804E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4">
+        <v>2018</v>
+      </c>
+      <c r="H4" t="s">
+        <v>146</v>
+      </c>
+      <c r="I4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J4" t="s">
+        <v>146</v>
+      </c>
+      <c r="K4" t="s">
+        <v>146</v>
+      </c>
+      <c r="L4">
+        <v>3.76745947904644E-3</v>
+      </c>
+      <c r="M4">
+        <v>3.76745947904644E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667C97CC-9D61-4655-83D0-3753B9DE28B3}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2">
+        <v>2018</v>
+      </c>
+      <c r="H2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K2" t="s">
+        <v>146</v>
+      </c>
+      <c r="L2">
+        <v>9.5142857142857095E-4</v>
+      </c>
+      <c r="M2">
+        <v>9.5142857142857095E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDAFE0BD-7396-4A40-957F-AD6D95EB14F4}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2">
+        <v>2018</v>
+      </c>
+      <c r="H2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K2" t="s">
+        <v>146</v>
+      </c>
+      <c r="L2">
+        <v>2.2478349106259698E-3</v>
+      </c>
+      <c r="M2">
+        <v>2.2478349106259698E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA50F32-E436-476D-84C9-138A2A28BC35}">
+  <dimension ref="A1:M40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2">
+        <v>2018</v>
+      </c>
+      <c r="H2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K2" t="s">
+        <v>146</v>
+      </c>
+      <c r="L2">
+        <v>7.1004600000000003E-3</v>
+      </c>
+      <c r="M2">
+        <v>7.1004600000000003E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3">
+        <v>2018</v>
+      </c>
+      <c r="H3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J3" t="s">
+        <v>146</v>
+      </c>
+      <c r="K3" t="s">
+        <v>146</v>
+      </c>
+      <c r="L3">
+        <v>8.5546800000000003E-3</v>
+      </c>
+      <c r="M3">
+        <v>8.5546800000000003E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4">
+        <v>2018</v>
+      </c>
+      <c r="H4" t="s">
+        <v>146</v>
+      </c>
+      <c r="I4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J4" t="s">
+        <v>146</v>
+      </c>
+      <c r="K4" t="s">
+        <v>146</v>
+      </c>
+      <c r="L4">
+        <v>7.6632802703553099E-3</v>
+      </c>
+      <c r="M4">
+        <v>7.6632802703553099E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5">
+        <v>2018</v>
+      </c>
+      <c r="H5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J5" t="s">
+        <v>146</v>
+      </c>
+      <c r="K5" t="s">
+        <v>146</v>
+      </c>
+      <c r="L5">
+        <v>6.3768329096572304E-3</v>
+      </c>
+      <c r="M5">
+        <v>6.3768329096572304E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G6">
+        <v>2018</v>
+      </c>
+      <c r="H6" t="s">
+        <v>146</v>
+      </c>
+      <c r="I6" t="s">
+        <v>146</v>
+      </c>
+      <c r="J6" t="s">
+        <v>146</v>
+      </c>
+      <c r="K6" t="s">
+        <v>146</v>
+      </c>
+      <c r="L6">
+        <v>8.4736052016827299E-3</v>
+      </c>
+      <c r="M6">
+        <v>8.4736052016827299E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G7">
+        <v>2018</v>
+      </c>
+      <c r="H7" t="s">
+        <v>146</v>
+      </c>
+      <c r="I7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L7">
+        <v>3.6997794108646502E-2</v>
+      </c>
+      <c r="M7">
+        <v>3.6997794108646502E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G8">
+        <v>2018</v>
+      </c>
+      <c r="H8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I8" t="s">
+        <v>146</v>
+      </c>
+      <c r="J8" t="s">
+        <v>146</v>
+      </c>
+      <c r="K8" t="s">
+        <v>146</v>
+      </c>
+      <c r="L8">
+        <v>7.0999155767537403E-3</v>
+      </c>
+      <c r="M8">
+        <v>7.0999155767537403E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9">
+        <v>2018</v>
+      </c>
+      <c r="H9" t="s">
+        <v>146</v>
+      </c>
+      <c r="I9" t="s">
+        <v>146</v>
+      </c>
+      <c r="J9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K9" t="s">
+        <v>146</v>
+      </c>
+      <c r="L9">
+        <v>3.0627633026508998E-4</v>
+      </c>
+      <c r="M9">
+        <v>3.0627633026508998E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10">
+        <v>2018</v>
+      </c>
+      <c r="H10" t="s">
+        <v>146</v>
+      </c>
+      <c r="I10" t="s">
+        <v>146</v>
+      </c>
+      <c r="J10" t="s">
+        <v>146</v>
+      </c>
+      <c r="K10" t="s">
+        <v>146</v>
+      </c>
+      <c r="L10">
+        <v>8.6288756048648694E-3</v>
+      </c>
+      <c r="M10">
+        <v>8.6288756048648694E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" t="s">
+        <v>146</v>
+      </c>
+      <c r="G11">
+        <v>2018</v>
+      </c>
+      <c r="H11" t="s">
+        <v>146</v>
+      </c>
+      <c r="I11" t="s">
+        <v>146</v>
+      </c>
+      <c r="J11" t="s">
+        <v>146</v>
+      </c>
+      <c r="K11" t="s">
+        <v>146</v>
+      </c>
+      <c r="L11">
+        <v>8.8234631689712503E-3</v>
+      </c>
+      <c r="M11">
+        <v>8.8234631689712503E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12">
+        <v>2018</v>
+      </c>
+      <c r="H12" t="s">
+        <v>146</v>
+      </c>
+      <c r="I12" t="s">
+        <v>146</v>
+      </c>
+      <c r="J12" t="s">
+        <v>146</v>
+      </c>
+      <c r="K12" t="s">
+        <v>146</v>
+      </c>
+      <c r="L12">
+        <v>8.5740576923076899E-3</v>
+      </c>
+      <c r="M12">
+        <v>8.5740576923076899E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13">
+        <v>2018</v>
+      </c>
+      <c r="H13" t="s">
+        <v>146</v>
+      </c>
+      <c r="I13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" t="s">
+        <v>146</v>
+      </c>
+      <c r="L13">
+        <v>8.6298729994523198E-3</v>
+      </c>
+      <c r="M13">
+        <v>8.6298729994523198E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14">
+        <v>2018</v>
+      </c>
+      <c r="H14" t="s">
+        <v>146</v>
+      </c>
+      <c r="I14" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14">
+        <v>8.5332927933924694E-3</v>
+      </c>
+      <c r="M14">
+        <v>8.5332927933924694E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15">
+        <v>2018</v>
+      </c>
+      <c r="H15" t="s">
+        <v>146</v>
+      </c>
+      <c r="I15" t="s">
+        <v>146</v>
+      </c>
+      <c r="J15" t="s">
+        <v>146</v>
+      </c>
+      <c r="K15" t="s">
+        <v>146</v>
+      </c>
+      <c r="L15">
+        <v>1.40208E-2</v>
+      </c>
+      <c r="M15">
+        <v>1.40208E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
+        <v>201</v>
+      </c>
+      <c r="D16" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16">
+        <v>2018</v>
+      </c>
+      <c r="H16" t="s">
+        <v>146</v>
+      </c>
+      <c r="I16" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" t="s">
+        <v>146</v>
+      </c>
+      <c r="K16" t="s">
+        <v>146</v>
+      </c>
+      <c r="L16">
+        <v>1.059804E-2</v>
+      </c>
+      <c r="M16">
+        <v>1.059804E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" t="s">
+        <v>202</v>
+      </c>
+      <c r="D17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17">
+        <v>2018</v>
+      </c>
+      <c r="H17" t="s">
+        <v>146</v>
+      </c>
+      <c r="I17" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" t="s">
+        <v>146</v>
+      </c>
+      <c r="K17" t="s">
+        <v>146</v>
+      </c>
+      <c r="L17">
+        <v>8.8655256033915893E-3</v>
+      </c>
+      <c r="M17">
+        <v>8.8655256033915893E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>203</v>
+      </c>
+      <c r="D18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18">
+        <v>2018</v>
+      </c>
+      <c r="H18" t="s">
+        <v>146</v>
+      </c>
+      <c r="I18" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18" t="s">
+        <v>146</v>
+      </c>
+      <c r="K18" t="s">
+        <v>146</v>
+      </c>
+      <c r="L18">
+        <v>9.3819421193711804E-3</v>
+      </c>
+      <c r="M18">
+        <v>9.3819421193711804E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
+        <v>204</v>
+      </c>
+      <c r="D19" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G19">
+        <v>2018</v>
+      </c>
+      <c r="H19" t="s">
+        <v>146</v>
+      </c>
+      <c r="I19" t="s">
+        <v>146</v>
+      </c>
+      <c r="J19" t="s">
+        <v>146</v>
+      </c>
+      <c r="K19" t="s">
+        <v>146</v>
+      </c>
+      <c r="L19">
+        <v>1.29275684703049E-2</v>
+      </c>
+      <c r="M19">
+        <v>1.29275684703049E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
+        <v>205</v>
+      </c>
+      <c r="D20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" t="s">
+        <v>147</v>
+      </c>
+      <c r="F20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G20">
+        <v>2018</v>
+      </c>
+      <c r="H20" t="s">
+        <v>146</v>
+      </c>
+      <c r="I20" t="s">
+        <v>146</v>
+      </c>
+      <c r="J20" t="s">
+        <v>146</v>
+      </c>
+      <c r="K20" t="s">
+        <v>146</v>
+      </c>
+      <c r="L20">
+        <v>2.3641548707263999E-2</v>
+      </c>
+      <c r="M20">
+        <v>2.3641548707263999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" t="s">
+        <v>147</v>
+      </c>
+      <c r="F21" t="s">
+        <v>146</v>
+      </c>
+      <c r="G21">
+        <v>2018</v>
+      </c>
+      <c r="H21" t="s">
+        <v>146</v>
+      </c>
+      <c r="I21" t="s">
+        <v>146</v>
+      </c>
+      <c r="J21" t="s">
+        <v>146</v>
+      </c>
+      <c r="K21" t="s">
+        <v>146</v>
+      </c>
+      <c r="L21">
+        <v>9.2067094002643308E-3</v>
+      </c>
+      <c r="M21">
+        <v>9.2067094002643308E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" t="s">
+        <v>146</v>
+      </c>
+      <c r="G22">
+        <v>2018</v>
+      </c>
+      <c r="H22" t="s">
+        <v>146</v>
+      </c>
+      <c r="I22" t="s">
+        <v>146</v>
+      </c>
+      <c r="J22" t="s">
+        <v>146</v>
+      </c>
+      <c r="K22" t="s">
+        <v>146</v>
+      </c>
+      <c r="L22">
+        <v>7.6939300464232304E-4</v>
+      </c>
+      <c r="M22">
+        <v>7.6939300464232304E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" t="s">
+        <v>208</v>
+      </c>
+      <c r="D23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" t="s">
+        <v>147</v>
+      </c>
+      <c r="F23" t="s">
+        <v>146</v>
+      </c>
+      <c r="G23">
+        <v>2018</v>
+      </c>
+      <c r="H23" t="s">
+        <v>146</v>
+      </c>
+      <c r="I23" t="s">
+        <v>146</v>
+      </c>
+      <c r="J23" t="s">
+        <v>146</v>
+      </c>
+      <c r="K23" t="s">
+        <v>146</v>
+      </c>
+      <c r="L23">
+        <v>9.4091382425110903E-3</v>
+      </c>
+      <c r="M23">
+        <v>9.4091382425110903E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" t="s">
+        <v>209</v>
+      </c>
+      <c r="D24" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24" t="s">
+        <v>146</v>
+      </c>
+      <c r="G24">
+        <v>2018</v>
+      </c>
+      <c r="H24" t="s">
+        <v>146</v>
+      </c>
+      <c r="I24" t="s">
+        <v>146</v>
+      </c>
+      <c r="J24" t="s">
+        <v>146</v>
+      </c>
+      <c r="K24" t="s">
+        <v>146</v>
+      </c>
+      <c r="L24">
+        <v>1.1663366309857801E-2</v>
+      </c>
+      <c r="M24">
+        <v>1.1663366309857801E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>210</v>
+      </c>
+      <c r="D25" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" t="s">
+        <v>147</v>
+      </c>
+      <c r="F25" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25">
+        <v>2018</v>
+      </c>
+      <c r="H25" t="s">
+        <v>146</v>
+      </c>
+      <c r="I25" t="s">
+        <v>146</v>
+      </c>
+      <c r="J25" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" t="s">
+        <v>146</v>
+      </c>
+      <c r="L25">
+        <v>1.08711386313101E-2</v>
+      </c>
+      <c r="M25">
+        <v>1.08711386313101E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s">
+        <v>211</v>
+      </c>
+      <c r="D26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" t="s">
+        <v>146</v>
+      </c>
+      <c r="G26">
+        <v>2018</v>
+      </c>
+      <c r="H26" t="s">
+        <v>146</v>
+      </c>
+      <c r="I26" t="s">
+        <v>146</v>
+      </c>
+      <c r="J26" t="s">
+        <v>146</v>
+      </c>
+      <c r="K26" t="s">
+        <v>146</v>
+      </c>
+      <c r="L26">
+        <v>3.4409606285151599E-2</v>
+      </c>
+      <c r="M26">
+        <v>3.4409606285151599E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>212</v>
+      </c>
+      <c r="D27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" t="s">
+        <v>147</v>
+      </c>
+      <c r="F27" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27">
+        <v>2018</v>
+      </c>
+      <c r="H27" t="s">
+        <v>146</v>
+      </c>
+      <c r="I27" t="s">
+        <v>146</v>
+      </c>
+      <c r="J27" t="s">
+        <v>146</v>
+      </c>
+      <c r="K27" t="s">
+        <v>146</v>
+      </c>
+      <c r="L27">
+        <v>9.3095279184719493E-3</v>
+      </c>
+      <c r="M27">
+        <v>9.3095279184719493E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>213</v>
+      </c>
+      <c r="D28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" t="s">
+        <v>147</v>
+      </c>
+      <c r="F28" t="s">
+        <v>146</v>
+      </c>
+      <c r="G28">
+        <v>2018</v>
+      </c>
+      <c r="H28" t="s">
+        <v>146</v>
+      </c>
+      <c r="I28" t="s">
+        <v>146</v>
+      </c>
+      <c r="J28" t="s">
+        <v>146</v>
+      </c>
+      <c r="K28" t="s">
+        <v>146</v>
+      </c>
+      <c r="L28">
+        <v>1.0679040000000001E-2</v>
+      </c>
+      <c r="M28">
+        <v>1.0679040000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" t="s">
+        <v>214</v>
+      </c>
+      <c r="D29" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" t="s">
+        <v>147</v>
+      </c>
+      <c r="F29" t="s">
+        <v>146</v>
+      </c>
+      <c r="G29">
+        <v>2018</v>
+      </c>
+      <c r="H29" t="s">
+        <v>146</v>
+      </c>
+      <c r="I29" t="s">
+        <v>146</v>
+      </c>
+      <c r="J29" t="s">
+        <v>146</v>
+      </c>
+      <c r="K29" t="s">
+        <v>146</v>
+      </c>
+      <c r="L29">
+        <v>1.2096539999999999E-2</v>
+      </c>
+      <c r="M29">
+        <v>1.2096539999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" t="s">
+        <v>215</v>
+      </c>
+      <c r="D30" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" t="s">
+        <v>147</v>
+      </c>
+      <c r="F30" t="s">
+        <v>146</v>
+      </c>
+      <c r="G30">
+        <v>2018</v>
+      </c>
+      <c r="H30" t="s">
+        <v>146</v>
+      </c>
+      <c r="I30" t="s">
+        <v>146</v>
+      </c>
+      <c r="J30" t="s">
+        <v>146</v>
+      </c>
+      <c r="K30" t="s">
+        <v>146</v>
+      </c>
+      <c r="L30">
+        <v>1.27164544907902E-2</v>
+      </c>
+      <c r="M30">
+        <v>1.27164544907902E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" t="s">
+        <v>216</v>
+      </c>
+      <c r="D31" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" t="s">
+        <v>147</v>
+      </c>
+      <c r="F31" t="s">
+        <v>146</v>
+      </c>
+      <c r="G31">
+        <v>2018</v>
+      </c>
+      <c r="H31" t="s">
+        <v>146</v>
+      </c>
+      <c r="I31" t="s">
+        <v>146</v>
+      </c>
+      <c r="J31" t="s">
+        <v>146</v>
+      </c>
+      <c r="K31" t="s">
+        <v>146</v>
+      </c>
+      <c r="L31">
+        <v>1.13737894552843E-2</v>
+      </c>
+      <c r="M31">
+        <v>1.13737894552843E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" t="s">
+        <v>217</v>
+      </c>
+      <c r="D32" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32" t="s">
+        <v>147</v>
+      </c>
+      <c r="F32" t="s">
+        <v>146</v>
+      </c>
+      <c r="G32">
+        <v>2018</v>
+      </c>
+      <c r="H32" t="s">
+        <v>146</v>
+      </c>
+      <c r="I32" t="s">
+        <v>146</v>
+      </c>
+      <c r="J32" t="s">
+        <v>146</v>
+      </c>
+      <c r="K32" t="s">
+        <v>146</v>
+      </c>
+      <c r="L32">
+        <v>1.33284867630703E-2</v>
+      </c>
+      <c r="M32">
+        <v>1.33284867630703E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" t="s">
+        <v>218</v>
+      </c>
+      <c r="D33" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" t="s">
+        <v>147</v>
+      </c>
+      <c r="F33" t="s">
+        <v>146</v>
+      </c>
+      <c r="G33">
+        <v>2018</v>
+      </c>
+      <c r="H33" t="s">
+        <v>146</v>
+      </c>
+      <c r="I33" t="s">
+        <v>146</v>
+      </c>
+      <c r="J33" t="s">
+        <v>146</v>
+      </c>
+      <c r="K33" t="s">
+        <v>146</v>
+      </c>
+      <c r="L33">
+        <v>2.2499180043814002E-2</v>
+      </c>
+      <c r="M33">
+        <v>2.2499180043814002E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" t="s">
+        <v>219</v>
+      </c>
+      <c r="D34" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" t="s">
+        <v>147</v>
+      </c>
+      <c r="F34" t="s">
+        <v>146</v>
+      </c>
+      <c r="G34">
+        <v>2018</v>
+      </c>
+      <c r="H34" t="s">
+        <v>146</v>
+      </c>
+      <c r="I34" t="s">
+        <v>146</v>
+      </c>
+      <c r="J34" t="s">
+        <v>146</v>
+      </c>
+      <c r="K34" t="s">
+        <v>146</v>
+      </c>
+      <c r="L34">
+        <v>1.18538093576453E-2</v>
+      </c>
+      <c r="M34">
+        <v>1.18538093576453E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" t="s">
+        <v>220</v>
+      </c>
+      <c r="D35" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" t="s">
+        <v>147</v>
+      </c>
+      <c r="F35" t="s">
+        <v>146</v>
+      </c>
+      <c r="G35">
+        <v>2018</v>
+      </c>
+      <c r="H35" t="s">
+        <v>146</v>
+      </c>
+      <c r="I35" t="s">
+        <v>146</v>
+      </c>
+      <c r="J35" t="s">
+        <v>146</v>
+      </c>
+      <c r="K35" t="s">
+        <v>146</v>
+      </c>
+      <c r="L35">
+        <v>1.2874844310725899E-3</v>
+      </c>
+      <c r="M35">
+        <v>1.2874844310725899E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" t="s">
+        <v>221</v>
+      </c>
+      <c r="D36" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" t="s">
+        <v>147</v>
+      </c>
+      <c r="F36" t="s">
+        <v>146</v>
+      </c>
+      <c r="G36">
+        <v>2018</v>
+      </c>
+      <c r="H36" t="s">
+        <v>146</v>
+      </c>
+      <c r="I36" t="s">
+        <v>146</v>
+      </c>
+      <c r="J36" t="s">
+        <v>146</v>
+      </c>
+      <c r="K36" t="s">
+        <v>146</v>
+      </c>
+      <c r="L36">
+        <v>1.22701813726626E-2</v>
+      </c>
+      <c r="M36">
+        <v>1.22701813726626E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" t="s">
+        <v>222</v>
+      </c>
+      <c r="D37" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" t="s">
+        <v>147</v>
+      </c>
+      <c r="F37" t="s">
+        <v>146</v>
+      </c>
+      <c r="G37">
+        <v>2018</v>
+      </c>
+      <c r="H37" t="s">
+        <v>146</v>
+      </c>
+      <c r="I37" t="s">
+        <v>146</v>
+      </c>
+      <c r="J37" t="s">
+        <v>146</v>
+      </c>
+      <c r="K37" t="s">
+        <v>146</v>
+      </c>
+      <c r="L37">
+        <v>1.4149231710993301E-2</v>
+      </c>
+      <c r="M37">
+        <v>1.4149231710993301E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" t="s">
+        <v>223</v>
+      </c>
+      <c r="D38" t="s">
+        <v>146</v>
+      </c>
+      <c r="E38" t="s">
+        <v>147</v>
+      </c>
+      <c r="F38" t="s">
+        <v>146</v>
+      </c>
+      <c r="G38">
+        <v>2018</v>
+      </c>
+      <c r="H38" t="s">
+        <v>146</v>
+      </c>
+      <c r="I38" t="s">
+        <v>146</v>
+      </c>
+      <c r="J38" t="s">
+        <v>146</v>
+      </c>
+      <c r="K38" t="s">
+        <v>146</v>
+      </c>
+      <c r="L38">
+        <v>1.24915801777354E-2</v>
+      </c>
+      <c r="M38">
+        <v>1.24915801777354E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D39" t="s">
+        <v>146</v>
+      </c>
+      <c r="E39" t="s">
+        <v>147</v>
+      </c>
+      <c r="F39" t="s">
+        <v>146</v>
+      </c>
+      <c r="G39">
+        <v>2018</v>
+      </c>
+      <c r="H39" t="s">
+        <v>146</v>
+      </c>
+      <c r="I39" t="s">
+        <v>146</v>
+      </c>
+      <c r="J39" t="s">
+        <v>146</v>
+      </c>
+      <c r="K39" t="s">
+        <v>146</v>
+      </c>
+      <c r="L39">
+        <v>0.113051511576835</v>
+      </c>
+      <c r="M39">
+        <v>0.113051511576835</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" t="s">
+        <v>225</v>
+      </c>
+      <c r="D40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E40" t="s">
+        <v>147</v>
+      </c>
+      <c r="F40" t="s">
+        <v>146</v>
+      </c>
+      <c r="G40">
+        <v>2018</v>
+      </c>
+      <c r="H40" t="s">
+        <v>146</v>
+      </c>
+      <c r="I40" t="s">
+        <v>146</v>
+      </c>
+      <c r="J40" t="s">
+        <v>146</v>
+      </c>
+      <c r="K40" t="s">
+        <v>146</v>
+      </c>
+      <c r="L40">
+        <v>1.1286753739723199E-2</v>
+      </c>
+      <c r="M40">
+        <v>1.1286753739723199E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C2F285-9307-42EA-A5DF-0946A8C3784D}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2">
+        <v>2018</v>
+      </c>
+      <c r="H2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K2" t="s">
+        <v>146</v>
+      </c>
+      <c r="L2">
+        <v>1.0395000000000001E-3</v>
+      </c>
+      <c r="M2">
+        <v>1.0395000000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E4A06D-9682-4A49-9F18-659E62ECDD62}">
+  <dimension ref="A1:M40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2">
+        <v>2018</v>
+      </c>
+      <c r="H2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K2" t="s">
+        <v>146</v>
+      </c>
+      <c r="L2">
+        <v>4.4735749332023098E-3</v>
+      </c>
+      <c r="M2">
+        <v>4.4735749332023098E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3">
+        <v>2018</v>
+      </c>
+      <c r="H3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J3" t="s">
+        <v>146</v>
+      </c>
+      <c r="K3" t="s">
+        <v>146</v>
+      </c>
+      <c r="L3">
+        <v>9.6274926826448607E-6</v>
+      </c>
+      <c r="M3">
+        <v>9.6274926826448607E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4">
+        <v>2018</v>
+      </c>
+      <c r="H4" t="s">
+        <v>146</v>
+      </c>
+      <c r="I4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J4" t="s">
+        <v>146</v>
+      </c>
+      <c r="K4" t="s">
+        <v>146</v>
+      </c>
+      <c r="L4">
+        <v>1.27587517908186E-2</v>
+      </c>
+      <c r="M4">
+        <v>1.27587517908186E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5">
+        <v>2018</v>
+      </c>
+      <c r="H5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J5" t="s">
+        <v>146</v>
+      </c>
+      <c r="K5" t="s">
+        <v>146</v>
+      </c>
+      <c r="L5">
+        <v>9.2214798735756998E-2</v>
+      </c>
+      <c r="M5">
+        <v>9.2214798735756998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G6">
+        <v>2018</v>
+      </c>
+      <c r="H6" t="s">
+        <v>146</v>
+      </c>
+      <c r="I6" t="s">
+        <v>146</v>
+      </c>
+      <c r="J6" t="s">
+        <v>146</v>
+      </c>
+      <c r="K6" t="s">
+        <v>146</v>
+      </c>
+      <c r="L6">
+        <v>1.35582728420454E-2</v>
+      </c>
+      <c r="M6">
+        <v>1.35582728420454E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G7">
+        <v>2018</v>
+      </c>
+      <c r="H7" t="s">
+        <v>146</v>
+      </c>
+      <c r="I7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L7">
+        <v>2.4813655183930802E-2</v>
+      </c>
+      <c r="M7">
+        <v>2.4813655183930802E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G8">
+        <v>2018</v>
+      </c>
+      <c r="H8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I8" t="s">
+        <v>146</v>
+      </c>
+      <c r="J8" t="s">
+        <v>146</v>
+      </c>
+      <c r="K8" t="s">
+        <v>146</v>
+      </c>
+      <c r="L8">
+        <v>1.18590868367296E-2</v>
+      </c>
+      <c r="M8">
+        <v>1.18590868367296E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9">
+        <v>2018</v>
+      </c>
+      <c r="H9" t="s">
+        <v>146</v>
+      </c>
+      <c r="I9" t="s">
+        <v>146</v>
+      </c>
+      <c r="J9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K9" t="s">
+        <v>146</v>
+      </c>
+      <c r="L9">
+        <v>1.1111193431909199E-3</v>
+      </c>
+      <c r="M9">
+        <v>1.1111193431909199E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10">
+        <v>2018</v>
+      </c>
+      <c r="H10" t="s">
+        <v>146</v>
+      </c>
+      <c r="I10" t="s">
+        <v>146</v>
+      </c>
+      <c r="J10" t="s">
+        <v>146</v>
+      </c>
+      <c r="K10" t="s">
+        <v>146</v>
+      </c>
+      <c r="L10">
+        <v>3.0831862922372499E-2</v>
+      </c>
+      <c r="M10">
+        <v>3.0831862922372499E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" t="s">
+        <v>146</v>
+      </c>
+      <c r="G11">
+        <v>2018</v>
+      </c>
+      <c r="H11" t="s">
+        <v>146</v>
+      </c>
+      <c r="I11" t="s">
+        <v>146</v>
+      </c>
+      <c r="J11" t="s">
+        <v>146</v>
+      </c>
+      <c r="K11" t="s">
+        <v>146</v>
+      </c>
+      <c r="L11">
+        <v>1.7299140780158099E-2</v>
+      </c>
+      <c r="M11">
+        <v>1.7299140780158099E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12">
+        <v>2018</v>
+      </c>
+      <c r="H12" t="s">
+        <v>146</v>
+      </c>
+      <c r="I12" t="s">
+        <v>146</v>
+      </c>
+      <c r="J12" t="s">
+        <v>146</v>
+      </c>
+      <c r="K12" t="s">
+        <v>146</v>
+      </c>
+      <c r="L12">
+        <v>7.4873010592929098E-2</v>
+      </c>
+      <c r="M12">
+        <v>7.4873010592929098E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13">
+        <v>2018</v>
+      </c>
+      <c r="H13" t="s">
+        <v>146</v>
+      </c>
+      <c r="I13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" t="s">
+        <v>146</v>
+      </c>
+      <c r="L13">
+        <v>5.0677847327291303E-2</v>
+      </c>
+      <c r="M13">
+        <v>5.0677847327291303E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14">
+        <v>2018</v>
+      </c>
+      <c r="H14" t="s">
+        <v>146</v>
+      </c>
+      <c r="I14" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14">
+        <v>6.95288328276885E-2</v>
+      </c>
+      <c r="M14">
+        <v>6.95288328276885E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15">
+        <v>2018</v>
+      </c>
+      <c r="H15" t="s">
+        <v>146</v>
+      </c>
+      <c r="I15" t="s">
+        <v>146</v>
+      </c>
+      <c r="J15" t="s">
+        <v>146</v>
+      </c>
+      <c r="K15" t="s">
+        <v>146</v>
+      </c>
+      <c r="L15">
+        <v>1.55528798694797E-2</v>
+      </c>
+      <c r="M15">
+        <v>1.55528798694797E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16">
+        <v>2018</v>
+      </c>
+      <c r="H16" t="s">
+        <v>146</v>
+      </c>
+      <c r="I16" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" t="s">
+        <v>146</v>
+      </c>
+      <c r="K16" t="s">
+        <v>146</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17">
+        <v>2018</v>
+      </c>
+      <c r="H17" t="s">
+        <v>146</v>
+      </c>
+      <c r="I17" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" t="s">
+        <v>146</v>
+      </c>
+      <c r="K17" t="s">
+        <v>146</v>
+      </c>
+      <c r="L17">
+        <v>5.6329489829771803E-2</v>
+      </c>
+      <c r="M17">
+        <v>5.6329489829771803E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18">
+        <v>2018</v>
+      </c>
+      <c r="H18" t="s">
+        <v>146</v>
+      </c>
+      <c r="I18" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18" t="s">
+        <v>146</v>
+      </c>
+      <c r="K18" t="s">
+        <v>146</v>
+      </c>
+      <c r="L18">
+        <v>0.100127983891551</v>
+      </c>
+      <c r="M18">
+        <v>0.100127983891551</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G19">
+        <v>2018</v>
+      </c>
+      <c r="H19" t="s">
+        <v>146</v>
+      </c>
+      <c r="I19" t="s">
+        <v>146</v>
+      </c>
+      <c r="J19" t="s">
+        <v>146</v>
+      </c>
+      <c r="K19" t="s">
+        <v>146</v>
+      </c>
+      <c r="L19">
+        <v>3.19379469540736E-2</v>
+      </c>
+      <c r="M19">
+        <v>3.19379469540736E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" t="s">
+        <v>147</v>
+      </c>
+      <c r="F20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G20">
+        <v>2018</v>
+      </c>
+      <c r="H20" t="s">
+        <v>146</v>
+      </c>
+      <c r="I20" t="s">
+        <v>146</v>
+      </c>
+      <c r="J20" t="s">
+        <v>146</v>
+      </c>
+      <c r="K20" t="s">
+        <v>146</v>
+      </c>
+      <c r="L20">
+        <v>1.73685782056223E-2</v>
+      </c>
+      <c r="M20">
+        <v>1.73685782056223E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" t="s">
+        <v>147</v>
+      </c>
+      <c r="F21" t="s">
+        <v>146</v>
+      </c>
+      <c r="G21">
+        <v>2018</v>
+      </c>
+      <c r="H21" t="s">
+        <v>146</v>
+      </c>
+      <c r="I21" t="s">
+        <v>146</v>
+      </c>
+      <c r="J21" t="s">
+        <v>146</v>
+      </c>
+      <c r="K21" t="s">
+        <v>146</v>
+      </c>
+      <c r="L21">
+        <v>2.2095891324020799E-2</v>
+      </c>
+      <c r="M21">
+        <v>2.2095891324020799E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" t="s">
+        <v>146</v>
+      </c>
+      <c r="G22">
+        <v>2018</v>
+      </c>
+      <c r="H22" t="s">
+        <v>146</v>
+      </c>
+      <c r="I22" t="s">
+        <v>146</v>
+      </c>
+      <c r="J22" t="s">
+        <v>146</v>
+      </c>
+      <c r="K22" t="s">
+        <v>146</v>
+      </c>
+      <c r="L22">
+        <v>1.4426391204160499E-2</v>
+      </c>
+      <c r="M22">
+        <v>1.4426391204160499E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" t="s">
+        <v>168</v>
+      </c>
+      <c r="D23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" t="s">
+        <v>147</v>
+      </c>
+      <c r="F23" t="s">
+        <v>146</v>
+      </c>
+      <c r="G23">
+        <v>2018</v>
+      </c>
+      <c r="H23" t="s">
+        <v>146</v>
+      </c>
+      <c r="I23" t="s">
+        <v>146</v>
+      </c>
+      <c r="J23" t="s">
+        <v>146</v>
+      </c>
+      <c r="K23" t="s">
+        <v>146</v>
+      </c>
+      <c r="L23">
+        <v>2.3904596338409499E-2</v>
+      </c>
+      <c r="M23">
+        <v>2.3904596338409499E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24" t="s">
+        <v>146</v>
+      </c>
+      <c r="G24">
+        <v>2018</v>
+      </c>
+      <c r="H24" t="s">
+        <v>146</v>
+      </c>
+      <c r="I24" t="s">
+        <v>146</v>
+      </c>
+      <c r="J24" t="s">
+        <v>146</v>
+      </c>
+      <c r="K24" t="s">
+        <v>146</v>
+      </c>
+      <c r="L24">
+        <v>2.3818929075767398E-2</v>
+      </c>
+      <c r="M24">
+        <v>2.3818929075767398E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>170</v>
+      </c>
+      <c r="D25" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" t="s">
+        <v>147</v>
+      </c>
+      <c r="F25" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25">
+        <v>2018</v>
+      </c>
+      <c r="H25" t="s">
+        <v>146</v>
+      </c>
+      <c r="I25" t="s">
+        <v>146</v>
+      </c>
+      <c r="J25" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" t="s">
+        <v>146</v>
+      </c>
+      <c r="L25">
+        <v>4.47139828843457E-2</v>
+      </c>
+      <c r="M25">
+        <v>4.47139828843457E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s">
+        <v>171</v>
+      </c>
+      <c r="D26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" t="s">
+        <v>146</v>
+      </c>
+      <c r="G26">
+        <v>2018</v>
+      </c>
+      <c r="H26" t="s">
+        <v>146</v>
+      </c>
+      <c r="I26" t="s">
+        <v>146</v>
+      </c>
+      <c r="J26" t="s">
+        <v>146</v>
+      </c>
+      <c r="K26" t="s">
+        <v>146</v>
+      </c>
+      <c r="L26">
+        <v>0.23960518419681501</v>
+      </c>
+      <c r="M26">
+        <v>0.23960518419681501</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>172</v>
+      </c>
+      <c r="D27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" t="s">
+        <v>147</v>
+      </c>
+      <c r="F27" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27">
+        <v>2018</v>
+      </c>
+      <c r="H27" t="s">
+        <v>146</v>
+      </c>
+      <c r="I27" t="s">
+        <v>146</v>
+      </c>
+      <c r="J27" t="s">
+        <v>146</v>
+      </c>
+      <c r="K27" t="s">
+        <v>146</v>
+      </c>
+      <c r="L27">
+        <v>4.6440816123458198E-2</v>
+      </c>
+      <c r="M27">
+        <v>4.6440816123458198E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>173</v>
+      </c>
+      <c r="D28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" t="s">
+        <v>147</v>
+      </c>
+      <c r="F28" t="s">
+        <v>146</v>
+      </c>
+      <c r="G28">
+        <v>2018</v>
+      </c>
+      <c r="H28" t="s">
+        <v>146</v>
+      </c>
+      <c r="I28" t="s">
+        <v>146</v>
+      </c>
+      <c r="J28" t="s">
+        <v>146</v>
+      </c>
+      <c r="K28" t="s">
+        <v>146</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" t="s">
+        <v>174</v>
+      </c>
+      <c r="D29" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" t="s">
+        <v>147</v>
+      </c>
+      <c r="F29" t="s">
+        <v>146</v>
+      </c>
+      <c r="G29">
+        <v>2018</v>
+      </c>
+      <c r="H29" t="s">
+        <v>146</v>
+      </c>
+      <c r="I29" t="s">
+        <v>146</v>
+      </c>
+      <c r="J29" t="s">
+        <v>146</v>
+      </c>
+      <c r="K29" t="s">
+        <v>146</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" t="s">
+        <v>175</v>
+      </c>
+      <c r="D30" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" t="s">
+        <v>147</v>
+      </c>
+      <c r="F30" t="s">
+        <v>146</v>
+      </c>
+      <c r="G30">
+        <v>2018</v>
+      </c>
+      <c r="H30" t="s">
+        <v>146</v>
+      </c>
+      <c r="I30" t="s">
+        <v>146</v>
+      </c>
+      <c r="J30" t="s">
+        <v>146</v>
+      </c>
+      <c r="K30" t="s">
+        <v>146</v>
+      </c>
+      <c r="L30">
+        <v>7.5672129216388107E-2</v>
+      </c>
+      <c r="M30">
+        <v>7.5672129216388107E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" t="s">
+        <v>176</v>
+      </c>
+      <c r="D31" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" t="s">
+        <v>147</v>
+      </c>
+      <c r="F31" t="s">
+        <v>146</v>
+      </c>
+      <c r="G31">
+        <v>2018</v>
+      </c>
+      <c r="H31" t="s">
+        <v>146</v>
+      </c>
+      <c r="I31" t="s">
+        <v>146</v>
+      </c>
+      <c r="J31" t="s">
+        <v>146</v>
+      </c>
+      <c r="K31" t="s">
+        <v>146</v>
+      </c>
+      <c r="L31">
+        <v>0.27139198399610598</v>
+      </c>
+      <c r="M31">
+        <v>0.27139198399610598</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" t="s">
+        <v>177</v>
+      </c>
+      <c r="D32" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32" t="s">
+        <v>147</v>
+      </c>
+      <c r="F32" t="s">
+        <v>146</v>
+      </c>
+      <c r="G32">
+        <v>2018</v>
+      </c>
+      <c r="H32" t="s">
+        <v>146</v>
+      </c>
+      <c r="I32" t="s">
+        <v>146</v>
+      </c>
+      <c r="J32" t="s">
+        <v>146</v>
+      </c>
+      <c r="K32" t="s">
+        <v>146</v>
+      </c>
+      <c r="L32">
+        <v>5.1441804976465701E-2</v>
+      </c>
+      <c r="M32">
+        <v>5.1441804976465701E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" t="s">
+        <v>178</v>
+      </c>
+      <c r="D33" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" t="s">
+        <v>147</v>
+      </c>
+      <c r="F33" t="s">
+        <v>146</v>
+      </c>
+      <c r="G33">
+        <v>2018</v>
+      </c>
+      <c r="H33" t="s">
+        <v>146</v>
+      </c>
+      <c r="I33" t="s">
+        <v>146</v>
+      </c>
+      <c r="J33" t="s">
+        <v>146</v>
+      </c>
+      <c r="K33" t="s">
+        <v>146</v>
+      </c>
+      <c r="L33">
+        <v>3.17870115673878E-2</v>
+      </c>
+      <c r="M33">
+        <v>3.17870115673878E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" t="s">
+        <v>179</v>
+      </c>
+      <c r="D34" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" t="s">
+        <v>147</v>
+      </c>
+      <c r="F34" t="s">
+        <v>146</v>
+      </c>
+      <c r="G34">
+        <v>2018</v>
+      </c>
+      <c r="H34" t="s">
+        <v>146</v>
+      </c>
+      <c r="I34" t="s">
+        <v>146</v>
+      </c>
+      <c r="J34" t="s">
+        <v>146</v>
+      </c>
+      <c r="K34" t="s">
+        <v>146</v>
+      </c>
+      <c r="L34">
+        <v>3.7040631160092499E-2</v>
+      </c>
+      <c r="M34">
+        <v>3.7040631160092499E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" t="s">
+        <v>180</v>
+      </c>
+      <c r="D35" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" t="s">
+        <v>147</v>
+      </c>
+      <c r="F35" t="s">
+        <v>146</v>
+      </c>
+      <c r="G35">
+        <v>2018</v>
+      </c>
+      <c r="H35" t="s">
+        <v>146</v>
+      </c>
+      <c r="I35" t="s">
+        <v>146</v>
+      </c>
+      <c r="J35" t="s">
+        <v>146</v>
+      </c>
+      <c r="K35" t="s">
+        <v>146</v>
+      </c>
+      <c r="L35">
+        <v>0.189996602787424</v>
+      </c>
+      <c r="M35">
+        <v>0.189996602787424</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" t="s">
+        <v>181</v>
+      </c>
+      <c r="D36" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" t="s">
+        <v>147</v>
+      </c>
+      <c r="F36" t="s">
+        <v>146</v>
+      </c>
+      <c r="G36">
+        <v>2018</v>
+      </c>
+      <c r="H36" t="s">
+        <v>146</v>
+      </c>
+      <c r="I36" t="s">
+        <v>146</v>
+      </c>
+      <c r="J36" t="s">
+        <v>146</v>
+      </c>
+      <c r="K36" t="s">
+        <v>146</v>
+      </c>
+      <c r="L36">
+        <v>4.1477826816639397E-2</v>
+      </c>
+      <c r="M36">
+        <v>4.1477826816639397E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" t="s">
+        <v>182</v>
+      </c>
+      <c r="D37" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" t="s">
+        <v>147</v>
+      </c>
+      <c r="F37" t="s">
+        <v>146</v>
+      </c>
+      <c r="G37">
+        <v>2018</v>
+      </c>
+      <c r="H37" t="s">
+        <v>146</v>
+      </c>
+      <c r="I37" t="s">
+        <v>146</v>
+      </c>
+      <c r="J37" t="s">
+        <v>146</v>
+      </c>
+      <c r="K37" t="s">
+        <v>146</v>
+      </c>
+      <c r="L37">
+        <v>5.5595203690710603E-2</v>
+      </c>
+      <c r="M37">
+        <v>5.5595203690710603E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" t="s">
+        <v>183</v>
+      </c>
+      <c r="D38" t="s">
+        <v>146</v>
+      </c>
+      <c r="E38" t="s">
+        <v>147</v>
+      </c>
+      <c r="F38" t="s">
+        <v>146</v>
+      </c>
+      <c r="G38">
+        <v>2018</v>
+      </c>
+      <c r="H38" t="s">
+        <v>146</v>
+      </c>
+      <c r="I38" t="s">
+        <v>146</v>
+      </c>
+      <c r="J38" t="s">
+        <v>146</v>
+      </c>
+      <c r="K38" t="s">
+        <v>146</v>
+      </c>
+      <c r="L38">
+        <v>9.5005552686675293E-2</v>
+      </c>
+      <c r="M38">
+        <v>9.5005552686675293E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" t="s">
+        <v>184</v>
+      </c>
+      <c r="D39" t="s">
+        <v>146</v>
+      </c>
+      <c r="E39" t="s">
+        <v>147</v>
+      </c>
+      <c r="F39" t="s">
+        <v>146</v>
+      </c>
+      <c r="G39">
+        <v>2018</v>
+      </c>
+      <c r="H39" t="s">
+        <v>146</v>
+      </c>
+      <c r="I39" t="s">
+        <v>146</v>
+      </c>
+      <c r="J39" t="s">
+        <v>146</v>
+      </c>
+      <c r="K39" t="s">
+        <v>146</v>
+      </c>
+      <c r="L39">
+        <v>0.21841678709847501</v>
+      </c>
+      <c r="M39">
+        <v>0.21841678709847501</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" t="s">
+        <v>185</v>
+      </c>
+      <c r="D40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E40" t="s">
+        <v>147</v>
+      </c>
+      <c r="F40" t="s">
+        <v>146</v>
+      </c>
+      <c r="G40">
+        <v>2018</v>
+      </c>
+      <c r="H40" t="s">
+        <v>146</v>
+      </c>
+      <c r="I40" t="s">
+        <v>146</v>
+      </c>
+      <c r="J40" t="s">
+        <v>146</v>
+      </c>
+      <c r="K40" t="s">
+        <v>146</v>
+      </c>
+      <c r="L40">
+        <v>0.12981046442763899</v>
+      </c>
+      <c r="M40">
+        <v>0.12981046442763899</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F227F1A-FF79-40D3-BC21-2994503EB412}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A3:AD37"/>
@@ -1475,7 +5670,6 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2235,7 +6429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B3:AA7"/>
@@ -2243,7 +6437,6 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2430,18 +6623,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B2D9AA-4BE5-4F38-9B6C-B8B42CE79AC5}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="B1:T35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
-    </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2709,7 +6899,7 @@
     </row>
     <row r="13" spans="2:20" ht="15" x14ac:dyDescent="0.2">
       <c r="B13" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -2829,7 +7019,7 @@
     </row>
     <row r="18" spans="2:20" ht="15" x14ac:dyDescent="0.2">
       <c r="B18" s="17" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -2949,7 +7139,7 @@
     </row>
     <row r="23" spans="2:20" ht="15" x14ac:dyDescent="0.2">
       <c r="B23" s="17" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -3069,7 +7259,7 @@
     </row>
     <row r="28" spans="2:20" ht="15" x14ac:dyDescent="0.2">
       <c r="L28" s="17" t="s">
-        <v>113</v>
+        <v>237</v>
       </c>
       <c r="M28" s="17"/>
       <c r="N28" s="17"/>
@@ -3132,7 +7322,7 @@
     </row>
     <row r="33" spans="12:20" ht="15" x14ac:dyDescent="0.2">
       <c r="L33" s="17" t="s">
-        <v>104</v>
+        <v>238</v>
       </c>
       <c r="M33" s="17"/>
       <c r="N33" s="17"/>
@@ -3188,7 +7378,7 @@
       </c>
       <c r="Q35" s="28"/>
       <c r="R35" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S35" s="28"/>
       <c r="T35" s="28"/>
@@ -3200,18 +7390,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29FD3173-2D6F-48A2-940D-F2E05DDC5B9F}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C17"/>
-    </sheetView>
-    <sheetView topLeftCell="A3" workbookViewId="1">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3234,7 +7421,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -3243,10 +7430,10 @@
     </row>
     <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -3269,7 +7456,7 @@
         <v>80</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K4" s="24" t="s">
         <v>70</v>
@@ -3286,7 +7473,7 @@
     </row>
     <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -3295,7 +7482,7 @@
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
       <c r="K5" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L5" s="30"/>
       <c r="M5" s="30"/>
@@ -3303,25 +7490,28 @@
     </row>
     <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="32" t="str">
-        <f>"R-SH-"&amp;F6&amp;"_"&amp;G6&amp;"*"</f>
+        <f t="shared" ref="B6:B17" si="0">"R-SH-"&amp;F6&amp;"_"&amp;G6&amp;"*"</f>
         <v>R-SH-Apt_COA*</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="D6" s="32"/>
+        <v>122</v>
+      </c>
+      <c r="D6" s="34">
+        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!H6,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>9.2214798735756998E-2</v>
+      </c>
       <c r="F6" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G6" s="32" t="s">
         <v>82</v>
       </c>
       <c r="H6" s="32" t="str">
-        <f>"R-SH-"&amp;F6&amp;"_"&amp;G6&amp;"*"</f>
-        <v>R-SH-Apt_COA*</v>
+        <f t="shared" ref="H6:H11" si="1">"R-SH_"&amp;F6&amp;"_"&amp;G6&amp;"*"</f>
+        <v>R-SH_Apt_COA*</v>
       </c>
       <c r="K6" s="32" t="s">
         <v>78</v>
@@ -3331,29 +7521,35 @@
         <v>R-RSDRF*</v>
       </c>
       <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
+      <c r="N6" s="32">
+        <f>SUMIFS('BY-RSD-RF'!$L$2:$L$100,'BY-RSD-RF'!$C$2:$C$100,AF!L6,'BY-RSD-RF'!$A$2:$A$100,"BASE")</f>
+        <v>1.0395000000000001E-3</v>
+      </c>
     </row>
     <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" s="33" t="str">
-        <f>"R-SH-"&amp;F7&amp;"_"&amp;G7&amp;"*"</f>
+        <f t="shared" si="0"/>
         <v>R-SH-Apt_BIODST*</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="33"/>
+        <v>122</v>
+      </c>
+      <c r="D7" s="35">
+        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!H7,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>4.4735749332023098E-3</v>
+      </c>
       <c r="F7" s="33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H7" s="33" t="str">
-        <f>"R-SH-"&amp;F7&amp;"_"&amp;G7&amp;"*"</f>
-        <v>R-SH-Apt_BIODST*</v>
+        <f t="shared" si="1"/>
+        <v>R-SH_Apt_BIODST*</v>
       </c>
       <c r="K7" s="33" t="s">
         <v>78</v>
@@ -3363,29 +7559,35 @@
         <v>R-RSDCK*</v>
       </c>
       <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
+      <c r="N7" s="32">
+        <f>SUMIFS('BY-RSD-CK'!$L$2:$L$100,'BY-RSD-CK'!$C$2:$C$100,AF!L7,'BY-RSD-CK'!$A$2:$A$100,"BASE")</f>
+        <v>2.2478349106259698E-3</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="32" t="str">
-        <f>"R-SH-"&amp;F8&amp;"_"&amp;G8&amp;"*"</f>
+        <f t="shared" si="0"/>
         <v>R-SH-Apt_BIOETH*</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="D8" s="32"/>
+        <v>122</v>
+      </c>
+      <c r="D8" s="34">
+        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!H8,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>9.6274926826448607E-6</v>
+      </c>
       <c r="F8" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="G8" s="32" t="s">
-        <v>116</v>
-      </c>
       <c r="H8" s="32" t="str">
-        <f t="shared" ref="H8:H17" si="0">"R-SH-"&amp;F8&amp;"_"&amp;G8&amp;"*"</f>
-        <v>R-SH-Apt_BIOETH*</v>
+        <f t="shared" si="1"/>
+        <v>R-SH_Apt_BIOETH*</v>
       </c>
       <c r="K8" s="32" t="s">
         <v>78</v>
@@ -3395,29 +7597,35 @@
         <v>R-RSDCW*</v>
       </c>
       <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
+      <c r="N8" s="32">
+        <f>SUMIFS('BY-RSD-CW'!$L$2:$L$100,'BY-RSD-CW'!$C$2:$C$100,AF!L8,'BY-RSD-RF'!$A$2:$A$100,"BASE")</f>
+        <v>9.5142857142857095E-4</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9" s="33" t="str">
-        <f>"R-SH-"&amp;F9&amp;"_"&amp;G9&amp;"*"</f>
-        <v>R-SH-Apt_OILLPG*</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" s="33"/>
-      <c r="F9" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="H9" s="33" t="str">
         <f t="shared" si="0"/>
         <v>R-SH-Apt_OILLPG*</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="35">
+        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!H9,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.7299140780158099E-2</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>R-SH_Apt_OILLPG*</v>
       </c>
       <c r="K9" s="33" t="s">
         <v>78</v>
@@ -3427,29 +7635,35 @@
         <v>R-RSDCD*</v>
       </c>
       <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
+      <c r="N9" s="32">
+        <f>SUMIFS('BY-RSD-CD'!$L$2:$L$100,'BY-RSD-CD'!$C$2:$C$100,AF!L9,'BY-RSD-CD'!$A$2:$A$100,"BASE")</f>
+        <v>2.598E-3</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" s="32" t="str">
-        <f>"R-SH-"&amp;F10&amp;"_"&amp;G10&amp;"*"</f>
+        <f t="shared" si="0"/>
         <v>R-SH-Apt_ELC*</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="D10" s="32"/>
+        <v>122</v>
+      </c>
+      <c r="D10" s="34">
+        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!H10,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>3.83719280259762E-2</v>
+      </c>
       <c r="F10" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G10" s="32" t="s">
         <v>83</v>
       </c>
       <c r="H10" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>R-SH-Apt_ELC*</v>
+        <f t="shared" si="1"/>
+        <v>R-SH_Apt_ELC*</v>
       </c>
       <c r="K10" s="32" t="s">
         <v>78</v>
@@ -3459,29 +7673,35 @@
         <v>R-RSDDW*</v>
       </c>
       <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
+      <c r="N10" s="32">
+        <f>SUMIFS('BY-RSD-DW'!$L$2:$L$100,'BY-RSD-DW'!$C$2:$C$100,AF!L10,'BY-RSD-DW'!$A$2:$A$100,"BASE")</f>
+        <v>1.5428571428571401E-3</v>
+      </c>
     </row>
     <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" s="33" t="str">
-        <f>"R-SH-"&amp;F11&amp;"_"&amp;G11&amp;"*"</f>
-        <v>R-SH-Apt_OILKER*</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="D11" s="33"/>
-      <c r="F11" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="H11" s="33" t="str">
         <f t="shared" si="0"/>
         <v>R-SH-Apt_OILKER*</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="35">
+        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!H11,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>3.0831862922372499E-2</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="H11" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>R-SH_Apt_OILKER*</v>
       </c>
       <c r="K11" s="33" t="s">
         <v>78</v>
@@ -3491,133 +7711,154 @@
         <v>R-RSDOE*</v>
       </c>
       <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
+      <c r="N11" s="32" t="e">
+        <f>SUMIFS('[2]BY-RSD-OE'!$L$2:$L$100,'[2]BY-RSD-OE'!$C$2:$C$100,AF!L11,'[2]BY-RSD-OE'!$A$2:$A$100,"BASE")</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B12" s="32" t="str">
-        <f>"R-SH-"&amp;F12&amp;"_"&amp;G12&amp;"*"</f>
+        <f t="shared" si="0"/>
         <v>R-SH-Apt_GASNAT*</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="D12" s="32"/>
+        <v>122</v>
+      </c>
+      <c r="D12" s="34">
+        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!H12,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.18590868367296E-2</v>
+      </c>
       <c r="F12" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H12" s="32" t="str">
-        <f>"R-SH-"&amp;F11&amp;"_"&amp;G12&amp;"*"</f>
-        <v>R-SH-Apt_GASNAT*</v>
+        <f>"R-SH_"&amp;F11&amp;"_"&amp;G12&amp;"*"</f>
+        <v>R-SH_Apt_GASNAT*</v>
       </c>
       <c r="K12" s="32" t="s">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="L12" s="32" t="str">
         <f>FillTable!R35</f>
         <v>R-RSDOA*</v>
       </c>
       <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
+      <c r="N12" s="32">
+        <f>SUMIFS('BY-RSD-RF'!$L$2:$L$100,'BY-RSD-RF'!$C$2:$C$100,AF!L12,'BY-RSD-RF'!$A$2:$A$100,"BASE")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13" s="33" t="str">
-        <f>"R-SH-"&amp;F13&amp;"_"&amp;G13&amp;"*"</f>
-        <v>R-SH-Apt_PEA*</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="D13" s="33"/>
-      <c r="F13" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="H13" s="33" t="str">
         <f t="shared" si="0"/>
         <v>R-SH-Apt_PEA*</v>
       </c>
+      <c r="C13" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="35">
+        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!H13,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>7.4873010592929098E-2</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H13" s="33" t="str">
+        <f>"R-SH_"&amp;F13&amp;"_"&amp;G13&amp;"*"</f>
+        <v>R-SH_Apt_PEA*</v>
+      </c>
     </row>
     <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" s="32" t="str">
-        <f>"R-SH-"&amp;F14&amp;"_"&amp;G14&amp;"*"</f>
-        <v>R-SH-Apt_SMF*</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14" s="32"/>
-      <c r="F14" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="H14" s="32" t="str">
         <f t="shared" si="0"/>
         <v>R-SH-Apt_SMF*</v>
       </c>
+      <c r="C14" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="34">
+        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!H14,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>6.95288328276885E-2</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="H14" s="32" t="str">
+        <f>"R-SH_"&amp;F14&amp;"_"&amp;G14&amp;"*"</f>
+        <v>R-SH_Apt_SMF*</v>
+      </c>
     </row>
     <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B15" s="33" t="str">
-        <f>"R-SH-"&amp;F15&amp;"_"&amp;G15&amp;"*"</f>
-        <v>R-SH-Apt_BIOWOO*</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="D15" s="33"/>
-      <c r="F15" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="G15" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="H15" s="33" t="str">
         <f t="shared" si="0"/>
         <v>R-SH-Apt_BIOWOO*</v>
       </c>
+      <c r="C15" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="35">
+        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!H15,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.27587517908186E-2</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" s="33" t="str">
+        <f>"R-SH_"&amp;F15&amp;"_"&amp;G15&amp;"*"</f>
+        <v>R-SH_Apt_BIOWOO*</v>
+      </c>
       <c r="K15" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="32" t="str">
-        <f>"R-SH-"&amp;F16&amp;"_"&amp;G16&amp;"*"</f>
+        <f t="shared" si="0"/>
         <v>R-SH-Apt_HET*</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" s="32"/>
+        <v>122</v>
+      </c>
+      <c r="D16" s="34">
+        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!H16,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.1111193431909199E-3</v>
+      </c>
       <c r="F16" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G16" s="32" t="s">
         <v>84</v>
       </c>
       <c r="H16" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>R-SH-Apt_HET*</v>
+        <f>"R-SH_"&amp;F16&amp;"_"&amp;G16&amp;"*"</f>
+        <v>R-SH_Apt_HET*</v>
       </c>
       <c r="K16" s="24" t="s">
         <v>70</v>
@@ -3634,28 +7875,31 @@
     </row>
     <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B17" s="33" t="str">
-        <f>"R-SH-"&amp;F17&amp;"_"&amp;G17&amp;"*"</f>
-        <v>R-SH-Apt_RENGEO*</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="D17" s="33"/>
-      <c r="F17" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="G17" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="H17" s="33" t="str">
         <f t="shared" si="0"/>
         <v>R-SH-Apt_RENGEO*</v>
       </c>
+      <c r="C17" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="35">
+        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!H17,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>5.0677847327291303E-2</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="H17" s="33" t="str">
+        <f>"R-SH_"&amp;F17&amp;"_"&amp;G17&amp;"*"</f>
+        <v>R-SH_Apt_RENGEO*</v>
+      </c>
       <c r="K17" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L17" s="30"/>
       <c r="M17" s="30"/>
@@ -3663,7 +7907,7 @@
     </row>
     <row r="18" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
@@ -3678,340 +7922,338 @@
       <c r="L18" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="M18" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="N18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32">
+        <f>SUMIFS('BY-RSD-LT'!$L$2:$L$100,'BY-RSD-LT'!$C$2:$C$100,AF!L18,'BY-RSD-LT'!$A$2:$A$100,"BASE")</f>
+        <v>7.6661042164617808E-3</v>
+      </c>
     </row>
     <row r="19" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B19" s="32" t="str">
-        <f>"R-SH-"&amp;F19&amp;"_"&amp;G19&amp;"*"</f>
+        <f t="shared" ref="B19:B30" si="2">"R-SH-"&amp;F19&amp;"_"&amp;G19&amp;"*"</f>
         <v>R-SH-Att_COA*</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" s="32"/>
+        <v>128</v>
+      </c>
+      <c r="D19" s="34">
+        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!H19,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>0.100127983891551</v>
+      </c>
       <c r="F19" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G19" s="32" t="s">
         <v>82</v>
       </c>
       <c r="H19" s="32" t="str">
-        <f>"R-SH-"&amp;F19&amp;"_"&amp;G19&amp;"*"</f>
-        <v>R-SH-Att_COA*</v>
+        <f t="shared" ref="H19:H24" si="3">"R-SH_"&amp;F19&amp;"_"&amp;G19&amp;"*"</f>
+        <v>R-SH_Att_COA*</v>
       </c>
       <c r="K19" s="33" t="s">
         <v>78</v>
       </c>
       <c r="L19" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="M19" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="N19" s="33"/>
+        <v>91</v>
+      </c>
+      <c r="M19" s="33"/>
+      <c r="N19" s="32">
+        <f>SUMIFS('BY-RSD-PF'!$L$2:$L$100,'BY-RSD-PF'!$C$2:$C$100,AF!L19,'BY-RSD-PF'!$A$2:$A$100,"BASE")</f>
+        <v>1.7495876174999649E-3</v>
+      </c>
     </row>
     <row r="20" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B20" s="33" t="str">
-        <f>"R-SH-"&amp;F20&amp;"_"&amp;G20&amp;"*"</f>
+        <f t="shared" si="2"/>
         <v>R-SH-Att_BIODST*</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D20" s="33"/>
+        <v>128</v>
+      </c>
+      <c r="D20" s="35">
+        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!H20,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.55528798694797E-2</v>
+      </c>
       <c r="F20" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H20" s="33" t="str">
-        <f>"R-SH-"&amp;F20&amp;"_"&amp;G20&amp;"*"</f>
-        <v>R-SH-Att_BIODST*</v>
-      </c>
-      <c r="K20" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="L20" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="M20" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="N20" s="32"/>
+        <f t="shared" si="3"/>
+        <v>R-SH_Att_BIODST*</v>
+      </c>
     </row>
     <row r="21" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="32" t="str">
-        <f>"R-SH-"&amp;F21&amp;"_"&amp;G21&amp;"*"</f>
+        <f t="shared" si="2"/>
         <v>R-SH-Att_BIOETH*</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D21" s="32"/>
+        <v>128</v>
+      </c>
+      <c r="D21" s="34">
+        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!H21,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>0</v>
+      </c>
       <c r="F21" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H21" s="32" t="str">
-        <f t="shared" ref="H21:H30" si="1">"R-SH-"&amp;F21&amp;"_"&amp;G21&amp;"*"</f>
-        <v>R-SH-Att_BIOETH*</v>
-      </c>
-      <c r="K21" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="L21" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="M21" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="N21" s="33"/>
+        <f t="shared" si="3"/>
+        <v>R-SH_Att_BIOETH*</v>
+      </c>
     </row>
     <row r="22" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B22" s="33" t="str">
-        <f>"R-SH-"&amp;F22&amp;"_"&amp;G22&amp;"*"</f>
+        <f t="shared" si="2"/>
         <v>R-SH-Att_OILLPG*</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" s="33"/>
+        <v>128</v>
+      </c>
+      <c r="D22" s="35">
+        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!H22,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>2.3818929075767398E-2</v>
+      </c>
       <c r="F22" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H22" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>R-SH-Att_OILLPG*</v>
-      </c>
-      <c r="K22" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="L22" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="M22" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="N22" s="32"/>
+        <f t="shared" si="3"/>
+        <v>R-SH_Att_OILLPG*</v>
+      </c>
     </row>
     <row r="23" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B23" s="32" t="str">
-        <f>"R-SH-"&amp;F23&amp;"_"&amp;G23&amp;"*"</f>
+        <f t="shared" si="2"/>
         <v>R-SH-Att_ELC*</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D23" s="32"/>
+        <v>128</v>
+      </c>
+      <c r="D23" s="34">
+        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!H23,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>4.9306525159695899E-2</v>
+      </c>
       <c r="F23" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G23" s="32" t="s">
         <v>83</v>
       </c>
       <c r="H23" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v>R-SH-Att_ELC*</v>
-      </c>
-      <c r="K23" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="L23" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="M23" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="N23" s="33"/>
+        <f t="shared" si="3"/>
+        <v>R-SH_Att_ELC*</v>
+      </c>
     </row>
     <row r="24" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B24" s="33" t="str">
-        <f>"R-SH-"&amp;F24&amp;"_"&amp;G24&amp;"*"</f>
+        <f t="shared" si="2"/>
         <v>R-SH-Att_OILKER*</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D24" s="33"/>
+        <v>128</v>
+      </c>
+      <c r="D24" s="35">
+        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!H24,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>2.3904596338409499E-2</v>
+      </c>
       <c r="F24" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H24" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>R-SH-Att_OILKER*</v>
+        <f t="shared" si="3"/>
+        <v>R-SH_Att_OILKER*</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B25" s="32" t="str">
-        <f>"R-SH-"&amp;F25&amp;"_"&amp;G25&amp;"*"</f>
+        <f t="shared" si="2"/>
         <v>R-SH-Att_GASNAT*</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D25" s="32"/>
+        <v>128</v>
+      </c>
+      <c r="D25" s="34">
+        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!H25,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>2.2095891324020799E-2</v>
+      </c>
       <c r="F25" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G25" s="32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H25" s="32" t="str">
-        <f>"R-SH-"&amp;F24&amp;"_"&amp;G25&amp;"*"</f>
-        <v>R-SH-Att_GASNAT*</v>
+        <f>"R-SH_"&amp;F24&amp;"_"&amp;G25&amp;"*"</f>
+        <v>R-SH_Att_GASNAT*</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B26" s="33" t="str">
-        <f>"R-SH-"&amp;F26&amp;"_"&amp;G26&amp;"*"</f>
+        <f t="shared" si="2"/>
         <v>R-SH-Att_PEA*</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D26" s="33"/>
+        <v>128</v>
+      </c>
+      <c r="D26" s="35">
+        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!H26,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>4.47139828843457E-2</v>
+      </c>
       <c r="F26" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H26" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>R-SH-Att_PEA*</v>
+        <f>"R-SH_"&amp;F26&amp;"_"&amp;G26&amp;"*"</f>
+        <v>R-SH_Att_PEA*</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B27" s="32" t="str">
-        <f>"R-SH-"&amp;F27&amp;"_"&amp;G27&amp;"*"</f>
+        <f t="shared" si="2"/>
         <v>R-SH-Att_SMF*</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D27" s="32"/>
+        <v>128</v>
+      </c>
+      <c r="D27" s="34">
+        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!H27,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>4.6440816123458198E-2</v>
+      </c>
       <c r="F27" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G27" s="32" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H27" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v>R-SH-Att_SMF*</v>
+        <f>"R-SH_"&amp;F27&amp;"_"&amp;G27&amp;"*"</f>
+        <v>R-SH_Att_SMF*</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B28" s="33" t="str">
-        <f>"R-SH-"&amp;F28&amp;"_"&amp;G28&amp;"*"</f>
+        <f t="shared" si="2"/>
         <v>R-SH-Att_BIOWOO*</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D28" s="33"/>
+        <v>128</v>
+      </c>
+      <c r="D28" s="35">
+        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!H28,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>5.6329489829771803E-2</v>
+      </c>
       <c r="F28" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H28" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>R-SH-Att_BIOWOO*</v>
+        <f>"R-SH_"&amp;F28&amp;"_"&amp;G28&amp;"*"</f>
+        <v>R-SH_Att_BIOWOO*</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B29" s="32" t="str">
-        <f>"R-SH-"&amp;F29&amp;"_"&amp;G29&amp;"*"</f>
+        <f t="shared" si="2"/>
         <v>R-SH-Att_HET*</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D29" s="32"/>
+        <v>128</v>
+      </c>
+      <c r="D29" s="34">
+        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!H29,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.4426391204160499E-2</v>
+      </c>
       <c r="F29" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G29" s="32" t="s">
         <v>84</v>
       </c>
       <c r="H29" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v>R-SH-Att_HET*</v>
+        <f>"R-SH_"&amp;F29&amp;"_"&amp;G29&amp;"*"</f>
+        <v>R-SH_Att_HET*</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B30" s="33" t="str">
-        <f>"R-SH-"&amp;F30&amp;"_"&amp;G30&amp;"*"</f>
+        <f t="shared" si="2"/>
         <v>R-SH-Att_RENGEO*</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D30" s="33"/>
+        <v>128</v>
+      </c>
+      <c r="D30" s="35">
+        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!H30,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>0.23960518419681501</v>
+      </c>
       <c r="F30" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H30" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>R-SH-Att_RENGEO*</v>
+        <f>"R-SH_"&amp;F30&amp;"_"&amp;G30&amp;"*"</f>
+        <v>R-SH_Att_RENGEO*</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
@@ -4023,25 +8265,28 @@
     </row>
     <row r="32" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B32" s="32" t="str">
-        <f>"R-SH-"&amp;F32&amp;"_"&amp;G32&amp;"*"</f>
+        <f t="shared" ref="B32:B43" si="4">"R-SH-"&amp;F32&amp;"_"&amp;G32&amp;"*"</f>
         <v>R-SH-Det_COA*</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="D32" s="32"/>
+        <v>127</v>
+      </c>
+      <c r="D32" s="34">
+        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!H32,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>0.27139198399610598</v>
+      </c>
       <c r="F32" s="32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G32" s="32" t="s">
         <v>82</v>
       </c>
       <c r="H32" s="32" t="str">
-        <f>"R-SH-"&amp;F32&amp;"_"&amp;G32&amp;"*"</f>
-        <v>R-SH-Det_COA*</v>
+        <f t="shared" ref="H32:H37" si="5">"R-SH_"&amp;F32&amp;"_"&amp;G32&amp;"*"</f>
+        <v>R-SH_Det_COA*</v>
       </c>
       <c r="I32" s="25"/>
     </row>
@@ -4050,22 +8295,25 @@
         <v>1</v>
       </c>
       <c r="B33" s="33" t="str">
-        <f>"R-SH-"&amp;F33&amp;"_"&amp;G33&amp;"*"</f>
+        <f t="shared" si="4"/>
         <v>R-SH-Det_BIODST*</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="D33" s="33"/>
+        <v>127</v>
+      </c>
+      <c r="D33" s="35">
+        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!H33,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>0</v>
+      </c>
       <c r="F33" s="33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H33" s="33" t="str">
-        <f>"R-SH-"&amp;F33&amp;"_"&amp;G33&amp;"*"</f>
-        <v>R-SH-Det_BIODST*</v>
+        <f t="shared" si="5"/>
+        <v>R-SH_Det_BIODST*</v>
       </c>
       <c r="I33" s="25"/>
     </row>
@@ -4074,234 +8322,264 @@
         <v>1</v>
       </c>
       <c r="B34" s="32" t="str">
-        <f>"R-SH-"&amp;F34&amp;"_"&amp;G34&amp;"*"</f>
+        <f t="shared" si="4"/>
         <v>R-SH-Det_BIOETH*</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="D34" s="32"/>
+        <v>127</v>
+      </c>
+      <c r="D34" s="34">
+        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!H34,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>0</v>
+      </c>
       <c r="F34" s="32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G34" s="32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H34" s="32" t="str">
-        <f t="shared" ref="H34:H37" si="2">"R-SH-"&amp;F34&amp;"_"&amp;G34&amp;"*"</f>
-        <v>R-SH-Det_BIOETH*</v>
+        <f t="shared" si="5"/>
+        <v>R-SH_Det_BIOETH*</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B35" s="33" t="str">
-        <f>"R-SH-"&amp;F35&amp;"_"&amp;G35&amp;"*"</f>
+        <f t="shared" si="4"/>
         <v>R-SH-Det_OILLPG*</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="D35" s="33"/>
+        <v>127</v>
+      </c>
+      <c r="D35" s="35">
+        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!H35,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>5.5595203690710603E-2</v>
+      </c>
       <c r="F35" s="33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G35" s="33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H35" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>R-SH-Det_OILLPG*</v>
+        <f t="shared" si="5"/>
+        <v>R-SH_Det_OILLPG*</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B36" s="32" t="str">
-        <f>"R-SH-"&amp;F36&amp;"_"&amp;G36&amp;"*"</f>
+        <f t="shared" si="4"/>
         <v>R-SH-Det_ELC*</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="D36" s="32"/>
+        <v>127</v>
+      </c>
+      <c r="D36" s="34">
+        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!H36,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>8.3228816543853501E-2</v>
+      </c>
       <c r="F36" s="32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G36" s="32" t="s">
         <v>83</v>
       </c>
       <c r="H36" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>R-SH-Det_ELC*</v>
+        <f t="shared" si="5"/>
+        <v>R-SH_Det_ELC*</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B37" s="33" t="str">
-        <f>"R-SH-"&amp;F37&amp;"_"&amp;G37&amp;"*"</f>
+        <f t="shared" si="4"/>
         <v>R-SH-Det_OILKER*</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="D37" s="33"/>
+        <v>127</v>
+      </c>
+      <c r="D37" s="35">
+        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!H37,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>4.1477826816639397E-2</v>
+      </c>
       <c r="F37" s="33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H37" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>R-SH-Det_OILKER*</v>
+        <f t="shared" si="5"/>
+        <v>R-SH_Det_OILKER*</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B38" s="32" t="str">
-        <f>"R-SH-"&amp;F38&amp;"_"&amp;G38&amp;"*"</f>
+        <f t="shared" si="4"/>
         <v>R-SH-Det_GASNAT*</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="D38" s="32"/>
+        <v>127</v>
+      </c>
+      <c r="D38" s="34">
+        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!H38,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>3.7040631160092499E-2</v>
+      </c>
       <c r="F38" s="32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G38" s="32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H38" s="32" t="str">
-        <f>"R-SH-"&amp;F37&amp;"_"&amp;G38&amp;"*"</f>
-        <v>R-SH-Det_GASNAT*</v>
+        <f>"R-SH_"&amp;F37&amp;"_"&amp;G38&amp;"*"</f>
+        <v>R-SH_Det_GASNAT*</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B39" s="33" t="str">
-        <f>"R-SH-"&amp;F39&amp;"_"&amp;G39&amp;"*"</f>
+        <f t="shared" si="4"/>
         <v>R-SH-Det_PEA*</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="D39" s="33"/>
+        <v>127</v>
+      </c>
+      <c r="D39" s="35">
+        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!H39,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>9.5005552686675293E-2</v>
+      </c>
       <c r="F39" s="33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G39" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H39" s="33" t="str">
-        <f t="shared" ref="H39:H43" si="3">"R-SH-"&amp;F39&amp;"_"&amp;G39&amp;"*"</f>
-        <v>R-SH-Det_PEA*</v>
+        <f>"R-SH_"&amp;F39&amp;"_"&amp;G39&amp;"*"</f>
+        <v>R-SH_Det_PEA*</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B40" s="32" t="str">
-        <f>"R-SH-"&amp;F40&amp;"_"&amp;G40&amp;"*"</f>
+        <f t="shared" si="4"/>
         <v>R-SH-Det_SMF*</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="D40" s="32"/>
+        <v>127</v>
+      </c>
+      <c r="D40" s="34">
+        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!H40,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>0.12981046442763899</v>
+      </c>
       <c r="F40" s="32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G40" s="32" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H40" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>R-SH-Det_SMF*</v>
+        <f>"R-SH_"&amp;F40&amp;"_"&amp;G40&amp;"*"</f>
+        <v>R-SH_Det_SMF*</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B41" s="33" t="str">
-        <f>"R-SH-"&amp;F41&amp;"_"&amp;G41&amp;"*"</f>
+        <f t="shared" si="4"/>
         <v>R-SH-Det_BIOWOO*</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="D41" s="33"/>
+        <v>127</v>
+      </c>
+      <c r="D41" s="35">
+        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!H41,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>7.5672129216388107E-2</v>
+      </c>
       <c r="F41" s="33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G41" s="33" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H41" s="33" t="str">
-        <f t="shared" si="3"/>
-        <v>R-SH-Det_BIOWOO*</v>
+        <f>"R-SH_"&amp;F41&amp;"_"&amp;G41&amp;"*"</f>
+        <v>R-SH_Det_BIOWOO*</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B42" s="32" t="str">
-        <f>"R-SH-"&amp;F42&amp;"_"&amp;G42&amp;"*"</f>
+        <f t="shared" si="4"/>
         <v>R-SH-Det_HET*</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="D42" s="32"/>
+        <v>127</v>
+      </c>
+      <c r="D42" s="34">
+        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!H42,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>0.189996602787424</v>
+      </c>
       <c r="F42" s="32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G42" s="32" t="s">
         <v>84</v>
       </c>
       <c r="H42" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>R-SH-Det_HET*</v>
+        <f>"R-SH_"&amp;F42&amp;"_"&amp;G42&amp;"*"</f>
+        <v>R-SH_Det_HET*</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B43" s="33" t="str">
-        <f>"R-SH-"&amp;F43&amp;"_"&amp;G43&amp;"*"</f>
+        <f t="shared" si="4"/>
         <v>R-SH-Det_RENGEO*</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="D43" s="33"/>
+        <v>127</v>
+      </c>
+      <c r="D43" s="35">
+        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!H43,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>0.21841678709847501</v>
+      </c>
       <c r="F43" s="33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G43" s="33" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H43" s="33" t="str">
-        <f t="shared" si="3"/>
-        <v>R-SH-Det_RENGEO*</v>
+        <f>"R-SH_"&amp;F43&amp;"_"&amp;G43&amp;"*"</f>
+        <v>R-SH_Det_RENGEO*</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="29" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
@@ -4312,283 +8590,319 @@
     </row>
     <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B45" s="32" t="str">
-        <f>"R-WH-"&amp;F45&amp;"_"&amp;G45&amp;"*"</f>
+        <f t="shared" ref="B45:B56" si="6">"R-WH-"&amp;F45&amp;"_"&amp;G45&amp;"*"</f>
         <v>R-WH-Apt_COA*</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="D45" s="32"/>
+        <v>122</v>
+      </c>
+      <c r="D45" s="34">
+        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H45,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>6.3768329096572304E-3</v>
+      </c>
       <c r="F45" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G45" s="32" t="s">
         <v>82</v>
       </c>
       <c r="H45" s="32" t="str">
-        <f>"R-SH-"&amp;F45&amp;"_"&amp;G45&amp;"*"</f>
-        <v>R-SH-Apt_COA*</v>
+        <f t="shared" ref="H45:H50" si="7">"R-WH_"&amp;F45&amp;"_"&amp;G45&amp;"*"</f>
+        <v>R-WH_Apt_COA*</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B46" s="33" t="str">
-        <f>"R-WH-"&amp;F46&amp;"_"&amp;G46&amp;"*"</f>
+        <f t="shared" si="6"/>
         <v>R-WH-Apt_BIODST*</v>
       </c>
       <c r="C46" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="D46" s="33"/>
+        <v>122</v>
+      </c>
+      <c r="D46" s="35">
+        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H46,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>7.1004600000000003E-3</v>
+      </c>
       <c r="F46" s="33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G46" s="33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H46" s="33" t="str">
-        <f>"R-SH-"&amp;F46&amp;"_"&amp;G46&amp;"*"</f>
-        <v>R-SH-Apt_BIODST*</v>
+        <f t="shared" si="7"/>
+        <v>R-WH_Apt_BIODST*</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B47" s="32" t="str">
-        <f>"R-WH-"&amp;F47&amp;"_"&amp;G47&amp;"*"</f>
+        <f t="shared" si="6"/>
         <v>R-WH-Apt_BIOETH*</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="D47" s="32"/>
+        <v>122</v>
+      </c>
+      <c r="D47" s="34">
+        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H47,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>8.5546800000000003E-3</v>
+      </c>
       <c r="F47" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G47" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="G47" s="32" t="s">
-        <v>116</v>
-      </c>
       <c r="H47" s="32" t="str">
-        <f t="shared" ref="H47:H50" si="4">"R-SH-"&amp;F47&amp;"_"&amp;G47&amp;"*"</f>
-        <v>R-SH-Apt_BIOETH*</v>
+        <f t="shared" si="7"/>
+        <v>R-WH_Apt_BIOETH*</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B48" s="33" t="str">
-        <f>"R-WH-"&amp;F48&amp;"_"&amp;G48&amp;"*"</f>
+        <f t="shared" si="6"/>
         <v>R-WH-Apt_OILLPG*</v>
       </c>
       <c r="C48" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="D48" s="33"/>
+        <v>122</v>
+      </c>
+      <c r="D48" s="35">
+        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H48,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>8.8234631689712503E-3</v>
+      </c>
       <c r="F48" s="33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G48" s="33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H48" s="33" t="str">
-        <f t="shared" si="4"/>
-        <v>R-SH-Apt_OILLPG*</v>
+        <f t="shared" si="7"/>
+        <v>R-WH_Apt_OILLPG*</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B49" s="32" t="str">
-        <f>"R-WH-"&amp;F49&amp;"_"&amp;G49&amp;"*"</f>
+        <f t="shared" si="6"/>
         <v>R-WH-Apt_ELC*</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="D49" s="32"/>
+        <v>122</v>
+      </c>
+      <c r="D49" s="34">
+        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H49,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>4.547139931032923E-2</v>
+      </c>
       <c r="F49" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G49" s="32" t="s">
         <v>83</v>
       </c>
       <c r="H49" s="32" t="str">
-        <f t="shared" si="4"/>
-        <v>R-SH-Apt_ELC*</v>
+        <f t="shared" si="7"/>
+        <v>R-WH_Apt_ELC*</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B50" s="33" t="str">
-        <f>"R-WH-"&amp;F50&amp;"_"&amp;G50&amp;"*"</f>
+        <f t="shared" si="6"/>
         <v>R-WH-Apt_OILKER*</v>
       </c>
       <c r="C50" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="D50" s="33"/>
+        <v>122</v>
+      </c>
+      <c r="D50" s="35">
+        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H50,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>8.6288756048648694E-3</v>
+      </c>
       <c r="F50" s="33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G50" s="33" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H50" s="33" t="str">
-        <f t="shared" si="4"/>
-        <v>R-SH-Apt_OILKER*</v>
+        <f t="shared" si="7"/>
+        <v>R-WH_Apt_OILKER*</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B51" s="32" t="str">
-        <f>"R-WH-"&amp;F51&amp;"_"&amp;G51&amp;"*"</f>
+        <f t="shared" si="6"/>
         <v>R-WH-Apt_GASNAT*</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="D51" s="32"/>
+        <v>122</v>
+      </c>
+      <c r="D51" s="34">
+        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H51,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>7.0999155767537403E-3</v>
+      </c>
       <c r="F51" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G51" s="32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H51" s="32" t="str">
-        <f>"R-SH-"&amp;F50&amp;"_"&amp;G51&amp;"*"</f>
-        <v>R-SH-Apt_GASNAT*</v>
+        <f>"R-WH_"&amp;F50&amp;"_"&amp;G51&amp;"*"</f>
+        <v>R-WH_Apt_GASNAT*</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B52" s="33" t="str">
-        <f>"R-WH-"&amp;F52&amp;"_"&amp;G52&amp;"*"</f>
+        <f t="shared" si="6"/>
         <v>R-WH-Apt_PEA*</v>
       </c>
       <c r="C52" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="D52" s="33"/>
+        <v>122</v>
+      </c>
+      <c r="D52" s="35">
+        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H52,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>8.5740576923076899E-3</v>
+      </c>
       <c r="F52" s="33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G52" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H52" s="33" t="str">
-        <f t="shared" ref="H52:H56" si="5">"R-SH-"&amp;F52&amp;"_"&amp;G52&amp;"*"</f>
-        <v>R-SH-Apt_PEA*</v>
+        <f>"R-WH_"&amp;F52&amp;"_"&amp;G52&amp;"*"</f>
+        <v>R-WH_Apt_PEA*</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B53" s="32" t="str">
-        <f>"R-WH-"&amp;F53&amp;"_"&amp;G53&amp;"*"</f>
+        <f t="shared" si="6"/>
         <v>R-WH-Apt_SMF*</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="D53" s="32"/>
+        <v>122</v>
+      </c>
+      <c r="D53" s="34">
+        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H53,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>8.5332927933924694E-3</v>
+      </c>
       <c r="F53" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G53" s="32" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H53" s="32" t="str">
-        <f t="shared" si="5"/>
-        <v>R-SH-Apt_SMF*</v>
+        <f>"R-WH_"&amp;F53&amp;"_"&amp;G53&amp;"*"</f>
+        <v>R-WH_Apt_SMF*</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B54" s="33" t="str">
-        <f>"R-WH-"&amp;F54&amp;"_"&amp;G54&amp;"*"</f>
+        <f t="shared" si="6"/>
         <v>R-WH-Apt_BIOWOO*</v>
       </c>
       <c r="C54" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="D54" s="33"/>
+        <v>122</v>
+      </c>
+      <c r="D54" s="35">
+        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H54,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>7.6632802703553099E-3</v>
+      </c>
       <c r="F54" s="33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G54" s="33" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H54" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>R-SH-Apt_BIOWOO*</v>
+        <f>"R-WH_"&amp;F54&amp;"_"&amp;G54&amp;"*"</f>
+        <v>R-WH_Apt_BIOWOO*</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B55" s="32" t="str">
-        <f>"R-WH-"&amp;F55&amp;"_"&amp;G55&amp;"*"</f>
+        <f t="shared" si="6"/>
         <v>R-WH-Apt_HET*</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="D55" s="32"/>
+        <v>122</v>
+      </c>
+      <c r="D55" s="34">
+        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H55,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>3.0627633026508998E-4</v>
+      </c>
       <c r="F55" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G55" s="32" t="s">
         <v>84</v>
       </c>
       <c r="H55" s="32" t="str">
-        <f t="shared" si="5"/>
-        <v>R-SH-Apt_HET*</v>
+        <f>"R-WH_"&amp;F55&amp;"_"&amp;G55&amp;"*"</f>
+        <v>R-WH_Apt_HET*</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="33" t="s">
-        <v>107</v>
+        <v>1</v>
       </c>
       <c r="B56" s="33" t="str">
-        <f>"R-WH-"&amp;F56&amp;"_"&amp;G56&amp;"*"</f>
+        <f t="shared" si="6"/>
         <v>R-WH-Apt_RENGEO*</v>
       </c>
       <c r="C56" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="D56" s="33"/>
+        <v>122</v>
+      </c>
+      <c r="D56" s="35">
+        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H56,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>0</v>
+      </c>
       <c r="F56" s="33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G56" s="33" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H56" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>R-SH-Apt_RENGEO*</v>
+        <f>"R-WH_"&amp;F56&amp;"_"&amp;G56&amp;"*"</f>
+        <v>R-WH_Apt_RENGEO*</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="29" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B57" s="30"/>
       <c r="C57" s="30"/>
@@ -4600,283 +8914,319 @@
     </row>
     <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B58" s="32" t="str">
-        <f>"R-WH-"&amp;F58&amp;"_"&amp;G58&amp;"*"</f>
+        <f t="shared" ref="B58:B69" si="8">"R-WH-"&amp;F58&amp;"_"&amp;G58&amp;"*"</f>
         <v>R-WH-Att_COA*</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D58" s="32"/>
+        <v>128</v>
+      </c>
+      <c r="D58" s="34">
+        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H58,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>9.3819421193711804E-3</v>
+      </c>
       <c r="F58" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G58" s="32" t="s">
         <v>82</v>
       </c>
       <c r="H58" s="32" t="str">
-        <f>"R-SH-"&amp;F58&amp;"_"&amp;G58&amp;"*"</f>
-        <v>R-SH-Att_COA*</v>
+        <f t="shared" ref="H58:H63" si="9">"R-WH_"&amp;F58&amp;"_"&amp;G58&amp;"*"</f>
+        <v>R-WH_Att_COA*</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B59" s="33" t="str">
-        <f>"R-WH-"&amp;F59&amp;"_"&amp;G59&amp;"*"</f>
+        <f t="shared" si="8"/>
         <v>R-WH-Att_BIODST*</v>
       </c>
       <c r="C59" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D59" s="33"/>
+        <v>128</v>
+      </c>
+      <c r="D59" s="35">
+        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H59,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.40208E-2</v>
+      </c>
       <c r="F59" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G59" s="33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H59" s="33" t="str">
-        <f>"R-SH-"&amp;F59&amp;"_"&amp;G59&amp;"*"</f>
-        <v>R-SH-Att_BIODST*</v>
+        <f t="shared" si="9"/>
+        <v>R-WH_Att_BIODST*</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B60" s="32" t="str">
-        <f>"R-WH-"&amp;F60&amp;"_"&amp;G60&amp;"*"</f>
+        <f t="shared" si="8"/>
         <v>R-WH-Att_BIOETH*</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D60" s="32"/>
+        <v>128</v>
+      </c>
+      <c r="D60" s="34">
+        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H60,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.059804E-2</v>
+      </c>
       <c r="F60" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G60" s="32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H60" s="32" t="str">
-        <f t="shared" ref="H60:H63" si="6">"R-SH-"&amp;F60&amp;"_"&amp;G60&amp;"*"</f>
-        <v>R-SH-Att_BIOETH*</v>
+        <f t="shared" si="9"/>
+        <v>R-WH_Att_BIOETH*</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B61" s="33" t="str">
-        <f>"R-WH-"&amp;F61&amp;"_"&amp;G61&amp;"*"</f>
+        <f t="shared" si="8"/>
         <v>R-WH-Att_OILLPG*</v>
       </c>
       <c r="C61" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D61" s="33"/>
+        <v>128</v>
+      </c>
+      <c r="D61" s="35">
+        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H61,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.1663366309857801E-2</v>
+      </c>
       <c r="F61" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G61" s="33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H61" s="33" t="str">
-        <f t="shared" si="6"/>
-        <v>R-SH-Att_OILLPG*</v>
+        <f t="shared" si="9"/>
+        <v>R-WH_Att_OILLPG*</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B62" s="32" t="str">
-        <f>"R-WH-"&amp;F62&amp;"_"&amp;G62&amp;"*"</f>
+        <f t="shared" si="8"/>
         <v>R-WH-Att_ELC*</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D62" s="32"/>
+        <v>128</v>
+      </c>
+      <c r="D62" s="34">
+        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H62,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>3.6569117177568902E-2</v>
+      </c>
       <c r="F62" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G62" s="32" t="s">
         <v>83</v>
       </c>
       <c r="H62" s="32" t="str">
-        <f t="shared" si="6"/>
-        <v>R-SH-Att_ELC*</v>
+        <f t="shared" si="9"/>
+        <v>R-WH_Att_ELC*</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B63" s="33" t="str">
-        <f>"R-WH-"&amp;F63&amp;"_"&amp;G63&amp;"*"</f>
+        <f t="shared" si="8"/>
         <v>R-WH-Att_OILKER*</v>
       </c>
       <c r="C63" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D63" s="33"/>
+        <v>128</v>
+      </c>
+      <c r="D63" s="35">
+        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H63,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>9.4091382425110903E-3</v>
+      </c>
       <c r="F63" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G63" s="33" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H63" s="33" t="str">
-        <f t="shared" si="6"/>
-        <v>R-SH-Att_OILKER*</v>
+        <f t="shared" si="9"/>
+        <v>R-WH_Att_OILKER*</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B64" s="32" t="str">
-        <f>"R-WH-"&amp;F64&amp;"_"&amp;G64&amp;"*"</f>
+        <f t="shared" si="8"/>
         <v>R-WH-Att_GASNAT*</v>
       </c>
       <c r="C64" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D64" s="32"/>
+        <v>128</v>
+      </c>
+      <c r="D64" s="34">
+        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H64,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>9.2067094002643308E-3</v>
+      </c>
       <c r="F64" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G64" s="32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H64" s="32" t="str">
-        <f>"R-SH-"&amp;F63&amp;"_"&amp;G64&amp;"*"</f>
-        <v>R-SH-Att_GASNAT*</v>
+        <f>"R-WH_"&amp;F63&amp;"_"&amp;G64&amp;"*"</f>
+        <v>R-WH_Att_GASNAT*</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B65" s="33" t="str">
-        <f>"R-WH-"&amp;F65&amp;"_"&amp;G65&amp;"*"</f>
+        <f t="shared" si="8"/>
         <v>R-WH-Att_PEA*</v>
       </c>
       <c r="C65" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D65" s="33"/>
+        <v>128</v>
+      </c>
+      <c r="D65" s="35">
+        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H65,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.08711386313101E-2</v>
+      </c>
       <c r="F65" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G65" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H65" s="33" t="str">
-        <f t="shared" ref="H65:H69" si="7">"R-SH-"&amp;F65&amp;"_"&amp;G65&amp;"*"</f>
-        <v>R-SH-Att_PEA*</v>
+        <f>"R-WH_"&amp;F65&amp;"_"&amp;G65&amp;"*"</f>
+        <v>R-WH_Att_PEA*</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B66" s="32" t="str">
-        <f>"R-WH-"&amp;F66&amp;"_"&amp;G66&amp;"*"</f>
+        <f t="shared" si="8"/>
         <v>R-WH-Att_SMF*</v>
       </c>
       <c r="C66" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D66" s="32"/>
+        <v>128</v>
+      </c>
+      <c r="D66" s="34">
+        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H66,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>9.3095279184719493E-3</v>
+      </c>
       <c r="F66" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G66" s="32" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H66" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>R-SH-Att_SMF*</v>
+        <f>"R-WH_"&amp;F66&amp;"_"&amp;G66&amp;"*"</f>
+        <v>R-WH_Att_SMF*</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B67" s="33" t="str">
-        <f>"R-WH-"&amp;F67&amp;"_"&amp;G67&amp;"*"</f>
+        <f t="shared" si="8"/>
         <v>R-WH-Att_BIOWOO*</v>
       </c>
       <c r="C67" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D67" s="33"/>
+        <v>128</v>
+      </c>
+      <c r="D67" s="35">
+        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H67,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>8.8655256033915893E-3</v>
+      </c>
       <c r="F67" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G67" s="33" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H67" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>R-SH-Att_BIOWOO*</v>
+        <f>"R-WH_"&amp;F67&amp;"_"&amp;G67&amp;"*"</f>
+        <v>R-WH_Att_BIOWOO*</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B68" s="32" t="str">
-        <f>"R-WH-"&amp;F68&amp;"_"&amp;G68&amp;"*"</f>
+        <f t="shared" si="8"/>
         <v>R-WH-Att_HET*</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D68" s="32"/>
+        <v>128</v>
+      </c>
+      <c r="D68" s="34">
+        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H68,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>7.6939300464232304E-4</v>
+      </c>
       <c r="F68" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G68" s="32" t="s">
         <v>84</v>
       </c>
       <c r="H68" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>R-SH-Att_HET*</v>
+        <f>"R-WH_"&amp;F68&amp;"_"&amp;G68&amp;"*"</f>
+        <v>R-WH_Att_HET*</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="33" t="s">
-        <v>107</v>
+        <v>1</v>
       </c>
       <c r="B69" s="33" t="str">
-        <f>"R-WH-"&amp;F69&amp;"_"&amp;G69&amp;"*"</f>
+        <f t="shared" si="8"/>
         <v>R-WH-Att_RENGEO*</v>
       </c>
       <c r="C69" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D69" s="33"/>
+        <v>128</v>
+      </c>
+      <c r="D69" s="35">
+        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H69,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>0</v>
+      </c>
       <c r="F69" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G69" s="33" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H69" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>R-SH-Att_RENGEO*</v>
+        <f>"R-WH_"&amp;F69&amp;"_"&amp;G69&amp;"*"</f>
+        <v>R-WH_Att_RENGEO*</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="29" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B70" s="30"/>
       <c r="C70" s="30"/>
@@ -4888,282 +9238,780 @@
     </row>
     <row r="71" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B71" s="32" t="str">
-        <f>"R-WH-"&amp;F71&amp;"_"&amp;G71&amp;"*"</f>
+        <f t="shared" ref="B71:B82" si="10">"R-WH-"&amp;F71&amp;"_"&amp;G71&amp;"*"</f>
         <v>R-WH-Det_COA*</v>
       </c>
       <c r="C71" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="D71" s="32"/>
+        <v>127</v>
+      </c>
+      <c r="D71" s="34">
+        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H71,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.13737894552843E-2</v>
+      </c>
       <c r="F71" s="32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G71" s="32" t="s">
         <v>82</v>
       </c>
       <c r="H71" s="32" t="str">
-        <f>"R-SH-"&amp;F71&amp;"_"&amp;G71&amp;"*"</f>
-        <v>R-SH-Det_COA*</v>
+        <f t="shared" ref="H71:H76" si="11">"R-WH_"&amp;F71&amp;"_"&amp;G71&amp;"*"</f>
+        <v>R-WH_Det_COA*</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B72" s="33" t="str">
-        <f>"R-WH-"&amp;F72&amp;"_"&amp;G72&amp;"*"</f>
+        <f t="shared" si="10"/>
         <v>R-WH-Det_BIODST*</v>
       </c>
       <c r="C72" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="D72" s="33"/>
+        <v>127</v>
+      </c>
+      <c r="D72" s="35">
+        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H72,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.0679040000000001E-2</v>
+      </c>
       <c r="F72" s="33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G72" s="33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H72" s="33" t="str">
-        <f>"R-SH-"&amp;F72&amp;"_"&amp;G72&amp;"*"</f>
-        <v>R-SH-Det_BIODST*</v>
+        <f t="shared" si="11"/>
+        <v>R-WH_Det_BIODST*</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B73" s="32" t="str">
-        <f>"R-WH-"&amp;F73&amp;"_"&amp;G73&amp;"*"</f>
+        <f t="shared" si="10"/>
         <v>R-WH-Det_BIOETH*</v>
       </c>
       <c r="C73" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="D73" s="32"/>
+        <v>127</v>
+      </c>
+      <c r="D73" s="34">
+        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H73,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.2096539999999999E-2</v>
+      </c>
       <c r="F73" s="32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G73" s="32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H73" s="32" t="str">
-        <f t="shared" ref="H73:H76" si="8">"R-SH-"&amp;F73&amp;"_"&amp;G73&amp;"*"</f>
-        <v>R-SH-Det_BIOETH*</v>
+        <f t="shared" si="11"/>
+        <v>R-WH_Det_BIOETH*</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B74" s="33" t="str">
-        <f>"R-WH-"&amp;F74&amp;"_"&amp;G74&amp;"*"</f>
+        <f t="shared" si="10"/>
         <v>R-WH-Det_OILLPG*</v>
       </c>
       <c r="C74" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="D74" s="33"/>
+        <v>127</v>
+      </c>
+      <c r="D74" s="35">
+        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H74,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.4149231710993301E-2</v>
+      </c>
       <c r="F74" s="33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G74" s="33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H74" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Det_OILLPG*</v>
+        <f t="shared" si="11"/>
+        <v>R-WH_Det_OILLPG*</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B75" s="32" t="str">
-        <f>"R-WH-"&amp;F75&amp;"_"&amp;G75&amp;"*"</f>
+        <f t="shared" si="10"/>
         <v>R-WH-Det_ELC*</v>
       </c>
       <c r="C75" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="D75" s="32"/>
+        <v>127</v>
+      </c>
+      <c r="D75" s="34">
+        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H75,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>3.5827666806884303E-2</v>
+      </c>
       <c r="F75" s="32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G75" s="32" t="s">
         <v>83</v>
       </c>
       <c r="H75" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Det_ELC*</v>
+        <f t="shared" si="11"/>
+        <v>R-WH_Det_ELC*</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B76" s="33" t="str">
-        <f>"R-WH-"&amp;F76&amp;"_"&amp;G76&amp;"*"</f>
+        <f t="shared" si="10"/>
         <v>R-WH-Det_OILKER*</v>
       </c>
       <c r="C76" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="D76" s="33"/>
+        <v>127</v>
+      </c>
+      <c r="D76" s="35">
+        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H76,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.22701813726626E-2</v>
+      </c>
       <c r="F76" s="33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G76" s="33" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H76" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Det_OILKER*</v>
+        <f t="shared" si="11"/>
+        <v>R-WH_Det_OILKER*</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B77" s="32" t="str">
-        <f>"R-WH-"&amp;F77&amp;"_"&amp;G77&amp;"*"</f>
+        <f t="shared" si="10"/>
         <v>R-WH-Det_GASNAT*</v>
       </c>
       <c r="C77" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="D77" s="32"/>
+        <v>127</v>
+      </c>
+      <c r="D77" s="34">
+        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H77,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.18538093576453E-2</v>
+      </c>
       <c r="F77" s="32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G77" s="32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H77" s="32" t="str">
-        <f>"R-SH-"&amp;F76&amp;"_"&amp;G77&amp;"*"</f>
-        <v>R-SH-Det_GASNAT*</v>
+        <f>"R-WH_"&amp;F76&amp;"_"&amp;G77&amp;"*"</f>
+        <v>R-WH_Det_GASNAT*</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B78" s="33" t="str">
-        <f>"R-WH-"&amp;F78&amp;"_"&amp;G78&amp;"*"</f>
+        <f t="shared" si="10"/>
         <v>R-WH-Det_PEA*</v>
       </c>
       <c r="C78" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="D78" s="33"/>
+        <v>127</v>
+      </c>
+      <c r="D78" s="35">
+        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H78,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.24915801777354E-2</v>
+      </c>
       <c r="F78" s="33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G78" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H78" s="33" t="str">
-        <f t="shared" ref="H78:H82" si="9">"R-SH-"&amp;F78&amp;"_"&amp;G78&amp;"*"</f>
-        <v>R-SH-Det_PEA*</v>
+        <f>"R-WH_"&amp;F78&amp;"_"&amp;G78&amp;"*"</f>
+        <v>R-WH_Det_PEA*</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B79" s="32" t="str">
-        <f>"R-WH-"&amp;F79&amp;"_"&amp;G79&amp;"*"</f>
+        <f t="shared" si="10"/>
         <v>R-WH-Det_SMF*</v>
       </c>
       <c r="C79" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="D79" s="32"/>
+        <v>127</v>
+      </c>
+      <c r="D79" s="34">
+        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H79,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.1286753739723199E-2</v>
+      </c>
       <c r="F79" s="32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G79" s="32" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H79" s="32" t="str">
-        <f t="shared" si="9"/>
-        <v>R-SH-Det_SMF*</v>
+        <f>"R-WH_"&amp;F79&amp;"_"&amp;G79&amp;"*"</f>
+        <v>R-WH_Det_SMF*</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B80" s="33" t="str">
-        <f>"R-WH-"&amp;F80&amp;"_"&amp;G80&amp;"*"</f>
+        <f t="shared" si="10"/>
         <v>R-WH-Det_BIOWOO*</v>
       </c>
       <c r="C80" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="D80" s="33"/>
+        <v>127</v>
+      </c>
+      <c r="D80" s="35">
+        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H80,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.27164544907902E-2</v>
+      </c>
       <c r="F80" s="33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G80" s="33" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H80" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v>R-SH-Det_BIOWOO*</v>
+        <f>"R-WH_"&amp;F80&amp;"_"&amp;G80&amp;"*"</f>
+        <v>R-WH_Det_BIOWOO*</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B81" s="32" t="str">
-        <f>"R-WH-"&amp;F81&amp;"_"&amp;G81&amp;"*"</f>
+        <f t="shared" si="10"/>
         <v>R-WH-Det_HET*</v>
       </c>
       <c r="C81" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="D81" s="32"/>
+        <v>127</v>
+      </c>
+      <c r="D81" s="34">
+        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H81,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.2874844310725899E-3</v>
+      </c>
       <c r="F81" s="32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G81" s="32" t="s">
         <v>84</v>
       </c>
       <c r="H81" s="32" t="str">
-        <f t="shared" si="9"/>
-        <v>R-SH-Det_HET*</v>
+        <f>"R-WH_"&amp;F81&amp;"_"&amp;G81&amp;"*"</f>
+        <v>R-WH_Det_HET*</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="33" t="s">
-        <v>107</v>
+        <v>1</v>
       </c>
       <c r="B82" s="33" t="str">
-        <f>"R-WH-"&amp;F82&amp;"_"&amp;G82&amp;"*"</f>
+        <f t="shared" si="10"/>
         <v>R-WH-Det_RENGEO*</v>
       </c>
       <c r="C82" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="D82" s="33"/>
+        <v>127</v>
+      </c>
+      <c r="D82" s="35">
+        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H82,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>0</v>
+      </c>
       <c r="F82" s="33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G82" s="33" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H82" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v>R-SH-Det_RENGEO*</v>
+        <f>"R-WH_"&amp;F82&amp;"_"&amp;G82&amp;"*"</f>
+        <v>R-WH_Det_RENGEO*</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF5E2F9-374A-43D9-B76C-3A48479FF0CF}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2">
+        <v>2018</v>
+      </c>
+      <c r="H2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K2" t="s">
+        <v>146</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31429258-A02E-4988-82C1-0A77E14DD528}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2">
+        <v>2018</v>
+      </c>
+      <c r="H2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K2" t="s">
+        <v>146</v>
+      </c>
+      <c r="L2">
+        <v>1.5428571428571401E-3</v>
+      </c>
+      <c r="M2">
+        <v>1.5428571428571401E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD076EF3-A195-4397-AD9A-EC5D0F2DC108}">
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2">
+        <v>2018</v>
+      </c>
+      <c r="H2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K2" t="s">
+        <v>146</v>
+      </c>
+      <c r="L2">
+        <v>3.3205708318124599E-4</v>
+      </c>
+      <c r="M2">
+        <v>3.3205708318124599E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3">
+        <v>2018</v>
+      </c>
+      <c r="H3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J3" t="s">
+        <v>146</v>
+      </c>
+      <c r="K3" t="s">
+        <v>146</v>
+      </c>
+      <c r="L3">
+        <v>6.3335727594585403E-4</v>
+      </c>
+      <c r="M3">
+        <v>6.3335727594585403E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4">
+        <v>2018</v>
+      </c>
+      <c r="H4" t="s">
+        <v>146</v>
+      </c>
+      <c r="I4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J4" t="s">
+        <v>146</v>
+      </c>
+      <c r="K4" t="s">
+        <v>146</v>
+      </c>
+      <c r="L4">
+        <v>7.8417325837286497E-4</v>
+      </c>
+      <c r="M4">
+        <v>7.8417325837286497E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDF976D-9BA7-415B-84DA-001C1A906A30}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2">
+        <v>2018</v>
+      </c>
+      <c r="H2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K2" t="s">
+        <v>146</v>
+      </c>
+      <c r="L2">
+        <v>2.598E-3</v>
+      </c>
+      <c r="M2">
+        <v>2.598E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SubRES_TMPL/SubRes_RSD_Trans.xlsx
+++ b/SubRES_TMPL/SubRes_RSD_Trans.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\~g2v_Irish-TIMES-model\rsd-subres\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2583FF32-CDE4-4492-824C-DE517D7656E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7031156-6F2A-4357-A5FC-151DAC4FFFDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="2880" windowWidth="21600" windowHeight="11385" tabRatio="819" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="819" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY-RSD-OE" sheetId="59" r:id="rId1"/>
@@ -31,7 +31,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId16"/>
-    <externalReference r:id="rId17"/>
   </externalReferences>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
@@ -1458,19 +1457,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="BY-RSD-OE"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1794,7 +1780,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA0718C5-D068-4563-B06A-974D1CF3294C}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -7712,7 +7700,6 @@
       </c>
       <c r="M11" s="33"/>
       <c r="N11" s="32" t="e">
-        <f>SUMIFS('[2]BY-RSD-OE'!$L$2:$L$100,'[2]BY-RSD-OE'!$C$2:$C$100,AF!L11,'[2]BY-RSD-OE'!$A$2:$A$100,"BASE")</f>
         <v>#VALUE!</v>
       </c>
     </row>

--- a/SubRES_TMPL/SubRes_RSD_Trans.xlsx
+++ b/SubRES_TMPL/SubRes_RSD_Trans.xlsx
@@ -8,28 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479A3383-B745-467B-83B4-E73E50BEC992}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8221DA-DAE3-4737-BC72-FB7B2CA71ADF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="819" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="819" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="46" r:id="rId1"/>
     <sheet name="TechSelection" sheetId="34" r:id="rId2"/>
     <sheet name="FillTable" sheetId="47" r:id="rId3"/>
     <sheet name="AF" sheetId="48" r:id="rId4"/>
-    <sheet name="BY-RSD-DW" sheetId="57" r:id="rId5"/>
-    <sheet name="BY-RSD-PF" sheetId="56" r:id="rId6"/>
-    <sheet name="BY-RSD-CD" sheetId="55" r:id="rId7"/>
-    <sheet name="BY-RSD-LT" sheetId="54" r:id="rId8"/>
-    <sheet name="BY-RSD-CW" sheetId="53" r:id="rId9"/>
-    <sheet name="BY-RSD-CK" sheetId="52" r:id="rId10"/>
-    <sheet name="BY-RSD-WH_AF" sheetId="51" r:id="rId11"/>
-    <sheet name="BY-RSD-RF" sheetId="50" r:id="rId12"/>
-    <sheet name="BY-RSD-SH_AF" sheetId="49" r:id="rId13"/>
-    <sheet name="BY-RSD-OE" sheetId="59" r:id="rId14"/>
+    <sheet name="EFF" sheetId="61" r:id="rId5"/>
+    <sheet name="BY-RSD-EFF" sheetId="60" r:id="rId6"/>
+    <sheet name="BY-RSD-DW" sheetId="57" r:id="rId7"/>
+    <sheet name="BY-RSD-PF" sheetId="56" r:id="rId8"/>
+    <sheet name="BY-RSD-CD" sheetId="55" r:id="rId9"/>
+    <sheet name="BY-RSD-LT" sheetId="54" r:id="rId10"/>
+    <sheet name="BY-RSD-CW" sheetId="53" r:id="rId11"/>
+    <sheet name="BY-RSD-CK" sheetId="52" r:id="rId12"/>
+    <sheet name="BY-RSD-WH_AF" sheetId="51" r:id="rId13"/>
+    <sheet name="BY-RSD-RF" sheetId="50" r:id="rId14"/>
+    <sheet name="BY-RSD-SH_AF" sheetId="49" r:id="rId15"/>
+    <sheet name="BY-RSD-OE" sheetId="59" r:id="rId16"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId17"/>
   </externalReferences>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
@@ -71,29 +73,6 @@
   </authors>
   <commentList>
     <comment ref="A15" authorId="0" shapeId="0" xr:uid="{01272BB8-E2B6-438D-929B-459C29D25D22}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">E4SMA: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Technology not available as future option</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J15" authorId="0" shapeId="0" xr:uid="{B53E6EB3-3713-4A63-9DB0-EDD6D0E16AC8}">
       <text>
         <r>
           <rPr>
@@ -166,6 +145,154 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Alessandro Chiodi</author>
+  </authors>
+  <commentList>
+    <comment ref="E15" authorId="0" shapeId="0" xr:uid="{5E2488D4-DAF1-46AB-A539-E1B33B9CF9CE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">E4SMA: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Technology not available as future option</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E28" authorId="0" shapeId="0" xr:uid="{E0A8C4A0-3F51-482B-937E-36BFCED51963}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">E4SMA: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Technology not available as future option</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E41" authorId="0" shapeId="0" xr:uid="{9DFE8B42-5FB3-4778-896A-7C5D619EF0BD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">E4SMA: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Technology not available as future option</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E54" authorId="0" shapeId="0" xr:uid="{749CDB38-A158-4DF6-998A-B14BE2E11397}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">E4SMA: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Technology not available as future option</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E67" authorId="0" shapeId="0" xr:uid="{94ED9B48-F5E3-456A-A49B-60F8B0DC5A09}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">E4SMA: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Technology not available as future option</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E80" authorId="0" shapeId="0" xr:uid="{30190403-C0CC-464D-8B0A-93EFDC06124E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">E4SMA: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Technology not available as future option</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
@@ -189,7 +316,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2622" uniqueCount="248">
   <si>
     <t>IE</t>
   </si>
@@ -934,13 +1061,32 @@
   <si>
     <t>~TFM_Fill-R: w=BY-RSD-EFF; Hcol=Region</t>
   </si>
+  <si>
+    <t>ANNUAL</t>
+  </si>
+  <si>
+    <t>RSDWH_Apt</t>
+  </si>
+  <si>
+    <t>RSDWH_Att</t>
+  </si>
+  <si>
+    <t>RSDWH_Det</t>
+  </si>
+  <si>
+    <t>Update Table to capture Base-Year Efficiency</t>
+  </si>
+  <si>
+    <t>EFF for RSD techs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;????_-;_-@_-"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -1194,7 +1340,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1282,6 +1428,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2595,6 +2742,281 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A33C8A0-6F39-4FB7-B653-B5172ACE9A22}">
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2">
+        <v>2018</v>
+      </c>
+      <c r="H2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K2" t="s">
+        <v>146</v>
+      </c>
+      <c r="L2">
+        <v>1.6114677026113401E-3</v>
+      </c>
+      <c r="M2">
+        <v>1.6114677026113401E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3">
+        <v>2018</v>
+      </c>
+      <c r="H3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J3" t="s">
+        <v>146</v>
+      </c>
+      <c r="K3" t="s">
+        <v>146</v>
+      </c>
+      <c r="L3">
+        <v>2.287177034804E-3</v>
+      </c>
+      <c r="M3">
+        <v>2.287177034804E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4">
+        <v>2018</v>
+      </c>
+      <c r="H4" t="s">
+        <v>146</v>
+      </c>
+      <c r="I4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J4" t="s">
+        <v>146</v>
+      </c>
+      <c r="K4" t="s">
+        <v>146</v>
+      </c>
+      <c r="L4">
+        <v>3.76745947904644E-3</v>
+      </c>
+      <c r="M4">
+        <v>3.76745947904644E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667C97CC-9D61-4655-83D0-3753B9DE28B3}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2">
+        <v>2018</v>
+      </c>
+      <c r="H2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K2" t="s">
+        <v>146</v>
+      </c>
+      <c r="L2">
+        <v>9.5142857142857095E-4</v>
+      </c>
+      <c r="M2">
+        <v>9.5142857142857095E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDAFE0BD-7396-4A40-957F-AD6D95EB14F4}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -2689,7 +3111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA50F32-E436-476D-84C9-138A2A28BC35}">
   <dimension ref="A1:M40"/>
   <sheetViews>
@@ -4345,7 +4767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C2F285-9307-42EA-A5DF-0946A8C3784D}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -4440,7 +4862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E4A06D-9682-4A49-9F18-659E62ECDD62}">
   <dimension ref="A1:M40"/>
   <sheetViews>
@@ -6096,7 +6518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA0718C5-D068-4563-B06A-974D1CF3294C}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -6394,8 +6816,8 @@
   </sheetPr>
   <dimension ref="B1:AD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="AD9" sqref="AD9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6411,6 +6833,12 @@
       <c r="B1" s="15" t="s">
         <v>92</v>
       </c>
+      <c r="L1" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="3" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="17" t="s">
@@ -7237,10 +7665,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:S82"/>
+  <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7254,39 +7682,31 @@
     <col min="7" max="7" width="18.140625" style="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.5703125" style="22" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="22"/>
-    <col min="10" max="10" width="11.140625" style="22" customWidth="1"/>
-    <col min="11" max="11" width="19.85546875" style="22" customWidth="1"/>
-    <col min="12" max="12" width="14" style="22" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" style="22" customWidth="1"/>
-    <col min="14" max="15" width="9.140625" style="22"/>
-    <col min="16" max="16" width="13.140625" style="22" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="22" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" style="22" customWidth="1"/>
-    <col min="19" max="19" width="13" style="22" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="22"/>
+    <col min="10" max="10" width="13.140625" style="22" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="22" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" style="22" customWidth="1"/>
+    <col min="13" max="13" width="13" style="22" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
       <c r="H2" s="23"/>
     </row>
-    <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="J3" s="37" t="s">
-        <v>239</v>
-      </c>
-      <c r="P3" s="17" t="s">
+      <c r="J3" s="17" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>70</v>
       </c>
@@ -7318,22 +7738,10 @@
         <v>76</v>
       </c>
       <c r="M4" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="P4" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q4" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="R4" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="S4" s="24" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>123</v>
       </c>
@@ -7344,19 +7752,13 @@
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
       <c r="J5" s="29" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
       <c r="M5" s="31"/>
-      <c r="P5" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="31"/>
-    </row>
-    <row r="6" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>106</v>
       </c>
@@ -7382,33 +7784,19 @@
         <v>R-SH_Apt_COA*</v>
       </c>
       <c r="J6" s="32" t="s">
-        <v>240</v>
+        <v>78</v>
       </c>
       <c r="K6" s="32" t="str">
-        <f>"R-SH-"&amp;F6&amp;"_"&amp;G6&amp;"*"</f>
-        <v>R-SH-Apt_COA*</v>
-      </c>
-      <c r="L6" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="M6" s="34">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q6,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q6" s="32" t="str">
         <f>FillTable!R5</f>
         <v>R-RSDRF*</v>
       </c>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32">
-        <f>SUMIFS('BY-RSD-RF'!$L$2:$L$100,'BY-RSD-RF'!$C$2:$C$100,AF!Q6,'BY-RSD-RF'!$A$2:$A$100,"BASE")</f>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32">
+        <f>SUMIFS('BY-RSD-RF'!$L$2:$L$100,'BY-RSD-RF'!$C$2:$C$100,AF!K6,'BY-RSD-RF'!$A$2:$A$100,"BASE")</f>
         <v>1.0395000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>106</v>
       </c>
@@ -7434,33 +7822,19 @@
         <v>R-SH_Apt_BIODST*</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>240</v>
+        <v>78</v>
       </c>
       <c r="K7" s="33" t="str">
-        <f t="shared" ref="K7:K17" si="2">"R-SH-"&amp;F7&amp;"_"&amp;G7&amp;"*"</f>
-        <v>R-SH-Apt_BIODST*</v>
-      </c>
-      <c r="L7" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="M7" s="35">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q7,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q7" s="33" t="str">
         <f>FillTable!R10</f>
         <v>R-RSDCK*</v>
       </c>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33">
-        <f>SUMIFS('BY-RSD-CK'!$L$2:$L$100,'BY-RSD-CK'!$C$2:$C$100,AF!Q7,'BY-RSD-CK'!$A$2:$A$100,"BASE")</f>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33">
+        <f>SUMIFS('BY-RSD-CK'!$L$2:$L$100,'BY-RSD-CK'!$C$2:$C$100,AF!K7,'BY-RSD-CK'!$A$2:$A$100,"BASE")</f>
         <v>2.2478349106259698E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>106</v>
       </c>
@@ -7486,33 +7860,19 @@
         <v>R-SH_Apt_BIOETH*</v>
       </c>
       <c r="J8" s="32" t="s">
-        <v>240</v>
+        <v>78</v>
       </c>
       <c r="K8" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>R-SH-Apt_BIOETH*</v>
-      </c>
-      <c r="L8" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="M8" s="34">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q8,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q8" s="32" t="str">
         <f>FillTable!R15</f>
         <v>R-RSDCW*</v>
       </c>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32">
-        <f>SUMIFS('BY-RSD-CW'!$L$2:$L$100,'BY-RSD-CW'!$C$2:$C$100,AF!Q8,'BY-RSD-RF'!$A$2:$A$100,"BASE")</f>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32">
+        <f>SUMIFS('BY-RSD-CW'!$L$2:$L$100,'BY-RSD-CW'!$C$2:$C$100,AF!K8,'BY-RSD-RF'!$A$2:$A$100,"BASE")</f>
         <v>9.5142857142857095E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>106</v>
       </c>
@@ -7538,33 +7898,19 @@
         <v>R-SH_Apt_OILLPG*</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>240</v>
+        <v>78</v>
       </c>
       <c r="K9" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>R-SH-Apt_OILLPG*</v>
-      </c>
-      <c r="L9" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="M9" s="35">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q9,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q9" s="33" t="str">
         <f>FillTable!R20</f>
         <v>R-RSDCD*</v>
       </c>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33">
-        <f>SUMIFS('BY-RSD-CD'!$L$2:$L$100,'BY-RSD-CD'!$C$2:$C$100,AF!Q9,'BY-RSD-CD'!$A$2:$A$100,"BASE")</f>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33">
+        <f>SUMIFS('BY-RSD-CD'!$L$2:$L$100,'BY-RSD-CD'!$C$2:$C$100,AF!K9,'BY-RSD-CD'!$A$2:$A$100,"BASE")</f>
         <v>2.598E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>106</v>
       </c>
@@ -7590,33 +7936,19 @@
         <v>R-SH_Apt_ELC*</v>
       </c>
       <c r="J10" s="32" t="s">
-        <v>240</v>
+        <v>78</v>
       </c>
       <c r="K10" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>R-SH-Apt_ELC*</v>
-      </c>
-      <c r="L10" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="M10" s="34">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q10,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q10" s="32" t="str">
         <f>FillTable!R25</f>
         <v>R-RSDDW*</v>
       </c>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32">
-        <f>SUMIFS('BY-RSD-DW'!$L$2:$L$100,'BY-RSD-DW'!$C$2:$C$100,AF!Q10,'BY-RSD-DW'!$A$2:$A$100,"BASE")</f>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32">
+        <f>SUMIFS('BY-RSD-DW'!$L$2:$L$100,'BY-RSD-DW'!$C$2:$C$100,AF!K10,'BY-RSD-DW'!$A$2:$A$100,"BASE")</f>
         <v>1.5428571428571401E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
         <v>106</v>
       </c>
@@ -7642,33 +7974,19 @@
         <v>R-SH_Apt_OILKER*</v>
       </c>
       <c r="J11" s="33" t="s">
-        <v>240</v>
+        <v>78</v>
       </c>
       <c r="K11" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>R-SH-Apt_OILKER*</v>
-      </c>
-      <c r="L11" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="M11" s="35">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q11,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q11" s="33" t="str">
         <f>FillTable!R30</f>
         <v>R-RSDOE*</v>
       </c>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33">
-        <f>SUMIFS('BY-RSD-OE'!$L$2:$L$100,'BY-RSD-OE'!$C$2:$C$100,AF!Q11,'BY-RSD-OE'!$A$2:$A$100,"BASE")</f>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33">
+        <f>SUMIFS('BY-RSD-OE'!$L$2:$L$100,'BY-RSD-OE'!$C$2:$C$100,AF!K11,'BY-RSD-OE'!$A$2:$A$100,"BASE")</f>
         <v>7.5148092892872798E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>106</v>
       </c>
@@ -7694,33 +8012,19 @@
         <v>R-SH_Apt_GASNAT*</v>
       </c>
       <c r="J12" s="32" t="s">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="K12" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>R-SH-Apt_GASNAT*</v>
-      </c>
-      <c r="L12" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="M12" s="34">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q12,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="32" t="str">
         <f>FillTable!R35</f>
         <v>R-RSDOA*</v>
       </c>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32">
-        <f>SUMIFS('BY-RSD-RF'!$L$2:$L$100,'BY-RSD-RF'!$C$2:$C$100,AF!Q12,'BY-RSD-RF'!$A$2:$A$100,"BASE")</f>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32">
+        <f>SUMIFS('BY-RSD-RF'!$L$2:$L$100,'BY-RSD-RF'!$C$2:$C$100,AF!K12,'BY-RSD-RF'!$A$2:$A$100,"BASE")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>106</v>
       </c>
@@ -7745,22 +8049,8 @@
         <f>"R-SH_"&amp;F13&amp;"_"&amp;G13&amp;"*"</f>
         <v>R-SH_Apt_PEA*</v>
       </c>
-      <c r="J13" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="K13" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>R-SH-Apt_PEA*</v>
-      </c>
-      <c r="L13" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="M13" s="35">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q13,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>106</v>
       </c>
@@ -7785,22 +8075,8 @@
         <f>"R-SH_"&amp;F14&amp;"_"&amp;G14&amp;"*"</f>
         <v>R-SH_Apt_SMF*</v>
       </c>
-      <c r="J14" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="K14" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>R-SH-Apt_SMF*</v>
-      </c>
-      <c r="L14" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="M14" s="34">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q14,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
         <v>106</v>
       </c>
@@ -7825,25 +8101,11 @@
         <f>"R-SH_"&amp;F15&amp;"_"&amp;G15&amp;"*"</f>
         <v>R-SH_Apt_BIOWOO*</v>
       </c>
-      <c r="J15" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="K15" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>R-SH-Apt_BIOWOO*</v>
-      </c>
-      <c r="L15" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="M15" s="35">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q15,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-      <c r="P15" s="17" t="s">
+      <c r="J15" s="17" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
         <v>106</v>
       </c>
@@ -7868,34 +8130,20 @@
         <f>"R-SH_"&amp;F16&amp;"_"&amp;G16&amp;"*"</f>
         <v>R-SH_Apt_HET*</v>
       </c>
-      <c r="J16" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="K16" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>R-SH-Apt_HET*</v>
-      </c>
-      <c r="L16" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="M16" s="34">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q16,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="24" t="s">
+      <c r="J16" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="Q16" s="24" t="s">
+      <c r="K16" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="R16" s="24" t="s">
+      <c r="L16" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="S16" s="24" t="s">
+      <c r="M16" s="24" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>106</v>
       </c>
@@ -7920,28 +8168,14 @@
         <f>"R-SH_"&amp;F17&amp;"_"&amp;G17&amp;"*"</f>
         <v>R-SH_Apt_RENGEO*</v>
       </c>
-      <c r="J17" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="K17" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>R-SH-Apt_RENGEO*</v>
-      </c>
-      <c r="L17" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="M17" s="35">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q17,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-      <c r="P17" s="29" t="s">
+      <c r="J17" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="31"/>
-    </row>
-    <row r="18" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="31"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>124</v>
       </c>
@@ -7952,30 +8186,24 @@
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
-      <c r="J18" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="P18" s="32" t="s">
+      <c r="J18" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="Q18" s="32" t="s">
+      <c r="K18" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32">
-        <f>SUMIFS('BY-RSD-LT'!$L$2:$L$100,'BY-RSD-LT'!$C$2:$C$100,AF!Q18,'BY-RSD-LT'!$A$2:$A$100,"BASE")</f>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32">
+        <f>SUMIFS('BY-RSD-LT'!$L$2:$L$100,'BY-RSD-LT'!$C$2:$C$100,AF!K18,'BY-RSD-LT'!$A$2:$A$100,"BASE")</f>
         <v>7.6661042164617808E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>106</v>
       </c>
       <c r="B19" s="32" t="str">
-        <f t="shared" ref="B19:B30" si="3">"R-SH-"&amp;F19&amp;"_"&amp;G19&amp;"*"</f>
+        <f t="shared" ref="B19:B30" si="2">"R-SH-"&amp;F19&amp;"_"&amp;G19&amp;"*"</f>
         <v>R-SH-Att_COA*</v>
       </c>
       <c r="C19" s="32" t="s">
@@ -7992,41 +8220,27 @@
         <v>82</v>
       </c>
       <c r="H19" s="32" t="str">
-        <f t="shared" ref="H19:H24" si="4">"R-SH_"&amp;F19&amp;"_"&amp;G19&amp;"*"</f>
+        <f t="shared" ref="H19:H24" si="3">"R-SH_"&amp;F19&amp;"_"&amp;G19&amp;"*"</f>
         <v>R-SH_Att_COA*</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="K19" s="33" t="str">
-        <f t="shared" ref="K18:K32" si="5">"R-SH-"&amp;F19&amp;"_"&amp;G19&amp;"*"</f>
-        <v>R-SH-Att_COA*</v>
-      </c>
-      <c r="L19" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="M19" s="35">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q19,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-      <c r="P19" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="Q19" s="33" t="s">
+      <c r="K19" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33">
-        <f>SUMIFS('BY-RSD-PF'!$L$2:$L$100,'BY-RSD-PF'!$C$2:$C$100,AF!Q19,'BY-RSD-PF'!$A$2:$A$100,"BASE")</f>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33">
+        <f>SUMIFS('BY-RSD-PF'!$L$2:$L$100,'BY-RSD-PF'!$C$2:$C$100,AF!K19,'BY-RSD-PF'!$A$2:$A$100,"BASE")</f>
         <v>1.7495876174999649E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
         <v>106</v>
       </c>
       <c r="B20" s="33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>R-SH-Att_BIODST*</v>
       </c>
       <c r="C20" s="33" t="s">
@@ -8043,30 +8257,16 @@
         <v>113</v>
       </c>
       <c r="H20" s="33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>R-SH_Att_BIODST*</v>
       </c>
-      <c r="J20" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="K20" s="32" t="str">
-        <f t="shared" si="5"/>
-        <v>R-SH-Att_BIODST*</v>
-      </c>
-      <c r="L20" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="M20" s="34">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q20,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>R-SH-Att_BIOETH*</v>
       </c>
       <c r="C21" s="32" t="s">
@@ -8083,30 +8283,16 @@
         <v>114</v>
       </c>
       <c r="H21" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>R-SH_Att_BIOETH*</v>
       </c>
-      <c r="J21" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="K21" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>R-SH-Att_BIOETH*</v>
-      </c>
-      <c r="L21" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="M21" s="35">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q21,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
         <v>106</v>
       </c>
       <c r="B22" s="33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>R-SH-Att_OILLPG*</v>
       </c>
       <c r="C22" s="33" t="s">
@@ -8123,30 +8309,16 @@
         <v>115</v>
       </c>
       <c r="H22" s="33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>R-SH_Att_OILLPG*</v>
       </c>
-      <c r="J22" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="K22" s="32" t="str">
-        <f t="shared" si="5"/>
-        <v>R-SH-Att_OILLPG*</v>
-      </c>
-      <c r="L22" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="M22" s="34">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q22,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>106</v>
       </c>
       <c r="B23" s="32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>R-SH-Att_ELC*</v>
       </c>
       <c r="C23" s="32" t="s">
@@ -8163,30 +8335,16 @@
         <v>83</v>
       </c>
       <c r="H23" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>R-SH_Att_ELC*</v>
       </c>
-      <c r="J23" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="K23" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>R-SH-Att_ELC*</v>
-      </c>
-      <c r="L23" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="M23" s="35">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q23,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
         <v>106</v>
       </c>
       <c r="B24" s="33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>R-SH-Att_OILKER*</v>
       </c>
       <c r="C24" s="33" t="s">
@@ -8203,30 +8361,16 @@
         <v>116</v>
       </c>
       <c r="H24" s="33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>R-SH_Att_OILKER*</v>
       </c>
-      <c r="J24" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="K24" s="32" t="str">
-        <f t="shared" si="5"/>
-        <v>R-SH-Att_OILKER*</v>
-      </c>
-      <c r="L24" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="M24" s="34">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q24,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
         <v>106</v>
       </c>
       <c r="B25" s="32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>R-SH-Att_GASNAT*</v>
       </c>
       <c r="C25" s="32" t="s">
@@ -8246,27 +8390,13 @@
         <f>"R-SH_"&amp;F24&amp;"_"&amp;G25&amp;"*"</f>
         <v>R-SH_Att_GASNAT*</v>
       </c>
-      <c r="J25" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="K25" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>R-SH-Att_GASNAT*</v>
-      </c>
-      <c r="L25" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="M25" s="35">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q25,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
         <v>106</v>
       </c>
       <c r="B26" s="33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>R-SH-Att_PEA*</v>
       </c>
       <c r="C26" s="33" t="s">
@@ -8286,27 +8416,13 @@
         <f>"R-SH_"&amp;F26&amp;"_"&amp;G26&amp;"*"</f>
         <v>R-SH_Att_PEA*</v>
       </c>
-      <c r="J26" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="K26" s="32" t="str">
-        <f t="shared" si="5"/>
-        <v>R-SH-Att_PEA*</v>
-      </c>
-      <c r="L26" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="M26" s="34">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q26,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
         <v>106</v>
       </c>
       <c r="B27" s="32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>R-SH-Att_SMF*</v>
       </c>
       <c r="C27" s="32" t="s">
@@ -8326,27 +8442,13 @@
         <f>"R-SH_"&amp;F27&amp;"_"&amp;G27&amp;"*"</f>
         <v>R-SH_Att_SMF*</v>
       </c>
-      <c r="J27" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="K27" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>R-SH-Att_SMF*</v>
-      </c>
-      <c r="L27" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="M27" s="35">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q27,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
         <v>106</v>
       </c>
       <c r="B28" s="33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>R-SH-Att_BIOWOO*</v>
       </c>
       <c r="C28" s="33" t="s">
@@ -8366,27 +8468,13 @@
         <f>"R-SH_"&amp;F28&amp;"_"&amp;G28&amp;"*"</f>
         <v>R-SH_Att_BIOWOO*</v>
       </c>
-      <c r="J28" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="K28" s="32" t="str">
-        <f t="shared" si="5"/>
-        <v>R-SH-Att_BIOWOO*</v>
-      </c>
-      <c r="L28" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="M28" s="34">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q28,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
         <v>106</v>
       </c>
       <c r="B29" s="32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>R-SH-Att_HET*</v>
       </c>
       <c r="C29" s="32" t="s">
@@ -8406,27 +8494,13 @@
         <f>"R-SH_"&amp;F29&amp;"_"&amp;G29&amp;"*"</f>
         <v>R-SH_Att_HET*</v>
       </c>
-      <c r="J29" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="K29" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>R-SH-Att_HET*</v>
-      </c>
-      <c r="L29" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="M29" s="35">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q29,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
         <v>106</v>
       </c>
       <c r="B30" s="33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>R-SH-Att_RENGEO*</v>
       </c>
       <c r="C30" s="33" t="s">
@@ -8446,22 +8520,8 @@
         <f>"R-SH_"&amp;F30&amp;"_"&amp;G30&amp;"*"</f>
         <v>R-SH_Att_RENGEO*</v>
       </c>
-      <c r="J30" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="K30" s="32" t="str">
-        <f t="shared" si="5"/>
-        <v>R-SH-Att_RENGEO*</v>
-      </c>
-      <c r="L30" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="M30" s="34">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q30,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="29" t="s">
         <v>125</v>
       </c>
@@ -8472,19 +8532,13 @@
       <c r="F31" s="30"/>
       <c r="G31" s="30"/>
       <c r="H31" s="30"/>
-      <c r="J31" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-    </row>
-    <row r="32" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
         <v>106</v>
       </c>
       <c r="B32" s="32" t="str">
-        <f t="shared" ref="B32:B43" si="6">"R-SH-"&amp;F32&amp;"_"&amp;G32&amp;"*"</f>
+        <f t="shared" ref="B32:B43" si="4">"R-SH-"&amp;F32&amp;"_"&amp;G32&amp;"*"</f>
         <v>R-SH-Det_COA*</v>
       </c>
       <c r="C32" s="32" t="s">
@@ -8501,31 +8555,16 @@
         <v>82</v>
       </c>
       <c r="H32" s="32" t="str">
-        <f t="shared" ref="H32:H37" si="7">"R-SH_"&amp;F32&amp;"_"&amp;G32&amp;"*"</f>
+        <f t="shared" ref="H32:H37" si="5">"R-SH_"&amp;F32&amp;"_"&amp;G32&amp;"*"</f>
         <v>R-SH_Det_COA*</v>
       </c>
-      <c r="J32" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="K32" s="32" t="str">
-        <f t="shared" si="5"/>
-        <v>R-SH-Det_COA*</v>
-      </c>
-      <c r="L32" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="M32" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q32,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-      <c r="N32" s="25"/>
-    </row>
-    <row r="33" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B33" s="33" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>R-SH-Det_BIODST*</v>
       </c>
       <c r="C33" s="33" t="s">
@@ -8542,32 +8581,17 @@
         <v>113</v>
       </c>
       <c r="H33" s="33" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>R-SH_Det_BIODST*</v>
       </c>
       <c r="I33" s="25"/>
-      <c r="J33" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="K33" s="33" t="str">
-        <f t="shared" ref="K33:K82" si="8">"R-SH-"&amp;F33&amp;"_"&amp;G33&amp;"*"</f>
-        <v>R-SH-Det_BIODST*</v>
-      </c>
-      <c r="L33" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="M33" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q33,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-      <c r="N33" s="25"/>
-    </row>
-    <row r="34" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B34" s="32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>R-SH-Det_BIOETH*</v>
       </c>
       <c r="C34" s="32" t="s">
@@ -8584,30 +8608,16 @@
         <v>114</v>
       </c>
       <c r="H34" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>R-SH_Det_BIOETH*</v>
       </c>
-      <c r="J34" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="K34" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Det_BIOETH*</v>
-      </c>
-      <c r="L34" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="M34" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q34,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
         <v>106</v>
       </c>
       <c r="B35" s="33" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>R-SH-Det_OILLPG*</v>
       </c>
       <c r="C35" s="33" t="s">
@@ -8624,30 +8634,16 @@
         <v>115</v>
       </c>
       <c r="H35" s="33" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>R-SH_Det_OILLPG*</v>
       </c>
-      <c r="J35" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="K35" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Det_OILLPG*</v>
-      </c>
-      <c r="L35" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="M35" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q35,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
         <v>106</v>
       </c>
       <c r="B36" s="32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>R-SH-Det_ELC*</v>
       </c>
       <c r="C36" s="32" t="s">
@@ -8664,30 +8660,16 @@
         <v>83</v>
       </c>
       <c r="H36" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>R-SH_Det_ELC*</v>
       </c>
-      <c r="J36" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="K36" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Det_ELC*</v>
-      </c>
-      <c r="L36" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="M36" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q36,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
         <v>106</v>
       </c>
       <c r="B37" s="33" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>R-SH-Det_OILKER*</v>
       </c>
       <c r="C37" s="33" t="s">
@@ -8704,30 +8686,16 @@
         <v>116</v>
       </c>
       <c r="H37" s="33" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>R-SH_Det_OILKER*</v>
       </c>
-      <c r="J37" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="K37" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Det_OILKER*</v>
-      </c>
-      <c r="L37" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="M37" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q37,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
         <v>106</v>
       </c>
       <c r="B38" s="32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>R-SH-Det_GASNAT*</v>
       </c>
       <c r="C38" s="32" t="s">
@@ -8747,27 +8715,13 @@
         <f>"R-SH_"&amp;F37&amp;"_"&amp;G38&amp;"*"</f>
         <v>R-SH_Det_GASNAT*</v>
       </c>
-      <c r="J38" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="K38" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Det_GASNAT*</v>
-      </c>
-      <c r="L38" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="M38" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q38,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
         <v>106</v>
       </c>
       <c r="B39" s="33" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>R-SH-Det_PEA*</v>
       </c>
       <c r="C39" s="33" t="s">
@@ -8787,27 +8741,13 @@
         <f>"R-SH_"&amp;F39&amp;"_"&amp;G39&amp;"*"</f>
         <v>R-SH_Det_PEA*</v>
       </c>
-      <c r="J39" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="K39" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Det_PEA*</v>
-      </c>
-      <c r="L39" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="M39" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q39,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
         <v>106</v>
       </c>
       <c r="B40" s="32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>R-SH-Det_SMF*</v>
       </c>
       <c r="C40" s="32" t="s">
@@ -8827,27 +8767,13 @@
         <f>"R-SH_"&amp;F40&amp;"_"&amp;G40&amp;"*"</f>
         <v>R-SH_Det_SMF*</v>
       </c>
-      <c r="J40" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="K40" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Det_SMF*</v>
-      </c>
-      <c r="L40" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="M40" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q40,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="33" t="s">
         <v>106</v>
       </c>
       <c r="B41" s="33" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>R-SH-Det_BIOWOO*</v>
       </c>
       <c r="C41" s="33" t="s">
@@ -8867,27 +8793,13 @@
         <f>"R-SH_"&amp;F41&amp;"_"&amp;G41&amp;"*"</f>
         <v>R-SH_Det_BIOWOO*</v>
       </c>
-      <c r="J41" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="K41" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Det_BIOWOO*</v>
-      </c>
-      <c r="L41" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="M41" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q41,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
         <v>106</v>
       </c>
       <c r="B42" s="32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>R-SH-Det_HET*</v>
       </c>
       <c r="C42" s="32" t="s">
@@ -8907,27 +8819,13 @@
         <f>"R-SH_"&amp;F42&amp;"_"&amp;G42&amp;"*"</f>
         <v>R-SH_Det_HET*</v>
       </c>
-      <c r="J42" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="K42" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Det_HET*</v>
-      </c>
-      <c r="L42" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="M42" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q42,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="s">
         <v>106</v>
       </c>
       <c r="B43" s="33" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>R-SH-Det_RENGEO*</v>
       </c>
       <c r="C43" s="33" t="s">
@@ -8947,22 +8845,8 @@
         <f>"R-SH_"&amp;F43&amp;"_"&amp;G43&amp;"*"</f>
         <v>R-SH_Det_RENGEO*</v>
       </c>
-      <c r="J43" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="K43" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Det_RENGEO*</v>
-      </c>
-      <c r="L43" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="M43" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q43,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="29" t="s">
         <v>129</v>
       </c>
@@ -8972,23 +8856,17 @@
       <c r="F44" s="30"/>
       <c r="G44" s="30"/>
       <c r="H44" s="30"/>
-      <c r="J44" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-    </row>
-    <row r="45" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
         <v>106</v>
       </c>
       <c r="B45" s="32" t="str">
-        <f t="shared" ref="B45:B56" si="9">"R-WH-"&amp;F45&amp;"_"&amp;G45&amp;"*"</f>
+        <f t="shared" ref="B45:B56" si="6">"R-WH-"&amp;F45&amp;"_"&amp;G45&amp;"*"</f>
         <v>R-WH-Apt_COA*</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="D45" s="34">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H45,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
@@ -9001,34 +8879,20 @@
         <v>82</v>
       </c>
       <c r="H45" s="32" t="str">
-        <f t="shared" ref="H45:H50" si="10">"R-WH_"&amp;F45&amp;"_"&amp;G45&amp;"*"</f>
+        <f t="shared" ref="H45:H50" si="7">"R-WH_"&amp;F45&amp;"_"&amp;G45&amp;"*"</f>
         <v>R-WH_Apt_COA*</v>
       </c>
-      <c r="J45" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="K45" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Apt_COA*</v>
-      </c>
-      <c r="L45" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="M45" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q45,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="33" t="s">
         <v>106</v>
       </c>
       <c r="B46" s="33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>R-WH-Apt_BIODST*</v>
       </c>
       <c r="C46" s="33" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="D46" s="35">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H46,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
@@ -9041,34 +8905,20 @@
         <v>113</v>
       </c>
       <c r="H46" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>R-WH_Apt_BIODST*</v>
       </c>
-      <c r="J46" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="K46" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Apt_BIODST*</v>
-      </c>
-      <c r="L46" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="M46" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q46,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="32" t="s">
         <v>106</v>
       </c>
       <c r="B47" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>R-WH-Apt_BIOETH*</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="D47" s="34">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H47,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
@@ -9081,34 +8931,20 @@
         <v>114</v>
       </c>
       <c r="H47" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>R-WH_Apt_BIOETH*</v>
       </c>
-      <c r="J47" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="K47" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Apt_BIOETH*</v>
-      </c>
-      <c r="L47" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="M47" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q47,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="33" t="s">
         <v>106</v>
       </c>
       <c r="B48" s="33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>R-WH-Apt_OILLPG*</v>
       </c>
       <c r="C48" s="33" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="D48" s="35">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H48,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
@@ -9121,34 +8957,20 @@
         <v>115</v>
       </c>
       <c r="H48" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>R-WH_Apt_OILLPG*</v>
       </c>
-      <c r="J48" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="K48" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Apt_OILLPG*</v>
-      </c>
-      <c r="L48" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="M48" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q48,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="32" t="s">
         <v>106</v>
       </c>
       <c r="B49" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>R-WH-Apt_ELC*</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="D49" s="34">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H49,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
@@ -9161,34 +8983,20 @@
         <v>83</v>
       </c>
       <c r="H49" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>R-WH_Apt_ELC*</v>
       </c>
-      <c r="J49" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="K49" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Apt_ELC*</v>
-      </c>
-      <c r="L49" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="M49" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q49,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="33" t="s">
         <v>106</v>
       </c>
       <c r="B50" s="33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>R-WH-Apt_OILKER*</v>
       </c>
       <c r="C50" s="33" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="D50" s="35">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H50,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
@@ -9201,34 +9009,20 @@
         <v>116</v>
       </c>
       <c r="H50" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>R-WH_Apt_OILKER*</v>
       </c>
-      <c r="J50" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="K50" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Apt_OILKER*</v>
-      </c>
-      <c r="L50" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="M50" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q50,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="32" t="s">
         <v>106</v>
       </c>
       <c r="B51" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>R-WH-Apt_GASNAT*</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="D51" s="34">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H51,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
@@ -9244,31 +9038,17 @@
         <f>"R-WH_"&amp;F50&amp;"_"&amp;G51&amp;"*"</f>
         <v>R-WH_Apt_GASNAT*</v>
       </c>
-      <c r="J51" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="K51" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Apt_GASNAT*</v>
-      </c>
-      <c r="L51" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="M51" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q51,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="33" t="s">
         <v>106</v>
       </c>
       <c r="B52" s="33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>R-WH-Apt_PEA*</v>
       </c>
       <c r="C52" s="33" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="D52" s="35">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H52,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
@@ -9284,31 +9064,17 @@
         <f>"R-WH_"&amp;F52&amp;"_"&amp;G52&amp;"*"</f>
         <v>R-WH_Apt_PEA*</v>
       </c>
-      <c r="J52" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="K52" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Apt_PEA*</v>
-      </c>
-      <c r="L52" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="M52" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q52,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
         <v>106</v>
       </c>
       <c r="B53" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>R-WH-Apt_SMF*</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="D53" s="34">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H53,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
@@ -9324,31 +9090,17 @@
         <f>"R-WH_"&amp;F53&amp;"_"&amp;G53&amp;"*"</f>
         <v>R-WH_Apt_SMF*</v>
       </c>
-      <c r="J53" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="K53" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Apt_SMF*</v>
-      </c>
-      <c r="L53" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="M53" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q53,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="33" t="s">
         <v>106</v>
       </c>
       <c r="B54" s="33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>R-WH-Apt_BIOWOO*</v>
       </c>
       <c r="C54" s="33" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="D54" s="35">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H54,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
@@ -9364,31 +9116,17 @@
         <f>"R-WH_"&amp;F54&amp;"_"&amp;G54&amp;"*"</f>
         <v>R-WH_Apt_BIOWOO*</v>
       </c>
-      <c r="J54" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="K54" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Apt_BIOWOO*</v>
-      </c>
-      <c r="L54" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="M54" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q54,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="32" t="s">
         <v>106</v>
       </c>
       <c r="B55" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>R-WH-Apt_HET*</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="D55" s="34">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H55,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
@@ -9404,31 +9142,17 @@
         <f>"R-WH_"&amp;F55&amp;"_"&amp;G55&amp;"*"</f>
         <v>R-WH_Apt_HET*</v>
       </c>
-      <c r="J55" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="K55" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Apt_HET*</v>
-      </c>
-      <c r="L55" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="M55" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q55,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B56" s="33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>R-WH-Apt_RENGEO*</v>
       </c>
       <c r="C56" s="33" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="D56" s="35">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H56,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
@@ -9444,22 +9168,8 @@
         <f>"R-WH_"&amp;F56&amp;"_"&amp;G56&amp;"*"</f>
         <v>R-WH_Apt_RENGEO*</v>
       </c>
-      <c r="J56" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="K56" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Apt_RENGEO*</v>
-      </c>
-      <c r="L56" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="M56" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q56,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="29" t="s">
         <v>130</v>
       </c>
@@ -9470,23 +9180,17 @@
       <c r="F57" s="30"/>
       <c r="G57" s="30"/>
       <c r="H57" s="30"/>
-      <c r="J57" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="30"/>
-    </row>
-    <row r="58" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="32" t="s">
         <v>106</v>
       </c>
       <c r="B58" s="32" t="str">
-        <f t="shared" ref="B58:B69" si="11">"R-WH-"&amp;F58&amp;"_"&amp;G58&amp;"*"</f>
+        <f t="shared" ref="B58:B69" si="8">"R-WH-"&amp;F58&amp;"_"&amp;G58&amp;"*"</f>
         <v>R-WH-Att_COA*</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>128</v>
+        <v>244</v>
       </c>
       <c r="D58" s="34">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H58,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
@@ -9499,34 +9203,20 @@
         <v>82</v>
       </c>
       <c r="H58" s="32" t="str">
-        <f t="shared" ref="H58:H63" si="12">"R-WH_"&amp;F58&amp;"_"&amp;G58&amp;"*"</f>
+        <f t="shared" ref="H58:H63" si="9">"R-WH_"&amp;F58&amp;"_"&amp;G58&amp;"*"</f>
         <v>R-WH_Att_COA*</v>
       </c>
-      <c r="J58" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="K58" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Att_COA*</v>
-      </c>
-      <c r="L58" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="M58" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q58,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="33" t="s">
         <v>106</v>
       </c>
       <c r="B59" s="33" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>R-WH-Att_BIODST*</v>
       </c>
       <c r="C59" s="33" t="s">
-        <v>128</v>
+        <v>244</v>
       </c>
       <c r="D59" s="35">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H59,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
@@ -9539,34 +9229,20 @@
         <v>113</v>
       </c>
       <c r="H59" s="33" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>R-WH_Att_BIODST*</v>
       </c>
-      <c r="J59" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="K59" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Att_BIODST*</v>
-      </c>
-      <c r="L59" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="M59" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q59,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="32" t="s">
         <v>106</v>
       </c>
       <c r="B60" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>R-WH-Att_BIOETH*</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>128</v>
+        <v>244</v>
       </c>
       <c r="D60" s="34">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H60,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
@@ -9579,34 +9255,20 @@
         <v>114</v>
       </c>
       <c r="H60" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>R-WH_Att_BIOETH*</v>
       </c>
-      <c r="J60" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="K60" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Att_BIOETH*</v>
-      </c>
-      <c r="L60" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="M60" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q60,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="33" t="s">
         <v>106</v>
       </c>
       <c r="B61" s="33" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>R-WH-Att_OILLPG*</v>
       </c>
       <c r="C61" s="33" t="s">
-        <v>128</v>
+        <v>244</v>
       </c>
       <c r="D61" s="35">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H61,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
@@ -9619,34 +9281,20 @@
         <v>115</v>
       </c>
       <c r="H61" s="33" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>R-WH_Att_OILLPG*</v>
       </c>
-      <c r="J61" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="K61" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Att_OILLPG*</v>
-      </c>
-      <c r="L61" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="M61" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q61,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
         <v>106</v>
       </c>
       <c r="B62" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>R-WH-Att_ELC*</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>128</v>
+        <v>244</v>
       </c>
       <c r="D62" s="34">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H62,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
@@ -9659,34 +9307,20 @@
         <v>83</v>
       </c>
       <c r="H62" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>R-WH_Att_ELC*</v>
       </c>
-      <c r="J62" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="K62" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Att_ELC*</v>
-      </c>
-      <c r="L62" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="M62" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q62,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="33" t="s">
         <v>106</v>
       </c>
       <c r="B63" s="33" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>R-WH-Att_OILKER*</v>
       </c>
       <c r="C63" s="33" t="s">
-        <v>128</v>
+        <v>244</v>
       </c>
       <c r="D63" s="35">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H63,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
@@ -9699,34 +9333,20 @@
         <v>116</v>
       </c>
       <c r="H63" s="33" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>R-WH_Att_OILKER*</v>
       </c>
-      <c r="J63" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="K63" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Att_OILKER*</v>
-      </c>
-      <c r="L63" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="M63" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q63,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="32" t="s">
         <v>106</v>
       </c>
       <c r="B64" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>R-WH-Att_GASNAT*</v>
       </c>
       <c r="C64" s="32" t="s">
-        <v>128</v>
+        <v>244</v>
       </c>
       <c r="D64" s="34">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H64,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
@@ -9742,31 +9362,17 @@
         <f>"R-WH_"&amp;F63&amp;"_"&amp;G64&amp;"*"</f>
         <v>R-WH_Att_GASNAT*</v>
       </c>
-      <c r="J64" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="K64" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Att_GASNAT*</v>
-      </c>
-      <c r="L64" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="M64" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q64,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="33" t="s">
         <v>106</v>
       </c>
       <c r="B65" s="33" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>R-WH-Att_PEA*</v>
       </c>
       <c r="C65" s="33" t="s">
-        <v>128</v>
+        <v>244</v>
       </c>
       <c r="D65" s="35">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H65,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
@@ -9782,31 +9388,17 @@
         <f>"R-WH_"&amp;F65&amp;"_"&amp;G65&amp;"*"</f>
         <v>R-WH_Att_PEA*</v>
       </c>
-      <c r="J65" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="K65" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Att_PEA*</v>
-      </c>
-      <c r="L65" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="M65" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q65,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="32" t="s">
         <v>106</v>
       </c>
       <c r="B66" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>R-WH-Att_SMF*</v>
       </c>
       <c r="C66" s="32" t="s">
-        <v>128</v>
+        <v>244</v>
       </c>
       <c r="D66" s="34">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H66,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
@@ -9822,31 +9414,17 @@
         <f>"R-WH_"&amp;F66&amp;"_"&amp;G66&amp;"*"</f>
         <v>R-WH_Att_SMF*</v>
       </c>
-      <c r="J66" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="K66" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Att_SMF*</v>
-      </c>
-      <c r="L66" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="M66" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q66,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="33" t="s">
         <v>106</v>
       </c>
       <c r="B67" s="33" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>R-WH-Att_BIOWOO*</v>
       </c>
       <c r="C67" s="33" t="s">
-        <v>128</v>
+        <v>244</v>
       </c>
       <c r="D67" s="35">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H67,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
@@ -9862,31 +9440,17 @@
         <f>"R-WH_"&amp;F67&amp;"_"&amp;G67&amp;"*"</f>
         <v>R-WH_Att_BIOWOO*</v>
       </c>
-      <c r="J67" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="K67" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Att_BIOWOO*</v>
-      </c>
-      <c r="L67" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="M67" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q67,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="32" t="s">
         <v>106</v>
       </c>
       <c r="B68" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>R-WH-Att_HET*</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>128</v>
+        <v>244</v>
       </c>
       <c r="D68" s="34">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H68,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
@@ -9902,31 +9466,17 @@
         <f>"R-WH_"&amp;F68&amp;"_"&amp;G68&amp;"*"</f>
         <v>R-WH_Att_HET*</v>
       </c>
-      <c r="J68" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="K68" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Att_HET*</v>
-      </c>
-      <c r="L68" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="M68" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q68,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B69" s="33" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>R-WH-Att_RENGEO*</v>
       </c>
       <c r="C69" s="33" t="s">
-        <v>128</v>
+        <v>244</v>
       </c>
       <c r="D69" s="35">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H69,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
@@ -9942,22 +9492,8 @@
         <f>"R-WH_"&amp;F69&amp;"_"&amp;G69&amp;"*"</f>
         <v>R-WH_Att_RENGEO*</v>
       </c>
-      <c r="J69" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="K69" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Att_RENGEO*</v>
-      </c>
-      <c r="L69" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="M69" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q69,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="29" t="s">
         <v>131</v>
       </c>
@@ -9968,23 +9504,17 @@
       <c r="F70" s="30"/>
       <c r="G70" s="30"/>
       <c r="H70" s="30"/>
-      <c r="J70" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="K70" s="30"/>
-      <c r="L70" s="30"/>
-      <c r="M70" s="30"/>
-    </row>
-    <row r="71" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="32" t="s">
         <v>106</v>
       </c>
       <c r="B71" s="32" t="str">
-        <f t="shared" ref="B71:B82" si="13">"R-WH-"&amp;F71&amp;"_"&amp;G71&amp;"*"</f>
+        <f t="shared" ref="B71:B82" si="10">"R-WH-"&amp;F71&amp;"_"&amp;G71&amp;"*"</f>
         <v>R-WH-Det_COA*</v>
       </c>
       <c r="C71" s="32" t="s">
-        <v>127</v>
+        <v>245</v>
       </c>
       <c r="D71" s="34">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H71,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
@@ -9997,34 +9527,20 @@
         <v>82</v>
       </c>
       <c r="H71" s="32" t="str">
-        <f t="shared" ref="H71:H76" si="14">"R-WH_"&amp;F71&amp;"_"&amp;G71&amp;"*"</f>
+        <f t="shared" ref="H71:H76" si="11">"R-WH_"&amp;F71&amp;"_"&amp;G71&amp;"*"</f>
         <v>R-WH_Det_COA*</v>
       </c>
-      <c r="J71" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="K71" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Det_COA*</v>
-      </c>
-      <c r="L71" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="M71" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q71,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="33" t="s">
         <v>106</v>
       </c>
       <c r="B72" s="33" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>R-WH-Det_BIODST*</v>
       </c>
       <c r="C72" s="33" t="s">
-        <v>127</v>
+        <v>245</v>
       </c>
       <c r="D72" s="35">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H72,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
@@ -10037,34 +9553,20 @@
         <v>113</v>
       </c>
       <c r="H72" s="33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>R-WH_Det_BIODST*</v>
       </c>
-      <c r="J72" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="K72" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Det_BIODST*</v>
-      </c>
-      <c r="L72" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="M72" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q72,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="32" t="s">
         <v>106</v>
       </c>
       <c r="B73" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>R-WH-Det_BIOETH*</v>
       </c>
       <c r="C73" s="32" t="s">
-        <v>127</v>
+        <v>245</v>
       </c>
       <c r="D73" s="34">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H73,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
@@ -10077,34 +9579,20 @@
         <v>114</v>
       </c>
       <c r="H73" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>R-WH_Det_BIOETH*</v>
       </c>
-      <c r="J73" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="K73" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Det_BIOETH*</v>
-      </c>
-      <c r="L73" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="M73" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q73,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="33" t="s">
         <v>106</v>
       </c>
       <c r="B74" s="33" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>R-WH-Det_OILLPG*</v>
       </c>
       <c r="C74" s="33" t="s">
-        <v>127</v>
+        <v>245</v>
       </c>
       <c r="D74" s="35">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H74,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
@@ -10117,34 +9605,20 @@
         <v>115</v>
       </c>
       <c r="H74" s="33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>R-WH_Det_OILLPG*</v>
       </c>
-      <c r="J74" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="K74" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Det_OILLPG*</v>
-      </c>
-      <c r="L74" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="M74" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q74,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="32" t="s">
         <v>106</v>
       </c>
       <c r="B75" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>R-WH-Det_ELC*</v>
       </c>
       <c r="C75" s="32" t="s">
-        <v>127</v>
+        <v>245</v>
       </c>
       <c r="D75" s="34">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H75,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
@@ -10157,34 +9631,20 @@
         <v>83</v>
       </c>
       <c r="H75" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>R-WH_Det_ELC*</v>
       </c>
-      <c r="J75" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="K75" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Det_ELC*</v>
-      </c>
-      <c r="L75" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="M75" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q75,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="33" t="s">
         <v>106</v>
       </c>
       <c r="B76" s="33" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>R-WH-Det_OILKER*</v>
       </c>
       <c r="C76" s="33" t="s">
-        <v>127</v>
+        <v>245</v>
       </c>
       <c r="D76" s="35">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H76,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
@@ -10197,34 +9657,20 @@
         <v>116</v>
       </c>
       <c r="H76" s="33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>R-WH_Det_OILKER*</v>
       </c>
-      <c r="J76" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="K76" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Det_OILKER*</v>
-      </c>
-      <c r="L76" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="M76" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q76,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="32" t="s">
         <v>106</v>
       </c>
       <c r="B77" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>R-WH-Det_GASNAT*</v>
       </c>
       <c r="C77" s="32" t="s">
-        <v>127</v>
+        <v>245</v>
       </c>
       <c r="D77" s="34">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H77,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
@@ -10240,31 +9686,17 @@
         <f>"R-WH_"&amp;F76&amp;"_"&amp;G77&amp;"*"</f>
         <v>R-WH_Det_GASNAT*</v>
       </c>
-      <c r="J77" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="K77" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Det_GASNAT*</v>
-      </c>
-      <c r="L77" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="M77" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q77,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="33" t="s">
         <v>106</v>
       </c>
       <c r="B78" s="33" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>R-WH-Det_PEA*</v>
       </c>
       <c r="C78" s="33" t="s">
-        <v>127</v>
+        <v>245</v>
       </c>
       <c r="D78" s="35">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H78,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
@@ -10280,31 +9712,17 @@
         <f>"R-WH_"&amp;F78&amp;"_"&amp;G78&amp;"*"</f>
         <v>R-WH_Det_PEA*</v>
       </c>
-      <c r="J78" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="K78" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Det_PEA*</v>
-      </c>
-      <c r="L78" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="M78" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q78,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="32" t="s">
         <v>106</v>
       </c>
       <c r="B79" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>R-WH-Det_SMF*</v>
       </c>
       <c r="C79" s="32" t="s">
-        <v>127</v>
+        <v>245</v>
       </c>
       <c r="D79" s="34">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H79,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
@@ -10320,31 +9738,17 @@
         <f>"R-WH_"&amp;F79&amp;"_"&amp;G79&amp;"*"</f>
         <v>R-WH_Det_SMF*</v>
       </c>
-      <c r="J79" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="K79" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Det_SMF*</v>
-      </c>
-      <c r="L79" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="M79" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q79,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="33" t="s">
         <v>106</v>
       </c>
       <c r="B80" s="33" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>R-WH-Det_BIOWOO*</v>
       </c>
       <c r="C80" s="33" t="s">
-        <v>127</v>
+        <v>245</v>
       </c>
       <c r="D80" s="35">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H80,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
@@ -10360,31 +9764,17 @@
         <f>"R-WH_"&amp;F80&amp;"_"&amp;G80&amp;"*"</f>
         <v>R-WH_Det_BIOWOO*</v>
       </c>
-      <c r="J80" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="K80" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Det_BIOWOO*</v>
-      </c>
-      <c r="L80" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="M80" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q80,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="32" t="s">
         <v>106</v>
       </c>
       <c r="B81" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>R-WH-Det_HET*</v>
       </c>
       <c r="C81" s="32" t="s">
-        <v>127</v>
+        <v>245</v>
       </c>
       <c r="D81" s="34">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H81,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
@@ -10400,31 +9790,17 @@
         <f>"R-WH_"&amp;F81&amp;"_"&amp;G81&amp;"*"</f>
         <v>R-WH_Det_HET*</v>
       </c>
-      <c r="J81" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="K81" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Det_HET*</v>
-      </c>
-      <c r="L81" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="M81" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q81,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B82" s="33" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>R-WH-Det_RENGEO*</v>
       </c>
       <c r="C82" s="33" t="s">
-        <v>127</v>
+        <v>245</v>
       </c>
       <c r="D82" s="35">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!H82,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
@@ -10439,20 +9815,6 @@
       <c r="H82" s="33" t="str">
         <f>"R-WH_"&amp;F82&amp;"_"&amp;G82&amp;"*"</f>
         <v>R-WH_Det_RENGEO*</v>
-      </c>
-      <c r="J82" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="K82" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>R-SH-Det_RENGEO*</v>
-      </c>
-      <c r="L82" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="M82" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!Q82,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10462,6 +9824,5042 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026A0CE7-7648-4CEA-AE2D-8669560BEC50}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:H82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" style="22" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="22"/>
+    <col min="5" max="5" width="11.140625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="22" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="22" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="23"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="E3" s="37" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="E5" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="30"/>
+      <c r="G5" s="31"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="32" t="str">
+        <f t="shared" ref="C6:C11" si="0">"R-SH_"&amp;A6&amp;"_"&amp;B6&amp;"*"</f>
+        <v>R-SH_Apt_COA*</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="F6" s="32" t="str">
+        <f t="shared" ref="F6:F17" si="1">"R-SH_"&amp;A6&amp;"_"&amp;B6&amp;"*"</f>
+        <v>R-SH_Apt_COA*</v>
+      </c>
+      <c r="G6" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C6,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.590188034188034</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>R-SH_Apt_BIODST*</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="F7" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>R-SH_Apt_BIODST*</v>
+      </c>
+      <c r="G7" s="33" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C7,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>R-SH_Apt_BIOETH*</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="F8" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>R-SH_Apt_BIOETH*</v>
+      </c>
+      <c r="G8" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C8,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>R-SH_Apt_OILLPG*</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="F9" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>R-SH_Apt_OILLPG*</v>
+      </c>
+      <c r="G9" s="38" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C9,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.806779026217228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>R-SH_Apt_ELC*</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="F10" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>R-SH_Apt_ELC*</v>
+      </c>
+      <c r="G10" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C10,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*2.03509803921568</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>R-SH_Apt_OILKER*</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="F11" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>R-SH_Apt_OILKER*</v>
+      </c>
+      <c r="G11" s="33" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C11,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.810162162162162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="32" t="str">
+        <f>"R-SH_"&amp;A11&amp;"_"&amp;B12&amp;"*"</f>
+        <v>R-SH_Apt_GASNAT*</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="F12" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>R-SH_Apt_GASNAT*</v>
+      </c>
+      <c r="G12" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C12,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.810268817204301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="33" t="str">
+        <f>"R-SH_"&amp;A13&amp;"_"&amp;B13&amp;"*"</f>
+        <v>R-SH_Apt_PEA*</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="F13" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>R-SH_Apt_PEA*</v>
+      </c>
+      <c r="G13" s="33" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C13,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.525</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="32" t="str">
+        <f>"R-SH_"&amp;A14&amp;"_"&amp;B14&amp;"*"</f>
+        <v>R-SH_Apt_SMF*</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="F14" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>R-SH_Apt_SMF*</v>
+      </c>
+      <c r="G14" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C14,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.581777777777778</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="33" t="str">
+        <f>"R-SH_"&amp;A15&amp;"_"&amp;B15&amp;"*"</f>
+        <v>R-SH_Apt_BIOWOO*</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="F15" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>R-SH_Apt_BIOWOO*</v>
+      </c>
+      <c r="G15" s="33" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C15,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.688045112781955</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="32" t="str">
+        <f>"R-SH_"&amp;A16&amp;"_"&amp;B16&amp;"*"</f>
+        <v>R-SH_Apt_HET*</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="F16" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>R-SH_Apt_HET*</v>
+      </c>
+      <c r="G16" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C16,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.3983844218765</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="33" t="str">
+        <f>"R-SH_"&amp;A17&amp;"_"&amp;B17&amp;"*"</f>
+        <v>R-SH_Apt_RENGEO*</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="F17" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>R-SH_Apt_RENGEO*</v>
+      </c>
+      <c r="G17" s="33" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C17,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*3.07019607843137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="E18" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="32" t="str">
+        <f t="shared" ref="C19:C24" si="2">"R-SH_"&amp;A19&amp;"_"&amp;B19&amp;"*"</f>
+        <v>R-SH_Att_COA*</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="F19" s="33" t="str">
+        <f t="shared" ref="F19:F30" si="3">"R-SH_"&amp;A19&amp;"_"&amp;B19&amp;"*"</f>
+        <v>R-SH_Att_COA*</v>
+      </c>
+      <c r="G19" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C19,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.557980879057327</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v>R-SH_Att_BIODST*</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="F20" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>R-SH_Att_BIODST*</v>
+      </c>
+      <c r="G20" s="33" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C20,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>R-SH_Att_BIOETH*</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="F21" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v>R-SH_Att_BIOETH*</v>
+      </c>
+      <c r="G21" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C21,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v>R-SH_Att_OILLPG*</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="F22" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>R-SH_Att_OILLPG*</v>
+      </c>
+      <c r="G22" s="38" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C22,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.807075774336283</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>R-SH_Att_ELC*</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="F23" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v>R-SH_Att_ELC*</v>
+      </c>
+      <c r="G23" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C23,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*2.0578813559322</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v>R-SH_Att_OILKER*</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="F24" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>R-SH_Att_OILKER*</v>
+      </c>
+      <c r="G24" s="33" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C24,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.819415584415584</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="32" t="str">
+        <f>"R-SH_"&amp;A24&amp;"_"&amp;B25&amp;"*"</f>
+        <v>R-SH_Att_GASNAT*</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="F25" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v>R-SH_Att_GASNAT*</v>
+      </c>
+      <c r="G25" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C25,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.817294117647059</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="33" t="str">
+        <f>"R-SH_"&amp;A26&amp;"_"&amp;B26&amp;"*"</f>
+        <v>R-SH_Att_PEA*</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="F26" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>R-SH_Att_PEA*</v>
+      </c>
+      <c r="G26" s="33" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C26,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.550929487179487</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="32" t="str">
+        <f>"R-SH_"&amp;A27&amp;"_"&amp;B27&amp;"*"</f>
+        <v>R-SH_Att_SMF*</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="F27" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v>R-SH_Att_SMF*</v>
+      </c>
+      <c r="G27" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C27,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.571137724550898</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="33" t="str">
+        <f>"R-SH_"&amp;A28&amp;"_"&amp;B28&amp;"*"</f>
+        <v>R-SH_Att_BIOWOO*</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="F28" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>R-SH_Att_BIOWOO*</v>
+      </c>
+      <c r="G28" s="33" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C28,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.704006568144499</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="32" t="str">
+        <f>"R-SH_"&amp;A29&amp;"_"&amp;B29&amp;"*"</f>
+        <v>R-SH_Att_HET*</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="F29" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v>R-SH_Att_HET*</v>
+      </c>
+      <c r="G29" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C29,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.609499730599684</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="33" t="str">
+        <f>"R-SH_"&amp;A30&amp;"_"&amp;B30&amp;"*"</f>
+        <v>R-SH_Att_RENGEO*</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="F30" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>R-SH_Att_RENGEO*</v>
+      </c>
+      <c r="G30" s="33" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C30,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*3.11576271186441</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="E31" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="32" t="str">
+        <f t="shared" ref="C32:C37" si="4">"R-SH_"&amp;A32&amp;"_"&amp;B32&amp;"*"</f>
+        <v>R-SH_Det_COA*</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="F32" s="32" t="str">
+        <f t="shared" ref="F32:F43" si="5">"R-SH_"&amp;A32&amp;"_"&amp;B32&amp;"*"</f>
+        <v>R-SH_Det_COA*</v>
+      </c>
+      <c r="G32" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C32,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.619863294600137</v>
+      </c>
+      <c r="H32" s="25"/>
+    </row>
+    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>R-SH_Det_BIODST*</v>
+      </c>
+      <c r="D33" s="25"/>
+      <c r="E33" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="F33" s="33" t="str">
+        <f t="shared" si="5"/>
+        <v>R-SH_Det_BIODST*</v>
+      </c>
+      <c r="G33" s="33" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C33,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.9</v>
+      </c>
+      <c r="H33" s="25"/>
+    </row>
+    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v>R-SH_Det_BIOETH*</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="F34" s="32" t="str">
+        <f t="shared" si="5"/>
+        <v>R-SH_Det_BIOETH*</v>
+      </c>
+      <c r="G34" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C34,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>R-SH_Det_OILLPG*</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="F35" s="33" t="str">
+        <f t="shared" si="5"/>
+        <v>R-SH_Det_OILLPG*</v>
+      </c>
+      <c r="G35" s="38" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C35,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.826617747626993</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v>R-SH_Det_ELC*</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="F36" s="32" t="str">
+        <f t="shared" si="5"/>
+        <v>R-SH_Det_ELC*</v>
+      </c>
+      <c r="G36" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C36,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*2.04465237093381</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>R-SH_Det_OILKER*</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="F37" s="33" t="str">
+        <f t="shared" si="5"/>
+        <v>R-SH_Det_OILKER*</v>
+      </c>
+      <c r="G37" s="33" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C37,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.822803738317757</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="32" t="str">
+        <f>"R-SH_"&amp;A37&amp;"_"&amp;B38&amp;"*"</f>
+        <v>R-SH_Det_GASNAT*</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="F38" s="32" t="str">
+        <f t="shared" si="5"/>
+        <v>R-SH_Det_GASNAT*</v>
+      </c>
+      <c r="G38" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C38,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.827287581699346</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="33" t="str">
+        <f>"R-SH_"&amp;A39&amp;"_"&amp;B39&amp;"*"</f>
+        <v>R-SH_Det_PEA*</v>
+      </c>
+      <c r="E39" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="F39" s="33" t="str">
+        <f t="shared" si="5"/>
+        <v>R-SH_Det_PEA*</v>
+      </c>
+      <c r="G39" s="33" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C39,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.545789473684211</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="32" t="str">
+        <f>"R-SH_"&amp;A40&amp;"_"&amp;B40&amp;"*"</f>
+        <v>R-SH_Det_SMF*</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="F40" s="32" t="str">
+        <f t="shared" si="5"/>
+        <v>R-SH_Det_SMF*</v>
+      </c>
+      <c r="G40" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C40,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.614742268041237</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="33" t="str">
+        <f>"R-SH_"&amp;A41&amp;"_"&amp;B41&amp;"*"</f>
+        <v>R-SH_Det_BIOWOO*</v>
+      </c>
+      <c r="E41" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="F41" s="33" t="str">
+        <f t="shared" si="5"/>
+        <v>R-SH_Det_BIOWOO*</v>
+      </c>
+      <c r="G41" s="33" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C41,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.729286096921694</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="32" t="str">
+        <f>"R-SH_"&amp;A42&amp;"_"&amp;B42&amp;"*"</f>
+        <v>R-SH_Det_HET*</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="F42" s="32" t="str">
+        <f t="shared" si="5"/>
+        <v>R-SH_Det_HET*</v>
+      </c>
+      <c r="G42" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C42,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.65865731206453</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="33" t="str">
+        <f>"R-SH_"&amp;A43&amp;"_"&amp;B43&amp;"*"</f>
+        <v>R-SH_Det_RENGEO*</v>
+      </c>
+      <c r="E43" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="F43" s="33" t="str">
+        <f t="shared" si="5"/>
+        <v>R-SH_Det_RENGEO*</v>
+      </c>
+      <c r="G43" s="33" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C43,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*3.08978378378378</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="30"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="E44" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+    </row>
+    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="32" t="str">
+        <f t="shared" ref="C45:C50" si="6">"R-WH_"&amp;A45&amp;"_"&amp;B45&amp;"*"</f>
+        <v>R-WH_Apt_COA*</v>
+      </c>
+      <c r="E45" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="F45" s="32" t="str">
+        <f t="shared" ref="F45:F56" si="7">"R-WH_"&amp;A45&amp;"_"&amp;B45&amp;"*"</f>
+        <v>R-WH_Apt_COA*</v>
+      </c>
+      <c r="G45" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C45,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.590188034188034</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>R-WH_Apt_BIODST*</v>
+      </c>
+      <c r="E46" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="F46" s="33" t="str">
+        <f t="shared" si="7"/>
+        <v>R-WH_Apt_BIODST*</v>
+      </c>
+      <c r="G46" s="33" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C46,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="32" t="str">
+        <f t="shared" si="6"/>
+        <v>R-WH_Apt_BIOETH*</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="F47" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>R-WH_Apt_BIOETH*</v>
+      </c>
+      <c r="G47" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C47,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>R-WH_Apt_OILLPG*</v>
+      </c>
+      <c r="E48" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="F48" s="33" t="str">
+        <f t="shared" si="7"/>
+        <v>R-WH_Apt_OILLPG*</v>
+      </c>
+      <c r="G48" s="38" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C48,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.806779026217228</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="32" t="str">
+        <f t="shared" si="6"/>
+        <v>R-WH_Apt_ELC*</v>
+      </c>
+      <c r="E49" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="F49" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>R-WH_Apt_ELC*</v>
+      </c>
+      <c r="G49" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C49,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*2.03509803921568</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>R-WH_Apt_OILKER*</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="F50" s="33" t="str">
+        <f t="shared" si="7"/>
+        <v>R-WH_Apt_OILKER*</v>
+      </c>
+      <c r="G50" s="33" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C50,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.810162162162162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" s="32" t="str">
+        <f>"R-WH_"&amp;A50&amp;"_"&amp;B51&amp;"*"</f>
+        <v>R-WH_Apt_GASNAT*</v>
+      </c>
+      <c r="E51" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="F51" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>R-WH_Apt_GASNAT*</v>
+      </c>
+      <c r="G51" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C51,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.810268817204301</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="33" t="str">
+        <f>"R-WH_"&amp;A52&amp;"_"&amp;B52&amp;"*"</f>
+        <v>R-WH_Apt_PEA*</v>
+      </c>
+      <c r="E52" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="F52" s="33" t="str">
+        <f t="shared" si="7"/>
+        <v>R-WH_Apt_PEA*</v>
+      </c>
+      <c r="G52" s="33" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C52,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.525</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" s="32" t="str">
+        <f>"R-WH_"&amp;A53&amp;"_"&amp;B53&amp;"*"</f>
+        <v>R-WH_Apt_SMF*</v>
+      </c>
+      <c r="E53" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="F53" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>R-WH_Apt_SMF*</v>
+      </c>
+      <c r="G53" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C53,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.581777777777778</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" s="33" t="str">
+        <f>"R-WH_"&amp;A54&amp;"_"&amp;B54&amp;"*"</f>
+        <v>R-WH_Apt_BIOWOO*</v>
+      </c>
+      <c r="E54" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="F54" s="33" t="str">
+        <f t="shared" si="7"/>
+        <v>R-WH_Apt_BIOWOO*</v>
+      </c>
+      <c r="G54" s="33" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C54,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.688045112781955</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="32" t="str">
+        <f>"R-WH_"&amp;A55&amp;"_"&amp;B55&amp;"*"</f>
+        <v>R-WH_Apt_HET*</v>
+      </c>
+      <c r="E55" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="F55" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>R-WH_Apt_HET*</v>
+      </c>
+      <c r="G55" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C55,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.3983844218765</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" s="33" t="str">
+        <f>"R-WH_"&amp;A56&amp;"_"&amp;B56&amp;"*"</f>
+        <v>R-WH_Apt_RENGEO*</v>
+      </c>
+      <c r="E56" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F56" s="33" t="str">
+        <f t="shared" si="7"/>
+        <v>R-WH_Apt_RENGEO*</v>
+      </c>
+      <c r="G56" s="33" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C56,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="30"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="E57" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+    </row>
+    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58" s="32" t="str">
+        <f t="shared" ref="C58:C63" si="8">"R-WH_"&amp;A58&amp;"_"&amp;B58&amp;"*"</f>
+        <v>R-WH_Att_COA*</v>
+      </c>
+      <c r="E58" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="F58" s="32" t="str">
+        <f t="shared" ref="F58:F69" si="9">"R-WH_"&amp;A58&amp;"_"&amp;B58&amp;"*"</f>
+        <v>R-WH_Att_COA*</v>
+      </c>
+      <c r="G58" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C58,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.557980879057327</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>R-WH_Att_BIODST*</v>
+      </c>
+      <c r="E59" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="F59" s="33" t="str">
+        <f t="shared" si="9"/>
+        <v>R-WH_Att_BIODST*</v>
+      </c>
+      <c r="G59" s="33" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C59,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60" s="32" t="str">
+        <f t="shared" si="8"/>
+        <v>R-WH_Att_BIOETH*</v>
+      </c>
+      <c r="E60" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="F60" s="32" t="str">
+        <f t="shared" si="9"/>
+        <v>R-WH_Att_BIOETH*</v>
+      </c>
+      <c r="G60" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C60,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>R-WH_Att_OILLPG*</v>
+      </c>
+      <c r="E61" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="F61" s="33" t="str">
+        <f t="shared" si="9"/>
+        <v>R-WH_Att_OILLPG*</v>
+      </c>
+      <c r="G61" s="38" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C61,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.807075774336283</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B62" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="32" t="str">
+        <f t="shared" si="8"/>
+        <v>R-WH_Att_ELC*</v>
+      </c>
+      <c r="E62" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="F62" s="32" t="str">
+        <f t="shared" si="9"/>
+        <v>R-WH_Att_ELC*</v>
+      </c>
+      <c r="G62" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C62,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*2.0578813559322</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B63" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C63" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>R-WH_Att_OILKER*</v>
+      </c>
+      <c r="E63" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="F63" s="33" t="str">
+        <f t="shared" si="9"/>
+        <v>R-WH_Att_OILKER*</v>
+      </c>
+      <c r="G63" s="33" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C63,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.819415584415584</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B64" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="32" t="str">
+        <f>"R-WH_"&amp;A63&amp;"_"&amp;B64&amp;"*"</f>
+        <v>R-WH_Att_GASNAT*</v>
+      </c>
+      <c r="E64" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="F64" s="32" t="str">
+        <f t="shared" si="9"/>
+        <v>R-WH_Att_GASNAT*</v>
+      </c>
+      <c r="G64" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C64,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.817294117647059</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B65" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65" s="33" t="str">
+        <f>"R-WH_"&amp;A65&amp;"_"&amp;B65&amp;"*"</f>
+        <v>R-WH_Att_PEA*</v>
+      </c>
+      <c r="E65" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="F65" s="33" t="str">
+        <f t="shared" si="9"/>
+        <v>R-WH_Att_PEA*</v>
+      </c>
+      <c r="G65" s="33" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C65,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.550929487179487</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B66" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C66" s="32" t="str">
+        <f>"R-WH_"&amp;A66&amp;"_"&amp;B66&amp;"*"</f>
+        <v>R-WH_Att_SMF*</v>
+      </c>
+      <c r="E66" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="F66" s="32" t="str">
+        <f t="shared" si="9"/>
+        <v>R-WH_Att_SMF*</v>
+      </c>
+      <c r="G66" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C66,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.571137724550898</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B67" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" s="33" t="str">
+        <f>"R-WH_"&amp;A67&amp;"_"&amp;B67&amp;"*"</f>
+        <v>R-WH_Att_BIOWOO*</v>
+      </c>
+      <c r="E67" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="F67" s="33" t="str">
+        <f t="shared" si="9"/>
+        <v>R-WH_Att_BIOWOO*</v>
+      </c>
+      <c r="G67" s="33" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C67,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.704006568144499</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B68" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" s="32" t="str">
+        <f>"R-WH_"&amp;A68&amp;"_"&amp;B68&amp;"*"</f>
+        <v>R-WH_Att_HET*</v>
+      </c>
+      <c r="E68" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="F68" s="32" t="str">
+        <f t="shared" si="9"/>
+        <v>R-WH_Att_HET*</v>
+      </c>
+      <c r="G68" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C68,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.609499730599684</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B69" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69" s="33" t="str">
+        <f>"R-WH_"&amp;A69&amp;"_"&amp;B69&amp;"*"</f>
+        <v>R-WH_Att_RENGEO*</v>
+      </c>
+      <c r="E69" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F69" s="33" t="str">
+        <f t="shared" si="9"/>
+        <v>R-WH_Att_RENGEO*</v>
+      </c>
+      <c r="G69" s="33" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C69,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="30"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="30"/>
+      <c r="E70" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+    </row>
+    <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B71" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" s="32" t="str">
+        <f t="shared" ref="C71:C76" si="10">"R-WH_"&amp;A71&amp;"_"&amp;B71&amp;"*"</f>
+        <v>R-WH_Det_COA*</v>
+      </c>
+      <c r="E71" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="F71" s="32" t="str">
+        <f t="shared" ref="F71:F82" si="11">"R-WH_"&amp;A71&amp;"_"&amp;B71&amp;"*"</f>
+        <v>R-WH_Det_COA*</v>
+      </c>
+      <c r="G71" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C71,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.619863294600137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A72" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B72" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C72" s="33" t="str">
+        <f t="shared" si="10"/>
+        <v>R-WH_Det_BIODST*</v>
+      </c>
+      <c r="E72" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="F72" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>R-WH_Det_BIODST*</v>
+      </c>
+      <c r="G72" s="33" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C72,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A73" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B73" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C73" s="32" t="str">
+        <f t="shared" si="10"/>
+        <v>R-WH_Det_BIOETH*</v>
+      </c>
+      <c r="E73" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="F73" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v>R-WH_Det_BIOETH*</v>
+      </c>
+      <c r="G73" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C73,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A74" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B74" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C74" s="33" t="str">
+        <f t="shared" si="10"/>
+        <v>R-WH_Det_OILLPG*</v>
+      </c>
+      <c r="E74" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="F74" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>R-WH_Det_OILLPG*</v>
+      </c>
+      <c r="G74" s="38" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C74,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.826617747626993</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A75" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B75" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C75" s="32" t="str">
+        <f t="shared" si="10"/>
+        <v>R-WH_Det_ELC*</v>
+      </c>
+      <c r="E75" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="F75" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v>R-WH_Det_ELC*</v>
+      </c>
+      <c r="G75" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C75,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*2.04465237093381</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A76" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B76" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C76" s="33" t="str">
+        <f t="shared" si="10"/>
+        <v>R-WH_Det_OILKER*</v>
+      </c>
+      <c r="E76" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="F76" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>R-WH_Det_OILKER*</v>
+      </c>
+      <c r="G76" s="33" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C76,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.822803738317757</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A77" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B77" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C77" s="32" t="str">
+        <f>"R-WH_"&amp;A76&amp;"_"&amp;B77&amp;"*"</f>
+        <v>R-WH_Det_GASNAT*</v>
+      </c>
+      <c r="E77" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="F77" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v>R-WH_Det_GASNAT*</v>
+      </c>
+      <c r="G77" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C77,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.827287581699346</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A78" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B78" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C78" s="33" t="str">
+        <f>"R-WH_"&amp;A78&amp;"_"&amp;B78&amp;"*"</f>
+        <v>R-WH_Det_PEA*</v>
+      </c>
+      <c r="E78" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="F78" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>R-WH_Det_PEA*</v>
+      </c>
+      <c r="G78" s="33" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C78,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.545789473684211</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A79" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B79" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C79" s="32" t="str">
+        <f>"R-WH_"&amp;A79&amp;"_"&amp;B79&amp;"*"</f>
+        <v>R-WH_Det_SMF*</v>
+      </c>
+      <c r="E79" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="F79" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v>R-WH_Det_SMF*</v>
+      </c>
+      <c r="G79" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C79,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.614742268041237</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A80" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B80" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C80" s="33" t="str">
+        <f>"R-WH_"&amp;A80&amp;"_"&amp;B80&amp;"*"</f>
+        <v>R-WH_Det_BIOWOO*</v>
+      </c>
+      <c r="E80" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="F80" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>R-WH_Det_BIOWOO*</v>
+      </c>
+      <c r="G80" s="33" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C80,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.729286096921694</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A81" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B81" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81" s="32" t="str">
+        <f>"R-WH_"&amp;A81&amp;"_"&amp;B81&amp;"*"</f>
+        <v>R-WH_Det_HET*</v>
+      </c>
+      <c r="E81" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="F81" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v>R-WH_Det_HET*</v>
+      </c>
+      <c r="G81" s="32" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C81,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v>*0.65865731206453</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A82" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B82" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C82" s="33" t="str">
+        <f>"R-WH_"&amp;A82&amp;"_"&amp;B82&amp;"*"</f>
+        <v>R-WH_Det_RENGEO*</v>
+      </c>
+      <c r="E82" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F82" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>R-WH_Det_RENGEO*</v>
+      </c>
+      <c r="G82" s="33" t="str">
+        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C82,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049C6FC2-EA1E-4C97-AFD6-725E147BEBCD}">
+  <dimension ref="A1:M79"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G2">
+        <v>2018</v>
+      </c>
+      <c r="H2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K2" t="s">
+        <v>146</v>
+      </c>
+      <c r="L2">
+        <v>0.9</v>
+      </c>
+      <c r="M2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G3">
+        <v>2018</v>
+      </c>
+      <c r="H3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J3" t="s">
+        <v>146</v>
+      </c>
+      <c r="K3" t="s">
+        <v>146</v>
+      </c>
+      <c r="L3">
+        <v>0.9</v>
+      </c>
+      <c r="M3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" t="s">
+        <v>242</v>
+      </c>
+      <c r="G4">
+        <v>2018</v>
+      </c>
+      <c r="H4" t="s">
+        <v>146</v>
+      </c>
+      <c r="I4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J4" t="s">
+        <v>146</v>
+      </c>
+      <c r="K4" t="s">
+        <v>146</v>
+      </c>
+      <c r="L4">
+        <v>0.68804511278195502</v>
+      </c>
+      <c r="M4">
+        <v>0.68804511278195502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" t="s">
+        <v>242</v>
+      </c>
+      <c r="G5">
+        <v>2018</v>
+      </c>
+      <c r="H5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J5" t="s">
+        <v>146</v>
+      </c>
+      <c r="K5" t="s">
+        <v>146</v>
+      </c>
+      <c r="L5">
+        <v>0.59018803418803401</v>
+      </c>
+      <c r="M5">
+        <v>0.59018803418803401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" t="s">
+        <v>242</v>
+      </c>
+      <c r="G6">
+        <v>2018</v>
+      </c>
+      <c r="H6" t="s">
+        <v>146</v>
+      </c>
+      <c r="I6" t="s">
+        <v>146</v>
+      </c>
+      <c r="J6" t="s">
+        <v>146</v>
+      </c>
+      <c r="K6" t="s">
+        <v>146</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G7">
+        <v>2018</v>
+      </c>
+      <c r="H7" t="s">
+        <v>146</v>
+      </c>
+      <c r="I7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L7">
+        <v>3.07019607843137</v>
+      </c>
+      <c r="M7">
+        <v>3.07019607843137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" t="s">
+        <v>242</v>
+      </c>
+      <c r="G8">
+        <v>2018</v>
+      </c>
+      <c r="H8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I8" t="s">
+        <v>146</v>
+      </c>
+      <c r="J8" t="s">
+        <v>146</v>
+      </c>
+      <c r="K8" t="s">
+        <v>146</v>
+      </c>
+      <c r="L8">
+        <v>0.810268817204301</v>
+      </c>
+      <c r="M8">
+        <v>0.810268817204301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" t="s">
+        <v>242</v>
+      </c>
+      <c r="G9">
+        <v>2018</v>
+      </c>
+      <c r="H9" t="s">
+        <v>146</v>
+      </c>
+      <c r="I9" t="s">
+        <v>146</v>
+      </c>
+      <c r="J9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K9" t="s">
+        <v>146</v>
+      </c>
+      <c r="L9">
+        <v>0.39838442187649997</v>
+      </c>
+      <c r="M9">
+        <v>0.39838442187649997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" t="s">
+        <v>242</v>
+      </c>
+      <c r="G10">
+        <v>2018</v>
+      </c>
+      <c r="H10" t="s">
+        <v>146</v>
+      </c>
+      <c r="I10" t="s">
+        <v>146</v>
+      </c>
+      <c r="J10" t="s">
+        <v>146</v>
+      </c>
+      <c r="K10" t="s">
+        <v>146</v>
+      </c>
+      <c r="L10">
+        <v>0.81016216216216197</v>
+      </c>
+      <c r="M10">
+        <v>0.81016216216216197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11" t="s">
+        <v>242</v>
+      </c>
+      <c r="G11">
+        <v>2018</v>
+      </c>
+      <c r="H11" t="s">
+        <v>146</v>
+      </c>
+      <c r="I11" t="s">
+        <v>146</v>
+      </c>
+      <c r="J11" t="s">
+        <v>146</v>
+      </c>
+      <c r="K11" t="s">
+        <v>146</v>
+      </c>
+      <c r="L11">
+        <v>0.80677902621722797</v>
+      </c>
+      <c r="M11">
+        <v>0.80677902621722797</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" t="s">
+        <v>242</v>
+      </c>
+      <c r="G12">
+        <v>2018</v>
+      </c>
+      <c r="H12" t="s">
+        <v>146</v>
+      </c>
+      <c r="I12" t="s">
+        <v>146</v>
+      </c>
+      <c r="J12" t="s">
+        <v>146</v>
+      </c>
+      <c r="K12" t="s">
+        <v>146</v>
+      </c>
+      <c r="L12">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="M12">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F13" t="s">
+        <v>242</v>
+      </c>
+      <c r="G13">
+        <v>2018</v>
+      </c>
+      <c r="H13" t="s">
+        <v>146</v>
+      </c>
+      <c r="I13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" t="s">
+        <v>146</v>
+      </c>
+      <c r="L13">
+        <v>3.07019607843137</v>
+      </c>
+      <c r="M13">
+        <v>3.07019607843137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s">
+        <v>240</v>
+      </c>
+      <c r="C14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" t="s">
+        <v>242</v>
+      </c>
+      <c r="G14">
+        <v>2018</v>
+      </c>
+      <c r="H14" t="s">
+        <v>146</v>
+      </c>
+      <c r="I14" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14">
+        <v>0.58177777777777795</v>
+      </c>
+      <c r="M14">
+        <v>0.58177777777777795</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>240</v>
+      </c>
+      <c r="C15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G15">
+        <v>2018</v>
+      </c>
+      <c r="H15" t="s">
+        <v>146</v>
+      </c>
+      <c r="I15" t="s">
+        <v>146</v>
+      </c>
+      <c r="J15" t="s">
+        <v>146</v>
+      </c>
+      <c r="K15" t="s">
+        <v>146</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" t="s">
+        <v>242</v>
+      </c>
+      <c r="G16">
+        <v>2018</v>
+      </c>
+      <c r="H16" t="s">
+        <v>146</v>
+      </c>
+      <c r="I16" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" t="s">
+        <v>146</v>
+      </c>
+      <c r="K16" t="s">
+        <v>146</v>
+      </c>
+      <c r="L16">
+        <v>0.9</v>
+      </c>
+      <c r="M16">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" t="s">
+        <v>240</v>
+      </c>
+      <c r="C17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" t="s">
+        <v>242</v>
+      </c>
+      <c r="G17">
+        <v>2018</v>
+      </c>
+      <c r="H17" t="s">
+        <v>146</v>
+      </c>
+      <c r="I17" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" t="s">
+        <v>146</v>
+      </c>
+      <c r="K17" t="s">
+        <v>146</v>
+      </c>
+      <c r="L17">
+        <v>0.70400656814449902</v>
+      </c>
+      <c r="M17">
+        <v>0.70400656814449902</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
+        <v>240</v>
+      </c>
+      <c r="C18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" t="s">
+        <v>146</v>
+      </c>
+      <c r="F18" t="s">
+        <v>242</v>
+      </c>
+      <c r="G18">
+        <v>2018</v>
+      </c>
+      <c r="H18" t="s">
+        <v>146</v>
+      </c>
+      <c r="I18" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18" t="s">
+        <v>146</v>
+      </c>
+      <c r="K18" t="s">
+        <v>146</v>
+      </c>
+      <c r="L18">
+        <v>0.55798087905732696</v>
+      </c>
+      <c r="M18">
+        <v>0.55798087905732696</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s">
+        <v>240</v>
+      </c>
+      <c r="C19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" t="s">
+        <v>146</v>
+      </c>
+      <c r="F19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G19">
+        <v>2018</v>
+      </c>
+      <c r="H19" t="s">
+        <v>146</v>
+      </c>
+      <c r="I19" t="s">
+        <v>146</v>
+      </c>
+      <c r="J19" t="s">
+        <v>146</v>
+      </c>
+      <c r="K19" t="s">
+        <v>146</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
+        <v>240</v>
+      </c>
+      <c r="C20" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" t="s">
+        <v>146</v>
+      </c>
+      <c r="F20" t="s">
+        <v>242</v>
+      </c>
+      <c r="G20">
+        <v>2018</v>
+      </c>
+      <c r="H20" t="s">
+        <v>146</v>
+      </c>
+      <c r="I20" t="s">
+        <v>146</v>
+      </c>
+      <c r="J20" t="s">
+        <v>146</v>
+      </c>
+      <c r="K20" t="s">
+        <v>146</v>
+      </c>
+      <c r="L20">
+        <v>3.1157627118644098</v>
+      </c>
+      <c r="M20">
+        <v>3.1157627118644098</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
+        <v>240</v>
+      </c>
+      <c r="C21" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" t="s">
+        <v>146</v>
+      </c>
+      <c r="F21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G21">
+        <v>2018</v>
+      </c>
+      <c r="H21" t="s">
+        <v>146</v>
+      </c>
+      <c r="I21" t="s">
+        <v>146</v>
+      </c>
+      <c r="J21" t="s">
+        <v>146</v>
+      </c>
+      <c r="K21" t="s">
+        <v>146</v>
+      </c>
+      <c r="L21">
+        <v>0.81729411764705895</v>
+      </c>
+      <c r="M21">
+        <v>0.81729411764705895</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
+        <v>240</v>
+      </c>
+      <c r="C22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" t="s">
+        <v>242</v>
+      </c>
+      <c r="G22">
+        <v>2018</v>
+      </c>
+      <c r="H22" t="s">
+        <v>146</v>
+      </c>
+      <c r="I22" t="s">
+        <v>146</v>
+      </c>
+      <c r="J22" t="s">
+        <v>146</v>
+      </c>
+      <c r="K22" t="s">
+        <v>146</v>
+      </c>
+      <c r="L22">
+        <v>0.60949973059968399</v>
+      </c>
+      <c r="M22">
+        <v>0.60949973059968399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" t="s">
+        <v>240</v>
+      </c>
+      <c r="C23" t="s">
+        <v>168</v>
+      </c>
+      <c r="D23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" t="s">
+        <v>146</v>
+      </c>
+      <c r="F23" t="s">
+        <v>242</v>
+      </c>
+      <c r="G23">
+        <v>2018</v>
+      </c>
+      <c r="H23" t="s">
+        <v>146</v>
+      </c>
+      <c r="I23" t="s">
+        <v>146</v>
+      </c>
+      <c r="J23" t="s">
+        <v>146</v>
+      </c>
+      <c r="K23" t="s">
+        <v>146</v>
+      </c>
+      <c r="L23">
+        <v>0.81941558441558404</v>
+      </c>
+      <c r="M23">
+        <v>0.81941558441558404</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C24" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" t="s">
+        <v>146</v>
+      </c>
+      <c r="F24" t="s">
+        <v>242</v>
+      </c>
+      <c r="G24">
+        <v>2018</v>
+      </c>
+      <c r="H24" t="s">
+        <v>146</v>
+      </c>
+      <c r="I24" t="s">
+        <v>146</v>
+      </c>
+      <c r="J24" t="s">
+        <v>146</v>
+      </c>
+      <c r="K24" t="s">
+        <v>146</v>
+      </c>
+      <c r="L24">
+        <v>0.80707577433628297</v>
+      </c>
+      <c r="M24">
+        <v>0.80707577433628297</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C25" t="s">
+        <v>170</v>
+      </c>
+      <c r="D25" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" t="s">
+        <v>146</v>
+      </c>
+      <c r="F25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G25">
+        <v>2018</v>
+      </c>
+      <c r="H25" t="s">
+        <v>146</v>
+      </c>
+      <c r="I25" t="s">
+        <v>146</v>
+      </c>
+      <c r="J25" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" t="s">
+        <v>146</v>
+      </c>
+      <c r="L25">
+        <v>0.55092948717948698</v>
+      </c>
+      <c r="M25">
+        <v>0.55092948717948698</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" t="s">
+        <v>240</v>
+      </c>
+      <c r="C26" t="s">
+        <v>171</v>
+      </c>
+      <c r="D26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" t="s">
+        <v>242</v>
+      </c>
+      <c r="G26">
+        <v>2018</v>
+      </c>
+      <c r="H26" t="s">
+        <v>146</v>
+      </c>
+      <c r="I26" t="s">
+        <v>146</v>
+      </c>
+      <c r="J26" t="s">
+        <v>146</v>
+      </c>
+      <c r="K26" t="s">
+        <v>146</v>
+      </c>
+      <c r="L26">
+        <v>3.1157627118644098</v>
+      </c>
+      <c r="M26">
+        <v>3.1157627118644098</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" t="s">
+        <v>240</v>
+      </c>
+      <c r="C27" t="s">
+        <v>172</v>
+      </c>
+      <c r="D27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" t="s">
+        <v>146</v>
+      </c>
+      <c r="F27" t="s">
+        <v>242</v>
+      </c>
+      <c r="G27">
+        <v>2018</v>
+      </c>
+      <c r="H27" t="s">
+        <v>146</v>
+      </c>
+      <c r="I27" t="s">
+        <v>146</v>
+      </c>
+      <c r="J27" t="s">
+        <v>146</v>
+      </c>
+      <c r="K27" t="s">
+        <v>146</v>
+      </c>
+      <c r="L27">
+        <v>0.57113772455089795</v>
+      </c>
+      <c r="M27">
+        <v>0.57113772455089795</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" t="s">
+        <v>240</v>
+      </c>
+      <c r="C28" t="s">
+        <v>173</v>
+      </c>
+      <c r="D28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" t="s">
+        <v>146</v>
+      </c>
+      <c r="F28" t="s">
+        <v>242</v>
+      </c>
+      <c r="G28">
+        <v>2018</v>
+      </c>
+      <c r="H28" t="s">
+        <v>146</v>
+      </c>
+      <c r="I28" t="s">
+        <v>146</v>
+      </c>
+      <c r="J28" t="s">
+        <v>146</v>
+      </c>
+      <c r="K28" t="s">
+        <v>146</v>
+      </c>
+      <c r="L28">
+        <v>0.9</v>
+      </c>
+      <c r="M28">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>240</v>
+      </c>
+      <c r="C29" t="s">
+        <v>174</v>
+      </c>
+      <c r="D29" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" t="s">
+        <v>146</v>
+      </c>
+      <c r="F29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G29">
+        <v>2018</v>
+      </c>
+      <c r="H29" t="s">
+        <v>146</v>
+      </c>
+      <c r="I29" t="s">
+        <v>146</v>
+      </c>
+      <c r="J29" t="s">
+        <v>146</v>
+      </c>
+      <c r="K29" t="s">
+        <v>146</v>
+      </c>
+      <c r="L29">
+        <v>0.9</v>
+      </c>
+      <c r="M29">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" t="s">
+        <v>240</v>
+      </c>
+      <c r="C30" t="s">
+        <v>175</v>
+      </c>
+      <c r="D30" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" t="s">
+        <v>146</v>
+      </c>
+      <c r="F30" t="s">
+        <v>242</v>
+      </c>
+      <c r="G30">
+        <v>2018</v>
+      </c>
+      <c r="H30" t="s">
+        <v>146</v>
+      </c>
+      <c r="I30" t="s">
+        <v>146</v>
+      </c>
+      <c r="J30" t="s">
+        <v>146</v>
+      </c>
+      <c r="K30" t="s">
+        <v>146</v>
+      </c>
+      <c r="L30">
+        <v>0.72928609692169399</v>
+      </c>
+      <c r="M30">
+        <v>0.72928609692169399</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" t="s">
+        <v>240</v>
+      </c>
+      <c r="C31" t="s">
+        <v>176</v>
+      </c>
+      <c r="D31" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" t="s">
+        <v>146</v>
+      </c>
+      <c r="F31" t="s">
+        <v>242</v>
+      </c>
+      <c r="G31">
+        <v>2018</v>
+      </c>
+      <c r="H31" t="s">
+        <v>146</v>
+      </c>
+      <c r="I31" t="s">
+        <v>146</v>
+      </c>
+      <c r="J31" t="s">
+        <v>146</v>
+      </c>
+      <c r="K31" t="s">
+        <v>146</v>
+      </c>
+      <c r="L31">
+        <v>0.619863294600137</v>
+      </c>
+      <c r="M31">
+        <v>0.619863294600137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C32" t="s">
+        <v>177</v>
+      </c>
+      <c r="D32" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32" t="s">
+        <v>146</v>
+      </c>
+      <c r="F32" t="s">
+        <v>242</v>
+      </c>
+      <c r="G32">
+        <v>2018</v>
+      </c>
+      <c r="H32" t="s">
+        <v>146</v>
+      </c>
+      <c r="I32" t="s">
+        <v>146</v>
+      </c>
+      <c r="J32" t="s">
+        <v>146</v>
+      </c>
+      <c r="K32" t="s">
+        <v>146</v>
+      </c>
+      <c r="L32">
+        <v>0.99952095808383201</v>
+      </c>
+      <c r="M32">
+        <v>0.99952095808383201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" t="s">
+        <v>240</v>
+      </c>
+      <c r="C33" t="s">
+        <v>178</v>
+      </c>
+      <c r="D33" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" t="s">
+        <v>146</v>
+      </c>
+      <c r="F33" t="s">
+        <v>242</v>
+      </c>
+      <c r="G33">
+        <v>2018</v>
+      </c>
+      <c r="H33" t="s">
+        <v>146</v>
+      </c>
+      <c r="I33" t="s">
+        <v>146</v>
+      </c>
+      <c r="J33" t="s">
+        <v>146</v>
+      </c>
+      <c r="K33" t="s">
+        <v>146</v>
+      </c>
+      <c r="L33">
+        <v>3.0897837837837798</v>
+      </c>
+      <c r="M33">
+        <v>3.0897837837837798</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s">
+        <v>240</v>
+      </c>
+      <c r="C34" t="s">
+        <v>179</v>
+      </c>
+      <c r="D34" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" t="s">
+        <v>146</v>
+      </c>
+      <c r="F34" t="s">
+        <v>242</v>
+      </c>
+      <c r="G34">
+        <v>2018</v>
+      </c>
+      <c r="H34" t="s">
+        <v>146</v>
+      </c>
+      <c r="I34" t="s">
+        <v>146</v>
+      </c>
+      <c r="J34" t="s">
+        <v>146</v>
+      </c>
+      <c r="K34" t="s">
+        <v>146</v>
+      </c>
+      <c r="L34">
+        <v>0.82728758169934602</v>
+      </c>
+      <c r="M34">
+        <v>0.82728758169934602</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" t="s">
+        <v>240</v>
+      </c>
+      <c r="C35" t="s">
+        <v>180</v>
+      </c>
+      <c r="D35" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" t="s">
+        <v>146</v>
+      </c>
+      <c r="F35" t="s">
+        <v>242</v>
+      </c>
+      <c r="G35">
+        <v>2018</v>
+      </c>
+      <c r="H35" t="s">
+        <v>146</v>
+      </c>
+      <c r="I35" t="s">
+        <v>146</v>
+      </c>
+      <c r="J35" t="s">
+        <v>146</v>
+      </c>
+      <c r="K35" t="s">
+        <v>146</v>
+      </c>
+      <c r="L35">
+        <v>0.65865731206453004</v>
+      </c>
+      <c r="M35">
+        <v>0.65865731206453004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s">
+        <v>240</v>
+      </c>
+      <c r="C36" t="s">
+        <v>181</v>
+      </c>
+      <c r="D36" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" t="s">
+        <v>146</v>
+      </c>
+      <c r="F36" t="s">
+        <v>242</v>
+      </c>
+      <c r="G36">
+        <v>2018</v>
+      </c>
+      <c r="H36" t="s">
+        <v>146</v>
+      </c>
+      <c r="I36" t="s">
+        <v>146</v>
+      </c>
+      <c r="J36" t="s">
+        <v>146</v>
+      </c>
+      <c r="K36" t="s">
+        <v>146</v>
+      </c>
+      <c r="L36">
+        <v>0.82280373831775699</v>
+      </c>
+      <c r="M36">
+        <v>0.82280373831775699</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" t="s">
+        <v>240</v>
+      </c>
+      <c r="C37" t="s">
+        <v>182</v>
+      </c>
+      <c r="D37" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" t="s">
+        <v>146</v>
+      </c>
+      <c r="F37" t="s">
+        <v>242</v>
+      </c>
+      <c r="G37">
+        <v>2018</v>
+      </c>
+      <c r="H37" t="s">
+        <v>146</v>
+      </c>
+      <c r="I37" t="s">
+        <v>146</v>
+      </c>
+      <c r="J37" t="s">
+        <v>146</v>
+      </c>
+      <c r="K37" t="s">
+        <v>146</v>
+      </c>
+      <c r="L37">
+        <v>0.82661774762699303</v>
+      </c>
+      <c r="M37">
+        <v>0.82661774762699303</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>240</v>
+      </c>
+      <c r="C38" t="s">
+        <v>183</v>
+      </c>
+      <c r="D38" t="s">
+        <v>146</v>
+      </c>
+      <c r="E38" t="s">
+        <v>146</v>
+      </c>
+      <c r="F38" t="s">
+        <v>242</v>
+      </c>
+      <c r="G38">
+        <v>2018</v>
+      </c>
+      <c r="H38" t="s">
+        <v>146</v>
+      </c>
+      <c r="I38" t="s">
+        <v>146</v>
+      </c>
+      <c r="J38" t="s">
+        <v>146</v>
+      </c>
+      <c r="K38" t="s">
+        <v>146</v>
+      </c>
+      <c r="L38">
+        <v>0.54578947368421105</v>
+      </c>
+      <c r="M38">
+        <v>0.54578947368421105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
+        <v>240</v>
+      </c>
+      <c r="C39" t="s">
+        <v>184</v>
+      </c>
+      <c r="D39" t="s">
+        <v>146</v>
+      </c>
+      <c r="E39" t="s">
+        <v>146</v>
+      </c>
+      <c r="F39" t="s">
+        <v>242</v>
+      </c>
+      <c r="G39">
+        <v>2018</v>
+      </c>
+      <c r="H39" t="s">
+        <v>146</v>
+      </c>
+      <c r="I39" t="s">
+        <v>146</v>
+      </c>
+      <c r="J39" t="s">
+        <v>146</v>
+      </c>
+      <c r="K39" t="s">
+        <v>146</v>
+      </c>
+      <c r="L39">
+        <v>3.0897837837837798</v>
+      </c>
+      <c r="M39">
+        <v>3.0897837837837798</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
+        <v>240</v>
+      </c>
+      <c r="C40" t="s">
+        <v>185</v>
+      </c>
+      <c r="D40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E40" t="s">
+        <v>146</v>
+      </c>
+      <c r="F40" t="s">
+        <v>242</v>
+      </c>
+      <c r="G40">
+        <v>2018</v>
+      </c>
+      <c r="H40" t="s">
+        <v>146</v>
+      </c>
+      <c r="I40" t="s">
+        <v>146</v>
+      </c>
+      <c r="J40" t="s">
+        <v>146</v>
+      </c>
+      <c r="K40" t="s">
+        <v>146</v>
+      </c>
+      <c r="L40">
+        <v>0.61474226804123699</v>
+      </c>
+      <c r="M40">
+        <v>0.61474226804123699</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" t="s">
+        <v>240</v>
+      </c>
+      <c r="C41" t="s">
+        <v>187</v>
+      </c>
+      <c r="D41" t="s">
+        <v>146</v>
+      </c>
+      <c r="E41" t="s">
+        <v>146</v>
+      </c>
+      <c r="F41" t="s">
+        <v>242</v>
+      </c>
+      <c r="G41">
+        <v>2018</v>
+      </c>
+      <c r="H41" t="s">
+        <v>146</v>
+      </c>
+      <c r="I41" t="s">
+        <v>146</v>
+      </c>
+      <c r="J41" t="s">
+        <v>146</v>
+      </c>
+      <c r="K41" t="s">
+        <v>146</v>
+      </c>
+      <c r="L41">
+        <v>0.9</v>
+      </c>
+      <c r="M41">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" t="s">
+        <v>240</v>
+      </c>
+      <c r="C42" t="s">
+        <v>188</v>
+      </c>
+      <c r="D42" t="s">
+        <v>146</v>
+      </c>
+      <c r="E42" t="s">
+        <v>146</v>
+      </c>
+      <c r="F42" t="s">
+        <v>242</v>
+      </c>
+      <c r="G42">
+        <v>2018</v>
+      </c>
+      <c r="H42" t="s">
+        <v>146</v>
+      </c>
+      <c r="I42" t="s">
+        <v>146</v>
+      </c>
+      <c r="J42" t="s">
+        <v>146</v>
+      </c>
+      <c r="K42" t="s">
+        <v>146</v>
+      </c>
+      <c r="L42">
+        <v>0.9</v>
+      </c>
+      <c r="M42">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" t="s">
+        <v>240</v>
+      </c>
+      <c r="C43" t="s">
+        <v>189</v>
+      </c>
+      <c r="D43" t="s">
+        <v>146</v>
+      </c>
+      <c r="E43" t="s">
+        <v>146</v>
+      </c>
+      <c r="F43" t="s">
+        <v>242</v>
+      </c>
+      <c r="G43">
+        <v>2018</v>
+      </c>
+      <c r="H43" t="s">
+        <v>146</v>
+      </c>
+      <c r="I43" t="s">
+        <v>146</v>
+      </c>
+      <c r="J43" t="s">
+        <v>146</v>
+      </c>
+      <c r="K43" t="s">
+        <v>146</v>
+      </c>
+      <c r="L43">
+        <v>0.68804511278195502</v>
+      </c>
+      <c r="M43">
+        <v>0.68804511278195502</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" t="s">
+        <v>240</v>
+      </c>
+      <c r="C44" t="s">
+        <v>190</v>
+      </c>
+      <c r="D44" t="s">
+        <v>146</v>
+      </c>
+      <c r="E44" t="s">
+        <v>146</v>
+      </c>
+      <c r="F44" t="s">
+        <v>242</v>
+      </c>
+      <c r="G44">
+        <v>2018</v>
+      </c>
+      <c r="H44" t="s">
+        <v>146</v>
+      </c>
+      <c r="I44" t="s">
+        <v>146</v>
+      </c>
+      <c r="J44" t="s">
+        <v>146</v>
+      </c>
+      <c r="K44" t="s">
+        <v>146</v>
+      </c>
+      <c r="L44">
+        <v>0.59018803418803401</v>
+      </c>
+      <c r="M44">
+        <v>0.59018803418803401</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" t="s">
+        <v>240</v>
+      </c>
+      <c r="C45" t="s">
+        <v>191</v>
+      </c>
+      <c r="D45" t="s">
+        <v>146</v>
+      </c>
+      <c r="E45" t="s">
+        <v>146</v>
+      </c>
+      <c r="F45" t="s">
+        <v>242</v>
+      </c>
+      <c r="G45">
+        <v>2018</v>
+      </c>
+      <c r="H45" t="s">
+        <v>146</v>
+      </c>
+      <c r="I45" t="s">
+        <v>146</v>
+      </c>
+      <c r="J45" t="s">
+        <v>146</v>
+      </c>
+      <c r="K45" t="s">
+        <v>146</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" t="s">
+        <v>240</v>
+      </c>
+      <c r="C46" t="s">
+        <v>192</v>
+      </c>
+      <c r="D46" t="s">
+        <v>146</v>
+      </c>
+      <c r="E46" t="s">
+        <v>146</v>
+      </c>
+      <c r="F46" t="s">
+        <v>242</v>
+      </c>
+      <c r="G46">
+        <v>2018</v>
+      </c>
+      <c r="H46" t="s">
+        <v>146</v>
+      </c>
+      <c r="I46" t="s">
+        <v>146</v>
+      </c>
+      <c r="J46" t="s">
+        <v>146</v>
+      </c>
+      <c r="K46" t="s">
+        <v>146</v>
+      </c>
+      <c r="L46">
+        <v>3.07019607843137</v>
+      </c>
+      <c r="M46">
+        <v>3.07019607843137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" t="s">
+        <v>240</v>
+      </c>
+      <c r="C47" t="s">
+        <v>193</v>
+      </c>
+      <c r="D47" t="s">
+        <v>146</v>
+      </c>
+      <c r="E47" t="s">
+        <v>146</v>
+      </c>
+      <c r="F47" t="s">
+        <v>242</v>
+      </c>
+      <c r="G47">
+        <v>2018</v>
+      </c>
+      <c r="H47" t="s">
+        <v>146</v>
+      </c>
+      <c r="I47" t="s">
+        <v>146</v>
+      </c>
+      <c r="J47" t="s">
+        <v>146</v>
+      </c>
+      <c r="K47" t="s">
+        <v>146</v>
+      </c>
+      <c r="L47">
+        <v>0.810268817204301</v>
+      </c>
+      <c r="M47">
+        <v>0.810268817204301</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" t="s">
+        <v>240</v>
+      </c>
+      <c r="C48" t="s">
+        <v>194</v>
+      </c>
+      <c r="D48" t="s">
+        <v>146</v>
+      </c>
+      <c r="E48" t="s">
+        <v>146</v>
+      </c>
+      <c r="F48" t="s">
+        <v>242</v>
+      </c>
+      <c r="G48">
+        <v>2018</v>
+      </c>
+      <c r="H48" t="s">
+        <v>146</v>
+      </c>
+      <c r="I48" t="s">
+        <v>146</v>
+      </c>
+      <c r="J48" t="s">
+        <v>146</v>
+      </c>
+      <c r="K48" t="s">
+        <v>146</v>
+      </c>
+      <c r="L48">
+        <v>0.39838442187649997</v>
+      </c>
+      <c r="M48">
+        <v>0.39838442187649997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" t="s">
+        <v>240</v>
+      </c>
+      <c r="C49" t="s">
+        <v>195</v>
+      </c>
+      <c r="D49" t="s">
+        <v>146</v>
+      </c>
+      <c r="E49" t="s">
+        <v>146</v>
+      </c>
+      <c r="F49" t="s">
+        <v>242</v>
+      </c>
+      <c r="G49">
+        <v>2018</v>
+      </c>
+      <c r="H49" t="s">
+        <v>146</v>
+      </c>
+      <c r="I49" t="s">
+        <v>146</v>
+      </c>
+      <c r="J49" t="s">
+        <v>146</v>
+      </c>
+      <c r="K49" t="s">
+        <v>146</v>
+      </c>
+      <c r="L49">
+        <v>0.81016216216216197</v>
+      </c>
+      <c r="M49">
+        <v>0.81016216216216197</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" t="s">
+        <v>240</v>
+      </c>
+      <c r="C50" t="s">
+        <v>196</v>
+      </c>
+      <c r="D50" t="s">
+        <v>146</v>
+      </c>
+      <c r="E50" t="s">
+        <v>146</v>
+      </c>
+      <c r="F50" t="s">
+        <v>242</v>
+      </c>
+      <c r="G50">
+        <v>2018</v>
+      </c>
+      <c r="H50" t="s">
+        <v>146</v>
+      </c>
+      <c r="I50" t="s">
+        <v>146</v>
+      </c>
+      <c r="J50" t="s">
+        <v>146</v>
+      </c>
+      <c r="K50" t="s">
+        <v>146</v>
+      </c>
+      <c r="L50">
+        <v>0.80677902621722797</v>
+      </c>
+      <c r="M50">
+        <v>0.80677902621722797</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" t="s">
+        <v>240</v>
+      </c>
+      <c r="C51" t="s">
+        <v>197</v>
+      </c>
+      <c r="D51" t="s">
+        <v>146</v>
+      </c>
+      <c r="E51" t="s">
+        <v>146</v>
+      </c>
+      <c r="F51" t="s">
+        <v>242</v>
+      </c>
+      <c r="G51">
+        <v>2018</v>
+      </c>
+      <c r="H51" t="s">
+        <v>146</v>
+      </c>
+      <c r="I51" t="s">
+        <v>146</v>
+      </c>
+      <c r="J51" t="s">
+        <v>146</v>
+      </c>
+      <c r="K51" t="s">
+        <v>146</v>
+      </c>
+      <c r="L51">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="M51">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" t="s">
+        <v>240</v>
+      </c>
+      <c r="C52" t="s">
+        <v>198</v>
+      </c>
+      <c r="D52" t="s">
+        <v>146</v>
+      </c>
+      <c r="E52" t="s">
+        <v>146</v>
+      </c>
+      <c r="F52" t="s">
+        <v>242</v>
+      </c>
+      <c r="G52">
+        <v>2018</v>
+      </c>
+      <c r="H52" t="s">
+        <v>146</v>
+      </c>
+      <c r="I52" t="s">
+        <v>146</v>
+      </c>
+      <c r="J52" t="s">
+        <v>146</v>
+      </c>
+      <c r="K52" t="s">
+        <v>146</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" t="s">
+        <v>240</v>
+      </c>
+      <c r="C53" t="s">
+        <v>199</v>
+      </c>
+      <c r="D53" t="s">
+        <v>146</v>
+      </c>
+      <c r="E53" t="s">
+        <v>146</v>
+      </c>
+      <c r="F53" t="s">
+        <v>242</v>
+      </c>
+      <c r="G53">
+        <v>2018</v>
+      </c>
+      <c r="H53" t="s">
+        <v>146</v>
+      </c>
+      <c r="I53" t="s">
+        <v>146</v>
+      </c>
+      <c r="J53" t="s">
+        <v>146</v>
+      </c>
+      <c r="K53" t="s">
+        <v>146</v>
+      </c>
+      <c r="L53">
+        <v>0.58177777777777795</v>
+      </c>
+      <c r="M53">
+        <v>0.58177777777777795</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" t="s">
+        <v>240</v>
+      </c>
+      <c r="C54" t="s">
+        <v>200</v>
+      </c>
+      <c r="D54" t="s">
+        <v>146</v>
+      </c>
+      <c r="E54" t="s">
+        <v>146</v>
+      </c>
+      <c r="F54" t="s">
+        <v>242</v>
+      </c>
+      <c r="G54">
+        <v>2018</v>
+      </c>
+      <c r="H54" t="s">
+        <v>146</v>
+      </c>
+      <c r="I54" t="s">
+        <v>146</v>
+      </c>
+      <c r="J54" t="s">
+        <v>146</v>
+      </c>
+      <c r="K54" t="s">
+        <v>146</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" t="s">
+        <v>240</v>
+      </c>
+      <c r="C55" t="s">
+        <v>201</v>
+      </c>
+      <c r="D55" t="s">
+        <v>146</v>
+      </c>
+      <c r="E55" t="s">
+        <v>146</v>
+      </c>
+      <c r="F55" t="s">
+        <v>242</v>
+      </c>
+      <c r="G55">
+        <v>2018</v>
+      </c>
+      <c r="H55" t="s">
+        <v>146</v>
+      </c>
+      <c r="I55" t="s">
+        <v>146</v>
+      </c>
+      <c r="J55" t="s">
+        <v>146</v>
+      </c>
+      <c r="K55" t="s">
+        <v>146</v>
+      </c>
+      <c r="L55">
+        <v>0.9</v>
+      </c>
+      <c r="M55">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" t="s">
+        <v>240</v>
+      </c>
+      <c r="C56" t="s">
+        <v>202</v>
+      </c>
+      <c r="D56" t="s">
+        <v>146</v>
+      </c>
+      <c r="E56" t="s">
+        <v>146</v>
+      </c>
+      <c r="F56" t="s">
+        <v>242</v>
+      </c>
+      <c r="G56">
+        <v>2018</v>
+      </c>
+      <c r="H56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I56" t="s">
+        <v>146</v>
+      </c>
+      <c r="J56" t="s">
+        <v>146</v>
+      </c>
+      <c r="K56" t="s">
+        <v>146</v>
+      </c>
+      <c r="L56">
+        <v>0.70400656814449902</v>
+      </c>
+      <c r="M56">
+        <v>0.70400656814449902</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" t="s">
+        <v>240</v>
+      </c>
+      <c r="C57" t="s">
+        <v>203</v>
+      </c>
+      <c r="D57" t="s">
+        <v>146</v>
+      </c>
+      <c r="E57" t="s">
+        <v>146</v>
+      </c>
+      <c r="F57" t="s">
+        <v>242</v>
+      </c>
+      <c r="G57">
+        <v>2018</v>
+      </c>
+      <c r="H57" t="s">
+        <v>146</v>
+      </c>
+      <c r="I57" t="s">
+        <v>146</v>
+      </c>
+      <c r="J57" t="s">
+        <v>146</v>
+      </c>
+      <c r="K57" t="s">
+        <v>146</v>
+      </c>
+      <c r="L57">
+        <v>0.55798087905732696</v>
+      </c>
+      <c r="M57">
+        <v>0.55798087905732696</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" t="s">
+        <v>240</v>
+      </c>
+      <c r="C58" t="s">
+        <v>204</v>
+      </c>
+      <c r="D58" t="s">
+        <v>146</v>
+      </c>
+      <c r="E58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F58" t="s">
+        <v>242</v>
+      </c>
+      <c r="G58">
+        <v>2018</v>
+      </c>
+      <c r="H58" t="s">
+        <v>146</v>
+      </c>
+      <c r="I58" t="s">
+        <v>146</v>
+      </c>
+      <c r="J58" t="s">
+        <v>146</v>
+      </c>
+      <c r="K58" t="s">
+        <v>146</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" t="s">
+        <v>240</v>
+      </c>
+      <c r="C59" t="s">
+        <v>205</v>
+      </c>
+      <c r="D59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E59" t="s">
+        <v>146</v>
+      </c>
+      <c r="F59" t="s">
+        <v>242</v>
+      </c>
+      <c r="G59">
+        <v>2018</v>
+      </c>
+      <c r="H59" t="s">
+        <v>146</v>
+      </c>
+      <c r="I59" t="s">
+        <v>146</v>
+      </c>
+      <c r="J59" t="s">
+        <v>146</v>
+      </c>
+      <c r="K59" t="s">
+        <v>146</v>
+      </c>
+      <c r="L59">
+        <v>3.1157627118644098</v>
+      </c>
+      <c r="M59">
+        <v>3.1157627118644098</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" t="s">
+        <v>240</v>
+      </c>
+      <c r="C60" t="s">
+        <v>206</v>
+      </c>
+      <c r="D60" t="s">
+        <v>146</v>
+      </c>
+      <c r="E60" t="s">
+        <v>146</v>
+      </c>
+      <c r="F60" t="s">
+        <v>242</v>
+      </c>
+      <c r="G60">
+        <v>2018</v>
+      </c>
+      <c r="H60" t="s">
+        <v>146</v>
+      </c>
+      <c r="I60" t="s">
+        <v>146</v>
+      </c>
+      <c r="J60" t="s">
+        <v>146</v>
+      </c>
+      <c r="K60" t="s">
+        <v>146</v>
+      </c>
+      <c r="L60">
+        <v>0.81729411764705895</v>
+      </c>
+      <c r="M60">
+        <v>0.81729411764705895</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" t="s">
+        <v>240</v>
+      </c>
+      <c r="C61" t="s">
+        <v>207</v>
+      </c>
+      <c r="D61" t="s">
+        <v>146</v>
+      </c>
+      <c r="E61" t="s">
+        <v>146</v>
+      </c>
+      <c r="F61" t="s">
+        <v>242</v>
+      </c>
+      <c r="G61">
+        <v>2018</v>
+      </c>
+      <c r="H61" t="s">
+        <v>146</v>
+      </c>
+      <c r="I61" t="s">
+        <v>146</v>
+      </c>
+      <c r="J61" t="s">
+        <v>146</v>
+      </c>
+      <c r="K61" t="s">
+        <v>146</v>
+      </c>
+      <c r="L61">
+        <v>0.60949973059968399</v>
+      </c>
+      <c r="M61">
+        <v>0.60949973059968399</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" t="s">
+        <v>240</v>
+      </c>
+      <c r="C62" t="s">
+        <v>208</v>
+      </c>
+      <c r="D62" t="s">
+        <v>146</v>
+      </c>
+      <c r="E62" t="s">
+        <v>146</v>
+      </c>
+      <c r="F62" t="s">
+        <v>242</v>
+      </c>
+      <c r="G62">
+        <v>2018</v>
+      </c>
+      <c r="H62" t="s">
+        <v>146</v>
+      </c>
+      <c r="I62" t="s">
+        <v>146</v>
+      </c>
+      <c r="J62" t="s">
+        <v>146</v>
+      </c>
+      <c r="K62" t="s">
+        <v>146</v>
+      </c>
+      <c r="L62">
+        <v>0.81941558441558404</v>
+      </c>
+      <c r="M62">
+        <v>0.81941558441558404</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" t="s">
+        <v>240</v>
+      </c>
+      <c r="C63" t="s">
+        <v>209</v>
+      </c>
+      <c r="D63" t="s">
+        <v>146</v>
+      </c>
+      <c r="E63" t="s">
+        <v>146</v>
+      </c>
+      <c r="F63" t="s">
+        <v>242</v>
+      </c>
+      <c r="G63">
+        <v>2018</v>
+      </c>
+      <c r="H63" t="s">
+        <v>146</v>
+      </c>
+      <c r="I63" t="s">
+        <v>146</v>
+      </c>
+      <c r="J63" t="s">
+        <v>146</v>
+      </c>
+      <c r="K63" t="s">
+        <v>146</v>
+      </c>
+      <c r="L63">
+        <v>0.80707577433628297</v>
+      </c>
+      <c r="M63">
+        <v>0.80707577433628297</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" t="s">
+        <v>240</v>
+      </c>
+      <c r="C64" t="s">
+        <v>210</v>
+      </c>
+      <c r="D64" t="s">
+        <v>146</v>
+      </c>
+      <c r="E64" t="s">
+        <v>146</v>
+      </c>
+      <c r="F64" t="s">
+        <v>242</v>
+      </c>
+      <c r="G64">
+        <v>2018</v>
+      </c>
+      <c r="H64" t="s">
+        <v>146</v>
+      </c>
+      <c r="I64" t="s">
+        <v>146</v>
+      </c>
+      <c r="J64" t="s">
+        <v>146</v>
+      </c>
+      <c r="K64" t="s">
+        <v>146</v>
+      </c>
+      <c r="L64">
+        <v>0.55092948717948698</v>
+      </c>
+      <c r="M64">
+        <v>0.55092948717948698</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" t="s">
+        <v>240</v>
+      </c>
+      <c r="C65" t="s">
+        <v>211</v>
+      </c>
+      <c r="D65" t="s">
+        <v>146</v>
+      </c>
+      <c r="E65" t="s">
+        <v>146</v>
+      </c>
+      <c r="F65" t="s">
+        <v>242</v>
+      </c>
+      <c r="G65">
+        <v>2018</v>
+      </c>
+      <c r="H65" t="s">
+        <v>146</v>
+      </c>
+      <c r="I65" t="s">
+        <v>146</v>
+      </c>
+      <c r="J65" t="s">
+        <v>146</v>
+      </c>
+      <c r="K65" t="s">
+        <v>146</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" t="s">
+        <v>240</v>
+      </c>
+      <c r="C66" t="s">
+        <v>212</v>
+      </c>
+      <c r="D66" t="s">
+        <v>146</v>
+      </c>
+      <c r="E66" t="s">
+        <v>146</v>
+      </c>
+      <c r="F66" t="s">
+        <v>242</v>
+      </c>
+      <c r="G66">
+        <v>2018</v>
+      </c>
+      <c r="H66" t="s">
+        <v>146</v>
+      </c>
+      <c r="I66" t="s">
+        <v>146</v>
+      </c>
+      <c r="J66" t="s">
+        <v>146</v>
+      </c>
+      <c r="K66" t="s">
+        <v>146</v>
+      </c>
+      <c r="L66">
+        <v>0.57113772455089795</v>
+      </c>
+      <c r="M66">
+        <v>0.57113772455089795</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" t="s">
+        <v>240</v>
+      </c>
+      <c r="C67" t="s">
+        <v>213</v>
+      </c>
+      <c r="D67" t="s">
+        <v>146</v>
+      </c>
+      <c r="E67" t="s">
+        <v>146</v>
+      </c>
+      <c r="F67" t="s">
+        <v>242</v>
+      </c>
+      <c r="G67">
+        <v>2018</v>
+      </c>
+      <c r="H67" t="s">
+        <v>146</v>
+      </c>
+      <c r="I67" t="s">
+        <v>146</v>
+      </c>
+      <c r="J67" t="s">
+        <v>146</v>
+      </c>
+      <c r="K67" t="s">
+        <v>146</v>
+      </c>
+      <c r="L67">
+        <v>0.9</v>
+      </c>
+      <c r="M67">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" t="s">
+        <v>240</v>
+      </c>
+      <c r="C68" t="s">
+        <v>214</v>
+      </c>
+      <c r="D68" t="s">
+        <v>146</v>
+      </c>
+      <c r="E68" t="s">
+        <v>146</v>
+      </c>
+      <c r="F68" t="s">
+        <v>242</v>
+      </c>
+      <c r="G68">
+        <v>2018</v>
+      </c>
+      <c r="H68" t="s">
+        <v>146</v>
+      </c>
+      <c r="I68" t="s">
+        <v>146</v>
+      </c>
+      <c r="J68" t="s">
+        <v>146</v>
+      </c>
+      <c r="K68" t="s">
+        <v>146</v>
+      </c>
+      <c r="L68">
+        <v>0.9</v>
+      </c>
+      <c r="M68">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69" t="s">
+        <v>240</v>
+      </c>
+      <c r="C69" t="s">
+        <v>215</v>
+      </c>
+      <c r="D69" t="s">
+        <v>146</v>
+      </c>
+      <c r="E69" t="s">
+        <v>146</v>
+      </c>
+      <c r="F69" t="s">
+        <v>242</v>
+      </c>
+      <c r="G69">
+        <v>2018</v>
+      </c>
+      <c r="H69" t="s">
+        <v>146</v>
+      </c>
+      <c r="I69" t="s">
+        <v>146</v>
+      </c>
+      <c r="J69" t="s">
+        <v>146</v>
+      </c>
+      <c r="K69" t="s">
+        <v>146</v>
+      </c>
+      <c r="L69">
+        <v>0.72928609692169399</v>
+      </c>
+      <c r="M69">
+        <v>0.72928609692169399</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" t="s">
+        <v>240</v>
+      </c>
+      <c r="C70" t="s">
+        <v>216</v>
+      </c>
+      <c r="D70" t="s">
+        <v>146</v>
+      </c>
+      <c r="E70" t="s">
+        <v>146</v>
+      </c>
+      <c r="F70" t="s">
+        <v>242</v>
+      </c>
+      <c r="G70">
+        <v>2018</v>
+      </c>
+      <c r="H70" t="s">
+        <v>146</v>
+      </c>
+      <c r="I70" t="s">
+        <v>146</v>
+      </c>
+      <c r="J70" t="s">
+        <v>146</v>
+      </c>
+      <c r="K70" t="s">
+        <v>146</v>
+      </c>
+      <c r="L70">
+        <v>0.619863294600137</v>
+      </c>
+      <c r="M70">
+        <v>0.619863294600137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" t="s">
+        <v>240</v>
+      </c>
+      <c r="C71" t="s">
+        <v>217</v>
+      </c>
+      <c r="D71" t="s">
+        <v>146</v>
+      </c>
+      <c r="E71" t="s">
+        <v>146</v>
+      </c>
+      <c r="F71" t="s">
+        <v>242</v>
+      </c>
+      <c r="G71">
+        <v>2018</v>
+      </c>
+      <c r="H71" t="s">
+        <v>146</v>
+      </c>
+      <c r="I71" t="s">
+        <v>146</v>
+      </c>
+      <c r="J71" t="s">
+        <v>146</v>
+      </c>
+      <c r="K71" t="s">
+        <v>146</v>
+      </c>
+      <c r="L71">
+        <v>0.99952095808383201</v>
+      </c>
+      <c r="M71">
+        <v>0.99952095808383201</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" t="s">
+        <v>240</v>
+      </c>
+      <c r="C72" t="s">
+        <v>218</v>
+      </c>
+      <c r="D72" t="s">
+        <v>146</v>
+      </c>
+      <c r="E72" t="s">
+        <v>146</v>
+      </c>
+      <c r="F72" t="s">
+        <v>242</v>
+      </c>
+      <c r="G72">
+        <v>2018</v>
+      </c>
+      <c r="H72" t="s">
+        <v>146</v>
+      </c>
+      <c r="I72" t="s">
+        <v>146</v>
+      </c>
+      <c r="J72" t="s">
+        <v>146</v>
+      </c>
+      <c r="K72" t="s">
+        <v>146</v>
+      </c>
+      <c r="L72">
+        <v>3.0897837837837798</v>
+      </c>
+      <c r="M72">
+        <v>3.0897837837837798</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" t="s">
+        <v>240</v>
+      </c>
+      <c r="C73" t="s">
+        <v>219</v>
+      </c>
+      <c r="D73" t="s">
+        <v>146</v>
+      </c>
+      <c r="E73" t="s">
+        <v>146</v>
+      </c>
+      <c r="F73" t="s">
+        <v>242</v>
+      </c>
+      <c r="G73">
+        <v>2018</v>
+      </c>
+      <c r="H73" t="s">
+        <v>146</v>
+      </c>
+      <c r="I73" t="s">
+        <v>146</v>
+      </c>
+      <c r="J73" t="s">
+        <v>146</v>
+      </c>
+      <c r="K73" t="s">
+        <v>146</v>
+      </c>
+      <c r="L73">
+        <v>0.82728758169934602</v>
+      </c>
+      <c r="M73">
+        <v>0.82728758169934602</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>240</v>
+      </c>
+      <c r="C74" t="s">
+        <v>220</v>
+      </c>
+      <c r="D74" t="s">
+        <v>146</v>
+      </c>
+      <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
+        <v>242</v>
+      </c>
+      <c r="G74">
+        <v>2018</v>
+      </c>
+      <c r="H74" t="s">
+        <v>146</v>
+      </c>
+      <c r="I74" t="s">
+        <v>146</v>
+      </c>
+      <c r="J74" t="s">
+        <v>146</v>
+      </c>
+      <c r="K74" t="s">
+        <v>146</v>
+      </c>
+      <c r="L74">
+        <v>0.65865731206453004</v>
+      </c>
+      <c r="M74">
+        <v>0.65865731206453004</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>240</v>
+      </c>
+      <c r="C75" t="s">
+        <v>221</v>
+      </c>
+      <c r="D75" t="s">
+        <v>146</v>
+      </c>
+      <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
+        <v>242</v>
+      </c>
+      <c r="G75">
+        <v>2018</v>
+      </c>
+      <c r="H75" t="s">
+        <v>146</v>
+      </c>
+      <c r="I75" t="s">
+        <v>146</v>
+      </c>
+      <c r="J75" t="s">
+        <v>146</v>
+      </c>
+      <c r="K75" t="s">
+        <v>146</v>
+      </c>
+      <c r="L75">
+        <v>0.82280373831775699</v>
+      </c>
+      <c r="M75">
+        <v>0.82280373831775699</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" t="s">
+        <v>240</v>
+      </c>
+      <c r="C76" t="s">
+        <v>222</v>
+      </c>
+      <c r="D76" t="s">
+        <v>146</v>
+      </c>
+      <c r="E76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" t="s">
+        <v>242</v>
+      </c>
+      <c r="G76">
+        <v>2018</v>
+      </c>
+      <c r="H76" t="s">
+        <v>146</v>
+      </c>
+      <c r="I76" t="s">
+        <v>146</v>
+      </c>
+      <c r="J76" t="s">
+        <v>146</v>
+      </c>
+      <c r="K76" t="s">
+        <v>146</v>
+      </c>
+      <c r="L76">
+        <v>0.82661774762699303</v>
+      </c>
+      <c r="M76">
+        <v>0.82661774762699303</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>240</v>
+      </c>
+      <c r="C77" t="s">
+        <v>223</v>
+      </c>
+      <c r="D77" t="s">
+        <v>146</v>
+      </c>
+      <c r="E77" t="s">
+        <v>146</v>
+      </c>
+      <c r="F77" t="s">
+        <v>242</v>
+      </c>
+      <c r="G77">
+        <v>2018</v>
+      </c>
+      <c r="H77" t="s">
+        <v>146</v>
+      </c>
+      <c r="I77" t="s">
+        <v>146</v>
+      </c>
+      <c r="J77" t="s">
+        <v>146</v>
+      </c>
+      <c r="K77" t="s">
+        <v>146</v>
+      </c>
+      <c r="L77">
+        <v>0.54578947368421105</v>
+      </c>
+      <c r="M77">
+        <v>0.54578947368421105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>240</v>
+      </c>
+      <c r="C78" t="s">
+        <v>224</v>
+      </c>
+      <c r="D78" t="s">
+        <v>146</v>
+      </c>
+      <c r="E78" t="s">
+        <v>146</v>
+      </c>
+      <c r="F78" t="s">
+        <v>242</v>
+      </c>
+      <c r="G78">
+        <v>2018</v>
+      </c>
+      <c r="H78" t="s">
+        <v>146</v>
+      </c>
+      <c r="I78" t="s">
+        <v>146</v>
+      </c>
+      <c r="J78" t="s">
+        <v>146</v>
+      </c>
+      <c r="K78" t="s">
+        <v>146</v>
+      </c>
+      <c r="L78">
+        <v>3.0897837837837798</v>
+      </c>
+      <c r="M78">
+        <v>3.0897837837837798</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>240</v>
+      </c>
+      <c r="C79" t="s">
+        <v>225</v>
+      </c>
+      <c r="D79" t="s">
+        <v>146</v>
+      </c>
+      <c r="E79" t="s">
+        <v>146</v>
+      </c>
+      <c r="F79" t="s">
+        <v>242</v>
+      </c>
+      <c r="G79">
+        <v>2018</v>
+      </c>
+      <c r="H79" t="s">
+        <v>146</v>
+      </c>
+      <c r="I79" t="s">
+        <v>146</v>
+      </c>
+      <c r="J79" t="s">
+        <v>146</v>
+      </c>
+      <c r="K79" t="s">
+        <v>146</v>
+      </c>
+      <c r="L79">
+        <v>0.61474226804123699</v>
+      </c>
+      <c r="M79">
+        <v>0.61474226804123699</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31429258-A02E-4988-82C1-0A77E14DD528}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -10556,7 +14954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD076EF3-A195-4397-AD9A-EC5D0F2DC108}">
   <dimension ref="A1:M4"/>
   <sheetViews>
@@ -10733,7 +15131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDF976D-9BA7-415B-84DA-001C1A906A30}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -10826,279 +15224,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A33C8A0-6F39-4FB7-B653-B5172ACE9A22}">
-  <dimension ref="A1:M4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I1" t="s">
-        <v>142</v>
-      </c>
-      <c r="J1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K1" t="s">
-        <v>144</v>
-      </c>
-      <c r="L1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2">
-        <v>2018</v>
-      </c>
-      <c r="H2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K2" t="s">
-        <v>146</v>
-      </c>
-      <c r="L2">
-        <v>1.6114677026113401E-3</v>
-      </c>
-      <c r="M2">
-        <v>1.6114677026113401E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G3">
-        <v>2018</v>
-      </c>
-      <c r="H3" t="s">
-        <v>146</v>
-      </c>
-      <c r="I3" t="s">
-        <v>146</v>
-      </c>
-      <c r="J3" t="s">
-        <v>146</v>
-      </c>
-      <c r="K3" t="s">
-        <v>146</v>
-      </c>
-      <c r="L3">
-        <v>2.287177034804E-3</v>
-      </c>
-      <c r="M3">
-        <v>2.287177034804E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G4">
-        <v>2018</v>
-      </c>
-      <c r="H4" t="s">
-        <v>146</v>
-      </c>
-      <c r="I4" t="s">
-        <v>146</v>
-      </c>
-      <c r="J4" t="s">
-        <v>146</v>
-      </c>
-      <c r="K4" t="s">
-        <v>146</v>
-      </c>
-      <c r="L4">
-        <v>3.76745947904644E-3</v>
-      </c>
-      <c r="M4">
-        <v>3.76745947904644E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667C97CC-9D61-4655-83D0-3753B9DE28B3}">
-  <dimension ref="A1:M2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I1" t="s">
-        <v>142</v>
-      </c>
-      <c r="J1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K1" t="s">
-        <v>144</v>
-      </c>
-      <c r="L1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2">
-        <v>2018</v>
-      </c>
-      <c r="H2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K2" t="s">
-        <v>146</v>
-      </c>
-      <c r="L2">
-        <v>9.5142857142857095E-4</v>
-      </c>
-      <c r="M2">
-        <v>9.5142857142857095E-4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/SubRES_TMPL/SubRes_RSD_Trans.xlsx
+++ b/SubRES_TMPL/SubRes_RSD_Trans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8221DA-DAE3-4737-BC72-FB7B2CA71ADF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD89D81-CDB6-4618-8B71-4575D2B14D01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="819" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4650" yWindow="-14430" windowWidth="21600" windowHeight="11385" tabRatio="819" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="46" r:id="rId1"/>
@@ -316,7 +316,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2622" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2622" uniqueCount="249">
   <si>
     <t>IE</t>
   </si>
@@ -1078,6 +1078,9 @@
   </si>
   <si>
     <t>EFF for RSD techs</t>
+  </si>
+  <si>
+    <t>CEFF</t>
   </si>
 </sst>
 </file>
@@ -9831,7 +9834,7 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9970,7 +9973,7 @@
         <v>R-SH_Apt_OILLPG*</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F9" s="33" t="str">
         <f t="shared" si="1"/>

--- a/SubRES_TMPL/SubRes_RSD_Trans.xlsx
+++ b/SubRES_TMPL/SubRes_RSD_Trans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD89D81-CDB6-4618-8B71-4575D2B14D01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F6A562-56CD-47B7-A596-DF17D68A0048}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="-14430" windowWidth="21600" windowHeight="11385" tabRatio="819" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="819" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="46" r:id="rId1"/>
@@ -95,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{E87E9E66-B085-4C35-B4E6-3E638C46D86E}">
+    <comment ref="A28" authorId="0" shapeId="0" xr:uid="{C3660F9D-E8F5-4063-BEE2-2042EB0763EF}">
       <text>
         <r>
           <rPr>
@@ -174,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E28" authorId="0" shapeId="0" xr:uid="{E0A8C4A0-3F51-482B-937E-36BFCED51963}">
+    <comment ref="E28" authorId="0" shapeId="0" xr:uid="{72AF12B7-FF49-4C3A-877A-D8A005AB53A6}">
       <text>
         <r>
           <rPr>
@@ -197,76 +197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E41" authorId="0" shapeId="0" xr:uid="{9DFE8B42-5FB3-4778-896A-7C5D619EF0BD}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">E4SMA: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Technology not available as future option</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E54" authorId="0" shapeId="0" xr:uid="{749CDB38-A158-4DF6-998A-B14BE2E11397}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">E4SMA: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Technology not available as future option</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E67" authorId="0" shapeId="0" xr:uid="{94ED9B48-F5E3-456A-A49B-60F8B0DC5A09}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">E4SMA: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Technology not available as future option</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E80" authorId="0" shapeId="0" xr:uid="{30190403-C0CC-464D-8B0A-93EFDC06124E}">
+    <comment ref="E41" authorId="0" shapeId="0" xr:uid="{DDA93A61-A192-4B5A-A9C6-7534D45425BD}">
       <text>
         <r>
           <rPr>
@@ -316,7 +247,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2622" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2511" uniqueCount="250">
   <si>
     <t>IE</t>
   </si>
@@ -1082,14 +1013,16 @@
   <si>
     <t>CEFF</t>
   </si>
+  <si>
+    <t>*Apartment Heat</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;????_-;_-@_-"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -1343,7 +1276,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1431,7 +1364,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7670,8 +7602,8 @@
   </sheetPr>
   <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L76" sqref="L76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7763,7 +7695,7 @@
     </row>
     <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="B6" s="32" t="str">
         <f t="shared" ref="B6:B17" si="0">"R-SH-"&amp;F6&amp;"_"&amp;G6&amp;"*"</f>
@@ -7839,7 +7771,7 @@
     </row>
     <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="B8" s="32" t="str">
         <f t="shared" si="0"/>
@@ -8029,7 +7961,7 @@
     </row>
     <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="B13" s="33" t="str">
         <f t="shared" si="0"/>
@@ -8055,7 +7987,7 @@
     </row>
     <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="B14" s="32" t="str">
         <f t="shared" si="0"/>
@@ -8203,7 +8135,7 @@
     </row>
     <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="B19" s="32" t="str">
         <f t="shared" ref="B19:B30" si="2">"R-SH-"&amp;F19&amp;"_"&amp;G19&amp;"*"</f>
@@ -8396,7 +8328,7 @@
     </row>
     <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="B26" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8422,7 +8354,7 @@
     </row>
     <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="B27" s="32" t="str">
         <f t="shared" si="2"/>
@@ -8538,7 +8470,7 @@
     </row>
     <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="B32" s="32" t="str">
         <f t="shared" ref="B32:B43" si="4">"R-SH-"&amp;F32&amp;"_"&amp;G32&amp;"*"</f>
@@ -8721,7 +8653,7 @@
     </row>
     <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="B39" s="33" t="str">
         <f t="shared" si="4"/>
@@ -8747,7 +8679,7 @@
     </row>
     <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="B40" s="32" t="str">
         <f t="shared" si="4"/>
@@ -8862,7 +8794,7 @@
     </row>
     <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="B45" s="32" t="str">
         <f t="shared" ref="B45:B56" si="6">"R-WH-"&amp;F45&amp;"_"&amp;G45&amp;"*"</f>
@@ -8914,7 +8846,7 @@
     </row>
     <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="32" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="B47" s="32" t="str">
         <f t="shared" si="6"/>
@@ -9044,7 +8976,7 @@
     </row>
     <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="33" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="B52" s="33" t="str">
         <f t="shared" si="6"/>
@@ -9070,7 +9002,7 @@
     </row>
     <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="B53" s="32" t="str">
         <f t="shared" si="6"/>
@@ -9186,7 +9118,7 @@
     </row>
     <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="32" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="B58" s="32" t="str">
         <f t="shared" ref="B58:B69" si="8">"R-WH-"&amp;F58&amp;"_"&amp;G58&amp;"*"</f>
@@ -9238,7 +9170,7 @@
     </row>
     <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="32" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="B60" s="32" t="str">
         <f t="shared" si="8"/>
@@ -9368,7 +9300,7 @@
     </row>
     <row r="65" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="33" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="B65" s="33" t="str">
         <f t="shared" si="8"/>
@@ -9394,7 +9326,7 @@
     </row>
     <row r="66" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="32" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="B66" s="32" t="str">
         <f t="shared" si="8"/>
@@ -9510,7 +9442,7 @@
     </row>
     <row r="71" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="32" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="B71" s="32" t="str">
         <f t="shared" ref="B71:B82" si="10">"R-WH-"&amp;F71&amp;"_"&amp;G71&amp;"*"</f>
@@ -9562,7 +9494,7 @@
     </row>
     <row r="73" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="32" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="B73" s="32" t="str">
         <f t="shared" si="10"/>
@@ -9692,7 +9624,7 @@
     </row>
     <row r="78" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="33" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="B78" s="33" t="str">
         <f t="shared" si="10"/>
@@ -9718,7 +9650,7 @@
     </row>
     <row r="79" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="32" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="B79" s="32" t="str">
         <f t="shared" si="10"/>
@@ -9831,10 +9763,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9879,7 +9811,7 @@
         <v>81</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -9887,7 +9819,7 @@
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
       <c r="E5" s="29" t="s">
-        <v>123</v>
+        <v>249</v>
       </c>
       <c r="F5" s="30"/>
       <c r="G5" s="31"/>
@@ -9900,15 +9832,15 @@
         <v>82</v>
       </c>
       <c r="C6" s="32" t="str">
-        <f t="shared" ref="C6:C11" si="0">"R-SH_"&amp;A6&amp;"_"&amp;B6&amp;"*"</f>
-        <v>R-SH_Apt_COA*</v>
+        <f t="shared" ref="C6:C43" si="0">"R*H_"&amp;A6&amp;"_"&amp;B6&amp;"*"</f>
+        <v>R*H_Apt_COA*</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="F6" s="32" t="str">
-        <f t="shared" ref="F6:F17" si="1">"R-SH_"&amp;A6&amp;"_"&amp;B6&amp;"*"</f>
-        <v>R-SH_Apt_COA*</v>
+        <f>"R*H_"&amp;A6&amp;"_"&amp;B6&amp;"*"</f>
+        <v>R*H_Apt_COA*</v>
       </c>
       <c r="G6" s="32" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C6,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
@@ -9924,14 +9856,14 @@
       </c>
       <c r="C7" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>R-SH_Apt_BIODST*</v>
+        <v>R*H_Apt_BIODST*</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F7" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>R-SH_Apt_BIODST*</v>
+        <f t="shared" ref="F7:F17" si="1">"R*H_"&amp;A7&amp;"_"&amp;B7&amp;"*"</f>
+        <v>R*H_Apt_BIODST*</v>
       </c>
       <c r="G7" s="33" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C7,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
@@ -9947,14 +9879,14 @@
       </c>
       <c r="C8" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>R-SH_Apt_BIOETH*</v>
+        <v>R*H_Apt_BIOETH*</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="F8" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>R-SH_Apt_BIOETH*</v>
+        <v>R*H_Apt_BIOETH*</v>
       </c>
       <c r="G8" s="32" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C8,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
@@ -9970,16 +9902,16 @@
       </c>
       <c r="C9" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>R-SH_Apt_OILLPG*</v>
+        <v>R*H_Apt_OILLPG*</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>248</v>
       </c>
       <c r="F9" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>R-SH_Apt_OILLPG*</v>
-      </c>
-      <c r="G9" s="38" t="str">
+        <v>R*H_Apt_OILLPG*</v>
+      </c>
+      <c r="G9" s="33" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C9,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
         <v>*0.806779026217228</v>
       </c>
@@ -9993,14 +9925,14 @@
       </c>
       <c r="C10" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>R-SH_Apt_ELC*</v>
+        <v>R*H_Apt_ELC*</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F10" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v>R-SH_Apt_ELC*</v>
+        <f>"R*H_"&amp;A10&amp;"_"&amp;B10&amp;"_HP*"</f>
+        <v>R*H_Apt_ELC_HP*</v>
       </c>
       <c r="G10" s="32" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C10,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
@@ -10016,14 +9948,14 @@
       </c>
       <c r="C11" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>R-SH_Apt_OILKER*</v>
+        <v>R*H_Apt_OILKER*</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F11" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>R-SH_Apt_OILKER*</v>
+        <v>R*H_Apt_OILKER*</v>
       </c>
       <c r="G11" s="33" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C11,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
@@ -10038,15 +9970,15 @@
         <v>117</v>
       </c>
       <c r="C12" s="32" t="str">
-        <f>"R-SH_"&amp;A11&amp;"_"&amp;B12&amp;"*"</f>
-        <v>R-SH_Apt_GASNAT*</v>
+        <f t="shared" si="0"/>
+        <v>R*H_Apt_GASNAT*</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F12" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>R-SH_Apt_GASNAT*</v>
+        <v>R*H_Apt_GASNAT*</v>
       </c>
       <c r="G12" s="32" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C12,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
@@ -10061,15 +9993,15 @@
         <v>118</v>
       </c>
       <c r="C13" s="33" t="str">
-        <f>"R-SH_"&amp;A13&amp;"_"&amp;B13&amp;"*"</f>
-        <v>R-SH_Apt_PEA*</v>
+        <f t="shared" si="0"/>
+        <v>R*H_Apt_PEA*</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="F13" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>R-SH_Apt_PEA*</v>
+        <v>R*H_Apt_PEA*</v>
       </c>
       <c r="G13" s="33" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C13,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
@@ -10084,15 +10016,15 @@
         <v>119</v>
       </c>
       <c r="C14" s="32" t="str">
-        <f>"R-SH_"&amp;A14&amp;"_"&amp;B14&amp;"*"</f>
-        <v>R-SH_Apt_SMF*</v>
+        <f t="shared" si="0"/>
+        <v>R*H_Apt_SMF*</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="F14" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>R-SH_Apt_SMF*</v>
+        <v>R*H_Apt_SMF*</v>
       </c>
       <c r="G14" s="32" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C14,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
@@ -10107,15 +10039,15 @@
         <v>120</v>
       </c>
       <c r="C15" s="33" t="str">
-        <f>"R-SH_"&amp;A15&amp;"_"&amp;B15&amp;"*"</f>
-        <v>R-SH_Apt_BIOWOO*</v>
+        <f t="shared" si="0"/>
+        <v>R*H_Apt_BIOWOO*</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F15" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>R-SH_Apt_BIOWOO*</v>
+        <v>R*H_Apt_BIOWOO*</v>
       </c>
       <c r="G15" s="33" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C15,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
@@ -10130,15 +10062,15 @@
         <v>84</v>
       </c>
       <c r="C16" s="32" t="str">
-        <f>"R-SH_"&amp;A16&amp;"_"&amp;B16&amp;"*"</f>
-        <v>R-SH_Apt_HET*</v>
+        <f t="shared" si="0"/>
+        <v>R*H_Apt_HET*</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F16" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>R-SH_Apt_HET*</v>
+        <v>R*H_Apt_HET*</v>
       </c>
       <c r="G16" s="32" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C16,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
@@ -10153,15 +10085,15 @@
         <v>121</v>
       </c>
       <c r="C17" s="33" t="str">
-        <f>"R-SH_"&amp;A17&amp;"_"&amp;B17&amp;"*"</f>
-        <v>R-SH_Apt_RENGEO*</v>
+        <f t="shared" si="0"/>
+        <v>R*H_Apt_RENGEO*</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F17" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>R-SH_Apt_RENGEO*</v>
+        <v>R*H_Apt_RENGEO*</v>
       </c>
       <c r="G17" s="33" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C17,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
@@ -10186,15 +10118,15 @@
         <v>82</v>
       </c>
       <c r="C19" s="32" t="str">
-        <f t="shared" ref="C19:C24" si="2">"R-SH_"&amp;A19&amp;"_"&amp;B19&amp;"*"</f>
-        <v>R-SH_Att_COA*</v>
+        <f t="shared" si="0"/>
+        <v>R*H_Att_COA*</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="F19" s="33" t="str">
-        <f t="shared" ref="F19:F30" si="3">"R-SH_"&amp;A19&amp;"_"&amp;B19&amp;"*"</f>
-        <v>R-SH_Att_COA*</v>
+        <v>1</v>
+      </c>
+      <c r="F19" s="32" t="str">
+        <f>"R*H_"&amp;A19&amp;"_"&amp;B19&amp;"*"</f>
+        <v>R*H_Att_COA*</v>
       </c>
       <c r="G19" s="32" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C19,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
@@ -10209,15 +10141,15 @@
         <v>113</v>
       </c>
       <c r="C20" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>R-SH_Att_BIODST*</v>
+        <f t="shared" si="0"/>
+        <v>R*H_Att_BIODST*</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="F20" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>R-SH_Att_BIODST*</v>
+        <v>248</v>
+      </c>
+      <c r="F20" s="33" t="str">
+        <f t="shared" ref="F20:F30" si="2">"R*H_"&amp;A20&amp;"_"&amp;B20&amp;"*"</f>
+        <v>R*H_Att_BIODST*</v>
       </c>
       <c r="G20" s="33" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C20,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
@@ -10232,15 +10164,15 @@
         <v>114</v>
       </c>
       <c r="C21" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>R*H_Att_BIOETH*</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>R-SH_Att_BIOETH*</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="F21" s="33" t="str">
-        <f t="shared" si="3"/>
-        <v>R-SH_Att_BIOETH*</v>
+        <v>R*H_Att_BIOETH*</v>
       </c>
       <c r="G21" s="32" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C21,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
@@ -10255,17 +10187,17 @@
         <v>115</v>
       </c>
       <c r="C22" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>R*H_Att_OILLPG*</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="F22" s="33" t="str">
         <f t="shared" si="2"/>
-        <v>R-SH_Att_OILLPG*</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="F22" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>R-SH_Att_OILLPG*</v>
-      </c>
-      <c r="G22" s="38" t="str">
+        <v>R*H_Att_OILLPG*</v>
+      </c>
+      <c r="G22" s="33" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C22,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
         <v>*0.807075774336283</v>
       </c>
@@ -10278,15 +10210,15 @@
         <v>83</v>
       </c>
       <c r="C23" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>R*H_Att_ELC*</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="F23" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>R-SH_Att_ELC*</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="F23" s="33" t="str">
-        <f t="shared" si="3"/>
-        <v>R-SH_Att_ELC*</v>
+        <v>R*H_Att_ELC*</v>
       </c>
       <c r="G23" s="32" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C23,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
@@ -10301,15 +10233,15 @@
         <v>116</v>
       </c>
       <c r="C24" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>R*H_Att_OILKER*</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="F24" s="33" t="str">
         <f t="shared" si="2"/>
-        <v>R-SH_Att_OILKER*</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="F24" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>R-SH_Att_OILKER*</v>
+        <v>R*H_Att_OILKER*</v>
       </c>
       <c r="G24" s="33" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C24,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
@@ -10324,15 +10256,15 @@
         <v>117</v>
       </c>
       <c r="C25" s="32" t="str">
-        <f>"R-SH_"&amp;A24&amp;"_"&amp;B25&amp;"*"</f>
-        <v>R-SH_Att_GASNAT*</v>
+        <f t="shared" si="0"/>
+        <v>R*H_Att_GASNAT*</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="F25" s="33" t="str">
-        <f t="shared" si="3"/>
-        <v>R-SH_Att_GASNAT*</v>
+        <v>248</v>
+      </c>
+      <c r="F25" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>R*H_Att_GASNAT*</v>
       </c>
       <c r="G25" s="32" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C25,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
@@ -10347,15 +10279,15 @@
         <v>118</v>
       </c>
       <c r="C26" s="33" t="str">
-        <f>"R-SH_"&amp;A26&amp;"_"&amp;B26&amp;"*"</f>
-        <v>R-SH_Att_PEA*</v>
+        <f t="shared" si="0"/>
+        <v>R*H_Att_PEA*</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="F26" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>R-SH_Att_PEA*</v>
+        <v>1</v>
+      </c>
+      <c r="F26" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v>R*H_Att_PEA*</v>
       </c>
       <c r="G26" s="33" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C26,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
@@ -10370,15 +10302,15 @@
         <v>119</v>
       </c>
       <c r="C27" s="32" t="str">
-        <f>"R-SH_"&amp;A27&amp;"_"&amp;B27&amp;"*"</f>
-        <v>R-SH_Att_SMF*</v>
+        <f t="shared" si="0"/>
+        <v>R*H_Att_SMF*</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="F27" s="33" t="str">
-        <f t="shared" si="3"/>
-        <v>R-SH_Att_SMF*</v>
+        <v>1</v>
+      </c>
+      <c r="F27" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>R*H_Att_SMF*</v>
       </c>
       <c r="G27" s="32" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C27,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
@@ -10393,15 +10325,15 @@
         <v>120</v>
       </c>
       <c r="C28" s="33" t="str">
-        <f>"R-SH_"&amp;A28&amp;"_"&amp;B28&amp;"*"</f>
-        <v>R-SH_Att_BIOWOO*</v>
+        <f t="shared" si="0"/>
+        <v>R*H_Att_BIOWOO*</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="F28" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>R-SH_Att_BIOWOO*</v>
+        <v>248</v>
+      </c>
+      <c r="F28" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v>R*H_Att_BIOWOO*</v>
       </c>
       <c r="G28" s="33" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C28,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
@@ -10416,15 +10348,15 @@
         <v>84</v>
       </c>
       <c r="C29" s="32" t="str">
-        <f>"R-SH_"&amp;A29&amp;"_"&amp;B29&amp;"*"</f>
-        <v>R-SH_Att_HET*</v>
+        <f t="shared" si="0"/>
+        <v>R*H_Att_HET*</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="F29" s="33" t="str">
-        <f t="shared" si="3"/>
-        <v>R-SH_Att_HET*</v>
+        <v>248</v>
+      </c>
+      <c r="F29" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>R*H_Att_HET*</v>
       </c>
       <c r="G29" s="32" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C29,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
@@ -10439,15 +10371,15 @@
         <v>121</v>
       </c>
       <c r="C30" s="33" t="str">
-        <f>"R-SH_"&amp;A30&amp;"_"&amp;B30&amp;"*"</f>
-        <v>R-SH_Att_RENGEO*</v>
+        <f t="shared" si="0"/>
+        <v>R*H_Att_RENGEO*</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="F30" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>R-SH_Att_RENGEO*</v>
+        <v>248</v>
+      </c>
+      <c r="F30" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v>R*H_Att_RENGEO*</v>
       </c>
       <c r="G30" s="33" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C30,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
@@ -10472,15 +10404,15 @@
         <v>82</v>
       </c>
       <c r="C32" s="32" t="str">
-        <f t="shared" ref="C32:C37" si="4">"R-SH_"&amp;A32&amp;"_"&amp;B32&amp;"*"</f>
-        <v>R-SH_Det_COA*</v>
+        <f t="shared" si="0"/>
+        <v>R*H_Det_COA*</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="F32" s="32" t="str">
-        <f t="shared" ref="F32:F43" si="5">"R-SH_"&amp;A32&amp;"_"&amp;B32&amp;"*"</f>
-        <v>R-SH_Det_COA*</v>
+        <f>"R*H_"&amp;A32&amp;"_"&amp;B32&amp;"*"</f>
+        <v>R*H_Det_COA*</v>
       </c>
       <c r="G32" s="32" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C32,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
@@ -10496,16 +10428,16 @@
         <v>113</v>
       </c>
       <c r="C33" s="33" t="str">
-        <f t="shared" si="4"/>
-        <v>R-SH_Det_BIODST*</v>
+        <f t="shared" si="0"/>
+        <v>R*H_Det_BIODST*</v>
       </c>
       <c r="D33" s="25"/>
       <c r="E33" s="33" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F33" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>R-SH_Det_BIODST*</v>
+        <f t="shared" ref="F33:F43" si="3">"R*H_"&amp;A33&amp;"_"&amp;B33&amp;"*"</f>
+        <v>R*H_Det_BIODST*</v>
       </c>
       <c r="G33" s="33" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C33,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
@@ -10521,15 +10453,15 @@
         <v>114</v>
       </c>
       <c r="C34" s="32" t="str">
-        <f t="shared" si="4"/>
-        <v>R-SH_Det_BIOETH*</v>
+        <f t="shared" si="0"/>
+        <v>R*H_Det_BIOETH*</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="F34" s="32" t="str">
-        <f t="shared" si="5"/>
-        <v>R-SH_Det_BIOETH*</v>
+        <f t="shared" si="3"/>
+        <v>R*H_Det_BIOETH*</v>
       </c>
       <c r="G34" s="32" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C34,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
@@ -10544,17 +10476,17 @@
         <v>115</v>
       </c>
       <c r="C35" s="33" t="str">
-        <f t="shared" si="4"/>
-        <v>R-SH_Det_OILLPG*</v>
+        <f t="shared" si="0"/>
+        <v>R*H_Det_OILLPG*</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F35" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>R-SH_Det_OILLPG*</v>
-      </c>
-      <c r="G35" s="38" t="str">
+        <f t="shared" si="3"/>
+        <v>R*H_Det_OILLPG*</v>
+      </c>
+      <c r="G35" s="33" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C35,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
         <v>*0.826617747626993</v>
       </c>
@@ -10567,15 +10499,15 @@
         <v>83</v>
       </c>
       <c r="C36" s="32" t="str">
-        <f t="shared" si="4"/>
-        <v>R-SH_Det_ELC*</v>
+        <f t="shared" si="0"/>
+        <v>R*H_Det_ELC*</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F36" s="32" t="str">
-        <f t="shared" si="5"/>
-        <v>R-SH_Det_ELC*</v>
+        <f t="shared" si="3"/>
+        <v>R*H_Det_ELC*</v>
       </c>
       <c r="G36" s="32" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C36,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
@@ -10590,15 +10522,15 @@
         <v>116</v>
       </c>
       <c r="C37" s="33" t="str">
-        <f t="shared" si="4"/>
-        <v>R-SH_Det_OILKER*</v>
+        <f t="shared" si="0"/>
+        <v>R*H_Det_OILKER*</v>
       </c>
       <c r="E37" s="33" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F37" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>R-SH_Det_OILKER*</v>
+        <f t="shared" si="3"/>
+        <v>R*H_Det_OILKER*</v>
       </c>
       <c r="G37" s="33" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C37,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
@@ -10613,15 +10545,15 @@
         <v>117</v>
       </c>
       <c r="C38" s="32" t="str">
-        <f>"R-SH_"&amp;A37&amp;"_"&amp;B38&amp;"*"</f>
-        <v>R-SH_Det_GASNAT*</v>
+        <f t="shared" si="0"/>
+        <v>R*H_Det_GASNAT*</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F38" s="32" t="str">
-        <f t="shared" si="5"/>
-        <v>R-SH_Det_GASNAT*</v>
+        <f t="shared" si="3"/>
+        <v>R*H_Det_GASNAT*</v>
       </c>
       <c r="G38" s="32" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C38,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
@@ -10636,15 +10568,15 @@
         <v>118</v>
       </c>
       <c r="C39" s="33" t="str">
-        <f>"R-SH_"&amp;A39&amp;"_"&amp;B39&amp;"*"</f>
-        <v>R-SH_Det_PEA*</v>
+        <f t="shared" si="0"/>
+        <v>R*H_Det_PEA*</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="F39" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>R-SH_Det_PEA*</v>
+        <f t="shared" si="3"/>
+        <v>R*H_Det_PEA*</v>
       </c>
       <c r="G39" s="33" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C39,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
@@ -10659,15 +10591,15 @@
         <v>119</v>
       </c>
       <c r="C40" s="32" t="str">
-        <f>"R-SH_"&amp;A40&amp;"_"&amp;B40&amp;"*"</f>
-        <v>R-SH_Det_SMF*</v>
+        <f t="shared" si="0"/>
+        <v>R*H_Det_SMF*</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="F40" s="32" t="str">
-        <f t="shared" si="5"/>
-        <v>R-SH_Det_SMF*</v>
+        <f t="shared" si="3"/>
+        <v>R*H_Det_SMF*</v>
       </c>
       <c r="G40" s="32" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C40,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
@@ -10682,15 +10614,15 @@
         <v>120</v>
       </c>
       <c r="C41" s="33" t="str">
-        <f>"R-SH_"&amp;A41&amp;"_"&amp;B41&amp;"*"</f>
-        <v>R-SH_Det_BIOWOO*</v>
+        <f t="shared" si="0"/>
+        <v>R*H_Det_BIOWOO*</v>
       </c>
       <c r="E41" s="33" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F41" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>R-SH_Det_BIOWOO*</v>
+        <f t="shared" si="3"/>
+        <v>R*H_Det_BIOWOO*</v>
       </c>
       <c r="G41" s="33" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C41,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
@@ -10705,15 +10637,15 @@
         <v>84</v>
       </c>
       <c r="C42" s="32" t="str">
-        <f>"R-SH_"&amp;A42&amp;"_"&amp;B42&amp;"*"</f>
-        <v>R-SH_Det_HET*</v>
+        <f t="shared" si="0"/>
+        <v>R*H_Det_HET*</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F42" s="32" t="str">
-        <f t="shared" si="5"/>
-        <v>R-SH_Det_HET*</v>
+        <f t="shared" si="3"/>
+        <v>R*H_Det_HET*</v>
       </c>
       <c r="G42" s="32" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C42,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
@@ -10728,877 +10660,19 @@
         <v>121</v>
       </c>
       <c r="C43" s="33" t="str">
-        <f>"R-SH_"&amp;A43&amp;"_"&amp;B43&amp;"*"</f>
-        <v>R-SH_Det_RENGEO*</v>
+        <f t="shared" si="0"/>
+        <v>R*H_Det_RENGEO*</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F43" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>R-SH_Det_RENGEO*</v>
+        <f t="shared" si="3"/>
+        <v>R*H_Det_RENGEO*</v>
       </c>
       <c r="G43" s="33" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C43,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
         <v>*3.08978378378378</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="E44" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-    </row>
-    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="B45" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" s="32" t="str">
-        <f t="shared" ref="C45:C50" si="6">"R-WH_"&amp;A45&amp;"_"&amp;B45&amp;"*"</f>
-        <v>R-WH_Apt_COA*</v>
-      </c>
-      <c r="E45" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="F45" s="32" t="str">
-        <f t="shared" ref="F45:F56" si="7">"R-WH_"&amp;A45&amp;"_"&amp;B45&amp;"*"</f>
-        <v>R-WH_Apt_COA*</v>
-      </c>
-      <c r="G45" s="32" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C45,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
-        <v>*0.590188034188034</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="B46" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="C46" s="33" t="str">
-        <f t="shared" si="6"/>
-        <v>R-WH_Apt_BIODST*</v>
-      </c>
-      <c r="E46" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="F46" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>R-WH_Apt_BIODST*</v>
-      </c>
-      <c r="G46" s="33" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C46,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
-        <v>*0.9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="B47" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C47" s="32" t="str">
-        <f t="shared" si="6"/>
-        <v>R-WH_Apt_BIOETH*</v>
-      </c>
-      <c r="E47" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="F47" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>R-WH_Apt_BIOETH*</v>
-      </c>
-      <c r="G47" s="32" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C47,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
-        <v>*0.9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="B48" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="C48" s="33" t="str">
-        <f t="shared" si="6"/>
-        <v>R-WH_Apt_OILLPG*</v>
-      </c>
-      <c r="E48" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="F48" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>R-WH_Apt_OILLPG*</v>
-      </c>
-      <c r="G48" s="38" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C48,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
-        <v>*0.806779026217228</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="B49" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="C49" s="32" t="str">
-        <f t="shared" si="6"/>
-        <v>R-WH_Apt_ELC*</v>
-      </c>
-      <c r="E49" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="F49" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>R-WH_Apt_ELC*</v>
-      </c>
-      <c r="G49" s="32" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C49,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
-        <v>*2.03509803921568</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="B50" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="C50" s="33" t="str">
-        <f t="shared" si="6"/>
-        <v>R-WH_Apt_OILKER*</v>
-      </c>
-      <c r="E50" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="F50" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>R-WH_Apt_OILKER*</v>
-      </c>
-      <c r="G50" s="33" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C50,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
-        <v>*0.810162162162162</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="B51" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="C51" s="32" t="str">
-        <f>"R-WH_"&amp;A50&amp;"_"&amp;B51&amp;"*"</f>
-        <v>R-WH_Apt_GASNAT*</v>
-      </c>
-      <c r="E51" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="F51" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>R-WH_Apt_GASNAT*</v>
-      </c>
-      <c r="G51" s="32" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C51,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
-        <v>*0.810268817204301</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="B52" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="C52" s="33" t="str">
-        <f>"R-WH_"&amp;A52&amp;"_"&amp;B52&amp;"*"</f>
-        <v>R-WH_Apt_PEA*</v>
-      </c>
-      <c r="E52" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="F52" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>R-WH_Apt_PEA*</v>
-      </c>
-      <c r="G52" s="33" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C52,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
-        <v>*0.525</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="B53" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="C53" s="32" t="str">
-        <f>"R-WH_"&amp;A53&amp;"_"&amp;B53&amp;"*"</f>
-        <v>R-WH_Apt_SMF*</v>
-      </c>
-      <c r="E53" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="F53" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>R-WH_Apt_SMF*</v>
-      </c>
-      <c r="G53" s="32" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C53,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
-        <v>*0.581777777777778</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="B54" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="33" t="str">
-        <f>"R-WH_"&amp;A54&amp;"_"&amp;B54&amp;"*"</f>
-        <v>R-WH_Apt_BIOWOO*</v>
-      </c>
-      <c r="E54" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="F54" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>R-WH_Apt_BIOWOO*</v>
-      </c>
-      <c r="G54" s="33" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C54,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
-        <v>*0.688045112781955</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="B55" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C55" s="32" t="str">
-        <f>"R-WH_"&amp;A55&amp;"_"&amp;B55&amp;"*"</f>
-        <v>R-WH_Apt_HET*</v>
-      </c>
-      <c r="E55" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="F55" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>R-WH_Apt_HET*</v>
-      </c>
-      <c r="G55" s="32" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C55,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
-        <v>*0.3983844218765</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="B56" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="C56" s="33" t="str">
-        <f>"R-WH_"&amp;A56&amp;"_"&amp;B56&amp;"*"</f>
-        <v>R-WH_Apt_RENGEO*</v>
-      </c>
-      <c r="E56" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="F56" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>R-WH_Apt_RENGEO*</v>
-      </c>
-      <c r="G56" s="33" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C56,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="30"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
-      <c r="E57" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-    </row>
-    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="B58" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="C58" s="32" t="str">
-        <f t="shared" ref="C58:C63" si="8">"R-WH_"&amp;A58&amp;"_"&amp;B58&amp;"*"</f>
-        <v>R-WH_Att_COA*</v>
-      </c>
-      <c r="E58" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="F58" s="32" t="str">
-        <f t="shared" ref="F58:F69" si="9">"R-WH_"&amp;A58&amp;"_"&amp;B58&amp;"*"</f>
-        <v>R-WH_Att_COA*</v>
-      </c>
-      <c r="G58" s="32" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C58,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
-        <v>*0.557980879057327</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="B59" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="C59" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>R-WH_Att_BIODST*</v>
-      </c>
-      <c r="E59" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="F59" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v>R-WH_Att_BIODST*</v>
-      </c>
-      <c r="G59" s="33" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C59,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
-        <v>*1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="B60" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C60" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>R-WH_Att_BIOETH*</v>
-      </c>
-      <c r="E60" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="F60" s="32" t="str">
-        <f t="shared" si="9"/>
-        <v>R-WH_Att_BIOETH*</v>
-      </c>
-      <c r="G60" s="32" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C60,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
-        <v>*0.9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="B61" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="C61" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>R-WH_Att_OILLPG*</v>
-      </c>
-      <c r="E61" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="F61" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v>R-WH_Att_OILLPG*</v>
-      </c>
-      <c r="G61" s="38" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C61,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
-        <v>*0.807075774336283</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="B62" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="C62" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>R-WH_Att_ELC*</v>
-      </c>
-      <c r="E62" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="F62" s="32" t="str">
-        <f t="shared" si="9"/>
-        <v>R-WH_Att_ELC*</v>
-      </c>
-      <c r="G62" s="32" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C62,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
-        <v>*2.0578813559322</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A63" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="B63" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="C63" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>R-WH_Att_OILKER*</v>
-      </c>
-      <c r="E63" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="F63" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v>R-WH_Att_OILKER*</v>
-      </c>
-      <c r="G63" s="33" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C63,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
-        <v>*0.819415584415584</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="B64" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="C64" s="32" t="str">
-        <f>"R-WH_"&amp;A63&amp;"_"&amp;B64&amp;"*"</f>
-        <v>R-WH_Att_GASNAT*</v>
-      </c>
-      <c r="E64" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="F64" s="32" t="str">
-        <f t="shared" si="9"/>
-        <v>R-WH_Att_GASNAT*</v>
-      </c>
-      <c r="G64" s="32" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C64,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
-        <v>*0.817294117647059</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A65" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="B65" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="C65" s="33" t="str">
-        <f>"R-WH_"&amp;A65&amp;"_"&amp;B65&amp;"*"</f>
-        <v>R-WH_Att_PEA*</v>
-      </c>
-      <c r="E65" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="F65" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v>R-WH_Att_PEA*</v>
-      </c>
-      <c r="G65" s="33" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C65,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
-        <v>*0.550929487179487</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="B66" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="C66" s="32" t="str">
-        <f>"R-WH_"&amp;A66&amp;"_"&amp;B66&amp;"*"</f>
-        <v>R-WH_Att_SMF*</v>
-      </c>
-      <c r="E66" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="F66" s="32" t="str">
-        <f t="shared" si="9"/>
-        <v>R-WH_Att_SMF*</v>
-      </c>
-      <c r="G66" s="32" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C66,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
-        <v>*0.571137724550898</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="B67" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="C67" s="33" t="str">
-        <f>"R-WH_"&amp;A67&amp;"_"&amp;B67&amp;"*"</f>
-        <v>R-WH_Att_BIOWOO*</v>
-      </c>
-      <c r="E67" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="F67" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v>R-WH_Att_BIOWOO*</v>
-      </c>
-      <c r="G67" s="33" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C67,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
-        <v>*0.704006568144499</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A68" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="B68" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C68" s="32" t="str">
-        <f>"R-WH_"&amp;A68&amp;"_"&amp;B68&amp;"*"</f>
-        <v>R-WH_Att_HET*</v>
-      </c>
-      <c r="E68" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="F68" s="32" t="str">
-        <f t="shared" si="9"/>
-        <v>R-WH_Att_HET*</v>
-      </c>
-      <c r="G68" s="32" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C68,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
-        <v>*0.609499730599684</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A69" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="B69" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="C69" s="33" t="str">
-        <f>"R-WH_"&amp;A69&amp;"_"&amp;B69&amp;"*"</f>
-        <v>R-WH_Att_RENGEO*</v>
-      </c>
-      <c r="E69" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="F69" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v>R-WH_Att_RENGEO*</v>
-      </c>
-      <c r="G69" s="33" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C69,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="30"/>
-      <c r="B70" s="30"/>
-      <c r="C70" s="30"/>
-      <c r="E70" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="F70" s="30"/>
-      <c r="G70" s="30"/>
-    </row>
-    <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A71" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="B71" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="C71" s="32" t="str">
-        <f t="shared" ref="C71:C76" si="10">"R-WH_"&amp;A71&amp;"_"&amp;B71&amp;"*"</f>
-        <v>R-WH_Det_COA*</v>
-      </c>
-      <c r="E71" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="F71" s="32" t="str">
-        <f t="shared" ref="F71:F82" si="11">"R-WH_"&amp;A71&amp;"_"&amp;B71&amp;"*"</f>
-        <v>R-WH_Det_COA*</v>
-      </c>
-      <c r="G71" s="32" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C71,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
-        <v>*0.619863294600137</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A72" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="B72" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="C72" s="33" t="str">
-        <f t="shared" si="10"/>
-        <v>R-WH_Det_BIODST*</v>
-      </c>
-      <c r="E72" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="F72" s="33" t="str">
-        <f t="shared" si="11"/>
-        <v>R-WH_Det_BIODST*</v>
-      </c>
-      <c r="G72" s="33" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C72,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
-        <v>*0.9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A73" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="B73" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C73" s="32" t="str">
-        <f t="shared" si="10"/>
-        <v>R-WH_Det_BIOETH*</v>
-      </c>
-      <c r="E73" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="F73" s="32" t="str">
-        <f t="shared" si="11"/>
-        <v>R-WH_Det_BIOETH*</v>
-      </c>
-      <c r="G73" s="32" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C73,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
-        <v>*0.9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A74" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="B74" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="C74" s="33" t="str">
-        <f t="shared" si="10"/>
-        <v>R-WH_Det_OILLPG*</v>
-      </c>
-      <c r="E74" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="F74" s="33" t="str">
-        <f t="shared" si="11"/>
-        <v>R-WH_Det_OILLPG*</v>
-      </c>
-      <c r="G74" s="38" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C74,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
-        <v>*0.826617747626993</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A75" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="B75" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="C75" s="32" t="str">
-        <f t="shared" si="10"/>
-        <v>R-WH_Det_ELC*</v>
-      </c>
-      <c r="E75" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="F75" s="32" t="str">
-        <f t="shared" si="11"/>
-        <v>R-WH_Det_ELC*</v>
-      </c>
-      <c r="G75" s="32" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C75,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
-        <v>*2.04465237093381</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A76" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="B76" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="C76" s="33" t="str">
-        <f t="shared" si="10"/>
-        <v>R-WH_Det_OILKER*</v>
-      </c>
-      <c r="E76" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="F76" s="33" t="str">
-        <f t="shared" si="11"/>
-        <v>R-WH_Det_OILKER*</v>
-      </c>
-      <c r="G76" s="33" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C76,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
-        <v>*0.822803738317757</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A77" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="B77" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="C77" s="32" t="str">
-        <f>"R-WH_"&amp;A76&amp;"_"&amp;B77&amp;"*"</f>
-        <v>R-WH_Det_GASNAT*</v>
-      </c>
-      <c r="E77" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="F77" s="32" t="str">
-        <f t="shared" si="11"/>
-        <v>R-WH_Det_GASNAT*</v>
-      </c>
-      <c r="G77" s="32" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C77,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
-        <v>*0.827287581699346</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A78" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="B78" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="C78" s="33" t="str">
-        <f>"R-WH_"&amp;A78&amp;"_"&amp;B78&amp;"*"</f>
-        <v>R-WH_Det_PEA*</v>
-      </c>
-      <c r="E78" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="F78" s="33" t="str">
-        <f t="shared" si="11"/>
-        <v>R-WH_Det_PEA*</v>
-      </c>
-      <c r="G78" s="33" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C78,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
-        <v>*0.545789473684211</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A79" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="B79" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="C79" s="32" t="str">
-        <f>"R-WH_"&amp;A79&amp;"_"&amp;B79&amp;"*"</f>
-        <v>R-WH_Det_SMF*</v>
-      </c>
-      <c r="E79" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="F79" s="32" t="str">
-        <f t="shared" si="11"/>
-        <v>R-WH_Det_SMF*</v>
-      </c>
-      <c r="G79" s="32" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C79,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
-        <v>*0.614742268041237</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A80" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="B80" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="C80" s="33" t="str">
-        <f>"R-WH_"&amp;A80&amp;"_"&amp;B80&amp;"*"</f>
-        <v>R-WH_Det_BIOWOO*</v>
-      </c>
-      <c r="E80" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="F80" s="33" t="str">
-        <f t="shared" si="11"/>
-        <v>R-WH_Det_BIOWOO*</v>
-      </c>
-      <c r="G80" s="33" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C80,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
-        <v>*0.729286096921694</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A81" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="B81" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C81" s="32" t="str">
-        <f>"R-WH_"&amp;A81&amp;"_"&amp;B81&amp;"*"</f>
-        <v>R-WH_Det_HET*</v>
-      </c>
-      <c r="E81" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="F81" s="32" t="str">
-        <f t="shared" si="11"/>
-        <v>R-WH_Det_HET*</v>
-      </c>
-      <c r="G81" s="32" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C81,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
-        <v>*0.65865731206453</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A82" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="B82" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="C82" s="33" t="str">
-        <f>"R-WH_"&amp;A82&amp;"_"&amp;B82&amp;"*"</f>
-        <v>R-WH_Det_RENGEO*</v>
-      </c>
-      <c r="E82" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="F82" s="33" t="str">
-        <f t="shared" si="11"/>
-        <v>R-WH_Det_RENGEO*</v>
-      </c>
-      <c r="G82" s="33" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C82,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
-        <v/>
       </c>
     </row>
   </sheetData>

--- a/SubRES_TMPL/SubRes_RSD_Trans.xlsx
+++ b/SubRES_TMPL/SubRes_RSD_Trans.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\~g2v_Irish-TIMES-model\rsd-subres\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F6A562-56CD-47B7-A596-DF17D68A0048}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30081F74-2EC9-4659-B445-1E30FB895A54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="819" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4215" yWindow="2340" windowWidth="21600" windowHeight="11385" tabRatio="819" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="46" r:id="rId1"/>
@@ -7602,8 +7602,8 @@
   </sheetPr>
   <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L76" sqref="L76"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8080,7 +8080,7 @@
     </row>
     <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="B17" s="33" t="str">
         <f t="shared" si="0"/>
@@ -8432,7 +8432,7 @@
     </row>
     <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="B30" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8757,7 +8757,7 @@
     </row>
     <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="B43" s="33" t="str">
         <f t="shared" si="4"/>
@@ -9765,8 +9765,8 @@
   </sheetPr>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9859,7 +9859,7 @@
         <v>R*H_Apt_BIODST*</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>248</v>
+        <v>1</v>
       </c>
       <c r="F7" s="33" t="str">
         <f t="shared" ref="F7:F17" si="1">"R*H_"&amp;A7&amp;"_"&amp;B7&amp;"*"</f>
@@ -9931,8 +9931,8 @@
         <v>248</v>
       </c>
       <c r="F10" s="32" t="str">
-        <f>"R*H_"&amp;A10&amp;"_"&amp;B10&amp;"_HP*"</f>
-        <v>R*H_Apt_ELC_HP*</v>
+        <f>"R*H_"&amp;A10&amp;"_*"&amp;B10&amp;"_HP*"</f>
+        <v>R*H_Apt_*ELC_HP*</v>
       </c>
       <c r="G10" s="32" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C10,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
@@ -10069,8 +10069,8 @@
         <v>248</v>
       </c>
       <c r="F16" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v>R*H_Apt_HET*</v>
+        <f>"R*H_"&amp;A16&amp;"_*"&amp;B16&amp;"*"</f>
+        <v>R*H_Apt_*HET*</v>
       </c>
       <c r="G16" s="32" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C16,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
@@ -10089,7 +10089,7 @@
         <v>R*H_Apt_RENGEO*</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>248</v>
+        <v>1</v>
       </c>
       <c r="F17" s="33" t="str">
         <f t="shared" si="1"/>
@@ -10217,8 +10217,8 @@
         <v>248</v>
       </c>
       <c r="F23" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>R*H_Att_ELC*</v>
+        <f>"R*H_"&amp;A23&amp;"_*"&amp;B23&amp;"_HP*"</f>
+        <v>R*H_Att_*ELC_HP*</v>
       </c>
       <c r="G23" s="32" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C23,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
@@ -10355,8 +10355,8 @@
         <v>248</v>
       </c>
       <c r="F29" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>R*H_Att_HET*</v>
+        <f>"R*H_"&amp;A29&amp;"_*"&amp;B29&amp;"*"</f>
+        <v>R*H_Att_*HET*</v>
       </c>
       <c r="G29" s="32" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C29,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
@@ -10375,7 +10375,7 @@
         <v>R*H_Att_RENGEO*</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>248</v>
+        <v>1</v>
       </c>
       <c r="F30" s="33" t="str">
         <f t="shared" si="2"/>
@@ -10506,8 +10506,8 @@
         <v>248</v>
       </c>
       <c r="F36" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>R*H_Det_ELC*</v>
+        <f>"R*H_"&amp;A36&amp;"_*"&amp;B36&amp;"_HP*"</f>
+        <v>R*H_Det_*ELC_HP*</v>
       </c>
       <c r="G36" s="32" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C36,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
@@ -10644,8 +10644,8 @@
         <v>248</v>
       </c>
       <c r="F42" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>R*H_Det_HET*</v>
+        <f>"R*H_"&amp;A42&amp;"_*"&amp;B42&amp;"*"</f>
+        <v>R*H_Det_*HET*</v>
       </c>
       <c r="G42" s="32" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C42,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
@@ -10664,7 +10664,7 @@
         <v>R*H_Det_RENGEO*</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>248</v>
+        <v>1</v>
       </c>
       <c r="F43" s="33" t="str">
         <f t="shared" si="3"/>

--- a/SubRES_TMPL/SubRes_RSD_Trans.xlsx
+++ b/SubRES_TMPL/SubRes_RSD_Trans.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\~g2v_Irish-TIMES-model\rsd-subres\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30081F74-2EC9-4659-B445-1E30FB895A54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67AE1A6-9DF2-42E9-9C3E-43FCCAC98270}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="2340" windowWidth="21600" windowHeight="11385" tabRatio="819" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="819" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="46" r:id="rId1"/>
@@ -9765,8 +9765,8 @@
   </sheetPr>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10145,7 +10145,7 @@
         <v>R*H_Att_BIODST*</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>248</v>
+        <v>1</v>
       </c>
       <c r="F20" s="33" t="str">
         <f t="shared" ref="F20:F30" si="2">"R*H_"&amp;A20&amp;"_"&amp;B20&amp;"*"</f>
@@ -10433,7 +10433,7 @@
       </c>
       <c r="D33" s="25"/>
       <c r="E33" s="33" t="s">
-        <v>248</v>
+        <v>1</v>
       </c>
       <c r="F33" s="33" t="str">
         <f t="shared" ref="F33:F43" si="3">"R*H_"&amp;A33&amp;"_"&amp;B33&amp;"*"</f>

--- a/SubRES_TMPL/SubRes_RSD_Trans.xlsx
+++ b/SubRES_TMPL/SubRes_RSD_Trans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67AE1A6-9DF2-42E9-9C3E-43FCCAC98270}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C710EC4-CF43-4B30-B939-C6130A53AEA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="819" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="819" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="46" r:id="rId1"/>
@@ -247,7 +247,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2511" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2519" uniqueCount="256">
   <si>
     <t>IE</t>
   </si>
@@ -1015,6 +1015,24 @@
   </si>
   <si>
     <t>*Apartment Heat</t>
+  </si>
+  <si>
+    <t>R-LT_Apt*</t>
+  </si>
+  <si>
+    <t>R-LT_Att*</t>
+  </si>
+  <si>
+    <t>R-LT_Det*</t>
+  </si>
+  <si>
+    <t>R-PF_Apt*</t>
+  </si>
+  <si>
+    <t>R-PF_Att*</t>
+  </si>
+  <si>
+    <t>R-PF_Det*</t>
   </si>
 </sst>
 </file>
@@ -1276,7 +1294,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1364,6 +1382,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2680,7 +2699,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A33C8A0-6F39-4FB7-B653-B5172ACE9A22}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2735,7 +2756,7 @@
       <c r="B2" t="s">
         <v>78</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="38" t="s">
         <v>228</v>
       </c>
       <c r="D2" t="s">
@@ -7602,8 +7623,8 @@
   </sheetPr>
   <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7719,7 +7740,7 @@
         <v>R-SH_Apt_COA*</v>
       </c>
       <c r="J6" s="32" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="K6" s="32" t="str">
         <f>FillTable!R5</f>
@@ -7757,7 +7778,7 @@
         <v>R-SH_Apt_BIODST*</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="K7" s="33" t="str">
         <f>FillTable!R10</f>
@@ -7795,7 +7816,7 @@
         <v>R-SH_Apt_BIOETH*</v>
       </c>
       <c r="J8" s="32" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="K8" s="32" t="str">
         <f>FillTable!R15</f>
@@ -7833,7 +7854,7 @@
         <v>R-SH_Apt_OILLPG*</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="K9" s="33" t="str">
         <f>FillTable!R20</f>
@@ -7871,7 +7892,7 @@
         <v>R-SH_Apt_ELC*</v>
       </c>
       <c r="J10" s="32" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="K10" s="32" t="str">
         <f>FillTable!R25</f>
@@ -7909,7 +7930,7 @@
         <v>R-SH_Apt_OILKER*</v>
       </c>
       <c r="J11" s="33" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="K11" s="33" t="str">
         <f>FillTable!R30</f>
@@ -8122,15 +8143,15 @@
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
       <c r="J18" s="32" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="K18" s="32" t="s">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c r="L18" s="32"/>
       <c r="M18" s="32">
         <f>SUMIFS('BY-RSD-LT'!$L$2:$L$100,'BY-RSD-LT'!$C$2:$C$100,AF!K18,'BY-RSD-LT'!$A$2:$A$100,"BASE")</f>
-        <v>7.6661042164617808E-3</v>
+        <v>1.6114677026113401E-3</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -8159,15 +8180,15 @@
         <v>R-SH_Att_COA*</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="K19" s="33" t="s">
-        <v>91</v>
+        <v>251</v>
       </c>
       <c r="L19" s="33"/>
       <c r="M19" s="33">
-        <f>SUMIFS('BY-RSD-PF'!$L$2:$L$100,'BY-RSD-PF'!$C$2:$C$100,AF!K19,'BY-RSD-PF'!$A$2:$A$100,"BASE")</f>
-        <v>1.7495876174999649E-3</v>
+        <f>SUMIFS('BY-RSD-LT'!$L$2:$L$100,'BY-RSD-LT'!$C$2:$C$100,AF!K19,'BY-RSD-LT'!$A$2:$A$100,"BASE")</f>
+        <v>2.287177034804E-3</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -8195,6 +8216,17 @@
         <f t="shared" si="3"/>
         <v>R-SH_Att_BIODST*</v>
       </c>
+      <c r="J20" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="K20" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32">
+        <f>SUMIFS('BY-RSD-LT'!$L$2:$L$100,'BY-RSD-LT'!$C$2:$C$100,AF!K20,'BY-RSD-LT'!$A$2:$A$100,"BASE")</f>
+        <v>3.76745947904644E-3</v>
+      </c>
     </row>
     <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
@@ -8221,6 +8253,17 @@
         <f t="shared" si="3"/>
         <v>R-SH_Att_BIOETH*</v>
       </c>
+      <c r="J21" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="K21" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33">
+        <f>SUMIFS('BY-RSD-PF'!$L$2:$L$100,'BY-RSD-PF'!$C$2:$C$100,AF!K21,'BY-RSD-PF'!$A$2:$A$100,"BASE")</f>
+        <v>3.3205708318124599E-4</v>
+      </c>
     </row>
     <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
@@ -8247,6 +8290,17 @@
         <f t="shared" si="3"/>
         <v>R-SH_Att_OILLPG*</v>
       </c>
+      <c r="J22" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="K22" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32">
+        <f>SUMIFS('BY-RSD-PF'!$L$2:$L$100,'BY-RSD-PF'!$C$2:$C$100,AF!K22,'BY-RSD-PF'!$A$2:$A$100,"BASE")</f>
+        <v>6.3335727594585403E-4</v>
+      </c>
     </row>
     <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
@@ -8272,6 +8326,17 @@
       <c r="H23" s="32" t="str">
         <f t="shared" si="3"/>
         <v>R-SH_Att_ELC*</v>
+      </c>
+      <c r="J23" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="K23" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33">
+        <f>SUMIFS('BY-RSD-PF'!$L$2:$L$100,'BY-RSD-PF'!$C$2:$C$100,AF!K23,'BY-RSD-PF'!$A$2:$A$100,"BASE")</f>
+        <v>7.8417325837286497E-4</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -9765,7 +9830,7 @@
   </sheetPr>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>

--- a/SubRES_TMPL/SubRes_RSD_Trans.xlsx
+++ b/SubRES_TMPL/SubRes_RSD_Trans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098B16FD-85A5-4D57-B5E7-669297E9A6C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E84E8C-3A5F-471A-93D2-F6572CEA3F83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="819" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="819" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="46" r:id="rId1"/>
@@ -25,13 +25,11 @@
     <sheet name="BY-RSD-LT" sheetId="54" r:id="rId10"/>
     <sheet name="BY-RSD-CW" sheetId="53" r:id="rId11"/>
     <sheet name="BY-RSD-CK" sheetId="52" r:id="rId12"/>
-    <sheet name="BY-RSD-WH_AF" sheetId="51" r:id="rId13"/>
-    <sheet name="BY-RSD-RF" sheetId="50" r:id="rId14"/>
-    <sheet name="BY-RSD-SH_AF" sheetId="49" r:id="rId15"/>
-    <sheet name="BY-RSD-OE" sheetId="59" r:id="rId16"/>
+    <sheet name="BY-RSD-RF" sheetId="50" r:id="rId13"/>
+    <sheet name="BY-RSD-OE" sheetId="59" r:id="rId14"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId17"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
@@ -168,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2460" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="253">
   <si>
     <t>IE</t>
   </si>
@@ -1048,7 +1046,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1100,6 +1098,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1206,7 +1210,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1295,6 +1299,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="10" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2980,15 +2986,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA50F32-E436-476D-84C9-138A2A28BC35}">
-  <dimension ref="A1:M40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C2F285-9307-42EA-A5DF-0946A8C3784D}">
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -3039,7 +3044,7 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D2" t="s">
         <v>134</v>
@@ -3066,1568 +3071,10 @@
         <v>134</v>
       </c>
       <c r="L2">
-        <v>7.1004600000000003E-3</v>
+        <v>1.0395000000000001E-3</v>
       </c>
       <c r="M2">
-        <v>7.1004600000000003E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G3">
-        <v>2018</v>
-      </c>
-      <c r="H3" t="s">
-        <v>134</v>
-      </c>
-      <c r="I3" t="s">
-        <v>134</v>
-      </c>
-      <c r="J3" t="s">
-        <v>134</v>
-      </c>
-      <c r="K3" t="s">
-        <v>134</v>
-      </c>
-      <c r="L3">
-        <v>8.5546800000000003E-3</v>
-      </c>
-      <c r="M3">
-        <v>8.5546800000000003E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G4">
-        <v>2018</v>
-      </c>
-      <c r="H4" t="s">
-        <v>134</v>
-      </c>
-      <c r="I4" t="s">
-        <v>134</v>
-      </c>
-      <c r="J4" t="s">
-        <v>134</v>
-      </c>
-      <c r="K4" t="s">
-        <v>134</v>
-      </c>
-      <c r="L4">
-        <v>7.6632802703553099E-3</v>
-      </c>
-      <c r="M4">
-        <v>7.6632802703553099E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G5">
-        <v>2018</v>
-      </c>
-      <c r="H5" t="s">
-        <v>134</v>
-      </c>
-      <c r="I5" t="s">
-        <v>134</v>
-      </c>
-      <c r="J5" t="s">
-        <v>134</v>
-      </c>
-      <c r="K5" t="s">
-        <v>134</v>
-      </c>
-      <c r="L5">
-        <v>6.3768329096572304E-3</v>
-      </c>
-      <c r="M5">
-        <v>6.3768329096572304E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G6">
-        <v>2018</v>
-      </c>
-      <c r="H6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I6" t="s">
-        <v>134</v>
-      </c>
-      <c r="J6" t="s">
-        <v>134</v>
-      </c>
-      <c r="K6" t="s">
-        <v>134</v>
-      </c>
-      <c r="L6">
-        <v>8.4736052016827299E-3</v>
-      </c>
-      <c r="M6">
-        <v>8.4736052016827299E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" t="s">
-        <v>180</v>
-      </c>
-      <c r="D7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G7">
-        <v>2018</v>
-      </c>
-      <c r="H7" t="s">
-        <v>134</v>
-      </c>
-      <c r="I7" t="s">
-        <v>134</v>
-      </c>
-      <c r="J7" t="s">
-        <v>134</v>
-      </c>
-      <c r="K7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L7">
-        <v>3.6997794108646502E-2</v>
-      </c>
-      <c r="M7">
-        <v>3.6997794108646502E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G8">
-        <v>2018</v>
-      </c>
-      <c r="H8" t="s">
-        <v>134</v>
-      </c>
-      <c r="I8" t="s">
-        <v>134</v>
-      </c>
-      <c r="J8" t="s">
-        <v>134</v>
-      </c>
-      <c r="K8" t="s">
-        <v>134</v>
-      </c>
-      <c r="L8">
-        <v>7.0999155767537403E-3</v>
-      </c>
-      <c r="M8">
-        <v>7.0999155767537403E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" t="s">
-        <v>182</v>
-      </c>
-      <c r="D9" t="s">
-        <v>134</v>
-      </c>
-      <c r="E9" t="s">
-        <v>135</v>
-      </c>
-      <c r="F9" t="s">
-        <v>134</v>
-      </c>
-      <c r="G9">
-        <v>2018</v>
-      </c>
-      <c r="H9" t="s">
-        <v>134</v>
-      </c>
-      <c r="I9" t="s">
-        <v>134</v>
-      </c>
-      <c r="J9" t="s">
-        <v>134</v>
-      </c>
-      <c r="K9" t="s">
-        <v>134</v>
-      </c>
-      <c r="L9">
-        <v>3.0627633026508998E-4</v>
-      </c>
-      <c r="M9">
-        <v>3.0627633026508998E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" t="s">
-        <v>183</v>
-      </c>
-      <c r="D10" t="s">
-        <v>134</v>
-      </c>
-      <c r="E10" t="s">
-        <v>135</v>
-      </c>
-      <c r="F10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G10">
-        <v>2018</v>
-      </c>
-      <c r="H10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I10" t="s">
-        <v>134</v>
-      </c>
-      <c r="J10" t="s">
-        <v>134</v>
-      </c>
-      <c r="K10" t="s">
-        <v>134</v>
-      </c>
-      <c r="L10">
-        <v>8.6288756048648694E-3</v>
-      </c>
-      <c r="M10">
-        <v>8.6288756048648694E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" t="s">
-        <v>184</v>
-      </c>
-      <c r="D11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" t="s">
-        <v>135</v>
-      </c>
-      <c r="F11" t="s">
-        <v>134</v>
-      </c>
-      <c r="G11">
-        <v>2018</v>
-      </c>
-      <c r="H11" t="s">
-        <v>134</v>
-      </c>
-      <c r="I11" t="s">
-        <v>134</v>
-      </c>
-      <c r="J11" t="s">
-        <v>134</v>
-      </c>
-      <c r="K11" t="s">
-        <v>134</v>
-      </c>
-      <c r="L11">
-        <v>8.8234631689712503E-3</v>
-      </c>
-      <c r="M11">
-        <v>8.8234631689712503E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D12" t="s">
-        <v>134</v>
-      </c>
-      <c r="E12" t="s">
-        <v>135</v>
-      </c>
-      <c r="F12" t="s">
-        <v>134</v>
-      </c>
-      <c r="G12">
-        <v>2018</v>
-      </c>
-      <c r="H12" t="s">
-        <v>134</v>
-      </c>
-      <c r="I12" t="s">
-        <v>134</v>
-      </c>
-      <c r="J12" t="s">
-        <v>134</v>
-      </c>
-      <c r="K12" t="s">
-        <v>134</v>
-      </c>
-      <c r="L12">
-        <v>8.5740576923076899E-3</v>
-      </c>
-      <c r="M12">
-        <v>8.5740576923076899E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" t="s">
-        <v>186</v>
-      </c>
-      <c r="D13" t="s">
-        <v>134</v>
-      </c>
-      <c r="E13" t="s">
-        <v>135</v>
-      </c>
-      <c r="F13" t="s">
-        <v>134</v>
-      </c>
-      <c r="G13">
-        <v>2018</v>
-      </c>
-      <c r="H13" t="s">
-        <v>134</v>
-      </c>
-      <c r="I13" t="s">
-        <v>134</v>
-      </c>
-      <c r="J13" t="s">
-        <v>134</v>
-      </c>
-      <c r="K13" t="s">
-        <v>134</v>
-      </c>
-      <c r="L13">
-        <v>8.6298729994523198E-3</v>
-      </c>
-      <c r="M13">
-        <v>8.6298729994523198E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" t="s">
-        <v>187</v>
-      </c>
-      <c r="D14" t="s">
-        <v>134</v>
-      </c>
-      <c r="E14" t="s">
-        <v>135</v>
-      </c>
-      <c r="F14" t="s">
-        <v>134</v>
-      </c>
-      <c r="G14">
-        <v>2018</v>
-      </c>
-      <c r="H14" t="s">
-        <v>134</v>
-      </c>
-      <c r="I14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J14" t="s">
-        <v>134</v>
-      </c>
-      <c r="K14" t="s">
-        <v>134</v>
-      </c>
-      <c r="L14">
-        <v>8.5332927933924694E-3</v>
-      </c>
-      <c r="M14">
-        <v>8.5332927933924694E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" t="s">
-        <v>188</v>
-      </c>
-      <c r="D15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15" t="s">
-        <v>135</v>
-      </c>
-      <c r="F15" t="s">
-        <v>134</v>
-      </c>
-      <c r="G15">
-        <v>2018</v>
-      </c>
-      <c r="H15" t="s">
-        <v>134</v>
-      </c>
-      <c r="I15" t="s">
-        <v>134</v>
-      </c>
-      <c r="J15" t="s">
-        <v>134</v>
-      </c>
-      <c r="K15" t="s">
-        <v>134</v>
-      </c>
-      <c r="L15">
-        <v>1.40208E-2</v>
-      </c>
-      <c r="M15">
-        <v>1.40208E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" t="s">
-        <v>189</v>
-      </c>
-      <c r="D16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" t="s">
-        <v>135</v>
-      </c>
-      <c r="F16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G16">
-        <v>2018</v>
-      </c>
-      <c r="H16" t="s">
-        <v>134</v>
-      </c>
-      <c r="I16" t="s">
-        <v>134</v>
-      </c>
-      <c r="J16" t="s">
-        <v>134</v>
-      </c>
-      <c r="K16" t="s">
-        <v>134</v>
-      </c>
-      <c r="L16">
-        <v>1.059804E-2</v>
-      </c>
-      <c r="M16">
-        <v>1.059804E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" t="s">
-        <v>190</v>
-      </c>
-      <c r="D17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" t="s">
-        <v>135</v>
-      </c>
-      <c r="F17" t="s">
-        <v>134</v>
-      </c>
-      <c r="G17">
-        <v>2018</v>
-      </c>
-      <c r="H17" t="s">
-        <v>134</v>
-      </c>
-      <c r="I17" t="s">
-        <v>134</v>
-      </c>
-      <c r="J17" t="s">
-        <v>134</v>
-      </c>
-      <c r="K17" t="s">
-        <v>134</v>
-      </c>
-      <c r="L17">
-        <v>8.8655256033915893E-3</v>
-      </c>
-      <c r="M17">
-        <v>8.8655256033915893E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" t="s">
-        <v>191</v>
-      </c>
-      <c r="D18" t="s">
-        <v>134</v>
-      </c>
-      <c r="E18" t="s">
-        <v>135</v>
-      </c>
-      <c r="F18" t="s">
-        <v>134</v>
-      </c>
-      <c r="G18">
-        <v>2018</v>
-      </c>
-      <c r="H18" t="s">
-        <v>134</v>
-      </c>
-      <c r="I18" t="s">
-        <v>134</v>
-      </c>
-      <c r="J18" t="s">
-        <v>134</v>
-      </c>
-      <c r="K18" t="s">
-        <v>134</v>
-      </c>
-      <c r="L18">
-        <v>9.3819421193711804E-3</v>
-      </c>
-      <c r="M18">
-        <v>9.3819421193711804E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" t="s">
-        <v>192</v>
-      </c>
-      <c r="D19" t="s">
-        <v>134</v>
-      </c>
-      <c r="E19" t="s">
-        <v>135</v>
-      </c>
-      <c r="F19" t="s">
-        <v>134</v>
-      </c>
-      <c r="G19">
-        <v>2018</v>
-      </c>
-      <c r="H19" t="s">
-        <v>134</v>
-      </c>
-      <c r="I19" t="s">
-        <v>134</v>
-      </c>
-      <c r="J19" t="s">
-        <v>134</v>
-      </c>
-      <c r="K19" t="s">
-        <v>134</v>
-      </c>
-      <c r="L19">
-        <v>1.29275684703049E-2</v>
-      </c>
-      <c r="M19">
-        <v>1.29275684703049E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" t="s">
-        <v>193</v>
-      </c>
-      <c r="D20" t="s">
-        <v>134</v>
-      </c>
-      <c r="E20" t="s">
-        <v>135</v>
-      </c>
-      <c r="F20" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20">
-        <v>2018</v>
-      </c>
-      <c r="H20" t="s">
-        <v>134</v>
-      </c>
-      <c r="I20" t="s">
-        <v>134</v>
-      </c>
-      <c r="J20" t="s">
-        <v>134</v>
-      </c>
-      <c r="K20" t="s">
-        <v>134</v>
-      </c>
-      <c r="L20">
-        <v>2.3641548707263999E-2</v>
-      </c>
-      <c r="M20">
-        <v>2.3641548707263999E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" t="s">
-        <v>194</v>
-      </c>
-      <c r="D21" t="s">
-        <v>134</v>
-      </c>
-      <c r="E21" t="s">
-        <v>135</v>
-      </c>
-      <c r="F21" t="s">
-        <v>134</v>
-      </c>
-      <c r="G21">
-        <v>2018</v>
-      </c>
-      <c r="H21" t="s">
-        <v>134</v>
-      </c>
-      <c r="I21" t="s">
-        <v>134</v>
-      </c>
-      <c r="J21" t="s">
-        <v>134</v>
-      </c>
-      <c r="K21" t="s">
-        <v>134</v>
-      </c>
-      <c r="L21">
-        <v>9.2067094002643308E-3</v>
-      </c>
-      <c r="M21">
-        <v>9.2067094002643308E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" t="s">
-        <v>195</v>
-      </c>
-      <c r="D22" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" t="s">
-        <v>135</v>
-      </c>
-      <c r="F22" t="s">
-        <v>134</v>
-      </c>
-      <c r="G22">
-        <v>2018</v>
-      </c>
-      <c r="H22" t="s">
-        <v>134</v>
-      </c>
-      <c r="I22" t="s">
-        <v>134</v>
-      </c>
-      <c r="J22" t="s">
-        <v>134</v>
-      </c>
-      <c r="K22" t="s">
-        <v>134</v>
-      </c>
-      <c r="L22">
-        <v>7.6939300464232304E-4</v>
-      </c>
-      <c r="M22">
-        <v>7.6939300464232304E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D23" t="s">
-        <v>134</v>
-      </c>
-      <c r="E23" t="s">
-        <v>135</v>
-      </c>
-      <c r="F23" t="s">
-        <v>134</v>
-      </c>
-      <c r="G23">
-        <v>2018</v>
-      </c>
-      <c r="H23" t="s">
-        <v>134</v>
-      </c>
-      <c r="I23" t="s">
-        <v>134</v>
-      </c>
-      <c r="J23" t="s">
-        <v>134</v>
-      </c>
-      <c r="K23" t="s">
-        <v>134</v>
-      </c>
-      <c r="L23">
-        <v>9.4091382425110903E-3</v>
-      </c>
-      <c r="M23">
-        <v>9.4091382425110903E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" t="s">
-        <v>197</v>
-      </c>
-      <c r="D24" t="s">
-        <v>134</v>
-      </c>
-      <c r="E24" t="s">
-        <v>135</v>
-      </c>
-      <c r="F24" t="s">
-        <v>134</v>
-      </c>
-      <c r="G24">
-        <v>2018</v>
-      </c>
-      <c r="H24" t="s">
-        <v>134</v>
-      </c>
-      <c r="I24" t="s">
-        <v>134</v>
-      </c>
-      <c r="J24" t="s">
-        <v>134</v>
-      </c>
-      <c r="K24" t="s">
-        <v>134</v>
-      </c>
-      <c r="L24">
-        <v>1.1663366309857801E-2</v>
-      </c>
-      <c r="M24">
-        <v>1.1663366309857801E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" t="s">
-        <v>198</v>
-      </c>
-      <c r="D25" t="s">
-        <v>134</v>
-      </c>
-      <c r="E25" t="s">
-        <v>135</v>
-      </c>
-      <c r="F25" t="s">
-        <v>134</v>
-      </c>
-      <c r="G25">
-        <v>2018</v>
-      </c>
-      <c r="H25" t="s">
-        <v>134</v>
-      </c>
-      <c r="I25" t="s">
-        <v>134</v>
-      </c>
-      <c r="J25" t="s">
-        <v>134</v>
-      </c>
-      <c r="K25" t="s">
-        <v>134</v>
-      </c>
-      <c r="L25">
-        <v>1.08711386313101E-2</v>
-      </c>
-      <c r="M25">
-        <v>1.08711386313101E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" t="s">
-        <v>199</v>
-      </c>
-      <c r="D26" t="s">
-        <v>134</v>
-      </c>
-      <c r="E26" t="s">
-        <v>135</v>
-      </c>
-      <c r="F26" t="s">
-        <v>134</v>
-      </c>
-      <c r="G26">
-        <v>2018</v>
-      </c>
-      <c r="H26" t="s">
-        <v>134</v>
-      </c>
-      <c r="I26" t="s">
-        <v>134</v>
-      </c>
-      <c r="J26" t="s">
-        <v>134</v>
-      </c>
-      <c r="K26" t="s">
-        <v>134</v>
-      </c>
-      <c r="L26">
-        <v>3.4409606285151599E-2</v>
-      </c>
-      <c r="M26">
-        <v>3.4409606285151599E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" t="s">
-        <v>200</v>
-      </c>
-      <c r="D27" t="s">
-        <v>134</v>
-      </c>
-      <c r="E27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F27" t="s">
-        <v>134</v>
-      </c>
-      <c r="G27">
-        <v>2018</v>
-      </c>
-      <c r="H27" t="s">
-        <v>134</v>
-      </c>
-      <c r="I27" t="s">
-        <v>134</v>
-      </c>
-      <c r="J27" t="s">
-        <v>134</v>
-      </c>
-      <c r="K27" t="s">
-        <v>134</v>
-      </c>
-      <c r="L27">
-        <v>9.3095279184719493E-3</v>
-      </c>
-      <c r="M27">
-        <v>9.3095279184719493E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" t="s">
-        <v>201</v>
-      </c>
-      <c r="D28" t="s">
-        <v>134</v>
-      </c>
-      <c r="E28" t="s">
-        <v>135</v>
-      </c>
-      <c r="F28" t="s">
-        <v>134</v>
-      </c>
-      <c r="G28">
-        <v>2018</v>
-      </c>
-      <c r="H28" t="s">
-        <v>134</v>
-      </c>
-      <c r="I28" t="s">
-        <v>134</v>
-      </c>
-      <c r="J28" t="s">
-        <v>134</v>
-      </c>
-      <c r="K28" t="s">
-        <v>134</v>
-      </c>
-      <c r="L28">
-        <v>1.0679040000000001E-2</v>
-      </c>
-      <c r="M28">
-        <v>1.0679040000000001E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" t="s">
-        <v>202</v>
-      </c>
-      <c r="D29" t="s">
-        <v>134</v>
-      </c>
-      <c r="E29" t="s">
-        <v>135</v>
-      </c>
-      <c r="F29" t="s">
-        <v>134</v>
-      </c>
-      <c r="G29">
-        <v>2018</v>
-      </c>
-      <c r="H29" t="s">
-        <v>134</v>
-      </c>
-      <c r="I29" t="s">
-        <v>134</v>
-      </c>
-      <c r="J29" t="s">
-        <v>134</v>
-      </c>
-      <c r="K29" t="s">
-        <v>134</v>
-      </c>
-      <c r="L29">
-        <v>1.2096539999999999E-2</v>
-      </c>
-      <c r="M29">
-        <v>1.2096539999999999E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" t="s">
-        <v>203</v>
-      </c>
-      <c r="D30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E30" t="s">
-        <v>135</v>
-      </c>
-      <c r="F30" t="s">
-        <v>134</v>
-      </c>
-      <c r="G30">
-        <v>2018</v>
-      </c>
-      <c r="H30" t="s">
-        <v>134</v>
-      </c>
-      <c r="I30" t="s">
-        <v>134</v>
-      </c>
-      <c r="J30" t="s">
-        <v>134</v>
-      </c>
-      <c r="K30" t="s">
-        <v>134</v>
-      </c>
-      <c r="L30">
-        <v>1.27164544907902E-2</v>
-      </c>
-      <c r="M30">
-        <v>1.27164544907902E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" t="s">
-        <v>204</v>
-      </c>
-      <c r="D31" t="s">
-        <v>134</v>
-      </c>
-      <c r="E31" t="s">
-        <v>135</v>
-      </c>
-      <c r="F31" t="s">
-        <v>134</v>
-      </c>
-      <c r="G31">
-        <v>2018</v>
-      </c>
-      <c r="H31" t="s">
-        <v>134</v>
-      </c>
-      <c r="I31" t="s">
-        <v>134</v>
-      </c>
-      <c r="J31" t="s">
-        <v>134</v>
-      </c>
-      <c r="K31" t="s">
-        <v>134</v>
-      </c>
-      <c r="L31">
-        <v>1.13737894552843E-2</v>
-      </c>
-      <c r="M31">
-        <v>1.13737894552843E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" t="s">
-        <v>205</v>
-      </c>
-      <c r="D32" t="s">
-        <v>134</v>
-      </c>
-      <c r="E32" t="s">
-        <v>135</v>
-      </c>
-      <c r="F32" t="s">
-        <v>134</v>
-      </c>
-      <c r="G32">
-        <v>2018</v>
-      </c>
-      <c r="H32" t="s">
-        <v>134</v>
-      </c>
-      <c r="I32" t="s">
-        <v>134</v>
-      </c>
-      <c r="J32" t="s">
-        <v>134</v>
-      </c>
-      <c r="K32" t="s">
-        <v>134</v>
-      </c>
-      <c r="L32">
-        <v>1.33284867630703E-2</v>
-      </c>
-      <c r="M32">
-        <v>1.33284867630703E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>77</v>
-      </c>
-      <c r="B33" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" t="s">
-        <v>206</v>
-      </c>
-      <c r="D33" t="s">
-        <v>134</v>
-      </c>
-      <c r="E33" t="s">
-        <v>135</v>
-      </c>
-      <c r="F33" t="s">
-        <v>134</v>
-      </c>
-      <c r="G33">
-        <v>2018</v>
-      </c>
-      <c r="H33" t="s">
-        <v>134</v>
-      </c>
-      <c r="I33" t="s">
-        <v>134</v>
-      </c>
-      <c r="J33" t="s">
-        <v>134</v>
-      </c>
-      <c r="K33" t="s">
-        <v>134</v>
-      </c>
-      <c r="L33">
-        <v>2.2499180043814002E-2</v>
-      </c>
-      <c r="M33">
-        <v>2.2499180043814002E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" t="s">
-        <v>207</v>
-      </c>
-      <c r="D34" t="s">
-        <v>134</v>
-      </c>
-      <c r="E34" t="s">
-        <v>135</v>
-      </c>
-      <c r="F34" t="s">
-        <v>134</v>
-      </c>
-      <c r="G34">
-        <v>2018</v>
-      </c>
-      <c r="H34" t="s">
-        <v>134</v>
-      </c>
-      <c r="I34" t="s">
-        <v>134</v>
-      </c>
-      <c r="J34" t="s">
-        <v>134</v>
-      </c>
-      <c r="K34" t="s">
-        <v>134</v>
-      </c>
-      <c r="L34">
-        <v>1.18538093576453E-2</v>
-      </c>
-      <c r="M34">
-        <v>1.18538093576453E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" t="s">
-        <v>208</v>
-      </c>
-      <c r="D35" t="s">
-        <v>134</v>
-      </c>
-      <c r="E35" t="s">
-        <v>135</v>
-      </c>
-      <c r="F35" t="s">
-        <v>134</v>
-      </c>
-      <c r="G35">
-        <v>2018</v>
-      </c>
-      <c r="H35" t="s">
-        <v>134</v>
-      </c>
-      <c r="I35" t="s">
-        <v>134</v>
-      </c>
-      <c r="J35" t="s">
-        <v>134</v>
-      </c>
-      <c r="K35" t="s">
-        <v>134</v>
-      </c>
-      <c r="L35">
-        <v>1.2874844310725899E-3</v>
-      </c>
-      <c r="M35">
-        <v>1.2874844310725899E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" t="s">
-        <v>209</v>
-      </c>
-      <c r="D36" t="s">
-        <v>134</v>
-      </c>
-      <c r="E36" t="s">
-        <v>135</v>
-      </c>
-      <c r="F36" t="s">
-        <v>134</v>
-      </c>
-      <c r="G36">
-        <v>2018</v>
-      </c>
-      <c r="H36" t="s">
-        <v>134</v>
-      </c>
-      <c r="I36" t="s">
-        <v>134</v>
-      </c>
-      <c r="J36" t="s">
-        <v>134</v>
-      </c>
-      <c r="K36" t="s">
-        <v>134</v>
-      </c>
-      <c r="L36">
-        <v>1.22701813726626E-2</v>
-      </c>
-      <c r="M36">
-        <v>1.22701813726626E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" t="s">
-        <v>210</v>
-      </c>
-      <c r="D37" t="s">
-        <v>134</v>
-      </c>
-      <c r="E37" t="s">
-        <v>135</v>
-      </c>
-      <c r="F37" t="s">
-        <v>134</v>
-      </c>
-      <c r="G37">
-        <v>2018</v>
-      </c>
-      <c r="H37" t="s">
-        <v>134</v>
-      </c>
-      <c r="I37" t="s">
-        <v>134</v>
-      </c>
-      <c r="J37" t="s">
-        <v>134</v>
-      </c>
-      <c r="K37" t="s">
-        <v>134</v>
-      </c>
-      <c r="L37">
-        <v>1.4149231710993301E-2</v>
-      </c>
-      <c r="M37">
-        <v>1.4149231710993301E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" t="s">
-        <v>211</v>
-      </c>
-      <c r="D38" t="s">
-        <v>134</v>
-      </c>
-      <c r="E38" t="s">
-        <v>135</v>
-      </c>
-      <c r="F38" t="s">
-        <v>134</v>
-      </c>
-      <c r="G38">
-        <v>2018</v>
-      </c>
-      <c r="H38" t="s">
-        <v>134</v>
-      </c>
-      <c r="I38" t="s">
-        <v>134</v>
-      </c>
-      <c r="J38" t="s">
-        <v>134</v>
-      </c>
-      <c r="K38" t="s">
-        <v>134</v>
-      </c>
-      <c r="L38">
-        <v>1.24915801777354E-2</v>
-      </c>
-      <c r="M38">
-        <v>1.24915801777354E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>77</v>
-      </c>
-      <c r="B39" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" t="s">
-        <v>212</v>
-      </c>
-      <c r="D39" t="s">
-        <v>134</v>
-      </c>
-      <c r="E39" t="s">
-        <v>135</v>
-      </c>
-      <c r="F39" t="s">
-        <v>134</v>
-      </c>
-      <c r="G39">
-        <v>2018</v>
-      </c>
-      <c r="H39" t="s">
-        <v>134</v>
-      </c>
-      <c r="I39" t="s">
-        <v>134</v>
-      </c>
-      <c r="J39" t="s">
-        <v>134</v>
-      </c>
-      <c r="K39" t="s">
-        <v>134</v>
-      </c>
-      <c r="L39">
-        <v>0.113051511576835</v>
-      </c>
-      <c r="M39">
-        <v>0.113051511576835</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>77</v>
-      </c>
-      <c r="B40" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" t="s">
-        <v>213</v>
-      </c>
-      <c r="D40" t="s">
-        <v>134</v>
-      </c>
-      <c r="E40" t="s">
-        <v>135</v>
-      </c>
-      <c r="F40" t="s">
-        <v>134</v>
-      </c>
-      <c r="G40">
-        <v>2018</v>
-      </c>
-      <c r="H40" t="s">
-        <v>134</v>
-      </c>
-      <c r="I40" t="s">
-        <v>134</v>
-      </c>
-      <c r="J40" t="s">
-        <v>134</v>
-      </c>
-      <c r="K40" t="s">
-        <v>134</v>
-      </c>
-      <c r="L40">
-        <v>1.1286753739723199E-2</v>
-      </c>
-      <c r="M40">
-        <v>1.1286753739723199E-2</v>
+        <v>1.0395000000000001E-3</v>
       </c>
     </row>
   </sheetData>
@@ -4636,1757 +3083,6 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C2F285-9307-42EA-A5DF-0946A8C3784D}">
-  <dimension ref="A1:M2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2">
-        <v>2018</v>
-      </c>
-      <c r="H2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K2" t="s">
-        <v>134</v>
-      </c>
-      <c r="L2">
-        <v>1.0395000000000001E-3</v>
-      </c>
-      <c r="M2">
-        <v>1.0395000000000001E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E4A06D-9682-4A49-9F18-659E62ECDD62}">
-  <dimension ref="A1:M40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2">
-        <v>2018</v>
-      </c>
-      <c r="H2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K2" t="s">
-        <v>134</v>
-      </c>
-      <c r="L2">
-        <v>4.4735749332023098E-3</v>
-      </c>
-      <c r="M2">
-        <v>4.4735749332023098E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G3">
-        <v>2018</v>
-      </c>
-      <c r="H3" t="s">
-        <v>134</v>
-      </c>
-      <c r="I3" t="s">
-        <v>134</v>
-      </c>
-      <c r="J3" t="s">
-        <v>134</v>
-      </c>
-      <c r="K3" t="s">
-        <v>134</v>
-      </c>
-      <c r="L3">
-        <v>9.6274926826448607E-6</v>
-      </c>
-      <c r="M3">
-        <v>9.6274926826448607E-6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G4">
-        <v>2018</v>
-      </c>
-      <c r="H4" t="s">
-        <v>134</v>
-      </c>
-      <c r="I4" t="s">
-        <v>134</v>
-      </c>
-      <c r="J4" t="s">
-        <v>134</v>
-      </c>
-      <c r="K4" t="s">
-        <v>134</v>
-      </c>
-      <c r="L4">
-        <v>1.27587517908186E-2</v>
-      </c>
-      <c r="M4">
-        <v>1.27587517908186E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G5">
-        <v>2018</v>
-      </c>
-      <c r="H5" t="s">
-        <v>134</v>
-      </c>
-      <c r="I5" t="s">
-        <v>134</v>
-      </c>
-      <c r="J5" t="s">
-        <v>134</v>
-      </c>
-      <c r="K5" t="s">
-        <v>134</v>
-      </c>
-      <c r="L5">
-        <v>9.2214798735756998E-2</v>
-      </c>
-      <c r="M5">
-        <v>9.2214798735756998E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G6">
-        <v>2018</v>
-      </c>
-      <c r="H6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I6" t="s">
-        <v>134</v>
-      </c>
-      <c r="J6" t="s">
-        <v>134</v>
-      </c>
-      <c r="K6" t="s">
-        <v>134</v>
-      </c>
-      <c r="L6">
-        <v>1.35582728420454E-2</v>
-      </c>
-      <c r="M6">
-        <v>1.35582728420454E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G7">
-        <v>2018</v>
-      </c>
-      <c r="H7" t="s">
-        <v>134</v>
-      </c>
-      <c r="I7" t="s">
-        <v>134</v>
-      </c>
-      <c r="J7" t="s">
-        <v>134</v>
-      </c>
-      <c r="K7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L7">
-        <v>2.4813655183930802E-2</v>
-      </c>
-      <c r="M7">
-        <v>2.4813655183930802E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G8">
-        <v>2018</v>
-      </c>
-      <c r="H8" t="s">
-        <v>134</v>
-      </c>
-      <c r="I8" t="s">
-        <v>134</v>
-      </c>
-      <c r="J8" t="s">
-        <v>134</v>
-      </c>
-      <c r="K8" t="s">
-        <v>134</v>
-      </c>
-      <c r="L8">
-        <v>1.18590868367296E-2</v>
-      </c>
-      <c r="M8">
-        <v>1.18590868367296E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9" t="s">
-        <v>134</v>
-      </c>
-      <c r="E9" t="s">
-        <v>135</v>
-      </c>
-      <c r="F9" t="s">
-        <v>134</v>
-      </c>
-      <c r="G9">
-        <v>2018</v>
-      </c>
-      <c r="H9" t="s">
-        <v>134</v>
-      </c>
-      <c r="I9" t="s">
-        <v>134</v>
-      </c>
-      <c r="J9" t="s">
-        <v>134</v>
-      </c>
-      <c r="K9" t="s">
-        <v>134</v>
-      </c>
-      <c r="L9">
-        <v>1.1111193431909199E-3</v>
-      </c>
-      <c r="M9">
-        <v>1.1111193431909199E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10" t="s">
-        <v>134</v>
-      </c>
-      <c r="E10" t="s">
-        <v>135</v>
-      </c>
-      <c r="F10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G10">
-        <v>2018</v>
-      </c>
-      <c r="H10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I10" t="s">
-        <v>134</v>
-      </c>
-      <c r="J10" t="s">
-        <v>134</v>
-      </c>
-      <c r="K10" t="s">
-        <v>134</v>
-      </c>
-      <c r="L10">
-        <v>3.0831862922372499E-2</v>
-      </c>
-      <c r="M10">
-        <v>3.0831862922372499E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" t="s">
-        <v>135</v>
-      </c>
-      <c r="F11" t="s">
-        <v>134</v>
-      </c>
-      <c r="G11">
-        <v>2018</v>
-      </c>
-      <c r="H11" t="s">
-        <v>134</v>
-      </c>
-      <c r="I11" t="s">
-        <v>134</v>
-      </c>
-      <c r="J11" t="s">
-        <v>134</v>
-      </c>
-      <c r="K11" t="s">
-        <v>134</v>
-      </c>
-      <c r="L11">
-        <v>1.7299140780158099E-2</v>
-      </c>
-      <c r="M11">
-        <v>1.7299140780158099E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" t="s">
-        <v>134</v>
-      </c>
-      <c r="E12" t="s">
-        <v>135</v>
-      </c>
-      <c r="F12" t="s">
-        <v>134</v>
-      </c>
-      <c r="G12">
-        <v>2018</v>
-      </c>
-      <c r="H12" t="s">
-        <v>134</v>
-      </c>
-      <c r="I12" t="s">
-        <v>134</v>
-      </c>
-      <c r="J12" t="s">
-        <v>134</v>
-      </c>
-      <c r="K12" t="s">
-        <v>134</v>
-      </c>
-      <c r="L12">
-        <v>7.4873010592929098E-2</v>
-      </c>
-      <c r="M12">
-        <v>7.4873010592929098E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D13" t="s">
-        <v>134</v>
-      </c>
-      <c r="E13" t="s">
-        <v>135</v>
-      </c>
-      <c r="F13" t="s">
-        <v>134</v>
-      </c>
-      <c r="G13">
-        <v>2018</v>
-      </c>
-      <c r="H13" t="s">
-        <v>134</v>
-      </c>
-      <c r="I13" t="s">
-        <v>134</v>
-      </c>
-      <c r="J13" t="s">
-        <v>134</v>
-      </c>
-      <c r="K13" t="s">
-        <v>134</v>
-      </c>
-      <c r="L13">
-        <v>5.0677847327291303E-2</v>
-      </c>
-      <c r="M13">
-        <v>5.0677847327291303E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D14" t="s">
-        <v>134</v>
-      </c>
-      <c r="E14" t="s">
-        <v>135</v>
-      </c>
-      <c r="F14" t="s">
-        <v>134</v>
-      </c>
-      <c r="G14">
-        <v>2018</v>
-      </c>
-      <c r="H14" t="s">
-        <v>134</v>
-      </c>
-      <c r="I14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J14" t="s">
-        <v>134</v>
-      </c>
-      <c r="K14" t="s">
-        <v>134</v>
-      </c>
-      <c r="L14">
-        <v>6.95288328276885E-2</v>
-      </c>
-      <c r="M14">
-        <v>6.95288328276885E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15" t="s">
-        <v>135</v>
-      </c>
-      <c r="F15" t="s">
-        <v>134</v>
-      </c>
-      <c r="G15">
-        <v>2018</v>
-      </c>
-      <c r="H15" t="s">
-        <v>134</v>
-      </c>
-      <c r="I15" t="s">
-        <v>134</v>
-      </c>
-      <c r="J15" t="s">
-        <v>134</v>
-      </c>
-      <c r="K15" t="s">
-        <v>134</v>
-      </c>
-      <c r="L15">
-        <v>1.55528798694797E-2</v>
-      </c>
-      <c r="M15">
-        <v>1.55528798694797E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" t="s">
-        <v>149</v>
-      </c>
-      <c r="D16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" t="s">
-        <v>135</v>
-      </c>
-      <c r="F16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G16">
-        <v>2018</v>
-      </c>
-      <c r="H16" t="s">
-        <v>134</v>
-      </c>
-      <c r="I16" t="s">
-        <v>134</v>
-      </c>
-      <c r="J16" t="s">
-        <v>134</v>
-      </c>
-      <c r="K16" t="s">
-        <v>134</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" t="s">
-        <v>135</v>
-      </c>
-      <c r="F17" t="s">
-        <v>134</v>
-      </c>
-      <c r="G17">
-        <v>2018</v>
-      </c>
-      <c r="H17" t="s">
-        <v>134</v>
-      </c>
-      <c r="I17" t="s">
-        <v>134</v>
-      </c>
-      <c r="J17" t="s">
-        <v>134</v>
-      </c>
-      <c r="K17" t="s">
-        <v>134</v>
-      </c>
-      <c r="L17">
-        <v>5.6329489829771803E-2</v>
-      </c>
-      <c r="M17">
-        <v>5.6329489829771803E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" t="s">
-        <v>151</v>
-      </c>
-      <c r="D18" t="s">
-        <v>134</v>
-      </c>
-      <c r="E18" t="s">
-        <v>135</v>
-      </c>
-      <c r="F18" t="s">
-        <v>134</v>
-      </c>
-      <c r="G18">
-        <v>2018</v>
-      </c>
-      <c r="H18" t="s">
-        <v>134</v>
-      </c>
-      <c r="I18" t="s">
-        <v>134</v>
-      </c>
-      <c r="J18" t="s">
-        <v>134</v>
-      </c>
-      <c r="K18" t="s">
-        <v>134</v>
-      </c>
-      <c r="L18">
-        <v>0.100127983891551</v>
-      </c>
-      <c r="M18">
-        <v>0.100127983891551</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" t="s">
-        <v>152</v>
-      </c>
-      <c r="D19" t="s">
-        <v>134</v>
-      </c>
-      <c r="E19" t="s">
-        <v>135</v>
-      </c>
-      <c r="F19" t="s">
-        <v>134</v>
-      </c>
-      <c r="G19">
-        <v>2018</v>
-      </c>
-      <c r="H19" t="s">
-        <v>134</v>
-      </c>
-      <c r="I19" t="s">
-        <v>134</v>
-      </c>
-      <c r="J19" t="s">
-        <v>134</v>
-      </c>
-      <c r="K19" t="s">
-        <v>134</v>
-      </c>
-      <c r="L19">
-        <v>3.19379469540736E-2</v>
-      </c>
-      <c r="M19">
-        <v>3.19379469540736E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" t="s">
-        <v>153</v>
-      </c>
-      <c r="D20" t="s">
-        <v>134</v>
-      </c>
-      <c r="E20" t="s">
-        <v>135</v>
-      </c>
-      <c r="F20" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20">
-        <v>2018</v>
-      </c>
-      <c r="H20" t="s">
-        <v>134</v>
-      </c>
-      <c r="I20" t="s">
-        <v>134</v>
-      </c>
-      <c r="J20" t="s">
-        <v>134</v>
-      </c>
-      <c r="K20" t="s">
-        <v>134</v>
-      </c>
-      <c r="L20">
-        <v>1.73685782056223E-2</v>
-      </c>
-      <c r="M20">
-        <v>1.73685782056223E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" t="s">
-        <v>154</v>
-      </c>
-      <c r="D21" t="s">
-        <v>134</v>
-      </c>
-      <c r="E21" t="s">
-        <v>135</v>
-      </c>
-      <c r="F21" t="s">
-        <v>134</v>
-      </c>
-      <c r="G21">
-        <v>2018</v>
-      </c>
-      <c r="H21" t="s">
-        <v>134</v>
-      </c>
-      <c r="I21" t="s">
-        <v>134</v>
-      </c>
-      <c r="J21" t="s">
-        <v>134</v>
-      </c>
-      <c r="K21" t="s">
-        <v>134</v>
-      </c>
-      <c r="L21">
-        <v>2.2095891324020799E-2</v>
-      </c>
-      <c r="M21">
-        <v>2.2095891324020799E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" t="s">
-        <v>155</v>
-      </c>
-      <c r="D22" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" t="s">
-        <v>135</v>
-      </c>
-      <c r="F22" t="s">
-        <v>134</v>
-      </c>
-      <c r="G22">
-        <v>2018</v>
-      </c>
-      <c r="H22" t="s">
-        <v>134</v>
-      </c>
-      <c r="I22" t="s">
-        <v>134</v>
-      </c>
-      <c r="J22" t="s">
-        <v>134</v>
-      </c>
-      <c r="K22" t="s">
-        <v>134</v>
-      </c>
-      <c r="L22">
-        <v>1.4426391204160499E-2</v>
-      </c>
-      <c r="M22">
-        <v>1.4426391204160499E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" t="s">
-        <v>156</v>
-      </c>
-      <c r="D23" t="s">
-        <v>134</v>
-      </c>
-      <c r="E23" t="s">
-        <v>135</v>
-      </c>
-      <c r="F23" t="s">
-        <v>134</v>
-      </c>
-      <c r="G23">
-        <v>2018</v>
-      </c>
-      <c r="H23" t="s">
-        <v>134</v>
-      </c>
-      <c r="I23" t="s">
-        <v>134</v>
-      </c>
-      <c r="J23" t="s">
-        <v>134</v>
-      </c>
-      <c r="K23" t="s">
-        <v>134</v>
-      </c>
-      <c r="L23">
-        <v>2.3904596338409499E-2</v>
-      </c>
-      <c r="M23">
-        <v>2.3904596338409499E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" t="s">
-        <v>157</v>
-      </c>
-      <c r="D24" t="s">
-        <v>134</v>
-      </c>
-      <c r="E24" t="s">
-        <v>135</v>
-      </c>
-      <c r="F24" t="s">
-        <v>134</v>
-      </c>
-      <c r="G24">
-        <v>2018</v>
-      </c>
-      <c r="H24" t="s">
-        <v>134</v>
-      </c>
-      <c r="I24" t="s">
-        <v>134</v>
-      </c>
-      <c r="J24" t="s">
-        <v>134</v>
-      </c>
-      <c r="K24" t="s">
-        <v>134</v>
-      </c>
-      <c r="L24">
-        <v>2.3818929075767398E-2</v>
-      </c>
-      <c r="M24">
-        <v>2.3818929075767398E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" t="s">
-        <v>158</v>
-      </c>
-      <c r="D25" t="s">
-        <v>134</v>
-      </c>
-      <c r="E25" t="s">
-        <v>135</v>
-      </c>
-      <c r="F25" t="s">
-        <v>134</v>
-      </c>
-      <c r="G25">
-        <v>2018</v>
-      </c>
-      <c r="H25" t="s">
-        <v>134</v>
-      </c>
-      <c r="I25" t="s">
-        <v>134</v>
-      </c>
-      <c r="J25" t="s">
-        <v>134</v>
-      </c>
-      <c r="K25" t="s">
-        <v>134</v>
-      </c>
-      <c r="L25">
-        <v>4.47139828843457E-2</v>
-      </c>
-      <c r="M25">
-        <v>4.47139828843457E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" t="s">
-        <v>159</v>
-      </c>
-      <c r="D26" t="s">
-        <v>134</v>
-      </c>
-      <c r="E26" t="s">
-        <v>135</v>
-      </c>
-      <c r="F26" t="s">
-        <v>134</v>
-      </c>
-      <c r="G26">
-        <v>2018</v>
-      </c>
-      <c r="H26" t="s">
-        <v>134</v>
-      </c>
-      <c r="I26" t="s">
-        <v>134</v>
-      </c>
-      <c r="J26" t="s">
-        <v>134</v>
-      </c>
-      <c r="K26" t="s">
-        <v>134</v>
-      </c>
-      <c r="L26">
-        <v>0.23960518419681501</v>
-      </c>
-      <c r="M26">
-        <v>0.23960518419681501</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" t="s">
-        <v>160</v>
-      </c>
-      <c r="D27" t="s">
-        <v>134</v>
-      </c>
-      <c r="E27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F27" t="s">
-        <v>134</v>
-      </c>
-      <c r="G27">
-        <v>2018</v>
-      </c>
-      <c r="H27" t="s">
-        <v>134</v>
-      </c>
-      <c r="I27" t="s">
-        <v>134</v>
-      </c>
-      <c r="J27" t="s">
-        <v>134</v>
-      </c>
-      <c r="K27" t="s">
-        <v>134</v>
-      </c>
-      <c r="L27">
-        <v>4.6440816123458198E-2</v>
-      </c>
-      <c r="M27">
-        <v>4.6440816123458198E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" t="s">
-        <v>161</v>
-      </c>
-      <c r="D28" t="s">
-        <v>134</v>
-      </c>
-      <c r="E28" t="s">
-        <v>135</v>
-      </c>
-      <c r="F28" t="s">
-        <v>134</v>
-      </c>
-      <c r="G28">
-        <v>2018</v>
-      </c>
-      <c r="H28" t="s">
-        <v>134</v>
-      </c>
-      <c r="I28" t="s">
-        <v>134</v>
-      </c>
-      <c r="J28" t="s">
-        <v>134</v>
-      </c>
-      <c r="K28" t="s">
-        <v>134</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" t="s">
-        <v>162</v>
-      </c>
-      <c r="D29" t="s">
-        <v>134</v>
-      </c>
-      <c r="E29" t="s">
-        <v>135</v>
-      </c>
-      <c r="F29" t="s">
-        <v>134</v>
-      </c>
-      <c r="G29">
-        <v>2018</v>
-      </c>
-      <c r="H29" t="s">
-        <v>134</v>
-      </c>
-      <c r="I29" t="s">
-        <v>134</v>
-      </c>
-      <c r="J29" t="s">
-        <v>134</v>
-      </c>
-      <c r="K29" t="s">
-        <v>134</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" t="s">
-        <v>163</v>
-      </c>
-      <c r="D30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E30" t="s">
-        <v>135</v>
-      </c>
-      <c r="F30" t="s">
-        <v>134</v>
-      </c>
-      <c r="G30">
-        <v>2018</v>
-      </c>
-      <c r="H30" t="s">
-        <v>134</v>
-      </c>
-      <c r="I30" t="s">
-        <v>134</v>
-      </c>
-      <c r="J30" t="s">
-        <v>134</v>
-      </c>
-      <c r="K30" t="s">
-        <v>134</v>
-      </c>
-      <c r="L30">
-        <v>7.5672129216388107E-2</v>
-      </c>
-      <c r="M30">
-        <v>7.5672129216388107E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" t="s">
-        <v>164</v>
-      </c>
-      <c r="D31" t="s">
-        <v>134</v>
-      </c>
-      <c r="E31" t="s">
-        <v>135</v>
-      </c>
-      <c r="F31" t="s">
-        <v>134</v>
-      </c>
-      <c r="G31">
-        <v>2018</v>
-      </c>
-      <c r="H31" t="s">
-        <v>134</v>
-      </c>
-      <c r="I31" t="s">
-        <v>134</v>
-      </c>
-      <c r="J31" t="s">
-        <v>134</v>
-      </c>
-      <c r="K31" t="s">
-        <v>134</v>
-      </c>
-      <c r="L31">
-        <v>0.27139198399610598</v>
-      </c>
-      <c r="M31">
-        <v>0.27139198399610598</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" t="s">
-        <v>165</v>
-      </c>
-      <c r="D32" t="s">
-        <v>134</v>
-      </c>
-      <c r="E32" t="s">
-        <v>135</v>
-      </c>
-      <c r="F32" t="s">
-        <v>134</v>
-      </c>
-      <c r="G32">
-        <v>2018</v>
-      </c>
-      <c r="H32" t="s">
-        <v>134</v>
-      </c>
-      <c r="I32" t="s">
-        <v>134</v>
-      </c>
-      <c r="J32" t="s">
-        <v>134</v>
-      </c>
-      <c r="K32" t="s">
-        <v>134</v>
-      </c>
-      <c r="L32">
-        <v>5.1441804976465701E-2</v>
-      </c>
-      <c r="M32">
-        <v>5.1441804976465701E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>77</v>
-      </c>
-      <c r="B33" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" t="s">
-        <v>166</v>
-      </c>
-      <c r="D33" t="s">
-        <v>134</v>
-      </c>
-      <c r="E33" t="s">
-        <v>135</v>
-      </c>
-      <c r="F33" t="s">
-        <v>134</v>
-      </c>
-      <c r="G33">
-        <v>2018</v>
-      </c>
-      <c r="H33" t="s">
-        <v>134</v>
-      </c>
-      <c r="I33" t="s">
-        <v>134</v>
-      </c>
-      <c r="J33" t="s">
-        <v>134</v>
-      </c>
-      <c r="K33" t="s">
-        <v>134</v>
-      </c>
-      <c r="L33">
-        <v>3.17870115673878E-2</v>
-      </c>
-      <c r="M33">
-        <v>3.17870115673878E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" t="s">
-        <v>167</v>
-      </c>
-      <c r="D34" t="s">
-        <v>134</v>
-      </c>
-      <c r="E34" t="s">
-        <v>135</v>
-      </c>
-      <c r="F34" t="s">
-        <v>134</v>
-      </c>
-      <c r="G34">
-        <v>2018</v>
-      </c>
-      <c r="H34" t="s">
-        <v>134</v>
-      </c>
-      <c r="I34" t="s">
-        <v>134</v>
-      </c>
-      <c r="J34" t="s">
-        <v>134</v>
-      </c>
-      <c r="K34" t="s">
-        <v>134</v>
-      </c>
-      <c r="L34">
-        <v>3.7040631160092499E-2</v>
-      </c>
-      <c r="M34">
-        <v>3.7040631160092499E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" t="s">
-        <v>168</v>
-      </c>
-      <c r="D35" t="s">
-        <v>134</v>
-      </c>
-      <c r="E35" t="s">
-        <v>135</v>
-      </c>
-      <c r="F35" t="s">
-        <v>134</v>
-      </c>
-      <c r="G35">
-        <v>2018</v>
-      </c>
-      <c r="H35" t="s">
-        <v>134</v>
-      </c>
-      <c r="I35" t="s">
-        <v>134</v>
-      </c>
-      <c r="J35" t="s">
-        <v>134</v>
-      </c>
-      <c r="K35" t="s">
-        <v>134</v>
-      </c>
-      <c r="L35">
-        <v>0.189996602787424</v>
-      </c>
-      <c r="M35">
-        <v>0.189996602787424</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" t="s">
-        <v>169</v>
-      </c>
-      <c r="D36" t="s">
-        <v>134</v>
-      </c>
-      <c r="E36" t="s">
-        <v>135</v>
-      </c>
-      <c r="F36" t="s">
-        <v>134</v>
-      </c>
-      <c r="G36">
-        <v>2018</v>
-      </c>
-      <c r="H36" t="s">
-        <v>134</v>
-      </c>
-      <c r="I36" t="s">
-        <v>134</v>
-      </c>
-      <c r="J36" t="s">
-        <v>134</v>
-      </c>
-      <c r="K36" t="s">
-        <v>134</v>
-      </c>
-      <c r="L36">
-        <v>4.1477826816639397E-2</v>
-      </c>
-      <c r="M36">
-        <v>4.1477826816639397E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" t="s">
-        <v>170</v>
-      </c>
-      <c r="D37" t="s">
-        <v>134</v>
-      </c>
-      <c r="E37" t="s">
-        <v>135</v>
-      </c>
-      <c r="F37" t="s">
-        <v>134</v>
-      </c>
-      <c r="G37">
-        <v>2018</v>
-      </c>
-      <c r="H37" t="s">
-        <v>134</v>
-      </c>
-      <c r="I37" t="s">
-        <v>134</v>
-      </c>
-      <c r="J37" t="s">
-        <v>134</v>
-      </c>
-      <c r="K37" t="s">
-        <v>134</v>
-      </c>
-      <c r="L37">
-        <v>5.5595203690710603E-2</v>
-      </c>
-      <c r="M37">
-        <v>5.5595203690710603E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" t="s">
-        <v>171</v>
-      </c>
-      <c r="D38" t="s">
-        <v>134</v>
-      </c>
-      <c r="E38" t="s">
-        <v>135</v>
-      </c>
-      <c r="F38" t="s">
-        <v>134</v>
-      </c>
-      <c r="G38">
-        <v>2018</v>
-      </c>
-      <c r="H38" t="s">
-        <v>134</v>
-      </c>
-      <c r="I38" t="s">
-        <v>134</v>
-      </c>
-      <c r="J38" t="s">
-        <v>134</v>
-      </c>
-      <c r="K38" t="s">
-        <v>134</v>
-      </c>
-      <c r="L38">
-        <v>9.5005552686675293E-2</v>
-      </c>
-      <c r="M38">
-        <v>9.5005552686675293E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>77</v>
-      </c>
-      <c r="B39" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" t="s">
-        <v>172</v>
-      </c>
-      <c r="D39" t="s">
-        <v>134</v>
-      </c>
-      <c r="E39" t="s">
-        <v>135</v>
-      </c>
-      <c r="F39" t="s">
-        <v>134</v>
-      </c>
-      <c r="G39">
-        <v>2018</v>
-      </c>
-      <c r="H39" t="s">
-        <v>134</v>
-      </c>
-      <c r="I39" t="s">
-        <v>134</v>
-      </c>
-      <c r="J39" t="s">
-        <v>134</v>
-      </c>
-      <c r="K39" t="s">
-        <v>134</v>
-      </c>
-      <c r="L39">
-        <v>0.21841678709847501</v>
-      </c>
-      <c r="M39">
-        <v>0.21841678709847501</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>77</v>
-      </c>
-      <c r="B40" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" t="s">
-        <v>173</v>
-      </c>
-      <c r="D40" t="s">
-        <v>134</v>
-      </c>
-      <c r="E40" t="s">
-        <v>135</v>
-      </c>
-      <c r="F40" t="s">
-        <v>134</v>
-      </c>
-      <c r="G40">
-        <v>2018</v>
-      </c>
-      <c r="H40" t="s">
-        <v>134</v>
-      </c>
-      <c r="I40" t="s">
-        <v>134</v>
-      </c>
-      <c r="J40" t="s">
-        <v>134</v>
-      </c>
-      <c r="K40" t="s">
-        <v>134</v>
-      </c>
-      <c r="L40">
-        <v>0.12981046442763899</v>
-      </c>
-      <c r="M40">
-        <v>0.12981046442763899</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA0718C5-D068-4563-B06A-974D1CF3294C}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -7537,8 +4233,8 @@
   </sheetPr>
   <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7635,9 +4331,9 @@
         <f t="shared" ref="B6:B17" si="0">"R-S*"&amp;E6&amp;"_"&amp;F6&amp;"*"</f>
         <v>R-S*Apt_COA*</v>
       </c>
-      <c r="C6" s="34">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!G6,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.2214798735756998E-2</v>
+      <c r="C6" s="34" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G6,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>110</v>
@@ -7673,9 +4369,9 @@
         <f t="shared" si="0"/>
         <v>R-S*Apt_BDL*</v>
       </c>
-      <c r="C7" s="35">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!G7,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
+      <c r="C7" s="35" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G7,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E7" s="33" t="s">
         <v>110</v>
@@ -7711,9 +4407,9 @@
         <f t="shared" si="0"/>
         <v>R-S*Apt_ETH*</v>
       </c>
-      <c r="C8" s="34">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!G8,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
+      <c r="C8" s="34" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G8,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>110</v>
@@ -7749,9 +4445,9 @@
         <f t="shared" si="0"/>
         <v>R-S*Apt_LPG*</v>
       </c>
-      <c r="C9" s="35">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!G9,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
+      <c r="C9" s="35" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G9,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>110</v>
@@ -7787,9 +4483,9 @@
         <f t="shared" si="0"/>
         <v>R-S*Apt_ELC*</v>
       </c>
-      <c r="C10" s="34">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!G10,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.83719280259762E-2</v>
+      <c r="C10" s="34" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G10,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>110</v>
@@ -7821,13 +4517,13 @@
       <c r="A11" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="B11" s="33" t="str">
+      <c r="B11" s="39" t="str">
         <f t="shared" si="0"/>
         <v>R-S*Apt_KER*</v>
       </c>
-      <c r="C11" s="35">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!G11,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
+      <c r="C11" s="40" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G11,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E11" s="33" t="s">
         <v>110</v>
@@ -7863,9 +4559,9 @@
         <f t="shared" si="0"/>
         <v>R-S*Apt_GAS*</v>
       </c>
-      <c r="C12" s="34">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!G12,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.18590868367296E-2</v>
+      <c r="C12" s="34" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G12,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E12" s="32" t="s">
         <v>110</v>
@@ -7901,9 +4597,9 @@
         <f t="shared" si="0"/>
         <v>R-S*Apt_PEA*</v>
       </c>
-      <c r="C13" s="35">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!G13,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>7.4873010592929098E-2</v>
+      <c r="C13" s="35" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G13,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E13" s="33" t="s">
         <v>110</v>
@@ -7924,9 +4620,9 @@
         <f t="shared" si="0"/>
         <v>R-S*Apt_SMF*</v>
       </c>
-      <c r="C14" s="34">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!G14,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>6.95288328276885E-2</v>
+      <c r="C14" s="34" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G14,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E14" s="32" t="s">
         <v>110</v>
@@ -7947,9 +4643,9 @@
         <f t="shared" si="0"/>
         <v>R-S*Apt_WOO*</v>
       </c>
-      <c r="C15" s="35">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!G15,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
+      <c r="C15" s="35" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G15,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E15" s="33" t="s">
         <v>110</v>
@@ -7973,9 +4669,9 @@
         <f t="shared" si="0"/>
         <v>R-S*Apt_HET*</v>
       </c>
-      <c r="C16" s="34">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!G16,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.1111193431909199E-3</v>
+      <c r="C16" s="34" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G16,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E16" s="32" t="s">
         <v>110</v>
@@ -8009,9 +4705,9 @@
         <f t="shared" si="0"/>
         <v>R-S*Apt_GEO*</v>
       </c>
-      <c r="C17" s="35">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!G17,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
+      <c r="C17" s="35" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G17,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E17" s="33" t="s">
         <v>110</v>
@@ -8064,9 +4760,9 @@
         <f t="shared" ref="B19:B30" si="2">"R-S*"&amp;E19&amp;"_"&amp;F19&amp;"*"</f>
         <v>R-S*Att_COA*</v>
       </c>
-      <c r="C19" s="34">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!G19,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.100127983891551</v>
+      <c r="C19" s="34" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G19,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E19" s="32" t="s">
         <v>106</v>
@@ -8101,9 +4797,9 @@
         <f t="shared" si="2"/>
         <v>R-S*Att_BDL*</v>
       </c>
-      <c r="C20" s="35">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!G20,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
+      <c r="C20" s="35" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G20,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>106</v>
@@ -8138,9 +4834,9 @@
         <f t="shared" si="2"/>
         <v>R-S*Att_ETH*</v>
       </c>
-      <c r="C21" s="34">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!G21,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
+      <c r="C21" s="34" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G21,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E21" s="32" t="s">
         <v>106</v>
@@ -8175,9 +4871,9 @@
         <f t="shared" si="2"/>
         <v>R-S*Att_LPG*</v>
       </c>
-      <c r="C22" s="35">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!G22,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
+      <c r="C22" s="35" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G22,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E22" s="33" t="s">
         <v>106</v>
@@ -8212,9 +4908,9 @@
         <f t="shared" si="2"/>
         <v>R-S*Att_ELC*</v>
       </c>
-      <c r="C23" s="34">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!G23,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.9306525159695899E-2</v>
+      <c r="C23" s="34" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G23,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E23" s="32" t="s">
         <v>106</v>
@@ -8249,9 +4945,9 @@
         <f t="shared" si="2"/>
         <v>R-S*Att_KER*</v>
       </c>
-      <c r="C24" s="35">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!G24,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
+      <c r="C24" s="35" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G24,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E24" s="33" t="s">
         <v>106</v>
@@ -8272,9 +4968,9 @@
         <f t="shared" si="2"/>
         <v>R-S*Att_GAS*</v>
       </c>
-      <c r="C25" s="34">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!G25,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.2095891324020799E-2</v>
+      <c r="C25" s="34" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G25,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E25" s="32" t="s">
         <v>106</v>
@@ -8295,9 +4991,9 @@
         <f t="shared" si="2"/>
         <v>R-S*Att_PEA*</v>
       </c>
-      <c r="C26" s="35">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!G26,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.47139828843457E-2</v>
+      <c r="C26" s="35" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G26,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E26" s="33" t="s">
         <v>106</v>
@@ -8318,9 +5014,9 @@
         <f t="shared" si="2"/>
         <v>R-S*Att_SMF*</v>
       </c>
-      <c r="C27" s="34">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!G27,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.6440816123458198E-2</v>
+      <c r="C27" s="34" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G27,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E27" s="32" t="s">
         <v>106</v>
@@ -8341,9 +5037,9 @@
         <f t="shared" si="2"/>
         <v>R-S*Att_WOO*</v>
       </c>
-      <c r="C28" s="35">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!G28,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
+      <c r="C28" s="35" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G28,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E28" s="33" t="s">
         <v>106</v>
@@ -8364,9 +5060,9 @@
         <f t="shared" si="2"/>
         <v>R-S*Att_HET*</v>
       </c>
-      <c r="C29" s="34">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!G29,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.4426391204160499E-2</v>
+      <c r="C29" s="34" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G29,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E29" s="32" t="s">
         <v>106</v>
@@ -8387,9 +5083,9 @@
         <f t="shared" si="2"/>
         <v>R-S*Att_GEO*</v>
       </c>
-      <c r="C30" s="35">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!G30,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
+      <c r="C30" s="35" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G30,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E30" s="33" t="s">
         <v>106</v>
@@ -8421,9 +5117,9 @@
         <f t="shared" ref="B32:B43" si="4">"R-S*"&amp;E32&amp;"_"&amp;F32&amp;"*"</f>
         <v>R-S*Det_COA*</v>
       </c>
-      <c r="C32" s="34">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!G32,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.27139198399610598</v>
+      <c r="C32" s="34" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G32,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E32" s="32" t="s">
         <v>116</v>
@@ -8444,9 +5140,9 @@
         <f t="shared" si="4"/>
         <v>R-S*Det_BDL*</v>
       </c>
-      <c r="C33" s="35">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!G33,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
+      <c r="C33" s="35" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G33,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E33" s="33" t="s">
         <v>116</v>
@@ -8468,9 +5164,9 @@
         <f t="shared" si="4"/>
         <v>R-S*Det_ETH*</v>
       </c>
-      <c r="C34" s="34">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!G34,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
+      <c r="C34" s="34" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G34,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E34" s="32" t="s">
         <v>116</v>
@@ -8491,9 +5187,9 @@
         <f t="shared" si="4"/>
         <v>R-S*Det_LPG*</v>
       </c>
-      <c r="C35" s="35">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!G35,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
+      <c r="C35" s="35" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G35,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E35" s="33" t="s">
         <v>116</v>
@@ -8514,9 +5210,9 @@
         <f t="shared" si="4"/>
         <v>R-S*Det_ELC*</v>
       </c>
-      <c r="C36" s="34">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!G36,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>8.3228816543853501E-2</v>
+      <c r="C36" s="34" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G36,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E36" s="32" t="s">
         <v>116</v>
@@ -8537,9 +5233,9 @@
         <f t="shared" si="4"/>
         <v>R-S*Det_KER*</v>
       </c>
-      <c r="C37" s="35">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!G37,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
+      <c r="C37" s="35" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G37,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E37" s="33" t="s">
         <v>116</v>
@@ -8560,9 +5256,9 @@
         <f t="shared" si="4"/>
         <v>R-S*Det_GAS*</v>
       </c>
-      <c r="C38" s="34">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!G38,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.7040631160092499E-2</v>
+      <c r="C38" s="34" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G38,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E38" s="32" t="s">
         <v>116</v>
@@ -8583,9 +5279,9 @@
         <f t="shared" si="4"/>
         <v>R-S*Det_PEA*</v>
       </c>
-      <c r="C39" s="35">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!G39,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.5005552686675293E-2</v>
+      <c r="C39" s="35" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G39,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E39" s="33" t="s">
         <v>116</v>
@@ -8606,9 +5302,9 @@
         <f t="shared" si="4"/>
         <v>R-S*Det_SMF*</v>
       </c>
-      <c r="C40" s="34">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!G40,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.12981046442763899</v>
+      <c r="C40" s="34" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G40,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E40" s="32" t="s">
         <v>116</v>
@@ -8629,9 +5325,9 @@
         <f t="shared" si="4"/>
         <v>R-S*Det_WOO*</v>
       </c>
-      <c r="C41" s="35">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!G41,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
+      <c r="C41" s="35" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G41,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E41" s="33" t="s">
         <v>116</v>
@@ -8652,9 +5348,9 @@
         <f t="shared" si="4"/>
         <v>R-S*Det_HET*</v>
       </c>
-      <c r="C42" s="34">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!G42,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.189996602787424</v>
+      <c r="C42" s="34" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G42,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E42" s="32" t="s">
         <v>116</v>
@@ -8675,9 +5371,9 @@
         <f t="shared" si="4"/>
         <v>R-S*Det_GEO*</v>
       </c>
-      <c r="C43" s="35">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,AF!G43,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
+      <c r="C43" s="35" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G43,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E43" s="33" t="s">
         <v>116</v>
@@ -8708,9 +5404,9 @@
         <f t="shared" ref="B45:B56" si="6">"R-WH-"&amp;E45&amp;"_"&amp;F45&amp;"*"</f>
         <v>R-WH-Apt_COA*</v>
       </c>
-      <c r="C45" s="34">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!G45,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>6.3768329096572304E-3</v>
+      <c r="C45" s="34" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G45,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E45" s="32" t="s">
         <v>110</v>
@@ -8731,9 +5427,9 @@
         <f t="shared" si="6"/>
         <v>R-WH-Apt_BDL*</v>
       </c>
-      <c r="C46" s="35">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!G46,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
+      <c r="C46" s="35" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G46,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E46" s="33" t="s">
         <v>110</v>
@@ -8754,9 +5450,9 @@
         <f t="shared" si="6"/>
         <v>R-WH-Apt_ETH*</v>
       </c>
-      <c r="C47" s="34">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!G47,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
+      <c r="C47" s="34" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G47,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E47" s="32" t="s">
         <v>110</v>
@@ -8777,9 +5473,9 @@
         <f t="shared" si="6"/>
         <v>R-WH-Apt_LPG*</v>
       </c>
-      <c r="C48" s="35">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!G48,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
+      <c r="C48" s="35" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G48,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E48" s="33" t="s">
         <v>110</v>
@@ -8800,9 +5496,9 @@
         <f t="shared" si="6"/>
         <v>R-WH-Apt_ELC*</v>
       </c>
-      <c r="C49" s="34">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!G49,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.547139931032923E-2</v>
+      <c r="C49" s="34" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G49,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E49" s="32" t="s">
         <v>110</v>
@@ -8823,9 +5519,9 @@
         <f t="shared" si="6"/>
         <v>R-WH-Apt_KER*</v>
       </c>
-      <c r="C50" s="35">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!G50,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
+      <c r="C50" s="35" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G50,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E50" s="33" t="s">
         <v>110</v>
@@ -8846,9 +5542,9 @@
         <f t="shared" si="6"/>
         <v>R-WH-Apt_GAS*</v>
       </c>
-      <c r="C51" s="34">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!G51,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>7.0999155767537403E-3</v>
+      <c r="C51" s="34" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G51,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E51" s="32" t="s">
         <v>110</v>
@@ -8869,9 +5565,9 @@
         <f t="shared" si="6"/>
         <v>R-WH-Apt_PEA*</v>
       </c>
-      <c r="C52" s="35">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!G52,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>8.5740576923076899E-3</v>
+      <c r="C52" s="35" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G52,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E52" s="33" t="s">
         <v>110</v>
@@ -8892,9 +5588,9 @@
         <f t="shared" si="6"/>
         <v>R-WH-Apt_SMF*</v>
       </c>
-      <c r="C53" s="34">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!G53,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>8.5332927933924694E-3</v>
+      <c r="C53" s="34" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G53,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E53" s="32" t="s">
         <v>110</v>
@@ -8915,9 +5611,9 @@
         <f t="shared" si="6"/>
         <v>R-WH-Apt_WOO*</v>
       </c>
-      <c r="C54" s="35">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!G54,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
+      <c r="C54" s="35" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G54,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E54" s="33" t="s">
         <v>110</v>
@@ -8938,9 +5634,9 @@
         <f t="shared" si="6"/>
         <v>R-WH-Apt_HET*</v>
       </c>
-      <c r="C55" s="34">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!G55,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.0627633026508998E-4</v>
+      <c r="C55" s="34" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G55,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E55" s="32" t="s">
         <v>110</v>
@@ -8961,9 +5657,9 @@
         <f t="shared" si="6"/>
         <v>R-WH-Apt_GEO*</v>
       </c>
-      <c r="C56" s="35">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!G56,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
+      <c r="C56" s="35" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G56,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E56" s="33" t="s">
         <v>110</v>
@@ -8995,9 +5691,9 @@
         <f t="shared" ref="B58:B69" si="8">"R-WH-"&amp;E58&amp;"_"&amp;F58&amp;"*"</f>
         <v>R-WH-Att_COA*</v>
       </c>
-      <c r="C58" s="34">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!G58,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.3819421193711804E-3</v>
+      <c r="C58" s="34" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G58,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E58" s="32" t="s">
         <v>106</v>
@@ -9018,9 +5714,9 @@
         <f t="shared" si="8"/>
         <v>R-WH-Att_BDL*</v>
       </c>
-      <c r="C59" s="35">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!G59,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
+      <c r="C59" s="35" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G59,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E59" s="33" t="s">
         <v>106</v>
@@ -9041,9 +5737,9 @@
         <f t="shared" si="8"/>
         <v>R-WH-Att_ETH*</v>
       </c>
-      <c r="C60" s="34">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!G60,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
+      <c r="C60" s="34" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G60,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E60" s="32" t="s">
         <v>106</v>
@@ -9064,9 +5760,9 @@
         <f t="shared" si="8"/>
         <v>R-WH-Att_LPG*</v>
       </c>
-      <c r="C61" s="35">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!G61,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
+      <c r="C61" s="35" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G61,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E61" s="33" t="s">
         <v>106</v>
@@ -9087,9 +5783,9 @@
         <f t="shared" si="8"/>
         <v>R-WH-Att_ELC*</v>
       </c>
-      <c r="C62" s="34">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!G62,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.6569117177568902E-2</v>
+      <c r="C62" s="34" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G62,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E62" s="32" t="s">
         <v>106</v>
@@ -9110,9 +5806,9 @@
         <f t="shared" si="8"/>
         <v>R-WH-Att_KER*</v>
       </c>
-      <c r="C63" s="35">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!G63,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
+      <c r="C63" s="35" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G63,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E63" s="33" t="s">
         <v>106</v>
@@ -9133,9 +5829,9 @@
         <f t="shared" si="8"/>
         <v>R-WH-Att_GAS*</v>
       </c>
-      <c r="C64" s="34">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!G64,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.2067094002643308E-3</v>
+      <c r="C64" s="34" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G64,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E64" s="32" t="s">
         <v>106</v>
@@ -9156,9 +5852,9 @@
         <f t="shared" si="8"/>
         <v>R-WH-Att_PEA*</v>
       </c>
-      <c r="C65" s="35">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!G65,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.08711386313101E-2</v>
+      <c r="C65" s="35" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G65,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E65" s="33" t="s">
         <v>106</v>
@@ -9179,9 +5875,9 @@
         <f t="shared" si="8"/>
         <v>R-WH-Att_SMF*</v>
       </c>
-      <c r="C66" s="34">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!G66,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.3095279184719493E-3</v>
+      <c r="C66" s="34" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G66,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E66" s="32" t="s">
         <v>106</v>
@@ -9202,9 +5898,9 @@
         <f t="shared" si="8"/>
         <v>R-WH-Att_WOO*</v>
       </c>
-      <c r="C67" s="35">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!G67,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
+      <c r="C67" s="35" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G67,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E67" s="33" t="s">
         <v>106</v>
@@ -9225,9 +5921,9 @@
         <f t="shared" si="8"/>
         <v>R-WH-Att_HET*</v>
       </c>
-      <c r="C68" s="34">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!G68,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>7.6939300464232304E-4</v>
+      <c r="C68" s="34" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G68,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E68" s="32" t="s">
         <v>106</v>
@@ -9248,9 +5944,9 @@
         <f t="shared" si="8"/>
         <v>R-WH-Att_GEO*</v>
       </c>
-      <c r="C69" s="35">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!G69,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
+      <c r="C69" s="35" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G69,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E69" s="33" t="s">
         <v>106</v>
@@ -9282,9 +5978,9 @@
         <f t="shared" ref="B71:B82" si="10">"R-WH-"&amp;E71&amp;"_"&amp;F71&amp;"*"</f>
         <v>R-WH-Det_COA*</v>
       </c>
-      <c r="C71" s="34">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!G71,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.13737894552843E-2</v>
+      <c r="C71" s="34" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G71,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E71" s="32" t="s">
         <v>116</v>
@@ -9305,9 +6001,9 @@
         <f t="shared" si="10"/>
         <v>R-WH-Det_BDL*</v>
       </c>
-      <c r="C72" s="35">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!G72,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
+      <c r="C72" s="35" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G72,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E72" s="33" t="s">
         <v>116</v>
@@ -9328,9 +6024,9 @@
         <f t="shared" si="10"/>
         <v>R-WH-Det_ETH*</v>
       </c>
-      <c r="C73" s="34">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!G73,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
+      <c r="C73" s="34" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G73,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E73" s="32" t="s">
         <v>116</v>
@@ -9351,9 +6047,9 @@
         <f t="shared" si="10"/>
         <v>R-WH-Det_LPG*</v>
       </c>
-      <c r="C74" s="35">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!G74,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
+      <c r="C74" s="35" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G74,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E74" s="33" t="s">
         <v>116</v>
@@ -9374,9 +6070,9 @@
         <f t="shared" si="10"/>
         <v>R-WH-Det_ELC*</v>
       </c>
-      <c r="C75" s="34">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!G75,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.5827666806884303E-2</v>
+      <c r="C75" s="34" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G75,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E75" s="32" t="s">
         <v>116</v>
@@ -9397,9 +6093,9 @@
         <f t="shared" si="10"/>
         <v>R-WH-Det_KER*</v>
       </c>
-      <c r="C76" s="35">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!G76,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
+      <c r="C76" s="35" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G76,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E76" s="33" t="s">
         <v>116</v>
@@ -9420,9 +6116,9 @@
         <f t="shared" si="10"/>
         <v>R-WH-Det_GAS*</v>
       </c>
-      <c r="C77" s="34">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!G77,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.18538093576453E-2</v>
+      <c r="C77" s="34" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G77,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E77" s="32" t="s">
         <v>116</v>
@@ -9443,9 +6139,9 @@
         <f t="shared" si="10"/>
         <v>R-WH-Det_PEA*</v>
       </c>
-      <c r="C78" s="35">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!G78,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.24915801777354E-2</v>
+      <c r="C78" s="35" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G78,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E78" s="33" t="s">
         <v>116</v>
@@ -9466,9 +6162,9 @@
         <f t="shared" si="10"/>
         <v>R-WH-Det_SMF*</v>
       </c>
-      <c r="C79" s="34">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!G79,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.1286753739723199E-2</v>
+      <c r="C79" s="34" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G79,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E79" s="32" t="s">
         <v>116</v>
@@ -9489,9 +6185,9 @@
         <f t="shared" si="10"/>
         <v>R-WH-Det_WOO*</v>
       </c>
-      <c r="C80" s="35">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!G80,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
+      <c r="C80" s="35" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G80,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E80" s="33" t="s">
         <v>116</v>
@@ -9512,9 +6208,9 @@
         <f t="shared" si="10"/>
         <v>R-WH-Det_HET*</v>
       </c>
-      <c r="C81" s="34">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!G81,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.2874844310725899E-3</v>
+      <c r="C81" s="34" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G81,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E81" s="32" t="s">
         <v>116</v>
@@ -9535,9 +6231,9 @@
         <f t="shared" si="10"/>
         <v>R-WH-Det_GEO*</v>
       </c>
-      <c r="C82" s="35">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,AF!G82,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
+      <c r="C82" s="35" t="e">
+        <f>SUMIFS(#REF!,#REF!,AF!G82,#REF!,"BASE")</f>
+        <v>#REF!</v>
       </c>
       <c r="E82" s="33" t="s">
         <v>116</v>
@@ -9563,7 +6259,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/SubRES_TMPL/SubRes_RSD_Trans.xlsx
+++ b/SubRES_TMPL/SubRes_RSD_Trans.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\~g2v_TIMES-IE\main\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AA1899-A6F1-4A4A-AB6F-A5983C6A2293}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443F9EB5-C743-485E-8A18-87836CAB3D61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="2715" windowWidth="14400" windowHeight="6795" tabRatio="819" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37" yWindow="14385" windowWidth="14401" windowHeight="6795" tabRatio="819" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOG" sheetId="64" r:id="rId1"/>
@@ -1741,7 +1741,7 @@
                   <a14:compatExt spid="_x0000_s89089"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000015C0100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000015C0100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5153,7 +5153,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="32" t="str">
-        <f t="shared" ref="B6:B18" si="0">"R-S*"&amp;F6&amp;"_"&amp;G6&amp;"*"</f>
+        <f t="shared" ref="B6:B16" si="0">"R-S*"&amp;F6&amp;"_"&amp;G6&amp;"*"</f>
         <v>R-S*Apt_COA*</v>
       </c>
       <c r="C6" s="32" t="str">
@@ -5548,7 +5548,7 @@
       </c>
       <c r="D17" s="33">
         <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H17,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.0677847327291303E-2</v>
+        <v>5.3179934471147799E-2</v>
       </c>
       <c r="F17" s="33" t="s">
         <v>109</v>
@@ -5648,7 +5648,7 @@
         <v>82</v>
       </c>
       <c r="H20" s="32" t="str">
-        <f t="shared" ref="H20:H25" si="6">"R-S*_"&amp;F20&amp;"_"&amp;G20&amp;"*"</f>
+        <f t="shared" ref="H20:H23" si="6">"R-S*_"&amp;F20&amp;"_"&amp;G20&amp;"*"</f>
         <v>R-S*_Att_COA*</v>
       </c>
       <c r="J20" s="32" t="s">
@@ -5823,7 +5823,7 @@
         <v>201</v>
       </c>
       <c r="H25" s="33" t="str">
-        <f t="shared" ref="H25:H30" si="7">"R-S*_"&amp;F25&amp;"_"&amp;G25&amp;"*"</f>
+        <f t="shared" ref="H25" si="7">"R-S*_"&amp;F25&amp;"_"&amp;G25&amp;"*"</f>
         <v>R-S*_Att_KER*</v>
       </c>
     </row>
@@ -5976,7 +5976,7 @@
       </c>
       <c r="D31" s="33">
         <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H31,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.23960518419681501</v>
+        <v>0.249048421589953</v>
       </c>
       <c r="F31" s="33" t="s">
         <v>105</v>
@@ -6051,7 +6051,7 @@
         <v>82</v>
       </c>
       <c r="H34" s="32" t="str">
-        <f t="shared" ref="H34:H39" si="10">"R-S*_"&amp;F34&amp;"_"&amp;G34&amp;"*"</f>
+        <f t="shared" ref="H34:H37" si="10">"R-S*_"&amp;F34&amp;"_"&amp;G34&amp;"*"</f>
         <v>R-S*_Det_COA*</v>
       </c>
       <c r="I34" s="25"/>
@@ -6187,7 +6187,7 @@
         <v>201</v>
       </c>
       <c r="H39" s="33" t="str">
-        <f t="shared" ref="H39:H44" si="11">"R-S*_"&amp;F39&amp;"_"&amp;G39&amp;"*"</f>
+        <f t="shared" ref="H39" si="11">"R-S*_"&amp;F39&amp;"_"&amp;G39&amp;"*"</f>
         <v>R-S*_Det_KER*</v>
       </c>
     </row>
@@ -6340,7 +6340,7 @@
       </c>
       <c r="D45" s="33">
         <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H45,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.21841678709847501</v>
+        <v>0.22978380047467101</v>
       </c>
       <c r="F45" s="33" t="s">
         <v>115</v>
@@ -6579,7 +6579,7 @@
         <v>110</v>
       </c>
       <c r="H55" s="33" t="str">
-        <f>"R-WH_"&amp;F55&amp;"_"&amp;G55&amp;"*"</f>
+        <f t="shared" ref="H55:H60" si="14">"R-WH_"&amp;F55&amp;"_"&amp;G55&amp;"*"</f>
         <v>R-WH_Apt_PEA*</v>
       </c>
     </row>
@@ -6603,7 +6603,7 @@
         <v>111</v>
       </c>
       <c r="H56" s="32" t="str">
-        <f>"R-WH_"&amp;F56&amp;"_"&amp;G56&amp;"*"</f>
+        <f t="shared" si="14"/>
         <v>R-WH_Apt_SMF*</v>
       </c>
     </row>
@@ -6627,7 +6627,7 @@
         <v>203</v>
       </c>
       <c r="H57" s="33" t="str">
-        <f>"R-WH_"&amp;F57&amp;"_"&amp;G57&amp;"*"</f>
+        <f t="shared" si="14"/>
         <v>R-WH_Apt_WOO*</v>
       </c>
     </row>
@@ -6651,7 +6651,7 @@
         <v>84</v>
       </c>
       <c r="H58" s="32" t="str">
-        <f>"R-WH_"&amp;F58&amp;"_"&amp;G58&amp;"*"</f>
+        <f t="shared" si="14"/>
         <v>R-WH_Apt_HET*</v>
       </c>
     </row>
@@ -6675,7 +6675,7 @@
         <v>204</v>
       </c>
       <c r="H59" s="33" t="str">
-        <f>"R-WH_"&amp;F59&amp;"_"&amp;G59&amp;"*"</f>
+        <f t="shared" si="14"/>
         <v>R-WH_Apt_GEO*</v>
       </c>
     </row>
@@ -6699,7 +6699,7 @@
         <v>250</v>
       </c>
       <c r="H60" s="32" t="str">
-        <f>"R-WH_"&amp;F60&amp;"_"&amp;G60&amp;"*"</f>
+        <f t="shared" si="14"/>
         <v>R-WH_Apt_SOL*</v>
       </c>
     </row>
@@ -6720,7 +6720,7 @@
         <v>1</v>
       </c>
       <c r="B62" s="32" t="str">
-        <f t="shared" ref="B62:B73" si="14">"R-WH_"&amp;F62&amp;"_"&amp;G62&amp;"*"</f>
+        <f t="shared" ref="B62:B73" si="15">"R-WH_"&amp;F62&amp;"_"&amp;G62&amp;"*"</f>
         <v>R-WH_Att_COA*</v>
       </c>
       <c r="C62" s="32"/>
@@ -6735,7 +6735,7 @@
         <v>82</v>
       </c>
       <c r="H62" s="32" t="str">
-        <f t="shared" ref="H62:H67" si="15">"R-WH_"&amp;F62&amp;"_"&amp;G62&amp;"*"</f>
+        <f t="shared" ref="H62:H67" si="16">"R-WH_"&amp;F62&amp;"_"&amp;G62&amp;"*"</f>
         <v>R-WH_Att_COA*</v>
       </c>
     </row>
@@ -6744,7 +6744,7 @@
         <v>1</v>
       </c>
       <c r="B63" s="33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>R-WH_Att_BDL*</v>
       </c>
       <c r="C63" s="33"/>
@@ -6759,7 +6759,7 @@
         <v>199</v>
       </c>
       <c r="H63" s="33" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>R-WH_Att_BDL*</v>
       </c>
     </row>
@@ -6768,7 +6768,7 @@
         <v>1</v>
       </c>
       <c r="B64" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>R-WH_Att_ETH*</v>
       </c>
       <c r="C64" s="32"/>
@@ -6783,7 +6783,7 @@
         <v>198</v>
       </c>
       <c r="H64" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>R-WH_Att_ETH*</v>
       </c>
     </row>
@@ -6792,7 +6792,7 @@
         <v>263</v>
       </c>
       <c r="B65" s="33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>R-WH_Att_LPG*</v>
       </c>
       <c r="C65" s="33"/>
@@ -6807,7 +6807,7 @@
         <v>200</v>
       </c>
       <c r="H65" s="33" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>R-WH_Att_LPG*</v>
       </c>
     </row>
@@ -6816,7 +6816,7 @@
         <v>263</v>
       </c>
       <c r="B66" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>R-WH_Att_ELC*</v>
       </c>
       <c r="C66" s="32"/>
@@ -6840,7 +6840,7 @@
         <v>1</v>
       </c>
       <c r="B67" s="33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>R-WH_Att_KER*</v>
       </c>
       <c r="C67" s="33"/>
@@ -6855,7 +6855,7 @@
         <v>201</v>
       </c>
       <c r="H67" s="33" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>R-WH_Att_KER*</v>
       </c>
     </row>
@@ -6864,7 +6864,7 @@
         <v>263</v>
       </c>
       <c r="B68" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>R-WH_Att_GAS*</v>
       </c>
       <c r="C68" s="32"/>
@@ -6888,7 +6888,7 @@
         <v>1</v>
       </c>
       <c r="B69" s="33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>R-WH_Att_PEA*</v>
       </c>
       <c r="C69" s="33"/>
@@ -6903,7 +6903,7 @@
         <v>110</v>
       </c>
       <c r="H69" s="33" t="str">
-        <f>"R-WH_"&amp;F69&amp;"_"&amp;G69&amp;"*"</f>
+        <f t="shared" ref="H69:H74" si="17">"R-WH_"&amp;F69&amp;"_"&amp;G69&amp;"*"</f>
         <v>R-WH_Att_PEA*</v>
       </c>
     </row>
@@ -6912,7 +6912,7 @@
         <v>1</v>
       </c>
       <c r="B70" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>R-WH_Att_SMF*</v>
       </c>
       <c r="C70" s="32"/>
@@ -6927,7 +6927,7 @@
         <v>111</v>
       </c>
       <c r="H70" s="32" t="str">
-        <f>"R-WH_"&amp;F70&amp;"_"&amp;G70&amp;"*"</f>
+        <f t="shared" si="17"/>
         <v>R-WH_Att_SMF*</v>
       </c>
     </row>
@@ -6936,7 +6936,7 @@
         <v>263</v>
       </c>
       <c r="B71" s="33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>R-WH_Att_WOO*</v>
       </c>
       <c r="C71" s="33"/>
@@ -6951,7 +6951,7 @@
         <v>203</v>
       </c>
       <c r="H71" s="33" t="str">
-        <f>"R-WH_"&amp;F71&amp;"_"&amp;G71&amp;"*"</f>
+        <f t="shared" si="17"/>
         <v>R-WH_Att_WOO*</v>
       </c>
     </row>
@@ -6960,7 +6960,7 @@
         <v>1</v>
       </c>
       <c r="B72" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>R-WH_Att_HET*</v>
       </c>
       <c r="C72" s="32"/>
@@ -6975,7 +6975,7 @@
         <v>84</v>
       </c>
       <c r="H72" s="32" t="str">
-        <f>"R-WH_"&amp;F72&amp;"_"&amp;G72&amp;"*"</f>
+        <f t="shared" si="17"/>
         <v>R-WH_Att_HET*</v>
       </c>
     </row>
@@ -6984,7 +6984,7 @@
         <v>1</v>
       </c>
       <c r="B73" s="33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>R-WH_Att_GEO*</v>
       </c>
       <c r="C73" s="33"/>
@@ -6999,7 +6999,7 @@
         <v>204</v>
       </c>
       <c r="H73" s="33" t="str">
-        <f>"R-WH_"&amp;F73&amp;"_"&amp;G73&amp;"*"</f>
+        <f t="shared" si="17"/>
         <v>R-WH_Att_GEO*</v>
       </c>
     </row>
@@ -7023,7 +7023,7 @@
         <v>250</v>
       </c>
       <c r="H74" s="32" t="str">
-        <f>"R-WH_"&amp;F74&amp;"_"&amp;G74&amp;"*"</f>
+        <f t="shared" si="17"/>
         <v>R-WH_Att_SOL*</v>
       </c>
     </row>
@@ -7044,7 +7044,7 @@
         <v>1</v>
       </c>
       <c r="B76" s="32" t="str">
-        <f t="shared" ref="B76:B87" si="16">"R-WH_"&amp;F76&amp;"_"&amp;G76&amp;"*"</f>
+        <f t="shared" ref="B76:B87" si="18">"R-WH_"&amp;F76&amp;"_"&amp;G76&amp;"*"</f>
         <v>R-WH_Det_COA*</v>
       </c>
       <c r="C76" s="32"/>
@@ -7059,7 +7059,7 @@
         <v>82</v>
       </c>
       <c r="H76" s="32" t="str">
-        <f t="shared" ref="H76:H81" si="17">"R-WH_"&amp;F76&amp;"_"&amp;G76&amp;"*"</f>
+        <f t="shared" ref="H76:H81" si="19">"R-WH_"&amp;F76&amp;"_"&amp;G76&amp;"*"</f>
         <v>R-WH_Det_COA*</v>
       </c>
     </row>
@@ -7068,7 +7068,7 @@
         <v>1</v>
       </c>
       <c r="B77" s="33" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>R-WH_Det_BDL*</v>
       </c>
       <c r="C77" s="33"/>
@@ -7083,7 +7083,7 @@
         <v>199</v>
       </c>
       <c r="H77" s="33" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>R-WH_Det_BDL*</v>
       </c>
     </row>
@@ -7092,7 +7092,7 @@
         <v>1</v>
       </c>
       <c r="B78" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>R-WH_Det_ETH*</v>
       </c>
       <c r="C78" s="32"/>
@@ -7107,7 +7107,7 @@
         <v>198</v>
       </c>
       <c r="H78" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>R-WH_Det_ETH*</v>
       </c>
     </row>
@@ -7116,7 +7116,7 @@
         <v>263</v>
       </c>
       <c r="B79" s="33" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>R-WH_Det_LPG*</v>
       </c>
       <c r="C79" s="33"/>
@@ -7131,7 +7131,7 @@
         <v>200</v>
       </c>
       <c r="H79" s="33" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>R-WH_Det_LPG*</v>
       </c>
     </row>
@@ -7140,7 +7140,7 @@
         <v>263</v>
       </c>
       <c r="B80" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>R-WH_Det_ELC*</v>
       </c>
       <c r="C80" s="32"/>
@@ -7164,7 +7164,7 @@
         <v>1</v>
       </c>
       <c r="B81" s="33" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>R-WH_Det_KER*</v>
       </c>
       <c r="C81" s="33"/>
@@ -7179,7 +7179,7 @@
         <v>201</v>
       </c>
       <c r="H81" s="33" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>R-WH_Det_KER*</v>
       </c>
     </row>
@@ -7188,7 +7188,7 @@
         <v>263</v>
       </c>
       <c r="B82" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>R-WH_Det_GAS*</v>
       </c>
       <c r="C82" s="32"/>
@@ -7212,7 +7212,7 @@
         <v>1</v>
       </c>
       <c r="B83" s="33" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>R-WH_Det_PEA*</v>
       </c>
       <c r="C83" s="33"/>
@@ -7227,7 +7227,7 @@
         <v>110</v>
       </c>
       <c r="H83" s="33" t="str">
-        <f>"R-WH_"&amp;F83&amp;"_"&amp;G83&amp;"*"</f>
+        <f t="shared" ref="H83:H88" si="20">"R-WH_"&amp;F83&amp;"_"&amp;G83&amp;"*"</f>
         <v>R-WH_Det_PEA*</v>
       </c>
     </row>
@@ -7236,7 +7236,7 @@
         <v>1</v>
       </c>
       <c r="B84" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>R-WH_Det_SMF*</v>
       </c>
       <c r="C84" s="32"/>
@@ -7251,7 +7251,7 @@
         <v>111</v>
       </c>
       <c r="H84" s="32" t="str">
-        <f>"R-WH_"&amp;F84&amp;"_"&amp;G84&amp;"*"</f>
+        <f t="shared" si="20"/>
         <v>R-WH_Det_SMF*</v>
       </c>
     </row>
@@ -7260,7 +7260,7 @@
         <v>263</v>
       </c>
       <c r="B85" s="33" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>R-WH_Det_WOO*</v>
       </c>
       <c r="C85" s="33"/>
@@ -7275,7 +7275,7 @@
         <v>203</v>
       </c>
       <c r="H85" s="33" t="str">
-        <f>"R-WH_"&amp;F85&amp;"_"&amp;G85&amp;"*"</f>
+        <f t="shared" si="20"/>
         <v>R-WH_Det_WOO*</v>
       </c>
     </row>
@@ -7284,7 +7284,7 @@
         <v>1</v>
       </c>
       <c r="B86" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>R-WH_Det_HET*</v>
       </c>
       <c r="C86" s="32"/>
@@ -7299,7 +7299,7 @@
         <v>84</v>
       </c>
       <c r="H86" s="32" t="str">
-        <f>"R-WH_"&amp;F86&amp;"_"&amp;G86&amp;"*"</f>
+        <f t="shared" si="20"/>
         <v>R-WH_Det_HET*</v>
       </c>
     </row>
@@ -7308,7 +7308,7 @@
         <v>1</v>
       </c>
       <c r="B87" s="33" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>R-WH_Det_GEO*</v>
       </c>
       <c r="C87" s="33"/>
@@ -7323,7 +7323,7 @@
         <v>204</v>
       </c>
       <c r="H87" s="33" t="str">
-        <f>"R-WH_"&amp;F87&amp;"_"&amp;G87&amp;"*"</f>
+        <f t="shared" si="20"/>
         <v>R-WH_Det_GEO*</v>
       </c>
     </row>
@@ -7347,7 +7347,7 @@
         <v>250</v>
       </c>
       <c r="H88" s="32" t="str">
-        <f>"R-WH_"&amp;F88&amp;"_"&amp;G88&amp;"*"</f>
+        <f t="shared" si="20"/>
         <v>R-WH_Det_SOL*</v>
       </c>
     </row>
@@ -7385,7 +7385,7 @@
         <v>82</v>
       </c>
       <c r="H90" s="32" t="str">
-        <f t="shared" ref="H90:H93" si="18">"R-WH_"&amp;F90&amp;"_"&amp;G90&amp;"*"</f>
+        <f t="shared" ref="H90:H93" si="21">"R-WH_"&amp;F90&amp;"_"&amp;G90&amp;"*"</f>
         <v>R-WH_Apt_COA*</v>
       </c>
     </row>
@@ -7394,11 +7394,11 @@
         <v>1</v>
       </c>
       <c r="B91" s="33" t="str">
-        <f t="shared" ref="B91:B102" si="19">"R-SW_"&amp;F91&amp;"_"&amp;G91&amp;"*"</f>
+        <f t="shared" ref="B91:B102" si="22">"R-SW_"&amp;F91&amp;"_"&amp;G91&amp;"*"</f>
         <v>R-SW_Apt_BDL*</v>
       </c>
       <c r="C91" s="33" t="str">
-        <f t="shared" ref="C91:C102" si="20">"RSDWH_"&amp;F91</f>
+        <f t="shared" ref="C91:C102" si="23">"RSDWH_"&amp;F91</f>
         <v>RSDWH_Apt</v>
       </c>
       <c r="D91" s="33">
@@ -7412,7 +7412,7 @@
         <v>199</v>
       </c>
       <c r="H91" s="33" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>R-WH_Apt_BDL*</v>
       </c>
     </row>
@@ -7421,11 +7421,11 @@
         <v>1</v>
       </c>
       <c r="B92" s="32" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>R-SW_Apt_ETH*</v>
       </c>
       <c r="C92" s="32" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>RSDWH_Apt</v>
       </c>
       <c r="D92" s="32">
@@ -7439,7 +7439,7 @@
         <v>198</v>
       </c>
       <c r="H92" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>R-WH_Apt_ETH*</v>
       </c>
     </row>
@@ -7448,11 +7448,11 @@
         <v>265</v>
       </c>
       <c r="B93" s="33" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>R-SW_Apt_LPG*</v>
       </c>
       <c r="C93" s="33" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>RSDWH_Apt</v>
       </c>
       <c r="D93" s="33">
@@ -7466,7 +7466,7 @@
         <v>200</v>
       </c>
       <c r="H93" s="33" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>R-WH_Apt_LPG*</v>
       </c>
     </row>
@@ -7479,7 +7479,7 @@
         <v>R-SW_Apt_ELC_N1</v>
       </c>
       <c r="C94" s="32" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>RSDWH_Apt</v>
       </c>
       <c r="D94" s="32">
@@ -7506,7 +7506,7 @@
         <v>R-SW_Apt_ELC_HP*</v>
       </c>
       <c r="C95" s="32" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>RSDWH_Apt</v>
       </c>
       <c r="D95" s="32">
@@ -7529,11 +7529,11 @@
         <v>265</v>
       </c>
       <c r="B96" s="33" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>R-SW_Apt_KER*</v>
       </c>
       <c r="C96" s="33" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>RSDWH_Apt</v>
       </c>
       <c r="D96" s="33">
@@ -7547,7 +7547,7 @@
         <v>201</v>
       </c>
       <c r="H96" s="33" t="str">
-        <f t="shared" ref="H96" si="21">"R-WH_"&amp;F96&amp;"_"&amp;G96&amp;"*"</f>
+        <f t="shared" ref="H96" si="24">"R-WH_"&amp;F96&amp;"_"&amp;G96&amp;"*"</f>
         <v>R-WH_Apt_KER*</v>
       </c>
     </row>
@@ -7556,11 +7556,11 @@
         <v>265</v>
       </c>
       <c r="B97" s="32" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>R-SW_Apt_GAS*</v>
       </c>
       <c r="C97" s="32" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>RSDWH_Apt</v>
       </c>
       <c r="D97" s="32">
@@ -7583,11 +7583,11 @@
         <v>1</v>
       </c>
       <c r="B98" s="33" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>R-SW_Apt_PEA*</v>
       </c>
       <c r="C98" s="33" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>RSDWH_Apt</v>
       </c>
       <c r="D98" s="33">
@@ -7610,11 +7610,11 @@
         <v>1</v>
       </c>
       <c r="B99" s="32" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>R-SW_Apt_SMF*</v>
       </c>
       <c r="C99" s="32" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>RSDWH_Apt</v>
       </c>
       <c r="D99" s="32">
@@ -7637,11 +7637,11 @@
         <v>265</v>
       </c>
       <c r="B100" s="33" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>R-SW_Apt_WOO*</v>
       </c>
       <c r="C100" s="33" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>RSDWH_Apt</v>
       </c>
       <c r="D100" s="33">
@@ -7664,11 +7664,11 @@
         <v>265</v>
       </c>
       <c r="B101" s="32" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>R-SW_Apt_HET*</v>
       </c>
       <c r="C101" s="32" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>RSDWH_Apt</v>
       </c>
       <c r="D101" s="32">
@@ -7691,11 +7691,11 @@
         <v>1</v>
       </c>
       <c r="B102" s="33" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>R-SW_Apt_SOL*</v>
       </c>
       <c r="C102" s="33" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>RSDWH_Apt</v>
       </c>
       <c r="D102" s="33">
@@ -7734,7 +7734,7 @@
         <v>R-SW_Att_COA*</v>
       </c>
       <c r="C104" s="32" t="str">
-        <f t="shared" ref="C104:C116" si="22">"RSDWH_"&amp;F104</f>
+        <f t="shared" ref="C104:C116" si="25">"RSDWH_"&amp;F104</f>
         <v>RSDWH_Att</v>
       </c>
       <c r="D104" s="32">
@@ -7748,7 +7748,7 @@
         <v>82</v>
       </c>
       <c r="H104" s="32" t="str">
-        <f t="shared" ref="H104:H107" si="23">"R-WH_"&amp;F104&amp;"_"&amp;G104&amp;"*"</f>
+        <f t="shared" ref="H104:H107" si="26">"R-WH_"&amp;F104&amp;"_"&amp;G104&amp;"*"</f>
         <v>R-WH_Att_COA*</v>
       </c>
     </row>
@@ -7757,11 +7757,11 @@
         <v>1</v>
       </c>
       <c r="B105" s="33" t="str">
-        <f t="shared" ref="B105:B116" si="24">"R-SW_"&amp;F105&amp;"_"&amp;G105&amp;"*"</f>
+        <f t="shared" ref="B105:B116" si="27">"R-SW_"&amp;F105&amp;"_"&amp;G105&amp;"*"</f>
         <v>R-SW_Att_BDL*</v>
       </c>
       <c r="C105" s="33" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>RSDWH_Att</v>
       </c>
       <c r="D105" s="33">
@@ -7775,7 +7775,7 @@
         <v>199</v>
       </c>
       <c r="H105" s="33" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>R-WH_Att_BDL*</v>
       </c>
     </row>
@@ -7784,11 +7784,11 @@
         <v>1</v>
       </c>
       <c r="B106" s="32" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>R-SW_Att_ETH*</v>
       </c>
       <c r="C106" s="32" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>RSDWH_Att</v>
       </c>
       <c r="D106" s="32">
@@ -7802,7 +7802,7 @@
         <v>198</v>
       </c>
       <c r="H106" s="32" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>R-WH_Att_ETH*</v>
       </c>
     </row>
@@ -7811,11 +7811,11 @@
         <v>265</v>
       </c>
       <c r="B107" s="33" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>R-SW_Att_LPG*</v>
       </c>
       <c r="C107" s="33" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>RSDWH_Att</v>
       </c>
       <c r="D107" s="33">
@@ -7829,7 +7829,7 @@
         <v>200</v>
       </c>
       <c r="H107" s="33" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>R-WH_Att_LPG*</v>
       </c>
     </row>
@@ -7842,7 +7842,7 @@
         <v>R-SW_Att_ELC_N1</v>
       </c>
       <c r="C108" s="32" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>RSDWH_Att</v>
       </c>
       <c r="D108" s="32">
@@ -7869,7 +7869,7 @@
         <v>R-SW_Att_ELC_HP*</v>
       </c>
       <c r="C109" s="32" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>RSDWH_Att</v>
       </c>
       <c r="D109" s="32">
@@ -7892,11 +7892,11 @@
         <v>265</v>
       </c>
       <c r="B110" s="33" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>R-SW_Att_KER*</v>
       </c>
       <c r="C110" s="33" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>RSDWH_Att</v>
       </c>
       <c r="D110" s="33">
@@ -7910,7 +7910,7 @@
         <v>201</v>
       </c>
       <c r="H110" s="33" t="str">
-        <f t="shared" ref="H110" si="25">"R-WH_"&amp;F110&amp;"_"&amp;G110&amp;"*"</f>
+        <f t="shared" ref="H110" si="28">"R-WH_"&amp;F110&amp;"_"&amp;G110&amp;"*"</f>
         <v>R-WH_Att_KER*</v>
       </c>
     </row>
@@ -7919,11 +7919,11 @@
         <v>265</v>
       </c>
       <c r="B111" s="32" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>R-SW_Att_GAS*</v>
       </c>
       <c r="C111" s="32" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>RSDWH_Att</v>
       </c>
       <c r="D111" s="32">
@@ -7946,11 +7946,11 @@
         <v>1</v>
       </c>
       <c r="B112" s="33" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>R-SW_Att_PEA*</v>
       </c>
       <c r="C112" s="33" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>RSDWH_Att</v>
       </c>
       <c r="D112" s="33">
@@ -7973,11 +7973,11 @@
         <v>1</v>
       </c>
       <c r="B113" s="32" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>R-SW_Att_SMF*</v>
       </c>
       <c r="C113" s="32" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>RSDWH_Att</v>
       </c>
       <c r="D113" s="32">
@@ -8000,11 +8000,11 @@
         <v>265</v>
       </c>
       <c r="B114" s="33" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>R-SW_Att_WOO*</v>
       </c>
       <c r="C114" s="33" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>RSDWH_Att</v>
       </c>
       <c r="D114" s="33">
@@ -8027,11 +8027,11 @@
         <v>265</v>
       </c>
       <c r="B115" s="32" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>R-SW_Att_HET*</v>
       </c>
       <c r="C115" s="32" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>RSDWH_Att</v>
       </c>
       <c r="D115" s="32">
@@ -8054,11 +8054,11 @@
         <v>1</v>
       </c>
       <c r="B116" s="33" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>R-SW_Att_SOL*</v>
       </c>
       <c r="C116" s="33" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>RSDWH_Att</v>
       </c>
       <c r="D116" s="33">
@@ -8093,11 +8093,11 @@
         <v>1</v>
       </c>
       <c r="B118" s="32" t="str">
-        <f t="shared" ref="B118:B130" si="26">"R-SW_"&amp;F118&amp;"_"&amp;G118&amp;"*"</f>
+        <f t="shared" ref="B118:B130" si="29">"R-SW_"&amp;F118&amp;"_"&amp;G118&amp;"*"</f>
         <v>R-SW_Det_COA*</v>
       </c>
       <c r="C118" s="32" t="str">
-        <f t="shared" ref="C118:C130" si="27">"RSDWH_"&amp;F118</f>
+        <f t="shared" ref="C118:C130" si="30">"RSDWH_"&amp;F118</f>
         <v>RSDWH_Det</v>
       </c>
       <c r="D118" s="32">
@@ -8111,7 +8111,7 @@
         <v>82</v>
       </c>
       <c r="H118" s="32" t="str">
-        <f t="shared" ref="H118:H121" si="28">"R-WH_"&amp;F118&amp;"_"&amp;G118&amp;"*"</f>
+        <f t="shared" ref="H118:H121" si="31">"R-WH_"&amp;F118&amp;"_"&amp;G118&amp;"*"</f>
         <v>R-WH_Det_COA*</v>
       </c>
     </row>
@@ -8120,11 +8120,11 @@
         <v>1</v>
       </c>
       <c r="B119" s="33" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>R-SW_Det_BDL*</v>
       </c>
       <c r="C119" s="33" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>RSDWH_Det</v>
       </c>
       <c r="D119" s="33">
@@ -8138,7 +8138,7 @@
         <v>199</v>
       </c>
       <c r="H119" s="33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>R-WH_Det_BDL*</v>
       </c>
     </row>
@@ -8147,11 +8147,11 @@
         <v>1</v>
       </c>
       <c r="B120" s="32" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>R-SW_Det_ETH*</v>
       </c>
       <c r="C120" s="32" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>RSDWH_Det</v>
       </c>
       <c r="D120" s="32">
@@ -8165,7 +8165,7 @@
         <v>198</v>
       </c>
       <c r="H120" s="32" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>R-WH_Det_ETH*</v>
       </c>
     </row>
@@ -8174,11 +8174,11 @@
         <v>265</v>
       </c>
       <c r="B121" s="33" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>R-SW_Det_LPG*</v>
       </c>
       <c r="C121" s="33" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>RSDWH_Det</v>
       </c>
       <c r="D121" s="33">
@@ -8192,7 +8192,7 @@
         <v>200</v>
       </c>
       <c r="H121" s="33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>R-WH_Det_LPG*</v>
       </c>
     </row>
@@ -8205,7 +8205,7 @@
         <v>R-SW_Det_ELC_N1</v>
       </c>
       <c r="C122" s="32" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>RSDWH_Det</v>
       </c>
       <c r="D122" s="32">
@@ -8232,7 +8232,7 @@
         <v>R-SW_Det_ELC_HP*</v>
       </c>
       <c r="C123" s="32" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>RSDWH_Det</v>
       </c>
       <c r="D123" s="32">
@@ -8255,11 +8255,11 @@
         <v>265</v>
       </c>
       <c r="B124" s="33" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>R-SW_Det_KER*</v>
       </c>
       <c r="C124" s="33" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>RSDWH_Det</v>
       </c>
       <c r="D124" s="33">
@@ -8273,7 +8273,7 @@
         <v>201</v>
       </c>
       <c r="H124" s="33" t="str">
-        <f t="shared" ref="H124" si="29">"R-WH_"&amp;F124&amp;"_"&amp;G124&amp;"*"</f>
+        <f t="shared" ref="H124" si="32">"R-WH_"&amp;F124&amp;"_"&amp;G124&amp;"*"</f>
         <v>R-WH_Det_KER*</v>
       </c>
     </row>
@@ -8282,11 +8282,11 @@
         <v>265</v>
       </c>
       <c r="B125" s="32" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>R-SW_Det_GAS*</v>
       </c>
       <c r="C125" s="32" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>RSDWH_Det</v>
       </c>
       <c r="D125" s="32">
@@ -8309,11 +8309,11 @@
         <v>1</v>
       </c>
       <c r="B126" s="33" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>R-SW_Det_PEA*</v>
       </c>
       <c r="C126" s="33" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>RSDWH_Det</v>
       </c>
       <c r="D126" s="33">
@@ -8336,11 +8336,11 @@
         <v>1</v>
       </c>
       <c r="B127" s="32" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>R-SW_Det_SMF*</v>
       </c>
       <c r="C127" s="32" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>RSDWH_Det</v>
       </c>
       <c r="D127" s="32">
@@ -8363,11 +8363,11 @@
         <v>265</v>
       </c>
       <c r="B128" s="33" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>R-SW_Det_WOO*</v>
       </c>
       <c r="C128" s="33" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>RSDWH_Det</v>
       </c>
       <c r="D128" s="33">
@@ -8390,11 +8390,11 @@
         <v>265</v>
       </c>
       <c r="B129" s="32" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>R-SW_Det_HET*</v>
       </c>
       <c r="C129" s="32" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>RSDWH_Det</v>
       </c>
       <c r="D129" s="32">
@@ -8417,11 +8417,11 @@
         <v>1</v>
       </c>
       <c r="B130" s="38" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>R-SW_Det_SOL*</v>
       </c>
       <c r="C130" s="38" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>RSDWH_Det</v>
       </c>
       <c r="D130" s="38">
@@ -8471,7 +8471,7 @@
         <v>83</v>
       </c>
       <c r="H132" s="39" t="str">
-        <f t="shared" ref="H132:H134" si="30">"R-SH_"&amp;F132&amp;"_"&amp;G132&amp;"*X1"</f>
+        <f t="shared" ref="H132:H134" si="33">"R-SH_"&amp;F132&amp;"_"&amp;G132&amp;"*X1"</f>
         <v>R-SH_Apt_ELC*X1</v>
       </c>
     </row>
@@ -8495,7 +8495,7 @@
         <v>83</v>
       </c>
       <c r="H133" s="39" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>R-SH_Att_ELC*X1</v>
       </c>
     </row>
@@ -8519,7 +8519,7 @@
         <v>83</v>
       </c>
       <c r="H134" s="39" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>R-SH_Det_ELC*X1</v>
       </c>
     </row>
@@ -8558,7 +8558,7 @@
         <v>83</v>
       </c>
       <c r="H136" s="39" t="str">
-        <f t="shared" ref="H136:H138" si="31">"R-SH_"&amp;F136&amp;"_"&amp;G136&amp;"*X1"</f>
+        <f t="shared" ref="H136:H138" si="34">"R-SH_"&amp;F136&amp;"_"&amp;G136&amp;"*X1"</f>
         <v>R-SH_Apt_ELC*X1</v>
       </c>
     </row>
@@ -8585,7 +8585,7 @@
         <v>83</v>
       </c>
       <c r="H137" s="39" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>R-SH_Att_ELC*X1</v>
       </c>
     </row>
@@ -8612,7 +8612,7 @@
         <v>83</v>
       </c>
       <c r="H138" s="41" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>R-SH_Det_ELC*X1</v>
       </c>
     </row>
@@ -12608,10 +12608,10 @@
         <v>132</v>
       </c>
       <c r="L8">
-        <v>5.0677847327291303E-2</v>
+        <v>5.3179934471147799E-2</v>
       </c>
       <c r="M8">
-        <v>5.0677847327291303E-2</v>
+        <v>5.3179934471147799E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -13141,10 +13141,10 @@
         <v>132</v>
       </c>
       <c r="L21">
-        <v>0.23960518419681501</v>
+        <v>0.249048421589953</v>
       </c>
       <c r="M21">
-        <v>0.23960518419681501</v>
+        <v>0.249048421589953</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -13674,10 +13674,10 @@
         <v>132</v>
       </c>
       <c r="L34">
-        <v>0.21841678709847501</v>
+        <v>0.22978380047467101</v>
       </c>
       <c r="M34">
-        <v>0.21841678709847501</v>
+        <v>0.22978380047467101</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">

--- a/SubRES_TMPL/SubRes_RSD_Trans.xlsx
+++ b/SubRES_TMPL/SubRes_RSD_Trans.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\~g2v_TIMES-IE\main\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443F9EB5-C743-485E-8A18-87836CAB3D61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205EADA9-E86C-4486-87E7-FE25899F6B3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37" yWindow="14385" windowWidth="14401" windowHeight="6795" tabRatio="819" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="819" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOG" sheetId="64" r:id="rId1"/>
@@ -18,21 +18,22 @@
     <sheet name="TechSelection" sheetId="34" r:id="rId3"/>
     <sheet name="FillTable" sheetId="47" r:id="rId4"/>
     <sheet name="AF" sheetId="48" r:id="rId5"/>
-    <sheet name="EFF" sheetId="61" r:id="rId6"/>
-    <sheet name="BY-RSD-WH_AF" sheetId="63" r:id="rId7"/>
-    <sheet name="BY-RSD-SH_AF" sheetId="62" r:id="rId8"/>
-    <sheet name="BY-RSD-EFF" sheetId="60" r:id="rId9"/>
-    <sheet name="BY-RSD-DW" sheetId="57" r:id="rId10"/>
-    <sheet name="BY-RSD-PF" sheetId="56" r:id="rId11"/>
-    <sheet name="BY-RSD-CD" sheetId="55" r:id="rId12"/>
-    <sheet name="BY-RSD-LT" sheetId="54" r:id="rId13"/>
-    <sheet name="BY-RSD-CW" sheetId="53" r:id="rId14"/>
-    <sheet name="BY-RSD-CK" sheetId="52" r:id="rId15"/>
-    <sheet name="BY-RSD-RF" sheetId="50" r:id="rId16"/>
-    <sheet name="BY-RSD-OE" sheetId="59" r:id="rId17"/>
+    <sheet name="temp_capex" sheetId="65" r:id="rId6"/>
+    <sheet name="EFF" sheetId="61" r:id="rId7"/>
+    <sheet name="BY-RSD-WH_AF" sheetId="63" r:id="rId8"/>
+    <sheet name="BY-RSD-SH_AF" sheetId="62" r:id="rId9"/>
+    <sheet name="BY-RSD-EFF" sheetId="60" r:id="rId10"/>
+    <sheet name="BY-RSD-DW" sheetId="57" r:id="rId11"/>
+    <sheet name="BY-RSD-PF" sheetId="56" r:id="rId12"/>
+    <sheet name="BY-RSD-CD" sheetId="55" r:id="rId13"/>
+    <sheet name="BY-RSD-LT" sheetId="54" r:id="rId14"/>
+    <sheet name="BY-RSD-CW" sheetId="53" r:id="rId15"/>
+    <sheet name="BY-RSD-CK" sheetId="52" r:id="rId16"/>
+    <sheet name="BY-RSD-RF" sheetId="50" r:id="rId17"/>
+    <sheet name="BY-RSD-OE" sheetId="59" r:id="rId18"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId18"/>
+    <externalReference r:id="rId19"/>
   </externalReferences>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
@@ -494,7 +495,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2753" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2760" uniqueCount="273">
   <si>
     <t>IE</t>
   </si>
@@ -1322,6 +1323,15 @@
   </si>
   <si>
     <t>*Space Cooling (dual techs)</t>
+  </si>
+  <si>
+    <t>NCAP_COST</t>
+  </si>
+  <si>
+    <t>R-S*,R-H*,R-W*</t>
+  </si>
+  <si>
+    <t>*0.1</t>
   </si>
 </sst>
 </file>
@@ -1593,7 +1603,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1688,6 +1698,9 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2310,6 +2323,3261 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049C6FC2-EA1E-4C97-AFD6-725E147BEBCD}">
+  <dimension ref="A1:M79"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2">
+        <v>2018</v>
+      </c>
+      <c r="H2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L2">
+        <v>0.9</v>
+      </c>
+      <c r="M2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G3">
+        <v>2018</v>
+      </c>
+      <c r="H3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K3" t="s">
+        <v>132</v>
+      </c>
+      <c r="L3">
+        <v>0.59018803418803401</v>
+      </c>
+      <c r="M3">
+        <v>0.59018803418803401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G4">
+        <v>2018</v>
+      </c>
+      <c r="H4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J4" t="s">
+        <v>132</v>
+      </c>
+      <c r="K4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G5">
+        <v>2018</v>
+      </c>
+      <c r="H5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I5" t="s">
+        <v>132</v>
+      </c>
+      <c r="J5" t="s">
+        <v>132</v>
+      </c>
+      <c r="K5" t="s">
+        <v>132</v>
+      </c>
+      <c r="L5">
+        <v>3.07019607843137</v>
+      </c>
+      <c r="M5">
+        <v>3.07019607843137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G6">
+        <v>2018</v>
+      </c>
+      <c r="H6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I6" t="s">
+        <v>132</v>
+      </c>
+      <c r="J6" t="s">
+        <v>132</v>
+      </c>
+      <c r="K6" t="s">
+        <v>132</v>
+      </c>
+      <c r="L6">
+        <v>0.9</v>
+      </c>
+      <c r="M6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G7">
+        <v>2018</v>
+      </c>
+      <c r="H7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L7">
+        <v>0.810268817204301</v>
+      </c>
+      <c r="M7">
+        <v>0.810268817204301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G8">
+        <v>2018</v>
+      </c>
+      <c r="H8" t="s">
+        <v>132</v>
+      </c>
+      <c r="I8" t="s">
+        <v>132</v>
+      </c>
+      <c r="J8" t="s">
+        <v>132</v>
+      </c>
+      <c r="K8" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8">
+        <v>3.07019607843137</v>
+      </c>
+      <c r="M8">
+        <v>3.07019607843137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G9">
+        <v>2018</v>
+      </c>
+      <c r="H9" t="s">
+        <v>132</v>
+      </c>
+      <c r="I9" t="s">
+        <v>132</v>
+      </c>
+      <c r="J9" t="s">
+        <v>132</v>
+      </c>
+      <c r="K9" t="s">
+        <v>132</v>
+      </c>
+      <c r="L9">
+        <v>0.39838442187649997</v>
+      </c>
+      <c r="M9">
+        <v>0.39838442187649997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G10">
+        <v>2018</v>
+      </c>
+      <c r="H10" t="s">
+        <v>132</v>
+      </c>
+      <c r="I10" t="s">
+        <v>132</v>
+      </c>
+      <c r="J10" t="s">
+        <v>132</v>
+      </c>
+      <c r="K10" t="s">
+        <v>132</v>
+      </c>
+      <c r="L10">
+        <v>0.81016216216216197</v>
+      </c>
+      <c r="M10">
+        <v>0.81016216216216197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" t="s">
+        <v>213</v>
+      </c>
+      <c r="D11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" t="s">
+        <v>187</v>
+      </c>
+      <c r="G11">
+        <v>2018</v>
+      </c>
+      <c r="H11" t="s">
+        <v>132</v>
+      </c>
+      <c r="I11" t="s">
+        <v>132</v>
+      </c>
+      <c r="J11" t="s">
+        <v>132</v>
+      </c>
+      <c r="K11" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11">
+        <v>0.80677902621722797</v>
+      </c>
+      <c r="M11">
+        <v>0.80677902621722797</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" t="s">
+        <v>187</v>
+      </c>
+      <c r="G12">
+        <v>2018</v>
+      </c>
+      <c r="H12" t="s">
+        <v>132</v>
+      </c>
+      <c r="I12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L12">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="M12">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" t="s">
+        <v>187</v>
+      </c>
+      <c r="G13">
+        <v>2018</v>
+      </c>
+      <c r="H13" t="s">
+        <v>132</v>
+      </c>
+      <c r="I13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" t="s">
+        <v>132</v>
+      </c>
+      <c r="L13">
+        <v>0.58177777777777795</v>
+      </c>
+      <c r="M13">
+        <v>0.58177777777777795</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" t="s">
+        <v>214</v>
+      </c>
+      <c r="D14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" t="s">
+        <v>187</v>
+      </c>
+      <c r="G14">
+        <v>2018</v>
+      </c>
+      <c r="H14" t="s">
+        <v>132</v>
+      </c>
+      <c r="I14" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K14" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14">
+        <v>0.68804511278195502</v>
+      </c>
+      <c r="M14">
+        <v>0.68804511278195502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" t="s">
+        <v>215</v>
+      </c>
+      <c r="D15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" t="s">
+        <v>187</v>
+      </c>
+      <c r="G15">
+        <v>2018</v>
+      </c>
+      <c r="H15" t="s">
+        <v>132</v>
+      </c>
+      <c r="I15" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" t="s">
+        <v>187</v>
+      </c>
+      <c r="G16">
+        <v>2018</v>
+      </c>
+      <c r="H16" t="s">
+        <v>132</v>
+      </c>
+      <c r="I16" t="s">
+        <v>132</v>
+      </c>
+      <c r="J16" t="s">
+        <v>132</v>
+      </c>
+      <c r="K16" t="s">
+        <v>132</v>
+      </c>
+      <c r="L16">
+        <v>0.55798087905732696</v>
+      </c>
+      <c r="M16">
+        <v>0.55798087905732696</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" t="s">
+        <v>187</v>
+      </c>
+      <c r="G17">
+        <v>2018</v>
+      </c>
+      <c r="H17" t="s">
+        <v>132</v>
+      </c>
+      <c r="I17" t="s">
+        <v>132</v>
+      </c>
+      <c r="J17" t="s">
+        <v>132</v>
+      </c>
+      <c r="K17" t="s">
+        <v>132</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18">
+        <v>2018</v>
+      </c>
+      <c r="H18" t="s">
+        <v>132</v>
+      </c>
+      <c r="I18" t="s">
+        <v>132</v>
+      </c>
+      <c r="J18" t="s">
+        <v>132</v>
+      </c>
+      <c r="K18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L18">
+        <v>3.1157627118644098</v>
+      </c>
+      <c r="M18">
+        <v>3.1157627118644098</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C19" t="s">
+        <v>216</v>
+      </c>
+      <c r="D19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" t="s">
+        <v>187</v>
+      </c>
+      <c r="G19">
+        <v>2018</v>
+      </c>
+      <c r="H19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I19" t="s">
+        <v>132</v>
+      </c>
+      <c r="J19" t="s">
+        <v>132</v>
+      </c>
+      <c r="K19" t="s">
+        <v>132</v>
+      </c>
+      <c r="L19">
+        <v>0.9</v>
+      </c>
+      <c r="M19">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" t="s">
+        <v>217</v>
+      </c>
+      <c r="D20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" t="s">
+        <v>187</v>
+      </c>
+      <c r="G20">
+        <v>2018</v>
+      </c>
+      <c r="H20" t="s">
+        <v>132</v>
+      </c>
+      <c r="I20" t="s">
+        <v>132</v>
+      </c>
+      <c r="J20" t="s">
+        <v>132</v>
+      </c>
+      <c r="K20" t="s">
+        <v>132</v>
+      </c>
+      <c r="L20">
+        <v>0.81729411764705895</v>
+      </c>
+      <c r="M20">
+        <v>0.81729411764705895</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" t="s">
+        <v>187</v>
+      </c>
+      <c r="G21">
+        <v>2018</v>
+      </c>
+      <c r="H21" t="s">
+        <v>132</v>
+      </c>
+      <c r="I21" t="s">
+        <v>132</v>
+      </c>
+      <c r="J21" t="s">
+        <v>132</v>
+      </c>
+      <c r="K21" t="s">
+        <v>132</v>
+      </c>
+      <c r="L21">
+        <v>3.1157627118644098</v>
+      </c>
+      <c r="M21">
+        <v>3.1157627118644098</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
+        <v>185</v>
+      </c>
+      <c r="C22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" t="s">
+        <v>187</v>
+      </c>
+      <c r="G22">
+        <v>2018</v>
+      </c>
+      <c r="H22" t="s">
+        <v>132</v>
+      </c>
+      <c r="I22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J22" t="s">
+        <v>132</v>
+      </c>
+      <c r="K22" t="s">
+        <v>132</v>
+      </c>
+      <c r="L22">
+        <v>0.60949973059968399</v>
+      </c>
+      <c r="M22">
+        <v>0.60949973059968399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C23" t="s">
+        <v>219</v>
+      </c>
+      <c r="D23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G23">
+        <v>2018</v>
+      </c>
+      <c r="H23" t="s">
+        <v>132</v>
+      </c>
+      <c r="I23" t="s">
+        <v>132</v>
+      </c>
+      <c r="J23" t="s">
+        <v>132</v>
+      </c>
+      <c r="K23" t="s">
+        <v>132</v>
+      </c>
+      <c r="L23">
+        <v>0.81941558441558404</v>
+      </c>
+      <c r="M23">
+        <v>0.81941558441558404</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24">
+        <v>2018</v>
+      </c>
+      <c r="H24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J24" t="s">
+        <v>132</v>
+      </c>
+      <c r="K24" t="s">
+        <v>132</v>
+      </c>
+      <c r="L24">
+        <v>0.80707577433628297</v>
+      </c>
+      <c r="M24">
+        <v>0.80707577433628297</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" t="s">
+        <v>187</v>
+      </c>
+      <c r="G25">
+        <v>2018</v>
+      </c>
+      <c r="H25" t="s">
+        <v>132</v>
+      </c>
+      <c r="I25" t="s">
+        <v>132</v>
+      </c>
+      <c r="J25" t="s">
+        <v>132</v>
+      </c>
+      <c r="K25" t="s">
+        <v>132</v>
+      </c>
+      <c r="L25">
+        <v>0.55092948717948698</v>
+      </c>
+      <c r="M25">
+        <v>0.55092948717948698</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" t="s">
+        <v>187</v>
+      </c>
+      <c r="G26">
+        <v>2018</v>
+      </c>
+      <c r="H26" t="s">
+        <v>132</v>
+      </c>
+      <c r="I26" t="s">
+        <v>132</v>
+      </c>
+      <c r="J26" t="s">
+        <v>132</v>
+      </c>
+      <c r="K26" t="s">
+        <v>132</v>
+      </c>
+      <c r="L26">
+        <v>0.57113772455089795</v>
+      </c>
+      <c r="M26">
+        <v>0.57113772455089795</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" t="s">
+        <v>221</v>
+      </c>
+      <c r="D27" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" t="s">
+        <v>187</v>
+      </c>
+      <c r="G27">
+        <v>2018</v>
+      </c>
+      <c r="H27" t="s">
+        <v>132</v>
+      </c>
+      <c r="I27" t="s">
+        <v>132</v>
+      </c>
+      <c r="J27" t="s">
+        <v>132</v>
+      </c>
+      <c r="K27" t="s">
+        <v>132</v>
+      </c>
+      <c r="L27">
+        <v>0.70400656814449902</v>
+      </c>
+      <c r="M27">
+        <v>0.70400656814449902</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" t="s">
+        <v>222</v>
+      </c>
+      <c r="D28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" t="s">
+        <v>187</v>
+      </c>
+      <c r="G28">
+        <v>2018</v>
+      </c>
+      <c r="H28" t="s">
+        <v>132</v>
+      </c>
+      <c r="I28" t="s">
+        <v>132</v>
+      </c>
+      <c r="J28" t="s">
+        <v>132</v>
+      </c>
+      <c r="K28" t="s">
+        <v>132</v>
+      </c>
+      <c r="L28">
+        <v>0.9</v>
+      </c>
+      <c r="M28">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C29" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" t="s">
+        <v>187</v>
+      </c>
+      <c r="G29">
+        <v>2018</v>
+      </c>
+      <c r="H29" t="s">
+        <v>132</v>
+      </c>
+      <c r="I29" t="s">
+        <v>132</v>
+      </c>
+      <c r="J29" t="s">
+        <v>132</v>
+      </c>
+      <c r="K29" t="s">
+        <v>132</v>
+      </c>
+      <c r="L29">
+        <v>0.619863294600137</v>
+      </c>
+      <c r="M29">
+        <v>0.619863294600137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" t="s">
+        <v>185</v>
+      </c>
+      <c r="C30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" t="s">
+        <v>187</v>
+      </c>
+      <c r="G30">
+        <v>2018</v>
+      </c>
+      <c r="H30" t="s">
+        <v>132</v>
+      </c>
+      <c r="I30" t="s">
+        <v>132</v>
+      </c>
+      <c r="J30" t="s">
+        <v>132</v>
+      </c>
+      <c r="K30" t="s">
+        <v>132</v>
+      </c>
+      <c r="L30">
+        <v>0.99952095808383201</v>
+      </c>
+      <c r="M30">
+        <v>0.99952095808383201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" t="s">
+        <v>185</v>
+      </c>
+      <c r="C31" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" t="s">
+        <v>187</v>
+      </c>
+      <c r="G31">
+        <v>2018</v>
+      </c>
+      <c r="H31" t="s">
+        <v>132</v>
+      </c>
+      <c r="I31" t="s">
+        <v>132</v>
+      </c>
+      <c r="J31" t="s">
+        <v>132</v>
+      </c>
+      <c r="K31" t="s">
+        <v>132</v>
+      </c>
+      <c r="L31">
+        <v>3.0897837837837798</v>
+      </c>
+      <c r="M31">
+        <v>3.0897837837837798</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" t="s">
+        <v>185</v>
+      </c>
+      <c r="C32" t="s">
+        <v>223</v>
+      </c>
+      <c r="D32" t="s">
+        <v>132</v>
+      </c>
+      <c r="E32" t="s">
+        <v>132</v>
+      </c>
+      <c r="F32" t="s">
+        <v>187</v>
+      </c>
+      <c r="G32">
+        <v>2018</v>
+      </c>
+      <c r="H32" t="s">
+        <v>132</v>
+      </c>
+      <c r="I32" t="s">
+        <v>132</v>
+      </c>
+      <c r="J32" t="s">
+        <v>132</v>
+      </c>
+      <c r="K32" t="s">
+        <v>132</v>
+      </c>
+      <c r="L32">
+        <v>0.9</v>
+      </c>
+      <c r="M32">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" t="s">
+        <v>185</v>
+      </c>
+      <c r="C33" t="s">
+        <v>224</v>
+      </c>
+      <c r="D33" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" t="s">
+        <v>187</v>
+      </c>
+      <c r="G33">
+        <v>2018</v>
+      </c>
+      <c r="H33" t="s">
+        <v>132</v>
+      </c>
+      <c r="I33" t="s">
+        <v>132</v>
+      </c>
+      <c r="J33" t="s">
+        <v>132</v>
+      </c>
+      <c r="K33" t="s">
+        <v>132</v>
+      </c>
+      <c r="L33">
+        <v>0.82728758169934602</v>
+      </c>
+      <c r="M33">
+        <v>0.82728758169934602</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s">
+        <v>185</v>
+      </c>
+      <c r="C34" t="s">
+        <v>225</v>
+      </c>
+      <c r="D34" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" t="s">
+        <v>132</v>
+      </c>
+      <c r="F34" t="s">
+        <v>187</v>
+      </c>
+      <c r="G34">
+        <v>2018</v>
+      </c>
+      <c r="H34" t="s">
+        <v>132</v>
+      </c>
+      <c r="I34" t="s">
+        <v>132</v>
+      </c>
+      <c r="J34" t="s">
+        <v>132</v>
+      </c>
+      <c r="K34" t="s">
+        <v>132</v>
+      </c>
+      <c r="L34">
+        <v>3.0897837837837798</v>
+      </c>
+      <c r="M34">
+        <v>3.0897837837837798</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" t="s">
+        <v>185</v>
+      </c>
+      <c r="C35" t="s">
+        <v>149</v>
+      </c>
+      <c r="D35" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" t="s">
+        <v>132</v>
+      </c>
+      <c r="F35" t="s">
+        <v>187</v>
+      </c>
+      <c r="G35">
+        <v>2018</v>
+      </c>
+      <c r="H35" t="s">
+        <v>132</v>
+      </c>
+      <c r="I35" t="s">
+        <v>132</v>
+      </c>
+      <c r="J35" t="s">
+        <v>132</v>
+      </c>
+      <c r="K35" t="s">
+        <v>132</v>
+      </c>
+      <c r="L35">
+        <v>0.65865731206453004</v>
+      </c>
+      <c r="M35">
+        <v>0.65865731206453004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s">
+        <v>185</v>
+      </c>
+      <c r="C36" t="s">
+        <v>226</v>
+      </c>
+      <c r="D36" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" t="s">
+        <v>132</v>
+      </c>
+      <c r="F36" t="s">
+        <v>187</v>
+      </c>
+      <c r="G36">
+        <v>2018</v>
+      </c>
+      <c r="H36" t="s">
+        <v>132</v>
+      </c>
+      <c r="I36" t="s">
+        <v>132</v>
+      </c>
+      <c r="J36" t="s">
+        <v>132</v>
+      </c>
+      <c r="K36" t="s">
+        <v>132</v>
+      </c>
+      <c r="L36">
+        <v>0.82280373831775699</v>
+      </c>
+      <c r="M36">
+        <v>0.82280373831775699</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" t="s">
+        <v>185</v>
+      </c>
+      <c r="C37" t="s">
+        <v>227</v>
+      </c>
+      <c r="D37" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" t="s">
+        <v>132</v>
+      </c>
+      <c r="F37" t="s">
+        <v>187</v>
+      </c>
+      <c r="G37">
+        <v>2018</v>
+      </c>
+      <c r="H37" t="s">
+        <v>132</v>
+      </c>
+      <c r="I37" t="s">
+        <v>132</v>
+      </c>
+      <c r="J37" t="s">
+        <v>132</v>
+      </c>
+      <c r="K37" t="s">
+        <v>132</v>
+      </c>
+      <c r="L37">
+        <v>0.82661774762699303</v>
+      </c>
+      <c r="M37">
+        <v>0.82661774762699303</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>185</v>
+      </c>
+      <c r="C38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" t="s">
+        <v>132</v>
+      </c>
+      <c r="F38" t="s">
+        <v>187</v>
+      </c>
+      <c r="G38">
+        <v>2018</v>
+      </c>
+      <c r="H38" t="s">
+        <v>132</v>
+      </c>
+      <c r="I38" t="s">
+        <v>132</v>
+      </c>
+      <c r="J38" t="s">
+        <v>132</v>
+      </c>
+      <c r="K38" t="s">
+        <v>132</v>
+      </c>
+      <c r="L38">
+        <v>0.54578947368421105</v>
+      </c>
+      <c r="M38">
+        <v>0.54578947368421105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
+        <v>185</v>
+      </c>
+      <c r="C39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" t="s">
+        <v>132</v>
+      </c>
+      <c r="F39" t="s">
+        <v>187</v>
+      </c>
+      <c r="G39">
+        <v>2018</v>
+      </c>
+      <c r="H39" t="s">
+        <v>132</v>
+      </c>
+      <c r="I39" t="s">
+        <v>132</v>
+      </c>
+      <c r="J39" t="s">
+        <v>132</v>
+      </c>
+      <c r="K39" t="s">
+        <v>132</v>
+      </c>
+      <c r="L39">
+        <v>0.61474226804123699</v>
+      </c>
+      <c r="M39">
+        <v>0.61474226804123699</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
+        <v>185</v>
+      </c>
+      <c r="C40" t="s">
+        <v>228</v>
+      </c>
+      <c r="D40" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" t="s">
+        <v>132</v>
+      </c>
+      <c r="F40" t="s">
+        <v>187</v>
+      </c>
+      <c r="G40">
+        <v>2018</v>
+      </c>
+      <c r="H40" t="s">
+        <v>132</v>
+      </c>
+      <c r="I40" t="s">
+        <v>132</v>
+      </c>
+      <c r="J40" t="s">
+        <v>132</v>
+      </c>
+      <c r="K40" t="s">
+        <v>132</v>
+      </c>
+      <c r="L40">
+        <v>0.72928609692169399</v>
+      </c>
+      <c r="M40">
+        <v>0.72928609692169399</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" t="s">
+        <v>229</v>
+      </c>
+      <c r="D41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" t="s">
+        <v>132</v>
+      </c>
+      <c r="F41" t="s">
+        <v>187</v>
+      </c>
+      <c r="G41">
+        <v>2018</v>
+      </c>
+      <c r="H41" t="s">
+        <v>132</v>
+      </c>
+      <c r="I41" t="s">
+        <v>132</v>
+      </c>
+      <c r="J41" t="s">
+        <v>132</v>
+      </c>
+      <c r="K41" t="s">
+        <v>132</v>
+      </c>
+      <c r="L41">
+        <v>0.9</v>
+      </c>
+      <c r="M41">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" t="s">
+        <v>185</v>
+      </c>
+      <c r="C42" t="s">
+        <v>153</v>
+      </c>
+      <c r="D42" t="s">
+        <v>132</v>
+      </c>
+      <c r="E42" t="s">
+        <v>132</v>
+      </c>
+      <c r="F42" t="s">
+        <v>187</v>
+      </c>
+      <c r="G42">
+        <v>2018</v>
+      </c>
+      <c r="H42" t="s">
+        <v>132</v>
+      </c>
+      <c r="I42" t="s">
+        <v>132</v>
+      </c>
+      <c r="J42" t="s">
+        <v>132</v>
+      </c>
+      <c r="K42" t="s">
+        <v>132</v>
+      </c>
+      <c r="L42">
+        <v>0.59018803418803401</v>
+      </c>
+      <c r="M42">
+        <v>0.59018803418803401</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" t="s">
+        <v>185</v>
+      </c>
+      <c r="C43" t="s">
+        <v>154</v>
+      </c>
+      <c r="D43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E43" t="s">
+        <v>132</v>
+      </c>
+      <c r="F43" t="s">
+        <v>187</v>
+      </c>
+      <c r="G43">
+        <v>2018</v>
+      </c>
+      <c r="H43" t="s">
+        <v>132</v>
+      </c>
+      <c r="I43" t="s">
+        <v>132</v>
+      </c>
+      <c r="J43" t="s">
+        <v>132</v>
+      </c>
+      <c r="K43" t="s">
+        <v>132</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" t="s">
+        <v>185</v>
+      </c>
+      <c r="C44" t="s">
+        <v>155</v>
+      </c>
+      <c r="D44" t="s">
+        <v>132</v>
+      </c>
+      <c r="E44" t="s">
+        <v>132</v>
+      </c>
+      <c r="F44" t="s">
+        <v>187</v>
+      </c>
+      <c r="G44">
+        <v>2018</v>
+      </c>
+      <c r="H44" t="s">
+        <v>132</v>
+      </c>
+      <c r="I44" t="s">
+        <v>132</v>
+      </c>
+      <c r="J44" t="s">
+        <v>132</v>
+      </c>
+      <c r="K44" t="s">
+        <v>132</v>
+      </c>
+      <c r="L44">
+        <v>3.07019607843137</v>
+      </c>
+      <c r="M44">
+        <v>3.07019607843137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" t="s">
+        <v>185</v>
+      </c>
+      <c r="C45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D45" t="s">
+        <v>132</v>
+      </c>
+      <c r="E45" t="s">
+        <v>132</v>
+      </c>
+      <c r="F45" t="s">
+        <v>187</v>
+      </c>
+      <c r="G45">
+        <v>2018</v>
+      </c>
+      <c r="H45" t="s">
+        <v>132</v>
+      </c>
+      <c r="I45" t="s">
+        <v>132</v>
+      </c>
+      <c r="J45" t="s">
+        <v>132</v>
+      </c>
+      <c r="K45" t="s">
+        <v>132</v>
+      </c>
+      <c r="L45">
+        <v>0.9</v>
+      </c>
+      <c r="M45">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" t="s">
+        <v>185</v>
+      </c>
+      <c r="C46" t="s">
+        <v>231</v>
+      </c>
+      <c r="D46" t="s">
+        <v>132</v>
+      </c>
+      <c r="E46" t="s">
+        <v>132</v>
+      </c>
+      <c r="F46" t="s">
+        <v>187</v>
+      </c>
+      <c r="G46">
+        <v>2018</v>
+      </c>
+      <c r="H46" t="s">
+        <v>132</v>
+      </c>
+      <c r="I46" t="s">
+        <v>132</v>
+      </c>
+      <c r="J46" t="s">
+        <v>132</v>
+      </c>
+      <c r="K46" t="s">
+        <v>132</v>
+      </c>
+      <c r="L46">
+        <v>0.810268817204301</v>
+      </c>
+      <c r="M46">
+        <v>0.810268817204301</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" t="s">
+        <v>185</v>
+      </c>
+      <c r="C47" t="s">
+        <v>156</v>
+      </c>
+      <c r="D47" t="s">
+        <v>132</v>
+      </c>
+      <c r="E47" t="s">
+        <v>132</v>
+      </c>
+      <c r="F47" t="s">
+        <v>187</v>
+      </c>
+      <c r="G47">
+        <v>2018</v>
+      </c>
+      <c r="H47" t="s">
+        <v>132</v>
+      </c>
+      <c r="I47" t="s">
+        <v>132</v>
+      </c>
+      <c r="J47" t="s">
+        <v>132</v>
+      </c>
+      <c r="K47" t="s">
+        <v>132</v>
+      </c>
+      <c r="L47">
+        <v>0.39838442187649997</v>
+      </c>
+      <c r="M47">
+        <v>0.39838442187649997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" t="s">
+        <v>185</v>
+      </c>
+      <c r="C48" t="s">
+        <v>232</v>
+      </c>
+      <c r="D48" t="s">
+        <v>132</v>
+      </c>
+      <c r="E48" t="s">
+        <v>132</v>
+      </c>
+      <c r="F48" t="s">
+        <v>187</v>
+      </c>
+      <c r="G48">
+        <v>2018</v>
+      </c>
+      <c r="H48" t="s">
+        <v>132</v>
+      </c>
+      <c r="I48" t="s">
+        <v>132</v>
+      </c>
+      <c r="J48" t="s">
+        <v>132</v>
+      </c>
+      <c r="K48" t="s">
+        <v>132</v>
+      </c>
+      <c r="L48">
+        <v>0.81016216216216197</v>
+      </c>
+      <c r="M48">
+        <v>0.81016216216216197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" t="s">
+        <v>185</v>
+      </c>
+      <c r="C49" t="s">
+        <v>233</v>
+      </c>
+      <c r="D49" t="s">
+        <v>132</v>
+      </c>
+      <c r="E49" t="s">
+        <v>132</v>
+      </c>
+      <c r="F49" t="s">
+        <v>187</v>
+      </c>
+      <c r="G49">
+        <v>2018</v>
+      </c>
+      <c r="H49" t="s">
+        <v>132</v>
+      </c>
+      <c r="I49" t="s">
+        <v>132</v>
+      </c>
+      <c r="J49" t="s">
+        <v>132</v>
+      </c>
+      <c r="K49" t="s">
+        <v>132</v>
+      </c>
+      <c r="L49">
+        <v>0.80677902621722797</v>
+      </c>
+      <c r="M49">
+        <v>0.80677902621722797</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" t="s">
+        <v>185</v>
+      </c>
+      <c r="C50" t="s">
+        <v>157</v>
+      </c>
+      <c r="D50" t="s">
+        <v>132</v>
+      </c>
+      <c r="E50" t="s">
+        <v>132</v>
+      </c>
+      <c r="F50" t="s">
+        <v>187</v>
+      </c>
+      <c r="G50">
+        <v>2018</v>
+      </c>
+      <c r="H50" t="s">
+        <v>132</v>
+      </c>
+      <c r="I50" t="s">
+        <v>132</v>
+      </c>
+      <c r="J50" t="s">
+        <v>132</v>
+      </c>
+      <c r="K50" t="s">
+        <v>132</v>
+      </c>
+      <c r="L50">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="M50">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" t="s">
+        <v>185</v>
+      </c>
+      <c r="C51" t="s">
+        <v>158</v>
+      </c>
+      <c r="D51" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51" t="s">
+        <v>132</v>
+      </c>
+      <c r="F51" t="s">
+        <v>187</v>
+      </c>
+      <c r="G51">
+        <v>2018</v>
+      </c>
+      <c r="H51" t="s">
+        <v>132</v>
+      </c>
+      <c r="I51" t="s">
+        <v>132</v>
+      </c>
+      <c r="J51" t="s">
+        <v>132</v>
+      </c>
+      <c r="K51" t="s">
+        <v>132</v>
+      </c>
+      <c r="L51">
+        <v>0.58177777777777795</v>
+      </c>
+      <c r="M51">
+        <v>0.58177777777777795</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" t="s">
+        <v>185</v>
+      </c>
+      <c r="C52" t="s">
+        <v>234</v>
+      </c>
+      <c r="D52" t="s">
+        <v>132</v>
+      </c>
+      <c r="E52" t="s">
+        <v>132</v>
+      </c>
+      <c r="F52" t="s">
+        <v>187</v>
+      </c>
+      <c r="G52">
+        <v>2018</v>
+      </c>
+      <c r="H52" t="s">
+        <v>132</v>
+      </c>
+      <c r="I52" t="s">
+        <v>132</v>
+      </c>
+      <c r="J52" t="s">
+        <v>132</v>
+      </c>
+      <c r="K52" t="s">
+        <v>132</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" t="s">
+        <v>185</v>
+      </c>
+      <c r="C53" t="s">
+        <v>235</v>
+      </c>
+      <c r="D53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E53" t="s">
+        <v>132</v>
+      </c>
+      <c r="F53" t="s">
+        <v>187</v>
+      </c>
+      <c r="G53">
+        <v>2018</v>
+      </c>
+      <c r="H53" t="s">
+        <v>132</v>
+      </c>
+      <c r="I53" t="s">
+        <v>132</v>
+      </c>
+      <c r="J53" t="s">
+        <v>132</v>
+      </c>
+      <c r="K53" t="s">
+        <v>132</v>
+      </c>
+      <c r="L53">
+        <v>0.68804511278195502</v>
+      </c>
+      <c r="M53">
+        <v>0.68804511278195502</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" t="s">
+        <v>185</v>
+      </c>
+      <c r="C54" t="s">
+        <v>236</v>
+      </c>
+      <c r="D54" t="s">
+        <v>132</v>
+      </c>
+      <c r="E54" t="s">
+        <v>132</v>
+      </c>
+      <c r="F54" t="s">
+        <v>187</v>
+      </c>
+      <c r="G54">
+        <v>2018</v>
+      </c>
+      <c r="H54" t="s">
+        <v>132</v>
+      </c>
+      <c r="I54" t="s">
+        <v>132</v>
+      </c>
+      <c r="J54" t="s">
+        <v>132</v>
+      </c>
+      <c r="K54" t="s">
+        <v>132</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" t="s">
+        <v>185</v>
+      </c>
+      <c r="C55" t="s">
+        <v>159</v>
+      </c>
+      <c r="D55" t="s">
+        <v>132</v>
+      </c>
+      <c r="E55" t="s">
+        <v>132</v>
+      </c>
+      <c r="F55" t="s">
+        <v>187</v>
+      </c>
+      <c r="G55">
+        <v>2018</v>
+      </c>
+      <c r="H55" t="s">
+        <v>132</v>
+      </c>
+      <c r="I55" t="s">
+        <v>132</v>
+      </c>
+      <c r="J55" t="s">
+        <v>132</v>
+      </c>
+      <c r="K55" t="s">
+        <v>132</v>
+      </c>
+      <c r="L55">
+        <v>0.55798087905732696</v>
+      </c>
+      <c r="M55">
+        <v>0.55798087905732696</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" t="s">
+        <v>185</v>
+      </c>
+      <c r="C56" t="s">
+        <v>160</v>
+      </c>
+      <c r="D56" t="s">
+        <v>132</v>
+      </c>
+      <c r="E56" t="s">
+        <v>132</v>
+      </c>
+      <c r="F56" t="s">
+        <v>187</v>
+      </c>
+      <c r="G56">
+        <v>2018</v>
+      </c>
+      <c r="H56" t="s">
+        <v>132</v>
+      </c>
+      <c r="I56" t="s">
+        <v>132</v>
+      </c>
+      <c r="J56" t="s">
+        <v>132</v>
+      </c>
+      <c r="K56" t="s">
+        <v>132</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" t="s">
+        <v>185</v>
+      </c>
+      <c r="C57" t="s">
+        <v>161</v>
+      </c>
+      <c r="D57" t="s">
+        <v>132</v>
+      </c>
+      <c r="E57" t="s">
+        <v>132</v>
+      </c>
+      <c r="F57" t="s">
+        <v>187</v>
+      </c>
+      <c r="G57">
+        <v>2018</v>
+      </c>
+      <c r="H57" t="s">
+        <v>132</v>
+      </c>
+      <c r="I57" t="s">
+        <v>132</v>
+      </c>
+      <c r="J57" t="s">
+        <v>132</v>
+      </c>
+      <c r="K57" t="s">
+        <v>132</v>
+      </c>
+      <c r="L57">
+        <v>3.1157627118644098</v>
+      </c>
+      <c r="M57">
+        <v>3.1157627118644098</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" t="s">
+        <v>185</v>
+      </c>
+      <c r="C58" t="s">
+        <v>237</v>
+      </c>
+      <c r="D58" t="s">
+        <v>132</v>
+      </c>
+      <c r="E58" t="s">
+        <v>132</v>
+      </c>
+      <c r="F58" t="s">
+        <v>187</v>
+      </c>
+      <c r="G58">
+        <v>2018</v>
+      </c>
+      <c r="H58" t="s">
+        <v>132</v>
+      </c>
+      <c r="I58" t="s">
+        <v>132</v>
+      </c>
+      <c r="J58" t="s">
+        <v>132</v>
+      </c>
+      <c r="K58" t="s">
+        <v>132</v>
+      </c>
+      <c r="L58">
+        <v>0.9</v>
+      </c>
+      <c r="M58">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" t="s">
+        <v>185</v>
+      </c>
+      <c r="C59" t="s">
+        <v>238</v>
+      </c>
+      <c r="D59" t="s">
+        <v>132</v>
+      </c>
+      <c r="E59" t="s">
+        <v>132</v>
+      </c>
+      <c r="F59" t="s">
+        <v>187</v>
+      </c>
+      <c r="G59">
+        <v>2018</v>
+      </c>
+      <c r="H59" t="s">
+        <v>132</v>
+      </c>
+      <c r="I59" t="s">
+        <v>132</v>
+      </c>
+      <c r="J59" t="s">
+        <v>132</v>
+      </c>
+      <c r="K59" t="s">
+        <v>132</v>
+      </c>
+      <c r="L59">
+        <v>0.81729411764705895</v>
+      </c>
+      <c r="M59">
+        <v>0.81729411764705895</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" t="s">
+        <v>185</v>
+      </c>
+      <c r="C60" t="s">
+        <v>162</v>
+      </c>
+      <c r="D60" t="s">
+        <v>132</v>
+      </c>
+      <c r="E60" t="s">
+        <v>132</v>
+      </c>
+      <c r="F60" t="s">
+        <v>187</v>
+      </c>
+      <c r="G60">
+        <v>2018</v>
+      </c>
+      <c r="H60" t="s">
+        <v>132</v>
+      </c>
+      <c r="I60" t="s">
+        <v>132</v>
+      </c>
+      <c r="J60" t="s">
+        <v>132</v>
+      </c>
+      <c r="K60" t="s">
+        <v>132</v>
+      </c>
+      <c r="L60">
+        <v>0.60949973059968399</v>
+      </c>
+      <c r="M60">
+        <v>0.60949973059968399</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" t="s">
+        <v>185</v>
+      </c>
+      <c r="C61" t="s">
+        <v>239</v>
+      </c>
+      <c r="D61" t="s">
+        <v>132</v>
+      </c>
+      <c r="E61" t="s">
+        <v>132</v>
+      </c>
+      <c r="F61" t="s">
+        <v>187</v>
+      </c>
+      <c r="G61">
+        <v>2018</v>
+      </c>
+      <c r="H61" t="s">
+        <v>132</v>
+      </c>
+      <c r="I61" t="s">
+        <v>132</v>
+      </c>
+      <c r="J61" t="s">
+        <v>132</v>
+      </c>
+      <c r="K61" t="s">
+        <v>132</v>
+      </c>
+      <c r="L61">
+        <v>0.81941558441558404</v>
+      </c>
+      <c r="M61">
+        <v>0.81941558441558404</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" t="s">
+        <v>185</v>
+      </c>
+      <c r="C62" t="s">
+        <v>240</v>
+      </c>
+      <c r="D62" t="s">
+        <v>132</v>
+      </c>
+      <c r="E62" t="s">
+        <v>132</v>
+      </c>
+      <c r="F62" t="s">
+        <v>187</v>
+      </c>
+      <c r="G62">
+        <v>2018</v>
+      </c>
+      <c r="H62" t="s">
+        <v>132</v>
+      </c>
+      <c r="I62" t="s">
+        <v>132</v>
+      </c>
+      <c r="J62" t="s">
+        <v>132</v>
+      </c>
+      <c r="K62" t="s">
+        <v>132</v>
+      </c>
+      <c r="L62">
+        <v>0.80707577433628297</v>
+      </c>
+      <c r="M62">
+        <v>0.80707577433628297</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" t="s">
+        <v>185</v>
+      </c>
+      <c r="C63" t="s">
+        <v>163</v>
+      </c>
+      <c r="D63" t="s">
+        <v>132</v>
+      </c>
+      <c r="E63" t="s">
+        <v>132</v>
+      </c>
+      <c r="F63" t="s">
+        <v>187</v>
+      </c>
+      <c r="G63">
+        <v>2018</v>
+      </c>
+      <c r="H63" t="s">
+        <v>132</v>
+      </c>
+      <c r="I63" t="s">
+        <v>132</v>
+      </c>
+      <c r="J63" t="s">
+        <v>132</v>
+      </c>
+      <c r="K63" t="s">
+        <v>132</v>
+      </c>
+      <c r="L63">
+        <v>0.55092948717948698</v>
+      </c>
+      <c r="M63">
+        <v>0.55092948717948698</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" t="s">
+        <v>185</v>
+      </c>
+      <c r="C64" t="s">
+        <v>164</v>
+      </c>
+      <c r="D64" t="s">
+        <v>132</v>
+      </c>
+      <c r="E64" t="s">
+        <v>132</v>
+      </c>
+      <c r="F64" t="s">
+        <v>187</v>
+      </c>
+      <c r="G64">
+        <v>2018</v>
+      </c>
+      <c r="H64" t="s">
+        <v>132</v>
+      </c>
+      <c r="I64" t="s">
+        <v>132</v>
+      </c>
+      <c r="J64" t="s">
+        <v>132</v>
+      </c>
+      <c r="K64" t="s">
+        <v>132</v>
+      </c>
+      <c r="L64">
+        <v>0.57113772455089795</v>
+      </c>
+      <c r="M64">
+        <v>0.57113772455089795</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" t="s">
+        <v>185</v>
+      </c>
+      <c r="C65" t="s">
+        <v>241</v>
+      </c>
+      <c r="D65" t="s">
+        <v>132</v>
+      </c>
+      <c r="E65" t="s">
+        <v>132</v>
+      </c>
+      <c r="F65" t="s">
+        <v>187</v>
+      </c>
+      <c r="G65">
+        <v>2018</v>
+      </c>
+      <c r="H65" t="s">
+        <v>132</v>
+      </c>
+      <c r="I65" t="s">
+        <v>132</v>
+      </c>
+      <c r="J65" t="s">
+        <v>132</v>
+      </c>
+      <c r="K65" t="s">
+        <v>132</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" t="s">
+        <v>185</v>
+      </c>
+      <c r="C66" t="s">
+        <v>242</v>
+      </c>
+      <c r="D66" t="s">
+        <v>132</v>
+      </c>
+      <c r="E66" t="s">
+        <v>132</v>
+      </c>
+      <c r="F66" t="s">
+        <v>187</v>
+      </c>
+      <c r="G66">
+        <v>2018</v>
+      </c>
+      <c r="H66" t="s">
+        <v>132</v>
+      </c>
+      <c r="I66" t="s">
+        <v>132</v>
+      </c>
+      <c r="J66" t="s">
+        <v>132</v>
+      </c>
+      <c r="K66" t="s">
+        <v>132</v>
+      </c>
+      <c r="L66">
+        <v>0.70400656814449902</v>
+      </c>
+      <c r="M66">
+        <v>0.70400656814449902</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" t="s">
+        <v>185</v>
+      </c>
+      <c r="C67" t="s">
+        <v>243</v>
+      </c>
+      <c r="D67" t="s">
+        <v>132</v>
+      </c>
+      <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
+        <v>187</v>
+      </c>
+      <c r="G67">
+        <v>2018</v>
+      </c>
+      <c r="H67" t="s">
+        <v>132</v>
+      </c>
+      <c r="I67" t="s">
+        <v>132</v>
+      </c>
+      <c r="J67" t="s">
+        <v>132</v>
+      </c>
+      <c r="K67" t="s">
+        <v>132</v>
+      </c>
+      <c r="L67">
+        <v>0.9</v>
+      </c>
+      <c r="M67">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" t="s">
+        <v>185</v>
+      </c>
+      <c r="C68" t="s">
+        <v>165</v>
+      </c>
+      <c r="D68" t="s">
+        <v>132</v>
+      </c>
+      <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
+        <v>187</v>
+      </c>
+      <c r="G68">
+        <v>2018</v>
+      </c>
+      <c r="H68" t="s">
+        <v>132</v>
+      </c>
+      <c r="I68" t="s">
+        <v>132</v>
+      </c>
+      <c r="J68" t="s">
+        <v>132</v>
+      </c>
+      <c r="K68" t="s">
+        <v>132</v>
+      </c>
+      <c r="L68">
+        <v>0.619863294600137</v>
+      </c>
+      <c r="M68">
+        <v>0.619863294600137</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69" t="s">
+        <v>185</v>
+      </c>
+      <c r="C69" t="s">
+        <v>166</v>
+      </c>
+      <c r="D69" t="s">
+        <v>132</v>
+      </c>
+      <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
+        <v>187</v>
+      </c>
+      <c r="G69">
+        <v>2018</v>
+      </c>
+      <c r="H69" t="s">
+        <v>132</v>
+      </c>
+      <c r="I69" t="s">
+        <v>132</v>
+      </c>
+      <c r="J69" t="s">
+        <v>132</v>
+      </c>
+      <c r="K69" t="s">
+        <v>132</v>
+      </c>
+      <c r="L69">
+        <v>0.99952095808383201</v>
+      </c>
+      <c r="M69">
+        <v>0.99952095808383201</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" t="s">
+        <v>185</v>
+      </c>
+      <c r="C70" t="s">
+        <v>167</v>
+      </c>
+      <c r="D70" t="s">
+        <v>132</v>
+      </c>
+      <c r="E70" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70" t="s">
+        <v>187</v>
+      </c>
+      <c r="G70">
+        <v>2018</v>
+      </c>
+      <c r="H70" t="s">
+        <v>132</v>
+      </c>
+      <c r="I70" t="s">
+        <v>132</v>
+      </c>
+      <c r="J70" t="s">
+        <v>132</v>
+      </c>
+      <c r="K70" t="s">
+        <v>132</v>
+      </c>
+      <c r="L70">
+        <v>3.0897837837837798</v>
+      </c>
+      <c r="M70">
+        <v>3.0897837837837798</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" t="s">
+        <v>185</v>
+      </c>
+      <c r="C71" t="s">
+        <v>244</v>
+      </c>
+      <c r="D71" t="s">
+        <v>132</v>
+      </c>
+      <c r="E71" t="s">
+        <v>132</v>
+      </c>
+      <c r="F71" t="s">
+        <v>187</v>
+      </c>
+      <c r="G71">
+        <v>2018</v>
+      </c>
+      <c r="H71" t="s">
+        <v>132</v>
+      </c>
+      <c r="I71" t="s">
+        <v>132</v>
+      </c>
+      <c r="J71" t="s">
+        <v>132</v>
+      </c>
+      <c r="K71" t="s">
+        <v>132</v>
+      </c>
+      <c r="L71">
+        <v>0.9</v>
+      </c>
+      <c r="M71">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" t="s">
+        <v>185</v>
+      </c>
+      <c r="C72" t="s">
+        <v>245</v>
+      </c>
+      <c r="D72" t="s">
+        <v>132</v>
+      </c>
+      <c r="E72" t="s">
+        <v>132</v>
+      </c>
+      <c r="F72" t="s">
+        <v>187</v>
+      </c>
+      <c r="G72">
+        <v>2018</v>
+      </c>
+      <c r="H72" t="s">
+        <v>132</v>
+      </c>
+      <c r="I72" t="s">
+        <v>132</v>
+      </c>
+      <c r="J72" t="s">
+        <v>132</v>
+      </c>
+      <c r="K72" t="s">
+        <v>132</v>
+      </c>
+      <c r="L72">
+        <v>0.82728758169934602</v>
+      </c>
+      <c r="M72">
+        <v>0.82728758169934602</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" t="s">
+        <v>185</v>
+      </c>
+      <c r="C73" t="s">
+        <v>168</v>
+      </c>
+      <c r="D73" t="s">
+        <v>132</v>
+      </c>
+      <c r="E73" t="s">
+        <v>132</v>
+      </c>
+      <c r="F73" t="s">
+        <v>187</v>
+      </c>
+      <c r="G73">
+        <v>2018</v>
+      </c>
+      <c r="H73" t="s">
+        <v>132</v>
+      </c>
+      <c r="I73" t="s">
+        <v>132</v>
+      </c>
+      <c r="J73" t="s">
+        <v>132</v>
+      </c>
+      <c r="K73" t="s">
+        <v>132</v>
+      </c>
+      <c r="L73">
+        <v>0.65865731206453004</v>
+      </c>
+      <c r="M73">
+        <v>0.65865731206453004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>185</v>
+      </c>
+      <c r="C74" t="s">
+        <v>246</v>
+      </c>
+      <c r="D74" t="s">
+        <v>132</v>
+      </c>
+      <c r="E74" t="s">
+        <v>132</v>
+      </c>
+      <c r="F74" t="s">
+        <v>187</v>
+      </c>
+      <c r="G74">
+        <v>2018</v>
+      </c>
+      <c r="H74" t="s">
+        <v>132</v>
+      </c>
+      <c r="I74" t="s">
+        <v>132</v>
+      </c>
+      <c r="J74" t="s">
+        <v>132</v>
+      </c>
+      <c r="K74" t="s">
+        <v>132</v>
+      </c>
+      <c r="L74">
+        <v>0.82280373831775699</v>
+      </c>
+      <c r="M74">
+        <v>0.82280373831775699</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>185</v>
+      </c>
+      <c r="C75" t="s">
+        <v>247</v>
+      </c>
+      <c r="D75" t="s">
+        <v>132</v>
+      </c>
+      <c r="E75" t="s">
+        <v>132</v>
+      </c>
+      <c r="F75" t="s">
+        <v>187</v>
+      </c>
+      <c r="G75">
+        <v>2018</v>
+      </c>
+      <c r="H75" t="s">
+        <v>132</v>
+      </c>
+      <c r="I75" t="s">
+        <v>132</v>
+      </c>
+      <c r="J75" t="s">
+        <v>132</v>
+      </c>
+      <c r="K75" t="s">
+        <v>132</v>
+      </c>
+      <c r="L75">
+        <v>0.82661774762699303</v>
+      </c>
+      <c r="M75">
+        <v>0.82661774762699303</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" t="s">
+        <v>185</v>
+      </c>
+      <c r="C76" t="s">
+        <v>169</v>
+      </c>
+      <c r="D76" t="s">
+        <v>132</v>
+      </c>
+      <c r="E76" t="s">
+        <v>132</v>
+      </c>
+      <c r="F76" t="s">
+        <v>187</v>
+      </c>
+      <c r="G76">
+        <v>2018</v>
+      </c>
+      <c r="H76" t="s">
+        <v>132</v>
+      </c>
+      <c r="I76" t="s">
+        <v>132</v>
+      </c>
+      <c r="J76" t="s">
+        <v>132</v>
+      </c>
+      <c r="K76" t="s">
+        <v>132</v>
+      </c>
+      <c r="L76">
+        <v>0.54578947368421105</v>
+      </c>
+      <c r="M76">
+        <v>0.54578947368421105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>185</v>
+      </c>
+      <c r="C77" t="s">
+        <v>170</v>
+      </c>
+      <c r="D77" t="s">
+        <v>132</v>
+      </c>
+      <c r="E77" t="s">
+        <v>132</v>
+      </c>
+      <c r="F77" t="s">
+        <v>187</v>
+      </c>
+      <c r="G77">
+        <v>2018</v>
+      </c>
+      <c r="H77" t="s">
+        <v>132</v>
+      </c>
+      <c r="I77" t="s">
+        <v>132</v>
+      </c>
+      <c r="J77" t="s">
+        <v>132</v>
+      </c>
+      <c r="K77" t="s">
+        <v>132</v>
+      </c>
+      <c r="L77">
+        <v>0.61474226804123699</v>
+      </c>
+      <c r="M77">
+        <v>0.61474226804123699</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>185</v>
+      </c>
+      <c r="C78" t="s">
+        <v>248</v>
+      </c>
+      <c r="D78" t="s">
+        <v>132</v>
+      </c>
+      <c r="E78" t="s">
+        <v>132</v>
+      </c>
+      <c r="F78" t="s">
+        <v>187</v>
+      </c>
+      <c r="G78">
+        <v>2018</v>
+      </c>
+      <c r="H78" t="s">
+        <v>132</v>
+      </c>
+      <c r="I78" t="s">
+        <v>132</v>
+      </c>
+      <c r="J78" t="s">
+        <v>132</v>
+      </c>
+      <c r="K78" t="s">
+        <v>132</v>
+      </c>
+      <c r="L78">
+        <v>3.0897837837837798</v>
+      </c>
+      <c r="M78">
+        <v>3.0897837837837798</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>185</v>
+      </c>
+      <c r="C79" t="s">
+        <v>249</v>
+      </c>
+      <c r="D79" t="s">
+        <v>132</v>
+      </c>
+      <c r="E79" t="s">
+        <v>132</v>
+      </c>
+      <c r="F79" t="s">
+        <v>187</v>
+      </c>
+      <c r="G79">
+        <v>2018</v>
+      </c>
+      <c r="H79" t="s">
+        <v>132</v>
+      </c>
+      <c r="I79" t="s">
+        <v>132</v>
+      </c>
+      <c r="J79" t="s">
+        <v>132</v>
+      </c>
+      <c r="K79" t="s">
+        <v>132</v>
+      </c>
+      <c r="L79">
+        <v>0.72928609692169399</v>
+      </c>
+      <c r="M79">
+        <v>0.72928609692169399</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31429258-A02E-4988-82C1-0A77E14DD528}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -2404,7 +5672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD076EF3-A195-4397-AD9A-EC5D0F2DC108}">
   <dimension ref="A1:M4"/>
   <sheetViews>
@@ -2581,7 +5849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDF976D-9BA7-415B-84DA-001C1A906A30}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -2676,7 +5944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A33C8A0-6F39-4FB7-B653-B5172ACE9A22}">
   <dimension ref="A1:M4"/>
   <sheetViews>
@@ -2858,7 +6126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667C97CC-9D61-4655-83D0-3753B9DE28B3}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -2953,7 +6221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDAFE0BD-7396-4A40-957F-AD6D95EB14F4}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -3048,7 +6316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C2F285-9307-42EA-A5DF-0946A8C3784D}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -3145,7 +6413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA0718C5-D068-4563-B06A-974D1CF3294C}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -4210,8 +7478,8 @@
   </sheetPr>
   <dimension ref="B1:AD35"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5063,8 +8331,8 @@
   </sheetPr>
   <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView topLeftCell="A119" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F105" sqref="F105"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8623,14 +11891,66 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC76A36A-107E-4EA7-B130-2D7E7FE99018}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="B3:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B3" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+    </row>
+    <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026A0CE7-7648-4CEA-AE2D-8669560BEC50}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10620,12 +13940,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2717B6A-07FB-44A5-8C85-4A36192AAC9D}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12278,7 +15598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8798645-A7BE-46E5-8441-577006E99D5D}">
   <dimension ref="A1:M40"/>
   <sheetViews>
@@ -13929,3259 +17249,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049C6FC2-EA1E-4C97-AFD6-725E147BEBCD}">
-  <dimension ref="A1:M79"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K1" t="s">
-        <v>131</v>
-      </c>
-      <c r="L1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G2">
-        <v>2018</v>
-      </c>
-      <c r="H2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I2" t="s">
-        <v>132</v>
-      </c>
-      <c r="J2" t="s">
-        <v>132</v>
-      </c>
-      <c r="K2" t="s">
-        <v>132</v>
-      </c>
-      <c r="L2">
-        <v>0.9</v>
-      </c>
-      <c r="M2">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G3">
-        <v>2018</v>
-      </c>
-      <c r="H3" t="s">
-        <v>132</v>
-      </c>
-      <c r="I3" t="s">
-        <v>132</v>
-      </c>
-      <c r="J3" t="s">
-        <v>132</v>
-      </c>
-      <c r="K3" t="s">
-        <v>132</v>
-      </c>
-      <c r="L3">
-        <v>0.59018803418803401</v>
-      </c>
-      <c r="M3">
-        <v>0.59018803418803401</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F4" t="s">
-        <v>187</v>
-      </c>
-      <c r="G4">
-        <v>2018</v>
-      </c>
-      <c r="H4" t="s">
-        <v>132</v>
-      </c>
-      <c r="I4" t="s">
-        <v>132</v>
-      </c>
-      <c r="J4" t="s">
-        <v>132</v>
-      </c>
-      <c r="K4" t="s">
-        <v>132</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F5" t="s">
-        <v>187</v>
-      </c>
-      <c r="G5">
-        <v>2018</v>
-      </c>
-      <c r="H5" t="s">
-        <v>132</v>
-      </c>
-      <c r="I5" t="s">
-        <v>132</v>
-      </c>
-      <c r="J5" t="s">
-        <v>132</v>
-      </c>
-      <c r="K5" t="s">
-        <v>132</v>
-      </c>
-      <c r="L5">
-        <v>3.07019607843137</v>
-      </c>
-      <c r="M5">
-        <v>3.07019607843137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" t="s">
-        <v>132</v>
-      </c>
-      <c r="F6" t="s">
-        <v>187</v>
-      </c>
-      <c r="G6">
-        <v>2018</v>
-      </c>
-      <c r="H6" t="s">
-        <v>132</v>
-      </c>
-      <c r="I6" t="s">
-        <v>132</v>
-      </c>
-      <c r="J6" t="s">
-        <v>132</v>
-      </c>
-      <c r="K6" t="s">
-        <v>132</v>
-      </c>
-      <c r="L6">
-        <v>0.9</v>
-      </c>
-      <c r="M6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C7" t="s">
-        <v>210</v>
-      </c>
-      <c r="D7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G7">
-        <v>2018</v>
-      </c>
-      <c r="H7" t="s">
-        <v>132</v>
-      </c>
-      <c r="I7" t="s">
-        <v>132</v>
-      </c>
-      <c r="J7" t="s">
-        <v>132</v>
-      </c>
-      <c r="K7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L7">
-        <v>0.810268817204301</v>
-      </c>
-      <c r="M7">
-        <v>0.810268817204301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D8" t="s">
-        <v>132</v>
-      </c>
-      <c r="E8" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" t="s">
-        <v>187</v>
-      </c>
-      <c r="G8">
-        <v>2018</v>
-      </c>
-      <c r="H8" t="s">
-        <v>132</v>
-      </c>
-      <c r="I8" t="s">
-        <v>132</v>
-      </c>
-      <c r="J8" t="s">
-        <v>132</v>
-      </c>
-      <c r="K8" t="s">
-        <v>132</v>
-      </c>
-      <c r="L8">
-        <v>3.07019607843137</v>
-      </c>
-      <c r="M8">
-        <v>3.07019607843137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" t="s">
-        <v>185</v>
-      </c>
-      <c r="C9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F9" t="s">
-        <v>187</v>
-      </c>
-      <c r="G9">
-        <v>2018</v>
-      </c>
-      <c r="H9" t="s">
-        <v>132</v>
-      </c>
-      <c r="I9" t="s">
-        <v>132</v>
-      </c>
-      <c r="J9" t="s">
-        <v>132</v>
-      </c>
-      <c r="K9" t="s">
-        <v>132</v>
-      </c>
-      <c r="L9">
-        <v>0.39838442187649997</v>
-      </c>
-      <c r="M9">
-        <v>0.39838442187649997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C10" t="s">
-        <v>212</v>
-      </c>
-      <c r="D10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E10" t="s">
-        <v>132</v>
-      </c>
-      <c r="F10" t="s">
-        <v>187</v>
-      </c>
-      <c r="G10">
-        <v>2018</v>
-      </c>
-      <c r="H10" t="s">
-        <v>132</v>
-      </c>
-      <c r="I10" t="s">
-        <v>132</v>
-      </c>
-      <c r="J10" t="s">
-        <v>132</v>
-      </c>
-      <c r="K10" t="s">
-        <v>132</v>
-      </c>
-      <c r="L10">
-        <v>0.81016216216216197</v>
-      </c>
-      <c r="M10">
-        <v>0.81016216216216197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" t="s">
-        <v>185</v>
-      </c>
-      <c r="C11" t="s">
-        <v>213</v>
-      </c>
-      <c r="D11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F11" t="s">
-        <v>187</v>
-      </c>
-      <c r="G11">
-        <v>2018</v>
-      </c>
-      <c r="H11" t="s">
-        <v>132</v>
-      </c>
-      <c r="I11" t="s">
-        <v>132</v>
-      </c>
-      <c r="J11" t="s">
-        <v>132</v>
-      </c>
-      <c r="K11" t="s">
-        <v>132</v>
-      </c>
-      <c r="L11">
-        <v>0.80677902621722797</v>
-      </c>
-      <c r="M11">
-        <v>0.80677902621722797</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" t="s">
-        <v>185</v>
-      </c>
-      <c r="C12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D12" t="s">
-        <v>132</v>
-      </c>
-      <c r="E12" t="s">
-        <v>132</v>
-      </c>
-      <c r="F12" t="s">
-        <v>187</v>
-      </c>
-      <c r="G12">
-        <v>2018</v>
-      </c>
-      <c r="H12" t="s">
-        <v>132</v>
-      </c>
-      <c r="I12" t="s">
-        <v>132</v>
-      </c>
-      <c r="J12" t="s">
-        <v>132</v>
-      </c>
-      <c r="K12" t="s">
-        <v>132</v>
-      </c>
-      <c r="L12">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="M12">
-        <v>0.52500000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D13" t="s">
-        <v>132</v>
-      </c>
-      <c r="E13" t="s">
-        <v>132</v>
-      </c>
-      <c r="F13" t="s">
-        <v>187</v>
-      </c>
-      <c r="G13">
-        <v>2018</v>
-      </c>
-      <c r="H13" t="s">
-        <v>132</v>
-      </c>
-      <c r="I13" t="s">
-        <v>132</v>
-      </c>
-      <c r="J13" t="s">
-        <v>132</v>
-      </c>
-      <c r="K13" t="s">
-        <v>132</v>
-      </c>
-      <c r="L13">
-        <v>0.58177777777777795</v>
-      </c>
-      <c r="M13">
-        <v>0.58177777777777795</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" t="s">
-        <v>185</v>
-      </c>
-      <c r="C14" t="s">
-        <v>214</v>
-      </c>
-      <c r="D14" t="s">
-        <v>132</v>
-      </c>
-      <c r="E14" t="s">
-        <v>132</v>
-      </c>
-      <c r="F14" t="s">
-        <v>187</v>
-      </c>
-      <c r="G14">
-        <v>2018</v>
-      </c>
-      <c r="H14" t="s">
-        <v>132</v>
-      </c>
-      <c r="I14" t="s">
-        <v>132</v>
-      </c>
-      <c r="J14" t="s">
-        <v>132</v>
-      </c>
-      <c r="K14" t="s">
-        <v>132</v>
-      </c>
-      <c r="L14">
-        <v>0.68804511278195502</v>
-      </c>
-      <c r="M14">
-        <v>0.68804511278195502</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" t="s">
-        <v>185</v>
-      </c>
-      <c r="C15" t="s">
-        <v>215</v>
-      </c>
-      <c r="D15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" t="s">
-        <v>132</v>
-      </c>
-      <c r="F15" t="s">
-        <v>187</v>
-      </c>
-      <c r="G15">
-        <v>2018</v>
-      </c>
-      <c r="H15" t="s">
-        <v>132</v>
-      </c>
-      <c r="I15" t="s">
-        <v>132</v>
-      </c>
-      <c r="J15" t="s">
-        <v>132</v>
-      </c>
-      <c r="K15" t="s">
-        <v>132</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" t="s">
-        <v>185</v>
-      </c>
-      <c r="C16" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" t="s">
-        <v>132</v>
-      </c>
-      <c r="E16" t="s">
-        <v>132</v>
-      </c>
-      <c r="F16" t="s">
-        <v>187</v>
-      </c>
-      <c r="G16">
-        <v>2018</v>
-      </c>
-      <c r="H16" t="s">
-        <v>132</v>
-      </c>
-      <c r="I16" t="s">
-        <v>132</v>
-      </c>
-      <c r="J16" t="s">
-        <v>132</v>
-      </c>
-      <c r="K16" t="s">
-        <v>132</v>
-      </c>
-      <c r="L16">
-        <v>0.55798087905732696</v>
-      </c>
-      <c r="M16">
-        <v>0.55798087905732696</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" t="s">
-        <v>185</v>
-      </c>
-      <c r="C17" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F17" t="s">
-        <v>187</v>
-      </c>
-      <c r="G17">
-        <v>2018</v>
-      </c>
-      <c r="H17" t="s">
-        <v>132</v>
-      </c>
-      <c r="I17" t="s">
-        <v>132</v>
-      </c>
-      <c r="J17" t="s">
-        <v>132</v>
-      </c>
-      <c r="K17" t="s">
-        <v>132</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" t="s">
-        <v>185</v>
-      </c>
-      <c r="C18" t="s">
-        <v>142</v>
-      </c>
-      <c r="D18" t="s">
-        <v>132</v>
-      </c>
-      <c r="E18" t="s">
-        <v>132</v>
-      </c>
-      <c r="F18" t="s">
-        <v>187</v>
-      </c>
-      <c r="G18">
-        <v>2018</v>
-      </c>
-      <c r="H18" t="s">
-        <v>132</v>
-      </c>
-      <c r="I18" t="s">
-        <v>132</v>
-      </c>
-      <c r="J18" t="s">
-        <v>132</v>
-      </c>
-      <c r="K18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L18">
-        <v>3.1157627118644098</v>
-      </c>
-      <c r="M18">
-        <v>3.1157627118644098</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" t="s">
-        <v>185</v>
-      </c>
-      <c r="C19" t="s">
-        <v>216</v>
-      </c>
-      <c r="D19" t="s">
-        <v>132</v>
-      </c>
-      <c r="E19" t="s">
-        <v>132</v>
-      </c>
-      <c r="F19" t="s">
-        <v>187</v>
-      </c>
-      <c r="G19">
-        <v>2018</v>
-      </c>
-      <c r="H19" t="s">
-        <v>132</v>
-      </c>
-      <c r="I19" t="s">
-        <v>132</v>
-      </c>
-      <c r="J19" t="s">
-        <v>132</v>
-      </c>
-      <c r="K19" t="s">
-        <v>132</v>
-      </c>
-      <c r="L19">
-        <v>0.9</v>
-      </c>
-      <c r="M19">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" t="s">
-        <v>185</v>
-      </c>
-      <c r="C20" t="s">
-        <v>217</v>
-      </c>
-      <c r="D20" t="s">
-        <v>132</v>
-      </c>
-      <c r="E20" t="s">
-        <v>132</v>
-      </c>
-      <c r="F20" t="s">
-        <v>187</v>
-      </c>
-      <c r="G20">
-        <v>2018</v>
-      </c>
-      <c r="H20" t="s">
-        <v>132</v>
-      </c>
-      <c r="I20" t="s">
-        <v>132</v>
-      </c>
-      <c r="J20" t="s">
-        <v>132</v>
-      </c>
-      <c r="K20" t="s">
-        <v>132</v>
-      </c>
-      <c r="L20">
-        <v>0.81729411764705895</v>
-      </c>
-      <c r="M20">
-        <v>0.81729411764705895</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" t="s">
-        <v>185</v>
-      </c>
-      <c r="C21" t="s">
-        <v>218</v>
-      </c>
-      <c r="D21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" t="s">
-        <v>132</v>
-      </c>
-      <c r="F21" t="s">
-        <v>187</v>
-      </c>
-      <c r="G21">
-        <v>2018</v>
-      </c>
-      <c r="H21" t="s">
-        <v>132</v>
-      </c>
-      <c r="I21" t="s">
-        <v>132</v>
-      </c>
-      <c r="J21" t="s">
-        <v>132</v>
-      </c>
-      <c r="K21" t="s">
-        <v>132</v>
-      </c>
-      <c r="L21">
-        <v>3.1157627118644098</v>
-      </c>
-      <c r="M21">
-        <v>3.1157627118644098</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" t="s">
-        <v>185</v>
-      </c>
-      <c r="C22" t="s">
-        <v>143</v>
-      </c>
-      <c r="D22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" t="s">
-        <v>132</v>
-      </c>
-      <c r="F22" t="s">
-        <v>187</v>
-      </c>
-      <c r="G22">
-        <v>2018</v>
-      </c>
-      <c r="H22" t="s">
-        <v>132</v>
-      </c>
-      <c r="I22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J22" t="s">
-        <v>132</v>
-      </c>
-      <c r="K22" t="s">
-        <v>132</v>
-      </c>
-      <c r="L22">
-        <v>0.60949973059968399</v>
-      </c>
-      <c r="M22">
-        <v>0.60949973059968399</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C23" t="s">
-        <v>219</v>
-      </c>
-      <c r="D23" t="s">
-        <v>132</v>
-      </c>
-      <c r="E23" t="s">
-        <v>132</v>
-      </c>
-      <c r="F23" t="s">
-        <v>187</v>
-      </c>
-      <c r="G23">
-        <v>2018</v>
-      </c>
-      <c r="H23" t="s">
-        <v>132</v>
-      </c>
-      <c r="I23" t="s">
-        <v>132</v>
-      </c>
-      <c r="J23" t="s">
-        <v>132</v>
-      </c>
-      <c r="K23" t="s">
-        <v>132</v>
-      </c>
-      <c r="L23">
-        <v>0.81941558441558404</v>
-      </c>
-      <c r="M23">
-        <v>0.81941558441558404</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" t="s">
-        <v>185</v>
-      </c>
-      <c r="C24" t="s">
-        <v>220</v>
-      </c>
-      <c r="D24" t="s">
-        <v>132</v>
-      </c>
-      <c r="E24" t="s">
-        <v>132</v>
-      </c>
-      <c r="F24" t="s">
-        <v>187</v>
-      </c>
-      <c r="G24">
-        <v>2018</v>
-      </c>
-      <c r="H24" t="s">
-        <v>132</v>
-      </c>
-      <c r="I24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J24" t="s">
-        <v>132</v>
-      </c>
-      <c r="K24" t="s">
-        <v>132</v>
-      </c>
-      <c r="L24">
-        <v>0.80707577433628297</v>
-      </c>
-      <c r="M24">
-        <v>0.80707577433628297</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" t="s">
-        <v>185</v>
-      </c>
-      <c r="C25" t="s">
-        <v>144</v>
-      </c>
-      <c r="D25" t="s">
-        <v>132</v>
-      </c>
-      <c r="E25" t="s">
-        <v>132</v>
-      </c>
-      <c r="F25" t="s">
-        <v>187</v>
-      </c>
-      <c r="G25">
-        <v>2018</v>
-      </c>
-      <c r="H25" t="s">
-        <v>132</v>
-      </c>
-      <c r="I25" t="s">
-        <v>132</v>
-      </c>
-      <c r="J25" t="s">
-        <v>132</v>
-      </c>
-      <c r="K25" t="s">
-        <v>132</v>
-      </c>
-      <c r="L25">
-        <v>0.55092948717948698</v>
-      </c>
-      <c r="M25">
-        <v>0.55092948717948698</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" t="s">
-        <v>185</v>
-      </c>
-      <c r="C26" t="s">
-        <v>145</v>
-      </c>
-      <c r="D26" t="s">
-        <v>132</v>
-      </c>
-      <c r="E26" t="s">
-        <v>132</v>
-      </c>
-      <c r="F26" t="s">
-        <v>187</v>
-      </c>
-      <c r="G26">
-        <v>2018</v>
-      </c>
-      <c r="H26" t="s">
-        <v>132</v>
-      </c>
-      <c r="I26" t="s">
-        <v>132</v>
-      </c>
-      <c r="J26" t="s">
-        <v>132</v>
-      </c>
-      <c r="K26" t="s">
-        <v>132</v>
-      </c>
-      <c r="L26">
-        <v>0.57113772455089795</v>
-      </c>
-      <c r="M26">
-        <v>0.57113772455089795</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" t="s">
-        <v>185</v>
-      </c>
-      <c r="C27" t="s">
-        <v>221</v>
-      </c>
-      <c r="D27" t="s">
-        <v>132</v>
-      </c>
-      <c r="E27" t="s">
-        <v>132</v>
-      </c>
-      <c r="F27" t="s">
-        <v>187</v>
-      </c>
-      <c r="G27">
-        <v>2018</v>
-      </c>
-      <c r="H27" t="s">
-        <v>132</v>
-      </c>
-      <c r="I27" t="s">
-        <v>132</v>
-      </c>
-      <c r="J27" t="s">
-        <v>132</v>
-      </c>
-      <c r="K27" t="s">
-        <v>132</v>
-      </c>
-      <c r="L27">
-        <v>0.70400656814449902</v>
-      </c>
-      <c r="M27">
-        <v>0.70400656814449902</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" t="s">
-        <v>185</v>
-      </c>
-      <c r="C28" t="s">
-        <v>222</v>
-      </c>
-      <c r="D28" t="s">
-        <v>132</v>
-      </c>
-      <c r="E28" t="s">
-        <v>132</v>
-      </c>
-      <c r="F28" t="s">
-        <v>187</v>
-      </c>
-      <c r="G28">
-        <v>2018</v>
-      </c>
-      <c r="H28" t="s">
-        <v>132</v>
-      </c>
-      <c r="I28" t="s">
-        <v>132</v>
-      </c>
-      <c r="J28" t="s">
-        <v>132</v>
-      </c>
-      <c r="K28" t="s">
-        <v>132</v>
-      </c>
-      <c r="L28">
-        <v>0.9</v>
-      </c>
-      <c r="M28">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" t="s">
-        <v>185</v>
-      </c>
-      <c r="C29" t="s">
-        <v>146</v>
-      </c>
-      <c r="D29" t="s">
-        <v>132</v>
-      </c>
-      <c r="E29" t="s">
-        <v>132</v>
-      </c>
-      <c r="F29" t="s">
-        <v>187</v>
-      </c>
-      <c r="G29">
-        <v>2018</v>
-      </c>
-      <c r="H29" t="s">
-        <v>132</v>
-      </c>
-      <c r="I29" t="s">
-        <v>132</v>
-      </c>
-      <c r="J29" t="s">
-        <v>132</v>
-      </c>
-      <c r="K29" t="s">
-        <v>132</v>
-      </c>
-      <c r="L29">
-        <v>0.619863294600137</v>
-      </c>
-      <c r="M29">
-        <v>0.619863294600137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" t="s">
-        <v>185</v>
-      </c>
-      <c r="C30" t="s">
-        <v>147</v>
-      </c>
-      <c r="D30" t="s">
-        <v>132</v>
-      </c>
-      <c r="E30" t="s">
-        <v>132</v>
-      </c>
-      <c r="F30" t="s">
-        <v>187</v>
-      </c>
-      <c r="G30">
-        <v>2018</v>
-      </c>
-      <c r="H30" t="s">
-        <v>132</v>
-      </c>
-      <c r="I30" t="s">
-        <v>132</v>
-      </c>
-      <c r="J30" t="s">
-        <v>132</v>
-      </c>
-      <c r="K30" t="s">
-        <v>132</v>
-      </c>
-      <c r="L30">
-        <v>0.99952095808383201</v>
-      </c>
-      <c r="M30">
-        <v>0.99952095808383201</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" t="s">
-        <v>185</v>
-      </c>
-      <c r="C31" t="s">
-        <v>148</v>
-      </c>
-      <c r="D31" t="s">
-        <v>132</v>
-      </c>
-      <c r="E31" t="s">
-        <v>132</v>
-      </c>
-      <c r="F31" t="s">
-        <v>187</v>
-      </c>
-      <c r="G31">
-        <v>2018</v>
-      </c>
-      <c r="H31" t="s">
-        <v>132</v>
-      </c>
-      <c r="I31" t="s">
-        <v>132</v>
-      </c>
-      <c r="J31" t="s">
-        <v>132</v>
-      </c>
-      <c r="K31" t="s">
-        <v>132</v>
-      </c>
-      <c r="L31">
-        <v>3.0897837837837798</v>
-      </c>
-      <c r="M31">
-        <v>3.0897837837837798</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" t="s">
-        <v>185</v>
-      </c>
-      <c r="C32" t="s">
-        <v>223</v>
-      </c>
-      <c r="D32" t="s">
-        <v>132</v>
-      </c>
-      <c r="E32" t="s">
-        <v>132</v>
-      </c>
-      <c r="F32" t="s">
-        <v>187</v>
-      </c>
-      <c r="G32">
-        <v>2018</v>
-      </c>
-      <c r="H32" t="s">
-        <v>132</v>
-      </c>
-      <c r="I32" t="s">
-        <v>132</v>
-      </c>
-      <c r="J32" t="s">
-        <v>132</v>
-      </c>
-      <c r="K32" t="s">
-        <v>132</v>
-      </c>
-      <c r="L32">
-        <v>0.9</v>
-      </c>
-      <c r="M32">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>77</v>
-      </c>
-      <c r="B33" t="s">
-        <v>185</v>
-      </c>
-      <c r="C33" t="s">
-        <v>224</v>
-      </c>
-      <c r="D33" t="s">
-        <v>132</v>
-      </c>
-      <c r="E33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F33" t="s">
-        <v>187</v>
-      </c>
-      <c r="G33">
-        <v>2018</v>
-      </c>
-      <c r="H33" t="s">
-        <v>132</v>
-      </c>
-      <c r="I33" t="s">
-        <v>132</v>
-      </c>
-      <c r="J33" t="s">
-        <v>132</v>
-      </c>
-      <c r="K33" t="s">
-        <v>132</v>
-      </c>
-      <c r="L33">
-        <v>0.82728758169934602</v>
-      </c>
-      <c r="M33">
-        <v>0.82728758169934602</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" t="s">
-        <v>185</v>
-      </c>
-      <c r="C34" t="s">
-        <v>225</v>
-      </c>
-      <c r="D34" t="s">
-        <v>132</v>
-      </c>
-      <c r="E34" t="s">
-        <v>132</v>
-      </c>
-      <c r="F34" t="s">
-        <v>187</v>
-      </c>
-      <c r="G34">
-        <v>2018</v>
-      </c>
-      <c r="H34" t="s">
-        <v>132</v>
-      </c>
-      <c r="I34" t="s">
-        <v>132</v>
-      </c>
-      <c r="J34" t="s">
-        <v>132</v>
-      </c>
-      <c r="K34" t="s">
-        <v>132</v>
-      </c>
-      <c r="L34">
-        <v>3.0897837837837798</v>
-      </c>
-      <c r="M34">
-        <v>3.0897837837837798</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" t="s">
-        <v>185</v>
-      </c>
-      <c r="C35" t="s">
-        <v>149</v>
-      </c>
-      <c r="D35" t="s">
-        <v>132</v>
-      </c>
-      <c r="E35" t="s">
-        <v>132</v>
-      </c>
-      <c r="F35" t="s">
-        <v>187</v>
-      </c>
-      <c r="G35">
-        <v>2018</v>
-      </c>
-      <c r="H35" t="s">
-        <v>132</v>
-      </c>
-      <c r="I35" t="s">
-        <v>132</v>
-      </c>
-      <c r="J35" t="s">
-        <v>132</v>
-      </c>
-      <c r="K35" t="s">
-        <v>132</v>
-      </c>
-      <c r="L35">
-        <v>0.65865731206453004</v>
-      </c>
-      <c r="M35">
-        <v>0.65865731206453004</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36" t="s">
-        <v>185</v>
-      </c>
-      <c r="C36" t="s">
-        <v>226</v>
-      </c>
-      <c r="D36" t="s">
-        <v>132</v>
-      </c>
-      <c r="E36" t="s">
-        <v>132</v>
-      </c>
-      <c r="F36" t="s">
-        <v>187</v>
-      </c>
-      <c r="G36">
-        <v>2018</v>
-      </c>
-      <c r="H36" t="s">
-        <v>132</v>
-      </c>
-      <c r="I36" t="s">
-        <v>132</v>
-      </c>
-      <c r="J36" t="s">
-        <v>132</v>
-      </c>
-      <c r="K36" t="s">
-        <v>132</v>
-      </c>
-      <c r="L36">
-        <v>0.82280373831775699</v>
-      </c>
-      <c r="M36">
-        <v>0.82280373831775699</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" t="s">
-        <v>185</v>
-      </c>
-      <c r="C37" t="s">
-        <v>227</v>
-      </c>
-      <c r="D37" t="s">
-        <v>132</v>
-      </c>
-      <c r="E37" t="s">
-        <v>132</v>
-      </c>
-      <c r="F37" t="s">
-        <v>187</v>
-      </c>
-      <c r="G37">
-        <v>2018</v>
-      </c>
-      <c r="H37" t="s">
-        <v>132</v>
-      </c>
-      <c r="I37" t="s">
-        <v>132</v>
-      </c>
-      <c r="J37" t="s">
-        <v>132</v>
-      </c>
-      <c r="K37" t="s">
-        <v>132</v>
-      </c>
-      <c r="L37">
-        <v>0.82661774762699303</v>
-      </c>
-      <c r="M37">
-        <v>0.82661774762699303</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" t="s">
-        <v>185</v>
-      </c>
-      <c r="C38" t="s">
-        <v>150</v>
-      </c>
-      <c r="D38" t="s">
-        <v>132</v>
-      </c>
-      <c r="E38" t="s">
-        <v>132</v>
-      </c>
-      <c r="F38" t="s">
-        <v>187</v>
-      </c>
-      <c r="G38">
-        <v>2018</v>
-      </c>
-      <c r="H38" t="s">
-        <v>132</v>
-      </c>
-      <c r="I38" t="s">
-        <v>132</v>
-      </c>
-      <c r="J38" t="s">
-        <v>132</v>
-      </c>
-      <c r="K38" t="s">
-        <v>132</v>
-      </c>
-      <c r="L38">
-        <v>0.54578947368421105</v>
-      </c>
-      <c r="M38">
-        <v>0.54578947368421105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>77</v>
-      </c>
-      <c r="B39" t="s">
-        <v>185</v>
-      </c>
-      <c r="C39" t="s">
-        <v>151</v>
-      </c>
-      <c r="D39" t="s">
-        <v>132</v>
-      </c>
-      <c r="E39" t="s">
-        <v>132</v>
-      </c>
-      <c r="F39" t="s">
-        <v>187</v>
-      </c>
-      <c r="G39">
-        <v>2018</v>
-      </c>
-      <c r="H39" t="s">
-        <v>132</v>
-      </c>
-      <c r="I39" t="s">
-        <v>132</v>
-      </c>
-      <c r="J39" t="s">
-        <v>132</v>
-      </c>
-      <c r="K39" t="s">
-        <v>132</v>
-      </c>
-      <c r="L39">
-        <v>0.61474226804123699</v>
-      </c>
-      <c r="M39">
-        <v>0.61474226804123699</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>77</v>
-      </c>
-      <c r="B40" t="s">
-        <v>185</v>
-      </c>
-      <c r="C40" t="s">
-        <v>228</v>
-      </c>
-      <c r="D40" t="s">
-        <v>132</v>
-      </c>
-      <c r="E40" t="s">
-        <v>132</v>
-      </c>
-      <c r="F40" t="s">
-        <v>187</v>
-      </c>
-      <c r="G40">
-        <v>2018</v>
-      </c>
-      <c r="H40" t="s">
-        <v>132</v>
-      </c>
-      <c r="I40" t="s">
-        <v>132</v>
-      </c>
-      <c r="J40" t="s">
-        <v>132</v>
-      </c>
-      <c r="K40" t="s">
-        <v>132</v>
-      </c>
-      <c r="L40">
-        <v>0.72928609692169399</v>
-      </c>
-      <c r="M40">
-        <v>0.72928609692169399</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41" t="s">
-        <v>185</v>
-      </c>
-      <c r="C41" t="s">
-        <v>229</v>
-      </c>
-      <c r="D41" t="s">
-        <v>132</v>
-      </c>
-      <c r="E41" t="s">
-        <v>132</v>
-      </c>
-      <c r="F41" t="s">
-        <v>187</v>
-      </c>
-      <c r="G41">
-        <v>2018</v>
-      </c>
-      <c r="H41" t="s">
-        <v>132</v>
-      </c>
-      <c r="I41" t="s">
-        <v>132</v>
-      </c>
-      <c r="J41" t="s">
-        <v>132</v>
-      </c>
-      <c r="K41" t="s">
-        <v>132</v>
-      </c>
-      <c r="L41">
-        <v>0.9</v>
-      </c>
-      <c r="M41">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>77</v>
-      </c>
-      <c r="B42" t="s">
-        <v>185</v>
-      </c>
-      <c r="C42" t="s">
-        <v>153</v>
-      </c>
-      <c r="D42" t="s">
-        <v>132</v>
-      </c>
-      <c r="E42" t="s">
-        <v>132</v>
-      </c>
-      <c r="F42" t="s">
-        <v>187</v>
-      </c>
-      <c r="G42">
-        <v>2018</v>
-      </c>
-      <c r="H42" t="s">
-        <v>132</v>
-      </c>
-      <c r="I42" t="s">
-        <v>132</v>
-      </c>
-      <c r="J42" t="s">
-        <v>132</v>
-      </c>
-      <c r="K42" t="s">
-        <v>132</v>
-      </c>
-      <c r="L42">
-        <v>0.59018803418803401</v>
-      </c>
-      <c r="M42">
-        <v>0.59018803418803401</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>77</v>
-      </c>
-      <c r="B43" t="s">
-        <v>185</v>
-      </c>
-      <c r="C43" t="s">
-        <v>154</v>
-      </c>
-      <c r="D43" t="s">
-        <v>132</v>
-      </c>
-      <c r="E43" t="s">
-        <v>132</v>
-      </c>
-      <c r="F43" t="s">
-        <v>187</v>
-      </c>
-      <c r="G43">
-        <v>2018</v>
-      </c>
-      <c r="H43" t="s">
-        <v>132</v>
-      </c>
-      <c r="I43" t="s">
-        <v>132</v>
-      </c>
-      <c r="J43" t="s">
-        <v>132</v>
-      </c>
-      <c r="K43" t="s">
-        <v>132</v>
-      </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
-      <c r="M43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>77</v>
-      </c>
-      <c r="B44" t="s">
-        <v>185</v>
-      </c>
-      <c r="C44" t="s">
-        <v>155</v>
-      </c>
-      <c r="D44" t="s">
-        <v>132</v>
-      </c>
-      <c r="E44" t="s">
-        <v>132</v>
-      </c>
-      <c r="F44" t="s">
-        <v>187</v>
-      </c>
-      <c r="G44">
-        <v>2018</v>
-      </c>
-      <c r="H44" t="s">
-        <v>132</v>
-      </c>
-      <c r="I44" t="s">
-        <v>132</v>
-      </c>
-      <c r="J44" t="s">
-        <v>132</v>
-      </c>
-      <c r="K44" t="s">
-        <v>132</v>
-      </c>
-      <c r="L44">
-        <v>3.07019607843137</v>
-      </c>
-      <c r="M44">
-        <v>3.07019607843137</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>77</v>
-      </c>
-      <c r="B45" t="s">
-        <v>185</v>
-      </c>
-      <c r="C45" t="s">
-        <v>230</v>
-      </c>
-      <c r="D45" t="s">
-        <v>132</v>
-      </c>
-      <c r="E45" t="s">
-        <v>132</v>
-      </c>
-      <c r="F45" t="s">
-        <v>187</v>
-      </c>
-      <c r="G45">
-        <v>2018</v>
-      </c>
-      <c r="H45" t="s">
-        <v>132</v>
-      </c>
-      <c r="I45" t="s">
-        <v>132</v>
-      </c>
-      <c r="J45" t="s">
-        <v>132</v>
-      </c>
-      <c r="K45" t="s">
-        <v>132</v>
-      </c>
-      <c r="L45">
-        <v>0.9</v>
-      </c>
-      <c r="M45">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>77</v>
-      </c>
-      <c r="B46" t="s">
-        <v>185</v>
-      </c>
-      <c r="C46" t="s">
-        <v>231</v>
-      </c>
-      <c r="D46" t="s">
-        <v>132</v>
-      </c>
-      <c r="E46" t="s">
-        <v>132</v>
-      </c>
-      <c r="F46" t="s">
-        <v>187</v>
-      </c>
-      <c r="G46">
-        <v>2018</v>
-      </c>
-      <c r="H46" t="s">
-        <v>132</v>
-      </c>
-      <c r="I46" t="s">
-        <v>132</v>
-      </c>
-      <c r="J46" t="s">
-        <v>132</v>
-      </c>
-      <c r="K46" t="s">
-        <v>132</v>
-      </c>
-      <c r="L46">
-        <v>0.810268817204301</v>
-      </c>
-      <c r="M46">
-        <v>0.810268817204301</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>77</v>
-      </c>
-      <c r="B47" t="s">
-        <v>185</v>
-      </c>
-      <c r="C47" t="s">
-        <v>156</v>
-      </c>
-      <c r="D47" t="s">
-        <v>132</v>
-      </c>
-      <c r="E47" t="s">
-        <v>132</v>
-      </c>
-      <c r="F47" t="s">
-        <v>187</v>
-      </c>
-      <c r="G47">
-        <v>2018</v>
-      </c>
-      <c r="H47" t="s">
-        <v>132</v>
-      </c>
-      <c r="I47" t="s">
-        <v>132</v>
-      </c>
-      <c r="J47" t="s">
-        <v>132</v>
-      </c>
-      <c r="K47" t="s">
-        <v>132</v>
-      </c>
-      <c r="L47">
-        <v>0.39838442187649997</v>
-      </c>
-      <c r="M47">
-        <v>0.39838442187649997</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>77</v>
-      </c>
-      <c r="B48" t="s">
-        <v>185</v>
-      </c>
-      <c r="C48" t="s">
-        <v>232</v>
-      </c>
-      <c r="D48" t="s">
-        <v>132</v>
-      </c>
-      <c r="E48" t="s">
-        <v>132</v>
-      </c>
-      <c r="F48" t="s">
-        <v>187</v>
-      </c>
-      <c r="G48">
-        <v>2018</v>
-      </c>
-      <c r="H48" t="s">
-        <v>132</v>
-      </c>
-      <c r="I48" t="s">
-        <v>132</v>
-      </c>
-      <c r="J48" t="s">
-        <v>132</v>
-      </c>
-      <c r="K48" t="s">
-        <v>132</v>
-      </c>
-      <c r="L48">
-        <v>0.81016216216216197</v>
-      </c>
-      <c r="M48">
-        <v>0.81016216216216197</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>77</v>
-      </c>
-      <c r="B49" t="s">
-        <v>185</v>
-      </c>
-      <c r="C49" t="s">
-        <v>233</v>
-      </c>
-      <c r="D49" t="s">
-        <v>132</v>
-      </c>
-      <c r="E49" t="s">
-        <v>132</v>
-      </c>
-      <c r="F49" t="s">
-        <v>187</v>
-      </c>
-      <c r="G49">
-        <v>2018</v>
-      </c>
-      <c r="H49" t="s">
-        <v>132</v>
-      </c>
-      <c r="I49" t="s">
-        <v>132</v>
-      </c>
-      <c r="J49" t="s">
-        <v>132</v>
-      </c>
-      <c r="K49" t="s">
-        <v>132</v>
-      </c>
-      <c r="L49">
-        <v>0.80677902621722797</v>
-      </c>
-      <c r="M49">
-        <v>0.80677902621722797</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>77</v>
-      </c>
-      <c r="B50" t="s">
-        <v>185</v>
-      </c>
-      <c r="C50" t="s">
-        <v>157</v>
-      </c>
-      <c r="D50" t="s">
-        <v>132</v>
-      </c>
-      <c r="E50" t="s">
-        <v>132</v>
-      </c>
-      <c r="F50" t="s">
-        <v>187</v>
-      </c>
-      <c r="G50">
-        <v>2018</v>
-      </c>
-      <c r="H50" t="s">
-        <v>132</v>
-      </c>
-      <c r="I50" t="s">
-        <v>132</v>
-      </c>
-      <c r="J50" t="s">
-        <v>132</v>
-      </c>
-      <c r="K50" t="s">
-        <v>132</v>
-      </c>
-      <c r="L50">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="M50">
-        <v>0.52500000000000002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>77</v>
-      </c>
-      <c r="B51" t="s">
-        <v>185</v>
-      </c>
-      <c r="C51" t="s">
-        <v>158</v>
-      </c>
-      <c r="D51" t="s">
-        <v>132</v>
-      </c>
-      <c r="E51" t="s">
-        <v>132</v>
-      </c>
-      <c r="F51" t="s">
-        <v>187</v>
-      </c>
-      <c r="G51">
-        <v>2018</v>
-      </c>
-      <c r="H51" t="s">
-        <v>132</v>
-      </c>
-      <c r="I51" t="s">
-        <v>132</v>
-      </c>
-      <c r="J51" t="s">
-        <v>132</v>
-      </c>
-      <c r="K51" t="s">
-        <v>132</v>
-      </c>
-      <c r="L51">
-        <v>0.58177777777777795</v>
-      </c>
-      <c r="M51">
-        <v>0.58177777777777795</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>77</v>
-      </c>
-      <c r="B52" t="s">
-        <v>185</v>
-      </c>
-      <c r="C52" t="s">
-        <v>234</v>
-      </c>
-      <c r="D52" t="s">
-        <v>132</v>
-      </c>
-      <c r="E52" t="s">
-        <v>132</v>
-      </c>
-      <c r="F52" t="s">
-        <v>187</v>
-      </c>
-      <c r="G52">
-        <v>2018</v>
-      </c>
-      <c r="H52" t="s">
-        <v>132</v>
-      </c>
-      <c r="I52" t="s">
-        <v>132</v>
-      </c>
-      <c r="J52" t="s">
-        <v>132</v>
-      </c>
-      <c r="K52" t="s">
-        <v>132</v>
-      </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
-      <c r="M52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>77</v>
-      </c>
-      <c r="B53" t="s">
-        <v>185</v>
-      </c>
-      <c r="C53" t="s">
-        <v>235</v>
-      </c>
-      <c r="D53" t="s">
-        <v>132</v>
-      </c>
-      <c r="E53" t="s">
-        <v>132</v>
-      </c>
-      <c r="F53" t="s">
-        <v>187</v>
-      </c>
-      <c r="G53">
-        <v>2018</v>
-      </c>
-      <c r="H53" t="s">
-        <v>132</v>
-      </c>
-      <c r="I53" t="s">
-        <v>132</v>
-      </c>
-      <c r="J53" t="s">
-        <v>132</v>
-      </c>
-      <c r="K53" t="s">
-        <v>132</v>
-      </c>
-      <c r="L53">
-        <v>0.68804511278195502</v>
-      </c>
-      <c r="M53">
-        <v>0.68804511278195502</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>77</v>
-      </c>
-      <c r="B54" t="s">
-        <v>185</v>
-      </c>
-      <c r="C54" t="s">
-        <v>236</v>
-      </c>
-      <c r="D54" t="s">
-        <v>132</v>
-      </c>
-      <c r="E54" t="s">
-        <v>132</v>
-      </c>
-      <c r="F54" t="s">
-        <v>187</v>
-      </c>
-      <c r="G54">
-        <v>2018</v>
-      </c>
-      <c r="H54" t="s">
-        <v>132</v>
-      </c>
-      <c r="I54" t="s">
-        <v>132</v>
-      </c>
-      <c r="J54" t="s">
-        <v>132</v>
-      </c>
-      <c r="K54" t="s">
-        <v>132</v>
-      </c>
-      <c r="L54">
-        <v>1</v>
-      </c>
-      <c r="M54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>77</v>
-      </c>
-      <c r="B55" t="s">
-        <v>185</v>
-      </c>
-      <c r="C55" t="s">
-        <v>159</v>
-      </c>
-      <c r="D55" t="s">
-        <v>132</v>
-      </c>
-      <c r="E55" t="s">
-        <v>132</v>
-      </c>
-      <c r="F55" t="s">
-        <v>187</v>
-      </c>
-      <c r="G55">
-        <v>2018</v>
-      </c>
-      <c r="H55" t="s">
-        <v>132</v>
-      </c>
-      <c r="I55" t="s">
-        <v>132</v>
-      </c>
-      <c r="J55" t="s">
-        <v>132</v>
-      </c>
-      <c r="K55" t="s">
-        <v>132</v>
-      </c>
-      <c r="L55">
-        <v>0.55798087905732696</v>
-      </c>
-      <c r="M55">
-        <v>0.55798087905732696</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>77</v>
-      </c>
-      <c r="B56" t="s">
-        <v>185</v>
-      </c>
-      <c r="C56" t="s">
-        <v>160</v>
-      </c>
-      <c r="D56" t="s">
-        <v>132</v>
-      </c>
-      <c r="E56" t="s">
-        <v>132</v>
-      </c>
-      <c r="F56" t="s">
-        <v>187</v>
-      </c>
-      <c r="G56">
-        <v>2018</v>
-      </c>
-      <c r="H56" t="s">
-        <v>132</v>
-      </c>
-      <c r="I56" t="s">
-        <v>132</v>
-      </c>
-      <c r="J56" t="s">
-        <v>132</v>
-      </c>
-      <c r="K56" t="s">
-        <v>132</v>
-      </c>
-      <c r="L56">
-        <v>1</v>
-      </c>
-      <c r="M56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>77</v>
-      </c>
-      <c r="B57" t="s">
-        <v>185</v>
-      </c>
-      <c r="C57" t="s">
-        <v>161</v>
-      </c>
-      <c r="D57" t="s">
-        <v>132</v>
-      </c>
-      <c r="E57" t="s">
-        <v>132</v>
-      </c>
-      <c r="F57" t="s">
-        <v>187</v>
-      </c>
-      <c r="G57">
-        <v>2018</v>
-      </c>
-      <c r="H57" t="s">
-        <v>132</v>
-      </c>
-      <c r="I57" t="s">
-        <v>132</v>
-      </c>
-      <c r="J57" t="s">
-        <v>132</v>
-      </c>
-      <c r="K57" t="s">
-        <v>132</v>
-      </c>
-      <c r="L57">
-        <v>3.1157627118644098</v>
-      </c>
-      <c r="M57">
-        <v>3.1157627118644098</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>77</v>
-      </c>
-      <c r="B58" t="s">
-        <v>185</v>
-      </c>
-      <c r="C58" t="s">
-        <v>237</v>
-      </c>
-      <c r="D58" t="s">
-        <v>132</v>
-      </c>
-      <c r="E58" t="s">
-        <v>132</v>
-      </c>
-      <c r="F58" t="s">
-        <v>187</v>
-      </c>
-      <c r="G58">
-        <v>2018</v>
-      </c>
-      <c r="H58" t="s">
-        <v>132</v>
-      </c>
-      <c r="I58" t="s">
-        <v>132</v>
-      </c>
-      <c r="J58" t="s">
-        <v>132</v>
-      </c>
-      <c r="K58" t="s">
-        <v>132</v>
-      </c>
-      <c r="L58">
-        <v>0.9</v>
-      </c>
-      <c r="M58">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>77</v>
-      </c>
-      <c r="B59" t="s">
-        <v>185</v>
-      </c>
-      <c r="C59" t="s">
-        <v>238</v>
-      </c>
-      <c r="D59" t="s">
-        <v>132</v>
-      </c>
-      <c r="E59" t="s">
-        <v>132</v>
-      </c>
-      <c r="F59" t="s">
-        <v>187</v>
-      </c>
-      <c r="G59">
-        <v>2018</v>
-      </c>
-      <c r="H59" t="s">
-        <v>132</v>
-      </c>
-      <c r="I59" t="s">
-        <v>132</v>
-      </c>
-      <c r="J59" t="s">
-        <v>132</v>
-      </c>
-      <c r="K59" t="s">
-        <v>132</v>
-      </c>
-      <c r="L59">
-        <v>0.81729411764705895</v>
-      </c>
-      <c r="M59">
-        <v>0.81729411764705895</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>77</v>
-      </c>
-      <c r="B60" t="s">
-        <v>185</v>
-      </c>
-      <c r="C60" t="s">
-        <v>162</v>
-      </c>
-      <c r="D60" t="s">
-        <v>132</v>
-      </c>
-      <c r="E60" t="s">
-        <v>132</v>
-      </c>
-      <c r="F60" t="s">
-        <v>187</v>
-      </c>
-      <c r="G60">
-        <v>2018</v>
-      </c>
-      <c r="H60" t="s">
-        <v>132</v>
-      </c>
-      <c r="I60" t="s">
-        <v>132</v>
-      </c>
-      <c r="J60" t="s">
-        <v>132</v>
-      </c>
-      <c r="K60" t="s">
-        <v>132</v>
-      </c>
-      <c r="L60">
-        <v>0.60949973059968399</v>
-      </c>
-      <c r="M60">
-        <v>0.60949973059968399</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>77</v>
-      </c>
-      <c r="B61" t="s">
-        <v>185</v>
-      </c>
-      <c r="C61" t="s">
-        <v>239</v>
-      </c>
-      <c r="D61" t="s">
-        <v>132</v>
-      </c>
-      <c r="E61" t="s">
-        <v>132</v>
-      </c>
-      <c r="F61" t="s">
-        <v>187</v>
-      </c>
-      <c r="G61">
-        <v>2018</v>
-      </c>
-      <c r="H61" t="s">
-        <v>132</v>
-      </c>
-      <c r="I61" t="s">
-        <v>132</v>
-      </c>
-      <c r="J61" t="s">
-        <v>132</v>
-      </c>
-      <c r="K61" t="s">
-        <v>132</v>
-      </c>
-      <c r="L61">
-        <v>0.81941558441558404</v>
-      </c>
-      <c r="M61">
-        <v>0.81941558441558404</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>77</v>
-      </c>
-      <c r="B62" t="s">
-        <v>185</v>
-      </c>
-      <c r="C62" t="s">
-        <v>240</v>
-      </c>
-      <c r="D62" t="s">
-        <v>132</v>
-      </c>
-      <c r="E62" t="s">
-        <v>132</v>
-      </c>
-      <c r="F62" t="s">
-        <v>187</v>
-      </c>
-      <c r="G62">
-        <v>2018</v>
-      </c>
-      <c r="H62" t="s">
-        <v>132</v>
-      </c>
-      <c r="I62" t="s">
-        <v>132</v>
-      </c>
-      <c r="J62" t="s">
-        <v>132</v>
-      </c>
-      <c r="K62" t="s">
-        <v>132</v>
-      </c>
-      <c r="L62">
-        <v>0.80707577433628297</v>
-      </c>
-      <c r="M62">
-        <v>0.80707577433628297</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>77</v>
-      </c>
-      <c r="B63" t="s">
-        <v>185</v>
-      </c>
-      <c r="C63" t="s">
-        <v>163</v>
-      </c>
-      <c r="D63" t="s">
-        <v>132</v>
-      </c>
-      <c r="E63" t="s">
-        <v>132</v>
-      </c>
-      <c r="F63" t="s">
-        <v>187</v>
-      </c>
-      <c r="G63">
-        <v>2018</v>
-      </c>
-      <c r="H63" t="s">
-        <v>132</v>
-      </c>
-      <c r="I63" t="s">
-        <v>132</v>
-      </c>
-      <c r="J63" t="s">
-        <v>132</v>
-      </c>
-      <c r="K63" t="s">
-        <v>132</v>
-      </c>
-      <c r="L63">
-        <v>0.55092948717948698</v>
-      </c>
-      <c r="M63">
-        <v>0.55092948717948698</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>77</v>
-      </c>
-      <c r="B64" t="s">
-        <v>185</v>
-      </c>
-      <c r="C64" t="s">
-        <v>164</v>
-      </c>
-      <c r="D64" t="s">
-        <v>132</v>
-      </c>
-      <c r="E64" t="s">
-        <v>132</v>
-      </c>
-      <c r="F64" t="s">
-        <v>187</v>
-      </c>
-      <c r="G64">
-        <v>2018</v>
-      </c>
-      <c r="H64" t="s">
-        <v>132</v>
-      </c>
-      <c r="I64" t="s">
-        <v>132</v>
-      </c>
-      <c r="J64" t="s">
-        <v>132</v>
-      </c>
-      <c r="K64" t="s">
-        <v>132</v>
-      </c>
-      <c r="L64">
-        <v>0.57113772455089795</v>
-      </c>
-      <c r="M64">
-        <v>0.57113772455089795</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>77</v>
-      </c>
-      <c r="B65" t="s">
-        <v>185</v>
-      </c>
-      <c r="C65" t="s">
-        <v>241</v>
-      </c>
-      <c r="D65" t="s">
-        <v>132</v>
-      </c>
-      <c r="E65" t="s">
-        <v>132</v>
-      </c>
-      <c r="F65" t="s">
-        <v>187</v>
-      </c>
-      <c r="G65">
-        <v>2018</v>
-      </c>
-      <c r="H65" t="s">
-        <v>132</v>
-      </c>
-      <c r="I65" t="s">
-        <v>132</v>
-      </c>
-      <c r="J65" t="s">
-        <v>132</v>
-      </c>
-      <c r="K65" t="s">
-        <v>132</v>
-      </c>
-      <c r="L65">
-        <v>1</v>
-      </c>
-      <c r="M65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>77</v>
-      </c>
-      <c r="B66" t="s">
-        <v>185</v>
-      </c>
-      <c r="C66" t="s">
-        <v>242</v>
-      </c>
-      <c r="D66" t="s">
-        <v>132</v>
-      </c>
-      <c r="E66" t="s">
-        <v>132</v>
-      </c>
-      <c r="F66" t="s">
-        <v>187</v>
-      </c>
-      <c r="G66">
-        <v>2018</v>
-      </c>
-      <c r="H66" t="s">
-        <v>132</v>
-      </c>
-      <c r="I66" t="s">
-        <v>132</v>
-      </c>
-      <c r="J66" t="s">
-        <v>132</v>
-      </c>
-      <c r="K66" t="s">
-        <v>132</v>
-      </c>
-      <c r="L66">
-        <v>0.70400656814449902</v>
-      </c>
-      <c r="M66">
-        <v>0.70400656814449902</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>77</v>
-      </c>
-      <c r="B67" t="s">
-        <v>185</v>
-      </c>
-      <c r="C67" t="s">
-        <v>243</v>
-      </c>
-      <c r="D67" t="s">
-        <v>132</v>
-      </c>
-      <c r="E67" t="s">
-        <v>132</v>
-      </c>
-      <c r="F67" t="s">
-        <v>187</v>
-      </c>
-      <c r="G67">
-        <v>2018</v>
-      </c>
-      <c r="H67" t="s">
-        <v>132</v>
-      </c>
-      <c r="I67" t="s">
-        <v>132</v>
-      </c>
-      <c r="J67" t="s">
-        <v>132</v>
-      </c>
-      <c r="K67" t="s">
-        <v>132</v>
-      </c>
-      <c r="L67">
-        <v>0.9</v>
-      </c>
-      <c r="M67">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>77</v>
-      </c>
-      <c r="B68" t="s">
-        <v>185</v>
-      </c>
-      <c r="C68" t="s">
-        <v>165</v>
-      </c>
-      <c r="D68" t="s">
-        <v>132</v>
-      </c>
-      <c r="E68" t="s">
-        <v>132</v>
-      </c>
-      <c r="F68" t="s">
-        <v>187</v>
-      </c>
-      <c r="G68">
-        <v>2018</v>
-      </c>
-      <c r="H68" t="s">
-        <v>132</v>
-      </c>
-      <c r="I68" t="s">
-        <v>132</v>
-      </c>
-      <c r="J68" t="s">
-        <v>132</v>
-      </c>
-      <c r="K68" t="s">
-        <v>132</v>
-      </c>
-      <c r="L68">
-        <v>0.619863294600137</v>
-      </c>
-      <c r="M68">
-        <v>0.619863294600137</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>77</v>
-      </c>
-      <c r="B69" t="s">
-        <v>185</v>
-      </c>
-      <c r="C69" t="s">
-        <v>166</v>
-      </c>
-      <c r="D69" t="s">
-        <v>132</v>
-      </c>
-      <c r="E69" t="s">
-        <v>132</v>
-      </c>
-      <c r="F69" t="s">
-        <v>187</v>
-      </c>
-      <c r="G69">
-        <v>2018</v>
-      </c>
-      <c r="H69" t="s">
-        <v>132</v>
-      </c>
-      <c r="I69" t="s">
-        <v>132</v>
-      </c>
-      <c r="J69" t="s">
-        <v>132</v>
-      </c>
-      <c r="K69" t="s">
-        <v>132</v>
-      </c>
-      <c r="L69">
-        <v>0.99952095808383201</v>
-      </c>
-      <c r="M69">
-        <v>0.99952095808383201</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>77</v>
-      </c>
-      <c r="B70" t="s">
-        <v>185</v>
-      </c>
-      <c r="C70" t="s">
-        <v>167</v>
-      </c>
-      <c r="D70" t="s">
-        <v>132</v>
-      </c>
-      <c r="E70" t="s">
-        <v>132</v>
-      </c>
-      <c r="F70" t="s">
-        <v>187</v>
-      </c>
-      <c r="G70">
-        <v>2018</v>
-      </c>
-      <c r="H70" t="s">
-        <v>132</v>
-      </c>
-      <c r="I70" t="s">
-        <v>132</v>
-      </c>
-      <c r="J70" t="s">
-        <v>132</v>
-      </c>
-      <c r="K70" t="s">
-        <v>132</v>
-      </c>
-      <c r="L70">
-        <v>3.0897837837837798</v>
-      </c>
-      <c r="M70">
-        <v>3.0897837837837798</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>77</v>
-      </c>
-      <c r="B71" t="s">
-        <v>185</v>
-      </c>
-      <c r="C71" t="s">
-        <v>244</v>
-      </c>
-      <c r="D71" t="s">
-        <v>132</v>
-      </c>
-      <c r="E71" t="s">
-        <v>132</v>
-      </c>
-      <c r="F71" t="s">
-        <v>187</v>
-      </c>
-      <c r="G71">
-        <v>2018</v>
-      </c>
-      <c r="H71" t="s">
-        <v>132</v>
-      </c>
-      <c r="I71" t="s">
-        <v>132</v>
-      </c>
-      <c r="J71" t="s">
-        <v>132</v>
-      </c>
-      <c r="K71" t="s">
-        <v>132</v>
-      </c>
-      <c r="L71">
-        <v>0.9</v>
-      </c>
-      <c r="M71">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72" t="s">
-        <v>185</v>
-      </c>
-      <c r="C72" t="s">
-        <v>245</v>
-      </c>
-      <c r="D72" t="s">
-        <v>132</v>
-      </c>
-      <c r="E72" t="s">
-        <v>132</v>
-      </c>
-      <c r="F72" t="s">
-        <v>187</v>
-      </c>
-      <c r="G72">
-        <v>2018</v>
-      </c>
-      <c r="H72" t="s">
-        <v>132</v>
-      </c>
-      <c r="I72" t="s">
-        <v>132</v>
-      </c>
-      <c r="J72" t="s">
-        <v>132</v>
-      </c>
-      <c r="K72" t="s">
-        <v>132</v>
-      </c>
-      <c r="L72">
-        <v>0.82728758169934602</v>
-      </c>
-      <c r="M72">
-        <v>0.82728758169934602</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>77</v>
-      </c>
-      <c r="B73" t="s">
-        <v>185</v>
-      </c>
-      <c r="C73" t="s">
-        <v>168</v>
-      </c>
-      <c r="D73" t="s">
-        <v>132</v>
-      </c>
-      <c r="E73" t="s">
-        <v>132</v>
-      </c>
-      <c r="F73" t="s">
-        <v>187</v>
-      </c>
-      <c r="G73">
-        <v>2018</v>
-      </c>
-      <c r="H73" t="s">
-        <v>132</v>
-      </c>
-      <c r="I73" t="s">
-        <v>132</v>
-      </c>
-      <c r="J73" t="s">
-        <v>132</v>
-      </c>
-      <c r="K73" t="s">
-        <v>132</v>
-      </c>
-      <c r="L73">
-        <v>0.65865731206453004</v>
-      </c>
-      <c r="M73">
-        <v>0.65865731206453004</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>77</v>
-      </c>
-      <c r="B74" t="s">
-        <v>185</v>
-      </c>
-      <c r="C74" t="s">
-        <v>246</v>
-      </c>
-      <c r="D74" t="s">
-        <v>132</v>
-      </c>
-      <c r="E74" t="s">
-        <v>132</v>
-      </c>
-      <c r="F74" t="s">
-        <v>187</v>
-      </c>
-      <c r="G74">
-        <v>2018</v>
-      </c>
-      <c r="H74" t="s">
-        <v>132</v>
-      </c>
-      <c r="I74" t="s">
-        <v>132</v>
-      </c>
-      <c r="J74" t="s">
-        <v>132</v>
-      </c>
-      <c r="K74" t="s">
-        <v>132</v>
-      </c>
-      <c r="L74">
-        <v>0.82280373831775699</v>
-      </c>
-      <c r="M74">
-        <v>0.82280373831775699</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>77</v>
-      </c>
-      <c r="B75" t="s">
-        <v>185</v>
-      </c>
-      <c r="C75" t="s">
-        <v>247</v>
-      </c>
-      <c r="D75" t="s">
-        <v>132</v>
-      </c>
-      <c r="E75" t="s">
-        <v>132</v>
-      </c>
-      <c r="F75" t="s">
-        <v>187</v>
-      </c>
-      <c r="G75">
-        <v>2018</v>
-      </c>
-      <c r="H75" t="s">
-        <v>132</v>
-      </c>
-      <c r="I75" t="s">
-        <v>132</v>
-      </c>
-      <c r="J75" t="s">
-        <v>132</v>
-      </c>
-      <c r="K75" t="s">
-        <v>132</v>
-      </c>
-      <c r="L75">
-        <v>0.82661774762699303</v>
-      </c>
-      <c r="M75">
-        <v>0.82661774762699303</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>77</v>
-      </c>
-      <c r="B76" t="s">
-        <v>185</v>
-      </c>
-      <c r="C76" t="s">
-        <v>169</v>
-      </c>
-      <c r="D76" t="s">
-        <v>132</v>
-      </c>
-      <c r="E76" t="s">
-        <v>132</v>
-      </c>
-      <c r="F76" t="s">
-        <v>187</v>
-      </c>
-      <c r="G76">
-        <v>2018</v>
-      </c>
-      <c r="H76" t="s">
-        <v>132</v>
-      </c>
-      <c r="I76" t="s">
-        <v>132</v>
-      </c>
-      <c r="J76" t="s">
-        <v>132</v>
-      </c>
-      <c r="K76" t="s">
-        <v>132</v>
-      </c>
-      <c r="L76">
-        <v>0.54578947368421105</v>
-      </c>
-      <c r="M76">
-        <v>0.54578947368421105</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>77</v>
-      </c>
-      <c r="B77" t="s">
-        <v>185</v>
-      </c>
-      <c r="C77" t="s">
-        <v>170</v>
-      </c>
-      <c r="D77" t="s">
-        <v>132</v>
-      </c>
-      <c r="E77" t="s">
-        <v>132</v>
-      </c>
-      <c r="F77" t="s">
-        <v>187</v>
-      </c>
-      <c r="G77">
-        <v>2018</v>
-      </c>
-      <c r="H77" t="s">
-        <v>132</v>
-      </c>
-      <c r="I77" t="s">
-        <v>132</v>
-      </c>
-      <c r="J77" t="s">
-        <v>132</v>
-      </c>
-      <c r="K77" t="s">
-        <v>132</v>
-      </c>
-      <c r="L77">
-        <v>0.61474226804123699</v>
-      </c>
-      <c r="M77">
-        <v>0.61474226804123699</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78" t="s">
-        <v>185</v>
-      </c>
-      <c r="C78" t="s">
-        <v>248</v>
-      </c>
-      <c r="D78" t="s">
-        <v>132</v>
-      </c>
-      <c r="E78" t="s">
-        <v>132</v>
-      </c>
-      <c r="F78" t="s">
-        <v>187</v>
-      </c>
-      <c r="G78">
-        <v>2018</v>
-      </c>
-      <c r="H78" t="s">
-        <v>132</v>
-      </c>
-      <c r="I78" t="s">
-        <v>132</v>
-      </c>
-      <c r="J78" t="s">
-        <v>132</v>
-      </c>
-      <c r="K78" t="s">
-        <v>132</v>
-      </c>
-      <c r="L78">
-        <v>3.0897837837837798</v>
-      </c>
-      <c r="M78">
-        <v>3.0897837837837798</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>185</v>
-      </c>
-      <c r="C79" t="s">
-        <v>249</v>
-      </c>
-      <c r="D79" t="s">
-        <v>132</v>
-      </c>
-      <c r="E79" t="s">
-        <v>132</v>
-      </c>
-      <c r="F79" t="s">
-        <v>187</v>
-      </c>
-      <c r="G79">
-        <v>2018</v>
-      </c>
-      <c r="H79" t="s">
-        <v>132</v>
-      </c>
-      <c r="I79" t="s">
-        <v>132</v>
-      </c>
-      <c r="J79" t="s">
-        <v>132</v>
-      </c>
-      <c r="K79" t="s">
-        <v>132</v>
-      </c>
-      <c r="L79">
-        <v>0.72928609692169399</v>
-      </c>
-      <c r="M79">
-        <v>0.72928609692169399</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/SubRES_TMPL/SubRes_RSD_Trans.xlsx
+++ b/SubRES_TMPL/SubRes_RSD_Trans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205EADA9-E86C-4486-87E7-FE25899F6B3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEC7C1E-AF9A-4D21-8E6E-0A97009CA311}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="819" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="819" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOG" sheetId="64" r:id="rId1"/>
@@ -18,22 +18,21 @@
     <sheet name="TechSelection" sheetId="34" r:id="rId3"/>
     <sheet name="FillTable" sheetId="47" r:id="rId4"/>
     <sheet name="AF" sheetId="48" r:id="rId5"/>
-    <sheet name="temp_capex" sheetId="65" r:id="rId6"/>
-    <sheet name="EFF" sheetId="61" r:id="rId7"/>
-    <sheet name="BY-RSD-WH_AF" sheetId="63" r:id="rId8"/>
-    <sheet name="BY-RSD-SH_AF" sheetId="62" r:id="rId9"/>
-    <sheet name="BY-RSD-EFF" sheetId="60" r:id="rId10"/>
-    <sheet name="BY-RSD-DW" sheetId="57" r:id="rId11"/>
-    <sheet name="BY-RSD-PF" sheetId="56" r:id="rId12"/>
-    <sheet name="BY-RSD-CD" sheetId="55" r:id="rId13"/>
-    <sheet name="BY-RSD-LT" sheetId="54" r:id="rId14"/>
-    <sheet name="BY-RSD-CW" sheetId="53" r:id="rId15"/>
-    <sheet name="BY-RSD-CK" sheetId="52" r:id="rId16"/>
-    <sheet name="BY-RSD-RF" sheetId="50" r:id="rId17"/>
-    <sheet name="BY-RSD-OE" sheetId="59" r:id="rId18"/>
+    <sheet name="EFF" sheetId="61" r:id="rId6"/>
+    <sheet name="BY-RSD-WH_AF" sheetId="63" r:id="rId7"/>
+    <sheet name="BY-RSD-SH_AF" sheetId="62" r:id="rId8"/>
+    <sheet name="BY-RSD-EFF" sheetId="60" r:id="rId9"/>
+    <sheet name="BY-RSD-DW" sheetId="57" r:id="rId10"/>
+    <sheet name="BY-RSD-PF" sheetId="56" r:id="rId11"/>
+    <sheet name="BY-RSD-CD" sheetId="55" r:id="rId12"/>
+    <sheet name="BY-RSD-LT" sheetId="54" r:id="rId13"/>
+    <sheet name="BY-RSD-CW" sheetId="53" r:id="rId14"/>
+    <sheet name="BY-RSD-CK" sheetId="52" r:id="rId15"/>
+    <sheet name="BY-RSD-RF" sheetId="50" r:id="rId16"/>
+    <sheet name="BY-RSD-OE" sheetId="59" r:id="rId17"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId19"/>
+    <externalReference r:id="rId18"/>
   </externalReferences>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
@@ -495,7 +494,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2760" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2753" uniqueCount="270">
   <si>
     <t>IE</t>
   </si>
@@ -1323,15 +1322,6 @@
   </si>
   <si>
     <t>*Space Cooling (dual techs)</t>
-  </si>
-  <si>
-    <t>NCAP_COST</t>
-  </si>
-  <si>
-    <t>R-S*,R-H*,R-W*</t>
-  </si>
-  <si>
-    <t>*0.1</t>
   </si>
 </sst>
 </file>
@@ -1603,7 +1593,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1698,9 +1688,6 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2323,3261 +2310,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049C6FC2-EA1E-4C97-AFD6-725E147BEBCD}">
-  <dimension ref="A1:M79"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K1" t="s">
-        <v>131</v>
-      </c>
-      <c r="L1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G2">
-        <v>2018</v>
-      </c>
-      <c r="H2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I2" t="s">
-        <v>132</v>
-      </c>
-      <c r="J2" t="s">
-        <v>132</v>
-      </c>
-      <c r="K2" t="s">
-        <v>132</v>
-      </c>
-      <c r="L2">
-        <v>0.9</v>
-      </c>
-      <c r="M2">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G3">
-        <v>2018</v>
-      </c>
-      <c r="H3" t="s">
-        <v>132</v>
-      </c>
-      <c r="I3" t="s">
-        <v>132</v>
-      </c>
-      <c r="J3" t="s">
-        <v>132</v>
-      </c>
-      <c r="K3" t="s">
-        <v>132</v>
-      </c>
-      <c r="L3">
-        <v>0.59018803418803401</v>
-      </c>
-      <c r="M3">
-        <v>0.59018803418803401</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F4" t="s">
-        <v>187</v>
-      </c>
-      <c r="G4">
-        <v>2018</v>
-      </c>
-      <c r="H4" t="s">
-        <v>132</v>
-      </c>
-      <c r="I4" t="s">
-        <v>132</v>
-      </c>
-      <c r="J4" t="s">
-        <v>132</v>
-      </c>
-      <c r="K4" t="s">
-        <v>132</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F5" t="s">
-        <v>187</v>
-      </c>
-      <c r="G5">
-        <v>2018</v>
-      </c>
-      <c r="H5" t="s">
-        <v>132</v>
-      </c>
-      <c r="I5" t="s">
-        <v>132</v>
-      </c>
-      <c r="J5" t="s">
-        <v>132</v>
-      </c>
-      <c r="K5" t="s">
-        <v>132</v>
-      </c>
-      <c r="L5">
-        <v>3.07019607843137</v>
-      </c>
-      <c r="M5">
-        <v>3.07019607843137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" t="s">
-        <v>132</v>
-      </c>
-      <c r="F6" t="s">
-        <v>187</v>
-      </c>
-      <c r="G6">
-        <v>2018</v>
-      </c>
-      <c r="H6" t="s">
-        <v>132</v>
-      </c>
-      <c r="I6" t="s">
-        <v>132</v>
-      </c>
-      <c r="J6" t="s">
-        <v>132</v>
-      </c>
-      <c r="K6" t="s">
-        <v>132</v>
-      </c>
-      <c r="L6">
-        <v>0.9</v>
-      </c>
-      <c r="M6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C7" t="s">
-        <v>210</v>
-      </c>
-      <c r="D7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G7">
-        <v>2018</v>
-      </c>
-      <c r="H7" t="s">
-        <v>132</v>
-      </c>
-      <c r="I7" t="s">
-        <v>132</v>
-      </c>
-      <c r="J7" t="s">
-        <v>132</v>
-      </c>
-      <c r="K7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L7">
-        <v>0.810268817204301</v>
-      </c>
-      <c r="M7">
-        <v>0.810268817204301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D8" t="s">
-        <v>132</v>
-      </c>
-      <c r="E8" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" t="s">
-        <v>187</v>
-      </c>
-      <c r="G8">
-        <v>2018</v>
-      </c>
-      <c r="H8" t="s">
-        <v>132</v>
-      </c>
-      <c r="I8" t="s">
-        <v>132</v>
-      </c>
-      <c r="J8" t="s">
-        <v>132</v>
-      </c>
-      <c r="K8" t="s">
-        <v>132</v>
-      </c>
-      <c r="L8">
-        <v>3.07019607843137</v>
-      </c>
-      <c r="M8">
-        <v>3.07019607843137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" t="s">
-        <v>185</v>
-      </c>
-      <c r="C9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F9" t="s">
-        <v>187</v>
-      </c>
-      <c r="G9">
-        <v>2018</v>
-      </c>
-      <c r="H9" t="s">
-        <v>132</v>
-      </c>
-      <c r="I9" t="s">
-        <v>132</v>
-      </c>
-      <c r="J9" t="s">
-        <v>132</v>
-      </c>
-      <c r="K9" t="s">
-        <v>132</v>
-      </c>
-      <c r="L9">
-        <v>0.39838442187649997</v>
-      </c>
-      <c r="M9">
-        <v>0.39838442187649997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C10" t="s">
-        <v>212</v>
-      </c>
-      <c r="D10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E10" t="s">
-        <v>132</v>
-      </c>
-      <c r="F10" t="s">
-        <v>187</v>
-      </c>
-      <c r="G10">
-        <v>2018</v>
-      </c>
-      <c r="H10" t="s">
-        <v>132</v>
-      </c>
-      <c r="I10" t="s">
-        <v>132</v>
-      </c>
-      <c r="J10" t="s">
-        <v>132</v>
-      </c>
-      <c r="K10" t="s">
-        <v>132</v>
-      </c>
-      <c r="L10">
-        <v>0.81016216216216197</v>
-      </c>
-      <c r="M10">
-        <v>0.81016216216216197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" t="s">
-        <v>185</v>
-      </c>
-      <c r="C11" t="s">
-        <v>213</v>
-      </c>
-      <c r="D11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F11" t="s">
-        <v>187</v>
-      </c>
-      <c r="G11">
-        <v>2018</v>
-      </c>
-      <c r="H11" t="s">
-        <v>132</v>
-      </c>
-      <c r="I11" t="s">
-        <v>132</v>
-      </c>
-      <c r="J11" t="s">
-        <v>132</v>
-      </c>
-      <c r="K11" t="s">
-        <v>132</v>
-      </c>
-      <c r="L11">
-        <v>0.80677902621722797</v>
-      </c>
-      <c r="M11">
-        <v>0.80677902621722797</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" t="s">
-        <v>185</v>
-      </c>
-      <c r="C12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D12" t="s">
-        <v>132</v>
-      </c>
-      <c r="E12" t="s">
-        <v>132</v>
-      </c>
-      <c r="F12" t="s">
-        <v>187</v>
-      </c>
-      <c r="G12">
-        <v>2018</v>
-      </c>
-      <c r="H12" t="s">
-        <v>132</v>
-      </c>
-      <c r="I12" t="s">
-        <v>132</v>
-      </c>
-      <c r="J12" t="s">
-        <v>132</v>
-      </c>
-      <c r="K12" t="s">
-        <v>132</v>
-      </c>
-      <c r="L12">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="M12">
-        <v>0.52500000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D13" t="s">
-        <v>132</v>
-      </c>
-      <c r="E13" t="s">
-        <v>132</v>
-      </c>
-      <c r="F13" t="s">
-        <v>187</v>
-      </c>
-      <c r="G13">
-        <v>2018</v>
-      </c>
-      <c r="H13" t="s">
-        <v>132</v>
-      </c>
-      <c r="I13" t="s">
-        <v>132</v>
-      </c>
-      <c r="J13" t="s">
-        <v>132</v>
-      </c>
-      <c r="K13" t="s">
-        <v>132</v>
-      </c>
-      <c r="L13">
-        <v>0.58177777777777795</v>
-      </c>
-      <c r="M13">
-        <v>0.58177777777777795</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" t="s">
-        <v>185</v>
-      </c>
-      <c r="C14" t="s">
-        <v>214</v>
-      </c>
-      <c r="D14" t="s">
-        <v>132</v>
-      </c>
-      <c r="E14" t="s">
-        <v>132</v>
-      </c>
-      <c r="F14" t="s">
-        <v>187</v>
-      </c>
-      <c r="G14">
-        <v>2018</v>
-      </c>
-      <c r="H14" t="s">
-        <v>132</v>
-      </c>
-      <c r="I14" t="s">
-        <v>132</v>
-      </c>
-      <c r="J14" t="s">
-        <v>132</v>
-      </c>
-      <c r="K14" t="s">
-        <v>132</v>
-      </c>
-      <c r="L14">
-        <v>0.68804511278195502</v>
-      </c>
-      <c r="M14">
-        <v>0.68804511278195502</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" t="s">
-        <v>185</v>
-      </c>
-      <c r="C15" t="s">
-        <v>215</v>
-      </c>
-      <c r="D15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" t="s">
-        <v>132</v>
-      </c>
-      <c r="F15" t="s">
-        <v>187</v>
-      </c>
-      <c r="G15">
-        <v>2018</v>
-      </c>
-      <c r="H15" t="s">
-        <v>132</v>
-      </c>
-      <c r="I15" t="s">
-        <v>132</v>
-      </c>
-      <c r="J15" t="s">
-        <v>132</v>
-      </c>
-      <c r="K15" t="s">
-        <v>132</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" t="s">
-        <v>185</v>
-      </c>
-      <c r="C16" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" t="s">
-        <v>132</v>
-      </c>
-      <c r="E16" t="s">
-        <v>132</v>
-      </c>
-      <c r="F16" t="s">
-        <v>187</v>
-      </c>
-      <c r="G16">
-        <v>2018</v>
-      </c>
-      <c r="H16" t="s">
-        <v>132</v>
-      </c>
-      <c r="I16" t="s">
-        <v>132</v>
-      </c>
-      <c r="J16" t="s">
-        <v>132</v>
-      </c>
-      <c r="K16" t="s">
-        <v>132</v>
-      </c>
-      <c r="L16">
-        <v>0.55798087905732696</v>
-      </c>
-      <c r="M16">
-        <v>0.55798087905732696</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" t="s">
-        <v>185</v>
-      </c>
-      <c r="C17" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F17" t="s">
-        <v>187</v>
-      </c>
-      <c r="G17">
-        <v>2018</v>
-      </c>
-      <c r="H17" t="s">
-        <v>132</v>
-      </c>
-      <c r="I17" t="s">
-        <v>132</v>
-      </c>
-      <c r="J17" t="s">
-        <v>132</v>
-      </c>
-      <c r="K17" t="s">
-        <v>132</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" t="s">
-        <v>185</v>
-      </c>
-      <c r="C18" t="s">
-        <v>142</v>
-      </c>
-      <c r="D18" t="s">
-        <v>132</v>
-      </c>
-      <c r="E18" t="s">
-        <v>132</v>
-      </c>
-      <c r="F18" t="s">
-        <v>187</v>
-      </c>
-      <c r="G18">
-        <v>2018</v>
-      </c>
-      <c r="H18" t="s">
-        <v>132</v>
-      </c>
-      <c r="I18" t="s">
-        <v>132</v>
-      </c>
-      <c r="J18" t="s">
-        <v>132</v>
-      </c>
-      <c r="K18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L18">
-        <v>3.1157627118644098</v>
-      </c>
-      <c r="M18">
-        <v>3.1157627118644098</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" t="s">
-        <v>185</v>
-      </c>
-      <c r="C19" t="s">
-        <v>216</v>
-      </c>
-      <c r="D19" t="s">
-        <v>132</v>
-      </c>
-      <c r="E19" t="s">
-        <v>132</v>
-      </c>
-      <c r="F19" t="s">
-        <v>187</v>
-      </c>
-      <c r="G19">
-        <v>2018</v>
-      </c>
-      <c r="H19" t="s">
-        <v>132</v>
-      </c>
-      <c r="I19" t="s">
-        <v>132</v>
-      </c>
-      <c r="J19" t="s">
-        <v>132</v>
-      </c>
-      <c r="K19" t="s">
-        <v>132</v>
-      </c>
-      <c r="L19">
-        <v>0.9</v>
-      </c>
-      <c r="M19">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" t="s">
-        <v>185</v>
-      </c>
-      <c r="C20" t="s">
-        <v>217</v>
-      </c>
-      <c r="D20" t="s">
-        <v>132</v>
-      </c>
-      <c r="E20" t="s">
-        <v>132</v>
-      </c>
-      <c r="F20" t="s">
-        <v>187</v>
-      </c>
-      <c r="G20">
-        <v>2018</v>
-      </c>
-      <c r="H20" t="s">
-        <v>132</v>
-      </c>
-      <c r="I20" t="s">
-        <v>132</v>
-      </c>
-      <c r="J20" t="s">
-        <v>132</v>
-      </c>
-      <c r="K20" t="s">
-        <v>132</v>
-      </c>
-      <c r="L20">
-        <v>0.81729411764705895</v>
-      </c>
-      <c r="M20">
-        <v>0.81729411764705895</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" t="s">
-        <v>185</v>
-      </c>
-      <c r="C21" t="s">
-        <v>218</v>
-      </c>
-      <c r="D21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" t="s">
-        <v>132</v>
-      </c>
-      <c r="F21" t="s">
-        <v>187</v>
-      </c>
-      <c r="G21">
-        <v>2018</v>
-      </c>
-      <c r="H21" t="s">
-        <v>132</v>
-      </c>
-      <c r="I21" t="s">
-        <v>132</v>
-      </c>
-      <c r="J21" t="s">
-        <v>132</v>
-      </c>
-      <c r="K21" t="s">
-        <v>132</v>
-      </c>
-      <c r="L21">
-        <v>3.1157627118644098</v>
-      </c>
-      <c r="M21">
-        <v>3.1157627118644098</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" t="s">
-        <v>185</v>
-      </c>
-      <c r="C22" t="s">
-        <v>143</v>
-      </c>
-      <c r="D22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" t="s">
-        <v>132</v>
-      </c>
-      <c r="F22" t="s">
-        <v>187</v>
-      </c>
-      <c r="G22">
-        <v>2018</v>
-      </c>
-      <c r="H22" t="s">
-        <v>132</v>
-      </c>
-      <c r="I22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J22" t="s">
-        <v>132</v>
-      </c>
-      <c r="K22" t="s">
-        <v>132</v>
-      </c>
-      <c r="L22">
-        <v>0.60949973059968399</v>
-      </c>
-      <c r="M22">
-        <v>0.60949973059968399</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C23" t="s">
-        <v>219</v>
-      </c>
-      <c r="D23" t="s">
-        <v>132</v>
-      </c>
-      <c r="E23" t="s">
-        <v>132</v>
-      </c>
-      <c r="F23" t="s">
-        <v>187</v>
-      </c>
-      <c r="G23">
-        <v>2018</v>
-      </c>
-      <c r="H23" t="s">
-        <v>132</v>
-      </c>
-      <c r="I23" t="s">
-        <v>132</v>
-      </c>
-      <c r="J23" t="s">
-        <v>132</v>
-      </c>
-      <c r="K23" t="s">
-        <v>132</v>
-      </c>
-      <c r="L23">
-        <v>0.81941558441558404</v>
-      </c>
-      <c r="M23">
-        <v>0.81941558441558404</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" t="s">
-        <v>185</v>
-      </c>
-      <c r="C24" t="s">
-        <v>220</v>
-      </c>
-      <c r="D24" t="s">
-        <v>132</v>
-      </c>
-      <c r="E24" t="s">
-        <v>132</v>
-      </c>
-      <c r="F24" t="s">
-        <v>187</v>
-      </c>
-      <c r="G24">
-        <v>2018</v>
-      </c>
-      <c r="H24" t="s">
-        <v>132</v>
-      </c>
-      <c r="I24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J24" t="s">
-        <v>132</v>
-      </c>
-      <c r="K24" t="s">
-        <v>132</v>
-      </c>
-      <c r="L24">
-        <v>0.80707577433628297</v>
-      </c>
-      <c r="M24">
-        <v>0.80707577433628297</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" t="s">
-        <v>185</v>
-      </c>
-      <c r="C25" t="s">
-        <v>144</v>
-      </c>
-      <c r="D25" t="s">
-        <v>132</v>
-      </c>
-      <c r="E25" t="s">
-        <v>132</v>
-      </c>
-      <c r="F25" t="s">
-        <v>187</v>
-      </c>
-      <c r="G25">
-        <v>2018</v>
-      </c>
-      <c r="H25" t="s">
-        <v>132</v>
-      </c>
-      <c r="I25" t="s">
-        <v>132</v>
-      </c>
-      <c r="J25" t="s">
-        <v>132</v>
-      </c>
-      <c r="K25" t="s">
-        <v>132</v>
-      </c>
-      <c r="L25">
-        <v>0.55092948717948698</v>
-      </c>
-      <c r="M25">
-        <v>0.55092948717948698</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" t="s">
-        <v>185</v>
-      </c>
-      <c r="C26" t="s">
-        <v>145</v>
-      </c>
-      <c r="D26" t="s">
-        <v>132</v>
-      </c>
-      <c r="E26" t="s">
-        <v>132</v>
-      </c>
-      <c r="F26" t="s">
-        <v>187</v>
-      </c>
-      <c r="G26">
-        <v>2018</v>
-      </c>
-      <c r="H26" t="s">
-        <v>132</v>
-      </c>
-      <c r="I26" t="s">
-        <v>132</v>
-      </c>
-      <c r="J26" t="s">
-        <v>132</v>
-      </c>
-      <c r="K26" t="s">
-        <v>132</v>
-      </c>
-      <c r="L26">
-        <v>0.57113772455089795</v>
-      </c>
-      <c r="M26">
-        <v>0.57113772455089795</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" t="s">
-        <v>185</v>
-      </c>
-      <c r="C27" t="s">
-        <v>221</v>
-      </c>
-      <c r="D27" t="s">
-        <v>132</v>
-      </c>
-      <c r="E27" t="s">
-        <v>132</v>
-      </c>
-      <c r="F27" t="s">
-        <v>187</v>
-      </c>
-      <c r="G27">
-        <v>2018</v>
-      </c>
-      <c r="H27" t="s">
-        <v>132</v>
-      </c>
-      <c r="I27" t="s">
-        <v>132</v>
-      </c>
-      <c r="J27" t="s">
-        <v>132</v>
-      </c>
-      <c r="K27" t="s">
-        <v>132</v>
-      </c>
-      <c r="L27">
-        <v>0.70400656814449902</v>
-      </c>
-      <c r="M27">
-        <v>0.70400656814449902</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" t="s">
-        <v>185</v>
-      </c>
-      <c r="C28" t="s">
-        <v>222</v>
-      </c>
-      <c r="D28" t="s">
-        <v>132</v>
-      </c>
-      <c r="E28" t="s">
-        <v>132</v>
-      </c>
-      <c r="F28" t="s">
-        <v>187</v>
-      </c>
-      <c r="G28">
-        <v>2018</v>
-      </c>
-      <c r="H28" t="s">
-        <v>132</v>
-      </c>
-      <c r="I28" t="s">
-        <v>132</v>
-      </c>
-      <c r="J28" t="s">
-        <v>132</v>
-      </c>
-      <c r="K28" t="s">
-        <v>132</v>
-      </c>
-      <c r="L28">
-        <v>0.9</v>
-      </c>
-      <c r="M28">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" t="s">
-        <v>185</v>
-      </c>
-      <c r="C29" t="s">
-        <v>146</v>
-      </c>
-      <c r="D29" t="s">
-        <v>132</v>
-      </c>
-      <c r="E29" t="s">
-        <v>132</v>
-      </c>
-      <c r="F29" t="s">
-        <v>187</v>
-      </c>
-      <c r="G29">
-        <v>2018</v>
-      </c>
-      <c r="H29" t="s">
-        <v>132</v>
-      </c>
-      <c r="I29" t="s">
-        <v>132</v>
-      </c>
-      <c r="J29" t="s">
-        <v>132</v>
-      </c>
-      <c r="K29" t="s">
-        <v>132</v>
-      </c>
-      <c r="L29">
-        <v>0.619863294600137</v>
-      </c>
-      <c r="M29">
-        <v>0.619863294600137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" t="s">
-        <v>185</v>
-      </c>
-      <c r="C30" t="s">
-        <v>147</v>
-      </c>
-      <c r="D30" t="s">
-        <v>132</v>
-      </c>
-      <c r="E30" t="s">
-        <v>132</v>
-      </c>
-      <c r="F30" t="s">
-        <v>187</v>
-      </c>
-      <c r="G30">
-        <v>2018</v>
-      </c>
-      <c r="H30" t="s">
-        <v>132</v>
-      </c>
-      <c r="I30" t="s">
-        <v>132</v>
-      </c>
-      <c r="J30" t="s">
-        <v>132</v>
-      </c>
-      <c r="K30" t="s">
-        <v>132</v>
-      </c>
-      <c r="L30">
-        <v>0.99952095808383201</v>
-      </c>
-      <c r="M30">
-        <v>0.99952095808383201</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" t="s">
-        <v>185</v>
-      </c>
-      <c r="C31" t="s">
-        <v>148</v>
-      </c>
-      <c r="D31" t="s">
-        <v>132</v>
-      </c>
-      <c r="E31" t="s">
-        <v>132</v>
-      </c>
-      <c r="F31" t="s">
-        <v>187</v>
-      </c>
-      <c r="G31">
-        <v>2018</v>
-      </c>
-      <c r="H31" t="s">
-        <v>132</v>
-      </c>
-      <c r="I31" t="s">
-        <v>132</v>
-      </c>
-      <c r="J31" t="s">
-        <v>132</v>
-      </c>
-      <c r="K31" t="s">
-        <v>132</v>
-      </c>
-      <c r="L31">
-        <v>3.0897837837837798</v>
-      </c>
-      <c r="M31">
-        <v>3.0897837837837798</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" t="s">
-        <v>185</v>
-      </c>
-      <c r="C32" t="s">
-        <v>223</v>
-      </c>
-      <c r="D32" t="s">
-        <v>132</v>
-      </c>
-      <c r="E32" t="s">
-        <v>132</v>
-      </c>
-      <c r="F32" t="s">
-        <v>187</v>
-      </c>
-      <c r="G32">
-        <v>2018</v>
-      </c>
-      <c r="H32" t="s">
-        <v>132</v>
-      </c>
-      <c r="I32" t="s">
-        <v>132</v>
-      </c>
-      <c r="J32" t="s">
-        <v>132</v>
-      </c>
-      <c r="K32" t="s">
-        <v>132</v>
-      </c>
-      <c r="L32">
-        <v>0.9</v>
-      </c>
-      <c r="M32">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>77</v>
-      </c>
-      <c r="B33" t="s">
-        <v>185</v>
-      </c>
-      <c r="C33" t="s">
-        <v>224</v>
-      </c>
-      <c r="D33" t="s">
-        <v>132</v>
-      </c>
-      <c r="E33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F33" t="s">
-        <v>187</v>
-      </c>
-      <c r="G33">
-        <v>2018</v>
-      </c>
-      <c r="H33" t="s">
-        <v>132</v>
-      </c>
-      <c r="I33" t="s">
-        <v>132</v>
-      </c>
-      <c r="J33" t="s">
-        <v>132</v>
-      </c>
-      <c r="K33" t="s">
-        <v>132</v>
-      </c>
-      <c r="L33">
-        <v>0.82728758169934602</v>
-      </c>
-      <c r="M33">
-        <v>0.82728758169934602</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" t="s">
-        <v>185</v>
-      </c>
-      <c r="C34" t="s">
-        <v>225</v>
-      </c>
-      <c r="D34" t="s">
-        <v>132</v>
-      </c>
-      <c r="E34" t="s">
-        <v>132</v>
-      </c>
-      <c r="F34" t="s">
-        <v>187</v>
-      </c>
-      <c r="G34">
-        <v>2018</v>
-      </c>
-      <c r="H34" t="s">
-        <v>132</v>
-      </c>
-      <c r="I34" t="s">
-        <v>132</v>
-      </c>
-      <c r="J34" t="s">
-        <v>132</v>
-      </c>
-      <c r="K34" t="s">
-        <v>132</v>
-      </c>
-      <c r="L34">
-        <v>3.0897837837837798</v>
-      </c>
-      <c r="M34">
-        <v>3.0897837837837798</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" t="s">
-        <v>185</v>
-      </c>
-      <c r="C35" t="s">
-        <v>149</v>
-      </c>
-      <c r="D35" t="s">
-        <v>132</v>
-      </c>
-      <c r="E35" t="s">
-        <v>132</v>
-      </c>
-      <c r="F35" t="s">
-        <v>187</v>
-      </c>
-      <c r="G35">
-        <v>2018</v>
-      </c>
-      <c r="H35" t="s">
-        <v>132</v>
-      </c>
-      <c r="I35" t="s">
-        <v>132</v>
-      </c>
-      <c r="J35" t="s">
-        <v>132</v>
-      </c>
-      <c r="K35" t="s">
-        <v>132</v>
-      </c>
-      <c r="L35">
-        <v>0.65865731206453004</v>
-      </c>
-      <c r="M35">
-        <v>0.65865731206453004</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36" t="s">
-        <v>185</v>
-      </c>
-      <c r="C36" t="s">
-        <v>226</v>
-      </c>
-      <c r="D36" t="s">
-        <v>132</v>
-      </c>
-      <c r="E36" t="s">
-        <v>132</v>
-      </c>
-      <c r="F36" t="s">
-        <v>187</v>
-      </c>
-      <c r="G36">
-        <v>2018</v>
-      </c>
-      <c r="H36" t="s">
-        <v>132</v>
-      </c>
-      <c r="I36" t="s">
-        <v>132</v>
-      </c>
-      <c r="J36" t="s">
-        <v>132</v>
-      </c>
-      <c r="K36" t="s">
-        <v>132</v>
-      </c>
-      <c r="L36">
-        <v>0.82280373831775699</v>
-      </c>
-      <c r="M36">
-        <v>0.82280373831775699</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" t="s">
-        <v>185</v>
-      </c>
-      <c r="C37" t="s">
-        <v>227</v>
-      </c>
-      <c r="D37" t="s">
-        <v>132</v>
-      </c>
-      <c r="E37" t="s">
-        <v>132</v>
-      </c>
-      <c r="F37" t="s">
-        <v>187</v>
-      </c>
-      <c r="G37">
-        <v>2018</v>
-      </c>
-      <c r="H37" t="s">
-        <v>132</v>
-      </c>
-      <c r="I37" t="s">
-        <v>132</v>
-      </c>
-      <c r="J37" t="s">
-        <v>132</v>
-      </c>
-      <c r="K37" t="s">
-        <v>132</v>
-      </c>
-      <c r="L37">
-        <v>0.82661774762699303</v>
-      </c>
-      <c r="M37">
-        <v>0.82661774762699303</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" t="s">
-        <v>185</v>
-      </c>
-      <c r="C38" t="s">
-        <v>150</v>
-      </c>
-      <c r="D38" t="s">
-        <v>132</v>
-      </c>
-      <c r="E38" t="s">
-        <v>132</v>
-      </c>
-      <c r="F38" t="s">
-        <v>187</v>
-      </c>
-      <c r="G38">
-        <v>2018</v>
-      </c>
-      <c r="H38" t="s">
-        <v>132</v>
-      </c>
-      <c r="I38" t="s">
-        <v>132</v>
-      </c>
-      <c r="J38" t="s">
-        <v>132</v>
-      </c>
-      <c r="K38" t="s">
-        <v>132</v>
-      </c>
-      <c r="L38">
-        <v>0.54578947368421105</v>
-      </c>
-      <c r="M38">
-        <v>0.54578947368421105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>77</v>
-      </c>
-      <c r="B39" t="s">
-        <v>185</v>
-      </c>
-      <c r="C39" t="s">
-        <v>151</v>
-      </c>
-      <c r="D39" t="s">
-        <v>132</v>
-      </c>
-      <c r="E39" t="s">
-        <v>132</v>
-      </c>
-      <c r="F39" t="s">
-        <v>187</v>
-      </c>
-      <c r="G39">
-        <v>2018</v>
-      </c>
-      <c r="H39" t="s">
-        <v>132</v>
-      </c>
-      <c r="I39" t="s">
-        <v>132</v>
-      </c>
-      <c r="J39" t="s">
-        <v>132</v>
-      </c>
-      <c r="K39" t="s">
-        <v>132</v>
-      </c>
-      <c r="L39">
-        <v>0.61474226804123699</v>
-      </c>
-      <c r="M39">
-        <v>0.61474226804123699</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>77</v>
-      </c>
-      <c r="B40" t="s">
-        <v>185</v>
-      </c>
-      <c r="C40" t="s">
-        <v>228</v>
-      </c>
-      <c r="D40" t="s">
-        <v>132</v>
-      </c>
-      <c r="E40" t="s">
-        <v>132</v>
-      </c>
-      <c r="F40" t="s">
-        <v>187</v>
-      </c>
-      <c r="G40">
-        <v>2018</v>
-      </c>
-      <c r="H40" t="s">
-        <v>132</v>
-      </c>
-      <c r="I40" t="s">
-        <v>132</v>
-      </c>
-      <c r="J40" t="s">
-        <v>132</v>
-      </c>
-      <c r="K40" t="s">
-        <v>132</v>
-      </c>
-      <c r="L40">
-        <v>0.72928609692169399</v>
-      </c>
-      <c r="M40">
-        <v>0.72928609692169399</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41" t="s">
-        <v>185</v>
-      </c>
-      <c r="C41" t="s">
-        <v>229</v>
-      </c>
-      <c r="D41" t="s">
-        <v>132</v>
-      </c>
-      <c r="E41" t="s">
-        <v>132</v>
-      </c>
-      <c r="F41" t="s">
-        <v>187</v>
-      </c>
-      <c r="G41">
-        <v>2018</v>
-      </c>
-      <c r="H41" t="s">
-        <v>132</v>
-      </c>
-      <c r="I41" t="s">
-        <v>132</v>
-      </c>
-      <c r="J41" t="s">
-        <v>132</v>
-      </c>
-      <c r="K41" t="s">
-        <v>132</v>
-      </c>
-      <c r="L41">
-        <v>0.9</v>
-      </c>
-      <c r="M41">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>77</v>
-      </c>
-      <c r="B42" t="s">
-        <v>185</v>
-      </c>
-      <c r="C42" t="s">
-        <v>153</v>
-      </c>
-      <c r="D42" t="s">
-        <v>132</v>
-      </c>
-      <c r="E42" t="s">
-        <v>132</v>
-      </c>
-      <c r="F42" t="s">
-        <v>187</v>
-      </c>
-      <c r="G42">
-        <v>2018</v>
-      </c>
-      <c r="H42" t="s">
-        <v>132</v>
-      </c>
-      <c r="I42" t="s">
-        <v>132</v>
-      </c>
-      <c r="J42" t="s">
-        <v>132</v>
-      </c>
-      <c r="K42" t="s">
-        <v>132</v>
-      </c>
-      <c r="L42">
-        <v>0.59018803418803401</v>
-      </c>
-      <c r="M42">
-        <v>0.59018803418803401</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>77</v>
-      </c>
-      <c r="B43" t="s">
-        <v>185</v>
-      </c>
-      <c r="C43" t="s">
-        <v>154</v>
-      </c>
-      <c r="D43" t="s">
-        <v>132</v>
-      </c>
-      <c r="E43" t="s">
-        <v>132</v>
-      </c>
-      <c r="F43" t="s">
-        <v>187</v>
-      </c>
-      <c r="G43">
-        <v>2018</v>
-      </c>
-      <c r="H43" t="s">
-        <v>132</v>
-      </c>
-      <c r="I43" t="s">
-        <v>132</v>
-      </c>
-      <c r="J43" t="s">
-        <v>132</v>
-      </c>
-      <c r="K43" t="s">
-        <v>132</v>
-      </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
-      <c r="M43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>77</v>
-      </c>
-      <c r="B44" t="s">
-        <v>185</v>
-      </c>
-      <c r="C44" t="s">
-        <v>155</v>
-      </c>
-      <c r="D44" t="s">
-        <v>132</v>
-      </c>
-      <c r="E44" t="s">
-        <v>132</v>
-      </c>
-      <c r="F44" t="s">
-        <v>187</v>
-      </c>
-      <c r="G44">
-        <v>2018</v>
-      </c>
-      <c r="H44" t="s">
-        <v>132</v>
-      </c>
-      <c r="I44" t="s">
-        <v>132</v>
-      </c>
-      <c r="J44" t="s">
-        <v>132</v>
-      </c>
-      <c r="K44" t="s">
-        <v>132</v>
-      </c>
-      <c r="L44">
-        <v>3.07019607843137</v>
-      </c>
-      <c r="M44">
-        <v>3.07019607843137</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>77</v>
-      </c>
-      <c r="B45" t="s">
-        <v>185</v>
-      </c>
-      <c r="C45" t="s">
-        <v>230</v>
-      </c>
-      <c r="D45" t="s">
-        <v>132</v>
-      </c>
-      <c r="E45" t="s">
-        <v>132</v>
-      </c>
-      <c r="F45" t="s">
-        <v>187</v>
-      </c>
-      <c r="G45">
-        <v>2018</v>
-      </c>
-      <c r="H45" t="s">
-        <v>132</v>
-      </c>
-      <c r="I45" t="s">
-        <v>132</v>
-      </c>
-      <c r="J45" t="s">
-        <v>132</v>
-      </c>
-      <c r="K45" t="s">
-        <v>132</v>
-      </c>
-      <c r="L45">
-        <v>0.9</v>
-      </c>
-      <c r="M45">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>77</v>
-      </c>
-      <c r="B46" t="s">
-        <v>185</v>
-      </c>
-      <c r="C46" t="s">
-        <v>231</v>
-      </c>
-      <c r="D46" t="s">
-        <v>132</v>
-      </c>
-      <c r="E46" t="s">
-        <v>132</v>
-      </c>
-      <c r="F46" t="s">
-        <v>187</v>
-      </c>
-      <c r="G46">
-        <v>2018</v>
-      </c>
-      <c r="H46" t="s">
-        <v>132</v>
-      </c>
-      <c r="I46" t="s">
-        <v>132</v>
-      </c>
-      <c r="J46" t="s">
-        <v>132</v>
-      </c>
-      <c r="K46" t="s">
-        <v>132</v>
-      </c>
-      <c r="L46">
-        <v>0.810268817204301</v>
-      </c>
-      <c r="M46">
-        <v>0.810268817204301</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>77</v>
-      </c>
-      <c r="B47" t="s">
-        <v>185</v>
-      </c>
-      <c r="C47" t="s">
-        <v>156</v>
-      </c>
-      <c r="D47" t="s">
-        <v>132</v>
-      </c>
-      <c r="E47" t="s">
-        <v>132</v>
-      </c>
-      <c r="F47" t="s">
-        <v>187</v>
-      </c>
-      <c r="G47">
-        <v>2018</v>
-      </c>
-      <c r="H47" t="s">
-        <v>132</v>
-      </c>
-      <c r="I47" t="s">
-        <v>132</v>
-      </c>
-      <c r="J47" t="s">
-        <v>132</v>
-      </c>
-      <c r="K47" t="s">
-        <v>132</v>
-      </c>
-      <c r="L47">
-        <v>0.39838442187649997</v>
-      </c>
-      <c r="M47">
-        <v>0.39838442187649997</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>77</v>
-      </c>
-      <c r="B48" t="s">
-        <v>185</v>
-      </c>
-      <c r="C48" t="s">
-        <v>232</v>
-      </c>
-      <c r="D48" t="s">
-        <v>132</v>
-      </c>
-      <c r="E48" t="s">
-        <v>132</v>
-      </c>
-      <c r="F48" t="s">
-        <v>187</v>
-      </c>
-      <c r="G48">
-        <v>2018</v>
-      </c>
-      <c r="H48" t="s">
-        <v>132</v>
-      </c>
-      <c r="I48" t="s">
-        <v>132</v>
-      </c>
-      <c r="J48" t="s">
-        <v>132</v>
-      </c>
-      <c r="K48" t="s">
-        <v>132</v>
-      </c>
-      <c r="L48">
-        <v>0.81016216216216197</v>
-      </c>
-      <c r="M48">
-        <v>0.81016216216216197</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>77</v>
-      </c>
-      <c r="B49" t="s">
-        <v>185</v>
-      </c>
-      <c r="C49" t="s">
-        <v>233</v>
-      </c>
-      <c r="D49" t="s">
-        <v>132</v>
-      </c>
-      <c r="E49" t="s">
-        <v>132</v>
-      </c>
-      <c r="F49" t="s">
-        <v>187</v>
-      </c>
-      <c r="G49">
-        <v>2018</v>
-      </c>
-      <c r="H49" t="s">
-        <v>132</v>
-      </c>
-      <c r="I49" t="s">
-        <v>132</v>
-      </c>
-      <c r="J49" t="s">
-        <v>132</v>
-      </c>
-      <c r="K49" t="s">
-        <v>132</v>
-      </c>
-      <c r="L49">
-        <v>0.80677902621722797</v>
-      </c>
-      <c r="M49">
-        <v>0.80677902621722797</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>77</v>
-      </c>
-      <c r="B50" t="s">
-        <v>185</v>
-      </c>
-      <c r="C50" t="s">
-        <v>157</v>
-      </c>
-      <c r="D50" t="s">
-        <v>132</v>
-      </c>
-      <c r="E50" t="s">
-        <v>132</v>
-      </c>
-      <c r="F50" t="s">
-        <v>187</v>
-      </c>
-      <c r="G50">
-        <v>2018</v>
-      </c>
-      <c r="H50" t="s">
-        <v>132</v>
-      </c>
-      <c r="I50" t="s">
-        <v>132</v>
-      </c>
-      <c r="J50" t="s">
-        <v>132</v>
-      </c>
-      <c r="K50" t="s">
-        <v>132</v>
-      </c>
-      <c r="L50">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="M50">
-        <v>0.52500000000000002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>77</v>
-      </c>
-      <c r="B51" t="s">
-        <v>185</v>
-      </c>
-      <c r="C51" t="s">
-        <v>158</v>
-      </c>
-      <c r="D51" t="s">
-        <v>132</v>
-      </c>
-      <c r="E51" t="s">
-        <v>132</v>
-      </c>
-      <c r="F51" t="s">
-        <v>187</v>
-      </c>
-      <c r="G51">
-        <v>2018</v>
-      </c>
-      <c r="H51" t="s">
-        <v>132</v>
-      </c>
-      <c r="I51" t="s">
-        <v>132</v>
-      </c>
-      <c r="J51" t="s">
-        <v>132</v>
-      </c>
-      <c r="K51" t="s">
-        <v>132</v>
-      </c>
-      <c r="L51">
-        <v>0.58177777777777795</v>
-      </c>
-      <c r="M51">
-        <v>0.58177777777777795</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>77</v>
-      </c>
-      <c r="B52" t="s">
-        <v>185</v>
-      </c>
-      <c r="C52" t="s">
-        <v>234</v>
-      </c>
-      <c r="D52" t="s">
-        <v>132</v>
-      </c>
-      <c r="E52" t="s">
-        <v>132</v>
-      </c>
-      <c r="F52" t="s">
-        <v>187</v>
-      </c>
-      <c r="G52">
-        <v>2018</v>
-      </c>
-      <c r="H52" t="s">
-        <v>132</v>
-      </c>
-      <c r="I52" t="s">
-        <v>132</v>
-      </c>
-      <c r="J52" t="s">
-        <v>132</v>
-      </c>
-      <c r="K52" t="s">
-        <v>132</v>
-      </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
-      <c r="M52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>77</v>
-      </c>
-      <c r="B53" t="s">
-        <v>185</v>
-      </c>
-      <c r="C53" t="s">
-        <v>235</v>
-      </c>
-      <c r="D53" t="s">
-        <v>132</v>
-      </c>
-      <c r="E53" t="s">
-        <v>132</v>
-      </c>
-      <c r="F53" t="s">
-        <v>187</v>
-      </c>
-      <c r="G53">
-        <v>2018</v>
-      </c>
-      <c r="H53" t="s">
-        <v>132</v>
-      </c>
-      <c r="I53" t="s">
-        <v>132</v>
-      </c>
-      <c r="J53" t="s">
-        <v>132</v>
-      </c>
-      <c r="K53" t="s">
-        <v>132</v>
-      </c>
-      <c r="L53">
-        <v>0.68804511278195502</v>
-      </c>
-      <c r="M53">
-        <v>0.68804511278195502</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>77</v>
-      </c>
-      <c r="B54" t="s">
-        <v>185</v>
-      </c>
-      <c r="C54" t="s">
-        <v>236</v>
-      </c>
-      <c r="D54" t="s">
-        <v>132</v>
-      </c>
-      <c r="E54" t="s">
-        <v>132</v>
-      </c>
-      <c r="F54" t="s">
-        <v>187</v>
-      </c>
-      <c r="G54">
-        <v>2018</v>
-      </c>
-      <c r="H54" t="s">
-        <v>132</v>
-      </c>
-      <c r="I54" t="s">
-        <v>132</v>
-      </c>
-      <c r="J54" t="s">
-        <v>132</v>
-      </c>
-      <c r="K54" t="s">
-        <v>132</v>
-      </c>
-      <c r="L54">
-        <v>1</v>
-      </c>
-      <c r="M54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>77</v>
-      </c>
-      <c r="B55" t="s">
-        <v>185</v>
-      </c>
-      <c r="C55" t="s">
-        <v>159</v>
-      </c>
-      <c r="D55" t="s">
-        <v>132</v>
-      </c>
-      <c r="E55" t="s">
-        <v>132</v>
-      </c>
-      <c r="F55" t="s">
-        <v>187</v>
-      </c>
-      <c r="G55">
-        <v>2018</v>
-      </c>
-      <c r="H55" t="s">
-        <v>132</v>
-      </c>
-      <c r="I55" t="s">
-        <v>132</v>
-      </c>
-      <c r="J55" t="s">
-        <v>132</v>
-      </c>
-      <c r="K55" t="s">
-        <v>132</v>
-      </c>
-      <c r="L55">
-        <v>0.55798087905732696</v>
-      </c>
-      <c r="M55">
-        <v>0.55798087905732696</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>77</v>
-      </c>
-      <c r="B56" t="s">
-        <v>185</v>
-      </c>
-      <c r="C56" t="s">
-        <v>160</v>
-      </c>
-      <c r="D56" t="s">
-        <v>132</v>
-      </c>
-      <c r="E56" t="s">
-        <v>132</v>
-      </c>
-      <c r="F56" t="s">
-        <v>187</v>
-      </c>
-      <c r="G56">
-        <v>2018</v>
-      </c>
-      <c r="H56" t="s">
-        <v>132</v>
-      </c>
-      <c r="I56" t="s">
-        <v>132</v>
-      </c>
-      <c r="J56" t="s">
-        <v>132</v>
-      </c>
-      <c r="K56" t="s">
-        <v>132</v>
-      </c>
-      <c r="L56">
-        <v>1</v>
-      </c>
-      <c r="M56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>77</v>
-      </c>
-      <c r="B57" t="s">
-        <v>185</v>
-      </c>
-      <c r="C57" t="s">
-        <v>161</v>
-      </c>
-      <c r="D57" t="s">
-        <v>132</v>
-      </c>
-      <c r="E57" t="s">
-        <v>132</v>
-      </c>
-      <c r="F57" t="s">
-        <v>187</v>
-      </c>
-      <c r="G57">
-        <v>2018</v>
-      </c>
-      <c r="H57" t="s">
-        <v>132</v>
-      </c>
-      <c r="I57" t="s">
-        <v>132</v>
-      </c>
-      <c r="J57" t="s">
-        <v>132</v>
-      </c>
-      <c r="K57" t="s">
-        <v>132</v>
-      </c>
-      <c r="L57">
-        <v>3.1157627118644098</v>
-      </c>
-      <c r="M57">
-        <v>3.1157627118644098</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>77</v>
-      </c>
-      <c r="B58" t="s">
-        <v>185</v>
-      </c>
-      <c r="C58" t="s">
-        <v>237</v>
-      </c>
-      <c r="D58" t="s">
-        <v>132</v>
-      </c>
-      <c r="E58" t="s">
-        <v>132</v>
-      </c>
-      <c r="F58" t="s">
-        <v>187</v>
-      </c>
-      <c r="G58">
-        <v>2018</v>
-      </c>
-      <c r="H58" t="s">
-        <v>132</v>
-      </c>
-      <c r="I58" t="s">
-        <v>132</v>
-      </c>
-      <c r="J58" t="s">
-        <v>132</v>
-      </c>
-      <c r="K58" t="s">
-        <v>132</v>
-      </c>
-      <c r="L58">
-        <v>0.9</v>
-      </c>
-      <c r="M58">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>77</v>
-      </c>
-      <c r="B59" t="s">
-        <v>185</v>
-      </c>
-      <c r="C59" t="s">
-        <v>238</v>
-      </c>
-      <c r="D59" t="s">
-        <v>132</v>
-      </c>
-      <c r="E59" t="s">
-        <v>132</v>
-      </c>
-      <c r="F59" t="s">
-        <v>187</v>
-      </c>
-      <c r="G59">
-        <v>2018</v>
-      </c>
-      <c r="H59" t="s">
-        <v>132</v>
-      </c>
-      <c r="I59" t="s">
-        <v>132</v>
-      </c>
-      <c r="J59" t="s">
-        <v>132</v>
-      </c>
-      <c r="K59" t="s">
-        <v>132</v>
-      </c>
-      <c r="L59">
-        <v>0.81729411764705895</v>
-      </c>
-      <c r="M59">
-        <v>0.81729411764705895</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>77</v>
-      </c>
-      <c r="B60" t="s">
-        <v>185</v>
-      </c>
-      <c r="C60" t="s">
-        <v>162</v>
-      </c>
-      <c r="D60" t="s">
-        <v>132</v>
-      </c>
-      <c r="E60" t="s">
-        <v>132</v>
-      </c>
-      <c r="F60" t="s">
-        <v>187</v>
-      </c>
-      <c r="G60">
-        <v>2018</v>
-      </c>
-      <c r="H60" t="s">
-        <v>132</v>
-      </c>
-      <c r="I60" t="s">
-        <v>132</v>
-      </c>
-      <c r="J60" t="s">
-        <v>132</v>
-      </c>
-      <c r="K60" t="s">
-        <v>132</v>
-      </c>
-      <c r="L60">
-        <v>0.60949973059968399</v>
-      </c>
-      <c r="M60">
-        <v>0.60949973059968399</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>77</v>
-      </c>
-      <c r="B61" t="s">
-        <v>185</v>
-      </c>
-      <c r="C61" t="s">
-        <v>239</v>
-      </c>
-      <c r="D61" t="s">
-        <v>132</v>
-      </c>
-      <c r="E61" t="s">
-        <v>132</v>
-      </c>
-      <c r="F61" t="s">
-        <v>187</v>
-      </c>
-      <c r="G61">
-        <v>2018</v>
-      </c>
-      <c r="H61" t="s">
-        <v>132</v>
-      </c>
-      <c r="I61" t="s">
-        <v>132</v>
-      </c>
-      <c r="J61" t="s">
-        <v>132</v>
-      </c>
-      <c r="K61" t="s">
-        <v>132</v>
-      </c>
-      <c r="L61">
-        <v>0.81941558441558404</v>
-      </c>
-      <c r="M61">
-        <v>0.81941558441558404</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>77</v>
-      </c>
-      <c r="B62" t="s">
-        <v>185</v>
-      </c>
-      <c r="C62" t="s">
-        <v>240</v>
-      </c>
-      <c r="D62" t="s">
-        <v>132</v>
-      </c>
-      <c r="E62" t="s">
-        <v>132</v>
-      </c>
-      <c r="F62" t="s">
-        <v>187</v>
-      </c>
-      <c r="G62">
-        <v>2018</v>
-      </c>
-      <c r="H62" t="s">
-        <v>132</v>
-      </c>
-      <c r="I62" t="s">
-        <v>132</v>
-      </c>
-      <c r="J62" t="s">
-        <v>132</v>
-      </c>
-      <c r="K62" t="s">
-        <v>132</v>
-      </c>
-      <c r="L62">
-        <v>0.80707577433628297</v>
-      </c>
-      <c r="M62">
-        <v>0.80707577433628297</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>77</v>
-      </c>
-      <c r="B63" t="s">
-        <v>185</v>
-      </c>
-      <c r="C63" t="s">
-        <v>163</v>
-      </c>
-      <c r="D63" t="s">
-        <v>132</v>
-      </c>
-      <c r="E63" t="s">
-        <v>132</v>
-      </c>
-      <c r="F63" t="s">
-        <v>187</v>
-      </c>
-      <c r="G63">
-        <v>2018</v>
-      </c>
-      <c r="H63" t="s">
-        <v>132</v>
-      </c>
-      <c r="I63" t="s">
-        <v>132</v>
-      </c>
-      <c r="J63" t="s">
-        <v>132</v>
-      </c>
-      <c r="K63" t="s">
-        <v>132</v>
-      </c>
-      <c r="L63">
-        <v>0.55092948717948698</v>
-      </c>
-      <c r="M63">
-        <v>0.55092948717948698</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>77</v>
-      </c>
-      <c r="B64" t="s">
-        <v>185</v>
-      </c>
-      <c r="C64" t="s">
-        <v>164</v>
-      </c>
-      <c r="D64" t="s">
-        <v>132</v>
-      </c>
-      <c r="E64" t="s">
-        <v>132</v>
-      </c>
-      <c r="F64" t="s">
-        <v>187</v>
-      </c>
-      <c r="G64">
-        <v>2018</v>
-      </c>
-      <c r="H64" t="s">
-        <v>132</v>
-      </c>
-      <c r="I64" t="s">
-        <v>132</v>
-      </c>
-      <c r="J64" t="s">
-        <v>132</v>
-      </c>
-      <c r="K64" t="s">
-        <v>132</v>
-      </c>
-      <c r="L64">
-        <v>0.57113772455089795</v>
-      </c>
-      <c r="M64">
-        <v>0.57113772455089795</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>77</v>
-      </c>
-      <c r="B65" t="s">
-        <v>185</v>
-      </c>
-      <c r="C65" t="s">
-        <v>241</v>
-      </c>
-      <c r="D65" t="s">
-        <v>132</v>
-      </c>
-      <c r="E65" t="s">
-        <v>132</v>
-      </c>
-      <c r="F65" t="s">
-        <v>187</v>
-      </c>
-      <c r="G65">
-        <v>2018</v>
-      </c>
-      <c r="H65" t="s">
-        <v>132</v>
-      </c>
-      <c r="I65" t="s">
-        <v>132</v>
-      </c>
-      <c r="J65" t="s">
-        <v>132</v>
-      </c>
-      <c r="K65" t="s">
-        <v>132</v>
-      </c>
-      <c r="L65">
-        <v>1</v>
-      </c>
-      <c r="M65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>77</v>
-      </c>
-      <c r="B66" t="s">
-        <v>185</v>
-      </c>
-      <c r="C66" t="s">
-        <v>242</v>
-      </c>
-      <c r="D66" t="s">
-        <v>132</v>
-      </c>
-      <c r="E66" t="s">
-        <v>132</v>
-      </c>
-      <c r="F66" t="s">
-        <v>187</v>
-      </c>
-      <c r="G66">
-        <v>2018</v>
-      </c>
-      <c r="H66" t="s">
-        <v>132</v>
-      </c>
-      <c r="I66" t="s">
-        <v>132</v>
-      </c>
-      <c r="J66" t="s">
-        <v>132</v>
-      </c>
-      <c r="K66" t="s">
-        <v>132</v>
-      </c>
-      <c r="L66">
-        <v>0.70400656814449902</v>
-      </c>
-      <c r="M66">
-        <v>0.70400656814449902</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>77</v>
-      </c>
-      <c r="B67" t="s">
-        <v>185</v>
-      </c>
-      <c r="C67" t="s">
-        <v>243</v>
-      </c>
-      <c r="D67" t="s">
-        <v>132</v>
-      </c>
-      <c r="E67" t="s">
-        <v>132</v>
-      </c>
-      <c r="F67" t="s">
-        <v>187</v>
-      </c>
-      <c r="G67">
-        <v>2018</v>
-      </c>
-      <c r="H67" t="s">
-        <v>132</v>
-      </c>
-      <c r="I67" t="s">
-        <v>132</v>
-      </c>
-      <c r="J67" t="s">
-        <v>132</v>
-      </c>
-      <c r="K67" t="s">
-        <v>132</v>
-      </c>
-      <c r="L67">
-        <v>0.9</v>
-      </c>
-      <c r="M67">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>77</v>
-      </c>
-      <c r="B68" t="s">
-        <v>185</v>
-      </c>
-      <c r="C68" t="s">
-        <v>165</v>
-      </c>
-      <c r="D68" t="s">
-        <v>132</v>
-      </c>
-      <c r="E68" t="s">
-        <v>132</v>
-      </c>
-      <c r="F68" t="s">
-        <v>187</v>
-      </c>
-      <c r="G68">
-        <v>2018</v>
-      </c>
-      <c r="H68" t="s">
-        <v>132</v>
-      </c>
-      <c r="I68" t="s">
-        <v>132</v>
-      </c>
-      <c r="J68" t="s">
-        <v>132</v>
-      </c>
-      <c r="K68" t="s">
-        <v>132</v>
-      </c>
-      <c r="L68">
-        <v>0.619863294600137</v>
-      </c>
-      <c r="M68">
-        <v>0.619863294600137</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>77</v>
-      </c>
-      <c r="B69" t="s">
-        <v>185</v>
-      </c>
-      <c r="C69" t="s">
-        <v>166</v>
-      </c>
-      <c r="D69" t="s">
-        <v>132</v>
-      </c>
-      <c r="E69" t="s">
-        <v>132</v>
-      </c>
-      <c r="F69" t="s">
-        <v>187</v>
-      </c>
-      <c r="G69">
-        <v>2018</v>
-      </c>
-      <c r="H69" t="s">
-        <v>132</v>
-      </c>
-      <c r="I69" t="s">
-        <v>132</v>
-      </c>
-      <c r="J69" t="s">
-        <v>132</v>
-      </c>
-      <c r="K69" t="s">
-        <v>132</v>
-      </c>
-      <c r="L69">
-        <v>0.99952095808383201</v>
-      </c>
-      <c r="M69">
-        <v>0.99952095808383201</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>77</v>
-      </c>
-      <c r="B70" t="s">
-        <v>185</v>
-      </c>
-      <c r="C70" t="s">
-        <v>167</v>
-      </c>
-      <c r="D70" t="s">
-        <v>132</v>
-      </c>
-      <c r="E70" t="s">
-        <v>132</v>
-      </c>
-      <c r="F70" t="s">
-        <v>187</v>
-      </c>
-      <c r="G70">
-        <v>2018</v>
-      </c>
-      <c r="H70" t="s">
-        <v>132</v>
-      </c>
-      <c r="I70" t="s">
-        <v>132</v>
-      </c>
-      <c r="J70" t="s">
-        <v>132</v>
-      </c>
-      <c r="K70" t="s">
-        <v>132</v>
-      </c>
-      <c r="L70">
-        <v>3.0897837837837798</v>
-      </c>
-      <c r="M70">
-        <v>3.0897837837837798</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>77</v>
-      </c>
-      <c r="B71" t="s">
-        <v>185</v>
-      </c>
-      <c r="C71" t="s">
-        <v>244</v>
-      </c>
-      <c r="D71" t="s">
-        <v>132</v>
-      </c>
-      <c r="E71" t="s">
-        <v>132</v>
-      </c>
-      <c r="F71" t="s">
-        <v>187</v>
-      </c>
-      <c r="G71">
-        <v>2018</v>
-      </c>
-      <c r="H71" t="s">
-        <v>132</v>
-      </c>
-      <c r="I71" t="s">
-        <v>132</v>
-      </c>
-      <c r="J71" t="s">
-        <v>132</v>
-      </c>
-      <c r="K71" t="s">
-        <v>132</v>
-      </c>
-      <c r="L71">
-        <v>0.9</v>
-      </c>
-      <c r="M71">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72" t="s">
-        <v>185</v>
-      </c>
-      <c r="C72" t="s">
-        <v>245</v>
-      </c>
-      <c r="D72" t="s">
-        <v>132</v>
-      </c>
-      <c r="E72" t="s">
-        <v>132</v>
-      </c>
-      <c r="F72" t="s">
-        <v>187</v>
-      </c>
-      <c r="G72">
-        <v>2018</v>
-      </c>
-      <c r="H72" t="s">
-        <v>132</v>
-      </c>
-      <c r="I72" t="s">
-        <v>132</v>
-      </c>
-      <c r="J72" t="s">
-        <v>132</v>
-      </c>
-      <c r="K72" t="s">
-        <v>132</v>
-      </c>
-      <c r="L72">
-        <v>0.82728758169934602</v>
-      </c>
-      <c r="M72">
-        <v>0.82728758169934602</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>77</v>
-      </c>
-      <c r="B73" t="s">
-        <v>185</v>
-      </c>
-      <c r="C73" t="s">
-        <v>168</v>
-      </c>
-      <c r="D73" t="s">
-        <v>132</v>
-      </c>
-      <c r="E73" t="s">
-        <v>132</v>
-      </c>
-      <c r="F73" t="s">
-        <v>187</v>
-      </c>
-      <c r="G73">
-        <v>2018</v>
-      </c>
-      <c r="H73" t="s">
-        <v>132</v>
-      </c>
-      <c r="I73" t="s">
-        <v>132</v>
-      </c>
-      <c r="J73" t="s">
-        <v>132</v>
-      </c>
-      <c r="K73" t="s">
-        <v>132</v>
-      </c>
-      <c r="L73">
-        <v>0.65865731206453004</v>
-      </c>
-      <c r="M73">
-        <v>0.65865731206453004</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>77</v>
-      </c>
-      <c r="B74" t="s">
-        <v>185</v>
-      </c>
-      <c r="C74" t="s">
-        <v>246</v>
-      </c>
-      <c r="D74" t="s">
-        <v>132</v>
-      </c>
-      <c r="E74" t="s">
-        <v>132</v>
-      </c>
-      <c r="F74" t="s">
-        <v>187</v>
-      </c>
-      <c r="G74">
-        <v>2018</v>
-      </c>
-      <c r="H74" t="s">
-        <v>132</v>
-      </c>
-      <c r="I74" t="s">
-        <v>132</v>
-      </c>
-      <c r="J74" t="s">
-        <v>132</v>
-      </c>
-      <c r="K74" t="s">
-        <v>132</v>
-      </c>
-      <c r="L74">
-        <v>0.82280373831775699</v>
-      </c>
-      <c r="M74">
-        <v>0.82280373831775699</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>77</v>
-      </c>
-      <c r="B75" t="s">
-        <v>185</v>
-      </c>
-      <c r="C75" t="s">
-        <v>247</v>
-      </c>
-      <c r="D75" t="s">
-        <v>132</v>
-      </c>
-      <c r="E75" t="s">
-        <v>132</v>
-      </c>
-      <c r="F75" t="s">
-        <v>187</v>
-      </c>
-      <c r="G75">
-        <v>2018</v>
-      </c>
-      <c r="H75" t="s">
-        <v>132</v>
-      </c>
-      <c r="I75" t="s">
-        <v>132</v>
-      </c>
-      <c r="J75" t="s">
-        <v>132</v>
-      </c>
-      <c r="K75" t="s">
-        <v>132</v>
-      </c>
-      <c r="L75">
-        <v>0.82661774762699303</v>
-      </c>
-      <c r="M75">
-        <v>0.82661774762699303</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>77</v>
-      </c>
-      <c r="B76" t="s">
-        <v>185</v>
-      </c>
-      <c r="C76" t="s">
-        <v>169</v>
-      </c>
-      <c r="D76" t="s">
-        <v>132</v>
-      </c>
-      <c r="E76" t="s">
-        <v>132</v>
-      </c>
-      <c r="F76" t="s">
-        <v>187</v>
-      </c>
-      <c r="G76">
-        <v>2018</v>
-      </c>
-      <c r="H76" t="s">
-        <v>132</v>
-      </c>
-      <c r="I76" t="s">
-        <v>132</v>
-      </c>
-      <c r="J76" t="s">
-        <v>132</v>
-      </c>
-      <c r="K76" t="s">
-        <v>132</v>
-      </c>
-      <c r="L76">
-        <v>0.54578947368421105</v>
-      </c>
-      <c r="M76">
-        <v>0.54578947368421105</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>77</v>
-      </c>
-      <c r="B77" t="s">
-        <v>185</v>
-      </c>
-      <c r="C77" t="s">
-        <v>170</v>
-      </c>
-      <c r="D77" t="s">
-        <v>132</v>
-      </c>
-      <c r="E77" t="s">
-        <v>132</v>
-      </c>
-      <c r="F77" t="s">
-        <v>187</v>
-      </c>
-      <c r="G77">
-        <v>2018</v>
-      </c>
-      <c r="H77" t="s">
-        <v>132</v>
-      </c>
-      <c r="I77" t="s">
-        <v>132</v>
-      </c>
-      <c r="J77" t="s">
-        <v>132</v>
-      </c>
-      <c r="K77" t="s">
-        <v>132</v>
-      </c>
-      <c r="L77">
-        <v>0.61474226804123699</v>
-      </c>
-      <c r="M77">
-        <v>0.61474226804123699</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78" t="s">
-        <v>185</v>
-      </c>
-      <c r="C78" t="s">
-        <v>248</v>
-      </c>
-      <c r="D78" t="s">
-        <v>132</v>
-      </c>
-      <c r="E78" t="s">
-        <v>132</v>
-      </c>
-      <c r="F78" t="s">
-        <v>187</v>
-      </c>
-      <c r="G78">
-        <v>2018</v>
-      </c>
-      <c r="H78" t="s">
-        <v>132</v>
-      </c>
-      <c r="I78" t="s">
-        <v>132</v>
-      </c>
-      <c r="J78" t="s">
-        <v>132</v>
-      </c>
-      <c r="K78" t="s">
-        <v>132</v>
-      </c>
-      <c r="L78">
-        <v>3.0897837837837798</v>
-      </c>
-      <c r="M78">
-        <v>3.0897837837837798</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>185</v>
-      </c>
-      <c r="C79" t="s">
-        <v>249</v>
-      </c>
-      <c r="D79" t="s">
-        <v>132</v>
-      </c>
-      <c r="E79" t="s">
-        <v>132</v>
-      </c>
-      <c r="F79" t="s">
-        <v>187</v>
-      </c>
-      <c r="G79">
-        <v>2018</v>
-      </c>
-      <c r="H79" t="s">
-        <v>132</v>
-      </c>
-      <c r="I79" t="s">
-        <v>132</v>
-      </c>
-      <c r="J79" t="s">
-        <v>132</v>
-      </c>
-      <c r="K79" t="s">
-        <v>132</v>
-      </c>
-      <c r="L79">
-        <v>0.72928609692169399</v>
-      </c>
-      <c r="M79">
-        <v>0.72928609692169399</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31429258-A02E-4988-82C1-0A77E14DD528}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -5672,7 +2404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD076EF3-A195-4397-AD9A-EC5D0F2DC108}">
   <dimension ref="A1:M4"/>
   <sheetViews>
@@ -5849,7 +2581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDF976D-9BA7-415B-84DA-001C1A906A30}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -5944,7 +2676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A33C8A0-6F39-4FB7-B653-B5172ACE9A22}">
   <dimension ref="A1:M4"/>
   <sheetViews>
@@ -6126,7 +2858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667C97CC-9D61-4655-83D0-3753B9DE28B3}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -6221,7 +2953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDAFE0BD-7396-4A40-957F-AD6D95EB14F4}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -6316,7 +3048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C2F285-9307-42EA-A5DF-0946A8C3784D}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -6413,7 +3145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA0718C5-D068-4563-B06A-974D1CF3294C}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -11891,66 +8623,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC76A36A-107E-4EA7-B130-2D7E7FE99018}">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="B3:D5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B3" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-    </row>
-    <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>270</v>
-      </c>
-      <c r="C5" t="s">
-        <v>271</v>
-      </c>
-      <c r="D5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026A0CE7-7648-4CEA-AE2D-8669560BEC50}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:G4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13940,7 +10620,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2717B6A-07FB-44A5-8C85-4A36192AAC9D}">
   <dimension ref="A1:M40"/>
   <sheetViews>
@@ -15598,7 +12278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8798645-A7BE-46E5-8441-577006E99D5D}">
   <dimension ref="A1:M40"/>
   <sheetViews>
@@ -17249,4 +13929,3259 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049C6FC2-EA1E-4C97-AFD6-725E147BEBCD}">
+  <dimension ref="A1:M79"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2">
+        <v>2018</v>
+      </c>
+      <c r="H2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L2">
+        <v>0.9</v>
+      </c>
+      <c r="M2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G3">
+        <v>2018</v>
+      </c>
+      <c r="H3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K3" t="s">
+        <v>132</v>
+      </c>
+      <c r="L3">
+        <v>0.59018803418803401</v>
+      </c>
+      <c r="M3">
+        <v>0.59018803418803401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G4">
+        <v>2018</v>
+      </c>
+      <c r="H4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J4" t="s">
+        <v>132</v>
+      </c>
+      <c r="K4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G5">
+        <v>2018</v>
+      </c>
+      <c r="H5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I5" t="s">
+        <v>132</v>
+      </c>
+      <c r="J5" t="s">
+        <v>132</v>
+      </c>
+      <c r="K5" t="s">
+        <v>132</v>
+      </c>
+      <c r="L5">
+        <v>3.07019607843137</v>
+      </c>
+      <c r="M5">
+        <v>3.07019607843137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G6">
+        <v>2018</v>
+      </c>
+      <c r="H6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I6" t="s">
+        <v>132</v>
+      </c>
+      <c r="J6" t="s">
+        <v>132</v>
+      </c>
+      <c r="K6" t="s">
+        <v>132</v>
+      </c>
+      <c r="L6">
+        <v>0.9</v>
+      </c>
+      <c r="M6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G7">
+        <v>2018</v>
+      </c>
+      <c r="H7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L7">
+        <v>0.810268817204301</v>
+      </c>
+      <c r="M7">
+        <v>0.810268817204301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G8">
+        <v>2018</v>
+      </c>
+      <c r="H8" t="s">
+        <v>132</v>
+      </c>
+      <c r="I8" t="s">
+        <v>132</v>
+      </c>
+      <c r="J8" t="s">
+        <v>132</v>
+      </c>
+      <c r="K8" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8">
+        <v>3.07019607843137</v>
+      </c>
+      <c r="M8">
+        <v>3.07019607843137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G9">
+        <v>2018</v>
+      </c>
+      <c r="H9" t="s">
+        <v>132</v>
+      </c>
+      <c r="I9" t="s">
+        <v>132</v>
+      </c>
+      <c r="J9" t="s">
+        <v>132</v>
+      </c>
+      <c r="K9" t="s">
+        <v>132</v>
+      </c>
+      <c r="L9">
+        <v>0.39838442187649997</v>
+      </c>
+      <c r="M9">
+        <v>0.39838442187649997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G10">
+        <v>2018</v>
+      </c>
+      <c r="H10" t="s">
+        <v>132</v>
+      </c>
+      <c r="I10" t="s">
+        <v>132</v>
+      </c>
+      <c r="J10" t="s">
+        <v>132</v>
+      </c>
+      <c r="K10" t="s">
+        <v>132</v>
+      </c>
+      <c r="L10">
+        <v>0.81016216216216197</v>
+      </c>
+      <c r="M10">
+        <v>0.81016216216216197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" t="s">
+        <v>213</v>
+      </c>
+      <c r="D11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" t="s">
+        <v>187</v>
+      </c>
+      <c r="G11">
+        <v>2018</v>
+      </c>
+      <c r="H11" t="s">
+        <v>132</v>
+      </c>
+      <c r="I11" t="s">
+        <v>132</v>
+      </c>
+      <c r="J11" t="s">
+        <v>132</v>
+      </c>
+      <c r="K11" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11">
+        <v>0.80677902621722797</v>
+      </c>
+      <c r="M11">
+        <v>0.80677902621722797</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" t="s">
+        <v>187</v>
+      </c>
+      <c r="G12">
+        <v>2018</v>
+      </c>
+      <c r="H12" t="s">
+        <v>132</v>
+      </c>
+      <c r="I12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L12">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="M12">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" t="s">
+        <v>187</v>
+      </c>
+      <c r="G13">
+        <v>2018</v>
+      </c>
+      <c r="H13" t="s">
+        <v>132</v>
+      </c>
+      <c r="I13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" t="s">
+        <v>132</v>
+      </c>
+      <c r="L13">
+        <v>0.58177777777777795</v>
+      </c>
+      <c r="M13">
+        <v>0.58177777777777795</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" t="s">
+        <v>214</v>
+      </c>
+      <c r="D14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" t="s">
+        <v>187</v>
+      </c>
+      <c r="G14">
+        <v>2018</v>
+      </c>
+      <c r="H14" t="s">
+        <v>132</v>
+      </c>
+      <c r="I14" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K14" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14">
+        <v>0.68804511278195502</v>
+      </c>
+      <c r="M14">
+        <v>0.68804511278195502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" t="s">
+        <v>215</v>
+      </c>
+      <c r="D15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" t="s">
+        <v>187</v>
+      </c>
+      <c r="G15">
+        <v>2018</v>
+      </c>
+      <c r="H15" t="s">
+        <v>132</v>
+      </c>
+      <c r="I15" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" t="s">
+        <v>187</v>
+      </c>
+      <c r="G16">
+        <v>2018</v>
+      </c>
+      <c r="H16" t="s">
+        <v>132</v>
+      </c>
+      <c r="I16" t="s">
+        <v>132</v>
+      </c>
+      <c r="J16" t="s">
+        <v>132</v>
+      </c>
+      <c r="K16" t="s">
+        <v>132</v>
+      </c>
+      <c r="L16">
+        <v>0.55798087905732696</v>
+      </c>
+      <c r="M16">
+        <v>0.55798087905732696</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" t="s">
+        <v>187</v>
+      </c>
+      <c r="G17">
+        <v>2018</v>
+      </c>
+      <c r="H17" t="s">
+        <v>132</v>
+      </c>
+      <c r="I17" t="s">
+        <v>132</v>
+      </c>
+      <c r="J17" t="s">
+        <v>132</v>
+      </c>
+      <c r="K17" t="s">
+        <v>132</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18">
+        <v>2018</v>
+      </c>
+      <c r="H18" t="s">
+        <v>132</v>
+      </c>
+      <c r="I18" t="s">
+        <v>132</v>
+      </c>
+      <c r="J18" t="s">
+        <v>132</v>
+      </c>
+      <c r="K18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L18">
+        <v>3.1157627118644098</v>
+      </c>
+      <c r="M18">
+        <v>3.1157627118644098</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C19" t="s">
+        <v>216</v>
+      </c>
+      <c r="D19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" t="s">
+        <v>187</v>
+      </c>
+      <c r="G19">
+        <v>2018</v>
+      </c>
+      <c r="H19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I19" t="s">
+        <v>132</v>
+      </c>
+      <c r="J19" t="s">
+        <v>132</v>
+      </c>
+      <c r="K19" t="s">
+        <v>132</v>
+      </c>
+      <c r="L19">
+        <v>0.9</v>
+      </c>
+      <c r="M19">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" t="s">
+        <v>217</v>
+      </c>
+      <c r="D20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" t="s">
+        <v>187</v>
+      </c>
+      <c r="G20">
+        <v>2018</v>
+      </c>
+      <c r="H20" t="s">
+        <v>132</v>
+      </c>
+      <c r="I20" t="s">
+        <v>132</v>
+      </c>
+      <c r="J20" t="s">
+        <v>132</v>
+      </c>
+      <c r="K20" t="s">
+        <v>132</v>
+      </c>
+      <c r="L20">
+        <v>0.81729411764705895</v>
+      </c>
+      <c r="M20">
+        <v>0.81729411764705895</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" t="s">
+        <v>187</v>
+      </c>
+      <c r="G21">
+        <v>2018</v>
+      </c>
+      <c r="H21" t="s">
+        <v>132</v>
+      </c>
+      <c r="I21" t="s">
+        <v>132</v>
+      </c>
+      <c r="J21" t="s">
+        <v>132</v>
+      </c>
+      <c r="K21" t="s">
+        <v>132</v>
+      </c>
+      <c r="L21">
+        <v>3.1157627118644098</v>
+      </c>
+      <c r="M21">
+        <v>3.1157627118644098</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
+        <v>185</v>
+      </c>
+      <c r="C22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" t="s">
+        <v>187</v>
+      </c>
+      <c r="G22">
+        <v>2018</v>
+      </c>
+      <c r="H22" t="s">
+        <v>132</v>
+      </c>
+      <c r="I22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J22" t="s">
+        <v>132</v>
+      </c>
+      <c r="K22" t="s">
+        <v>132</v>
+      </c>
+      <c r="L22">
+        <v>0.60949973059968399</v>
+      </c>
+      <c r="M22">
+        <v>0.60949973059968399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C23" t="s">
+        <v>219</v>
+      </c>
+      <c r="D23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G23">
+        <v>2018</v>
+      </c>
+      <c r="H23" t="s">
+        <v>132</v>
+      </c>
+      <c r="I23" t="s">
+        <v>132</v>
+      </c>
+      <c r="J23" t="s">
+        <v>132</v>
+      </c>
+      <c r="K23" t="s">
+        <v>132</v>
+      </c>
+      <c r="L23">
+        <v>0.81941558441558404</v>
+      </c>
+      <c r="M23">
+        <v>0.81941558441558404</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24">
+        <v>2018</v>
+      </c>
+      <c r="H24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J24" t="s">
+        <v>132</v>
+      </c>
+      <c r="K24" t="s">
+        <v>132</v>
+      </c>
+      <c r="L24">
+        <v>0.80707577433628297</v>
+      </c>
+      <c r="M24">
+        <v>0.80707577433628297</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" t="s">
+        <v>187</v>
+      </c>
+      <c r="G25">
+        <v>2018</v>
+      </c>
+      <c r="H25" t="s">
+        <v>132</v>
+      </c>
+      <c r="I25" t="s">
+        <v>132</v>
+      </c>
+      <c r="J25" t="s">
+        <v>132</v>
+      </c>
+      <c r="K25" t="s">
+        <v>132</v>
+      </c>
+      <c r="L25">
+        <v>0.55092948717948698</v>
+      </c>
+      <c r="M25">
+        <v>0.55092948717948698</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" t="s">
+        <v>187</v>
+      </c>
+      <c r="G26">
+        <v>2018</v>
+      </c>
+      <c r="H26" t="s">
+        <v>132</v>
+      </c>
+      <c r="I26" t="s">
+        <v>132</v>
+      </c>
+      <c r="J26" t="s">
+        <v>132</v>
+      </c>
+      <c r="K26" t="s">
+        <v>132</v>
+      </c>
+      <c r="L26">
+        <v>0.57113772455089795</v>
+      </c>
+      <c r="M26">
+        <v>0.57113772455089795</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" t="s">
+        <v>221</v>
+      </c>
+      <c r="D27" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" t="s">
+        <v>187</v>
+      </c>
+      <c r="G27">
+        <v>2018</v>
+      </c>
+      <c r="H27" t="s">
+        <v>132</v>
+      </c>
+      <c r="I27" t="s">
+        <v>132</v>
+      </c>
+      <c r="J27" t="s">
+        <v>132</v>
+      </c>
+      <c r="K27" t="s">
+        <v>132</v>
+      </c>
+      <c r="L27">
+        <v>0.70400656814449902</v>
+      </c>
+      <c r="M27">
+        <v>0.70400656814449902</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" t="s">
+        <v>222</v>
+      </c>
+      <c r="D28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" t="s">
+        <v>187</v>
+      </c>
+      <c r="G28">
+        <v>2018</v>
+      </c>
+      <c r="H28" t="s">
+        <v>132</v>
+      </c>
+      <c r="I28" t="s">
+        <v>132</v>
+      </c>
+      <c r="J28" t="s">
+        <v>132</v>
+      </c>
+      <c r="K28" t="s">
+        <v>132</v>
+      </c>
+      <c r="L28">
+        <v>0.9</v>
+      </c>
+      <c r="M28">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C29" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" t="s">
+        <v>187</v>
+      </c>
+      <c r="G29">
+        <v>2018</v>
+      </c>
+      <c r="H29" t="s">
+        <v>132</v>
+      </c>
+      <c r="I29" t="s">
+        <v>132</v>
+      </c>
+      <c r="J29" t="s">
+        <v>132</v>
+      </c>
+      <c r="K29" t="s">
+        <v>132</v>
+      </c>
+      <c r="L29">
+        <v>0.619863294600137</v>
+      </c>
+      <c r="M29">
+        <v>0.619863294600137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" t="s">
+        <v>185</v>
+      </c>
+      <c r="C30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" t="s">
+        <v>187</v>
+      </c>
+      <c r="G30">
+        <v>2018</v>
+      </c>
+      <c r="H30" t="s">
+        <v>132</v>
+      </c>
+      <c r="I30" t="s">
+        <v>132</v>
+      </c>
+      <c r="J30" t="s">
+        <v>132</v>
+      </c>
+      <c r="K30" t="s">
+        <v>132</v>
+      </c>
+      <c r="L30">
+        <v>0.99952095808383201</v>
+      </c>
+      <c r="M30">
+        <v>0.99952095808383201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" t="s">
+        <v>185</v>
+      </c>
+      <c r="C31" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" t="s">
+        <v>187</v>
+      </c>
+      <c r="G31">
+        <v>2018</v>
+      </c>
+      <c r="H31" t="s">
+        <v>132</v>
+      </c>
+      <c r="I31" t="s">
+        <v>132</v>
+      </c>
+      <c r="J31" t="s">
+        <v>132</v>
+      </c>
+      <c r="K31" t="s">
+        <v>132</v>
+      </c>
+      <c r="L31">
+        <v>3.0897837837837798</v>
+      </c>
+      <c r="M31">
+        <v>3.0897837837837798</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" t="s">
+        <v>185</v>
+      </c>
+      <c r="C32" t="s">
+        <v>223</v>
+      </c>
+      <c r="D32" t="s">
+        <v>132</v>
+      </c>
+      <c r="E32" t="s">
+        <v>132</v>
+      </c>
+      <c r="F32" t="s">
+        <v>187</v>
+      </c>
+      <c r="G32">
+        <v>2018</v>
+      </c>
+      <c r="H32" t="s">
+        <v>132</v>
+      </c>
+      <c r="I32" t="s">
+        <v>132</v>
+      </c>
+      <c r="J32" t="s">
+        <v>132</v>
+      </c>
+      <c r="K32" t="s">
+        <v>132</v>
+      </c>
+      <c r="L32">
+        <v>0.9</v>
+      </c>
+      <c r="M32">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" t="s">
+        <v>185</v>
+      </c>
+      <c r="C33" t="s">
+        <v>224</v>
+      </c>
+      <c r="D33" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" t="s">
+        <v>187</v>
+      </c>
+      <c r="G33">
+        <v>2018</v>
+      </c>
+      <c r="H33" t="s">
+        <v>132</v>
+      </c>
+      <c r="I33" t="s">
+        <v>132</v>
+      </c>
+      <c r="J33" t="s">
+        <v>132</v>
+      </c>
+      <c r="K33" t="s">
+        <v>132</v>
+      </c>
+      <c r="L33">
+        <v>0.82728758169934602</v>
+      </c>
+      <c r="M33">
+        <v>0.82728758169934602</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s">
+        <v>185</v>
+      </c>
+      <c r="C34" t="s">
+        <v>225</v>
+      </c>
+      <c r="D34" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" t="s">
+        <v>132</v>
+      </c>
+      <c r="F34" t="s">
+        <v>187</v>
+      </c>
+      <c r="G34">
+        <v>2018</v>
+      </c>
+      <c r="H34" t="s">
+        <v>132</v>
+      </c>
+      <c r="I34" t="s">
+        <v>132</v>
+      </c>
+      <c r="J34" t="s">
+        <v>132</v>
+      </c>
+      <c r="K34" t="s">
+        <v>132</v>
+      </c>
+      <c r="L34">
+        <v>3.0897837837837798</v>
+      </c>
+      <c r="M34">
+        <v>3.0897837837837798</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" t="s">
+        <v>185</v>
+      </c>
+      <c r="C35" t="s">
+        <v>149</v>
+      </c>
+      <c r="D35" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" t="s">
+        <v>132</v>
+      </c>
+      <c r="F35" t="s">
+        <v>187</v>
+      </c>
+      <c r="G35">
+        <v>2018</v>
+      </c>
+      <c r="H35" t="s">
+        <v>132</v>
+      </c>
+      <c r="I35" t="s">
+        <v>132</v>
+      </c>
+      <c r="J35" t="s">
+        <v>132</v>
+      </c>
+      <c r="K35" t="s">
+        <v>132</v>
+      </c>
+      <c r="L35">
+        <v>0.65865731206453004</v>
+      </c>
+      <c r="M35">
+        <v>0.65865731206453004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s">
+        <v>185</v>
+      </c>
+      <c r="C36" t="s">
+        <v>226</v>
+      </c>
+      <c r="D36" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" t="s">
+        <v>132</v>
+      </c>
+      <c r="F36" t="s">
+        <v>187</v>
+      </c>
+      <c r="G36">
+        <v>2018</v>
+      </c>
+      <c r="H36" t="s">
+        <v>132</v>
+      </c>
+      <c r="I36" t="s">
+        <v>132</v>
+      </c>
+      <c r="J36" t="s">
+        <v>132</v>
+      </c>
+      <c r="K36" t="s">
+        <v>132</v>
+      </c>
+      <c r="L36">
+        <v>0.82280373831775699</v>
+      </c>
+      <c r="M36">
+        <v>0.82280373831775699</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" t="s">
+        <v>185</v>
+      </c>
+      <c r="C37" t="s">
+        <v>227</v>
+      </c>
+      <c r="D37" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" t="s">
+        <v>132</v>
+      </c>
+      <c r="F37" t="s">
+        <v>187</v>
+      </c>
+      <c r="G37">
+        <v>2018</v>
+      </c>
+      <c r="H37" t="s">
+        <v>132</v>
+      </c>
+      <c r="I37" t="s">
+        <v>132</v>
+      </c>
+      <c r="J37" t="s">
+        <v>132</v>
+      </c>
+      <c r="K37" t="s">
+        <v>132</v>
+      </c>
+      <c r="L37">
+        <v>0.82661774762699303</v>
+      </c>
+      <c r="M37">
+        <v>0.82661774762699303</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>185</v>
+      </c>
+      <c r="C38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" t="s">
+        <v>132</v>
+      </c>
+      <c r="F38" t="s">
+        <v>187</v>
+      </c>
+      <c r="G38">
+        <v>2018</v>
+      </c>
+      <c r="H38" t="s">
+        <v>132</v>
+      </c>
+      <c r="I38" t="s">
+        <v>132</v>
+      </c>
+      <c r="J38" t="s">
+        <v>132</v>
+      </c>
+      <c r="K38" t="s">
+        <v>132</v>
+      </c>
+      <c r="L38">
+        <v>0.54578947368421105</v>
+      </c>
+      <c r="M38">
+        <v>0.54578947368421105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
+        <v>185</v>
+      </c>
+      <c r="C39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" t="s">
+        <v>132</v>
+      </c>
+      <c r="F39" t="s">
+        <v>187</v>
+      </c>
+      <c r="G39">
+        <v>2018</v>
+      </c>
+      <c r="H39" t="s">
+        <v>132</v>
+      </c>
+      <c r="I39" t="s">
+        <v>132</v>
+      </c>
+      <c r="J39" t="s">
+        <v>132</v>
+      </c>
+      <c r="K39" t="s">
+        <v>132</v>
+      </c>
+      <c r="L39">
+        <v>0.61474226804123699</v>
+      </c>
+      <c r="M39">
+        <v>0.61474226804123699</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
+        <v>185</v>
+      </c>
+      <c r="C40" t="s">
+        <v>228</v>
+      </c>
+      <c r="D40" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" t="s">
+        <v>132</v>
+      </c>
+      <c r="F40" t="s">
+        <v>187</v>
+      </c>
+      <c r="G40">
+        <v>2018</v>
+      </c>
+      <c r="H40" t="s">
+        <v>132</v>
+      </c>
+      <c r="I40" t="s">
+        <v>132</v>
+      </c>
+      <c r="J40" t="s">
+        <v>132</v>
+      </c>
+      <c r="K40" t="s">
+        <v>132</v>
+      </c>
+      <c r="L40">
+        <v>0.72928609692169399</v>
+      </c>
+      <c r="M40">
+        <v>0.72928609692169399</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" t="s">
+        <v>229</v>
+      </c>
+      <c r="D41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" t="s">
+        <v>132</v>
+      </c>
+      <c r="F41" t="s">
+        <v>187</v>
+      </c>
+      <c r="G41">
+        <v>2018</v>
+      </c>
+      <c r="H41" t="s">
+        <v>132</v>
+      </c>
+      <c r="I41" t="s">
+        <v>132</v>
+      </c>
+      <c r="J41" t="s">
+        <v>132</v>
+      </c>
+      <c r="K41" t="s">
+        <v>132</v>
+      </c>
+      <c r="L41">
+        <v>0.9</v>
+      </c>
+      <c r="M41">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" t="s">
+        <v>185</v>
+      </c>
+      <c r="C42" t="s">
+        <v>153</v>
+      </c>
+      <c r="D42" t="s">
+        <v>132</v>
+      </c>
+      <c r="E42" t="s">
+        <v>132</v>
+      </c>
+      <c r="F42" t="s">
+        <v>187</v>
+      </c>
+      <c r="G42">
+        <v>2018</v>
+      </c>
+      <c r="H42" t="s">
+        <v>132</v>
+      </c>
+      <c r="I42" t="s">
+        <v>132</v>
+      </c>
+      <c r="J42" t="s">
+        <v>132</v>
+      </c>
+      <c r="K42" t="s">
+        <v>132</v>
+      </c>
+      <c r="L42">
+        <v>0.59018803418803401</v>
+      </c>
+      <c r="M42">
+        <v>0.59018803418803401</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" t="s">
+        <v>185</v>
+      </c>
+      <c r="C43" t="s">
+        <v>154</v>
+      </c>
+      <c r="D43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E43" t="s">
+        <v>132</v>
+      </c>
+      <c r="F43" t="s">
+        <v>187</v>
+      </c>
+      <c r="G43">
+        <v>2018</v>
+      </c>
+      <c r="H43" t="s">
+        <v>132</v>
+      </c>
+      <c r="I43" t="s">
+        <v>132</v>
+      </c>
+      <c r="J43" t="s">
+        <v>132</v>
+      </c>
+      <c r="K43" t="s">
+        <v>132</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" t="s">
+        <v>185</v>
+      </c>
+      <c r="C44" t="s">
+        <v>155</v>
+      </c>
+      <c r="D44" t="s">
+        <v>132</v>
+      </c>
+      <c r="E44" t="s">
+        <v>132</v>
+      </c>
+      <c r="F44" t="s">
+        <v>187</v>
+      </c>
+      <c r="G44">
+        <v>2018</v>
+      </c>
+      <c r="H44" t="s">
+        <v>132</v>
+      </c>
+      <c r="I44" t="s">
+        <v>132</v>
+      </c>
+      <c r="J44" t="s">
+        <v>132</v>
+      </c>
+      <c r="K44" t="s">
+        <v>132</v>
+      </c>
+      <c r="L44">
+        <v>3.07019607843137</v>
+      </c>
+      <c r="M44">
+        <v>3.07019607843137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" t="s">
+        <v>185</v>
+      </c>
+      <c r="C45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D45" t="s">
+        <v>132</v>
+      </c>
+      <c r="E45" t="s">
+        <v>132</v>
+      </c>
+      <c r="F45" t="s">
+        <v>187</v>
+      </c>
+      <c r="G45">
+        <v>2018</v>
+      </c>
+      <c r="H45" t="s">
+        <v>132</v>
+      </c>
+      <c r="I45" t="s">
+        <v>132</v>
+      </c>
+      <c r="J45" t="s">
+        <v>132</v>
+      </c>
+      <c r="K45" t="s">
+        <v>132</v>
+      </c>
+      <c r="L45">
+        <v>0.9</v>
+      </c>
+      <c r="M45">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" t="s">
+        <v>185</v>
+      </c>
+      <c r="C46" t="s">
+        <v>231</v>
+      </c>
+      <c r="D46" t="s">
+        <v>132</v>
+      </c>
+      <c r="E46" t="s">
+        <v>132</v>
+      </c>
+      <c r="F46" t="s">
+        <v>187</v>
+      </c>
+      <c r="G46">
+        <v>2018</v>
+      </c>
+      <c r="H46" t="s">
+        <v>132</v>
+      </c>
+      <c r="I46" t="s">
+        <v>132</v>
+      </c>
+      <c r="J46" t="s">
+        <v>132</v>
+      </c>
+      <c r="K46" t="s">
+        <v>132</v>
+      </c>
+      <c r="L46">
+        <v>0.810268817204301</v>
+      </c>
+      <c r="M46">
+        <v>0.810268817204301</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" t="s">
+        <v>185</v>
+      </c>
+      <c r="C47" t="s">
+        <v>156</v>
+      </c>
+      <c r="D47" t="s">
+        <v>132</v>
+      </c>
+      <c r="E47" t="s">
+        <v>132</v>
+      </c>
+      <c r="F47" t="s">
+        <v>187</v>
+      </c>
+      <c r="G47">
+        <v>2018</v>
+      </c>
+      <c r="H47" t="s">
+        <v>132</v>
+      </c>
+      <c r="I47" t="s">
+        <v>132</v>
+      </c>
+      <c r="J47" t="s">
+        <v>132</v>
+      </c>
+      <c r="K47" t="s">
+        <v>132</v>
+      </c>
+      <c r="L47">
+        <v>0.39838442187649997</v>
+      </c>
+      <c r="M47">
+        <v>0.39838442187649997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" t="s">
+        <v>185</v>
+      </c>
+      <c r="C48" t="s">
+        <v>232</v>
+      </c>
+      <c r="D48" t="s">
+        <v>132</v>
+      </c>
+      <c r="E48" t="s">
+        <v>132</v>
+      </c>
+      <c r="F48" t="s">
+        <v>187</v>
+      </c>
+      <c r="G48">
+        <v>2018</v>
+      </c>
+      <c r="H48" t="s">
+        <v>132</v>
+      </c>
+      <c r="I48" t="s">
+        <v>132</v>
+      </c>
+      <c r="J48" t="s">
+        <v>132</v>
+      </c>
+      <c r="K48" t="s">
+        <v>132</v>
+      </c>
+      <c r="L48">
+        <v>0.81016216216216197</v>
+      </c>
+      <c r="M48">
+        <v>0.81016216216216197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" t="s">
+        <v>185</v>
+      </c>
+      <c r="C49" t="s">
+        <v>233</v>
+      </c>
+      <c r="D49" t="s">
+        <v>132</v>
+      </c>
+      <c r="E49" t="s">
+        <v>132</v>
+      </c>
+      <c r="F49" t="s">
+        <v>187</v>
+      </c>
+      <c r="G49">
+        <v>2018</v>
+      </c>
+      <c r="H49" t="s">
+        <v>132</v>
+      </c>
+      <c r="I49" t="s">
+        <v>132</v>
+      </c>
+      <c r="J49" t="s">
+        <v>132</v>
+      </c>
+      <c r="K49" t="s">
+        <v>132</v>
+      </c>
+      <c r="L49">
+        <v>0.80677902621722797</v>
+      </c>
+      <c r="M49">
+        <v>0.80677902621722797</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" t="s">
+        <v>185</v>
+      </c>
+      <c r="C50" t="s">
+        <v>157</v>
+      </c>
+      <c r="D50" t="s">
+        <v>132</v>
+      </c>
+      <c r="E50" t="s">
+        <v>132</v>
+      </c>
+      <c r="F50" t="s">
+        <v>187</v>
+      </c>
+      <c r="G50">
+        <v>2018</v>
+      </c>
+      <c r="H50" t="s">
+        <v>132</v>
+      </c>
+      <c r="I50" t="s">
+        <v>132</v>
+      </c>
+      <c r="J50" t="s">
+        <v>132</v>
+      </c>
+      <c r="K50" t="s">
+        <v>132</v>
+      </c>
+      <c r="L50">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="M50">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" t="s">
+        <v>185</v>
+      </c>
+      <c r="C51" t="s">
+        <v>158</v>
+      </c>
+      <c r="D51" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51" t="s">
+        <v>132</v>
+      </c>
+      <c r="F51" t="s">
+        <v>187</v>
+      </c>
+      <c r="G51">
+        <v>2018</v>
+      </c>
+      <c r="H51" t="s">
+        <v>132</v>
+      </c>
+      <c r="I51" t="s">
+        <v>132</v>
+      </c>
+      <c r="J51" t="s">
+        <v>132</v>
+      </c>
+      <c r="K51" t="s">
+        <v>132</v>
+      </c>
+      <c r="L51">
+        <v>0.58177777777777795</v>
+      </c>
+      <c r="M51">
+        <v>0.58177777777777795</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" t="s">
+        <v>185</v>
+      </c>
+      <c r="C52" t="s">
+        <v>234</v>
+      </c>
+      <c r="D52" t="s">
+        <v>132</v>
+      </c>
+      <c r="E52" t="s">
+        <v>132</v>
+      </c>
+      <c r="F52" t="s">
+        <v>187</v>
+      </c>
+      <c r="G52">
+        <v>2018</v>
+      </c>
+      <c r="H52" t="s">
+        <v>132</v>
+      </c>
+      <c r="I52" t="s">
+        <v>132</v>
+      </c>
+      <c r="J52" t="s">
+        <v>132</v>
+      </c>
+      <c r="K52" t="s">
+        <v>132</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" t="s">
+        <v>185</v>
+      </c>
+      <c r="C53" t="s">
+        <v>235</v>
+      </c>
+      <c r="D53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E53" t="s">
+        <v>132</v>
+      </c>
+      <c r="F53" t="s">
+        <v>187</v>
+      </c>
+      <c r="G53">
+        <v>2018</v>
+      </c>
+      <c r="H53" t="s">
+        <v>132</v>
+      </c>
+      <c r="I53" t="s">
+        <v>132</v>
+      </c>
+      <c r="J53" t="s">
+        <v>132</v>
+      </c>
+      <c r="K53" t="s">
+        <v>132</v>
+      </c>
+      <c r="L53">
+        <v>0.68804511278195502</v>
+      </c>
+      <c r="M53">
+        <v>0.68804511278195502</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" t="s">
+        <v>185</v>
+      </c>
+      <c r="C54" t="s">
+        <v>236</v>
+      </c>
+      <c r="D54" t="s">
+        <v>132</v>
+      </c>
+      <c r="E54" t="s">
+        <v>132</v>
+      </c>
+      <c r="F54" t="s">
+        <v>187</v>
+      </c>
+      <c r="G54">
+        <v>2018</v>
+      </c>
+      <c r="H54" t="s">
+        <v>132</v>
+      </c>
+      <c r="I54" t="s">
+        <v>132</v>
+      </c>
+      <c r="J54" t="s">
+        <v>132</v>
+      </c>
+      <c r="K54" t="s">
+        <v>132</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" t="s">
+        <v>185</v>
+      </c>
+      <c r="C55" t="s">
+        <v>159</v>
+      </c>
+      <c r="D55" t="s">
+        <v>132</v>
+      </c>
+      <c r="E55" t="s">
+        <v>132</v>
+      </c>
+      <c r="F55" t="s">
+        <v>187</v>
+      </c>
+      <c r="G55">
+        <v>2018</v>
+      </c>
+      <c r="H55" t="s">
+        <v>132</v>
+      </c>
+      <c r="I55" t="s">
+        <v>132</v>
+      </c>
+      <c r="J55" t="s">
+        <v>132</v>
+      </c>
+      <c r="K55" t="s">
+        <v>132</v>
+      </c>
+      <c r="L55">
+        <v>0.55798087905732696</v>
+      </c>
+      <c r="M55">
+        <v>0.55798087905732696</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" t="s">
+        <v>185</v>
+      </c>
+      <c r="C56" t="s">
+        <v>160</v>
+      </c>
+      <c r="D56" t="s">
+        <v>132</v>
+      </c>
+      <c r="E56" t="s">
+        <v>132</v>
+      </c>
+      <c r="F56" t="s">
+        <v>187</v>
+      </c>
+      <c r="G56">
+        <v>2018</v>
+      </c>
+      <c r="H56" t="s">
+        <v>132</v>
+      </c>
+      <c r="I56" t="s">
+        <v>132</v>
+      </c>
+      <c r="J56" t="s">
+        <v>132</v>
+      </c>
+      <c r="K56" t="s">
+        <v>132</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" t="s">
+        <v>185</v>
+      </c>
+      <c r="C57" t="s">
+        <v>161</v>
+      </c>
+      <c r="D57" t="s">
+        <v>132</v>
+      </c>
+      <c r="E57" t="s">
+        <v>132</v>
+      </c>
+      <c r="F57" t="s">
+        <v>187</v>
+      </c>
+      <c r="G57">
+        <v>2018</v>
+      </c>
+      <c r="H57" t="s">
+        <v>132</v>
+      </c>
+      <c r="I57" t="s">
+        <v>132</v>
+      </c>
+      <c r="J57" t="s">
+        <v>132</v>
+      </c>
+      <c r="K57" t="s">
+        <v>132</v>
+      </c>
+      <c r="L57">
+        <v>3.1157627118644098</v>
+      </c>
+      <c r="M57">
+        <v>3.1157627118644098</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" t="s">
+        <v>185</v>
+      </c>
+      <c r="C58" t="s">
+        <v>237</v>
+      </c>
+      <c r="D58" t="s">
+        <v>132</v>
+      </c>
+      <c r="E58" t="s">
+        <v>132</v>
+      </c>
+      <c r="F58" t="s">
+        <v>187</v>
+      </c>
+      <c r="G58">
+        <v>2018</v>
+      </c>
+      <c r="H58" t="s">
+        <v>132</v>
+      </c>
+      <c r="I58" t="s">
+        <v>132</v>
+      </c>
+      <c r="J58" t="s">
+        <v>132</v>
+      </c>
+      <c r="K58" t="s">
+        <v>132</v>
+      </c>
+      <c r="L58">
+        <v>0.9</v>
+      </c>
+      <c r="M58">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" t="s">
+        <v>185</v>
+      </c>
+      <c r="C59" t="s">
+        <v>238</v>
+      </c>
+      <c r="D59" t="s">
+        <v>132</v>
+      </c>
+      <c r="E59" t="s">
+        <v>132</v>
+      </c>
+      <c r="F59" t="s">
+        <v>187</v>
+      </c>
+      <c r="G59">
+        <v>2018</v>
+      </c>
+      <c r="H59" t="s">
+        <v>132</v>
+      </c>
+      <c r="I59" t="s">
+        <v>132</v>
+      </c>
+      <c r="J59" t="s">
+        <v>132</v>
+      </c>
+      <c r="K59" t="s">
+        <v>132</v>
+      </c>
+      <c r="L59">
+        <v>0.81729411764705895</v>
+      </c>
+      <c r="M59">
+        <v>0.81729411764705895</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" t="s">
+        <v>185</v>
+      </c>
+      <c r="C60" t="s">
+        <v>162</v>
+      </c>
+      <c r="D60" t="s">
+        <v>132</v>
+      </c>
+      <c r="E60" t="s">
+        <v>132</v>
+      </c>
+      <c r="F60" t="s">
+        <v>187</v>
+      </c>
+      <c r="G60">
+        <v>2018</v>
+      </c>
+      <c r="H60" t="s">
+        <v>132</v>
+      </c>
+      <c r="I60" t="s">
+        <v>132</v>
+      </c>
+      <c r="J60" t="s">
+        <v>132</v>
+      </c>
+      <c r="K60" t="s">
+        <v>132</v>
+      </c>
+      <c r="L60">
+        <v>0.60949973059968399</v>
+      </c>
+      <c r="M60">
+        <v>0.60949973059968399</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" t="s">
+        <v>185</v>
+      </c>
+      <c r="C61" t="s">
+        <v>239</v>
+      </c>
+      <c r="D61" t="s">
+        <v>132</v>
+      </c>
+      <c r="E61" t="s">
+        <v>132</v>
+      </c>
+      <c r="F61" t="s">
+        <v>187</v>
+      </c>
+      <c r="G61">
+        <v>2018</v>
+      </c>
+      <c r="H61" t="s">
+        <v>132</v>
+      </c>
+      <c r="I61" t="s">
+        <v>132</v>
+      </c>
+      <c r="J61" t="s">
+        <v>132</v>
+      </c>
+      <c r="K61" t="s">
+        <v>132</v>
+      </c>
+      <c r="L61">
+        <v>0.81941558441558404</v>
+      </c>
+      <c r="M61">
+        <v>0.81941558441558404</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" t="s">
+        <v>185</v>
+      </c>
+      <c r="C62" t="s">
+        <v>240</v>
+      </c>
+      <c r="D62" t="s">
+        <v>132</v>
+      </c>
+      <c r="E62" t="s">
+        <v>132</v>
+      </c>
+      <c r="F62" t="s">
+        <v>187</v>
+      </c>
+      <c r="G62">
+        <v>2018</v>
+      </c>
+      <c r="H62" t="s">
+        <v>132</v>
+      </c>
+      <c r="I62" t="s">
+        <v>132</v>
+      </c>
+      <c r="J62" t="s">
+        <v>132</v>
+      </c>
+      <c r="K62" t="s">
+        <v>132</v>
+      </c>
+      <c r="L62">
+        <v>0.80707577433628297</v>
+      </c>
+      <c r="M62">
+        <v>0.80707577433628297</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" t="s">
+        <v>185</v>
+      </c>
+      <c r="C63" t="s">
+        <v>163</v>
+      </c>
+      <c r="D63" t="s">
+        <v>132</v>
+      </c>
+      <c r="E63" t="s">
+        <v>132</v>
+      </c>
+      <c r="F63" t="s">
+        <v>187</v>
+      </c>
+      <c r="G63">
+        <v>2018</v>
+      </c>
+      <c r="H63" t="s">
+        <v>132</v>
+      </c>
+      <c r="I63" t="s">
+        <v>132</v>
+      </c>
+      <c r="J63" t="s">
+        <v>132</v>
+      </c>
+      <c r="K63" t="s">
+        <v>132</v>
+      </c>
+      <c r="L63">
+        <v>0.55092948717948698</v>
+      </c>
+      <c r="M63">
+        <v>0.55092948717948698</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" t="s">
+        <v>185</v>
+      </c>
+      <c r="C64" t="s">
+        <v>164</v>
+      </c>
+      <c r="D64" t="s">
+        <v>132</v>
+      </c>
+      <c r="E64" t="s">
+        <v>132</v>
+      </c>
+      <c r="F64" t="s">
+        <v>187</v>
+      </c>
+      <c r="G64">
+        <v>2018</v>
+      </c>
+      <c r="H64" t="s">
+        <v>132</v>
+      </c>
+      <c r="I64" t="s">
+        <v>132</v>
+      </c>
+      <c r="J64" t="s">
+        <v>132</v>
+      </c>
+      <c r="K64" t="s">
+        <v>132</v>
+      </c>
+      <c r="L64">
+        <v>0.57113772455089795</v>
+      </c>
+      <c r="M64">
+        <v>0.57113772455089795</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" t="s">
+        <v>185</v>
+      </c>
+      <c r="C65" t="s">
+        <v>241</v>
+      </c>
+      <c r="D65" t="s">
+        <v>132</v>
+      </c>
+      <c r="E65" t="s">
+        <v>132</v>
+      </c>
+      <c r="F65" t="s">
+        <v>187</v>
+      </c>
+      <c r="G65">
+        <v>2018</v>
+      </c>
+      <c r="H65" t="s">
+        <v>132</v>
+      </c>
+      <c r="I65" t="s">
+        <v>132</v>
+      </c>
+      <c r="J65" t="s">
+        <v>132</v>
+      </c>
+      <c r="K65" t="s">
+        <v>132</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" t="s">
+        <v>185</v>
+      </c>
+      <c r="C66" t="s">
+        <v>242</v>
+      </c>
+      <c r="D66" t="s">
+        <v>132</v>
+      </c>
+      <c r="E66" t="s">
+        <v>132</v>
+      </c>
+      <c r="F66" t="s">
+        <v>187</v>
+      </c>
+      <c r="G66">
+        <v>2018</v>
+      </c>
+      <c r="H66" t="s">
+        <v>132</v>
+      </c>
+      <c r="I66" t="s">
+        <v>132</v>
+      </c>
+      <c r="J66" t="s">
+        <v>132</v>
+      </c>
+      <c r="K66" t="s">
+        <v>132</v>
+      </c>
+      <c r="L66">
+        <v>0.70400656814449902</v>
+      </c>
+      <c r="M66">
+        <v>0.70400656814449902</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" t="s">
+        <v>185</v>
+      </c>
+      <c r="C67" t="s">
+        <v>243</v>
+      </c>
+      <c r="D67" t="s">
+        <v>132</v>
+      </c>
+      <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
+        <v>187</v>
+      </c>
+      <c r="G67">
+        <v>2018</v>
+      </c>
+      <c r="H67" t="s">
+        <v>132</v>
+      </c>
+      <c r="I67" t="s">
+        <v>132</v>
+      </c>
+      <c r="J67" t="s">
+        <v>132</v>
+      </c>
+      <c r="K67" t="s">
+        <v>132</v>
+      </c>
+      <c r="L67">
+        <v>0.9</v>
+      </c>
+      <c r="M67">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" t="s">
+        <v>185</v>
+      </c>
+      <c r="C68" t="s">
+        <v>165</v>
+      </c>
+      <c r="D68" t="s">
+        <v>132</v>
+      </c>
+      <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
+        <v>187</v>
+      </c>
+      <c r="G68">
+        <v>2018</v>
+      </c>
+      <c r="H68" t="s">
+        <v>132</v>
+      </c>
+      <c r="I68" t="s">
+        <v>132</v>
+      </c>
+      <c r="J68" t="s">
+        <v>132</v>
+      </c>
+      <c r="K68" t="s">
+        <v>132</v>
+      </c>
+      <c r="L68">
+        <v>0.619863294600137</v>
+      </c>
+      <c r="M68">
+        <v>0.619863294600137</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69" t="s">
+        <v>185</v>
+      </c>
+      <c r="C69" t="s">
+        <v>166</v>
+      </c>
+      <c r="D69" t="s">
+        <v>132</v>
+      </c>
+      <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
+        <v>187</v>
+      </c>
+      <c r="G69">
+        <v>2018</v>
+      </c>
+      <c r="H69" t="s">
+        <v>132</v>
+      </c>
+      <c r="I69" t="s">
+        <v>132</v>
+      </c>
+      <c r="J69" t="s">
+        <v>132</v>
+      </c>
+      <c r="K69" t="s">
+        <v>132</v>
+      </c>
+      <c r="L69">
+        <v>0.99952095808383201</v>
+      </c>
+      <c r="M69">
+        <v>0.99952095808383201</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" t="s">
+        <v>185</v>
+      </c>
+      <c r="C70" t="s">
+        <v>167</v>
+      </c>
+      <c r="D70" t="s">
+        <v>132</v>
+      </c>
+      <c r="E70" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70" t="s">
+        <v>187</v>
+      </c>
+      <c r="G70">
+        <v>2018</v>
+      </c>
+      <c r="H70" t="s">
+        <v>132</v>
+      </c>
+      <c r="I70" t="s">
+        <v>132</v>
+      </c>
+      <c r="J70" t="s">
+        <v>132</v>
+      </c>
+      <c r="K70" t="s">
+        <v>132</v>
+      </c>
+      <c r="L70">
+        <v>3.0897837837837798</v>
+      </c>
+      <c r="M70">
+        <v>3.0897837837837798</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" t="s">
+        <v>185</v>
+      </c>
+      <c r="C71" t="s">
+        <v>244</v>
+      </c>
+      <c r="D71" t="s">
+        <v>132</v>
+      </c>
+      <c r="E71" t="s">
+        <v>132</v>
+      </c>
+      <c r="F71" t="s">
+        <v>187</v>
+      </c>
+      <c r="G71">
+        <v>2018</v>
+      </c>
+      <c r="H71" t="s">
+        <v>132</v>
+      </c>
+      <c r="I71" t="s">
+        <v>132</v>
+      </c>
+      <c r="J71" t="s">
+        <v>132</v>
+      </c>
+      <c r="K71" t="s">
+        <v>132</v>
+      </c>
+      <c r="L71">
+        <v>0.9</v>
+      </c>
+      <c r="M71">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" t="s">
+        <v>185</v>
+      </c>
+      <c r="C72" t="s">
+        <v>245</v>
+      </c>
+      <c r="D72" t="s">
+        <v>132</v>
+      </c>
+      <c r="E72" t="s">
+        <v>132</v>
+      </c>
+      <c r="F72" t="s">
+        <v>187</v>
+      </c>
+      <c r="G72">
+        <v>2018</v>
+      </c>
+      <c r="H72" t="s">
+        <v>132</v>
+      </c>
+      <c r="I72" t="s">
+        <v>132</v>
+      </c>
+      <c r="J72" t="s">
+        <v>132</v>
+      </c>
+      <c r="K72" t="s">
+        <v>132</v>
+      </c>
+      <c r="L72">
+        <v>0.82728758169934602</v>
+      </c>
+      <c r="M72">
+        <v>0.82728758169934602</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" t="s">
+        <v>185</v>
+      </c>
+      <c r="C73" t="s">
+        <v>168</v>
+      </c>
+      <c r="D73" t="s">
+        <v>132</v>
+      </c>
+      <c r="E73" t="s">
+        <v>132</v>
+      </c>
+      <c r="F73" t="s">
+        <v>187</v>
+      </c>
+      <c r="G73">
+        <v>2018</v>
+      </c>
+      <c r="H73" t="s">
+        <v>132</v>
+      </c>
+      <c r="I73" t="s">
+        <v>132</v>
+      </c>
+      <c r="J73" t="s">
+        <v>132</v>
+      </c>
+      <c r="K73" t="s">
+        <v>132</v>
+      </c>
+      <c r="L73">
+        <v>0.65865731206453004</v>
+      </c>
+      <c r="M73">
+        <v>0.65865731206453004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>185</v>
+      </c>
+      <c r="C74" t="s">
+        <v>246</v>
+      </c>
+      <c r="D74" t="s">
+        <v>132</v>
+      </c>
+      <c r="E74" t="s">
+        <v>132</v>
+      </c>
+      <c r="F74" t="s">
+        <v>187</v>
+      </c>
+      <c r="G74">
+        <v>2018</v>
+      </c>
+      <c r="H74" t="s">
+        <v>132</v>
+      </c>
+      <c r="I74" t="s">
+        <v>132</v>
+      </c>
+      <c r="J74" t="s">
+        <v>132</v>
+      </c>
+      <c r="K74" t="s">
+        <v>132</v>
+      </c>
+      <c r="L74">
+        <v>0.82280373831775699</v>
+      </c>
+      <c r="M74">
+        <v>0.82280373831775699</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>185</v>
+      </c>
+      <c r="C75" t="s">
+        <v>247</v>
+      </c>
+      <c r="D75" t="s">
+        <v>132</v>
+      </c>
+      <c r="E75" t="s">
+        <v>132</v>
+      </c>
+      <c r="F75" t="s">
+        <v>187</v>
+      </c>
+      <c r="G75">
+        <v>2018</v>
+      </c>
+      <c r="H75" t="s">
+        <v>132</v>
+      </c>
+      <c r="I75" t="s">
+        <v>132</v>
+      </c>
+      <c r="J75" t="s">
+        <v>132</v>
+      </c>
+      <c r="K75" t="s">
+        <v>132</v>
+      </c>
+      <c r="L75">
+        <v>0.82661774762699303</v>
+      </c>
+      <c r="M75">
+        <v>0.82661774762699303</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" t="s">
+        <v>185</v>
+      </c>
+      <c r="C76" t="s">
+        <v>169</v>
+      </c>
+      <c r="D76" t="s">
+        <v>132</v>
+      </c>
+      <c r="E76" t="s">
+        <v>132</v>
+      </c>
+      <c r="F76" t="s">
+        <v>187</v>
+      </c>
+      <c r="G76">
+        <v>2018</v>
+      </c>
+      <c r="H76" t="s">
+        <v>132</v>
+      </c>
+      <c r="I76" t="s">
+        <v>132</v>
+      </c>
+      <c r="J76" t="s">
+        <v>132</v>
+      </c>
+      <c r="K76" t="s">
+        <v>132</v>
+      </c>
+      <c r="L76">
+        <v>0.54578947368421105</v>
+      </c>
+      <c r="M76">
+        <v>0.54578947368421105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>185</v>
+      </c>
+      <c r="C77" t="s">
+        <v>170</v>
+      </c>
+      <c r="D77" t="s">
+        <v>132</v>
+      </c>
+      <c r="E77" t="s">
+        <v>132</v>
+      </c>
+      <c r="F77" t="s">
+        <v>187</v>
+      </c>
+      <c r="G77">
+        <v>2018</v>
+      </c>
+      <c r="H77" t="s">
+        <v>132</v>
+      </c>
+      <c r="I77" t="s">
+        <v>132</v>
+      </c>
+      <c r="J77" t="s">
+        <v>132</v>
+      </c>
+      <c r="K77" t="s">
+        <v>132</v>
+      </c>
+      <c r="L77">
+        <v>0.61474226804123699</v>
+      </c>
+      <c r="M77">
+        <v>0.61474226804123699</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>185</v>
+      </c>
+      <c r="C78" t="s">
+        <v>248</v>
+      </c>
+      <c r="D78" t="s">
+        <v>132</v>
+      </c>
+      <c r="E78" t="s">
+        <v>132</v>
+      </c>
+      <c r="F78" t="s">
+        <v>187</v>
+      </c>
+      <c r="G78">
+        <v>2018</v>
+      </c>
+      <c r="H78" t="s">
+        <v>132</v>
+      </c>
+      <c r="I78" t="s">
+        <v>132</v>
+      </c>
+      <c r="J78" t="s">
+        <v>132</v>
+      </c>
+      <c r="K78" t="s">
+        <v>132</v>
+      </c>
+      <c r="L78">
+        <v>3.0897837837837798</v>
+      </c>
+      <c r="M78">
+        <v>3.0897837837837798</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>185</v>
+      </c>
+      <c r="C79" t="s">
+        <v>249</v>
+      </c>
+      <c r="D79" t="s">
+        <v>132</v>
+      </c>
+      <c r="E79" t="s">
+        <v>132</v>
+      </c>
+      <c r="F79" t="s">
+        <v>187</v>
+      </c>
+      <c r="G79">
+        <v>2018</v>
+      </c>
+      <c r="H79" t="s">
+        <v>132</v>
+      </c>
+      <c r="I79" t="s">
+        <v>132</v>
+      </c>
+      <c r="J79" t="s">
+        <v>132</v>
+      </c>
+      <c r="K79" t="s">
+        <v>132</v>
+      </c>
+      <c r="L79">
+        <v>0.72928609692169399</v>
+      </c>
+      <c r="M79">
+        <v>0.72928609692169399</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SubRES_TMPL/SubRes_RSD_Trans.xlsx
+++ b/SubRES_TMPL/SubRes_RSD_Trans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\~g2v_TIMES-IE\main\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEC7C1E-AF9A-4D21-8E6E-0A97009CA311}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC51D45-C114-4D77-A88D-18108CC5BFF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="819" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1230" windowWidth="28800" windowHeight="7800" tabRatio="819" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOG" sheetId="64" r:id="rId1"/>
@@ -2488,10 +2488,10 @@
         <v>132</v>
       </c>
       <c r="L2">
-        <v>3.3205708318124599E-4</v>
+        <v>1.99234249908748E-4</v>
       </c>
       <c r="M2">
-        <v>3.3205708318124599E-4</v>
+        <v>1.99234249908748E-4</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -2529,10 +2529,10 @@
         <v>132</v>
       </c>
       <c r="L3">
-        <v>6.3335727594585403E-4</v>
+        <v>3.80014365567512E-4</v>
       </c>
       <c r="M3">
-        <v>6.3335727594585403E-4</v>
+        <v>3.80014365567512E-4</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -2570,10 +2570,10 @@
         <v>132</v>
       </c>
       <c r="L4">
-        <v>7.8417325837286497E-4</v>
+        <v>4.7050395502371901E-4</v>
       </c>
       <c r="M4">
-        <v>7.8417325837286497E-4</v>
+        <v>4.7050395502371901E-4</v>
       </c>
     </row>
   </sheetData>
@@ -2765,10 +2765,10 @@
         <v>132</v>
       </c>
       <c r="L2">
-        <v>1.6114677026113401E-3</v>
+        <v>6.4458708104453703E-4</v>
       </c>
       <c r="M2">
-        <v>1.6114677026113401E-3</v>
+        <v>6.4458708104453703E-4</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -2806,10 +2806,10 @@
         <v>132</v>
       </c>
       <c r="L3">
-        <v>2.287177034804E-3</v>
+        <v>9.1487081392159898E-4</v>
       </c>
       <c r="M3">
-        <v>2.287177034804E-3</v>
+        <v>9.1487081392159898E-4</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -2847,10 +2847,10 @@
         <v>132</v>
       </c>
       <c r="L4">
-        <v>3.76745947904644E-3</v>
+        <v>1.5069837916185801E-3</v>
       </c>
       <c r="M4">
-        <v>3.76745947904644E-3</v>
+        <v>1.5069837916185801E-3</v>
       </c>
     </row>
   </sheetData>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="D6" s="32">
         <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H6,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.2214798735756998E-2</v>
+        <v>0.19812084120527901</v>
       </c>
       <c r="F6" s="32" t="s">
         <v>109</v>
@@ -5276,7 +5276,7 @@
       </c>
       <c r="D9" s="33">
         <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H9,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.7299140780158099E-2</v>
+        <v>2.3078593190679501E-2</v>
       </c>
       <c r="F9" s="33" t="s">
         <v>109</v>
@@ -5352,7 +5352,7 @@
       </c>
       <c r="D11" s="33">
         <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H11,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.0831862922372499E-2</v>
+        <v>3.7359826231663999E-2</v>
       </c>
       <c r="F11" s="33" t="s">
         <v>109</v>
@@ -5482,7 +5482,7 @@
       </c>
       <c r="D15" s="33">
         <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H15,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.27587517908186E-2</v>
+        <v>1.7647904805808901E-2</v>
       </c>
       <c r="F15" s="33" t="s">
         <v>109</v>
@@ -5600,7 +5600,7 @@
       </c>
       <c r="L18" s="32">
         <f>SUMIFS('BY-RSD-LT'!$L$2:$L$100,'BY-RSD-LT'!$C$2:$C$100,AF!K18,'BY-RSD-LT'!$A$2:$A$100,"BASE")</f>
-        <v>1.6114677026113401E-3</v>
+        <v>6.4458708104453703E-4</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -5622,7 +5622,7 @@
       </c>
       <c r="L19" s="33">
         <f>SUMIFS('BY-RSD-LT'!$L$2:$L$100,'BY-RSD-LT'!$C$2:$C$100,AF!K19,'BY-RSD-LT'!$A$2:$A$100,"BASE")</f>
-        <v>2.287177034804E-3</v>
+        <v>9.1487081392159898E-4</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -5639,7 +5639,7 @@
       </c>
       <c r="D20" s="32">
         <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H20,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.100127983891551</v>
+        <v>0.200472938519001</v>
       </c>
       <c r="F20" s="32" t="s">
         <v>105</v>
@@ -5659,7 +5659,7 @@
       </c>
       <c r="L20" s="32">
         <f>SUMIFS('BY-RSD-LT'!$L$2:$L$100,'BY-RSD-LT'!$C$2:$C$100,AF!K20,'BY-RSD-LT'!$A$2:$A$100,"BASE")</f>
-        <v>3.76745947904644E-3</v>
+        <v>1.5069837916185801E-3</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -5696,7 +5696,7 @@
       </c>
       <c r="L21" s="33">
         <f>SUMIFS('BY-RSD-PF'!$L$2:$L$100,'BY-RSD-PF'!$C$2:$C$100,AF!K21,'BY-RSD-PF'!$A$2:$A$100,"BASE")</f>
-        <v>3.3205708318124599E-4</v>
+        <v>1.99234249908748E-4</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -5733,7 +5733,7 @@
       </c>
       <c r="L22" s="32">
         <f>SUMIFS('BY-RSD-PF'!$L$2:$L$100,'BY-RSD-PF'!$C$2:$C$100,AF!K22,'BY-RSD-PF'!$A$2:$A$100,"BASE")</f>
-        <v>6.3335727594585403E-4</v>
+        <v>3.80014365567512E-4</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -5750,7 +5750,7 @@
       </c>
       <c r="D23" s="33">
         <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H23,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.3818929075767398E-2</v>
+        <v>3.0936872888717201E-2</v>
       </c>
       <c r="F23" s="33" t="s">
         <v>105</v>
@@ -5770,7 +5770,7 @@
       </c>
       <c r="L23" s="33">
         <f>SUMIFS('BY-RSD-PF'!$L$2:$L$100,'BY-RSD-PF'!$C$2:$C$100,AF!K23,'BY-RSD-PF'!$A$2:$A$100,"BASE")</f>
-        <v>7.8417325837286497E-4</v>
+        <v>4.7050395502371901E-4</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -5814,7 +5814,7 @@
       </c>
       <c r="D25" s="33">
         <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H25,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.3904596338409499E-2</v>
+        <v>2.8368761423682901E-2</v>
       </c>
       <c r="F25" s="33" t="s">
         <v>105</v>
@@ -5922,7 +5922,7 @@
       </c>
       <c r="D29" s="33">
         <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H29,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.6329489829771803E-2</v>
+        <v>7.5066866433008306E-2</v>
       </c>
       <c r="F29" s="33" t="s">
         <v>105</v>
@@ -6042,7 +6042,7 @@
       </c>
       <c r="D34" s="32">
         <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H34,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.27139198399610598</v>
+        <v>0.44729159875627</v>
       </c>
       <c r="F34" s="32" t="s">
         <v>115</v>
@@ -6124,7 +6124,7 @@
       </c>
       <c r="D37" s="33">
         <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H37,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.5595203690710603E-2</v>
+        <v>6.7033675870053502E-2</v>
       </c>
       <c r="F37" s="33" t="s">
         <v>115</v>
@@ -6178,7 +6178,7 @@
       </c>
       <c r="D39" s="33">
         <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H39,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.1477826816639397E-2</v>
+        <v>4.6621727976421598E-2</v>
       </c>
       <c r="F39" s="33" t="s">
         <v>115</v>
@@ -6286,7 +6286,7 @@
       </c>
       <c r="D43" s="33">
         <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H43,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>7.5672129216388107E-2</v>
+        <v>9.1153830584100495E-2</v>
       </c>
       <c r="F43" s="33" t="s">
         <v>115</v>
@@ -6402,7 +6402,7 @@
       <c r="C48" s="32"/>
       <c r="D48" s="32">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H48,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>6.3768329096572304E-3</v>
+        <v>4.2815604314722699E-2</v>
       </c>
       <c r="F48" s="32" t="s">
         <v>109</v>
@@ -6474,7 +6474,7 @@
       <c r="C51" s="33"/>
       <c r="D51" s="33">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H51,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>8.8234631689712503E-3</v>
+        <v>1.25372293333067E-2</v>
       </c>
       <c r="F51" s="33" t="s">
         <v>109</v>
@@ -6522,7 +6522,7 @@
       <c r="C53" s="33"/>
       <c r="D53" s="33">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H53,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>8.6288756048648694E-3</v>
+        <v>1.0612182530373E-2</v>
       </c>
       <c r="F53" s="33" t="s">
         <v>109</v>
@@ -6618,7 +6618,7 @@
       <c r="C57" s="33"/>
       <c r="D57" s="33">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H57,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>7.6632802703553099E-3</v>
+        <v>9.7598754499754609E-3</v>
       </c>
       <c r="F57" s="33" t="s">
         <v>109</v>
@@ -6726,7 +6726,7 @@
       <c r="C62" s="32"/>
       <c r="D62" s="32">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H62,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.3819421193711804E-3</v>
+        <v>1.6455462342683601E-2</v>
       </c>
       <c r="F62" s="32" t="s">
         <v>105</v>
@@ -6798,7 +6798,7 @@
       <c r="C65" s="33"/>
       <c r="D65" s="33">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H65,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.1663366309857801E-2</v>
+        <v>1.5857470577174002E-2</v>
       </c>
       <c r="F65" s="33" t="s">
         <v>105</v>
@@ -6846,7 +6846,7 @@
       <c r="C67" s="33"/>
       <c r="D67" s="33">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H67,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.4091382425110903E-3</v>
+        <v>1.0991128214065201E-2</v>
       </c>
       <c r="F67" s="33" t="s">
         <v>105</v>
@@ -6942,7 +6942,7 @@
       <c r="C71" s="33"/>
       <c r="D71" s="33">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H71,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>8.8655256033915893E-3</v>
+        <v>1.0844937056477299E-2</v>
       </c>
       <c r="F71" s="33" t="s">
         <v>105</v>
@@ -7050,7 +7050,7 @@
       <c r="C76" s="32"/>
       <c r="D76" s="32">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H76,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.13737894552843E-2</v>
+        <v>1.82955006878423E-2</v>
       </c>
       <c r="F76" s="32" t="s">
         <v>115</v>
@@ -7122,7 +7122,7 @@
       <c r="C79" s="33"/>
       <c r="D79" s="33">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H79,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.4149231710993301E-2</v>
+        <v>1.7354263255049698E-2</v>
       </c>
       <c r="F79" s="33" t="s">
         <v>115</v>
@@ -7170,7 +7170,7 @@
       <c r="C81" s="33"/>
       <c r="D81" s="33">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H81,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.22701813726626E-2</v>
+        <v>1.35372248660808E-2</v>
       </c>
       <c r="F81" s="33" t="s">
         <v>115</v>
@@ -7266,7 +7266,7 @@
       <c r="C85" s="33"/>
       <c r="D85" s="33">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H85,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.27164544907902E-2</v>
+        <v>1.4581963570516601E-2</v>
       </c>
       <c r="F85" s="33" t="s">
         <v>115</v>
@@ -7376,7 +7376,7 @@
       </c>
       <c r="D90" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H90,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>6.3768329096572304E-3</v>
+        <v>4.2815604314722699E-2</v>
       </c>
       <c r="F90" s="32" t="s">
         <v>109</v>
@@ -7457,7 +7457,7 @@
       </c>
       <c r="D93" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H93,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>8.8234631689712503E-3</v>
+        <v>1.25372293333067E-2</v>
       </c>
       <c r="F93" s="33" t="s">
         <v>109</v>
@@ -7538,7 +7538,7 @@
       </c>
       <c r="D96" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H96,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>8.6288756048648694E-3</v>
+        <v>1.0612182530373E-2</v>
       </c>
       <c r="F96" s="33" t="s">
         <v>109</v>
@@ -7646,7 +7646,7 @@
       </c>
       <c r="D100" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H100,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>7.6632802703553099E-3</v>
+        <v>9.7598754499754609E-3</v>
       </c>
       <c r="F100" s="33" t="s">
         <v>109</v>
@@ -7739,7 +7739,7 @@
       </c>
       <c r="D104" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H104,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.3819421193711804E-3</v>
+        <v>1.6455462342683601E-2</v>
       </c>
       <c r="F104" s="32" t="s">
         <v>105</v>
@@ -7820,7 +7820,7 @@
       </c>
       <c r="D107" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H107,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.1663366309857801E-2</v>
+        <v>1.5857470577174002E-2</v>
       </c>
       <c r="F107" s="33" t="s">
         <v>105</v>
@@ -7901,7 +7901,7 @@
       </c>
       <c r="D110" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H110,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.4091382425110903E-3</v>
+        <v>1.0991128214065201E-2</v>
       </c>
       <c r="F110" s="33" t="s">
         <v>105</v>
@@ -8009,7 +8009,7 @@
       </c>
       <c r="D114" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H114,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>8.8655256033915893E-3</v>
+        <v>1.0844937056477299E-2</v>
       </c>
       <c r="F114" s="33" t="s">
         <v>105</v>
@@ -8102,7 +8102,7 @@
       </c>
       <c r="D118" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H118,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.13737894552843E-2</v>
+        <v>1.82955006878423E-2</v>
       </c>
       <c r="F118" s="32" t="s">
         <v>115</v>
@@ -8183,7 +8183,7 @@
       </c>
       <c r="D121" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H121,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.4149231710993301E-2</v>
+        <v>1.7354263255049698E-2</v>
       </c>
       <c r="F121" s="33" t="s">
         <v>115</v>
@@ -8264,7 +8264,7 @@
       </c>
       <c r="D124" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H124,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.22701813726626E-2</v>
+        <v>1.35372248660808E-2</v>
       </c>
       <c r="F124" s="33" t="s">
         <v>115</v>
@@ -8372,7 +8372,7 @@
       </c>
       <c r="D128" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H128,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.27164544907902E-2</v>
+        <v>1.4581963570516601E-2</v>
       </c>
       <c r="F128" s="33" t="s">
         <v>115</v>
@@ -10750,10 +10750,10 @@
         <v>132</v>
       </c>
       <c r="L3">
-        <v>6.3768329096572304E-3</v>
+        <v>4.2815604314722699E-2</v>
       </c>
       <c r="M3">
-        <v>6.3768329096572304E-3</v>
+        <v>4.2815604314722699E-2</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -10996,10 +10996,10 @@
         <v>132</v>
       </c>
       <c r="L9">
-        <v>8.6288756048648694E-3</v>
+        <v>1.0612182530373E-2</v>
       </c>
       <c r="M9">
-        <v>8.6288756048648694E-3</v>
+        <v>1.0612182530373E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -11037,10 +11037,10 @@
         <v>132</v>
       </c>
       <c r="L10">
-        <v>8.8234631689712503E-3</v>
+        <v>1.25372293333067E-2</v>
       </c>
       <c r="M10">
-        <v>8.8234631689712503E-3</v>
+        <v>1.25372293333067E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -11201,10 +11201,10 @@
         <v>132</v>
       </c>
       <c r="L14">
-        <v>7.6632802703553099E-3</v>
+        <v>9.7598754499754609E-3</v>
       </c>
       <c r="M14">
-        <v>7.6632802703553099E-3</v>
+        <v>9.7598754499754609E-3</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -11283,10 +11283,10 @@
         <v>132</v>
       </c>
       <c r="L16">
-        <v>9.3819421193711804E-3</v>
+        <v>1.6455462342683601E-2</v>
       </c>
       <c r="M16">
-        <v>9.3819421193711804E-3</v>
+        <v>1.6455462342683601E-2</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -11529,10 +11529,10 @@
         <v>132</v>
       </c>
       <c r="L22">
-        <v>9.4091382425110903E-3</v>
+        <v>1.0991128214065201E-2</v>
       </c>
       <c r="M22">
-        <v>9.4091382425110903E-3</v>
+        <v>1.0991128214065201E-2</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -11570,10 +11570,10 @@
         <v>132</v>
       </c>
       <c r="L23">
-        <v>1.1663366309857801E-2</v>
+        <v>1.5857470577174002E-2</v>
       </c>
       <c r="M23">
-        <v>1.1663366309857801E-2</v>
+        <v>1.5857470577174002E-2</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -11734,10 +11734,10 @@
         <v>132</v>
       </c>
       <c r="L27">
-        <v>8.8655256033915893E-3</v>
+        <v>1.0844937056477299E-2</v>
       </c>
       <c r="M27">
-        <v>8.8655256033915893E-3</v>
+        <v>1.0844937056477299E-2</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -11816,10 +11816,10 @@
         <v>132</v>
       </c>
       <c r="L29">
-        <v>1.13737894552843E-2</v>
+        <v>1.82955006878423E-2</v>
       </c>
       <c r="M29">
-        <v>1.13737894552843E-2</v>
+        <v>1.82955006878423E-2</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -12062,10 +12062,10 @@
         <v>132</v>
       </c>
       <c r="L35">
-        <v>1.22701813726626E-2</v>
+        <v>1.35372248660808E-2</v>
       </c>
       <c r="M35">
-        <v>1.22701813726626E-2</v>
+        <v>1.35372248660808E-2</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -12103,10 +12103,10 @@
         <v>132</v>
       </c>
       <c r="L36">
-        <v>1.4149231710993301E-2</v>
+        <v>1.7354263255049698E-2</v>
       </c>
       <c r="M36">
-        <v>1.4149231710993301E-2</v>
+        <v>1.7354263255049698E-2</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -12267,10 +12267,10 @@
         <v>132</v>
       </c>
       <c r="L40">
-        <v>1.27164544907902E-2</v>
+        <v>1.4581963570516601E-2</v>
       </c>
       <c r="M40">
-        <v>1.27164544907902E-2</v>
+        <v>1.4581963570516601E-2</v>
       </c>
     </row>
   </sheetData>
@@ -12403,10 +12403,10 @@
         <v>132</v>
       </c>
       <c r="L3">
-        <v>9.2214798735756998E-2</v>
+        <v>0.19812084120527901</v>
       </c>
       <c r="M3">
-        <v>9.2214798735756998E-2</v>
+        <v>0.19812084120527901</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -12690,10 +12690,10 @@
         <v>132</v>
       </c>
       <c r="L10">
-        <v>3.0831862922372499E-2</v>
+        <v>3.7359826231663999E-2</v>
       </c>
       <c r="M10">
-        <v>3.0831862922372499E-2</v>
+        <v>3.7359826231663999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -12731,10 +12731,10 @@
         <v>132</v>
       </c>
       <c r="L11">
-        <v>1.7299140780158099E-2</v>
+        <v>2.3078593190679501E-2</v>
       </c>
       <c r="M11">
-        <v>1.7299140780158099E-2</v>
+        <v>2.3078593190679501E-2</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -12854,10 +12854,10 @@
         <v>132</v>
       </c>
       <c r="L14">
-        <v>1.27587517908186E-2</v>
+        <v>1.7647904805808901E-2</v>
       </c>
       <c r="M14">
-        <v>1.27587517908186E-2</v>
+        <v>1.7647904805808901E-2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -12936,10 +12936,10 @@
         <v>132</v>
       </c>
       <c r="L16">
-        <v>0.100127983891551</v>
+        <v>0.200472938519001</v>
       </c>
       <c r="M16">
-        <v>0.100127983891551</v>
+        <v>0.200472938519001</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -13223,10 +13223,10 @@
         <v>132</v>
       </c>
       <c r="L23">
-        <v>2.3904596338409499E-2</v>
+        <v>2.8368761423682901E-2</v>
       </c>
       <c r="M23">
-        <v>2.3904596338409499E-2</v>
+        <v>2.8368761423682901E-2</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -13264,10 +13264,10 @@
         <v>132</v>
       </c>
       <c r="L24">
-        <v>2.3818929075767398E-2</v>
+        <v>3.0936872888717201E-2</v>
       </c>
       <c r="M24">
-        <v>2.3818929075767398E-2</v>
+        <v>3.0936872888717201E-2</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -13387,10 +13387,10 @@
         <v>132</v>
       </c>
       <c r="L27">
-        <v>5.6329489829771803E-2</v>
+        <v>7.5066866433008306E-2</v>
       </c>
       <c r="M27">
-        <v>5.6329489829771803E-2</v>
+        <v>7.5066866433008306E-2</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -13469,10 +13469,10 @@
         <v>132</v>
       </c>
       <c r="L29">
-        <v>0.27139198399610598</v>
+        <v>0.44729159875627</v>
       </c>
       <c r="M29">
-        <v>0.27139198399610598</v>
+        <v>0.44729159875627</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -13756,10 +13756,10 @@
         <v>132</v>
       </c>
       <c r="L36">
-        <v>4.1477826816639397E-2</v>
+        <v>4.6621727976421598E-2</v>
       </c>
       <c r="M36">
-        <v>4.1477826816639397E-2</v>
+        <v>4.6621727976421598E-2</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -13797,10 +13797,10 @@
         <v>132</v>
       </c>
       <c r="L37">
-        <v>5.5595203690710603E-2</v>
+        <v>6.7033675870053502E-2</v>
       </c>
       <c r="M37">
-        <v>5.5595203690710603E-2</v>
+        <v>6.7033675870053502E-2</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -13920,10 +13920,10 @@
         <v>132</v>
       </c>
       <c r="L40">
-        <v>7.5672129216388107E-2</v>
+        <v>9.1153830584100495E-2</v>
       </c>
       <c r="M40">
-        <v>7.5672129216388107E-2</v>
+        <v>9.1153830584100495E-2</v>
       </c>
     </row>
   </sheetData>

--- a/SubRES_TMPL/SubRes_RSD_Trans.xlsx
+++ b/SubRES_TMPL/SubRes_RSD_Trans.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\~g2v_TIMES-IE\main\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC51D45-C114-4D77-A88D-18108CC5BFF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE0E4E0-8581-4111-8673-4E1BF79BE6E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1230" windowWidth="28800" windowHeight="7800" tabRatio="819" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="819" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOG" sheetId="64" r:id="rId1"/>
@@ -5063,8 +5063,8 @@
   </sheetPr>
   <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6465,7 +6465,7 @@
     </row>
     <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="33" t="s">
-        <v>263</v>
+        <v>1</v>
       </c>
       <c r="B51" s="33" t="str">
         <f t="shared" si="12"/>
@@ -6537,7 +6537,7 @@
     </row>
     <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
-        <v>263</v>
+        <v>1</v>
       </c>
       <c r="B54" s="32" t="str">
         <f t="shared" si="12"/>
@@ -6609,7 +6609,7 @@
     </row>
     <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="33" t="s">
-        <v>263</v>
+        <v>1</v>
       </c>
       <c r="B57" s="33" t="str">
         <f t="shared" si="12"/>
@@ -6789,7 +6789,7 @@
     </row>
     <row r="65" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="33" t="s">
-        <v>263</v>
+        <v>1</v>
       </c>
       <c r="B65" s="33" t="str">
         <f t="shared" si="15"/>
@@ -6861,7 +6861,7 @@
     </row>
     <row r="68" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="32" t="s">
-        <v>263</v>
+        <v>1</v>
       </c>
       <c r="B68" s="32" t="str">
         <f t="shared" si="15"/>
@@ -6933,7 +6933,7 @@
     </row>
     <row r="71" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="33" t="s">
-        <v>263</v>
+        <v>1</v>
       </c>
       <c r="B71" s="33" t="str">
         <f t="shared" si="15"/>
@@ -7113,7 +7113,7 @@
     </row>
     <row r="79" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="33" t="s">
-        <v>263</v>
+        <v>1</v>
       </c>
       <c r="B79" s="33" t="str">
         <f t="shared" si="18"/>
@@ -7185,7 +7185,7 @@
     </row>
     <row r="82" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="32" t="s">
-        <v>263</v>
+        <v>1</v>
       </c>
       <c r="B82" s="32" t="str">
         <f t="shared" si="18"/>
@@ -7257,7 +7257,7 @@
     </row>
     <row r="85" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="33" t="s">
-        <v>263</v>
+        <v>1</v>
       </c>
       <c r="B85" s="33" t="str">
         <f t="shared" si="18"/>
@@ -8629,8 +8629,8 @@
   </sheetPr>
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9778,7 +9778,7 @@
         <v>R-WH_Apt_LPG*</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="F55" s="33" t="str">
         <f t="shared" si="4"/>
@@ -9870,7 +9870,7 @@
         <v>R-WH_Apt_GAS*</v>
       </c>
       <c r="E59" s="32" t="s">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="F59" s="32" t="str">
         <f t="shared" si="4"/>
@@ -9939,7 +9939,7 @@
         <v>R-WH_Apt_WOO*</v>
       </c>
       <c r="E62" s="33" t="s">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="F62" s="33" t="str">
         <f t="shared" si="4"/>
@@ -10087,7 +10087,7 @@
         <v>R-WH_Att_LPG*</v>
       </c>
       <c r="E69" s="33" t="s">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="F69" s="33" t="str">
         <f t="shared" si="6"/>
@@ -10179,7 +10179,7 @@
         <v>R-WH_Att_GAS*</v>
       </c>
       <c r="E73" s="32" t="s">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="F73" s="32" t="str">
         <f t="shared" si="6"/>
@@ -10248,7 +10248,7 @@
         <v>R-WH_Att_WOO*</v>
       </c>
       <c r="E76" s="33" t="s">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="F76" s="33" t="str">
         <f t="shared" si="6"/>
@@ -10396,7 +10396,7 @@
         <v>R-WH_Det_LPG*</v>
       </c>
       <c r="E83" s="33" t="s">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="F83" s="33" t="str">
         <f t="shared" si="9"/>
@@ -10488,7 +10488,7 @@
         <v>R-WH_Det_GAS*</v>
       </c>
       <c r="E87" s="32" t="s">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="F87" s="32" t="str">
         <f t="shared" si="9"/>
@@ -10557,7 +10557,7 @@
         <v>R-WH_Det_WOO*</v>
       </c>
       <c r="E90" s="33" t="s">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="F90" s="33" t="str">
         <f t="shared" si="9"/>

--- a/SubRES_TMPL/SubRes_RSD_Trans.xlsx
+++ b/SubRES_TMPL/SubRes_RSD_Trans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\~g2v_Irish-TIMES-model\RSD22Feb21\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A720FFDF-8E6B-4EF3-824C-92A294B3B081}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4136AB88-F1C5-4A17-93BA-AC9BC249A269}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3233" yWindow="8002" windowWidth="20716" windowHeight="13276" tabRatio="819" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4425" yWindow="-13740" windowWidth="21600" windowHeight="11385" tabRatio="819" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOG" sheetId="64" r:id="rId1"/>
@@ -5075,19 +5075,20 @@
   </sheetPr>
   <dimension ref="A1:L184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.28515625" style="22" customWidth="1"/>
-    <col min="2" max="3" width="21.28515625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="22" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" style="22" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" style="22" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" style="22" customWidth="1"/>
     <col min="7" max="7" width="18.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" style="22" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="22"/>
     <col min="10" max="10" width="13.140625" style="22" customWidth="1"/>
     <col min="11" max="11" width="15.140625" style="22" customWidth="1"/>
@@ -6396,11 +6397,11 @@
     </row>
     <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="32" t="s">
-        <v>206</v>
+        <v>1</v>
       </c>
       <c r="B52" s="32" t="str">
-        <f>"R-SW*"&amp;F52&amp;"_"&amp;G52&amp;"_N1"</f>
-        <v>R-SW*Apt_ELC_N1</v>
+        <f>"R-SW*"&amp;F52&amp;"_"&amp;G52&amp;",-*HPN*"</f>
+        <v>R-SW*Apt_ELC,-*HPN*</v>
       </c>
       <c r="C52" s="32" t="str">
         <f t="shared" si="8"/>
@@ -6408,7 +6409,7 @@
       </c>
       <c r="D52" s="32">
         <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H52,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.35582728420454E-2</v>
+        <v>1.73685782056223E-2</v>
       </c>
       <c r="F52" s="32" t="s">
         <v>109</v>
@@ -6417,19 +6418,19 @@
         <v>83</v>
       </c>
       <c r="H52" s="32" t="str">
-        <f>"R-S*_"&amp;F52&amp;"_"&amp;G52&amp;"*X0"</f>
-        <v>R-S*_Apt_ELC*X0</v>
+        <f>"R-S*_"&amp;F32&amp;"_"&amp;G32&amp;"*"&amp;"X1"</f>
+        <v>R-S*_Att_ELC*X1</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="B53" s="35" t="str">
+      <c r="B53" s="33" t="str">
         <f t="shared" ref="B53:B59" si="10">"R-SW*"&amp;F53&amp;"_"&amp;G53&amp;"*"</f>
         <v>R-SW*Apt_KER*</v>
       </c>
-      <c r="C53" s="35" t="str">
+      <c r="C53" s="33" t="str">
         <f t="shared" si="8"/>
         <v>RSDSH_Apt</v>
       </c>
@@ -6624,7 +6625,7 @@
       </c>
       <c r="D60" s="32">
         <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H60,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.4813655183930802E-2</v>
+        <v>0</v>
       </c>
       <c r="F60" s="32" t="s">
         <v>109</v>
@@ -6633,8 +6634,8 @@
         <v>83</v>
       </c>
       <c r="H60" s="32" t="str">
-        <f>"R-S*_"&amp;F60&amp;"_"&amp;G60&amp;"*"&amp;"X1"</f>
-        <v>R-S*_Apt_ELC*X1</v>
+        <f>"R-S*_"&amp;F60&amp;"_"&amp;G60&amp;"_HPN*"&amp;",-*GAS*"</f>
+        <v>R-S*_Apt_ELC_HPN*,-*GAS*</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -6759,11 +6760,11 @@
     </row>
     <row r="66" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="32" t="s">
-        <v>206</v>
+        <v>1</v>
       </c>
       <c r="B66" s="32" t="str">
-        <f>"R-SW*"&amp;F66&amp;"_"&amp;G66&amp;"_N1"</f>
-        <v>R-SW*Att_ELC_N1</v>
+        <f>"R-SW*"&amp;F66&amp;"_"&amp;G66&amp;",-*HPN*"</f>
+        <v>R-SW*Att_ELC,-*HPN*</v>
       </c>
       <c r="C66" s="32" t="str">
         <f t="shared" si="12"/>
@@ -6771,7 +6772,7 @@
       </c>
       <c r="D66" s="32">
         <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H66,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.19379469540736E-2</v>
+        <v>1.73685782056223E-2</v>
       </c>
       <c r="F66" s="32" t="s">
         <v>105</v>
@@ -6780,8 +6781,8 @@
         <v>83</v>
       </c>
       <c r="H66" s="32" t="str">
-        <f>"R-S*_"&amp;F66&amp;"_"&amp;G66&amp;"*X0"</f>
-        <v>R-S*_Att_ELC*X0</v>
+        <f>"R-S*_"&amp;F32&amp;"_"&amp;G32&amp;"*"&amp;"X1"</f>
+        <v>R-S*_Att_ELC*X1</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -7122,11 +7123,11 @@
     </row>
     <row r="80" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="32" t="s">
-        <v>206</v>
+        <v>1</v>
       </c>
       <c r="B80" s="32" t="str">
-        <f>"R-SW*"&amp;F80&amp;"_"&amp;G80&amp;"_N1"</f>
-        <v>R-SW*Det_ELC_N1</v>
+        <f>"R-SW*"&amp;F80&amp;"_"&amp;G80&amp;",-*HPN*"</f>
+        <v>R-SW*Det_ELC,-*HPN*</v>
       </c>
       <c r="C80" s="32" t="str">
         <f t="shared" si="16"/>
@@ -7134,7 +7135,7 @@
       </c>
       <c r="D80" s="32">
         <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H80,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.1441804976465701E-2</v>
+        <v>1.73685782056223E-2</v>
       </c>
       <c r="F80" s="32" t="s">
         <v>114</v>
@@ -7143,8 +7144,8 @@
         <v>83</v>
       </c>
       <c r="H80" s="32" t="str">
-        <f>"R-S*_"&amp;F80&amp;"_"&amp;G80&amp;"*X0"</f>
-        <v>R-S*_Det_ELC*X0</v>
+        <f>"R-S*_"&amp;F32&amp;"_"&amp;G32&amp;"*"&amp;"X1"</f>
+        <v>R-S*_Att_ELC*X1</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15" x14ac:dyDescent="0.25">

--- a/SubRES_TMPL/SubRes_RSD_Trans.xlsx
+++ b/SubRES_TMPL/SubRes_RSD_Trans.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\~g2v_Irish-TIMES-model\RSD22Feb21\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\~g2v_Irish-TIMES-model\RSD23Feb21\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4136AB88-F1C5-4A17-93BA-AC9BC249A269}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA6DD8D-4EA1-4F3B-B199-CA885FF8B922}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="-13740" windowWidth="21600" windowHeight="11385" tabRatio="819" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="-15810" windowWidth="21600" windowHeight="11385" tabRatio="819" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOG" sheetId="64" r:id="rId1"/>

--- a/SubRES_TMPL/SubRes_RSD_Trans.xlsx
+++ b/SubRES_TMPL/SubRes_RSD_Trans.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\~g2v_Irish-TIMES-model\RSD23Feb21\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA6DD8D-4EA1-4F3B-B199-CA885FF8B922}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8465E3-C7C8-4B1F-9863-8AF107A2D3D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="-15810" windowWidth="21600" windowHeight="11385" tabRatio="819" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="819" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOG" sheetId="64" r:id="rId1"/>
@@ -5075,8 +5075,8 @@
   </sheetPr>
   <dimension ref="A1:L184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M73" sqref="M73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6397,7 +6397,7 @@
     </row>
     <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="32" t="s">
-        <v>1</v>
+        <v>206</v>
       </c>
       <c r="B52" s="32" t="str">
         <f>"R-SW*"&amp;F52&amp;"_"&amp;G52&amp;",-*HPN*"</f>
@@ -6409,7 +6409,7 @@
       </c>
       <c r="D52" s="32">
         <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H52,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.73685782056223E-2</v>
+        <v>3.19379469540736E-2</v>
       </c>
       <c r="F52" s="32" t="s">
         <v>109</v>
@@ -6418,8 +6418,8 @@
         <v>83</v>
       </c>
       <c r="H52" s="32" t="str">
-        <f>"R-S*_"&amp;F32&amp;"_"&amp;G32&amp;"*"&amp;"X1"</f>
-        <v>R-S*_Att_ELC*X1</v>
+        <f>"R-S*_"&amp;F32&amp;"_"&amp;G32&amp;"*"&amp;"X0"</f>
+        <v>R-S*_Att_ELC*X0</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -6760,7 +6760,7 @@
     </row>
     <row r="66" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="32" t="s">
-        <v>1</v>
+        <v>206</v>
       </c>
       <c r="B66" s="32" t="str">
         <f>"R-SW*"&amp;F66&amp;"_"&amp;G66&amp;",-*HPN*"</f>
@@ -6772,7 +6772,7 @@
       </c>
       <c r="D66" s="32">
         <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H66,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.73685782056223E-2</v>
+        <v>3.19379469540736E-2</v>
       </c>
       <c r="F66" s="32" t="s">
         <v>105</v>
@@ -6781,8 +6781,8 @@
         <v>83</v>
       </c>
       <c r="H66" s="32" t="str">
-        <f>"R-S*_"&amp;F32&amp;"_"&amp;G32&amp;"*"&amp;"X1"</f>
-        <v>R-S*_Att_ELC*X1</v>
+        <f>"R-S*_"&amp;F32&amp;"_"&amp;G32&amp;"*"&amp;"X0"</f>
+        <v>R-S*_Att_ELC*X0</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -7123,7 +7123,7 @@
     </row>
     <row r="80" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="32" t="s">
-        <v>1</v>
+        <v>206</v>
       </c>
       <c r="B80" s="32" t="str">
         <f>"R-SW*"&amp;F80&amp;"_"&amp;G80&amp;",-*HPN*"</f>
@@ -7135,7 +7135,7 @@
       </c>
       <c r="D80" s="32">
         <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H80,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.73685782056223E-2</v>
+        <v>3.19379469540736E-2</v>
       </c>
       <c r="F80" s="32" t="s">
         <v>114</v>
@@ -7144,8 +7144,8 @@
         <v>83</v>
       </c>
       <c r="H80" s="32" t="str">
-        <f>"R-S*_"&amp;F32&amp;"_"&amp;G32&amp;"*"&amp;"X1"</f>
-        <v>R-S*_Att_ELC*X1</v>
+        <f>"R-S*_"&amp;F32&amp;"_"&amp;G32&amp;"*"&amp;"X0"</f>
+        <v>R-S*_Att_ELC*X0</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15" x14ac:dyDescent="0.25">

--- a/SubRES_TMPL/SubRes_RSD_Trans.xlsx
+++ b/SubRES_TMPL/SubRes_RSD_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8465E3-C7C8-4B1F-9863-8AF107A2D3D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2244A65C-7E6B-4C98-80F0-654A4EF26514}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="819" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5075,8 +5075,8 @@
   </sheetPr>
   <dimension ref="A1:L184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M73" sqref="M73"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K93" sqref="K93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6772,7 +6772,7 @@
       </c>
       <c r="D66" s="32">
         <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H66,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.19379469540736E-2</v>
+        <v>0</v>
       </c>
       <c r="F66" s="32" t="s">
         <v>105</v>
@@ -6781,8 +6781,8 @@
         <v>83</v>
       </c>
       <c r="H66" s="32" t="str">
-        <f>"R-S*_"&amp;F32&amp;"_"&amp;G32&amp;"*"&amp;"X0"</f>
-        <v>R-S*_Att_ELC*X0</v>
+        <f>B66</f>
+        <v>R-SW*Att_ELC,-*HPN*</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -7135,7 +7135,7 @@
       </c>
       <c r="D80" s="32">
         <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H80,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.19379469540736E-2</v>
+        <v>0</v>
       </c>
       <c r="F80" s="32" t="s">
         <v>114</v>
@@ -7144,8 +7144,8 @@
         <v>83</v>
       </c>
       <c r="H80" s="32" t="str">
-        <f>"R-S*_"&amp;F32&amp;"_"&amp;G32&amp;"*"&amp;"X0"</f>
-        <v>R-S*_Att_ELC*X0</v>
+        <f>B80</f>
+        <v>R-SW*Det_ELC,-*HPN*</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -7482,7 +7482,7 @@
       <c r="C94" s="32"/>
       <c r="D94" s="32">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H94,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>8.4736052016827299E-3</v>
+        <v>4.547139931032923E-2</v>
       </c>
       <c r="F94" s="32" t="s">
         <v>109</v>
@@ -7491,8 +7491,8 @@
         <v>83</v>
       </c>
       <c r="H94" s="32" t="str">
-        <f>"R-WH_"&amp;F94&amp;"_"&amp;G94&amp;"*X0"</f>
-        <v>R-WH_Apt_ELC*X0</v>
+        <f>B94</f>
+        <v>R-WH_Apt_ELC*</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15" x14ac:dyDescent="0.25">

--- a/SubRES_TMPL/SubRes_RSD_Trans.xlsx
+++ b/SubRES_TMPL/SubRes_RSD_Trans.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\~g2v_Irish-TIMES-model\RSD23Feb21\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2244A65C-7E6B-4C98-80F0-654A4EF26514}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AC4FC2-E895-4AEC-A62A-C0410F2025D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="819" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="-14250" windowWidth="21600" windowHeight="11385" tabRatio="819" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOG" sheetId="64" r:id="rId1"/>
@@ -1605,7 +1605,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1688,7 +1688,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2283,35 +2282,35 @@
       </c>
     </row>
     <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37">
+      <c r="A4" s="36">
         <v>44237</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="35" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="37">
+    <row r="5" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="36">
         <v>44232</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="D5" s="36" t="str">
+      <c r="D5" s="35" t="str">
         <f>ADDRESS(ROW(AF!A3),COLUMN(AF!A3),4,1)&amp;","&amp;ADDRESS(ROW(AF!J3),COLUMN(AF!J3),4,1)&amp;","&amp;ADDRESS(ROW(AF!J15),COLUMN(AF!J15),4,1)</f>
         <v>A3,J3,J15</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="35" t="s">
         <v>257</v>
       </c>
     </row>
@@ -5075,8 +5074,8 @@
   </sheetPr>
   <dimension ref="A1:L184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K93" sqref="K93"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5340,11 +5339,11 @@
       <c r="A11" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="B11" s="35" t="str">
+      <c r="B11" s="33" t="str">
         <f t="shared" ref="B11:B17" si="1">"R-SH*"&amp;F11&amp;"_"&amp;G11&amp;"*"</f>
         <v>R-SH*Apt_KER*</v>
       </c>
-      <c r="C11" s="35"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="33">
         <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H11,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>3.7359826231663999E-2</v>
@@ -6065,8 +6064,8 @@
         <v>262</v>
       </c>
       <c r="B38" s="32" t="str">
-        <f>"R-SH*"&amp;F38&amp;"_"&amp;G38&amp;"_N1"</f>
-        <v>R-SH*Det_ELC_N1</v>
+        <f>"R-SW*"&amp;F38&amp;"*"&amp;",-*HPN*"</f>
+        <v>R-SW*Det*,-*HPN*</v>
       </c>
       <c r="C38" s="32"/>
       <c r="D38" s="32">
@@ -6400,8 +6399,8 @@
         <v>206</v>
       </c>
       <c r="B52" s="32" t="str">
-        <f>"R-SW*"&amp;F52&amp;"_"&amp;G52&amp;",-*HPN*"</f>
-        <v>R-SW*Apt_ELC,-*HPN*</v>
+        <f>"R-SW*"&amp;F52&amp;"*"&amp;",-*HPN*"</f>
+        <v>R-SW*Apt*,-*HPN*</v>
       </c>
       <c r="C52" s="32" t="str">
         <f t="shared" si="8"/>
@@ -6409,7 +6408,7 @@
       </c>
       <c r="D52" s="32">
         <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H52,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.19379469540736E-2</v>
+        <v>1.35582728420454E-2</v>
       </c>
       <c r="F52" s="32" t="s">
         <v>109</v>
@@ -6418,8 +6417,8 @@
         <v>83</v>
       </c>
       <c r="H52" s="32" t="str">
-        <f>"R-S*_"&amp;F32&amp;"_"&amp;G32&amp;"*"&amp;"X0"</f>
-        <v>R-S*_Att_ELC*X0</v>
+        <f>"R-S*_"&amp;F52&amp;"_"&amp;G52&amp;"_X0"</f>
+        <v>R-S*_Apt_ELC_X0</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -6763,8 +6762,8 @@
         <v>206</v>
       </c>
       <c r="B66" s="32" t="str">
-        <f>"R-SW*"&amp;F66&amp;"_"&amp;G66&amp;",-*HPN*"</f>
-        <v>R-SW*Att_ELC,-*HPN*</v>
+        <f>"R-SW*"&amp;F66&amp;"*"&amp;",-*HPN*"</f>
+        <v>R-SW*Att*,-*HPN*</v>
       </c>
       <c r="C66" s="32" t="str">
         <f t="shared" si="12"/>
@@ -6772,7 +6771,7 @@
       </c>
       <c r="D66" s="32">
         <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H66,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
+        <v>3.19379469540736E-2</v>
       </c>
       <c r="F66" s="32" t="s">
         <v>105</v>
@@ -6781,8 +6780,8 @@
         <v>83</v>
       </c>
       <c r="H66" s="32" t="str">
-        <f>B66</f>
-        <v>R-SW*Att_ELC,-*HPN*</v>
+        <f>"R-S*_"&amp;F66&amp;"_"&amp;G66&amp;"_X0"</f>
+        <v>R-S*_Att_ELC_X0</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -7126,8 +7125,8 @@
         <v>206</v>
       </c>
       <c r="B80" s="32" t="str">
-        <f>"R-SW*"&amp;F80&amp;"_"&amp;G80&amp;",-*HPN*"</f>
-        <v>R-SW*Det_ELC,-*HPN*</v>
+        <f>"R-SW*"&amp;F80&amp;"*"&amp;",-*HPN*"</f>
+        <v>R-SW*Det*,-*HPN*</v>
       </c>
       <c r="C80" s="32" t="str">
         <f t="shared" si="16"/>
@@ -7135,7 +7134,7 @@
       </c>
       <c r="D80" s="32">
         <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H80,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
+        <v>5.1441804976465701E-2</v>
       </c>
       <c r="F80" s="32" t="s">
         <v>114</v>
@@ -7144,8 +7143,8 @@
         <v>83</v>
       </c>
       <c r="H80" s="32" t="str">
-        <f>B80</f>
-        <v>R-SW*Det_ELC,-*HPN*</v>
+        <f>"R-S*_"&amp;F80&amp;"_"&amp;G80&amp;"_X0"</f>
+        <v>R-S*_Det_ELC_X0</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -8320,7 +8319,7 @@
         <v>R-WH_Det_SOL*</v>
       </c>
       <c r="C130" s="32"/>
-      <c r="D130" s="42">
+      <c r="D130" s="41">
         <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H130,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.113051511576835</v>
       </c>
@@ -9397,28 +9396,28 @@
       </c>
     </row>
     <row r="172" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A172" s="38" t="s">
+      <c r="A172" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B172" s="38" t="str">
+      <c r="B172" s="37" t="str">
         <f t="shared" si="37"/>
         <v>R-SW_Det_SOL*</v>
       </c>
-      <c r="C172" s="38" t="str">
+      <c r="C172" s="37" t="str">
         <f t="shared" si="38"/>
         <v>RSDWH_Det</v>
       </c>
-      <c r="D172" s="38">
+      <c r="D172" s="37">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H172,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.113051511576835</v>
       </c>
-      <c r="F172" s="38" t="s">
+      <c r="F172" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="G172" s="38" t="s">
+      <c r="G172" s="37" t="s">
         <v>249</v>
       </c>
-      <c r="H172" s="38" t="str">
+      <c r="H172" s="37" t="str">
         <f>"R-WH_"&amp;F172&amp;"_"&amp;G172&amp;"*"</f>
         <v>R-WH_Det_SOL*</v>
       </c>
@@ -9454,7 +9453,7 @@
       <c r="G174" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="H174" s="39" t="str">
+      <c r="H174" s="38" t="str">
         <f t="shared" ref="H174:H176" si="41">"R-SH_"&amp;F174&amp;"_"&amp;G174&amp;"*X1"</f>
         <v>R-SH_Apt_ELC*X1</v>
       </c>
@@ -9478,7 +9477,7 @@
       <c r="G175" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="H175" s="39" t="str">
+      <c r="H175" s="38" t="str">
         <f t="shared" si="41"/>
         <v>R-SH_Att_ELC*X1</v>
       </c>
@@ -9502,7 +9501,7 @@
       <c r="G176" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="H176" s="39" t="str">
+      <c r="H176" s="38" t="str">
         <f t="shared" si="41"/>
         <v>R-SH_Det_ELC*X1</v>
       </c>
@@ -9541,7 +9540,7 @@
       <c r="G178" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="H178" s="39" t="str">
+      <c r="H178" s="38" t="str">
         <f t="shared" ref="H178:H180" si="42">"R-SH_"&amp;F178&amp;"_"&amp;G178&amp;"*X1"</f>
         <v>R-SH_Apt_ELC*X1</v>
       </c>
@@ -9568,34 +9567,34 @@
       <c r="G179" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="H179" s="39" t="str">
+      <c r="H179" s="38" t="str">
         <f t="shared" si="42"/>
         <v>R-SH_Att_ELC*X1</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A180" s="40" t="s">
+      <c r="A180" s="39" t="s">
         <v>264</v>
       </c>
-      <c r="B180" s="40" t="str">
+      <c r="B180" s="39" t="str">
         <f>"R-HC_"&amp;F180&amp;"_"&amp;G180&amp;"_HPN*"</f>
         <v>R-HC_Det_ELC_HPN*</v>
       </c>
-      <c r="C180" s="40" t="str">
+      <c r="C180" s="39" t="str">
         <f>"RSDSC_"&amp;F180</f>
         <v>RSDSC_Det</v>
       </c>
-      <c r="D180" s="40">
+      <c r="D180" s="39">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H180,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>3.17870115673878E-2</v>
       </c>
-      <c r="F180" s="40" t="s">
+      <c r="F180" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="G180" s="40" t="s">
+      <c r="G180" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="H180" s="41" t="str">
+      <c r="H180" s="40" t="str">
         <f t="shared" si="42"/>
         <v>R-SH_Det_ELC*X1</v>
       </c>
@@ -9667,28 +9666,28 @@
       </c>
     </row>
     <row r="184" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A184" s="40" t="s">
+      <c r="A184" s="39" t="s">
         <v>264</v>
       </c>
-      <c r="B184" s="40" t="str">
+      <c r="B184" s="39" t="str">
         <f>"R-HC_"&amp;F184&amp;"_"&amp;G184&amp;"_HPN*"</f>
         <v>R-HC_Det_ELC_HPN*</v>
       </c>
-      <c r="C184" s="40" t="str">
+      <c r="C184" s="39" t="str">
         <f>"RSDSH_"&amp;F184</f>
         <v>RSDSH_Det</v>
       </c>
-      <c r="D184" s="40">
+      <c r="D184" s="39">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H184,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>3.17870115673878E-2</v>
       </c>
-      <c r="F184" s="40" t="s">
+      <c r="F184" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="G184" s="40" t="s">
+      <c r="G184" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="H184" s="40" t="str">
+      <c r="H184" s="39" t="str">
         <f t="shared" si="43"/>
         <v>R-SH_Det_ELC*X1</v>
       </c>
@@ -9706,7 +9705,7 @@
   </sheetPr>
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
@@ -10702,7 +10701,7 @@
       <c r="B48" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="C48" s="39" t="str">
+      <c r="C48" s="38" t="str">
         <f>"R-SH_"&amp;A48&amp;"_"&amp;B48&amp;"*X1"</f>
         <v>R-SH_Apt_ELC*X1</v>
       </c>
@@ -10725,7 +10724,7 @@
       <c r="B49" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="39" t="str">
+      <c r="C49" s="38" t="str">
         <f>"R-SH_"&amp;A49&amp;"_"&amp;B49&amp;"*X1"</f>
         <v>R-SH_Att_ELC*X1</v>
       </c>
@@ -10742,24 +10741,24 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="40" t="s">
+      <c r="A50" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="C50" s="41" t="str">
+      <c r="C50" s="40" t="str">
         <f>"R-SH_"&amp;A50&amp;"_"&amp;B50&amp;"*X1"</f>
         <v>R-SH_Det_ELC*X1</v>
       </c>
-      <c r="E50" s="40" t="s">
+      <c r="E50" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="F50" s="40" t="str">
+      <c r="F50" s="39" t="str">
         <f t="shared" si="2"/>
         <v>R-SC_Det_ELC_N1</v>
       </c>
-      <c r="G50" s="40" t="str">
+      <c r="G50" s="39" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C50,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
         <v>*3.08978378378378</v>
       </c>
@@ -10896,7 +10895,7 @@
       <c r="B57" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="C57" s="39" t="str">
+      <c r="C57" s="38" t="str">
         <f>"R-WH_"&amp;A57&amp;"_"&amp;B57&amp;"*X1"</f>
         <v>R-WH_Apt_ELC*X1</v>
       </c>
@@ -11205,7 +11204,7 @@
       <c r="B71" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="39" t="str">
+      <c r="C71" s="38" t="str">
         <f>"R-WH_"&amp;A71&amp;"_"&amp;B71&amp;"*X1"</f>
         <v>R-WH_Att_ELC*X1</v>
       </c>
@@ -11514,7 +11513,7 @@
       <c r="B85" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="C85" s="39" t="str">
+      <c r="C85" s="38" t="str">
         <f>"R-WH_"&amp;A85&amp;"_"&amp;B85&amp;"*X1"</f>
         <v>R-WH_Det_ELC*X1</v>
       </c>
@@ -11702,7 +11701,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13362,6 +13361,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">

--- a/SubRES_TMPL/SubRes_RSD_Trans.xlsx
+++ b/SubRES_TMPL/SubRes_RSD_Trans.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\~g2v_Irish-TIMES-model\RSD23Feb21\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AC4FC2-E895-4AEC-A62A-C0410F2025D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B1EA55-D323-4AC1-BA84-E400FF787F8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="-14250" windowWidth="21600" windowHeight="11385" tabRatio="819" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="819" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOG" sheetId="64" r:id="rId1"/>
@@ -5074,8 +5074,8 @@
   </sheetPr>
   <dimension ref="A1:L184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5305,8 +5305,8 @@
         <v>262</v>
       </c>
       <c r="B10" s="32" t="str">
-        <f>"R-SH*"&amp;F10&amp;"_"&amp;G10&amp;"_N1"</f>
-        <v>R-SH*Apt_ELC_N1</v>
+        <f>"R-SH*"&amp;F10&amp;"_"&amp;G10&amp;",-*HPN*"</f>
+        <v>R-SH*Apt_ELC,-*HPN*</v>
       </c>
       <c r="C10" s="32"/>
       <c r="D10" s="32">
@@ -5320,8 +5320,8 @@
         <v>83</v>
       </c>
       <c r="H10" s="32" t="str">
-        <f>"R-S*_"&amp;F10&amp;"_"&amp;G10&amp;"*X0"</f>
-        <v>R-S*_Apt_ELC*X0</v>
+        <f>"R-S*_"&amp;F10&amp;"_"&amp;G10&amp;"_X0"</f>
+        <v>R-S*_Apt_ELC_X0</v>
       </c>
       <c r="J10" s="32" t="s">
         <v>78</v>
@@ -5739,8 +5739,8 @@
         <v>262</v>
       </c>
       <c r="B24" s="32" t="str">
-        <f>"R-SH*"&amp;F24&amp;"_"&amp;G24&amp;"_N1"</f>
-        <v>R-SH*Att_ELC_N1</v>
+        <f>"R-SH*"&amp;F24&amp;"_"&amp;G24&amp;",-*HPN*"</f>
+        <v>R-SH*Att_ELC,-*HPN*</v>
       </c>
       <c r="C24" s="32"/>
       <c r="D24" s="32">
@@ -6064,8 +6064,8 @@
         <v>262</v>
       </c>
       <c r="B38" s="32" t="str">
-        <f>"R-SW*"&amp;F38&amp;"*"&amp;",-*HPN*"</f>
-        <v>R-SW*Det*,-*HPN*</v>
+        <f>"R-SH*"&amp;F38&amp;"_"&amp;G38&amp;",-*HPN*"</f>
+        <v>R-SH*Det_ELC,-*HPN*</v>
       </c>
       <c r="C38" s="32"/>
       <c r="D38" s="32">
@@ -13358,7 +13358,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8798645-A7BE-46E5-8441-577006E99D5D}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/SubRES_TMPL/SubRes_RSD_Trans.xlsx
+++ b/SubRES_TMPL/SubRes_RSD_Trans.xlsx
@@ -8,9 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B1EA55-D323-4AC1-BA84-E400FF787F8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCE85CC-4B13-4E04-8AF4-E404BB345DDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="819" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="819" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="6" xr2:uid="{DF4C35E6-02C2-4233-84CE-A7CCAFFA4B20}"/>
   </bookViews>
   <sheets>
     <sheet name="LOG" sheetId="64" r:id="rId1"/>
@@ -73,7 +74,7 @@
     <author>Alessandro Chiodi</author>
   </authors>
   <commentList>
-    <comment ref="D130" authorId="0" shapeId="0" xr:uid="{252C524F-867C-494B-8549-0779FBA2A96C}">
+    <comment ref="D121" authorId="0" shapeId="0" xr:uid="{252C524F-867C-494B-8549-0779FBA2A96C}">
       <text>
         <r>
           <rPr>
@@ -97,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H174" authorId="0" shapeId="0" xr:uid="{08155CC9-5232-4BA3-8E7D-2782073BC52D}">
+    <comment ref="H123" authorId="0" shapeId="0" xr:uid="{08155CC9-5232-4BA3-8E7D-2782073BC52D}">
       <text>
         <r>
           <rPr>
@@ -121,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H175" authorId="0" shapeId="0" xr:uid="{18A1B250-FDBD-4085-B842-EA94AB62C50C}">
+    <comment ref="H124" authorId="0" shapeId="0" xr:uid="{18A1B250-FDBD-4085-B842-EA94AB62C50C}">
       <text>
         <r>
           <rPr>
@@ -145,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H176" authorId="0" shapeId="0" xr:uid="{D04A0774-4BB1-4E99-9BCD-45E2F1A6AC6C}">
+    <comment ref="H125" authorId="0" shapeId="0" xr:uid="{D04A0774-4BB1-4E99-9BCD-45E2F1A6AC6C}">
       <text>
         <r>
           <rPr>
@@ -169,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H178" authorId="0" shapeId="0" xr:uid="{E2B5B631-C1AB-456E-AC2B-816F7B2C69C1}">
+    <comment ref="H127" authorId="0" shapeId="0" xr:uid="{E2B5B631-C1AB-456E-AC2B-816F7B2C69C1}">
       <text>
         <r>
           <rPr>
@@ -193,7 +194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H179" authorId="0" shapeId="0" xr:uid="{C376D617-8F0A-44E5-83D3-958CBFADFD31}">
+    <comment ref="H128" authorId="0" shapeId="0" xr:uid="{C376D617-8F0A-44E5-83D3-958CBFADFD31}">
       <text>
         <r>
           <rPr>
@@ -217,7 +218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H180" authorId="0" shapeId="0" xr:uid="{5B2CC33F-B70C-4EB5-AF3E-09C8B0B59273}">
+    <comment ref="H129" authorId="0" shapeId="0" xr:uid="{5B2CC33F-B70C-4EB5-AF3E-09C8B0B59273}">
       <text>
         <r>
           <rPr>
@@ -494,7 +495,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2883" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="271">
   <si>
     <t>IE</t>
   </si>
@@ -1303,16 +1304,7 @@
     <t>NCAP_AFA</t>
   </si>
   <si>
-    <t>*Water heat - Apartment (dual techs)</t>
-  </si>
-  <si>
     <t>AFC</t>
-  </si>
-  <si>
-    <t>*Water heat - Attached (dual techs)</t>
-  </si>
-  <si>
-    <t>*Water heat - Detached (dual techs)</t>
   </si>
   <si>
     <t>*Space Cooling</t>
@@ -1605,7 +1597,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1694,7 +1686,6 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2254,6 +2245,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2325,6 +2317,9 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1">
+      <selection activeCell="M43" sqref="M43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2420,6 +2415,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2597,6 +2593,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2694,6 +2691,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2874,6 +2872,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2969,6 +2968,9 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -3066,6 +3068,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -3163,6 +3166,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -3261,6 +3265,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4028,6 +4033,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4224,6 +4230,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="X18" sqref="X18"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5072,17 +5079,18 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:L184"/>
+  <dimension ref="A1:L133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.28515625" style="22" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" style="22" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="22" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" style="22" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" style="22" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" style="22" customWidth="1"/>
@@ -5146,7 +5154,7 @@
     </row>
     <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -5170,7 +5178,7 @@
       </c>
       <c r="C6" s="32"/>
       <c r="D6" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H6,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H6,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.19812084120527901</v>
       </c>
       <c r="F6" s="32" t="s">
@@ -5191,7 +5199,7 @@
         <v>R-RSDRF*</v>
       </c>
       <c r="L6" s="32">
-        <f>SUMIFS('BY-RSD-RF'!$L$2:$L$100,'BY-RSD-RF'!$C$2:$C$100,AF!K6,'BY-RSD-RF'!$A$2:$A$100,"BASE")</f>
+        <f>AVERAGEIFS('BY-RSD-RF'!$L$2:$L$100,'BY-RSD-RF'!$C$2:$C$100,AF!K6,'BY-RSD-RF'!$A$2:$A$100,"BASE")</f>
         <v>6.6527999999999997E-4</v>
       </c>
     </row>
@@ -5205,7 +5213,7 @@
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H7,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H7,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>4.4735749332023098E-3</v>
       </c>
       <c r="F7" s="33" t="s">
@@ -5226,7 +5234,7 @@
         <v>R-RSDCK*</v>
       </c>
       <c r="L7" s="33">
-        <f>SUMIFS('BY-RSD-CK'!$L$2:$L$100,'BY-RSD-CK'!$C$2:$C$100,AF!K7,'BY-RSD-CK'!$A$2:$A$100,"BASE")</f>
+        <f>AVERAGEIFS('BY-RSD-CK'!$L$2:$L$100,'BY-RSD-CK'!$C$2:$C$100,AF!K7,'BY-RSD-CK'!$A$2:$A$100,"BASE")</f>
         <v>1.1785537993699801E-3</v>
       </c>
     </row>
@@ -5240,7 +5248,7 @@
       </c>
       <c r="C8" s="32"/>
       <c r="D8" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H8,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H8,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>9.6274926826448607E-6</v>
       </c>
       <c r="F8" s="32" t="s">
@@ -5261,7 +5269,7 @@
         <v>R-RSDCW*</v>
       </c>
       <c r="L8" s="32">
-        <f>SUMIFS('BY-RSD-CW'!$L$2:$L$100,'BY-RSD-CW'!$C$2:$C$100,AF!K8,'BY-RSD-RF'!$A$2:$A$100,"BASE")</f>
+        <f>AVERAGEIFS('BY-RSD-CW'!$L$2:$L$100,'BY-RSD-CW'!$C$2:$C$100,AF!K8,'BY-RSD-RF'!$A$2:$A$100,"BASE")</f>
         <v>4.662E-4</v>
       </c>
     </row>
@@ -5275,7 +5283,7 @@
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H9,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H9,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>2.3078593190679501E-2</v>
       </c>
       <c r="F9" s="33" t="s">
@@ -5296,7 +5304,7 @@
         <v>R-RSDCD*</v>
       </c>
       <c r="L9" s="33">
-        <f>SUMIFS('BY-RSD-CD'!$L$2:$L$100,'BY-RSD-CD'!$C$2:$C$100,AF!K9,'BY-RSD-CD'!$A$2:$A$100,"BASE")</f>
+        <f>AVERAGEIFS('BY-RSD-CD'!$L$2:$L$100,'BY-RSD-CD'!$C$2:$C$100,AF!K9,'BY-RSD-CD'!$A$2:$A$100,"BASE")</f>
         <v>9.3528000000000003E-4</v>
       </c>
     </row>
@@ -5305,13 +5313,13 @@
         <v>262</v>
       </c>
       <c r="B10" s="32" t="str">
-        <f>"R-SH*"&amp;F10&amp;"_"&amp;G10&amp;",-*HPN*"</f>
-        <v>R-SH*Apt_ELC,-*HPN*</v>
+        <f>"R-SH*"&amp;F10&amp;"_"&amp;G10&amp;"*"</f>
+        <v>R-SH*Apt_ELC*</v>
       </c>
       <c r="C10" s="32"/>
       <c r="D10" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H10,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.35582728420454E-2</v>
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H10,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.91859640129881E-2</v>
       </c>
       <c r="F10" s="32" t="s">
         <v>109</v>
@@ -5320,8 +5328,8 @@
         <v>83</v>
       </c>
       <c r="H10" s="32" t="str">
-        <f>"R-S*_"&amp;F10&amp;"_"&amp;G10&amp;"_X0"</f>
-        <v>R-S*_Apt_ELC_X0</v>
+        <f>"R-S*_"&amp;F10&amp;"_"&amp;G10&amp;"*"</f>
+        <v>R-S*_Apt_ELC*</v>
       </c>
       <c r="J10" s="32" t="s">
         <v>78</v>
@@ -5331,7 +5339,7 @@
         <v>R-RSDDW*</v>
       </c>
       <c r="L10" s="32">
-        <f>SUMIFS('BY-RSD-DW'!$L$2:$L$100,'BY-RSD-DW'!$C$2:$C$100,AF!K10,'BY-RSD-DW'!$A$2:$A$100,"BASE")</f>
+        <f>AVERAGEIFS('BY-RSD-DW'!$L$2:$L$100,'BY-RSD-DW'!$C$2:$C$100,AF!K10,'BY-RSD-DW'!$A$2:$A$100,"BASE")</f>
         <v>7.5600000000000005E-4</v>
       </c>
     </row>
@@ -5345,7 +5353,7 @@
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H11,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H11,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>3.7359826231663999E-2</v>
       </c>
       <c r="F11" s="33" t="s">
@@ -5366,7 +5374,7 @@
         <v>R-RSDOE*</v>
       </c>
       <c r="L11" s="33">
-        <f>SUMIFS('BY-RSD-OE'!$L$2:$L$100,'BY-RSD-OE'!$C$2:$C$100,AF!K11,'BY-RSD-OE'!$A$2:$A$100,"BASE")</f>
+        <f>AVERAGEIFS('BY-RSD-OE'!$L$2:$L$100,'BY-RSD-OE'!$C$2:$C$100,AF!K11,'BY-RSD-OE'!$A$2:$A$100,"BASE")</f>
         <v>5.4294497115100603E-3</v>
       </c>
     </row>
@@ -5380,7 +5388,7 @@
       </c>
       <c r="C12" s="32"/>
       <c r="D12" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H12,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H12,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>1.18590868367296E-2</v>
       </c>
       <c r="F12" s="32" t="s">
@@ -5400,9 +5408,9 @@
         <f>FillTable!R35</f>
         <v>R-RSDOA*</v>
       </c>
-      <c r="L12" s="32">
-        <f>SUMIFS('BY-RSD-RF'!$L$2:$L$100,'BY-RSD-RF'!$C$2:$C$100,AF!K12,'BY-RSD-RF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
+      <c r="L12" s="32" t="e">
+        <f>AVERAGEIFS('BY-RSD-RF'!$L$2:$L$100,'BY-RSD-RF'!$C$2:$C$100,AF!K12,'BY-RSD-RF'!$A$2:$A$100,"BASE")</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -5415,7 +5423,7 @@
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H13,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H13,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>7.4873010592929098E-2</v>
       </c>
       <c r="F13" s="33" t="s">
@@ -5439,7 +5447,7 @@
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H14,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H14,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>6.95288328276885E-2</v>
       </c>
       <c r="F14" s="32" t="s">
@@ -5463,7 +5471,7 @@
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H15,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H15,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>1.7647904805808901E-2</v>
       </c>
       <c r="F15" s="33" t="s">
@@ -5490,7 +5498,7 @@
       </c>
       <c r="C16" s="32"/>
       <c r="D16" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H16,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H16,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>1.1111193431909199E-3</v>
       </c>
       <c r="F16" s="32" t="s">
@@ -5523,7 +5531,7 @@
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H17,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H17,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>5.3179934471147799E-2</v>
       </c>
       <c r="F17" s="33" t="s">
@@ -5543,28 +5551,16 @@
       <c r="L17" s="31"/>
     </row>
     <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
-        <v>262</v>
-      </c>
-      <c r="B18" s="32" t="str">
-        <f>"R-SH*"&amp;F18&amp;"*"&amp;"HPN*"&amp;",-*GAS*"</f>
-        <v>R-SH*Apt*HPN*,-*GAS*</v>
-      </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H18,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.4813655183930802E-2</v>
-      </c>
-      <c r="F18" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="H18" s="32" t="str">
-        <f>"R-S*_"&amp;F18&amp;"_"&amp;G18&amp;"*"&amp;"X1"</f>
-        <v>R-S*_Apt_ELC*X1</v>
-      </c>
+      <c r="A18" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
       <c r="J18" s="32" t="s">
         <v>78</v>
       </c>
@@ -5572,21 +5568,33 @@
         <v>191</v>
       </c>
       <c r="L18" s="32">
-        <f>SUMIFS('BY-RSD-LT'!$L$2:$L$100,'BY-RSD-LT'!$C$2:$C$100,AF!K18,'BY-RSD-LT'!$A$2:$A$100,"BASE")</f>
+        <f>AVERAGEIFS('BY-RSD-LT'!$L$2:$L$100,'BY-RSD-LT'!$C$2:$C$100,AF!K18,'BY-RSD-LT'!$A$2:$A$100,"BASE")</f>
         <v>6.4458708104453703E-4</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
+      <c r="A19" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="32" t="str">
+        <f>"R-SH*"&amp;F19&amp;"_"&amp;G19&amp;"*"</f>
+        <v>R-SH*Att_COA*</v>
+      </c>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H19,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>0.200472938519001</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="32" t="str">
+        <f t="shared" ref="H19:H22" si="2">"R-S*_"&amp;F19&amp;"_"&amp;G19&amp;"*"</f>
+        <v>R-S*_Att_COA*</v>
+      </c>
       <c r="J19" s="33" t="s">
         <v>78</v>
       </c>
@@ -5594,32 +5602,32 @@
         <v>192</v>
       </c>
       <c r="L19" s="33">
-        <f>SUMIFS('BY-RSD-LT'!$L$2:$L$100,'BY-RSD-LT'!$C$2:$C$100,AF!K19,'BY-RSD-LT'!$A$2:$A$100,"BASE")</f>
+        <f>AVERAGEIFS('BY-RSD-LT'!$L$2:$L$100,'BY-RSD-LT'!$C$2:$C$100,AF!K19,'BY-RSD-LT'!$A$2:$A$100,"BASE")</f>
         <v>9.1487081392159898E-4</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="32" t="str">
+      <c r="B20" s="33" t="str">
         <f>"R-SH*"&amp;F20&amp;"_"&amp;G20&amp;"*"</f>
-        <v>R-SH*Att_COA*</v>
-      </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H20,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.200472938519001</v>
-      </c>
-      <c r="F20" s="32" t="s">
+        <v>R-SH*Att_BDL*</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H20,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.55528798694797E-2</v>
+      </c>
+      <c r="F20" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="G20" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="H20" s="32" t="str">
-        <f t="shared" ref="H20:H23" si="2">"R-S*_"&amp;F20&amp;"_"&amp;G20&amp;"*"</f>
-        <v>R-S*_Att_COA*</v>
+      <c r="G20" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="H20" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v>R-S*_Att_BDL*</v>
       </c>
       <c r="J20" s="32" t="s">
         <v>78</v>
@@ -5628,32 +5636,32 @@
         <v>193</v>
       </c>
       <c r="L20" s="32">
-        <f>SUMIFS('BY-RSD-LT'!$L$2:$L$100,'BY-RSD-LT'!$C$2:$C$100,AF!K20,'BY-RSD-LT'!$A$2:$A$100,"BASE")</f>
+        <f>AVERAGEIFS('BY-RSD-LT'!$L$2:$L$100,'BY-RSD-LT'!$C$2:$C$100,AF!K20,'BY-RSD-LT'!$A$2:$A$100,"BASE")</f>
         <v>1.5069837916185801E-3</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="33" t="str">
+      <c r="B21" s="32" t="str">
         <f>"R-SH*"&amp;F21&amp;"_"&amp;G21&amp;"*"</f>
-        <v>R-SH*Att_BDL*</v>
-      </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H21,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.55528798694797E-2</v>
-      </c>
-      <c r="F21" s="33" t="s">
+        <v>R-SH*Att_ETH*</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H21,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="G21" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="H21" s="33" t="str">
+      <c r="G21" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="H21" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>R-S*_Att_BDL*</v>
+        <v>R-S*_Att_ETH*</v>
       </c>
       <c r="J21" s="33" t="s">
         <v>78</v>
@@ -5662,32 +5670,32 @@
         <v>194</v>
       </c>
       <c r="L21" s="33">
-        <f>SUMIFS('BY-RSD-PF'!$L$2:$L$100,'BY-RSD-PF'!$C$2:$C$100,AF!K21,'BY-RSD-PF'!$A$2:$A$100,"BASE")</f>
+        <f>AVERAGEIFS('BY-RSD-PF'!$L$2:$L$100,'BY-RSD-PF'!$C$2:$C$100,AF!K21,'BY-RSD-PF'!$A$2:$A$100,"BASE")</f>
         <v>1.99234249908748E-4</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="32" t="str">
+      <c r="A22" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="B22" s="33" t="str">
         <f>"R-SH*"&amp;F22&amp;"_"&amp;G22&amp;"*"</f>
-        <v>R-SH*Att_ETH*</v>
-      </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H22,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="32" t="s">
+        <v>R-SH*Att_LPG*</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H22,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>3.0936872888717201E-2</v>
+      </c>
+      <c r="F22" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="G22" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="H22" s="32" t="str">
+      <c r="G22" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="H22" s="33" t="str">
         <f t="shared" si="2"/>
-        <v>R-S*_Att_ETH*</v>
+        <v>R-S*_Att_LPG*</v>
       </c>
       <c r="J22" s="32" t="s">
         <v>78</v>
@@ -5696,32 +5704,32 @@
         <v>195</v>
       </c>
       <c r="L22" s="32">
-        <f>SUMIFS('BY-RSD-PF'!$L$2:$L$100,'BY-RSD-PF'!$C$2:$C$100,AF!K22,'BY-RSD-PF'!$A$2:$A$100,"BASE")</f>
+        <f>AVERAGEIFS('BY-RSD-PF'!$L$2:$L$100,'BY-RSD-PF'!$C$2:$C$100,AF!K22,'BY-RSD-PF'!$A$2:$A$100,"BASE")</f>
         <v>3.80014365567512E-4</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="B23" s="33" t="str">
+      <c r="B23" s="32" t="str">
         <f>"R-SH*"&amp;F23&amp;"_"&amp;G23&amp;"*"</f>
-        <v>R-SH*Att_LPG*</v>
-      </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H23,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.0936872888717201E-2</v>
-      </c>
-      <c r="F23" s="33" t="s">
+        <v>R-SH*Att_ELC*</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H23,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>2.465326257984795E-2</v>
+      </c>
+      <c r="F23" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="G23" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="H23" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>R-S*_Att_LPG*</v>
+      <c r="G23" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="32" t="str">
+        <f>"R-S*_"&amp;F23&amp;"_"&amp;G23&amp;"*"</f>
+        <v>R-S*_Att_ELC*</v>
       </c>
       <c r="J23" s="33" t="s">
         <v>78</v>
@@ -5730,237 +5738,238 @@
         <v>196</v>
       </c>
       <c r="L23" s="33">
-        <f>SUMIFS('BY-RSD-PF'!$L$2:$L$100,'BY-RSD-PF'!$C$2:$C$100,AF!K23,'BY-RSD-PF'!$A$2:$A$100,"BASE")</f>
+        <f>AVERAGEIFS('BY-RSD-PF'!$L$2:$L$100,'BY-RSD-PF'!$C$2:$C$100,AF!K23,'BY-RSD-PF'!$A$2:$A$100,"BASE")</f>
         <v>4.7050395502371901E-4</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="B24" s="32" t="str">
-        <f>"R-SH*"&amp;F24&amp;"_"&amp;G24&amp;",-*HPN*"</f>
-        <v>R-SH*Att_ELC,-*HPN*</v>
-      </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H24,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.19379469540736E-2</v>
-      </c>
-      <c r="F24" s="32" t="s">
+      <c r="B24" s="33" t="str">
+        <f t="shared" ref="B24:B30" si="3">"R-SH*"&amp;F24&amp;"_"&amp;G24&amp;"*"</f>
+        <v>R-SH*Att_KER*</v>
+      </c>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H24,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>2.8368761423682901E-2</v>
+      </c>
+      <c r="F24" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="G24" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="H24" s="32" t="str">
-        <f>"R-S*_"&amp;F24&amp;"_"&amp;G24&amp;"*X0"</f>
-        <v>R-S*_Att_ELC*X0</v>
+      <c r="G24" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="H24" s="33" t="str">
+        <f t="shared" ref="H24" si="4">"R-S*_"&amp;F24&amp;"_"&amp;G24&amp;"*"</f>
+        <v>R-S*_Att_KER*</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="B25" s="33" t="str">
-        <f t="shared" ref="B25:B31" si="3">"R-SH*"&amp;F25&amp;"_"&amp;G25&amp;"*"</f>
-        <v>R-SH*Att_KER*</v>
-      </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H25,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.8368761423682901E-2</v>
-      </c>
-      <c r="F25" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="G25" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="H25" s="33" t="str">
-        <f t="shared" ref="H25" si="4">"R-S*_"&amp;F25&amp;"_"&amp;G25&amp;"*"</f>
-        <v>R-S*_Att_KER*</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
-        <v>262</v>
-      </c>
-      <c r="B26" s="32" t="str">
+      <c r="B25" s="32" t="str">
         <f t="shared" si="3"/>
         <v>R-SH*Att_GAS*</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H26,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H25,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>2.2095891324020799E-2</v>
       </c>
-      <c r="F26" s="32" t="s">
+      <c r="F25" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="G26" s="32" t="s">
+      <c r="G25" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="H26" s="32" t="str">
-        <f>"R-S*_"&amp;F25&amp;"_"&amp;G26&amp;"*"</f>
+      <c r="H25" s="32" t="str">
+        <f>"R-S*_"&amp;F24&amp;"_"&amp;G25&amp;"*"</f>
         <v>R-S*_Att_GAS*</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
+    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="33" t="str">
+      <c r="B26" s="33" t="str">
         <f t="shared" si="3"/>
         <v>R-SH*Att_PEA*</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H27,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H26,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>4.47139828843457E-2</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F26" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="G27" s="33" t="s">
+      <c r="G26" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="H27" s="33" t="str">
-        <f>"R-S*_"&amp;F27&amp;"_"&amp;G27&amp;"*"</f>
+      <c r="H26" s="33" t="str">
+        <f>"R-S*_"&amp;F26&amp;"_"&amp;G26&amp;"*"</f>
         <v>R-S*_Att_PEA*</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="32" t="s">
+    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="32" t="str">
+      <c r="B27" s="32" t="str">
         <f t="shared" si="3"/>
         <v>R-SH*Att_SMF*</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H28,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H27,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>4.6440816123458198E-2</v>
       </c>
-      <c r="F28" s="32" t="s">
+      <c r="F27" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="G28" s="32" t="s">
+      <c r="G27" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="H28" s="32" t="str">
-        <f>"R-S*_"&amp;F28&amp;"_"&amp;G28&amp;"*"</f>
+      <c r="H27" s="32" t="str">
+        <f>"R-S*_"&amp;F27&amp;"_"&amp;G27&amp;"*"</f>
         <v>R-S*_Att_SMF*</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="33" t="s">
+    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="B29" s="33" t="str">
+      <c r="B28" s="33" t="str">
         <f t="shared" si="3"/>
         <v>R-SH*Att_WOO*</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H29,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H28,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>7.5066866433008306E-2</v>
       </c>
-      <c r="F29" s="33" t="s">
+      <c r="F28" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="G29" s="33" t="s">
+      <c r="G28" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="H29" s="33" t="str">
-        <f>"R-S*_"&amp;F29&amp;"_"&amp;G29&amp;"*"</f>
+      <c r="H28" s="33" t="str">
+        <f>"R-S*_"&amp;F28&amp;"_"&amp;G28&amp;"*"</f>
         <v>R-S*_Att_WOO*</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="32" t="s">
+    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="32" t="str">
+      <c r="B29" s="32" t="str">
         <f t="shared" si="3"/>
         <v>R-SH*Att_HET*</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H30,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H29,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>1.4426391204160499E-2</v>
       </c>
-      <c r="F30" s="32" t="s">
+      <c r="F29" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="G30" s="32" t="s">
+      <c r="G29" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="H30" s="32" t="str">
-        <f>"R-S*_"&amp;F30&amp;"_"&amp;G30&amp;"*"</f>
+      <c r="H29" s="32" t="str">
+        <f>"R-S*_"&amp;F29&amp;"_"&amp;G29&amp;"*"</f>
         <v>R-S*_Att_HET*</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="33" t="s">
+    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="33" t="str">
+      <c r="B30" s="33" t="str">
         <f t="shared" si="3"/>
         <v>R-SH*Att_GEO*</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H31,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H30,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.249048421589953</v>
       </c>
-      <c r="F31" s="33" t="s">
+      <c r="F30" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="G31" s="33" t="s">
+      <c r="G30" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="H31" s="33" t="str">
-        <f>"R-S*_"&amp;F31&amp;"_"&amp;G31&amp;"*"</f>
+      <c r="H30" s="33" t="str">
+        <f>"R-S*_"&amp;F30&amp;"_"&amp;G30&amp;"*"</f>
         <v>R-S*_Att_GEO*</v>
       </c>
+    </row>
+    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
     </row>
     <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
-        <v>262</v>
+        <v>1</v>
       </c>
       <c r="B32" s="32" t="str">
-        <f>"R-SH*"&amp;F32&amp;"*"&amp;"HPN*"&amp;",-*GAS*"</f>
-        <v>R-SH*Att*HPN*,-*GAS*</v>
+        <f>"R-SH*"&amp;F32&amp;"_"&amp;G32&amp;"*"</f>
+        <v>R-SH*Det_COA*</v>
       </c>
       <c r="C32" s="32"/>
       <c r="D32" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H32,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.73685782056223E-2</v>
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H32,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>0.44729159875627</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H32" s="32" t="str">
-        <f>"R-S*_"&amp;F32&amp;"_"&amp;G32&amp;"*"&amp;"X1"</f>
-        <v>R-S*_Att_ELC*X1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
+        <f t="shared" ref="H32:H35" si="5">"R-S*_"&amp;F32&amp;"_"&amp;G32&amp;"*"</f>
+        <v>R-S*_Det_COA*</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="33" t="str">
+        <f>"R-SH*"&amp;F33&amp;"_"&amp;G33&amp;"*"</f>
+        <v>R-SH*Det_BDL*</v>
+      </c>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H33,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="H33" s="33" t="str">
+        <f t="shared" si="5"/>
+        <v>R-S*_Det_BDL*</v>
+      </c>
+      <c r="I33" s="25"/>
     </row>
     <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="s">
@@ -5968,71 +5977,70 @@
       </c>
       <c r="B34" s="32" t="str">
         <f>"R-SH*"&amp;F34&amp;"_"&amp;G34&amp;"*"</f>
-        <v>R-SH*Det_COA*</v>
+        <v>R-SH*Det_ETH*</v>
       </c>
       <c r="C34" s="32"/>
       <c r="D34" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H34,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.44729159875627</v>
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H34,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>0</v>
       </c>
       <c r="F34" s="32" t="s">
         <v>114</v>
       </c>
       <c r="G34" s="32" t="s">
-        <v>82</v>
+        <v>197</v>
       </c>
       <c r="H34" s="32" t="str">
-        <f t="shared" ref="H34:H37" si="5">"R-S*_"&amp;F34&amp;"_"&amp;G34&amp;"*"</f>
-        <v>R-S*_Det_COA*</v>
-      </c>
-      <c r="I34" s="25"/>
+        <f t="shared" si="5"/>
+        <v>R-S*_Det_ETH*</v>
+      </c>
     </row>
     <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>1</v>
+        <v>262</v>
       </c>
       <c r="B35" s="33" t="str">
         <f>"R-SH*"&amp;F35&amp;"_"&amp;G35&amp;"*"</f>
-        <v>R-SH*Det_BDL*</v>
+        <v>R-SH*Det_LPG*</v>
       </c>
       <c r="C35" s="33"/>
       <c r="D35" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H35,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H35,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>6.7033675870053502E-2</v>
       </c>
       <c r="F35" s="33" t="s">
         <v>114</v>
       </c>
       <c r="G35" s="33" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H35" s="33" t="str">
         <f t="shared" si="5"/>
-        <v>R-S*_Det_BDL*</v>
+        <v>R-S*_Det_LPG*</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
-        <v>1</v>
+        <v>262</v>
       </c>
       <c r="B36" s="32" t="str">
         <f>"R-SH*"&amp;F36&amp;"_"&amp;G36&amp;"*"</f>
-        <v>R-SH*Det_ETH*</v>
+        <v>R-SH*Det_ELC*</v>
       </c>
       <c r="C36" s="32"/>
       <c r="D36" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H36,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H36,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>4.1614408271926751E-2</v>
       </c>
       <c r="F36" s="32" t="s">
         <v>114</v>
       </c>
       <c r="G36" s="32" t="s">
-        <v>197</v>
+        <v>83</v>
       </c>
       <c r="H36" s="32" t="str">
-        <f t="shared" si="5"/>
-        <v>R-S*_Det_ETH*</v>
+        <f>"R-S*_"&amp;F36&amp;"_"&amp;G36&amp;"*"</f>
+        <v>R-S*_Det_ELC*</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6040,23 +6048,23 @@
         <v>262</v>
       </c>
       <c r="B37" s="33" t="str">
-        <f>"R-SH*"&amp;F37&amp;"_"&amp;G37&amp;"*"</f>
-        <v>R-SH*Det_LPG*</v>
+        <f t="shared" ref="B37:B43" si="6">"R-SH*"&amp;F37&amp;"_"&amp;G37&amp;"*"</f>
+        <v>R-SH*Det_KER*</v>
       </c>
       <c r="C37" s="33"/>
       <c r="D37" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H37,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>6.7033675870053502E-2</v>
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H37,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>4.6621727976421598E-2</v>
       </c>
       <c r="F37" s="33" t="s">
         <v>114</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H37" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>R-S*_Det_LPG*</v>
+        <f t="shared" ref="H37" si="7">"R-S*_"&amp;F37&amp;"_"&amp;G37&amp;"*"</f>
+        <v>R-S*_Det_KER*</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6064,95 +6072,95 @@
         <v>262</v>
       </c>
       <c r="B38" s="32" t="str">
-        <f>"R-SH*"&amp;F38&amp;"_"&amp;G38&amp;",-*HPN*"</f>
-        <v>R-SH*Det_ELC,-*HPN*</v>
+        <f t="shared" si="6"/>
+        <v>R-SH*Det_GAS*</v>
       </c>
       <c r="C38" s="32"/>
       <c r="D38" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H38,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.1441804976465701E-2</v>
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H38,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>3.7040631160092499E-2</v>
       </c>
       <c r="F38" s="32" t="s">
         <v>114</v>
       </c>
       <c r="G38" s="32" t="s">
-        <v>83</v>
+        <v>201</v>
       </c>
       <c r="H38" s="32" t="str">
-        <f>"R-S*_"&amp;F38&amp;"_"&amp;G38&amp;"*X0"</f>
-        <v>R-S*_Det_ELC*X0</v>
+        <f>"R-S*_"&amp;F37&amp;"_"&amp;G38&amp;"*"</f>
+        <v>R-S*_Det_GAS*</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
-        <v>262</v>
+        <v>1</v>
       </c>
       <c r="B39" s="33" t="str">
-        <f t="shared" ref="B39:B45" si="6">"R-SH*"&amp;F39&amp;"_"&amp;G39&amp;"*"</f>
-        <v>R-SH*Det_KER*</v>
+        <f t="shared" si="6"/>
+        <v>R-SH*Det_PEA*</v>
       </c>
       <c r="C39" s="33"/>
       <c r="D39" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H39,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.6621727976421598E-2</v>
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H39,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>9.5005552686675293E-2</v>
       </c>
       <c r="F39" s="33" t="s">
         <v>114</v>
       </c>
       <c r="G39" s="33" t="s">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="H39" s="33" t="str">
-        <f t="shared" ref="H39" si="7">"R-S*_"&amp;F39&amp;"_"&amp;G39&amp;"*"</f>
-        <v>R-S*_Det_KER*</v>
+        <f>"R-S*_"&amp;F39&amp;"_"&amp;G39&amp;"*"</f>
+        <v>R-S*_Det_PEA*</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
-        <v>262</v>
+        <v>1</v>
       </c>
       <c r="B40" s="32" t="str">
         <f t="shared" si="6"/>
-        <v>R-SH*Det_GAS*</v>
+        <v>R-SH*Det_SMF*</v>
       </c>
       <c r="C40" s="32"/>
       <c r="D40" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H40,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.7040631160092499E-2</v>
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H40,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>0.12981046442763899</v>
       </c>
       <c r="F40" s="32" t="s">
         <v>114</v>
       </c>
       <c r="G40" s="32" t="s">
-        <v>201</v>
+        <v>111</v>
       </c>
       <c r="H40" s="32" t="str">
-        <f>"R-S*_"&amp;F39&amp;"_"&amp;G40&amp;"*"</f>
-        <v>R-S*_Det_GAS*</v>
+        <f>"R-S*_"&amp;F40&amp;"_"&amp;G40&amp;"*"</f>
+        <v>R-S*_Det_SMF*</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="33" t="s">
-        <v>1</v>
+        <v>262</v>
       </c>
       <c r="B41" s="33" t="str">
         <f t="shared" si="6"/>
-        <v>R-SH*Det_PEA*</v>
+        <v>R-SH*Det_WOO*</v>
       </c>
       <c r="C41" s="33"/>
       <c r="D41" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H41,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.5005552686675293E-2</v>
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H41,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>9.1153830584100495E-2</v>
       </c>
       <c r="F41" s="33" t="s">
         <v>114</v>
       </c>
       <c r="G41" s="33" t="s">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="H41" s="33" t="str">
         <f>"R-S*_"&amp;F41&amp;"_"&amp;G41&amp;"*"</f>
-        <v>R-S*_Det_PEA*</v>
+        <v>R-S*_Det_WOO*</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6161,3534 +6169,2212 @@
       </c>
       <c r="B42" s="32" t="str">
         <f t="shared" si="6"/>
-        <v>R-SH*Det_SMF*</v>
+        <v>R-SH*Det_HET*</v>
       </c>
       <c r="C42" s="32"/>
       <c r="D42" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H42,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.12981046442763899</v>
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H42,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>0.189996602787424</v>
       </c>
       <c r="F42" s="32" t="s">
         <v>114</v>
       </c>
       <c r="G42" s="32" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="H42" s="32" t="str">
         <f>"R-S*_"&amp;F42&amp;"_"&amp;G42&amp;"*"</f>
-        <v>R-S*_Det_SMF*</v>
+        <v>R-S*_Det_HET*</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="s">
-        <v>262</v>
+        <v>1</v>
       </c>
       <c r="B43" s="33" t="str">
         <f t="shared" si="6"/>
-        <v>R-SH*Det_WOO*</v>
+        <v>R-SH*Det_GEO*</v>
       </c>
       <c r="C43" s="33"/>
       <c r="D43" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H43,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.1153830584100495E-2</v>
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H43,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>0.22978380047467101</v>
       </c>
       <c r="F43" s="33" t="s">
         <v>114</v>
       </c>
       <c r="G43" s="33" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H43" s="33" t="str">
         <f>"R-S*_"&amp;F43&amp;"_"&amp;G43&amp;"*"</f>
-        <v>R-S*_Det_WOO*</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="32" t="s">
+        <v>R-S*_Det_GEO*</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="31"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+    </row>
+    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="32" t="str">
-        <f t="shared" si="6"/>
-        <v>R-SH*Det_HET*</v>
-      </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H44,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.189996602787424</v>
-      </c>
-      <c r="F44" s="32" t="s">
+      <c r="B45" s="32" t="str">
+        <f>"R-SW*"&amp;F45&amp;"_"&amp;G45&amp;"*"</f>
+        <v>R-SW*Apt_COA*</v>
+      </c>
+      <c r="C45" s="32" t="str">
+        <f>"RSDSH_"&amp;F45&amp;",RSDWH_"&amp;F57</f>
+        <v>RSDSH_Apt,RSDWH_Att</v>
+      </c>
+      <c r="D45" s="32">
+        <f>AVERAGE(D6,D81)</f>
+        <v>0.12046822276000085</v>
+      </c>
+      <c r="F45" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G45" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="H45" s="32" t="str">
+        <f t="shared" ref="H45:H48" si="8">"R-S*_"&amp;F45&amp;"_"&amp;G45&amp;"*"</f>
+        <v>R-S*_Apt_COA*</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="33" t="str">
+        <f>"R-SW*"&amp;F46&amp;"_"&amp;G46&amp;"*"</f>
+        <v>R-SW*Apt_BDL*</v>
+      </c>
+      <c r="C46" s="33" t="str">
+        <f>"RSDSH_"&amp;F46&amp;",RSDWH_"&amp;F58</f>
+        <v>RSDSH_Apt,RSDWH_Att</v>
+      </c>
+      <c r="D46" s="33">
+        <f>AVERAGE(D7,D82)</f>
+        <v>5.7870174666011555E-3</v>
+      </c>
+      <c r="F46" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="G46" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="H46" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>R-S*_Apt_BDL*</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="32" t="str">
+        <f>"R-SW*"&amp;F47&amp;"_"&amp;G47&amp;"*"</f>
+        <v>R-SW*Apt_ETH*</v>
+      </c>
+      <c r="C47" s="32" t="str">
+        <f>"RSDSH_"&amp;F47&amp;",RSDWH_"&amp;F59</f>
+        <v>RSDSH_Apt,RSDWH_Att</v>
+      </c>
+      <c r="D47" s="32">
+        <f>AVERAGE(D8,D83)</f>
+        <v>4.2821537463413224E-3</v>
+      </c>
+      <c r="F47" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G47" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="H47" s="32" t="str">
+        <f t="shared" si="8"/>
+        <v>R-S*_Apt_ETH*</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="B48" s="33" t="str">
+        <f>"R-SW*"&amp;F48&amp;"_"&amp;G48&amp;"*"</f>
+        <v>R-SW*Apt_LPG*</v>
+      </c>
+      <c r="C48" s="33" t="str">
+        <f>"RSDSH_"&amp;F48&amp;",RSDWH_"&amp;F60</f>
+        <v>RSDSH_Apt,RSDWH_Att</v>
+      </c>
+      <c r="D48" s="33">
+        <f>AVERAGE(D9,D84)</f>
+        <v>1.78079112619931E-2</v>
+      </c>
+      <c r="F48" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="G48" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="H48" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>R-S*_Apt_LPG*</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="B49" s="32" t="str">
+        <f>"R-SW*"&amp;F49&amp;"_"&amp;G49&amp;"*"</f>
+        <v>R-SW*Apt_ELC*</v>
+      </c>
+      <c r="C49" s="32" t="str">
+        <f>"RSDSH_"&amp;F49&amp;",RSDWH_"&amp;F61</f>
+        <v>RSDSH_Apt,RSDWH_Att</v>
+      </c>
+      <c r="D49" s="32">
+        <f>AVERAGE(D10,D85)</f>
+        <v>2.0960831834076356E-2</v>
+      </c>
+      <c r="F49" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G49" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="H49" s="32" t="str">
+        <f>"R-S*_"&amp;F49&amp;"_"&amp;G49&amp;"*"</f>
+        <v>R-S*_Apt_ELC*</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="B50" s="33" t="str">
+        <f t="shared" ref="B50:B55" si="9">"R-SW*"&amp;F50&amp;"_"&amp;G50&amp;"*"</f>
+        <v>R-SW*Apt_KER*</v>
+      </c>
+      <c r="C50" s="33" t="str">
+        <f>"RSDSH_"&amp;F50&amp;",RSDWH_"&amp;F62</f>
+        <v>RSDSH_Apt,RSDWH_Att</v>
+      </c>
+      <c r="D50" s="33">
+        <f>AVERAGE(D11,D86)</f>
+        <v>2.39860043810185E-2</v>
+      </c>
+      <c r="F50" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="G50" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="H50" s="33" t="str">
+        <f t="shared" ref="H50" si="10">"R-S*_"&amp;F50&amp;"_"&amp;G50&amp;"*"</f>
+        <v>R-S*_Apt_KER*</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="B51" s="32" t="str">
+        <f t="shared" si="9"/>
+        <v>R-SW*Apt_GAS*</v>
+      </c>
+      <c r="C51" s="32" t="str">
+        <f>"RSDSH_"&amp;F51&amp;",RSDWH_"&amp;F63</f>
+        <v>RSDSH_Apt,RSDWH_Att</v>
+      </c>
+      <c r="D51" s="32">
+        <f>AVERAGE(D12,D87)</f>
+        <v>9.4795012067416702E-3</v>
+      </c>
+      <c r="F51" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G51" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="H51" s="32" t="str">
+        <f>"R-S*_"&amp;F50&amp;"_"&amp;G51&amp;"*"</f>
+        <v>R-S*_Apt_GAS*</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="33" t="str">
+        <f t="shared" si="9"/>
+        <v>R-SW*Apt_PEA*</v>
+      </c>
+      <c r="C52" s="33" t="str">
+        <f>"RSDSH_"&amp;F52&amp;",RSDWH_"&amp;F64</f>
+        <v>RSDSH_Apt,RSDWH_Att</v>
+      </c>
+      <c r="D52" s="33">
+        <f>AVERAGE(D13,D88)</f>
+        <v>4.1723534142618396E-2</v>
+      </c>
+      <c r="F52" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="G52" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="H52" s="33" t="str">
+        <f>"R-S*_"&amp;F52&amp;"_"&amp;G52&amp;"*"</f>
+        <v>R-S*_Apt_PEA*</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="32" t="str">
+        <f t="shared" si="9"/>
+        <v>R-SW*Apt_SMF*</v>
+      </c>
+      <c r="C53" s="32" t="str">
+        <f>"RSDSH_"&amp;F53&amp;",RSDWH_"&amp;F65</f>
+        <v>RSDSH_Apt,RSDWH_Att</v>
+      </c>
+      <c r="D53" s="32">
+        <f>AVERAGE(D14,D89)</f>
+        <v>3.9031062810540487E-2</v>
+      </c>
+      <c r="F53" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G53" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="H53" s="32" t="str">
+        <f>"R-S*_"&amp;F53&amp;"_"&amp;G53&amp;"*"</f>
+        <v>R-S*_Apt_SMF*</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="B54" s="33" t="str">
+        <f t="shared" si="9"/>
+        <v>R-SW*Apt_WOO*</v>
+      </c>
+      <c r="C54" s="33" t="str">
+        <f>"RSDSH_"&amp;F54&amp;",RSDWH_"&amp;F66</f>
+        <v>RSDSH_Apt,RSDWH_Att</v>
+      </c>
+      <c r="D54" s="33">
+        <f>AVERAGE(D15,D90)</f>
+        <v>1.3703890127892181E-2</v>
+      </c>
+      <c r="F54" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="G54" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="H54" s="33" t="str">
+        <f>"R-S*_"&amp;F54&amp;"_"&amp;G54&amp;"*"</f>
+        <v>R-S*_Apt_WOO*</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="B55" s="32" t="str">
+        <f t="shared" si="9"/>
+        <v>R-SW*Apt_HET*</v>
+      </c>
+      <c r="C55" s="32" t="str">
+        <f>"RSDSH_"&amp;F55&amp;",RSDWH_"&amp;F67</f>
+        <v>RSDSH_Apt,RSDWH_Att</v>
+      </c>
+      <c r="D55" s="32">
+        <f>AVERAGE(D16,D91)</f>
+        <v>7.0869783672800491E-4</v>
+      </c>
+      <c r="F55" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G55" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="H55" s="32" t="str">
+        <f>"R-S*_"&amp;F55&amp;"_"&amp;G55&amp;"*"</f>
+        <v>R-S*_Apt_HET*</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A56" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+    </row>
+    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="32" t="str">
+        <f>"R-SW*"&amp;F57&amp;"_"&amp;G57&amp;"*"</f>
+        <v>R-SW*Att_COA*</v>
+      </c>
+      <c r="C57" s="32" t="str">
+        <f>"RSDSH_"&amp;F57&amp;",RSDWH_"&amp;F57</f>
+        <v>RSDSH_Att,RSDWH_Att</v>
+      </c>
+      <c r="D57" s="32">
+        <f>AVERAGE(D19,D95)</f>
+        <v>0.1084642004308423</v>
+      </c>
+      <c r="F57" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="G57" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="H57" s="32" t="str">
+        <f t="shared" ref="H57:H60" si="11">"R-S*_"&amp;F57&amp;"_"&amp;G57&amp;"*"</f>
+        <v>R-S*_Att_COA*</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="33" t="str">
+        <f>"R-SW*"&amp;F58&amp;"_"&amp;G58&amp;"*"</f>
+        <v>R-SW*Att_BDL*</v>
+      </c>
+      <c r="C58" s="33" t="str">
+        <f t="shared" ref="C58:C67" si="12">"RSDSH_"&amp;F58&amp;",RSDWH_"&amp;F58</f>
+        <v>RSDSH_Att,RSDWH_Att</v>
+      </c>
+      <c r="D58" s="33">
+        <f>AVERAGE(D20,D96)</f>
+        <v>1.4786839934739851E-2</v>
+      </c>
+      <c r="F58" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="G58" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="H58" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>R-S*_Att_BDL*</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="32" t="str">
+        <f>"R-SW*"&amp;F59&amp;"_"&amp;G59&amp;"*"</f>
+        <v>R-SW*Att_ETH*</v>
+      </c>
+      <c r="C59" s="32" t="str">
+        <f t="shared" si="12"/>
+        <v>RSDSH_Att,RSDWH_Att</v>
+      </c>
+      <c r="D59" s="32">
+        <f>AVERAGE(D21,D97)</f>
+        <v>5.2990199999999998E-3</v>
+      </c>
+      <c r="F59" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="G59" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="H59" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v>R-S*_Att_ETH*</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="B60" s="33" t="str">
+        <f>"R-SW*"&amp;F60&amp;"_"&amp;G60&amp;"*"</f>
+        <v>R-SW*Att_LPG*</v>
+      </c>
+      <c r="C60" s="33" t="str">
+        <f t="shared" si="12"/>
+        <v>RSDSH_Att,RSDWH_Att</v>
+      </c>
+      <c r="D60" s="33">
+        <f>AVERAGE(D22,D98)</f>
+        <v>2.3397171732945601E-2</v>
+      </c>
+      <c r="F60" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="G60" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="H60" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>R-S*_Att_LPG*</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="B61" s="32" t="str">
+        <f>"R-SW*"&amp;F61&amp;"_"&amp;G61&amp;"*"</f>
+        <v>R-SW*Att_ELC*</v>
+      </c>
+      <c r="C61" s="32" t="str">
+        <f t="shared" si="12"/>
+        <v>RSDSH_Att,RSDWH_Att</v>
+      </c>
+      <c r="D61" s="32">
+        <f>AVERAGE(D23,D99)</f>
+        <v>1.8790415525076425E-2</v>
+      </c>
+      <c r="F61" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="G61" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="H61" s="32" t="str">
+        <f>"R-S*_"&amp;F61&amp;"_"&amp;G61&amp;"*"</f>
+        <v>R-S*_Att_ELC*</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="B62" s="33" t="str">
+        <f t="shared" ref="B62:B67" si="13">"R-SW*"&amp;F62&amp;"_"&amp;G62&amp;"*"</f>
+        <v>R-SW*Att_KER*</v>
+      </c>
+      <c r="C62" s="33" t="str">
+        <f t="shared" si="12"/>
+        <v>RSDSH_Att,RSDWH_Att</v>
+      </c>
+      <c r="D62" s="33">
+        <f>AVERAGE(D24,D100)</f>
+        <v>1.967994481887405E-2</v>
+      </c>
+      <c r="F62" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="G62" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="H62" s="33" t="str">
+        <f t="shared" ref="H62" si="14">"R-S*_"&amp;F62&amp;"_"&amp;G62&amp;"*"</f>
+        <v>R-S*_Att_KER*</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="B63" s="32" t="str">
+        <f t="shared" si="13"/>
+        <v>R-SW*Att_GAS*</v>
+      </c>
+      <c r="C63" s="32" t="str">
+        <f t="shared" si="12"/>
+        <v>RSDSH_Att,RSDWH_Att</v>
+      </c>
+      <c r="D63" s="32">
+        <f>AVERAGE(D25,D101)</f>
+        <v>1.5651300362142566E-2</v>
+      </c>
+      <c r="F63" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="G63" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="H63" s="32" t="str">
+        <f>"R-S*_"&amp;F62&amp;"_"&amp;G63&amp;"*"</f>
+        <v>R-S*_Att_GAS*</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" s="33" t="str">
+        <f t="shared" si="13"/>
+        <v>R-SW*Att_PEA*</v>
+      </c>
+      <c r="C64" s="33" t="str">
+        <f t="shared" si="12"/>
+        <v>RSDSH_Att,RSDWH_Att</v>
+      </c>
+      <c r="D64" s="33">
+        <f>AVERAGE(D26,D102)</f>
+        <v>2.7792560757827899E-2</v>
+      </c>
+      <c r="F64" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="G64" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="H64" s="33" t="str">
+        <f>"R-S*_"&amp;F64&amp;"_"&amp;G64&amp;"*"</f>
+        <v>R-S*_Att_PEA*</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="32" t="str">
+        <f t="shared" si="13"/>
+        <v>R-SW*Att_SMF*</v>
+      </c>
+      <c r="C65" s="32" t="str">
+        <f t="shared" si="12"/>
+        <v>RSDSH_Att,RSDWH_Att</v>
+      </c>
+      <c r="D65" s="32">
+        <f>AVERAGE(D27,D103)</f>
+        <v>2.7875172020965074E-2</v>
+      </c>
+      <c r="F65" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="G65" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="H65" s="32" t="str">
+        <f>"R-S*_"&amp;F65&amp;"_"&amp;G65&amp;"*"</f>
+        <v>R-S*_Att_SMF*</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="B66" s="33" t="str">
+        <f t="shared" si="13"/>
+        <v>R-SW*Att_WOO*</v>
+      </c>
+      <c r="C66" s="33" t="str">
+        <f t="shared" si="12"/>
+        <v>RSDSH_Att,RSDWH_Att</v>
+      </c>
+      <c r="D66" s="33">
+        <f>AVERAGE(D28,D104)</f>
+        <v>4.29559017447428E-2</v>
+      </c>
+      <c r="F66" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="G66" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="H66" s="33" t="str">
+        <f>"R-S*_"&amp;F66&amp;"_"&amp;G66&amp;"*"</f>
+        <v>R-S*_Att_WOO*</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="B67" s="32" t="str">
+        <f t="shared" si="13"/>
+        <v>R-SW*Att_HET*</v>
+      </c>
+      <c r="C67" s="32" t="str">
+        <f t="shared" si="12"/>
+        <v>RSDSH_Att,RSDWH_Att</v>
+      </c>
+      <c r="D67" s="32">
+        <f>AVERAGE(D29,D105)</f>
+        <v>7.5978921044014113E-3</v>
+      </c>
+      <c r="F67" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="G67" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="H67" s="32" t="str">
+        <f>"R-S*_"&amp;F67&amp;"_"&amp;G67&amp;"*"</f>
+        <v>R-S*_Att_HET*</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A68" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+    </row>
+    <row r="69" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="32" t="str">
+        <f>"R-SW*"&amp;F69&amp;"_"&amp;G69&amp;"*"</f>
+        <v>R-SW*Det_COA*</v>
+      </c>
+      <c r="C69" s="32" t="str">
+        <f>"RSDSH_"&amp;F69&amp;",RSDWH_"&amp;F69</f>
+        <v>RSDSH_Det,RSDWH_Det</v>
+      </c>
+      <c r="D69" s="32">
+        <f>AVERAGE(D32,D109)</f>
+        <v>0.23279354972205615</v>
+      </c>
+      <c r="F69" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="G44" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="H44" s="32" t="str">
-        <f>"R-S*_"&amp;F44&amp;"_"&amp;G44&amp;"*"</f>
-        <v>R-S*_Det_HET*</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="33" t="s">
+      <c r="G69" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="H69" s="32" t="str">
+        <f t="shared" ref="H69:H73" si="15">"R-S*_"&amp;F69&amp;"_"&amp;G69&amp;"*"</f>
+        <v>R-S*_Det_COA*</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A70" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="33" t="str">
-        <f t="shared" si="6"/>
-        <v>R-SH*Det_GEO*</v>
-      </c>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H45,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.22978380047467101</v>
-      </c>
-      <c r="F45" s="33" t="s">
+      <c r="B70" s="33" t="str">
+        <f>"R-SW*"&amp;F70&amp;"_"&amp;G70&amp;"*"</f>
+        <v>R-SW*Det_BDL*</v>
+      </c>
+      <c r="C70" s="33" t="str">
+        <f t="shared" ref="C70:C79" si="16">"RSDSH_"&amp;F70&amp;",RSDWH_"&amp;F70</f>
+        <v>RSDSH_Det,RSDWH_Det</v>
+      </c>
+      <c r="D70" s="33">
+        <f t="shared" ref="D70:D79" si="17">AVERAGE(D33,D110)</f>
+        <v>5.3395200000000004E-3</v>
+      </c>
+      <c r="F70" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="G45" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="H45" s="33" t="str">
-        <f>"R-S*_"&amp;F45&amp;"_"&amp;G45&amp;"*"</f>
-        <v>R-S*_Det_GEO*</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="32" t="s">
-        <v>262</v>
-      </c>
-      <c r="B46" s="32" t="str">
-        <f>"R-SH*"&amp;F46&amp;"*"&amp;"HPN*"&amp;",-*GAS*"</f>
-        <v>R-SH*Det*HPN*,-*GAS*</v>
-      </c>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H46,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.17870115673878E-2</v>
-      </c>
-      <c r="F46" s="32" t="s">
+      <c r="G70" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="H70" s="33" t="str">
+        <f t="shared" si="15"/>
+        <v>R-S*_Det_BDL*</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" s="32" t="str">
+        <f>"R-SW*"&amp;F71&amp;"_"&amp;G71&amp;"*"</f>
+        <v>R-SW*Det_ETH*</v>
+      </c>
+      <c r="C71" s="32" t="str">
+        <f t="shared" si="16"/>
+        <v>RSDSH_Det,RSDWH_Det</v>
+      </c>
+      <c r="D71" s="32">
+        <f t="shared" si="17"/>
+        <v>6.0482699999999997E-3</v>
+      </c>
+      <c r="F71" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="G46" s="32" t="s">
+      <c r="G71" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="H71" s="32" t="str">
+        <f t="shared" si="15"/>
+        <v>R-S*_Det_ETH*</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A72" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="B72" s="33" t="str">
+        <f>"R-SW*"&amp;F72&amp;"_"&amp;G72&amp;"*"</f>
+        <v>R-SW*Det_LPG*</v>
+      </c>
+      <c r="C72" s="33" t="str">
+        <f t="shared" si="16"/>
+        <v>RSDSH_Det,RSDWH_Det</v>
+      </c>
+      <c r="D72" s="33">
+        <f t="shared" si="17"/>
+        <v>4.21939695625516E-2</v>
+      </c>
+      <c r="F72" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G72" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="H72" s="33" t="str">
+        <f t="shared" si="15"/>
+        <v>R-S*_Det_LPG*</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A73" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="B73" s="32" t="str">
+        <f>"R-SW*"&amp;F73&amp;"_"&amp;G73&amp;"*"</f>
+        <v>R-SW*Det_ELC*</v>
+      </c>
+      <c r="C73" s="32" t="str">
+        <f t="shared" si="16"/>
+        <v>RSDSH_Det,RSDWH_Det</v>
+      </c>
+      <c r="D73" s="32">
+        <f t="shared" si="17"/>
+        <v>2.7471447517498526E-2</v>
+      </c>
+      <c r="F73" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G73" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="H46" s="32" t="str">
-        <f>"R-S*_"&amp;F46&amp;"_"&amp;G46&amp;"*"&amp;"X1"</f>
-        <v>R-S*_Det_ELC*X1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="29" t="s">
-        <v>272</v>
-      </c>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="31"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-    </row>
-    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="32" t="str">
-        <f>"R-SW*"&amp;F48&amp;"_"&amp;G48&amp;"*"</f>
-        <v>R-SW*Apt_COA*</v>
-      </c>
-      <c r="C48" s="32" t="str">
-        <f t="shared" ref="C48:C60" si="8">"RSDSH_"&amp;F48</f>
-        <v>RSDSH_Apt</v>
-      </c>
-      <c r="D48" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H48,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.19812084120527901</v>
-      </c>
-      <c r="F48" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="G48" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="H48" s="32" t="str">
-        <f t="shared" ref="H48:H51" si="9">"R-S*_"&amp;F48&amp;"_"&amp;G48&amp;"*"</f>
-        <v>R-S*_Apt_COA*</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B49" s="33" t="str">
-        <f>"R-SW*"&amp;F49&amp;"_"&amp;G49&amp;"*"</f>
-        <v>R-SW*Apt_BDL*</v>
-      </c>
-      <c r="C49" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>RSDSH_Apt</v>
-      </c>
-      <c r="D49" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H49,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.4735749332023098E-3</v>
-      </c>
-      <c r="F49" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="G49" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="H49" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v>R-S*_Apt_BDL*</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B50" s="32" t="str">
-        <f>"R-SW*"&amp;F50&amp;"_"&amp;G50&amp;"*"</f>
-        <v>R-SW*Apt_ETH*</v>
-      </c>
-      <c r="C50" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>RSDSH_Apt</v>
-      </c>
-      <c r="D50" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H50,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.6274926826448607E-6</v>
-      </c>
-      <c r="F50" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="G50" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="H50" s="32" t="str">
-        <f t="shared" si="9"/>
-        <v>R-S*_Apt_ETH*</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="33" t="s">
+      <c r="H73" s="32" t="str">
+        <f t="shared" si="15"/>
+        <v>R-S*_Det_ELC*</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A74" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="B51" s="33" t="str">
-        <f>"R-SW*"&amp;F51&amp;"_"&amp;G51&amp;"*"</f>
-        <v>R-SW*Apt_LPG*</v>
-      </c>
-      <c r="C51" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>RSDSH_Apt</v>
-      </c>
-      <c r="D51" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H51,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.3078593190679501E-2</v>
-      </c>
-      <c r="F51" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="G51" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="H51" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v>R-S*_Apt_LPG*</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="32" t="s">
+      <c r="B74" s="33" t="str">
+        <f t="shared" ref="B74:B79" si="18">"R-SW*"&amp;F74&amp;"_"&amp;G74&amp;"*"</f>
+        <v>R-SW*Det_KER*</v>
+      </c>
+      <c r="C74" s="33" t="str">
+        <f t="shared" si="16"/>
+        <v>RSDSH_Det,RSDWH_Det</v>
+      </c>
+      <c r="D74" s="33">
+        <f t="shared" si="17"/>
+        <v>3.0079476421251198E-2</v>
+      </c>
+      <c r="F74" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G74" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="H74" s="33" t="str">
+        <f t="shared" ref="H74" si="19">"R-S*_"&amp;F74&amp;"_"&amp;G74&amp;"*"</f>
+        <v>R-S*_Det_KER*</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A75" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="B52" s="32" t="str">
-        <f>"R-SW*"&amp;F52&amp;"*"&amp;",-*HPN*"</f>
-        <v>R-SW*Apt*,-*HPN*</v>
-      </c>
-      <c r="C52" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>RSDSH_Apt</v>
-      </c>
-      <c r="D52" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H52,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.35582728420454E-2</v>
-      </c>
-      <c r="F52" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="G52" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="H52" s="32" t="str">
-        <f>"R-S*_"&amp;F52&amp;"_"&amp;G52&amp;"_X0"</f>
-        <v>R-S*_Apt_ELC_X0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="B53" s="33" t="str">
-        <f t="shared" ref="B53:B59" si="10">"R-SW*"&amp;F53&amp;"_"&amp;G53&amp;"*"</f>
-        <v>R-SW*Apt_KER*</v>
-      </c>
-      <c r="C53" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>RSDSH_Apt</v>
-      </c>
-      <c r="D53" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H53,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.7359826231663999E-2</v>
-      </c>
-      <c r="F53" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="G53" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="H53" s="33" t="str">
-        <f t="shared" ref="H53" si="11">"R-S*_"&amp;F53&amp;"_"&amp;G53&amp;"*"</f>
-        <v>R-S*_Apt_KER*</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="B54" s="32" t="str">
-        <f t="shared" si="10"/>
-        <v>R-SW*Apt_GAS*</v>
-      </c>
-      <c r="C54" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>RSDSH_Apt</v>
-      </c>
-      <c r="D54" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H54,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.18590868367296E-2</v>
-      </c>
-      <c r="F54" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="G54" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="H54" s="32" t="str">
-        <f>"R-S*_"&amp;F53&amp;"_"&amp;G54&amp;"*"</f>
-        <v>R-S*_Apt_GAS*</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55" s="33" t="str">
-        <f t="shared" si="10"/>
-        <v>R-SW*Apt_PEA*</v>
-      </c>
-      <c r="C55" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>RSDSH_Apt</v>
-      </c>
-      <c r="D55" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H55,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>7.4873010592929098E-2</v>
-      </c>
-      <c r="F55" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="G55" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="H55" s="33" t="str">
-        <f>"R-S*_"&amp;F55&amp;"_"&amp;G55&amp;"*"</f>
-        <v>R-S*_Apt_PEA*</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B56" s="32" t="str">
-        <f t="shared" si="10"/>
-        <v>R-SW*Apt_SMF*</v>
-      </c>
-      <c r="C56" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>RSDSH_Apt</v>
-      </c>
-      <c r="D56" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H56,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>6.95288328276885E-2</v>
-      </c>
-      <c r="F56" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="G56" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="H56" s="32" t="str">
-        <f>"R-S*_"&amp;F56&amp;"_"&amp;G56&amp;"*"</f>
-        <v>R-S*_Apt_SMF*</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="B57" s="33" t="str">
-        <f t="shared" si="10"/>
-        <v>R-SW*Apt_WOO*</v>
-      </c>
-      <c r="C57" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>RSDSH_Apt</v>
-      </c>
-      <c r="D57" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H57,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.7647904805808901E-2</v>
-      </c>
-      <c r="F57" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="G57" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="H57" s="33" t="str">
-        <f>"R-S*_"&amp;F57&amp;"_"&amp;G57&amp;"*"</f>
-        <v>R-S*_Apt_WOO*</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="B58" s="32" t="str">
-        <f t="shared" si="10"/>
-        <v>R-SW*Apt_HET*</v>
-      </c>
-      <c r="C58" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>RSDSH_Apt</v>
-      </c>
-      <c r="D58" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H58,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.1111193431909199E-3</v>
-      </c>
-      <c r="F58" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="G58" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="H58" s="32" t="str">
-        <f>"R-S*_"&amp;F58&amp;"_"&amp;G58&amp;"*"</f>
-        <v>R-S*_Apt_HET*</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B59" s="33" t="str">
-        <f t="shared" si="10"/>
-        <v>R-SW*Apt_GEO*</v>
-      </c>
-      <c r="C59" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>RSDSH_Apt</v>
-      </c>
-      <c r="D59" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H59,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.3179934471147799E-2</v>
-      </c>
-      <c r="F59" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="G59" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="H59" s="33" t="str">
-        <f>"R-S*_"&amp;F59&amp;"_"&amp;G59&amp;"*"</f>
-        <v>R-S*_Apt_GEO*</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="B60" s="32" t="str">
-        <f>"R-SW*"&amp;F60&amp;"*"&amp;"HPN*"&amp;",-*GAS*"</f>
-        <v>R-SW*Apt*HPN*,-*GAS*</v>
-      </c>
-      <c r="C60" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>RSDSH_Apt</v>
-      </c>
-      <c r="D60" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H60,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-      <c r="F60" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="G60" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="H60" s="32" t="str">
-        <f>"R-S*_"&amp;F60&amp;"_"&amp;G60&amp;"_HPN*"&amp;",-*GAS*"</f>
-        <v>R-S*_Apt_ELC_HPN*,-*GAS*</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="29" t="s">
-        <v>271</v>
-      </c>
-      <c r="B61" s="30"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
-    </row>
-    <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B62" s="32" t="str">
-        <f>"R-SW*"&amp;F62&amp;"_"&amp;G62&amp;"*"</f>
-        <v>R-SW*Att_COA*</v>
-      </c>
-      <c r="C62" s="32" t="str">
-        <f t="shared" ref="C62:C74" si="12">"RSDSH_"&amp;F62</f>
-        <v>RSDSH_Att</v>
-      </c>
-      <c r="D62" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H62,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.200472938519001</v>
-      </c>
-      <c r="F62" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="G62" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="H62" s="32" t="str">
-        <f t="shared" ref="H62:H65" si="13">"R-S*_"&amp;F62&amp;"_"&amp;G62&amp;"*"</f>
-        <v>R-S*_Att_COA*</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A63" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B63" s="33" t="str">
-        <f>"R-SW*"&amp;F63&amp;"_"&amp;G63&amp;"*"</f>
-        <v>R-SW*Att_BDL*</v>
-      </c>
-      <c r="C63" s="33" t="str">
-        <f t="shared" si="12"/>
-        <v>RSDSH_Att</v>
-      </c>
-      <c r="D63" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H63,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.55528798694797E-2</v>
-      </c>
-      <c r="F63" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="G63" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="H63" s="33" t="str">
-        <f t="shared" si="13"/>
-        <v>R-S*_Att_BDL*</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B64" s="32" t="str">
-        <f>"R-SW*"&amp;F64&amp;"_"&amp;G64&amp;"*"</f>
-        <v>R-SW*Att_ETH*</v>
-      </c>
-      <c r="C64" s="32" t="str">
-        <f t="shared" si="12"/>
-        <v>RSDSH_Att</v>
-      </c>
-      <c r="D64" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H64,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-      <c r="F64" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="G64" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="H64" s="32" t="str">
-        <f t="shared" si="13"/>
-        <v>R-S*_Att_ETH*</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A65" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="B65" s="33" t="str">
-        <f>"R-SW*"&amp;F65&amp;"_"&amp;G65&amp;"*"</f>
-        <v>R-SW*Att_LPG*</v>
-      </c>
-      <c r="C65" s="33" t="str">
-        <f t="shared" si="12"/>
-        <v>RSDSH_Att</v>
-      </c>
-      <c r="D65" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H65,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.0936872888717201E-2</v>
-      </c>
-      <c r="F65" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="G65" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="H65" s="33" t="str">
-        <f t="shared" si="13"/>
-        <v>R-S*_Att_LPG*</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="B66" s="32" t="str">
-        <f>"R-SW*"&amp;F66&amp;"*"&amp;",-*HPN*"</f>
-        <v>R-SW*Att*,-*HPN*</v>
-      </c>
-      <c r="C66" s="32" t="str">
-        <f t="shared" si="12"/>
-        <v>RSDSH_Att</v>
-      </c>
-      <c r="D66" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H66,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.19379469540736E-2</v>
-      </c>
-      <c r="F66" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="G66" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="H66" s="32" t="str">
-        <f>"R-S*_"&amp;F66&amp;"_"&amp;G66&amp;"_X0"</f>
-        <v>R-S*_Att_ELC_X0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="B67" s="33" t="str">
-        <f t="shared" ref="B67:B73" si="14">"R-SW*"&amp;F67&amp;"_"&amp;G67&amp;"*"</f>
-        <v>R-SW*Att_KER*</v>
-      </c>
-      <c r="C67" s="33" t="str">
-        <f t="shared" si="12"/>
-        <v>RSDSH_Att</v>
-      </c>
-      <c r="D67" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H67,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.8368761423682901E-2</v>
-      </c>
-      <c r="F67" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="G67" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="H67" s="33" t="str">
-        <f t="shared" ref="H67" si="15">"R-S*_"&amp;F67&amp;"_"&amp;G67&amp;"*"</f>
-        <v>R-S*_Att_KER*</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A68" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="B68" s="32" t="str">
-        <f t="shared" si="14"/>
-        <v>R-SW*Att_GAS*</v>
-      </c>
-      <c r="C68" s="32" t="str">
-        <f t="shared" si="12"/>
-        <v>RSDSH_Att</v>
-      </c>
-      <c r="D68" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H68,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.2095891324020799E-2</v>
-      </c>
-      <c r="F68" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="G68" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="H68" s="32" t="str">
-        <f>"R-S*_"&amp;F67&amp;"_"&amp;G68&amp;"*"</f>
-        <v>R-S*_Att_GAS*</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A69" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B69" s="33" t="str">
-        <f t="shared" si="14"/>
-        <v>R-SW*Att_PEA*</v>
-      </c>
-      <c r="C69" s="33" t="str">
-        <f t="shared" si="12"/>
-        <v>RSDSH_Att</v>
-      </c>
-      <c r="D69" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H69,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.47139828843457E-2</v>
-      </c>
-      <c r="F69" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="G69" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="H69" s="33" t="str">
-        <f>"R-S*_"&amp;F69&amp;"_"&amp;G69&amp;"*"</f>
-        <v>R-S*_Att_PEA*</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A70" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B70" s="32" t="str">
-        <f t="shared" si="14"/>
-        <v>R-SW*Att_SMF*</v>
-      </c>
-      <c r="C70" s="32" t="str">
-        <f t="shared" si="12"/>
-        <v>RSDSH_Att</v>
-      </c>
-      <c r="D70" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H70,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.6440816123458198E-2</v>
-      </c>
-      <c r="F70" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="G70" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="H70" s="32" t="str">
-        <f>"R-S*_"&amp;F70&amp;"_"&amp;G70&amp;"*"</f>
-        <v>R-S*_Att_SMF*</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A71" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="B71" s="33" t="str">
-        <f t="shared" si="14"/>
-        <v>R-SW*Att_WOO*</v>
-      </c>
-      <c r="C71" s="33" t="str">
-        <f t="shared" si="12"/>
-        <v>RSDSH_Att</v>
-      </c>
-      <c r="D71" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H71,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>7.5066866433008306E-2</v>
-      </c>
-      <c r="F71" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="G71" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="H71" s="33" t="str">
-        <f>"R-S*_"&amp;F71&amp;"_"&amp;G71&amp;"*"</f>
-        <v>R-S*_Att_WOO*</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A72" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="B72" s="32" t="str">
-        <f t="shared" si="14"/>
-        <v>R-SW*Att_HET*</v>
-      </c>
-      <c r="C72" s="32" t="str">
-        <f t="shared" si="12"/>
-        <v>RSDSH_Att</v>
-      </c>
-      <c r="D72" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H72,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.4426391204160499E-2</v>
-      </c>
-      <c r="F72" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="G72" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="H72" s="32" t="str">
-        <f>"R-S*_"&amp;F72&amp;"_"&amp;G72&amp;"*"</f>
-        <v>R-S*_Att_HET*</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A73" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B73" s="33" t="str">
-        <f t="shared" si="14"/>
-        <v>R-SW*Att_GEO*</v>
-      </c>
-      <c r="C73" s="33" t="str">
-        <f t="shared" si="12"/>
-        <v>RSDSH_Att</v>
-      </c>
-      <c r="D73" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H73,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.249048421589953</v>
-      </c>
-      <c r="F73" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="G73" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="H73" s="33" t="str">
-        <f>"R-S*_"&amp;F73&amp;"_"&amp;G73&amp;"*"</f>
-        <v>R-S*_Att_GEO*</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A74" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="B74" s="32" t="str">
-        <f>"R-SW*"&amp;F74&amp;"*"&amp;"HPN*"&amp;",-*GAS*"</f>
-        <v>R-SW*Att*HPN*,-*GAS*</v>
-      </c>
-      <c r="C74" s="32" t="str">
-        <f t="shared" si="12"/>
-        <v>RSDSH_Att</v>
-      </c>
-      <c r="D74" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H74,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.73685782056223E-2</v>
-      </c>
-      <c r="F74" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="G74" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="H74" s="32" t="str">
-        <f>"R-S*_"&amp;F74&amp;"_"&amp;G74&amp;"*"&amp;"X1"</f>
-        <v>R-S*_Att_ELC*X1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A75" s="29" t="s">
-        <v>270</v>
-      </c>
-      <c r="B75" s="30"/>
-      <c r="C75" s="30"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="30"/>
-      <c r="F75" s="30"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="30"/>
-    </row>
-    <row r="76" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A76" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B76" s="32" t="str">
-        <f>"R-SW*"&amp;F76&amp;"_"&amp;G76&amp;"*"</f>
-        <v>R-SW*Det_COA*</v>
-      </c>
-      <c r="C76" s="32" t="str">
-        <f t="shared" ref="C76:C88" si="16">"RSDSH_"&amp;F76</f>
-        <v>RSDSH_Det</v>
-      </c>
-      <c r="D76" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H76,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.44729159875627</v>
-      </c>
-      <c r="F76" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="G76" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="H76" s="32" t="str">
-        <f t="shared" ref="H76:H79" si="17">"R-S*_"&amp;F76&amp;"_"&amp;G76&amp;"*"</f>
-        <v>R-S*_Det_COA*</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A77" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B77" s="33" t="str">
-        <f>"R-SW*"&amp;F77&amp;"_"&amp;G77&amp;"*"</f>
-        <v>R-SW*Det_BDL*</v>
-      </c>
-      <c r="C77" s="33" t="str">
-        <f t="shared" si="16"/>
-        <v>RSDSH_Det</v>
-      </c>
-      <c r="D77" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H77,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-      <c r="F77" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="G77" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="H77" s="33" t="str">
-        <f t="shared" si="17"/>
-        <v>R-S*_Det_BDL*</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A78" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B78" s="32" t="str">
-        <f>"R-SW*"&amp;F78&amp;"_"&amp;G78&amp;"*"</f>
-        <v>R-SW*Det_ETH*</v>
-      </c>
-      <c r="C78" s="32" t="str">
-        <f t="shared" si="16"/>
-        <v>RSDSH_Det</v>
-      </c>
-      <c r="D78" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H78,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-      <c r="F78" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="G78" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="H78" s="32" t="str">
-        <f t="shared" si="17"/>
-        <v>R-S*_Det_ETH*</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A79" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="B79" s="33" t="str">
-        <f>"R-SW*"&amp;F79&amp;"_"&amp;G79&amp;"*"</f>
-        <v>R-SW*Det_LPG*</v>
-      </c>
-      <c r="C79" s="33" t="str">
-        <f t="shared" si="16"/>
-        <v>RSDSH_Det</v>
-      </c>
-      <c r="D79" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H79,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>6.7033675870053502E-2</v>
-      </c>
-      <c r="F79" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="G79" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="H79" s="33" t="str">
-        <f t="shared" si="17"/>
-        <v>R-S*_Det_LPG*</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A80" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="B80" s="32" t="str">
-        <f>"R-SW*"&amp;F80&amp;"*"&amp;",-*HPN*"</f>
-        <v>R-SW*Det*,-*HPN*</v>
-      </c>
-      <c r="C80" s="32" t="str">
-        <f t="shared" si="16"/>
-        <v>RSDSH_Det</v>
-      </c>
-      <c r="D80" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H80,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.1441804976465701E-2</v>
-      </c>
-      <c r="F80" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="G80" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="H80" s="32" t="str">
-        <f>"R-S*_"&amp;F80&amp;"_"&amp;G80&amp;"_X0"</f>
-        <v>R-S*_Det_ELC_X0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A81" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="B81" s="33" t="str">
-        <f t="shared" ref="B81:B87" si="18">"R-SW*"&amp;F81&amp;"_"&amp;G81&amp;"*"</f>
-        <v>R-SW*Det_KER*</v>
-      </c>
-      <c r="C81" s="33" t="str">
-        <f t="shared" si="16"/>
-        <v>RSDSH_Det</v>
-      </c>
-      <c r="D81" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H81,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.6621727976421598E-2</v>
-      </c>
-      <c r="F81" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="G81" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="H81" s="33" t="str">
-        <f t="shared" ref="H81" si="19">"R-S*_"&amp;F81&amp;"_"&amp;G81&amp;"*"</f>
-        <v>R-S*_Det_KER*</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A82" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="B82" s="32" t="str">
+      <c r="B75" s="32" t="str">
         <f t="shared" si="18"/>
         <v>R-SW*Det_GAS*</v>
       </c>
-      <c r="C82" s="32" t="str">
+      <c r="C75" s="32" t="str">
         <f t="shared" si="16"/>
-        <v>RSDSH_Det</v>
-      </c>
-      <c r="D82" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H82,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.7040631160092499E-2</v>
-      </c>
-      <c r="F82" s="32" t="s">
+        <v>RSDSH_Det,RSDWH_Det</v>
+      </c>
+      <c r="D75" s="32">
+        <f t="shared" si="17"/>
+        <v>2.4447220258868901E-2</v>
+      </c>
+      <c r="F75" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="G82" s="32" t="s">
+      <c r="G75" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="H82" s="32" t="str">
-        <f>"R-S*_"&amp;F81&amp;"_"&amp;G82&amp;"*"</f>
+      <c r="H75" s="32" t="str">
+        <f>"R-S*_"&amp;F74&amp;"_"&amp;G75&amp;"*"</f>
         <v>R-S*_Det_GAS*</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A83" s="33" t="s">
+    <row r="76" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A76" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B83" s="33" t="str">
+      <c r="B76" s="33" t="str">
         <f t="shared" si="18"/>
         <v>R-SW*Det_PEA*</v>
       </c>
-      <c r="C83" s="33" t="str">
+      <c r="C76" s="33" t="str">
         <f t="shared" si="16"/>
-        <v>RSDSH_Det</v>
-      </c>
-      <c r="D83" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H83,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.5005552686675293E-2</v>
-      </c>
-      <c r="F83" s="33" t="s">
+        <v>RSDSH_Det,RSDWH_Det</v>
+      </c>
+      <c r="D76" s="33">
+        <f t="shared" si="17"/>
+        <v>5.3748566432205346E-2</v>
+      </c>
+      <c r="F76" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="G83" s="33" t="s">
+      <c r="G76" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="H83" s="33" t="str">
-        <f>"R-S*_"&amp;F83&amp;"_"&amp;G83&amp;"*"</f>
+      <c r="H76" s="33" t="str">
+        <f>"R-S*_"&amp;F76&amp;"_"&amp;G76&amp;"*"</f>
         <v>R-S*_Det_PEA*</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A84" s="32" t="s">
+    <row r="77" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A77" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="32" t="str">
+      <c r="B77" s="32" t="str">
         <f t="shared" si="18"/>
         <v>R-SW*Det_SMF*</v>
       </c>
-      <c r="C84" s="32" t="str">
+      <c r="C77" s="32" t="str">
         <f t="shared" si="16"/>
-        <v>RSDSH_Det</v>
-      </c>
-      <c r="D84" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H84,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.12981046442763899</v>
-      </c>
-      <c r="F84" s="32" t="s">
+        <v>RSDSH_Det,RSDWH_Det</v>
+      </c>
+      <c r="D77" s="32">
+        <f t="shared" si="17"/>
+        <v>7.0548609083681102E-2</v>
+      </c>
+      <c r="F77" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="G84" s="32" t="s">
+      <c r="G77" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="H84" s="32" t="str">
-        <f>"R-S*_"&amp;F84&amp;"_"&amp;G84&amp;"*"</f>
+      <c r="H77" s="32" t="str">
+        <f>"R-S*_"&amp;F77&amp;"_"&amp;G77&amp;"*"</f>
         <v>R-S*_Det_SMF*</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A85" s="33" t="s">
+    <row r="78" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A78" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="B85" s="33" t="str">
+      <c r="B78" s="33" t="str">
         <f t="shared" si="18"/>
         <v>R-SW*Det_WOO*</v>
       </c>
-      <c r="C85" s="33" t="str">
+      <c r="C78" s="33" t="str">
         <f t="shared" si="16"/>
-        <v>RSDSH_Det</v>
-      </c>
-      <c r="D85" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H85,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.1153830584100495E-2</v>
-      </c>
-      <c r="F85" s="33" t="s">
+        <v>RSDSH_Det,RSDWH_Det</v>
+      </c>
+      <c r="D78" s="33">
+        <f t="shared" si="17"/>
+        <v>5.2867897077308545E-2</v>
+      </c>
+      <c r="F78" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="G85" s="33" t="s">
+      <c r="G78" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="H85" s="33" t="str">
-        <f>"R-S*_"&amp;F85&amp;"_"&amp;G85&amp;"*"</f>
+      <c r="H78" s="33" t="str">
+        <f>"R-S*_"&amp;F78&amp;"_"&amp;G78&amp;"*"</f>
         <v>R-S*_Det_WOO*</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A86" s="32" t="s">
+    <row r="79" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A79" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="B86" s="32" t="str">
+      <c r="B79" s="32" t="str">
         <f t="shared" si="18"/>
         <v>R-SW*Det_HET*</v>
       </c>
-      <c r="C86" s="32" t="str">
+      <c r="C79" s="32" t="str">
         <f t="shared" si="16"/>
-        <v>RSDSH_Det</v>
-      </c>
-      <c r="D86" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H86,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.189996602787424</v>
-      </c>
-      <c r="F86" s="32" t="s">
+        <v>RSDSH_Det,RSDWH_Det</v>
+      </c>
+      <c r="D79" s="32">
+        <f t="shared" si="17"/>
+        <v>9.5642043609248301E-2</v>
+      </c>
+      <c r="F79" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="G86" s="32" t="s">
+      <c r="G79" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="H86" s="32" t="str">
-        <f>"R-S*_"&amp;F86&amp;"_"&amp;G86&amp;"*"</f>
+      <c r="H79" s="32" t="str">
+        <f>"R-S*_"&amp;F79&amp;"_"&amp;G79&amp;"*"</f>
         <v>R-S*_Det_HET*</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A87" s="33" t="s">
+    <row r="80" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A80" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B80" s="30"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="31"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="30"/>
+    </row>
+    <row r="81" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A81" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B87" s="33" t="str">
-        <f t="shared" si="18"/>
-        <v>R-SW*Det_GEO*</v>
-      </c>
-      <c r="C87" s="33" t="str">
-        <f t="shared" si="16"/>
-        <v>RSDSH_Det</v>
-      </c>
-      <c r="D87" s="33">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H87,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.22978380047467101</v>
-      </c>
-      <c r="F87" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="G87" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="H87" s="33" t="str">
-        <f>"R-S*_"&amp;F87&amp;"_"&amp;G87&amp;"*"</f>
-        <v>R-S*_Det_GEO*</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A88" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="B88" s="32" t="str">
-        <f>"R-SW*"&amp;F88&amp;"*"&amp;"HPN*"&amp;",-*GAS*"</f>
-        <v>R-SW*Det*HPN*,-*GAS*</v>
-      </c>
-      <c r="C88" s="32" t="str">
-        <f t="shared" si="16"/>
-        <v>RSDSH_Det</v>
-      </c>
-      <c r="D88" s="32">
-        <f>SUMIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H88,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.17870115673878E-2</v>
-      </c>
-      <c r="F88" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="G88" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="H88" s="32" t="str">
-        <f>"R-S*_"&amp;F88&amp;"_"&amp;G88&amp;"*"&amp;"X1"</f>
-        <v>R-S*_Det_ELC*X1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A89" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="B89" s="30"/>
-      <c r="C89" s="30"/>
-      <c r="D89" s="31"/>
-      <c r="F89" s="30"/>
-      <c r="G89" s="30"/>
-      <c r="H89" s="30"/>
-    </row>
-    <row r="90" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A90" s="32" t="s">
+      <c r="B81" s="32" t="str">
+        <f t="shared" ref="B81:B92" si="20">"R-WH_"&amp;F81&amp;"_"&amp;G81&amp;"*"</f>
+        <v>R-WH_Apt_COA*</v>
+      </c>
+      <c r="C81" s="32"/>
+      <c r="D81" s="32">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H81,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>4.2815604314722699E-2</v>
+      </c>
+      <c r="F81" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G81" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="H81" s="32" t="str">
+        <f t="shared" ref="H81:H86" si="21">"R-WH_"&amp;F81&amp;"_"&amp;G81&amp;"*"</f>
+        <v>R-WH_Apt_COA*</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A82" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B90" s="32" t="str">
-        <f t="shared" ref="B90:B101" si="20">"R-WH_"&amp;F90&amp;"_"&amp;G90&amp;"*"</f>
-        <v>R-WH_Apt_COA*</v>
-      </c>
-      <c r="C90" s="32"/>
-      <c r="D90" s="32">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H90,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.2815604314722699E-2</v>
-      </c>
-      <c r="F90" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="G90" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="H90" s="32" t="str">
-        <f t="shared" ref="H90:H95" si="21">"R-WH_"&amp;F90&amp;"_"&amp;G90&amp;"*"</f>
-        <v>R-WH_Apt_COA*</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A91" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B91" s="33" t="str">
+      <c r="B82" s="33" t="str">
         <f t="shared" si="20"/>
         <v>R-WH_Apt_BDL*</v>
       </c>
-      <c r="C91" s="33"/>
-      <c r="D91" s="33">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H91,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="C82" s="33"/>
+      <c r="D82" s="33">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H82,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>7.1004600000000003E-3</v>
       </c>
-      <c r="F91" s="33" t="s">
+      <c r="F82" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="G91" s="33" t="s">
+      <c r="G82" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="H91" s="33" t="str">
+      <c r="H82" s="33" t="str">
         <f t="shared" si="21"/>
         <v>R-WH_Apt_BDL*</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A92" s="32" t="s">
+    <row r="83" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A83" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="32" t="str">
+      <c r="B83" s="32" t="str">
         <f t="shared" si="20"/>
         <v>R-WH_Apt_ETH*</v>
       </c>
-      <c r="C92" s="32"/>
-      <c r="D92" s="32">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H92,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="C83" s="32"/>
+      <c r="D83" s="32">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H83,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>8.5546800000000003E-3</v>
       </c>
-      <c r="F92" s="32" t="s">
+      <c r="F83" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="G92" s="32" t="s">
+      <c r="G83" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="H92" s="32" t="str">
+      <c r="H83" s="32" t="str">
         <f t="shared" si="21"/>
         <v>R-WH_Apt_ETH*</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A93" s="33" t="s">
+    <row r="84" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A84" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B93" s="33" t="str">
+      <c r="B84" s="33" t="str">
         <f t="shared" si="20"/>
         <v>R-WH_Apt_LPG*</v>
       </c>
-      <c r="C93" s="33"/>
-      <c r="D93" s="33">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H93,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H84,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>1.25372293333067E-2</v>
       </c>
-      <c r="F93" s="33" t="s">
+      <c r="F84" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="G93" s="33" t="s">
+      <c r="G84" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="H93" s="33" t="str">
+      <c r="H84" s="33" t="str">
         <f t="shared" si="21"/>
         <v>R-WH_Apt_LPG*</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A94" s="32" t="s">
+    <row r="85" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A85" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="B94" s="32" t="str">
+      <c r="B85" s="32" t="str">
         <f t="shared" si="20"/>
         <v>R-WH_Apt_ELC*</v>
       </c>
-      <c r="C94" s="32"/>
-      <c r="D94" s="32">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H94,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.547139931032923E-2</v>
-      </c>
-      <c r="F94" s="32" t="s">
+      <c r="C85" s="32"/>
+      <c r="D85" s="32">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H85,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>2.2735699655164615E-2</v>
+      </c>
+      <c r="F85" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="G94" s="32" t="s">
+      <c r="G85" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="H94" s="32" t="str">
-        <f>B94</f>
+      <c r="H85" s="32" t="str">
+        <f>B85</f>
         <v>R-WH_Apt_ELC*</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A95" s="33" t="s">
+    <row r="86" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A86" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B95" s="33" t="str">
+      <c r="B86" s="33" t="str">
         <f t="shared" si="20"/>
         <v>R-WH_Apt_KER*</v>
       </c>
-      <c r="C95" s="33"/>
-      <c r="D95" s="33">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H95,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="C86" s="33"/>
+      <c r="D86" s="33">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H86,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>1.0612182530373E-2</v>
       </c>
-      <c r="F95" s="33" t="s">
+      <c r="F86" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="G95" s="33" t="s">
+      <c r="G86" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="H95" s="33" t="str">
+      <c r="H86" s="33" t="str">
         <f t="shared" si="21"/>
         <v>R-WH_Apt_KER*</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A96" s="32" t="s">
+    <row r="87" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A87" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B96" s="32" t="str">
+      <c r="B87" s="32" t="str">
         <f t="shared" si="20"/>
         <v>R-WH_Apt_GAS*</v>
       </c>
-      <c r="C96" s="32"/>
-      <c r="D96" s="32">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H96,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="C87" s="32"/>
+      <c r="D87" s="32">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H87,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>7.0999155767537403E-3</v>
       </c>
-      <c r="F96" s="32" t="s">
+      <c r="F87" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="G96" s="32" t="s">
+      <c r="G87" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="H96" s="32" t="str">
-        <f>"R-WH_"&amp;F95&amp;"_"&amp;G96&amp;"*"</f>
+      <c r="H87" s="32" t="str">
+        <f>"R-WH_"&amp;F86&amp;"_"&amp;G87&amp;"*"</f>
         <v>R-WH_Apt_GAS*</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A97" s="33" t="s">
+    <row r="88" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A88" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B97" s="33" t="str">
+      <c r="B88" s="33" t="str">
         <f t="shared" si="20"/>
         <v>R-WH_Apt_PEA*</v>
       </c>
-      <c r="C97" s="33"/>
-      <c r="D97" s="33">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H97,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H88,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>8.5740576923076899E-3</v>
       </c>
-      <c r="F97" s="33" t="s">
+      <c r="F88" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="G97" s="33" t="s">
+      <c r="G88" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="H97" s="33" t="str">
-        <f t="shared" ref="H97:H102" si="22">"R-WH_"&amp;F97&amp;"_"&amp;G97&amp;"*"</f>
+      <c r="H88" s="33" t="str">
+        <f t="shared" ref="H88:H93" si="22">"R-WH_"&amp;F88&amp;"_"&amp;G88&amp;"*"</f>
         <v>R-WH_Apt_PEA*</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A98" s="32" t="s">
+    <row r="89" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A89" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B98" s="32" t="str">
+      <c r="B89" s="32" t="str">
         <f t="shared" si="20"/>
         <v>R-WH_Apt_SMF*</v>
       </c>
-      <c r="C98" s="32"/>
-      <c r="D98" s="32">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H98,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="C89" s="32"/>
+      <c r="D89" s="32">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H89,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>8.5332927933924694E-3</v>
       </c>
-      <c r="F98" s="32" t="s">
+      <c r="F89" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="G98" s="32" t="s">
+      <c r="G89" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="H98" s="32" t="str">
+      <c r="H89" s="32" t="str">
         <f t="shared" si="22"/>
         <v>R-WH_Apt_SMF*</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A99" s="33" t="s">
+    <row r="90" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A90" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B99" s="33" t="str">
+      <c r="B90" s="33" t="str">
         <f t="shared" si="20"/>
         <v>R-WH_Apt_WOO*</v>
       </c>
-      <c r="C99" s="33"/>
-      <c r="D99" s="33">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H99,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="C90" s="33"/>
+      <c r="D90" s="33">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H90,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>9.7598754499754609E-3</v>
       </c>
-      <c r="F99" s="33" t="s">
+      <c r="F90" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="G99" s="33" t="s">
+      <c r="G90" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="H99" s="33" t="str">
+      <c r="H90" s="33" t="str">
         <f t="shared" si="22"/>
         <v>R-WH_Apt_WOO*</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A100" s="32" t="s">
+    <row r="91" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A91" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B100" s="32" t="str">
+      <c r="B91" s="32" t="str">
         <f t="shared" si="20"/>
         <v>R-WH_Apt_HET*</v>
       </c>
-      <c r="C100" s="32"/>
-      <c r="D100" s="32">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H100,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="C91" s="32"/>
+      <c r="D91" s="32">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H91,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>3.0627633026508998E-4</v>
       </c>
-      <c r="F100" s="32" t="s">
+      <c r="F91" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="G100" s="32" t="s">
+      <c r="G91" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="H100" s="32" t="str">
+      <c r="H91" s="32" t="str">
         <f t="shared" si="22"/>
         <v>R-WH_Apt_HET*</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A101" s="33" t="s">
+    <row r="92" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A92" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B101" s="33" t="str">
+      <c r="B92" s="33" t="str">
         <f t="shared" si="20"/>
         <v>R-WH_Apt_GEO*</v>
       </c>
-      <c r="C101" s="33"/>
-      <c r="D101" s="33">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H101,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-      <c r="F101" s="33" t="s">
+      <c r="C92" s="33"/>
+      <c r="D92" s="33" t="e">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H92,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F92" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="G101" s="33" t="s">
+      <c r="G92" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="H101" s="33" t="str">
+      <c r="H92" s="33" t="str">
         <f t="shared" si="22"/>
         <v>R-WH_Apt_GEO*</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A102" s="32" t="s">
+    <row r="93" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A93" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="B102" s="32" t="str">
-        <f>"R-WH_"&amp;F102&amp;"_"&amp;G102&amp;"*"</f>
+      <c r="B93" s="32" t="str">
+        <f>"R-WH_"&amp;F93&amp;"_"&amp;G93&amp;"*"</f>
         <v>R-WH_Apt_SOL*</v>
       </c>
-      <c r="C102" s="32"/>
-      <c r="D102" s="32">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H102,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="C93" s="32"/>
+      <c r="D93" s="32">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H93,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>8.6298729994523198E-3</v>
       </c>
-      <c r="F102" s="32" t="s">
+      <c r="F93" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="G102" s="32" t="s">
+      <c r="G93" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="H102" s="32" t="str">
+      <c r="H93" s="32" t="str">
         <f t="shared" si="22"/>
         <v>R-WH_Apt_SOL*</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A103" s="29" t="s">
+    <row r="94" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A94" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="B103" s="30"/>
-      <c r="C103" s="30"/>
-      <c r="D103" s="30"/>
-      <c r="E103" s="30"/>
-      <c r="F103" s="30"/>
-      <c r="G103" s="30"/>
-      <c r="H103" s="30"/>
-    </row>
-    <row r="104" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A104" s="32" t="s">
+      <c r="B94" s="30"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="30"/>
+      <c r="E94" s="30"/>
+      <c r="F94" s="30"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="30"/>
+    </row>
+    <row r="95" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A95" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B104" s="32" t="str">
-        <f t="shared" ref="B104:B115" si="23">"R-WH_"&amp;F104&amp;"_"&amp;G104&amp;"*"</f>
+      <c r="B95" s="32" t="str">
+        <f t="shared" ref="B95:B106" si="23">"R-WH_"&amp;F95&amp;"_"&amp;G95&amp;"*"</f>
         <v>R-WH_Att_COA*</v>
       </c>
-      <c r="C104" s="32"/>
-      <c r="D104" s="32">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H104,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="C95" s="32"/>
+      <c r="D95" s="32">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H95,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>1.6455462342683601E-2</v>
       </c>
-      <c r="F104" s="32" t="s">
+      <c r="F95" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="G104" s="32" t="s">
+      <c r="G95" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="H104" s="32" t="str">
-        <f t="shared" ref="H104:H109" si="24">"R-WH_"&amp;F104&amp;"_"&amp;G104&amp;"*"</f>
+      <c r="H95" s="32" t="str">
+        <f t="shared" ref="H95:H100" si="24">"R-WH_"&amp;F95&amp;"_"&amp;G95&amp;"*"</f>
         <v>R-WH_Att_COA*</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A105" s="33" t="s">
+    <row r="96" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A96" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B105" s="33" t="str">
+      <c r="B96" s="33" t="str">
         <f t="shared" si="23"/>
         <v>R-WH_Att_BDL*</v>
       </c>
-      <c r="C105" s="33"/>
-      <c r="D105" s="33">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H105,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="C96" s="33"/>
+      <c r="D96" s="33">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H96,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>1.40208E-2</v>
       </c>
-      <c r="F105" s="33" t="s">
+      <c r="F96" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="G105" s="33" t="s">
+      <c r="G96" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="H105" s="33" t="str">
+      <c r="H96" s="33" t="str">
         <f t="shared" si="24"/>
         <v>R-WH_Att_BDL*</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A106" s="32" t="s">
+    <row r="97" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A97" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B106" s="32" t="str">
+      <c r="B97" s="32" t="str">
         <f t="shared" si="23"/>
         <v>R-WH_Att_ETH*</v>
       </c>
-      <c r="C106" s="32"/>
-      <c r="D106" s="32">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H106,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="C97" s="32"/>
+      <c r="D97" s="32">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H97,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>1.059804E-2</v>
       </c>
-      <c r="F106" s="32" t="s">
+      <c r="F97" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="G106" s="32" t="s">
+      <c r="G97" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="H106" s="32" t="str">
+      <c r="H97" s="32" t="str">
         <f t="shared" si="24"/>
         <v>R-WH_Att_ETH*</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A107" s="33" t="s">
+    <row r="98" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A98" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B107" s="33" t="str">
+      <c r="B98" s="33" t="str">
         <f t="shared" si="23"/>
         <v>R-WH_Att_LPG*</v>
       </c>
-      <c r="C107" s="33"/>
-      <c r="D107" s="33">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H107,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="C98" s="33"/>
+      <c r="D98" s="33">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H98,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>1.5857470577174002E-2</v>
       </c>
-      <c r="F107" s="33" t="s">
+      <c r="F98" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="G107" s="33" t="s">
+      <c r="G98" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="H107" s="33" t="str">
+      <c r="H98" s="33" t="str">
         <f t="shared" si="24"/>
         <v>R-WH_Att_LPG*</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A108" s="32" t="s">
+    <row r="99" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A99" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="B108" s="32" t="str">
+      <c r="B99" s="32" t="str">
         <f t="shared" si="23"/>
         <v>R-WH_Att_ELC*</v>
       </c>
-      <c r="C108" s="32"/>
-      <c r="D108" s="32">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H108,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="C99" s="32"/>
+      <c r="D99" s="32">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H99,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>1.29275684703049E-2</v>
       </c>
-      <c r="F108" s="32" t="s">
+      <c r="F99" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="G108" s="32" t="s">
+      <c r="G99" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="H108" s="32" t="str">
-        <f>"R-WH_"&amp;F108&amp;"_"&amp;G108&amp;"*X0"</f>
+      <c r="H99" s="32" t="str">
+        <f>"R-WH_"&amp;F99&amp;"_"&amp;G99&amp;"*X0"</f>
         <v>R-WH_Att_ELC*X0</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A109" s="33" t="s">
+    <row r="100" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A100" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B109" s="33" t="str">
+      <c r="B100" s="33" t="str">
         <f t="shared" si="23"/>
         <v>R-WH_Att_KER*</v>
       </c>
-      <c r="C109" s="33"/>
-      <c r="D109" s="33">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H109,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="C100" s="33"/>
+      <c r="D100" s="33">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H100,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>1.0991128214065201E-2</v>
       </c>
-      <c r="F109" s="33" t="s">
+      <c r="F100" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="G109" s="33" t="s">
+      <c r="G100" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="H109" s="33" t="str">
+      <c r="H100" s="33" t="str">
         <f t="shared" si="24"/>
         <v>R-WH_Att_KER*</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A110" s="32" t="s">
+    <row r="101" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A101" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B110" s="32" t="str">
+      <c r="B101" s="32" t="str">
         <f t="shared" si="23"/>
         <v>R-WH_Att_GAS*</v>
       </c>
-      <c r="C110" s="32"/>
-      <c r="D110" s="32">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H110,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="C101" s="32"/>
+      <c r="D101" s="32">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H101,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>9.2067094002643308E-3</v>
       </c>
-      <c r="F110" s="32" t="s">
+      <c r="F101" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="G110" s="32" t="s">
+      <c r="G101" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="H110" s="32" t="str">
-        <f>"R-WH_"&amp;F109&amp;"_"&amp;G110&amp;"*"</f>
+      <c r="H101" s="32" t="str">
+        <f>"R-WH_"&amp;F100&amp;"_"&amp;G101&amp;"*"</f>
         <v>R-WH_Att_GAS*</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A111" s="33" t="s">
+    <row r="102" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A102" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B111" s="33" t="str">
+      <c r="B102" s="33" t="str">
         <f t="shared" si="23"/>
         <v>R-WH_Att_PEA*</v>
       </c>
-      <c r="C111" s="33"/>
-      <c r="D111" s="33">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H111,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="C102" s="33"/>
+      <c r="D102" s="33">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H102,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>1.08711386313101E-2</v>
       </c>
-      <c r="F111" s="33" t="s">
+      <c r="F102" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="G111" s="33" t="s">
+      <c r="G102" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="H111" s="33" t="str">
-        <f t="shared" ref="H111:H116" si="25">"R-WH_"&amp;F111&amp;"_"&amp;G111&amp;"*"</f>
+      <c r="H102" s="33" t="str">
+        <f t="shared" ref="H102:H107" si="25">"R-WH_"&amp;F102&amp;"_"&amp;G102&amp;"*"</f>
         <v>R-WH_Att_PEA*</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A112" s="32" t="s">
+    <row r="103" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A103" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B112" s="32" t="str">
+      <c r="B103" s="32" t="str">
         <f t="shared" si="23"/>
         <v>R-WH_Att_SMF*</v>
       </c>
-      <c r="C112" s="32"/>
-      <c r="D112" s="32">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H112,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="C103" s="32"/>
+      <c r="D103" s="32">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H103,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>9.3095279184719493E-3</v>
       </c>
-      <c r="F112" s="32" t="s">
+      <c r="F103" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="G112" s="32" t="s">
+      <c r="G103" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="H112" s="32" t="str">
+      <c r="H103" s="32" t="str">
         <f t="shared" si="25"/>
         <v>R-WH_Att_SMF*</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A113" s="33" t="s">
+    <row r="104" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A104" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B113" s="33" t="str">
+      <c r="B104" s="33" t="str">
         <f t="shared" si="23"/>
         <v>R-WH_Att_WOO*</v>
       </c>
-      <c r="C113" s="33"/>
-      <c r="D113" s="33">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H113,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="C104" s="33"/>
+      <c r="D104" s="33">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H104,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>1.0844937056477299E-2</v>
       </c>
-      <c r="F113" s="33" t="s">
+      <c r="F104" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="G113" s="33" t="s">
+      <c r="G104" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="H113" s="33" t="str">
+      <c r="H104" s="33" t="str">
         <f t="shared" si="25"/>
         <v>R-WH_Att_WOO*</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A114" s="32" t="s">
+    <row r="105" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A105" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B114" s="32" t="str">
+      <c r="B105" s="32" t="str">
         <f t="shared" si="23"/>
         <v>R-WH_Att_HET*</v>
       </c>
-      <c r="C114" s="32"/>
-      <c r="D114" s="32">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H114,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="C105" s="32"/>
+      <c r="D105" s="32">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H105,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>7.6939300464232304E-4</v>
       </c>
-      <c r="F114" s="32" t="s">
+      <c r="F105" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="G114" s="32" t="s">
+      <c r="G105" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="H114" s="32" t="str">
+      <c r="H105" s="32" t="str">
         <f t="shared" si="25"/>
         <v>R-WH_Att_HET*</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A115" s="33" t="s">
+    <row r="106" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A106" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B115" s="33" t="str">
+      <c r="B106" s="33" t="str">
         <f t="shared" si="23"/>
         <v>R-WH_Att_GEO*</v>
       </c>
-      <c r="C115" s="33"/>
-      <c r="D115" s="33">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H115,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-      <c r="F115" s="33" t="s">
+      <c r="C106" s="33"/>
+      <c r="D106" s="33" t="e">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H106,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F106" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="G115" s="33" t="s">
+      <c r="G106" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="H115" s="33" t="str">
+      <c r="H106" s="33" t="str">
         <f t="shared" si="25"/>
         <v>R-WH_Att_GEO*</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A116" s="32" t="s">
+    <row r="107" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A107" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="B116" s="32" t="str">
-        <f>"R-WH_"&amp;F116&amp;"_"&amp;G116&amp;"*"</f>
+      <c r="B107" s="32" t="str">
+        <f>"R-WH_"&amp;F107&amp;"_"&amp;G107&amp;"*"</f>
         <v>R-WH_Att_SOL*</v>
       </c>
-      <c r="C116" s="32"/>
-      <c r="D116" s="32">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H116,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="C107" s="32"/>
+      <c r="D107" s="32">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H107,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>3.4409606285151599E-2</v>
       </c>
-      <c r="F116" s="32" t="s">
+      <c r="F107" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="G116" s="32" t="s">
+      <c r="G107" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="H116" s="32" t="str">
+      <c r="H107" s="32" t="str">
         <f t="shared" si="25"/>
         <v>R-WH_Att_SOL*</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A117" s="29" t="s">
+    <row r="108" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A108" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="B117" s="30"/>
-      <c r="C117" s="30"/>
-      <c r="D117" s="30"/>
-      <c r="E117" s="30"/>
-      <c r="F117" s="30"/>
-      <c r="G117" s="30"/>
-      <c r="H117" s="30"/>
-    </row>
-    <row r="118" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A118" s="32" t="s">
+      <c r="B108" s="30"/>
+      <c r="C108" s="30"/>
+      <c r="D108" s="30"/>
+      <c r="E108" s="30"/>
+      <c r="F108" s="30"/>
+      <c r="G108" s="30"/>
+      <c r="H108" s="30"/>
+    </row>
+    <row r="109" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A109" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B118" s="32" t="str">
-        <f t="shared" ref="B118:B129" si="26">"R-WH_"&amp;F118&amp;"_"&amp;G118&amp;"*"</f>
+      <c r="B109" s="32" t="str">
+        <f t="shared" ref="B109:B120" si="26">"R-WH_"&amp;F109&amp;"_"&amp;G109&amp;"*"</f>
         <v>R-WH_Det_COA*</v>
       </c>
-      <c r="C118" s="32"/>
-      <c r="D118" s="32">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H118,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="C109" s="32"/>
+      <c r="D109" s="32">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H109,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>1.82955006878423E-2</v>
       </c>
-      <c r="F118" s="32" t="s">
+      <c r="F109" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="G118" s="32" t="s">
+      <c r="G109" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="H118" s="32" t="str">
-        <f t="shared" ref="H118:H123" si="27">"R-WH_"&amp;F118&amp;"_"&amp;G118&amp;"*"</f>
+      <c r="H109" s="32" t="str">
+        <f t="shared" ref="H109:H114" si="27">"R-WH_"&amp;F109&amp;"_"&amp;G109&amp;"*"</f>
         <v>R-WH_Det_COA*</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A119" s="33" t="s">
+    <row r="110" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A110" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B119" s="33" t="str">
+      <c r="B110" s="33" t="str">
         <f t="shared" si="26"/>
         <v>R-WH_Det_BDL*</v>
       </c>
-      <c r="C119" s="33"/>
-      <c r="D119" s="33">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H119,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="C110" s="33"/>
+      <c r="D110" s="33">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H110,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>1.0679040000000001E-2</v>
       </c>
-      <c r="F119" s="33" t="s">
+      <c r="F110" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="G119" s="33" t="s">
+      <c r="G110" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="H119" s="33" t="str">
+      <c r="H110" s="33" t="str">
         <f t="shared" si="27"/>
         <v>R-WH_Det_BDL*</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A120" s="32" t="s">
+    <row r="111" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A111" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B120" s="32" t="str">
+      <c r="B111" s="32" t="str">
         <f t="shared" si="26"/>
         <v>R-WH_Det_ETH*</v>
       </c>
-      <c r="C120" s="32"/>
-      <c r="D120" s="32">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H120,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="C111" s="32"/>
+      <c r="D111" s="32">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H111,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>1.2096539999999999E-2</v>
       </c>
-      <c r="F120" s="32" t="s">
+      <c r="F111" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="G120" s="32" t="s">
+      <c r="G111" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="H120" s="32" t="str">
+      <c r="H111" s="32" t="str">
         <f t="shared" si="27"/>
         <v>R-WH_Det_ETH*</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A121" s="33" t="s">
+    <row r="112" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A112" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B121" s="33" t="str">
+      <c r="B112" s="33" t="str">
         <f t="shared" si="26"/>
         <v>R-WH_Det_LPG*</v>
       </c>
-      <c r="C121" s="33"/>
-      <c r="D121" s="33">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H121,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="C112" s="33"/>
+      <c r="D112" s="33">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H112,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>1.7354263255049698E-2</v>
       </c>
-      <c r="F121" s="33" t="s">
+      <c r="F112" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="G121" s="33" t="s">
+      <c r="G112" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="H121" s="33" t="str">
+      <c r="H112" s="33" t="str">
         <f t="shared" si="27"/>
         <v>R-WH_Det_LPG*</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A122" s="32" t="s">
+    <row r="113" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A113" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="B122" s="32" t="str">
+      <c r="B113" s="32" t="str">
         <f t="shared" si="26"/>
         <v>R-WH_Det_ELC*</v>
       </c>
-      <c r="C122" s="32"/>
-      <c r="D122" s="32">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H122,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="C113" s="32"/>
+      <c r="D113" s="32">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H113,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>1.33284867630703E-2</v>
       </c>
-      <c r="F122" s="32" t="s">
+      <c r="F113" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="G122" s="32" t="s">
+      <c r="G113" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="H122" s="32" t="str">
-        <f>"R-WH_"&amp;F122&amp;"_"&amp;G122&amp;"*X0"</f>
+      <c r="H113" s="32" t="str">
+        <f>"R-WH_"&amp;F113&amp;"_"&amp;G113&amp;"*X0"</f>
         <v>R-WH_Det_ELC*X0</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A123" s="33" t="s">
+    <row r="114" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A114" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B123" s="33" t="str">
+      <c r="B114" s="33" t="str">
         <f t="shared" si="26"/>
         <v>R-WH_Det_KER*</v>
       </c>
-      <c r="C123" s="33"/>
-      <c r="D123" s="33">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H123,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="C114" s="33"/>
+      <c r="D114" s="33">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H114,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>1.35372248660808E-2</v>
       </c>
-      <c r="F123" s="33" t="s">
+      <c r="F114" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="G123" s="33" t="s">
+      <c r="G114" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="H123" s="33" t="str">
+      <c r="H114" s="33" t="str">
         <f t="shared" si="27"/>
         <v>R-WH_Det_KER*</v>
       </c>
     </row>
+    <row r="115" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A115" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B115" s="32" t="str">
+        <f t="shared" si="26"/>
+        <v>R-WH_Det_GAS*</v>
+      </c>
+      <c r="C115" s="32"/>
+      <c r="D115" s="32">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H115,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.18538093576453E-2</v>
+      </c>
+      <c r="F115" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G115" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="H115" s="32" t="str">
+        <f>"R-WH_"&amp;F114&amp;"_"&amp;G115&amp;"*"</f>
+        <v>R-WH_Det_GAS*</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A116" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B116" s="33" t="str">
+        <f t="shared" si="26"/>
+        <v>R-WH_Det_PEA*</v>
+      </c>
+      <c r="C116" s="33"/>
+      <c r="D116" s="33">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H116,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.24915801777354E-2</v>
+      </c>
+      <c r="F116" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G116" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="H116" s="33" t="str">
+        <f t="shared" ref="H116:H121" si="28">"R-WH_"&amp;F116&amp;"_"&amp;G116&amp;"*"</f>
+        <v>R-WH_Det_PEA*</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A117" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B117" s="32" t="str">
+        <f t="shared" si="26"/>
+        <v>R-WH_Det_SMF*</v>
+      </c>
+      <c r="C117" s="32"/>
+      <c r="D117" s="32">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H117,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.1286753739723199E-2</v>
+      </c>
+      <c r="F117" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G117" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="H117" s="32" t="str">
+        <f t="shared" si="28"/>
+        <v>R-WH_Det_SMF*</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A118" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B118" s="33" t="str">
+        <f t="shared" si="26"/>
+        <v>R-WH_Det_WOO*</v>
+      </c>
+      <c r="C118" s="33"/>
+      <c r="D118" s="33">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H118,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.4581963570516601E-2</v>
+      </c>
+      <c r="F118" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G118" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="H118" s="33" t="str">
+        <f t="shared" si="28"/>
+        <v>R-WH_Det_WOO*</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A119" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B119" s="32" t="str">
+        <f t="shared" si="26"/>
+        <v>R-WH_Det_HET*</v>
+      </c>
+      <c r="C119" s="32"/>
+      <c r="D119" s="32">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H119,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.2874844310725899E-3</v>
+      </c>
+      <c r="F119" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G119" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="H119" s="32" t="str">
+        <f t="shared" si="28"/>
+        <v>R-WH_Det_HET*</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A120" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B120" s="33" t="str">
+        <f t="shared" si="26"/>
+        <v>R-WH_Det_GEO*</v>
+      </c>
+      <c r="C120" s="33"/>
+      <c r="D120" s="33" t="e">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H120,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F120" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G120" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="H120" s="33" t="str">
+        <f t="shared" si="28"/>
+        <v>R-WH_Det_GEO*</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A121" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="B121" s="32" t="str">
+        <f>"R-WH_"&amp;F121&amp;"_"&amp;G121&amp;"*"</f>
+        <v>R-WH_Det_SOL*</v>
+      </c>
+      <c r="C121" s="32"/>
+      <c r="D121" s="40">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H121,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>0.113051511576835</v>
+      </c>
+      <c r="F121" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G121" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="H121" s="32" t="str">
+        <f t="shared" si="28"/>
+        <v>R-WH_Det_SOL*</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A122" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="B122" s="30"/>
+      <c r="C122" s="31"/>
+      <c r="D122" s="30"/>
+      <c r="E122" s="30"/>
+      <c r="F122" s="30"/>
+      <c r="G122" s="30"/>
+      <c r="H122" s="30"/>
+    </row>
+    <row r="123" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A123" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B123" s="32" t="str">
+        <f>"R-SC_"&amp;F123&amp;"_"&amp;G123&amp;"_N1"</f>
+        <v>R-SC_Apt_ELC_N1</v>
+      </c>
+      <c r="C123" s="32"/>
+      <c r="D123" s="32">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H123,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>2.4813655183930802E-2</v>
+      </c>
+      <c r="F123" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G123" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="H123" s="37" t="str">
+        <f t="shared" ref="H123:H125" si="29">"R-SH_"&amp;F123&amp;"_"&amp;G123&amp;"*X1"</f>
+        <v>R-SH_Apt_ELC*X1</v>
+      </c>
+    </row>
     <row r="124" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="32" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="B124" s="32" t="str">
-        <f t="shared" si="26"/>
-        <v>R-WH_Det_GAS*</v>
+        <f>"R-SC_"&amp;F124&amp;"_"&amp;G124&amp;"_N1"</f>
+        <v>R-SC_Att_ELC_N1</v>
       </c>
       <c r="C124" s="32"/>
       <c r="D124" s="32">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H124,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.18538093576453E-2</v>
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H124,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.73685782056223E-2</v>
       </c>
       <c r="F124" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="G124" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="H124" s="37" t="str">
+        <f t="shared" si="29"/>
+        <v>R-SH_Att_ELC*X1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A125" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B125" s="32" t="str">
+        <f>"R-SC_"&amp;F125&amp;"_"&amp;G125&amp;"_N1"</f>
+        <v>R-SC_Det_ELC_N1</v>
+      </c>
+      <c r="C125" s="32"/>
+      <c r="D125" s="32">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H125,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>3.17870115673878E-2</v>
+      </c>
+      <c r="F125" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="G124" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="H124" s="32" t="str">
-        <f>"R-WH_"&amp;F123&amp;"_"&amp;G124&amp;"*"</f>
-        <v>R-WH_Det_GAS*</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A125" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B125" s="33" t="str">
-        <f t="shared" si="26"/>
-        <v>R-WH_Det_PEA*</v>
-      </c>
-      <c r="C125" s="33"/>
-      <c r="D125" s="33">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H125,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.24915801777354E-2</v>
-      </c>
-      <c r="F125" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="G125" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="H125" s="33" t="str">
-        <f t="shared" ref="H125:H130" si="28">"R-WH_"&amp;F125&amp;"_"&amp;G125&amp;"*"</f>
-        <v>R-WH_Det_PEA*</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A126" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B126" s="32" t="str">
-        <f t="shared" si="26"/>
-        <v>R-WH_Det_SMF*</v>
-      </c>
-      <c r="C126" s="32"/>
-      <c r="D126" s="32">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H126,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.1286753739723199E-2</v>
-      </c>
-      <c r="F126" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="G126" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="H126" s="32" t="str">
-        <f t="shared" si="28"/>
-        <v>R-WH_Det_SMF*</v>
-      </c>
+      <c r="G125" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="H125" s="37" t="str">
+        <f t="shared" si="29"/>
+        <v>R-SH_Det_ELC*X1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A126" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="B126" s="30"/>
+      <c r="C126" s="31"/>
+      <c r="D126" s="30"/>
+      <c r="E126" s="30"/>
+      <c r="F126" s="30"/>
+      <c r="G126" s="30"/>
+      <c r="H126" s="30"/>
     </row>
     <row r="127" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A127" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B127" s="33" t="str">
-        <f t="shared" si="26"/>
-        <v>R-WH_Det_WOO*</v>
-      </c>
-      <c r="C127" s="33"/>
-      <c r="D127" s="33">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H127,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.4581963570516601E-2</v>
-      </c>
-      <c r="F127" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="G127" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="H127" s="33" t="str">
-        <f t="shared" si="28"/>
-        <v>R-WH_Det_WOO*</v>
+      <c r="A127" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="B127" s="32" t="str">
+        <f>"R-HC_"&amp;F127&amp;"_"&amp;G127&amp;"_HPN*"</f>
+        <v>R-HC_Apt_ELC_HPN*</v>
+      </c>
+      <c r="C127" s="32" t="str">
+        <f>"RSDSC_"&amp;F127</f>
+        <v>RSDSC_Apt</v>
+      </c>
+      <c r="D127" s="32">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H127,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>2.4813655183930802E-2</v>
+      </c>
+      <c r="F127" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G127" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="H127" s="37" t="str">
+        <f t="shared" ref="H127:H129" si="30">"R-SH_"&amp;F127&amp;"_"&amp;G127&amp;"*X1"</f>
+        <v>R-SH_Apt_ELC*X1</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="32" t="s">
-        <v>1</v>
+        <v>263</v>
       </c>
       <c r="B128" s="32" t="str">
-        <f t="shared" si="26"/>
-        <v>R-WH_Det_HET*</v>
-      </c>
-      <c r="C128" s="32"/>
+        <f>"R-HC_"&amp;F128&amp;"_"&amp;G128&amp;"_HPN*"</f>
+        <v>R-HC_Att_ELC_HPN*</v>
+      </c>
+      <c r="C128" s="32" t="str">
+        <f>"RSDSC_"&amp;F128</f>
+        <v>RSDSC_Att</v>
+      </c>
       <c r="D128" s="32">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H128,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.2874844310725899E-3</v>
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H128,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.73685782056223E-2</v>
       </c>
       <c r="F128" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="G128" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="H128" s="37" t="str">
+        <f t="shared" si="30"/>
+        <v>R-SH_Att_ELC*X1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A129" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="B129" s="38" t="str">
+        <f>"R-HC_"&amp;F129&amp;"_"&amp;G129&amp;"_HPN*"</f>
+        <v>R-HC_Det_ELC_HPN*</v>
+      </c>
+      <c r="C129" s="38" t="str">
+        <f>"RSDSC_"&amp;F129</f>
+        <v>RSDSC_Det</v>
+      </c>
+      <c r="D129" s="38">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H129,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>3.17870115673878E-2</v>
+      </c>
+      <c r="F129" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="G128" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="H128" s="32" t="str">
-        <f t="shared" si="28"/>
-        <v>R-WH_Det_HET*</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A129" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B129" s="33" t="str">
-        <f t="shared" si="26"/>
-        <v>R-WH_Det_GEO*</v>
-      </c>
-      <c r="C129" s="33"/>
-      <c r="D129" s="33">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H129,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-      <c r="F129" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="G129" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="H129" s="33" t="str">
-        <f t="shared" si="28"/>
-        <v>R-WH_Det_GEO*</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A130" s="32" t="s">
-        <v>262</v>
-      </c>
-      <c r="B130" s="32" t="str">
-        <f>"R-WH_"&amp;F130&amp;"_"&amp;G130&amp;"*"</f>
-        <v>R-WH_Det_SOL*</v>
-      </c>
-      <c r="C130" s="32"/>
-      <c r="D130" s="41">
-        <f>SUMIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H130,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.113051511576835</v>
-      </c>
-      <c r="F130" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="G130" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="H130" s="32" t="str">
-        <f t="shared" si="28"/>
-        <v>R-WH_Det_SOL*</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A131" s="29" t="s">
+      <c r="G129" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="H129" s="39" t="str">
+        <f t="shared" si="30"/>
+        <v>R-SH_Det_ELC*X1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A130" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="B130" s="30"/>
+      <c r="C130" s="31"/>
+      <c r="D130" s="30"/>
+      <c r="E130" s="30"/>
+      <c r="F130" s="30"/>
+      <c r="G130" s="30"/>
+      <c r="H130" s="30"/>
+    </row>
+    <row r="131" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A131" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="B131" s="30"/>
-      <c r="C131" s="30"/>
-      <c r="D131" s="31"/>
-      <c r="F131" s="30"/>
-      <c r="G131" s="30"/>
-      <c r="H131" s="30"/>
+      <c r="B131" s="32" t="str">
+        <f>"R-HC_"&amp;F131&amp;"_"&amp;G131&amp;"_HPN*"</f>
+        <v>R-HC_Apt_ELC_HPN*</v>
+      </c>
+      <c r="C131" s="32" t="str">
+        <f>"RSDSH_"&amp;F131</f>
+        <v>RSDSH_Apt</v>
+      </c>
+      <c r="D131" s="32">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H131,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>2.4813655183930802E-2</v>
+      </c>
+      <c r="F131" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G131" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="H131" s="32" t="str">
+        <f t="shared" ref="H131:H133" si="31">"R-SH_"&amp;F131&amp;"_"&amp;G131&amp;"*X1"</f>
+        <v>R-SH_Apt_ELC*X1</v>
+      </c>
     </row>
     <row r="132" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="32" t="s">
-        <v>1</v>
+        <v>263</v>
       </c>
       <c r="B132" s="32" t="str">
-        <f>"R-SW_"&amp;F132&amp;"_"&amp;G132&amp;"*"</f>
-        <v>R-SW_Apt_COA*</v>
+        <f>"R-HC_"&amp;F132&amp;"_"&amp;G132&amp;"_HPN*"</f>
+        <v>R-HC_Att_ELC_HPN*</v>
       </c>
       <c r="C132" s="32" t="str">
-        <f>"RSDWH_"&amp;F132</f>
-        <v>RSDWH_Apt</v>
+        <f>"RSDSH_"&amp;F132</f>
+        <v>RSDSH_Att</v>
       </c>
       <c r="D132" s="32">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H132,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.2815604314722699E-2</v>
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H132,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.73685782056223E-2</v>
       </c>
       <c r="F132" s="32" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G132" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H132" s="32" t="str">
-        <f t="shared" ref="H132:H135" si="29">"R-WH_"&amp;F132&amp;"_"&amp;G132&amp;"*"</f>
-        <v>R-WH_Apt_COA*</v>
+        <f t="shared" si="31"/>
+        <v>R-SH_Att_ELC*X1</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A133" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B133" s="33" t="str">
-        <f t="shared" ref="B133:B144" si="30">"R-SW_"&amp;F133&amp;"_"&amp;G133&amp;"*"</f>
-        <v>R-SW_Apt_BDL*</v>
-      </c>
-      <c r="C133" s="33" t="str">
-        <f t="shared" ref="C133:C144" si="31">"RSDWH_"&amp;F133</f>
-        <v>RSDWH_Apt</v>
-      </c>
-      <c r="D133" s="33">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H133,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>7.1004600000000003E-3</v>
-      </c>
-      <c r="F133" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="G133" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="H133" s="33" t="str">
-        <f t="shared" si="29"/>
-        <v>R-WH_Apt_BDL*</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A134" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="32" t="str">
-        <f t="shared" si="30"/>
-        <v>R-SW_Apt_ETH*</v>
-      </c>
-      <c r="C134" s="32" t="str">
+      <c r="A133" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="B133" s="38" t="str">
+        <f>"R-HC_"&amp;F133&amp;"_"&amp;G133&amp;"_HPN*"</f>
+        <v>R-HC_Det_ELC_HPN*</v>
+      </c>
+      <c r="C133" s="38" t="str">
+        <f>"RSDSH_"&amp;F133</f>
+        <v>RSDSH_Det</v>
+      </c>
+      <c r="D133" s="38">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H133,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>3.17870115673878E-2</v>
+      </c>
+      <c r="F133" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="G133" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="H133" s="38" t="str">
         <f t="shared" si="31"/>
-        <v>RSDWH_Apt</v>
-      </c>
-      <c r="D134" s="32">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H134,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>8.5546800000000003E-3</v>
-      </c>
-      <c r="F134" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="G134" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="H134" s="32" t="str">
-        <f t="shared" si="29"/>
-        <v>R-WH_Apt_ETH*</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A135" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="B135" s="33" t="str">
-        <f t="shared" si="30"/>
-        <v>R-SW_Apt_LPG*</v>
-      </c>
-      <c r="C135" s="33" t="str">
-        <f t="shared" si="31"/>
-        <v>RSDWH_Apt</v>
-      </c>
-      <c r="D135" s="33">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H135,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.25372293333067E-2</v>
-      </c>
-      <c r="F135" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="G135" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="H135" s="33" t="str">
-        <f t="shared" si="29"/>
-        <v>R-WH_Apt_LPG*</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A136" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B136" s="32" t="str">
-        <f>"R-SW_"&amp;F136&amp;"_"&amp;G136&amp;"_N1"</f>
-        <v>R-SW_Apt_ELC_N1</v>
-      </c>
-      <c r="C136" s="32" t="str">
-        <f t="shared" si="31"/>
-        <v>RSDWH_Apt</v>
-      </c>
-      <c r="D136" s="32">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H136,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>8.4736052016827299E-3</v>
-      </c>
-      <c r="F136" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="G136" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="H136" s="32" t="str">
-        <f>"R-WH_"&amp;F136&amp;"_"&amp;G136&amp;"*X0"</f>
-        <v>R-WH_Apt_ELC*X0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A137" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="B137" s="32" t="str">
-        <f>"R-SW_"&amp;F137&amp;"_"&amp;G137&amp;"_HP*"</f>
-        <v>R-SW_Apt_ELC_HP*</v>
-      </c>
-      <c r="C137" s="32" t="str">
-        <f t="shared" si="31"/>
-        <v>RSDWH_Apt</v>
-      </c>
-      <c r="D137" s="32">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H137,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.6997794108646502E-2</v>
-      </c>
-      <c r="F137" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="G137" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="H137" s="32" t="str">
-        <f>"R-WH_"&amp;F137&amp;"_"&amp;G137&amp;"*X1"</f>
-        <v>R-WH_Apt_ELC*X1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A138" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="B138" s="33" t="str">
-        <f t="shared" si="30"/>
-        <v>R-SW_Apt_KER*</v>
-      </c>
-      <c r="C138" s="33" t="str">
-        <f t="shared" si="31"/>
-        <v>RSDWH_Apt</v>
-      </c>
-      <c r="D138" s="33">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H138,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.0612182530373E-2</v>
-      </c>
-      <c r="F138" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="G138" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="H138" s="33" t="str">
-        <f t="shared" ref="H138" si="32">"R-WH_"&amp;F138&amp;"_"&amp;G138&amp;"*"</f>
-        <v>R-WH_Apt_KER*</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A139" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="B139" s="32" t="str">
-        <f t="shared" si="30"/>
-        <v>R-SW_Apt_GAS*</v>
-      </c>
-      <c r="C139" s="32" t="str">
-        <f t="shared" si="31"/>
-        <v>RSDWH_Apt</v>
-      </c>
-      <c r="D139" s="32">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H139,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>7.0999155767537403E-3</v>
-      </c>
-      <c r="F139" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="G139" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="H139" s="32" t="str">
-        <f>"R-WH_"&amp;F138&amp;"_"&amp;G139&amp;"*"</f>
-        <v>R-WH_Apt_GAS*</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A140" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B140" s="33" t="str">
-        <f t="shared" si="30"/>
-        <v>R-SW_Apt_PEA*</v>
-      </c>
-      <c r="C140" s="33" t="str">
-        <f t="shared" si="31"/>
-        <v>RSDWH_Apt</v>
-      </c>
-      <c r="D140" s="33">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H140,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>8.5740576923076899E-3</v>
-      </c>
-      <c r="F140" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="G140" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="H140" s="33" t="str">
-        <f>"R-WH_"&amp;F140&amp;"_"&amp;G140&amp;"*"</f>
-        <v>R-WH_Apt_PEA*</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A141" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B141" s="32" t="str">
-        <f t="shared" si="30"/>
-        <v>R-SW_Apt_SMF*</v>
-      </c>
-      <c r="C141" s="32" t="str">
-        <f t="shared" si="31"/>
-        <v>RSDWH_Apt</v>
-      </c>
-      <c r="D141" s="32">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H141,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>8.5332927933924694E-3</v>
-      </c>
-      <c r="F141" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="G141" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="H141" s="32" t="str">
-        <f>"R-WH_"&amp;F141&amp;"_"&amp;G141&amp;"*"</f>
-        <v>R-WH_Apt_SMF*</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A142" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="B142" s="33" t="str">
-        <f t="shared" si="30"/>
-        <v>R-SW_Apt_WOO*</v>
-      </c>
-      <c r="C142" s="33" t="str">
-        <f t="shared" si="31"/>
-        <v>RSDWH_Apt</v>
-      </c>
-      <c r="D142" s="33">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H142,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.7598754499754609E-3</v>
-      </c>
-      <c r="F142" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="G142" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="H142" s="33" t="str">
-        <f>"R-WH_"&amp;F142&amp;"_"&amp;G142&amp;"*"</f>
-        <v>R-WH_Apt_WOO*</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A143" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="B143" s="32" t="str">
-        <f t="shared" si="30"/>
-        <v>R-SW_Apt_HET*</v>
-      </c>
-      <c r="C143" s="32" t="str">
-        <f t="shared" si="31"/>
-        <v>RSDWH_Apt</v>
-      </c>
-      <c r="D143" s="32">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H143,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.0627633026508998E-4</v>
-      </c>
-      <c r="F143" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="G143" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="H143" s="32" t="str">
-        <f>"R-WH_"&amp;F143&amp;"_"&amp;G143&amp;"*"</f>
-        <v>R-WH_Apt_HET*</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A144" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B144" s="33" t="str">
-        <f t="shared" si="30"/>
-        <v>R-SW_Apt_SOL*</v>
-      </c>
-      <c r="C144" s="33" t="str">
-        <f t="shared" si="31"/>
-        <v>RSDWH_Apt</v>
-      </c>
-      <c r="D144" s="33">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H144,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>8.6298729994523198E-3</v>
-      </c>
-      <c r="F144" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="G144" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="H144" s="33" t="str">
-        <f>"R-WH_"&amp;F144&amp;"_"&amp;G144&amp;"*"</f>
-        <v>R-WH_Apt_SOL*</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A145" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="B145" s="30"/>
-      <c r="C145" s="30"/>
-      <c r="D145" s="30"/>
-      <c r="E145" s="30"/>
-      <c r="F145" s="30"/>
-      <c r="G145" s="30"/>
-      <c r="H145" s="30"/>
-    </row>
-    <row r="146" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A146" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B146" s="32" t="str">
-        <f>"R-SW_"&amp;F146&amp;"_"&amp;G146&amp;"*"</f>
-        <v>R-SW_Att_COA*</v>
-      </c>
-      <c r="C146" s="32" t="str">
-        <f t="shared" ref="C146:C158" si="33">"RSDWH_"&amp;F146</f>
-        <v>RSDWH_Att</v>
-      </c>
-      <c r="D146" s="32">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H146,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.6455462342683601E-2</v>
-      </c>
-      <c r="F146" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="G146" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="H146" s="32" t="str">
-        <f t="shared" ref="H146:H149" si="34">"R-WH_"&amp;F146&amp;"_"&amp;G146&amp;"*"</f>
-        <v>R-WH_Att_COA*</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A147" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B147" s="33" t="str">
-        <f t="shared" ref="B147:B158" si="35">"R-SW_"&amp;F147&amp;"_"&amp;G147&amp;"*"</f>
-        <v>R-SW_Att_BDL*</v>
-      </c>
-      <c r="C147" s="33" t="str">
-        <f t="shared" si="33"/>
-        <v>RSDWH_Att</v>
-      </c>
-      <c r="D147" s="33">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H147,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.40208E-2</v>
-      </c>
-      <c r="F147" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="G147" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="H147" s="33" t="str">
-        <f t="shared" si="34"/>
-        <v>R-WH_Att_BDL*</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A148" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B148" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v>R-SW_Att_ETH*</v>
-      </c>
-      <c r="C148" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v>RSDWH_Att</v>
-      </c>
-      <c r="D148" s="32">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H148,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.059804E-2</v>
-      </c>
-      <c r="F148" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="G148" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="H148" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v>R-WH_Att_ETH*</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A149" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="B149" s="33" t="str">
-        <f t="shared" si="35"/>
-        <v>R-SW_Att_LPG*</v>
-      </c>
-      <c r="C149" s="33" t="str">
-        <f t="shared" si="33"/>
-        <v>RSDWH_Att</v>
-      </c>
-      <c r="D149" s="33">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H149,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.5857470577174002E-2</v>
-      </c>
-      <c r="F149" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="G149" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="H149" s="33" t="str">
-        <f t="shared" si="34"/>
-        <v>R-WH_Att_LPG*</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A150" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B150" s="32" t="str">
-        <f>"R-SW_"&amp;F150&amp;"_"&amp;G150&amp;"_N1"</f>
-        <v>R-SW_Att_ELC_N1</v>
-      </c>
-      <c r="C150" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v>RSDWH_Att</v>
-      </c>
-      <c r="D150" s="32">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H150,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.29275684703049E-2</v>
-      </c>
-      <c r="F150" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="G150" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="H150" s="32" t="str">
-        <f>"R-WH_"&amp;F150&amp;"_"&amp;G150&amp;"*X0"</f>
-        <v>R-WH_Att_ELC*X0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A151" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="B151" s="32" t="str">
-        <f>"R-SW_"&amp;F151&amp;"_"&amp;G151&amp;"_HP*"</f>
-        <v>R-SW_Att_ELC_HP*</v>
-      </c>
-      <c r="C151" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v>RSDWH_Att</v>
-      </c>
-      <c r="D151" s="32">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H151,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.3641548707263999E-2</v>
-      </c>
-      <c r="F151" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="G151" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="H151" s="32" t="str">
-        <f>"R-WH_"&amp;F151&amp;"_"&amp;G151&amp;"*X1"</f>
-        <v>R-WH_Att_ELC*X1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A152" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="B152" s="33" t="str">
-        <f t="shared" si="35"/>
-        <v>R-SW_Att_KER*</v>
-      </c>
-      <c r="C152" s="33" t="str">
-        <f t="shared" si="33"/>
-        <v>RSDWH_Att</v>
-      </c>
-      <c r="D152" s="33">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H152,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.0991128214065201E-2</v>
-      </c>
-      <c r="F152" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="G152" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="H152" s="33" t="str">
-        <f t="shared" ref="H152" si="36">"R-WH_"&amp;F152&amp;"_"&amp;G152&amp;"*"</f>
-        <v>R-WH_Att_KER*</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A153" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="B153" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v>R-SW_Att_GAS*</v>
-      </c>
-      <c r="C153" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v>RSDWH_Att</v>
-      </c>
-      <c r="D153" s="32">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H153,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.2067094002643308E-3</v>
-      </c>
-      <c r="F153" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="G153" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="H153" s="32" t="str">
-        <f>"R-WH_"&amp;F152&amp;"_"&amp;G153&amp;"*"</f>
-        <v>R-WH_Att_GAS*</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A154" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B154" s="33" t="str">
-        <f t="shared" si="35"/>
-        <v>R-SW_Att_PEA*</v>
-      </c>
-      <c r="C154" s="33" t="str">
-        <f t="shared" si="33"/>
-        <v>RSDWH_Att</v>
-      </c>
-      <c r="D154" s="33">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H154,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.08711386313101E-2</v>
-      </c>
-      <c r="F154" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="G154" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="H154" s="33" t="str">
-        <f>"R-WH_"&amp;F154&amp;"_"&amp;G154&amp;"*"</f>
-        <v>R-WH_Att_PEA*</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A155" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B155" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v>R-SW_Att_SMF*</v>
-      </c>
-      <c r="C155" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v>RSDWH_Att</v>
-      </c>
-      <c r="D155" s="32">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H155,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.3095279184719493E-3</v>
-      </c>
-      <c r="F155" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="G155" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="H155" s="32" t="str">
-        <f>"R-WH_"&amp;F155&amp;"_"&amp;G155&amp;"*"</f>
-        <v>R-WH_Att_SMF*</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A156" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="B156" s="33" t="str">
-        <f t="shared" si="35"/>
-        <v>R-SW_Att_WOO*</v>
-      </c>
-      <c r="C156" s="33" t="str">
-        <f t="shared" si="33"/>
-        <v>RSDWH_Att</v>
-      </c>
-      <c r="D156" s="33">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H156,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.0844937056477299E-2</v>
-      </c>
-      <c r="F156" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="G156" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="H156" s="33" t="str">
-        <f>"R-WH_"&amp;F156&amp;"_"&amp;G156&amp;"*"</f>
-        <v>R-WH_Att_WOO*</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A157" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="B157" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v>R-SW_Att_HET*</v>
-      </c>
-      <c r="C157" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v>RSDWH_Att</v>
-      </c>
-      <c r="D157" s="32">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H157,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>7.6939300464232304E-4</v>
-      </c>
-      <c r="F157" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="G157" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="H157" s="32" t="str">
-        <f>"R-WH_"&amp;F157&amp;"_"&amp;G157&amp;"*"</f>
-        <v>R-WH_Att_HET*</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A158" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B158" s="33" t="str">
-        <f t="shared" si="35"/>
-        <v>R-SW_Att_SOL*</v>
-      </c>
-      <c r="C158" s="33" t="str">
-        <f t="shared" si="33"/>
-        <v>RSDWH_Att</v>
-      </c>
-      <c r="D158" s="33">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H158,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.4409606285151599E-2</v>
-      </c>
-      <c r="F158" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="G158" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="H158" s="33" t="str">
-        <f>"R-WH_"&amp;F158&amp;"_"&amp;G158&amp;"*"</f>
-        <v>R-WH_Att_SOL*</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A159" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="B159" s="30"/>
-      <c r="C159" s="30"/>
-      <c r="D159" s="30"/>
-      <c r="E159" s="30"/>
-      <c r="F159" s="30"/>
-      <c r="G159" s="30"/>
-      <c r="H159" s="30"/>
-    </row>
-    <row r="160" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A160" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B160" s="32" t="str">
-        <f t="shared" ref="B160:B172" si="37">"R-SW_"&amp;F160&amp;"_"&amp;G160&amp;"*"</f>
-        <v>R-SW_Det_COA*</v>
-      </c>
-      <c r="C160" s="32" t="str">
-        <f t="shared" ref="C160:C172" si="38">"RSDWH_"&amp;F160</f>
-        <v>RSDWH_Det</v>
-      </c>
-      <c r="D160" s="32">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H160,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.82955006878423E-2</v>
-      </c>
-      <c r="F160" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="G160" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="H160" s="32" t="str">
-        <f t="shared" ref="H160:H163" si="39">"R-WH_"&amp;F160&amp;"_"&amp;G160&amp;"*"</f>
-        <v>R-WH_Det_COA*</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A161" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B161" s="33" t="str">
-        <f t="shared" si="37"/>
-        <v>R-SW_Det_BDL*</v>
-      </c>
-      <c r="C161" s="33" t="str">
-        <f t="shared" si="38"/>
-        <v>RSDWH_Det</v>
-      </c>
-      <c r="D161" s="33">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H161,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.0679040000000001E-2</v>
-      </c>
-      <c r="F161" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="G161" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="H161" s="33" t="str">
-        <f t="shared" si="39"/>
-        <v>R-WH_Det_BDL*</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A162" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B162" s="32" t="str">
-        <f t="shared" si="37"/>
-        <v>R-SW_Det_ETH*</v>
-      </c>
-      <c r="C162" s="32" t="str">
-        <f t="shared" si="38"/>
-        <v>RSDWH_Det</v>
-      </c>
-      <c r="D162" s="32">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H162,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.2096539999999999E-2</v>
-      </c>
-      <c r="F162" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="G162" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="H162" s="32" t="str">
-        <f t="shared" si="39"/>
-        <v>R-WH_Det_ETH*</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A163" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="B163" s="33" t="str">
-        <f t="shared" si="37"/>
-        <v>R-SW_Det_LPG*</v>
-      </c>
-      <c r="C163" s="33" t="str">
-        <f t="shared" si="38"/>
-        <v>RSDWH_Det</v>
-      </c>
-      <c r="D163" s="33">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H163,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.7354263255049698E-2</v>
-      </c>
-      <c r="F163" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="G163" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="H163" s="33" t="str">
-        <f t="shared" si="39"/>
-        <v>R-WH_Det_LPG*</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A164" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B164" s="32" t="str">
-        <f>"R-SW_"&amp;F164&amp;"_"&amp;G164&amp;"_N1"</f>
-        <v>R-SW_Det_ELC_N1</v>
-      </c>
-      <c r="C164" s="32" t="str">
-        <f t="shared" si="38"/>
-        <v>RSDWH_Det</v>
-      </c>
-      <c r="D164" s="32">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H164,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.33284867630703E-2</v>
-      </c>
-      <c r="F164" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="G164" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="H164" s="32" t="str">
-        <f>"R-WH_"&amp;F164&amp;"_"&amp;G164&amp;"*X0"</f>
-        <v>R-WH_Det_ELC*X0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A165" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="B165" s="32" t="str">
-        <f>"R-SW_"&amp;F165&amp;"_"&amp;G165&amp;"_HP*"</f>
-        <v>R-SW_Det_ELC_HP*</v>
-      </c>
-      <c r="C165" s="32" t="str">
-        <f t="shared" si="38"/>
-        <v>RSDWH_Det</v>
-      </c>
-      <c r="D165" s="32">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H165,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.2499180043814002E-2</v>
-      </c>
-      <c r="F165" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="G165" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="H165" s="32" t="str">
-        <f>"R-WH_"&amp;F165&amp;"_"&amp;G165&amp;"*X1"</f>
-        <v>R-WH_Det_ELC*X1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A166" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="B166" s="33" t="str">
-        <f t="shared" si="37"/>
-        <v>R-SW_Det_KER*</v>
-      </c>
-      <c r="C166" s="33" t="str">
-        <f t="shared" si="38"/>
-        <v>RSDWH_Det</v>
-      </c>
-      <c r="D166" s="33">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H166,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.35372248660808E-2</v>
-      </c>
-      <c r="F166" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="G166" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="H166" s="33" t="str">
-        <f t="shared" ref="H166" si="40">"R-WH_"&amp;F166&amp;"_"&amp;G166&amp;"*"</f>
-        <v>R-WH_Det_KER*</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A167" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="B167" s="32" t="str">
-        <f t="shared" si="37"/>
-        <v>R-SW_Det_GAS*</v>
-      </c>
-      <c r="C167" s="32" t="str">
-        <f t="shared" si="38"/>
-        <v>RSDWH_Det</v>
-      </c>
-      <c r="D167" s="32">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H167,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.18538093576453E-2</v>
-      </c>
-      <c r="F167" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="G167" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="H167" s="32" t="str">
-        <f>"R-WH_"&amp;F166&amp;"_"&amp;G167&amp;"*"</f>
-        <v>R-WH_Det_GAS*</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A168" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B168" s="33" t="str">
-        <f t="shared" si="37"/>
-        <v>R-SW_Det_PEA*</v>
-      </c>
-      <c r="C168" s="33" t="str">
-        <f t="shared" si="38"/>
-        <v>RSDWH_Det</v>
-      </c>
-      <c r="D168" s="33">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H168,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.24915801777354E-2</v>
-      </c>
-      <c r="F168" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="G168" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="H168" s="33" t="str">
-        <f>"R-WH_"&amp;F168&amp;"_"&amp;G168&amp;"*"</f>
-        <v>R-WH_Det_PEA*</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A169" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B169" s="32" t="str">
-        <f t="shared" si="37"/>
-        <v>R-SW_Det_SMF*</v>
-      </c>
-      <c r="C169" s="32" t="str">
-        <f t="shared" si="38"/>
-        <v>RSDWH_Det</v>
-      </c>
-      <c r="D169" s="32">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H169,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.1286753739723199E-2</v>
-      </c>
-      <c r="F169" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="G169" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="H169" s="32" t="str">
-        <f>"R-WH_"&amp;F169&amp;"_"&amp;G169&amp;"*"</f>
-        <v>R-WH_Det_SMF*</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A170" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="B170" s="33" t="str">
-        <f t="shared" si="37"/>
-        <v>R-SW_Det_WOO*</v>
-      </c>
-      <c r="C170" s="33" t="str">
-        <f t="shared" si="38"/>
-        <v>RSDWH_Det</v>
-      </c>
-      <c r="D170" s="33">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H170,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.4581963570516601E-2</v>
-      </c>
-      <c r="F170" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="G170" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="H170" s="33" t="str">
-        <f>"R-WH_"&amp;F170&amp;"_"&amp;G170&amp;"*"</f>
-        <v>R-WH_Det_WOO*</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A171" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="B171" s="32" t="str">
-        <f t="shared" si="37"/>
-        <v>R-SW_Det_HET*</v>
-      </c>
-      <c r="C171" s="32" t="str">
-        <f t="shared" si="38"/>
-        <v>RSDWH_Det</v>
-      </c>
-      <c r="D171" s="32">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H171,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.2874844310725899E-3</v>
-      </c>
-      <c r="F171" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="G171" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="H171" s="32" t="str">
-        <f>"R-WH_"&amp;F171&amp;"_"&amp;G171&amp;"*"</f>
-        <v>R-WH_Det_HET*</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A172" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B172" s="37" t="str">
-        <f t="shared" si="37"/>
-        <v>R-SW_Det_SOL*</v>
-      </c>
-      <c r="C172" s="37" t="str">
-        <f t="shared" si="38"/>
-        <v>RSDWH_Det</v>
-      </c>
-      <c r="D172" s="37">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H172,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.113051511576835</v>
-      </c>
-      <c r="F172" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="G172" s="37" t="s">
-        <v>249</v>
-      </c>
-      <c r="H172" s="37" t="str">
-        <f>"R-WH_"&amp;F172&amp;"_"&amp;G172&amp;"*"</f>
-        <v>R-WH_Det_SOL*</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A173" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="B173" s="30"/>
-      <c r="C173" s="31"/>
-      <c r="D173" s="30"/>
-      <c r="E173" s="30"/>
-      <c r="F173" s="30"/>
-      <c r="G173" s="30"/>
-      <c r="H173" s="30"/>
-    </row>
-    <row r="174" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A174" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="B174" s="32" t="str">
-        <f>"R-SC_"&amp;F174&amp;"_"&amp;G174&amp;"_N1"</f>
-        <v>R-SC_Apt_ELC_N1</v>
-      </c>
-      <c r="C174" s="32"/>
-      <c r="D174" s="32">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H174,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.4813655183930802E-2</v>
-      </c>
-      <c r="F174" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="G174" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="H174" s="38" t="str">
-        <f t="shared" ref="H174:H176" si="41">"R-SH_"&amp;F174&amp;"_"&amp;G174&amp;"*X1"</f>
-        <v>R-SH_Apt_ELC*X1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A175" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="B175" s="32" t="str">
-        <f>"R-SC_"&amp;F175&amp;"_"&amp;G175&amp;"_N1"</f>
-        <v>R-SC_Att_ELC_N1</v>
-      </c>
-      <c r="C175" s="32"/>
-      <c r="D175" s="32">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H175,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.73685782056223E-2</v>
-      </c>
-      <c r="F175" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="G175" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="H175" s="38" t="str">
-        <f t="shared" si="41"/>
-        <v>R-SH_Att_ELC*X1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A176" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="B176" s="32" t="str">
-        <f>"R-SC_"&amp;F176&amp;"_"&amp;G176&amp;"_N1"</f>
-        <v>R-SC_Det_ELC_N1</v>
-      </c>
-      <c r="C176" s="32"/>
-      <c r="D176" s="32">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H176,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.17870115673878E-2</v>
-      </c>
-      <c r="F176" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="G176" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="H176" s="38" t="str">
-        <f t="shared" si="41"/>
-        <v>R-SH_Det_ELC*X1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A177" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="B177" s="30"/>
-      <c r="C177" s="31"/>
-      <c r="D177" s="30"/>
-      <c r="E177" s="30"/>
-      <c r="F177" s="30"/>
-      <c r="G177" s="30"/>
-      <c r="H177" s="30"/>
-    </row>
-    <row r="178" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A178" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="B178" s="32" t="str">
-        <f>"R-HC_"&amp;F178&amp;"_"&amp;G178&amp;"_HPN*"</f>
-        <v>R-HC_Apt_ELC_HPN*</v>
-      </c>
-      <c r="C178" s="32" t="str">
-        <f>"RSDSC_"&amp;F178</f>
-        <v>RSDSC_Apt</v>
-      </c>
-      <c r="D178" s="32">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H178,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.4813655183930802E-2</v>
-      </c>
-      <c r="F178" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="G178" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="H178" s="38" t="str">
-        <f t="shared" ref="H178:H180" si="42">"R-SH_"&amp;F178&amp;"_"&amp;G178&amp;"*X1"</f>
-        <v>R-SH_Apt_ELC*X1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A179" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="B179" s="32" t="str">
-        <f>"R-HC_"&amp;F179&amp;"_"&amp;G179&amp;"_HPN*"</f>
-        <v>R-HC_Att_ELC_HPN*</v>
-      </c>
-      <c r="C179" s="32" t="str">
-        <f>"RSDSC_"&amp;F179</f>
-        <v>RSDSC_Att</v>
-      </c>
-      <c r="D179" s="32">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H179,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.73685782056223E-2</v>
-      </c>
-      <c r="F179" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="G179" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="H179" s="38" t="str">
-        <f t="shared" si="42"/>
-        <v>R-SH_Att_ELC*X1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A180" s="39" t="s">
-        <v>264</v>
-      </c>
-      <c r="B180" s="39" t="str">
-        <f>"R-HC_"&amp;F180&amp;"_"&amp;G180&amp;"_HPN*"</f>
-        <v>R-HC_Det_ELC_HPN*</v>
-      </c>
-      <c r="C180" s="39" t="str">
-        <f>"RSDSC_"&amp;F180</f>
-        <v>RSDSC_Det</v>
-      </c>
-      <c r="D180" s="39">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H180,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.17870115673878E-2</v>
-      </c>
-      <c r="F180" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="G180" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="H180" s="40" t="str">
-        <f t="shared" si="42"/>
-        <v>R-SH_Det_ELC*X1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A181" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="B181" s="30"/>
-      <c r="C181" s="31"/>
-      <c r="D181" s="30"/>
-      <c r="E181" s="30"/>
-      <c r="F181" s="30"/>
-      <c r="G181" s="30"/>
-      <c r="H181" s="30"/>
-    </row>
-    <row r="182" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A182" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="B182" s="32" t="str">
-        <f>"R-HC_"&amp;F182&amp;"_"&amp;G182&amp;"_HPN*"</f>
-        <v>R-HC_Apt_ELC_HPN*</v>
-      </c>
-      <c r="C182" s="32" t="str">
-        <f>"RSDSH_"&amp;F182</f>
-        <v>RSDSH_Apt</v>
-      </c>
-      <c r="D182" s="32">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H182,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.4813655183930802E-2</v>
-      </c>
-      <c r="F182" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="G182" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="H182" s="32" t="str">
-        <f t="shared" ref="H182:H184" si="43">"R-SH_"&amp;F182&amp;"_"&amp;G182&amp;"*X1"</f>
-        <v>R-SH_Apt_ELC*X1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A183" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="B183" s="32" t="str">
-        <f>"R-HC_"&amp;F183&amp;"_"&amp;G183&amp;"_HPN*"</f>
-        <v>R-HC_Att_ELC_HPN*</v>
-      </c>
-      <c r="C183" s="32" t="str">
-        <f>"RSDSH_"&amp;F183</f>
-        <v>RSDSH_Att</v>
-      </c>
-      <c r="D183" s="32">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H183,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.73685782056223E-2</v>
-      </c>
-      <c r="F183" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="G183" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="H183" s="32" t="str">
-        <f t="shared" si="43"/>
-        <v>R-SH_Att_ELC*X1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A184" s="39" t="s">
-        <v>264</v>
-      </c>
-      <c r="B184" s="39" t="str">
-        <f>"R-HC_"&amp;F184&amp;"_"&amp;G184&amp;"_HPN*"</f>
-        <v>R-HC_Det_ELC_HPN*</v>
-      </c>
-      <c r="C184" s="39" t="str">
-        <f>"RSDSH_"&amp;F184</f>
-        <v>RSDSH_Det</v>
-      </c>
-      <c r="D184" s="39">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H184,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.17870115673878E-2</v>
-      </c>
-      <c r="F184" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="G184" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="H184" s="39" t="str">
-        <f t="shared" si="43"/>
         <v>R-SH_Det_ELC*X1</v>
       </c>
     </row>
@@ -9705,9 +8391,10 @@
   </sheetPr>
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10689,7 +9376,7 @@
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
       <c r="E47" s="29" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F47" s="30"/>
       <c r="G47" s="31"/>
@@ -10701,7 +9388,7 @@
       <c r="B48" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="C48" s="38" t="str">
+      <c r="C48" s="37" t="str">
         <f>"R-SH_"&amp;A48&amp;"_"&amp;B48&amp;"*X1"</f>
         <v>R-SH_Apt_ELC*X1</v>
       </c>
@@ -10724,7 +9411,7 @@
       <c r="B49" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="38" t="str">
+      <c r="C49" s="37" t="str">
         <f>"R-SH_"&amp;A49&amp;"_"&amp;B49&amp;"*X1"</f>
         <v>R-SH_Att_ELC*X1</v>
       </c>
@@ -10741,24 +9428,24 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="39" t="s">
+      <c r="A50" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="B50" s="39" t="s">
+      <c r="B50" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C50" s="40" t="str">
+      <c r="C50" s="39" t="str">
         <f>"R-SH_"&amp;A50&amp;"_"&amp;B50&amp;"*X1"</f>
         <v>R-SH_Det_ELC*X1</v>
       </c>
-      <c r="E50" s="39" t="s">
+      <c r="E50" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="F50" s="39" t="str">
+      <c r="F50" s="38" t="str">
         <f t="shared" si="2"/>
         <v>R-SC_Det_ELC_N1</v>
       </c>
-      <c r="G50" s="39" t="str">
+      <c r="G50" s="38" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C50,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
         <v>*3.08978378378378</v>
       </c>
@@ -10895,7 +9582,7 @@
       <c r="B57" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="C57" s="38" t="str">
+      <c r="C57" s="37" t="str">
         <f>"R-WH_"&amp;A57&amp;"_"&amp;B57&amp;"*X1"</f>
         <v>R-WH_Apt_ELC*X1</v>
       </c>
@@ -11204,7 +9891,7 @@
       <c r="B71" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="38" t="str">
+      <c r="C71" s="37" t="str">
         <f>"R-WH_"&amp;A71&amp;"_"&amp;B71&amp;"*X1"</f>
         <v>R-WH_Att_ELC*X1</v>
       </c>
@@ -11513,7 +10200,7 @@
       <c r="B85" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="C85" s="38" t="str">
+      <c r="C85" s="37" t="str">
         <f>"R-WH_"&amp;A85&amp;"_"&amp;B85&amp;"*X1"</f>
         <v>R-WH_Det_ELC*X1</v>
       </c>
@@ -11703,6 +10390,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13358,8 +12046,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8798645-A7BE-46E5-8441-577006E99D5D}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1">
+      <selection activeCell="L17" sqref="L17:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15017,6 +13706,7 @@
   <dimension ref="A1:M79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/SubRES_TMPL/SubRes_RSD_Trans.xlsx
+++ b/SubRES_TMPL/SubRes_RSD_Trans.xlsx
@@ -5,13 +5,13 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VEDA_Models\2-NewVeda\TIMES-Ireland-model\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\~g2v_TIMES-Ireland-model\main-8760\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320BEF39-B02D-4599-B7F6-C02704756940}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB88E2F-FF21-4829-B6A2-38F66A377395}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" tabRatio="819" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" firstSheet="6" activeTab="6" xr2:uid="{DF4C35E6-02C2-4233-84CE-A7CCAFFA4B20}"/>
+    <workbookView xWindow="5280" yWindow="3900" windowWidth="42165" windowHeight="23985" tabRatio="819" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7230" yWindow="5850" windowWidth="42165" windowHeight="23985" firstSheet="6" activeTab="6" xr2:uid="{DF4C35E6-02C2-4233-84CE-A7CCAFFA4B20}"/>
   </bookViews>
   <sheets>
     <sheet name="LOG" sheetId="64" r:id="rId1"/>

--- a/SubRES_TMPL/SubRes_RSD_Trans.xlsx
+++ b/SubRES_TMPL/SubRes_RSD_Trans.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VEDA_Models\2-NewVeda\TIMES-Ireland-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320BEF39-B02D-4599-B7F6-C02704756940}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9039865B-23C2-4EB9-B006-4CDDA97CFB80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" tabRatio="819" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" firstSheet="6" activeTab="6" xr2:uid="{DF4C35E6-02C2-4233-84CE-A7CCAFFA4B20}"/>
+    <workbookView xWindow="6030" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="819" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" firstSheet="6" activeTab="6" xr2:uid="{DF4C35E6-02C2-4233-84CE-A7CCAFFA4B20}"/>
   </bookViews>
   <sheets>
     <sheet name="LOG" sheetId="64" r:id="rId1"/>
@@ -5255,7 +5255,7 @@
       <c r="C6" s="32"/>
       <c r="D6" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H6,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.251294826490714</v>
+        <v>0.41882471081785599</v>
       </c>
       <c r="F6" s="32" t="s">
         <v>109</v>
@@ -5290,7 +5290,7 @@
       <c r="C7" s="33"/>
       <c r="D7" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H7,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.6742452222251502E-3</v>
+        <v>9.4570753703752605E-3</v>
       </c>
       <c r="F7" s="33" t="s">
         <v>109</v>
@@ -5325,7 +5325,7 @@
       <c r="C8" s="32"/>
       <c r="D8" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H8,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.22114316116754E-5</v>
+        <v>2.0352386019458902E-5</v>
       </c>
       <c r="F8" s="32" t="s">
         <v>109</v>
@@ -5360,7 +5360,7 @@
       <c r="C9" s="33"/>
       <c r="D9" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H9,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.92726955741749E-2</v>
+        <v>4.8787825956958103E-2</v>
       </c>
       <c r="F9" s="33" t="s">
         <v>109</v>
@@ -5395,7 +5395,7 @@
       <c r="C10" s="32"/>
       <c r="D10" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H10,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.1974809581675851E-2</v>
+        <v>0.10040134293076135</v>
       </c>
       <c r="F10" s="32" t="s">
         <v>109</v>
@@ -5430,7 +5430,7 @@
       <c r="C11" s="33"/>
       <c r="D11" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H11,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.7386892734226298E-2</v>
+        <v>7.8978154557043795E-2</v>
       </c>
       <c r="F11" s="33" t="s">
         <v>109</v>
@@ -5465,7 +5465,7 @@
       <c r="C12" s="32"/>
       <c r="D12" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H12,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.50419670684038E-2</v>
+        <v>2.5069945114006401E-2</v>
       </c>
       <c r="F12" s="32" t="s">
         <v>109</v>
@@ -5500,7 +5500,7 @@
       <c r="C13" s="33"/>
       <c r="D13" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H13,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.4968303643999302E-2</v>
+        <v>0.15828050607333199</v>
       </c>
       <c r="F13" s="33" t="s">
         <v>109</v>
@@ -5524,7 +5524,7 @@
       <c r="C14" s="32"/>
       <c r="D14" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H14,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>8.8189793033597697E-2</v>
+        <v>0.14698298838932999</v>
       </c>
       <c r="F14" s="32" t="s">
         <v>109</v>
@@ -5548,7 +5548,7 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H15,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.2384455613659201E-2</v>
+        <v>3.7307426022765301E-2</v>
       </c>
       <c r="F15" s="33" t="s">
         <v>109</v>
@@ -5575,7 +5575,7 @@
       <c r="C16" s="32"/>
       <c r="D16" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H16,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.40933452966884E-3</v>
+        <v>2.3488908827814098E-3</v>
       </c>
       <c r="F16" s="32" t="s">
         <v>109</v>
@@ -5625,7 +5625,7 @@
       <c r="C18" s="32"/>
       <c r="D18" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H18,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.25427820715246202</v>
+        <v>0.31784775894057798</v>
       </c>
       <c r="F18" s="32" t="s">
         <v>105</v>
@@ -5659,7 +5659,7 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H19,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.9727143416387202E-2</v>
+        <v>2.4658929270483999E-2</v>
       </c>
       <c r="F19" s="33" t="s">
         <v>105</v>
@@ -5727,7 +5727,7 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H21,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.92400721571756E-2</v>
+        <v>4.9050090196469498E-2</v>
       </c>
       <c r="F21" s="33" t="s">
         <v>105</v>
@@ -5761,7 +5761,7 @@
       <c r="C22" s="32"/>
       <c r="D22" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H22,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.1152602388648351E-2</v>
+        <v>7.537088345132234E-2</v>
       </c>
       <c r="F22" s="32" t="s">
         <v>105</v>
@@ -5795,7 +5795,7 @@
       <c r="C23" s="33"/>
       <c r="D23" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H23,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.5982700943281098E-2</v>
+        <v>4.4978376179101401E-2</v>
       </c>
       <c r="F23" s="33" t="s">
         <v>105</v>
@@ -5829,7 +5829,7 @@
       <c r="C24" s="32"/>
       <c r="D24" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H24,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.8026244703222701E-2</v>
+        <v>3.5032805879028399E-2</v>
       </c>
       <c r="F24" s="32" t="s">
         <v>105</v>
@@ -5853,7 +5853,7 @@
       <c r="C25" s="33"/>
       <c r="D25" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H25,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.6714843841128501E-2</v>
+        <v>7.0893554801410602E-2</v>
       </c>
       <c r="F25" s="33" t="s">
         <v>105</v>
@@ -5877,7 +5877,7 @@
       <c r="C26" s="32"/>
       <c r="D26" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H26,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.8905144753244799E-2</v>
+        <v>7.3631430941555998E-2</v>
       </c>
       <c r="F26" s="32" t="s">
         <v>105</v>
@@ -5901,7 +5901,7 @@
       <c r="C27" s="33"/>
       <c r="D27" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H27,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.52141887785493E-2</v>
+        <v>0.119017735973187</v>
       </c>
       <c r="F27" s="33" t="s">
         <v>105</v>
@@ -5925,7 +5925,7 @@
       <c r="C28" s="32"/>
       <c r="D28" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H28,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.82983145664136E-2</v>
+        <v>2.2872893208017001E-2</v>
       </c>
       <c r="F28" s="32" t="s">
         <v>105</v>
@@ -5961,7 +5961,7 @@
       <c r="C30" s="32"/>
       <c r="D30" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H30,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.56734094210587305</v>
+        <v>0.47278411842156098</v>
       </c>
       <c r="F30" s="32" t="s">
         <v>114</v>
@@ -6034,7 +6034,7 @@
       <c r="C33" s="33"/>
       <c r="D33" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H33,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>8.5024956709859906E-2</v>
+        <v>7.0854130591549894E-2</v>
       </c>
       <c r="F33" s="33" t="s">
         <v>114</v>
@@ -6058,7 +6058,7 @@
       <c r="C34" s="32"/>
       <c r="D34" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H34,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.2637209370950108E-2</v>
+        <v>4.5759782196410553E-2</v>
       </c>
       <c r="F34" s="32" t="s">
         <v>114</v>
@@ -6082,7 +6082,7 @@
       <c r="C35" s="33"/>
       <c r="D35" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H35,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.9134611842239497E-2</v>
+        <v>4.92788432018662E-2</v>
       </c>
       <c r="F35" s="33" t="s">
         <v>114</v>
@@ -6106,7 +6106,7 @@
       <c r="C36" s="32"/>
       <c r="D36" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H36,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.6982028361355302E-2</v>
+        <v>3.9151690301129402E-2</v>
       </c>
       <c r="F36" s="32" t="s">
         <v>114</v>
@@ -6130,7 +6130,7 @@
       <c r="C37" s="33"/>
       <c r="D37" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H37,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.120504252519882</v>
+        <v>0.100420210433235</v>
       </c>
       <c r="F37" s="33" t="s">
         <v>114</v>
@@ -6154,7 +6154,7 @@
       <c r="C38" s="32"/>
       <c r="D38" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H38,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.16465051297265201</v>
+        <v>0.13720876081054401</v>
       </c>
       <c r="F38" s="32" t="s">
         <v>114</v>
@@ -6178,7 +6178,7 @@
       <c r="C39" s="33"/>
       <c r="D39" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H39,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.115618760253806</v>
+        <v>9.6348966878171502E-2</v>
       </c>
       <c r="F39" s="33" t="s">
         <v>114</v>
@@ -6202,7 +6202,7 @@
       <c r="C40" s="32"/>
       <c r="D40" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H40,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.24099011008044599</v>
+        <v>0.200825091733705</v>
       </c>
       <c r="F40" s="32" t="s">
         <v>114</v>
@@ -6240,7 +6240,7 @@
       </c>
       <c r="D42" s="32">
         <f t="shared" ref="D42:D52" si="9">AVERAGE(D6,D78)</f>
-        <v>0.1528008913749376</v>
+        <v>0.43569133982209951</v>
       </c>
       <c r="F42" s="32" t="s">
         <v>109</v>
@@ -6267,7 +6267,7 @@
       </c>
       <c r="D43" s="33">
         <f t="shared" si="9"/>
-        <v>7.3402048028933953E-3</v>
+        <v>4.2254222616694481E-2</v>
       </c>
       <c r="F43" s="33" t="s">
         <v>109</v>
@@ -6294,7 +6294,7 @@
       </c>
       <c r="D44" s="32">
         <f t="shared" si="9"/>
-        <v>5.4314481815592374E-3</v>
+        <v>4.5221363407621576E-2</v>
       </c>
       <c r="F44" s="32" t="s">
         <v>109</v>
@@ -6321,7 +6321,7 @@
       </c>
       <c r="D45" s="33">
         <f t="shared" si="9"/>
-        <v>2.2587406471325601E-2</v>
+        <v>9.0652735347130045E-2</v>
       </c>
       <c r="F45" s="33" t="s">
         <v>109</v>
@@ -6348,7 +6348,7 @@
       </c>
       <c r="D46" s="32">
         <f t="shared" si="9"/>
-        <v>2.5406290924250299E-2</v>
+        <v>0.44216237015129278</v>
       </c>
       <c r="F46" s="32" t="s">
         <v>109</v>
@@ -6375,7 +6375,7 @@
       </c>
       <c r="D47" s="33">
         <f t="shared" si="9"/>
-        <v>3.0423648377750551E-2</v>
+        <v>9.5574094033833407E-2</v>
       </c>
       <c r="F47" s="33" t="s">
         <v>109</v>
@@ -6402,7 +6402,7 @@
       </c>
       <c r="D48" s="32">
         <f t="shared" si="9"/>
-        <v>1.2023720455024919E-2</v>
+        <v>5.005778023052835E-2</v>
       </c>
       <c r="F48" s="32" t="s">
         <v>109</v>
@@ -6429,7 +6429,7 @@
       </c>
       <c r="D49" s="33">
         <f t="shared" si="9"/>
-        <v>5.2921783539597103E-2</v>
+        <v>0.12445385068331161</v>
       </c>
       <c r="F49" s="33" t="s">
         <v>109</v>
@@ -6456,7 +6456,7 @@
       </c>
       <c r="D50" s="32">
         <f t="shared" si="9"/>
-        <v>4.9506675305099501E-2</v>
+        <v>0.11858965076383715</v>
       </c>
       <c r="F50" s="32" t="s">
         <v>109</v>
@@ -6483,7 +6483,7 @@
       </c>
       <c r="D51" s="33">
         <f t="shared" si="9"/>
-        <v>1.738190021295305E-2</v>
+        <v>7.023431639574465E-2</v>
       </c>
       <c r="F51" s="33" t="s">
         <v>109</v>
@@ -6510,7 +6510,7 @@
       </c>
       <c r="D52" s="32">
         <f t="shared" si="9"/>
-        <v>8.9890643927955554E-4</v>
+        <v>2.7931052284335001E-3</v>
       </c>
       <c r="F52" s="32" t="s">
         <v>109</v>
@@ -6549,7 +6549,7 @@
       </c>
       <c r="D54" s="32">
         <f t="shared" ref="D54:D64" si="13">AVERAGE(D18,D91)</f>
-        <v>0.13757508933389442</v>
+        <v>0.211103808258606</v>
       </c>
       <c r="F54" s="32" t="s">
         <v>105</v>
@@ -6576,7 +6576,7 @@
       </c>
       <c r="D55" s="33">
         <f t="shared" si="13"/>
-        <v>1.8755504737112953E-2</v>
+        <v>5.6789129779838646E-2</v>
       </c>
       <c r="F55" s="33" t="s">
         <v>105</v>
@@ -6603,7 +6603,7 @@
       </c>
       <c r="D56" s="32">
         <f t="shared" si="13"/>
-        <v>6.72123287671235E-3</v>
+        <v>3.3606164383561649E-2</v>
       </c>
       <c r="F56" s="32" t="s">
         <v>105</v>
@@ -6630,7 +6630,7 @@
       </c>
       <c r="D57" s="33">
         <f t="shared" si="13"/>
-        <v>2.9676777946404852E-2</v>
+        <v>7.4808754437320241E-2</v>
       </c>
       <c r="F57" s="33" t="s">
         <v>105</v>
@@ -6657,7 +6657,7 @@
       </c>
       <c r="D58" s="32">
         <f t="shared" si="13"/>
-        <v>2.3774911335309026E-2</v>
+        <v>7.0886712228430571E-2</v>
       </c>
       <c r="F58" s="32" t="s">
         <v>105</v>
@@ -6684,7 +6684,7 @@
       </c>
       <c r="D59" s="33">
         <f t="shared" si="13"/>
-        <v>2.4961878258338448E-2</v>
+        <v>5.7341827023040151E-2</v>
       </c>
       <c r="F59" s="33" t="s">
         <v>105</v>
@@ -6711,7 +6711,7 @@
       </c>
       <c r="D60" s="32">
         <f t="shared" si="13"/>
-        <v>1.9851979150358402E-2</v>
+        <v>4.6710686933249396E-2</v>
       </c>
       <c r="F60" s="32" t="s">
         <v>105</v>
@@ -6738,7 +6738,7 @@
       </c>
       <c r="D61" s="33">
         <f t="shared" si="13"/>
-        <v>3.5251852813074448E-2</v>
+        <v>6.9918931863256345E-2</v>
       </c>
       <c r="F61" s="33" t="s">
         <v>105</v>
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D62" s="32">
         <f t="shared" si="13"/>
-        <v>3.5356636251858302E-2</v>
+        <v>6.6336034846957451E-2</v>
       </c>
       <c r="F62" s="32" t="s">
         <v>105</v>
@@ -6792,7 +6792,7 @@
       </c>
       <c r="D63" s="33">
         <f t="shared" si="13"/>
-        <v>5.4484908352032999E-2</v>
+        <v>9.3897937800385162E-2</v>
       </c>
       <c r="F63" s="33" t="s">
         <v>105</v>
@@ -6819,7 +6819,7 @@
       </c>
       <c r="D64" s="32">
         <f t="shared" si="13"/>
-        <v>9.6371031258262324E-3</v>
+        <v>1.3876175817105671E-2</v>
       </c>
       <c r="F64" s="32" t="s">
         <v>105</v>
@@ -6858,7 +6858,7 @@
       </c>
       <c r="D66" s="32">
         <f t="shared" ref="D66:D76" si="18">AVERAGE(D30,D104)</f>
-        <v>0.29527340147394254</v>
+        <v>0.27265121677642429</v>
       </c>
       <c r="F66" s="32" t="s">
         <v>114</v>
@@ -6885,7 +6885,7 @@
       </c>
       <c r="D67" s="33">
         <f t="shared" si="18"/>
-        <v>6.7726027397260503E-3</v>
+        <v>2.1164383561643851E-2</v>
       </c>
       <c r="F67" s="33" t="s">
         <v>114</v>
@@ -6912,7 +6912,7 @@
       </c>
       <c r="D68" s="32">
         <f t="shared" si="18"/>
-        <v>7.6715753424657501E-3</v>
+        <v>2.3973672945205499E-2</v>
       </c>
       <c r="F68" s="32" t="s">
         <v>114</v>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="D69" s="33">
         <f t="shared" si="18"/>
-        <v>5.3518479911912255E-2</v>
+        <v>6.9820820161344596E-2</v>
       </c>
       <c r="F69" s="33" t="s">
         <v>114</v>
@@ -6966,7 +6966,7 @@
       </c>
       <c r="D70" s="32">
         <f t="shared" si="18"/>
-        <v>3.4771475539781452E-2</v>
+        <v>4.6137119620811927E-2</v>
       </c>
       <c r="F70" s="32" t="s">
         <v>114</v>
@@ -6993,7 +6993,7 @@
       </c>
       <c r="D71" s="33">
         <f t="shared" si="18"/>
-        <v>3.8152557611937102E-2</v>
+        <v>5.1468333134737351E-2</v>
       </c>
       <c r="F71" s="33" t="s">
         <v>114</v>
@@ -7020,7 +7020,7 @@
       </c>
       <c r="D72" s="32">
         <f t="shared" si="18"/>
-        <v>3.1008650759600302E-2</v>
+        <v>4.3068459459698047E-2</v>
       </c>
       <c r="F72" s="32" t="s">
         <v>114</v>
@@ -7047,7 +7047,7 @@
       </c>
       <c r="D73" s="33">
         <f t="shared" si="18"/>
-        <v>6.8174234439631151E-2</v>
+        <v>6.2025894676084901E-2</v>
       </c>
       <c r="F73" s="33" t="s">
         <v>114</v>
@@ -7074,7 +7074,7 @@
       </c>
       <c r="D74" s="32">
         <f t="shared" si="18"/>
-        <v>8.9483268751498007E-2</v>
+        <v>9.0973168733934545E-2</v>
       </c>
       <c r="F74" s="32" t="s">
         <v>114</v>
@@ -7101,7 +7101,7 @@
       </c>
       <c r="D75" s="33">
         <f t="shared" si="18"/>
-        <v>6.705720075762131E-2</v>
+        <v>7.7073922910080403E-2</v>
       </c>
       <c r="F75" s="33" t="s">
         <v>114</v>
@@ -7128,7 +7128,7 @@
       </c>
       <c r="D76" s="32">
         <f t="shared" si="18"/>
-        <v>0.12131157231005595</v>
+        <v>0.10296416233508046</v>
       </c>
       <c r="F76" s="32" t="s">
         <v>114</v>
@@ -7163,7 +7163,7 @@
       <c r="C78" s="32"/>
       <c r="D78" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H78,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.4306956259161203E-2</v>
+        <v>0.45255796882634303</v>
       </c>
       <c r="F78" s="32" t="s">
         <v>109</v>
@@ -7187,7 +7187,7 @@
       <c r="C79" s="33"/>
       <c r="D79" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H79,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.0061643835616396E-3</v>
+        <v>7.5051369863013695E-2</v>
       </c>
       <c r="F79" s="33" t="s">
         <v>109</v>
@@ -7211,7 +7211,7 @@
       <c r="C80" s="32"/>
       <c r="D80" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H80,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.08506849315068E-2</v>
+        <v>9.0422374429223698E-2</v>
       </c>
       <c r="F80" s="32" t="s">
         <v>109</v>
@@ -7235,7 +7235,7 @@
       <c r="C81" s="33"/>
       <c r="D81" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H81,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.5902117368476298E-2</v>
+        <v>0.13251764473730199</v>
       </c>
       <c r="F81" s="33" t="s">
         <v>109</v>
@@ -7259,7 +7259,7 @@
       <c r="C82" s="32"/>
       <c r="D82" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H82,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.8837772266824751E-2</v>
+        <v>0.78392339737182426</v>
       </c>
       <c r="F82" s="32" t="s">
         <v>109</v>
@@ -7283,7 +7283,7 @@
       <c r="C83" s="33"/>
       <c r="D83" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H83,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.34604040212748E-2</v>
+        <v>0.112170033510623</v>
       </c>
       <c r="F83" s="33" t="s">
         <v>109</v>
@@ -7307,7 +7307,7 @@
       <c r="C84" s="32"/>
       <c r="D84" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H84,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.0054738416460393E-3</v>
+        <v>7.5045615347050301E-2</v>
       </c>
       <c r="F84" s="32" t="s">
         <v>109</v>
@@ -7331,7 +7331,7 @@
       <c r="C85" s="33"/>
       <c r="D85" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H85,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.0875263435194901E-2</v>
+        <v>9.0627195293291204E-2</v>
       </c>
       <c r="F85" s="33" t="s">
         <v>109</v>
@@ -7355,7 +7355,7 @@
       <c r="C86" s="32"/>
       <c r="D86" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H86,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.0823557576601301E-2</v>
+        <v>9.0196313138344295E-2</v>
       </c>
       <c r="F86" s="32" t="s">
         <v>109</v>
@@ -7379,7 +7379,7 @@
       <c r="C87" s="33"/>
       <c r="D87" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H87,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.23793448122469E-2</v>
+        <v>0.10316120676872401</v>
       </c>
       <c r="F87" s="33" t="s">
         <v>109</v>
@@ -7403,7 +7403,7 @@
       <c r="C88" s="32"/>
       <c r="D88" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H88,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.8847834889027099E-4</v>
+        <v>3.2373195740855901E-3</v>
       </c>
       <c r="F88" s="32" t="s">
         <v>109</v>
@@ -7427,7 +7427,7 @@
       <c r="C89" s="32"/>
       <c r="D89" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H89,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.0946059106357601E-2</v>
+        <v>0.143159113753899</v>
       </c>
       <c r="F89" s="32" t="s">
         <v>109</v>
@@ -7463,7 +7463,7 @@
       <c r="C91" s="32"/>
       <c r="D91" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H91,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.0871971515326802E-2</v>
+        <v>0.104359857576634</v>
       </c>
       <c r="F91" s="32" t="s">
         <v>105</v>
@@ -7487,7 +7487,7 @@
       <c r="C92" s="33"/>
       <c r="D92" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H92,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.7783866057838701E-2</v>
+        <v>8.8919330289193299E-2</v>
       </c>
       <c r="F92" s="33" t="s">
         <v>105</v>
@@ -7511,7 +7511,7 @@
       <c r="C93" s="32"/>
       <c r="D93" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H93,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.34424657534247E-2</v>
+        <v>6.7212328767123297E-2</v>
       </c>
       <c r="F93" s="32" t="s">
         <v>105</v>
@@ -7535,7 +7535,7 @@
       <c r="C94" s="33"/>
       <c r="D94" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H94,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.01134837356341E-2</v>
+        <v>0.100567418678171</v>
       </c>
       <c r="F94" s="33" t="s">
         <v>105</v>
@@ -7559,7 +7559,7 @@
       <c r="C95" s="32"/>
       <c r="D95" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H95,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.6397220281969702E-2</v>
+        <v>6.6402541005538801E-2</v>
       </c>
       <c r="F95" s="32" t="s">
         <v>105</v>
@@ -7583,7 +7583,7 @@
       <c r="C96" s="33"/>
       <c r="D96" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H96,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.39410555733958E-2</v>
+        <v>6.9705277866978901E-2</v>
       </c>
       <c r="F96" s="33" t="s">
         <v>105</v>
@@ -7607,7 +7607,7 @@
       <c r="C97" s="32"/>
       <c r="D97" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H97,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.16777135974941E-2</v>
+        <v>5.8388567987470399E-2</v>
       </c>
       <c r="F97" s="32" t="s">
         <v>105</v>
@@ -7631,7 +7631,7 @@
       <c r="C98" s="33"/>
       <c r="D98" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H98,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.3788861785020401E-2</v>
+        <v>6.8944308925102102E-2</v>
       </c>
       <c r="F98" s="33" t="s">
         <v>105</v>
@@ -7655,7 +7655,7 @@
       <c r="C99" s="32"/>
       <c r="D99" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H99,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.1808127750471799E-2</v>
+        <v>5.9040638752358897E-2</v>
       </c>
       <c r="F99" s="32" t="s">
         <v>105</v>
@@ -7679,7 +7679,7 @@
       <c r="C100" s="33"/>
       <c r="D100" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H100,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.3755627925516699E-2</v>
+        <v>6.8778139627583307E-2</v>
       </c>
       <c r="F100" s="33" t="s">
         <v>105</v>
@@ -7703,7 +7703,7 @@
       <c r="C101" s="32"/>
       <c r="D101" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H101,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.7589168523886695E-4</v>
+        <v>4.8794584261943399E-3</v>
       </c>
       <c r="F101" s="32" t="s">
         <v>105</v>
@@ -7727,7 +7727,7 @@
       <c r="C102" s="32"/>
       <c r="D102" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H102,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.36448583018159E-2</v>
+        <v>0.220198275095671</v>
       </c>
       <c r="F102" s="32" t="s">
         <v>105</v>
@@ -7763,7 +7763,7 @@
       <c r="C104" s="32"/>
       <c r="D104" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H104,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.3205860842012E-2</v>
+        <v>7.2518315131287606E-2</v>
       </c>
       <c r="F104" s="32" t="s">
         <v>114</v>
@@ -7787,7 +7787,7 @@
       <c r="C105" s="33"/>
       <c r="D105" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H105,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.3545205479452101E-2</v>
+        <v>4.2328767123287703E-2</v>
       </c>
       <c r="F105" s="33" t="s">
         <v>114</v>
@@ -7811,7 +7811,7 @@
       <c r="C106" s="32"/>
       <c r="D106" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H106,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.53431506849315E-2</v>
+        <v>4.7947345890410997E-2</v>
       </c>
       <c r="F106" s="32" t="s">
         <v>114</v>
@@ -7835,7 +7835,7 @@
       <c r="C107" s="33"/>
       <c r="D107" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H107,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.20120031139646E-2</v>
+        <v>6.8787509731139299E-2</v>
       </c>
       <c r="F107" s="33" t="s">
         <v>114</v>
@@ -7859,7 +7859,7 @@
       <c r="C108" s="32"/>
       <c r="D108" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H108,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.6905741708612799E-2</v>
+        <v>4.65144570452133E-2</v>
       </c>
       <c r="F108" s="32" t="s">
         <v>114</v>
@@ -7883,7 +7883,7 @@
       <c r="C109" s="33"/>
       <c r="D109" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H109,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.71705033816347E-2</v>
+        <v>5.3657823067608502E-2</v>
       </c>
       <c r="F109" s="33" t="s">
         <v>114</v>
@@ -7907,7 +7907,7 @@
       <c r="C110" s="32"/>
       <c r="D110" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H110,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.5035273157845299E-2</v>
+        <v>4.6985228618266699E-2</v>
       </c>
       <c r="F110" s="32" t="s">
         <v>114</v>
@@ -7931,7 +7931,7 @@
       <c r="C111" s="33"/>
       <c r="D111" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H111,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.5844216359380301E-2</v>
+        <v>2.36315789189348E-2</v>
       </c>
       <c r="F111" s="33" t="s">
         <v>114</v>
@@ -7955,7 +7955,7 @@
       <c r="C112" s="32"/>
       <c r="D112" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H112,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.4316024530344E-2</v>
+        <v>4.4737576657325098E-2</v>
       </c>
       <c r="F112" s="32" t="s">
         <v>114</v>
@@ -7979,7 +7979,7 @@
       <c r="C113" s="33"/>
       <c r="D113" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H113,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.8495641261436602E-2</v>
+        <v>5.7798878941989297E-2</v>
       </c>
       <c r="F113" s="33" t="s">
         <v>114</v>
@@ -8003,7 +8003,7 @@
       <c r="C114" s="32"/>
       <c r="D114" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H114,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.6330345396658901E-3</v>
+        <v>5.1032329364559198E-3</v>
       </c>
       <c r="F114" s="32" t="s">
         <v>114</v>
@@ -8027,7 +8027,7 @@
       <c r="C115" s="32"/>
       <c r="D115" s="40">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H115,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.6408942067286699E-2</v>
+        <v>0.145588074596397</v>
       </c>
       <c r="F115" s="32" t="s">
         <v>114</v>
@@ -8063,7 +8063,7 @@
       <c r="C117" s="32"/>
       <c r="D117" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H117,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.6752418704136399E-2</v>
+        <v>0.183575067201909</v>
       </c>
       <c r="F117" s="32" t="s">
         <v>109</v>
@@ -8087,7 +8087,7 @@
       <c r="C118" s="32"/>
       <c r="D118" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H118,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.1795378605209401E-2</v>
+        <v>0.113204385544111</v>
       </c>
       <c r="F118" s="32" t="s">
         <v>105</v>
@@ -8111,7 +8111,7 @@
       <c r="C119" s="32"/>
       <c r="D119" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H119,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.0026061338975703E-2</v>
+        <v>4.5889115871067698E-2</v>
       </c>
       <c r="F119" s="32" t="s">
         <v>114</v>
@@ -8150,7 +8150,7 @@
       </c>
       <c r="D121" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H121,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.6752418704136399E-2</v>
+        <v>0.183575067201909</v>
       </c>
       <c r="F121" s="32" t="s">
         <v>109</v>
@@ -8177,7 +8177,7 @@
       </c>
       <c r="D122" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H122,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.1795378605209401E-2</v>
+        <v>0.113204385544111</v>
       </c>
       <c r="F122" s="32" t="s">
         <v>105</v>
@@ -8204,7 +8204,7 @@
       </c>
       <c r="D123" s="38">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H123,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.0026061338975703E-2</v>
+        <v>4.5889115871067698E-2</v>
       </c>
       <c r="F123" s="38" t="s">
         <v>114</v>
@@ -8243,7 +8243,7 @@
       </c>
       <c r="D125" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H125,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.6752418704136399E-2</v>
+        <v>0.183575067201909</v>
       </c>
       <c r="F125" s="32" t="s">
         <v>109</v>
@@ -8270,7 +8270,7 @@
       </c>
       <c r="D126" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H126,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.1795378605209401E-2</v>
+        <v>0.113204385544111</v>
       </c>
       <c r="F126" s="32" t="s">
         <v>105</v>
@@ -8297,7 +8297,7 @@
       </c>
       <c r="D127" s="38">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H127,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.0026061338975703E-2</v>
+        <v>4.5889115871067698E-2</v>
       </c>
       <c r="F127" s="38" t="s">
         <v>114</v>
@@ -10336,10 +10336,10 @@
         <v>131</v>
       </c>
       <c r="L2">
-        <v>9.0061643835616396E-3</v>
+        <v>7.5051369863013695E-2</v>
       </c>
       <c r="M2">
-        <v>9.0061643835616396E-3</v>
+        <v>7.5051369863013695E-2</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -10377,10 +10377,10 @@
         <v>131</v>
       </c>
       <c r="L3">
-        <v>5.4306956259161203E-2</v>
+        <v>0.45255796882634303</v>
       </c>
       <c r="M3">
-        <v>5.4306956259161203E-2</v>
+        <v>0.45255796882634303</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -10418,10 +10418,10 @@
         <v>131</v>
       </c>
       <c r="L4">
-        <v>1.0747850331916199E-2</v>
+        <v>6.2549233288808403E-2</v>
       </c>
       <c r="M4">
-        <v>1.0747850331916199E-2</v>
+        <v>6.2549233288808403E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -10459,10 +10459,10 @@
         <v>131</v>
       </c>
       <c r="L5">
-        <v>4.6927694201733303E-2</v>
+        <v>1.5052975614548401</v>
       </c>
       <c r="M5">
-        <v>4.6927694201733303E-2</v>
+        <v>1.5052975614548401</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -10500,10 +10500,10 @@
         <v>131</v>
       </c>
       <c r="L6">
-        <v>1.08506849315068E-2</v>
+        <v>9.0422374429223698E-2</v>
       </c>
       <c r="M6">
-        <v>1.08506849315068E-2</v>
+        <v>9.0422374429223698E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -10541,10 +10541,10 @@
         <v>131</v>
       </c>
       <c r="L7">
-        <v>9.0054738416460393E-3</v>
+        <v>7.5045615347050301E-2</v>
       </c>
       <c r="M7">
-        <v>9.0054738416460393E-3</v>
+        <v>7.5045615347050301E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -10582,10 +10582,10 @@
         <v>131</v>
       </c>
       <c r="L8">
-        <v>3.8847834889027099E-4</v>
+        <v>3.2373195740855901E-3</v>
       </c>
       <c r="M8">
-        <v>3.8847834889027099E-4</v>
+        <v>3.2373195740855901E-3</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -10623,10 +10623,10 @@
         <v>131</v>
       </c>
       <c r="L9">
-        <v>1.34604040212748E-2</v>
+        <v>0.112170033510623</v>
       </c>
       <c r="M9">
-        <v>1.34604040212748E-2</v>
+        <v>0.112170033510623</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -10664,10 +10664,10 @@
         <v>131</v>
       </c>
       <c r="L10">
-        <v>1.5902117368476298E-2</v>
+        <v>0.13251764473730199</v>
       </c>
       <c r="M10">
-        <v>1.5902117368476298E-2</v>
+        <v>0.13251764473730199</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -10705,10 +10705,10 @@
         <v>131</v>
       </c>
       <c r="L11">
-        <v>1.0875263435194901E-2</v>
+        <v>9.0627195293291204E-2</v>
       </c>
       <c r="M11">
-        <v>1.0875263435194901E-2</v>
+        <v>9.0627195293291204E-2</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -10746,10 +10746,10 @@
         <v>131</v>
       </c>
       <c r="L12">
-        <v>1.0823557576601301E-2</v>
+        <v>9.0196313138344295E-2</v>
       </c>
       <c r="M12">
-        <v>1.0823557576601301E-2</v>
+        <v>9.0196313138344295E-2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -10787,10 +10787,10 @@
         <v>131</v>
       </c>
       <c r="L13">
-        <v>1.0946059106357601E-2</v>
+        <v>0.143159113753899</v>
       </c>
       <c r="M13">
-        <v>1.0946059106357601E-2</v>
+        <v>0.143159113753899</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -10828,10 +10828,10 @@
         <v>131</v>
       </c>
       <c r="L14">
-        <v>1.23793448122469E-2</v>
+        <v>0.10316120676872401</v>
       </c>
       <c r="M14">
-        <v>1.23793448122469E-2</v>
+        <v>0.10316120676872401</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -10869,10 +10869,10 @@
         <v>131</v>
       </c>
       <c r="L15">
-        <v>1.7783866057838701E-2</v>
+        <v>8.8919330289193299E-2</v>
       </c>
       <c r="M15">
-        <v>1.7783866057838701E-2</v>
+        <v>8.8919330289193299E-2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -10910,10 +10910,10 @@
         <v>131</v>
       </c>
       <c r="L16">
-        <v>2.0871971515326802E-2</v>
+        <v>0.104359857576634</v>
       </c>
       <c r="M16">
-        <v>2.0871971515326802E-2</v>
+        <v>0.104359857576634</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -10951,10 +10951,10 @@
         <v>131</v>
       </c>
       <c r="L17">
-        <v>1.6397220281969702E-2</v>
+        <v>6.6402541005538801E-2</v>
       </c>
       <c r="M17">
-        <v>1.6397220281969702E-2</v>
+        <v>6.6402541005538801E-2</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -10992,10 +10992,10 @@
         <v>131</v>
       </c>
       <c r="L18">
-        <v>2.9986743667255199E-2</v>
+        <v>0.66825318875216799</v>
       </c>
       <c r="M18">
-        <v>2.9986743667255199E-2</v>
+        <v>0.66825318875216799</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -11033,10 +11033,10 @@
         <v>131</v>
       </c>
       <c r="L19">
-        <v>1.34424657534247E-2</v>
+        <v>6.7212328767123297E-2</v>
       </c>
       <c r="M19">
-        <v>1.34424657534247E-2</v>
+        <v>6.7212328767123297E-2</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -11074,10 +11074,10 @@
         <v>131</v>
       </c>
       <c r="L20">
-        <v>1.16777135974941E-2</v>
+        <v>5.8388567987470399E-2</v>
       </c>
       <c r="M20">
-        <v>1.16777135974941E-2</v>
+        <v>5.8388567987470399E-2</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -11115,10 +11115,10 @@
         <v>131</v>
       </c>
       <c r="L21">
-        <v>9.7589168523886695E-4</v>
+        <v>4.8794584261943399E-3</v>
       </c>
       <c r="M21">
-        <v>9.7589168523886695E-4</v>
+        <v>4.8794584261943399E-3</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -11156,10 +11156,10 @@
         <v>131</v>
       </c>
       <c r="L22">
-        <v>1.39410555733958E-2</v>
+        <v>6.9705277866978901E-2</v>
       </c>
       <c r="M22">
-        <v>1.39410555733958E-2</v>
+        <v>6.9705277866978901E-2</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -11197,10 +11197,10 @@
         <v>131</v>
       </c>
       <c r="L23">
-        <v>2.01134837356341E-2</v>
+        <v>0.100567418678171</v>
       </c>
       <c r="M23">
-        <v>2.01134837356341E-2</v>
+        <v>0.100567418678171</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -11238,10 +11238,10 @@
         <v>131</v>
       </c>
       <c r="L24">
-        <v>1.3788861785020401E-2</v>
+        <v>6.8944308925102102E-2</v>
       </c>
       <c r="M24">
-        <v>1.3788861785020401E-2</v>
+        <v>6.8944308925102102E-2</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -11279,10 +11279,10 @@
         <v>131</v>
       </c>
       <c r="L25">
-        <v>1.1808127750471799E-2</v>
+        <v>5.9040638752358897E-2</v>
       </c>
       <c r="M25">
-        <v>1.1808127750471799E-2</v>
+        <v>5.9040638752358897E-2</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -11320,10 +11320,10 @@
         <v>131</v>
       </c>
       <c r="L26">
-        <v>4.36448583018159E-2</v>
+        <v>0.220198275095671</v>
       </c>
       <c r="M26">
-        <v>4.36448583018159E-2</v>
+        <v>0.220198275095671</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -11361,10 +11361,10 @@
         <v>131</v>
       </c>
       <c r="L27">
-        <v>1.3755627925516699E-2</v>
+        <v>6.8778139627583307E-2</v>
       </c>
       <c r="M27">
-        <v>1.3755627925516699E-2</v>
+        <v>6.8778139627583307E-2</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -11402,10 +11402,10 @@
         <v>131</v>
       </c>
       <c r="L28">
-        <v>1.3545205479452101E-2</v>
+        <v>4.2328767123287703E-2</v>
       </c>
       <c r="M28">
-        <v>1.3545205479452101E-2</v>
+        <v>4.2328767123287703E-2</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -11443,10 +11443,10 @@
         <v>131</v>
       </c>
       <c r="L29">
-        <v>2.3205860842012E-2</v>
+        <v>7.2518315131287606E-2</v>
       </c>
       <c r="M29">
-        <v>2.3205860842012E-2</v>
+        <v>7.2518315131287606E-2</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -11484,10 +11484,10 @@
         <v>131</v>
       </c>
       <c r="L30">
-        <v>1.6905741708612799E-2</v>
+        <v>4.65144570452133E-2</v>
       </c>
       <c r="M30">
-        <v>1.6905741708612799E-2</v>
+        <v>4.65144570452133E-2</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -11525,10 +11525,10 @@
         <v>131</v>
       </c>
       <c r="L31">
-        <v>2.8537772759784301E-2</v>
+        <v>0.45983560612562002</v>
       </c>
       <c r="M31">
-        <v>2.8537772759784301E-2</v>
+        <v>0.45983560612562002</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -11566,10 +11566,10 @@
         <v>131</v>
       </c>
       <c r="L32">
-        <v>1.53431506849315E-2</v>
+        <v>4.7947345890410997E-2</v>
       </c>
       <c r="M32">
-        <v>1.53431506849315E-2</v>
+        <v>4.7947345890410997E-2</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -11607,10 +11607,10 @@
         <v>131</v>
       </c>
       <c r="L33">
-        <v>1.5035273157845299E-2</v>
+        <v>4.6985228618266699E-2</v>
       </c>
       <c r="M33">
-        <v>1.5035273157845299E-2</v>
+        <v>4.6985228618266699E-2</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -11648,10 +11648,10 @@
         <v>131</v>
       </c>
       <c r="L34">
-        <v>1.6330345396658901E-3</v>
+        <v>5.1032329364559198E-3</v>
       </c>
       <c r="M34">
-        <v>1.6330345396658901E-3</v>
+        <v>5.1032329364559198E-3</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -11689,10 +11689,10 @@
         <v>131</v>
       </c>
       <c r="L35">
-        <v>1.71705033816347E-2</v>
+        <v>5.3657823067608502E-2</v>
       </c>
       <c r="M35">
-        <v>1.71705033816347E-2</v>
+        <v>5.3657823067608502E-2</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -11730,10 +11730,10 @@
         <v>131</v>
       </c>
       <c r="L36">
-        <v>2.20120031139646E-2</v>
+        <v>6.8787509731139299E-2</v>
       </c>
       <c r="M36">
-        <v>2.20120031139646E-2</v>
+        <v>6.8787509731139299E-2</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -11771,10 +11771,10 @@
         <v>131</v>
       </c>
       <c r="L37">
-        <v>1.5844216359380301E-2</v>
+        <v>2.36315789189348E-2</v>
       </c>
       <c r="M37">
-        <v>1.5844216359380301E-2</v>
+        <v>2.36315789189348E-2</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -11812,10 +11812,10 @@
         <v>131</v>
       </c>
       <c r="L38">
-        <v>1.4316024530344E-2</v>
+        <v>4.4737576657325098E-2</v>
       </c>
       <c r="M38">
-        <v>1.4316024530344E-2</v>
+        <v>4.4737576657325098E-2</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
@@ -11853,10 +11853,10 @@
         <v>131</v>
       </c>
       <c r="L39">
-        <v>4.6408942067286699E-2</v>
+        <v>0.145588074596397</v>
       </c>
       <c r="M39">
-        <v>4.6408942067286699E-2</v>
+        <v>0.145588074596397</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -11894,10 +11894,10 @@
         <v>131</v>
       </c>
       <c r="L40">
-        <v>1.8495641261436602E-2</v>
+        <v>5.7798878941989297E-2</v>
       </c>
       <c r="M40">
-        <v>1.8495641261436602E-2</v>
+        <v>5.7798878941989297E-2</v>
       </c>
     </row>
   </sheetData>
@@ -11995,10 +11995,10 @@
         <v>131</v>
       </c>
       <c r="L2">
-        <v>5.6742452222251502E-3</v>
+        <v>9.4570753703752605E-3</v>
       </c>
       <c r="M2">
-        <v>5.6742452222251502E-3</v>
+        <v>9.4570753703752605E-3</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -12036,10 +12036,10 @@
         <v>131</v>
       </c>
       <c r="L3">
-        <v>0.251294826490714</v>
+        <v>0.41882471081785599</v>
       </c>
       <c r="M3">
-        <v>0.251294826490714</v>
+        <v>0.41882471081785599</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -12077,10 +12077,10 @@
         <v>131</v>
       </c>
       <c r="L4">
-        <v>1.71972004592153E-2</v>
+        <v>1.7227618659613701E-2</v>
       </c>
       <c r="M4">
-        <v>1.71972004592153E-2</v>
+        <v>1.7227618659613701E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -12118,10 +12118,10 @@
         <v>131</v>
       </c>
       <c r="L5">
-        <v>2.6752418704136399E-2</v>
+        <v>0.183575067201909</v>
       </c>
       <c r="M5">
-        <v>2.6752418704136399E-2</v>
+        <v>0.183575067201909</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -12159,10 +12159,10 @@
         <v>131</v>
       </c>
       <c r="L6">
-        <v>1.22114316116754E-5</v>
+        <v>2.0352386019458902E-5</v>
       </c>
       <c r="M6">
-        <v>1.22114316116754E-5</v>
+        <v>2.0352386019458902E-5</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -12200,10 +12200,10 @@
         <v>131</v>
       </c>
       <c r="L7">
-        <v>1.50419670684038E-2</v>
+        <v>2.5069945114006401E-2</v>
       </c>
       <c r="M7">
-        <v>1.50419670684038E-2</v>
+        <v>2.5069945114006401E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -12241,10 +12241,10 @@
         <v>131</v>
       </c>
       <c r="L8">
-        <v>1.40933452966884E-3</v>
+        <v>2.3488908827814098E-3</v>
       </c>
       <c r="M8">
-        <v>1.40933452966884E-3</v>
+        <v>2.3488908827814098E-3</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -12282,10 +12282,10 @@
         <v>131</v>
       </c>
       <c r="L9">
-        <v>4.7386892734226298E-2</v>
+        <v>7.8978154557043795E-2</v>
       </c>
       <c r="M9">
-        <v>4.7386892734226298E-2</v>
+        <v>7.8978154557043795E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -12323,10 +12323,10 @@
         <v>131</v>
       </c>
       <c r="L10">
-        <v>2.92726955741749E-2</v>
+        <v>4.8787825956958103E-2</v>
       </c>
       <c r="M10">
-        <v>2.92726955741749E-2</v>
+        <v>4.8787825956958103E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -12364,10 +12364,10 @@
         <v>131</v>
       </c>
       <c r="L11">
-        <v>9.4968303643999302E-2</v>
+        <v>0.15828050607333199</v>
       </c>
       <c r="M11">
-        <v>9.4968303643999302E-2</v>
+        <v>0.15828050607333199</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -12405,10 +12405,10 @@
         <v>131</v>
       </c>
       <c r="L12">
-        <v>8.8189793033597697E-2</v>
+        <v>0.14698298838932999</v>
       </c>
       <c r="M12">
-        <v>8.8189793033597697E-2</v>
+        <v>0.14698298838932999</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -12446,10 +12446,10 @@
         <v>131</v>
       </c>
       <c r="L13">
-        <v>2.2384455613659201E-2</v>
+        <v>3.7307426022765301E-2</v>
       </c>
       <c r="M13">
-        <v>2.2384455613659201E-2</v>
+        <v>3.7307426022765301E-2</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -12487,10 +12487,10 @@
         <v>131</v>
       </c>
       <c r="L14">
-        <v>1.9727143416387202E-2</v>
+        <v>2.4658929270483999E-2</v>
       </c>
       <c r="M14">
-        <v>1.9727143416387202E-2</v>
+        <v>2.4658929270483999E-2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -12528,10 +12528,10 @@
         <v>131</v>
       </c>
       <c r="L15">
-        <v>0.25427820715246202</v>
+        <v>0.31784775894057798</v>
       </c>
       <c r="M15">
-        <v>0.25427820715246202</v>
+        <v>0.31784775894057798</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -12569,10 +12569,10 @@
         <v>131</v>
       </c>
       <c r="L16">
-        <v>4.0509826172087302E-2</v>
+        <v>3.7537381358533697E-2</v>
       </c>
       <c r="M16">
-        <v>4.0509826172087302E-2</v>
+        <v>3.7537381358533697E-2</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -12610,10 +12610,10 @@
         <v>131</v>
       </c>
       <c r="L17">
-        <v>2.1795378605209401E-2</v>
+        <v>0.113204385544111</v>
       </c>
       <c r="M17">
-        <v>2.1795378605209401E-2</v>
+        <v>0.113204385544111</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -12692,10 +12692,10 @@
         <v>131</v>
       </c>
       <c r="L19">
-        <v>2.8026244703222701E-2</v>
+        <v>3.5032805879028399E-2</v>
       </c>
       <c r="M19">
-        <v>2.8026244703222701E-2</v>
+        <v>3.5032805879028399E-2</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -12733,10 +12733,10 @@
         <v>131</v>
       </c>
       <c r="L20">
-        <v>1.82983145664136E-2</v>
+        <v>2.2872893208017001E-2</v>
       </c>
       <c r="M20">
-        <v>1.82983145664136E-2</v>
+        <v>2.2872893208017001E-2</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -12774,10 +12774,10 @@
         <v>131</v>
       </c>
       <c r="L21">
-        <v>3.5982700943281098E-2</v>
+        <v>4.4978376179101401E-2</v>
       </c>
       <c r="M21">
-        <v>3.5982700943281098E-2</v>
+        <v>4.4978376179101401E-2</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -12815,10 +12815,10 @@
         <v>131</v>
       </c>
       <c r="L22">
-        <v>3.92400721571756E-2</v>
+        <v>4.9050090196469498E-2</v>
       </c>
       <c r="M22">
-        <v>3.92400721571756E-2</v>
+        <v>4.9050090196469498E-2</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -12856,10 +12856,10 @@
         <v>131</v>
       </c>
       <c r="L23">
-        <v>5.6714843841128501E-2</v>
+        <v>7.0893554801410602E-2</v>
       </c>
       <c r="M23">
-        <v>5.6714843841128501E-2</v>
+        <v>7.0893554801410602E-2</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -12897,10 +12897,10 @@
         <v>131</v>
       </c>
       <c r="L24">
-        <v>5.8905144753244799E-2</v>
+        <v>7.3631430941555998E-2</v>
       </c>
       <c r="M24">
-        <v>5.8905144753244799E-2</v>
+        <v>7.3631430941555998E-2</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -12938,10 +12938,10 @@
         <v>131</v>
       </c>
       <c r="L25">
-        <v>9.52141887785493E-2</v>
+        <v>0.119017735973187</v>
       </c>
       <c r="M25">
-        <v>9.52141887785493E-2</v>
+        <v>0.119017735973187</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -13020,10 +13020,10 @@
         <v>131</v>
       </c>
       <c r="L27">
-        <v>0.56734094210587305</v>
+        <v>0.47278411842156098</v>
       </c>
       <c r="M27">
-        <v>0.56734094210587305</v>
+        <v>0.47278411842156098</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -13061,10 +13061,10 @@
         <v>131</v>
       </c>
       <c r="L28">
-        <v>6.5248357402924506E-2</v>
+        <v>4.5630448521753401E-2</v>
       </c>
       <c r="M28">
-        <v>6.5248357402924506E-2</v>
+        <v>4.5630448521753401E-2</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -13102,10 +13102,10 @@
         <v>131</v>
       </c>
       <c r="L29">
-        <v>4.0026061338975703E-2</v>
+        <v>4.5889115871067698E-2</v>
       </c>
       <c r="M29">
-        <v>4.0026061338975703E-2</v>
+        <v>4.5889115871067698E-2</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -13184,10 +13184,10 @@
         <v>131</v>
       </c>
       <c r="L31">
-        <v>4.6982028361355302E-2</v>
+        <v>3.9151690301129402E-2</v>
       </c>
       <c r="M31">
-        <v>4.6982028361355302E-2</v>
+        <v>3.9151690301129402E-2</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -13225,10 +13225,10 @@
         <v>131</v>
       </c>
       <c r="L32">
-        <v>0.24099011008044599</v>
+        <v>0.200825091733705</v>
       </c>
       <c r="M32">
-        <v>0.24099011008044599</v>
+        <v>0.200825091733705</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -13266,10 +13266,10 @@
         <v>131</v>
       </c>
       <c r="L33">
-        <v>5.9134611842239497E-2</v>
+        <v>4.92788432018662E-2</v>
       </c>
       <c r="M33">
-        <v>5.9134611842239497E-2</v>
+        <v>4.92788432018662E-2</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -13307,10 +13307,10 @@
         <v>131</v>
       </c>
       <c r="L34">
-        <v>8.5024956709859906E-2</v>
+        <v>7.0854130591549894E-2</v>
       </c>
       <c r="M34">
-        <v>8.5024956709859906E-2</v>
+        <v>7.0854130591549894E-2</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -13348,10 +13348,10 @@
         <v>131</v>
       </c>
       <c r="L35">
-        <v>0.120504252519882</v>
+        <v>0.100420210433235</v>
       </c>
       <c r="M35">
-        <v>0.120504252519882</v>
+        <v>0.100420210433235</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -13389,10 +13389,10 @@
         <v>131</v>
       </c>
       <c r="L36">
-        <v>0.16465051297265201</v>
+        <v>0.13720876081054401</v>
       </c>
       <c r="M36">
-        <v>0.16465051297265201</v>
+        <v>0.13720876081054401</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -13430,10 +13430,10 @@
         <v>131</v>
       </c>
       <c r="L37">
-        <v>0.115618760253806</v>
+        <v>9.6348966878171502E-2</v>
       </c>
       <c r="M37">
-        <v>0.115618760253806</v>
+        <v>9.6348966878171502E-2</v>
       </c>
     </row>
   </sheetData>

--- a/SubRES_TMPL/SubRes_RSD_Trans.xlsx
+++ b/SubRES_TMPL/SubRes_RSD_Trans.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VEDA_Models\2-NewVeda\TIMES-Ireland-model\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320BEF39-B02D-4599-B7F6-C02704756940}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B608DC-1C07-4F49-91A3-521CF5249FB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" tabRatio="819" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" firstSheet="6" activeTab="6" xr2:uid="{DF4C35E6-02C2-4233-84CE-A7CCAFFA4B20}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="819" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOG" sheetId="64" r:id="rId1"/>
@@ -74,7 +73,7 @@
     <author>Alessandro Chiodi</author>
   </authors>
   <commentList>
-    <comment ref="D115" authorId="0" shapeId="0" xr:uid="{252C524F-867C-494B-8549-0779FBA2A96C}">
+    <comment ref="D123" authorId="0" shapeId="0" xr:uid="{252C524F-867C-494B-8549-0779FBA2A96C}">
       <text>
         <r>
           <rPr>
@@ -98,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H117" authorId="0" shapeId="0" xr:uid="{08155CC9-5232-4BA3-8E7D-2782073BC52D}">
+    <comment ref="H125" authorId="0" shapeId="0" xr:uid="{08155CC9-5232-4BA3-8E7D-2782073BC52D}">
       <text>
         <r>
           <rPr>
@@ -122,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H118" authorId="0" shapeId="0" xr:uid="{18A1B250-FDBD-4085-B842-EA94AB62C50C}">
+    <comment ref="H126" authorId="0" shapeId="0" xr:uid="{18A1B250-FDBD-4085-B842-EA94AB62C50C}">
       <text>
         <r>
           <rPr>
@@ -146,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H119" authorId="0" shapeId="0" xr:uid="{D04A0774-4BB1-4E99-9BCD-45E2F1A6AC6C}">
+    <comment ref="H127" authorId="0" shapeId="0" xr:uid="{D04A0774-4BB1-4E99-9BCD-45E2F1A6AC6C}">
       <text>
         <r>
           <rPr>
@@ -170,7 +169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H121" authorId="0" shapeId="0" xr:uid="{E2B5B631-C1AB-456E-AC2B-816F7B2C69C1}">
+    <comment ref="H129" authorId="0" shapeId="0" xr:uid="{E2B5B631-C1AB-456E-AC2B-816F7B2C69C1}">
       <text>
         <r>
           <rPr>
@@ -194,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H122" authorId="0" shapeId="0" xr:uid="{C376D617-8F0A-44E5-83D3-958CBFADFD31}">
+    <comment ref="H130" authorId="0" shapeId="0" xr:uid="{C376D617-8F0A-44E5-83D3-958CBFADFD31}">
       <text>
         <r>
           <rPr>
@@ -218,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H123" authorId="0" shapeId="0" xr:uid="{5B2CC33F-B70C-4EB5-AF3E-09C8B0B59273}">
+    <comment ref="H131" authorId="0" shapeId="0" xr:uid="{5B2CC33F-B70C-4EB5-AF3E-09C8B0B59273}">
       <text>
         <r>
           <rPr>
@@ -495,7 +494,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2669" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2685" uniqueCount="277">
   <si>
     <t>IE</t>
   </si>
@@ -1320,6 +1319,30 @@
   </si>
   <si>
     <t>R-WH_Det_SOL_X0</t>
+  </si>
+  <si>
+    <t>R-SH_Att_FPL*</t>
+  </si>
+  <si>
+    <t>R-SH_Det_FPL*</t>
+  </si>
+  <si>
+    <t>R-SW_Att_FPL*</t>
+  </si>
+  <si>
+    <t>R-SW_Det_FPL*</t>
+  </si>
+  <si>
+    <t>R-SH_Att_HVO*</t>
+  </si>
+  <si>
+    <t>R-SH_Det_HVO*</t>
+  </si>
+  <si>
+    <t>R-SW_Att_HVO*</t>
+  </si>
+  <si>
+    <t>R-SW_Det_HVO*</t>
   </si>
 </sst>
 </file>
@@ -2239,7 +2262,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2311,9 +2333,6 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1">
-      <selection activeCell="M43" sqref="M43"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2409,7 +2428,6 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2587,7 +2605,6 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2685,7 +2702,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2866,7 +2882,6 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2962,9 +2977,6 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1">
-      <selection activeCell="L4" sqref="L4"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -3144,7 +3156,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -3242,7 +3253,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -3341,7 +3351,6 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4109,7 +4118,6 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4306,7 +4314,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="X18" sqref="X18"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5155,12 +5162,11 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:L127"/>
+  <dimension ref="A1:L135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5789,7 +5795,7 @@
         <v>244</v>
       </c>
       <c r="B23" s="33" t="str">
-        <f t="shared" ref="B23:B28" si="3">"R-SH*"&amp;F23&amp;"_"&amp;G23&amp;"*"</f>
+        <f t="shared" ref="B23:B30" si="3">"R-SH*"&amp;F23&amp;"_"&amp;G23&amp;"*"</f>
         <v>R-SH*Att_KER*</v>
       </c>
       <c r="C23" s="33"/>
@@ -5819,185 +5825,171 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="B24" s="32" t="str">
+      <c r="B24" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33">
+        <f>D23</f>
+        <v>3.5982700943281098E-2</v>
+      </c>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+    </row>
+    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="B25" s="32" t="str">
         <f t="shared" si="3"/>
         <v>R-SH*Att_GAS*</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H24,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H25,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>2.8026244703222701E-2</v>
       </c>
-      <c r="F24" s="32" t="s">
+      <c r="F25" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="G24" s="32" t="s">
+      <c r="G25" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="H24" s="32" t="str">
-        <f>"R-S*_"&amp;F23&amp;"_"&amp;G24&amp;"*"</f>
+      <c r="H25" s="32" t="str">
+        <f>"R-S*_"&amp;F23&amp;"_"&amp;G25&amp;"*"</f>
         <v>R-S*_Att_GAS*</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="33" t="s">
+    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="33" t="str">
+      <c r="B26" s="33" t="str">
         <f t="shared" si="3"/>
         <v>R-SH*Att_PEA*</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H25,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H26,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>5.6714843841128501E-2</v>
       </c>
-      <c r="F25" s="33" t="s">
+      <c r="F26" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="G25" s="33" t="s">
+      <c r="G26" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="H25" s="33" t="str">
-        <f>"R-S*_"&amp;F25&amp;"_"&amp;G25&amp;"*"</f>
+      <c r="H26" s="33" t="str">
+        <f>"R-S*_"&amp;F26&amp;"_"&amp;G26&amp;"*"</f>
         <v>R-S*_Att_PEA*</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
+    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="32" t="str">
+      <c r="B27" s="32" t="str">
         <f t="shared" si="3"/>
         <v>R-SH*Att_SMF*</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H26,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H27,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>5.8905144753244799E-2</v>
       </c>
-      <c r="F26" s="32" t="s">
+      <c r="F27" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="G26" s="32" t="s">
+      <c r="G27" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="H26" s="32" t="str">
-        <f>"R-S*_"&amp;F26&amp;"_"&amp;G26&amp;"*"</f>
+      <c r="H27" s="32" t="str">
+        <f>"R-S*_"&amp;F27&amp;"_"&amp;G27&amp;"*"</f>
         <v>R-S*_Att_SMF*</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
+    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="B27" s="33" t="str">
-        <f t="shared" si="3"/>
+      <c r="B28" s="33" t="str">
+        <f>"R-SH*"&amp;F28&amp;"_"&amp;G28&amp;"*"</f>
         <v>R-SH*Att_WOO*</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H27,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H28,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>9.52141887785493E-2</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F28" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="G27" s="33" t="s">
+      <c r="G28" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="H27" s="33" t="str">
-        <f>"R-S*_"&amp;F27&amp;"_"&amp;G27&amp;"*"</f>
+      <c r="H28" s="33" t="str">
+        <f>"R-S*_"&amp;F28&amp;"_"&amp;G28&amp;"*"</f>
         <v>R-S*_Att_WOO*</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>R-SH*Att_HET*</v>
-      </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H28,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.82983145664136E-2</v>
-      </c>
-      <c r="F28" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="G28" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="H28" s="32" t="str">
-        <f>"R-S*_"&amp;F28&amp;"_"&amp;G28&amp;"*"</f>
-        <v>R-S*_Att_HET*</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
+    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33">
+        <f>D28</f>
+        <v>9.52141887785493E-2</v>
+      </c>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
     </row>
     <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B30" s="32" t="str">
-        <f>"R-SH*"&amp;F30&amp;"_"&amp;G30&amp;"*"</f>
-        <v>R-SH*Det_COA*</v>
+        <f t="shared" si="3"/>
+        <v>R-SH*Att_HET*</v>
       </c>
       <c r="C30" s="32"/>
       <c r="D30" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H30,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.56734094210587305</v>
+        <v>1.82983145664136E-2</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="G30" s="32" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H30" s="32" t="str">
-        <f t="shared" ref="H30:H33" si="5">"R-S*_"&amp;F30&amp;"_"&amp;G30&amp;"*"</f>
-        <v>R-S*_Det_COA*</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="33" t="str">
-        <f>"R-SH*"&amp;F31&amp;"_"&amp;G31&amp;"*"</f>
-        <v>R-SH*Det_BDL*</v>
-      </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H31,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="G31" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="H31" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>R-S*_Det_BDL*</v>
-      </c>
-      <c r="I31" s="25"/>
+        <f>"R-S*_"&amp;F30&amp;"_"&amp;G30&amp;"*"</f>
+        <v>R-S*_Att_HET*</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
     </row>
     <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
@@ -6005,468 +5997,441 @@
       </c>
       <c r="B32" s="32" t="str">
         <f>"R-SH*"&amp;F32&amp;"_"&amp;G32&amp;"*"</f>
-        <v>R-SH*Det_ETH*</v>
+        <v>R-SH*Det_COA*</v>
       </c>
       <c r="C32" s="32"/>
       <c r="D32" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H32,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
+        <v>0.56734094210587305</v>
       </c>
       <c r="F32" s="32" t="s">
         <v>114</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>190</v>
+        <v>82</v>
       </c>
       <c r="H32" s="32" t="str">
-        <f t="shared" si="5"/>
-        <v>R-S*_Det_ETH*</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H32:H35" si="5">"R-S*_"&amp;F32&amp;"_"&amp;G32&amp;"*"</f>
+        <v>R-S*_Det_COA*</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
-        <v>244</v>
+        <v>1</v>
       </c>
       <c r="B33" s="33" t="str">
         <f>"R-SH*"&amp;F33&amp;"_"&amp;G33&amp;"*"</f>
-        <v>R-SH*Det_LPG*</v>
+        <v>R-SH*Det_BDL*</v>
       </c>
       <c r="C33" s="33"/>
       <c r="D33" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H33,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>8.5024956709859906E-2</v>
+        <v>0</v>
       </c>
       <c r="F33" s="33" t="s">
         <v>114</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H33" s="33" t="str">
         <f t="shared" si="5"/>
-        <v>R-S*_Det_LPG*</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>R-S*_Det_BDL*</v>
+      </c>
+      <c r="I33" s="25"/>
+    </row>
+    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="s">
-        <v>244</v>
+        <v>1</v>
       </c>
       <c r="B34" s="32" t="str">
         <f>"R-SH*"&amp;F34&amp;"_"&amp;G34&amp;"*"</f>
-        <v>R-SH*Det_ELC*</v>
+        <v>R-SH*Det_ETH*</v>
       </c>
       <c r="C34" s="32"/>
       <c r="D34" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H34,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.2637209370950108E-2</v>
+        <v>0</v>
       </c>
       <c r="F34" s="32" t="s">
         <v>114</v>
       </c>
       <c r="G34" s="32" t="s">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="H34" s="32" t="str">
-        <f>"R-S*_"&amp;F34&amp;"_"&amp;G34&amp;"*"</f>
-        <v>R-S*_Det_ELC*</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>R-S*_Det_ETH*</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
         <v>244</v>
       </c>
       <c r="B35" s="33" t="str">
-        <f t="shared" ref="B35:B40" si="6">"R-SH*"&amp;F35&amp;"_"&amp;G35&amp;"*"</f>
-        <v>R-SH*Det_KER*</v>
+        <f>"R-SH*"&amp;F35&amp;"_"&amp;G35&amp;"*"</f>
+        <v>R-SH*Det_LPG*</v>
       </c>
       <c r="C35" s="33"/>
       <c r="D35" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H35,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.9134611842239497E-2</v>
+        <v>8.5024956709859906E-2</v>
       </c>
       <c r="F35" s="33" t="s">
         <v>114</v>
       </c>
       <c r="G35" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H35" s="33" t="str">
-        <f t="shared" ref="H35" si="7">"R-S*_"&amp;F35&amp;"_"&amp;G35&amp;"*"</f>
-        <v>R-S*_Det_KER*</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>R-S*_Det_LPG*</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
         <v>244</v>
       </c>
       <c r="B36" s="32" t="str">
-        <f t="shared" si="6"/>
-        <v>R-SH*Det_GAS*</v>
+        <f>"R-SH*"&amp;F36&amp;"_"&amp;G36&amp;"*"</f>
+        <v>R-SH*Det_ELC*</v>
       </c>
       <c r="C36" s="32"/>
       <c r="D36" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H36,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.6982028361355302E-2</v>
+        <v>5.2637209370950108E-2</v>
       </c>
       <c r="F36" s="32" t="s">
         <v>114</v>
       </c>
       <c r="G36" s="32" t="s">
-        <v>194</v>
+        <v>83</v>
       </c>
       <c r="H36" s="32" t="str">
-        <f>"R-S*_"&amp;F35&amp;"_"&amp;G36&amp;"*"</f>
-        <v>R-S*_Det_GAS*</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <f>"R-S*_"&amp;F36&amp;"_"&amp;G36&amp;"*"</f>
+        <v>R-S*_Det_ELC*</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
-        <v>1</v>
+        <v>244</v>
       </c>
       <c r="B37" s="33" t="str">
-        <f t="shared" si="6"/>
-        <v>R-SH*Det_PEA*</v>
+        <f t="shared" ref="B37:B44" si="6">"R-SH*"&amp;F37&amp;"_"&amp;G37&amp;"*"</f>
+        <v>R-SH*Det_KER*</v>
       </c>
       <c r="C37" s="33"/>
       <c r="D37" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H37,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.120504252519882</v>
+        <v>5.9134611842239497E-2</v>
       </c>
       <c r="F37" s="33" t="s">
         <v>114</v>
       </c>
       <c r="G37" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="H37" s="33" t="str">
+        <f t="shared" ref="H37" si="7">"R-S*_"&amp;F37&amp;"_"&amp;G37&amp;"*"</f>
+        <v>R-S*_Det_KER*</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33">
+        <f>D37</f>
+        <v>5.9134611842239497E-2</v>
+      </c>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+    </row>
+    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="B39" s="32" t="str">
+        <f t="shared" si="6"/>
+        <v>R-SH*Det_GAS*</v>
+      </c>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H39,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>4.6982028361355302E-2</v>
+      </c>
+      <c r="F39" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G39" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="H39" s="32" t="str">
+        <f>"R-S*_"&amp;F37&amp;"_"&amp;G39&amp;"*"</f>
+        <v>R-S*_Det_GAS*</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>R-SH*Det_PEA*</v>
+      </c>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H40,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>0.120504252519882</v>
+      </c>
+      <c r="F40" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G40" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="H37" s="33" t="str">
-        <f>"R-S*_"&amp;F37&amp;"_"&amp;G37&amp;"*"</f>
+      <c r="H40" s="33" t="str">
+        <f>"R-S*_"&amp;F40&amp;"_"&amp;G40&amp;"*"</f>
         <v>R-S*_Det_PEA*</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="32" t="str">
+      <c r="B41" s="32" t="str">
         <f t="shared" si="6"/>
         <v>R-SH*Det_SMF*</v>
       </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H38,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H41,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.16465051297265201</v>
       </c>
-      <c r="F38" s="32" t="s">
+      <c r="F41" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="G38" s="32" t="s">
+      <c r="G41" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="H38" s="32" t="str">
-        <f>"R-S*_"&amp;F38&amp;"_"&amp;G38&amp;"*"</f>
+      <c r="H41" s="32" t="str">
+        <f>"R-S*_"&amp;F41&amp;"_"&amp;G41&amp;"*"</f>
         <v>R-S*_Det_SMF*</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="33" t="s">
+    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="B39" s="33" t="str">
+      <c r="B42" s="33" t="str">
         <f t="shared" si="6"/>
         <v>R-SH*Det_WOO*</v>
       </c>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H39,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H42,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.115618760253806</v>
       </c>
-      <c r="F39" s="33" t="s">
+      <c r="F42" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="G39" s="33" t="s">
+      <c r="G42" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="H39" s="33" t="str">
-        <f>"R-S*_"&amp;F39&amp;"_"&amp;G39&amp;"*"</f>
+      <c r="H42" s="33" t="str">
+        <f>"R-S*_"&amp;F42&amp;"_"&amp;G42&amp;"*"</f>
         <v>R-S*_Det_WOO*</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="32" t="s">
+    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33">
+        <f>D42</f>
+        <v>0.115618760253806</v>
+      </c>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+    </row>
+    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="32" t="str">
+      <c r="B44" s="32" t="str">
         <f t="shared" si="6"/>
         <v>R-SH*Det_HET*</v>
       </c>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H40,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H44,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.24099011008044599</v>
       </c>
-      <c r="F40" s="32" t="s">
+      <c r="F44" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="G40" s="32" t="s">
+      <c r="G44" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="H40" s="32" t="str">
-        <f>"R-S*_"&amp;F40&amp;"_"&amp;G40&amp;"*"</f>
+      <c r="H44" s="32" t="str">
+        <f>"R-S*_"&amp;F44&amp;"_"&amp;G44&amp;"*"</f>
         <v>R-S*_Det_HET*</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="29" t="s">
+    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="31"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-    </row>
-    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="32" t="s">
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="31"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+    </row>
+    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="32" t="s">
         <v>1</v>
-      </c>
-      <c r="B42" s="32" t="str">
-        <f>"R-SW*"&amp;F42&amp;"_"&amp;G42&amp;"*"</f>
-        <v>R-SW*Apt_COA*</v>
-      </c>
-      <c r="C42" s="32" t="str">
-        <f t="shared" ref="C42:C52" si="8">"RSDSH_"&amp;F42&amp;",RSDWH_"&amp;F54</f>
-        <v>RSDSH_Apt,RSDWH_Att</v>
-      </c>
-      <c r="D42" s="32">
-        <f t="shared" ref="D42:D52" si="9">AVERAGE(D6,D78)</f>
-        <v>0.1528008913749376</v>
-      </c>
-      <c r="F42" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="G42" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="H42" s="32" t="str">
-        <f t="shared" ref="H42:H45" si="10">"R-S*_"&amp;F42&amp;"_"&amp;G42&amp;"*"</f>
-        <v>R-S*_Apt_COA*</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" s="33" t="str">
-        <f>"R-SW*"&amp;F43&amp;"_"&amp;G43&amp;"*"</f>
-        <v>R-SW*Apt_BDL*</v>
-      </c>
-      <c r="C43" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>RSDSH_Apt,RSDWH_Att</v>
-      </c>
-      <c r="D43" s="33">
-        <f t="shared" si="9"/>
-        <v>7.3402048028933953E-3</v>
-      </c>
-      <c r="F43" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="G43" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="H43" s="33" t="str">
-        <f t="shared" si="10"/>
-        <v>R-S*_Apt_BDL*</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B44" s="32" t="str">
-        <f>"R-SW*"&amp;F44&amp;"_"&amp;G44&amp;"*"</f>
-        <v>R-SW*Apt_ETH*</v>
-      </c>
-      <c r="C44" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>RSDSH_Apt,RSDWH_Att</v>
-      </c>
-      <c r="D44" s="32">
-        <f t="shared" si="9"/>
-        <v>5.4314481815592374E-3</v>
-      </c>
-      <c r="F44" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="G44" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="H44" s="32" t="str">
-        <f t="shared" si="10"/>
-        <v>R-S*_Apt_ETH*</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="B45" s="33" t="str">
-        <f>"R-SW*"&amp;F45&amp;"_"&amp;G45&amp;"*"</f>
-        <v>R-SW*Apt_LPG*</v>
-      </c>
-      <c r="C45" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>RSDSH_Apt,RSDWH_Att</v>
-      </c>
-      <c r="D45" s="33">
-        <f t="shared" si="9"/>
-        <v>2.2587406471325601E-2</v>
-      </c>
-      <c r="F45" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="G45" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="H45" s="33" t="str">
-        <f t="shared" si="10"/>
-        <v>R-S*_Apt_LPG*</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="32" t="s">
-        <v>198</v>
       </c>
       <c r="B46" s="32" t="str">
         <f>"R-SW*"&amp;F46&amp;"_"&amp;G46&amp;"*"</f>
-        <v>R-SW*Apt_ELC*</v>
+        <v>R-SW*Apt_COA*</v>
       </c>
       <c r="C46" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f>"RSDSH_"&amp;F46&amp;",RSDWH_"&amp;F58</f>
         <v>RSDSH_Apt,RSDWH_Att</v>
       </c>
       <c r="D46" s="32">
-        <f t="shared" si="9"/>
-        <v>2.5406290924250299E-2</v>
+        <f>AVERAGE(D6,D86)</f>
+        <v>0.1528008913749376</v>
       </c>
       <c r="F46" s="32" t="s">
         <v>109</v>
       </c>
       <c r="G46" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H46" s="32" t="str">
-        <f>"R-S*_"&amp;F46&amp;"_"&amp;G46&amp;"*"</f>
-        <v>R-S*_Apt_ELC*</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H46:H49" si="8">"R-S*_"&amp;F46&amp;"_"&amp;G46&amp;"*"</f>
+        <v>R-S*_Apt_COA*</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="33" t="s">
-        <v>198</v>
+        <v>1</v>
       </c>
       <c r="B47" s="33" t="str">
-        <f t="shared" ref="B47:B52" si="11">"R-SW*"&amp;F47&amp;"_"&amp;G47&amp;"*"</f>
-        <v>R-SW*Apt_KER*</v>
+        <f>"R-SW*"&amp;F47&amp;"_"&amp;G47&amp;"*"</f>
+        <v>R-SW*Apt_BDL*</v>
       </c>
       <c r="C47" s="33" t="str">
-        <f t="shared" si="8"/>
+        <f>"RSDSH_"&amp;F47&amp;",RSDWH_"&amp;F59</f>
         <v>RSDSH_Apt,RSDWH_Att</v>
       </c>
       <c r="D47" s="33">
-        <f t="shared" si="9"/>
-        <v>3.0423648377750551E-2</v>
+        <f>AVERAGE(D7,D87)</f>
+        <v>7.3402048028933953E-3</v>
       </c>
       <c r="F47" s="33" t="s">
         <v>109</v>
       </c>
       <c r="G47" s="33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H47" s="33" t="str">
-        <f t="shared" ref="H47" si="12">"R-S*_"&amp;F47&amp;"_"&amp;G47&amp;"*"</f>
-        <v>R-S*_Apt_KER*</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>R-S*_Apt_BDL*</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="32" t="s">
-        <v>198</v>
+        <v>1</v>
       </c>
       <c r="B48" s="32" t="str">
-        <f t="shared" si="11"/>
-        <v>R-SW*Apt_GAS*</v>
+        <f>"R-SW*"&amp;F48&amp;"_"&amp;G48&amp;"*"</f>
+        <v>R-SW*Apt_ETH*</v>
       </c>
       <c r="C48" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f>"RSDSH_"&amp;F48&amp;",RSDWH_"&amp;F60</f>
         <v>RSDSH_Apt,RSDWH_Att</v>
       </c>
       <c r="D48" s="32">
-        <f t="shared" si="9"/>
-        <v>1.2023720455024919E-2</v>
+        <f>AVERAGE(D8,D88)</f>
+        <v>5.4314481815592374E-3</v>
       </c>
       <c r="F48" s="32" t="s">
         <v>109</v>
       </c>
       <c r="G48" s="32" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H48" s="32" t="str">
-        <f>"R-S*_"&amp;F47&amp;"_"&amp;G48&amp;"*"</f>
-        <v>R-S*_Apt_GAS*</v>
+        <f t="shared" si="8"/>
+        <v>R-S*_Apt_ETH*</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="33" t="s">
-        <v>1</v>
+        <v>198</v>
       </c>
       <c r="B49" s="33" t="str">
-        <f t="shared" si="11"/>
-        <v>R-SW*Apt_PEA*</v>
+        <f>"R-SW*"&amp;F49&amp;"_"&amp;G49&amp;"*"</f>
+        <v>R-SW*Apt_LPG*</v>
       </c>
       <c r="C49" s="33" t="str">
-        <f t="shared" si="8"/>
+        <f>"RSDSH_"&amp;F49&amp;",RSDWH_"&amp;F61</f>
         <v>RSDSH_Apt,RSDWH_Att</v>
       </c>
       <c r="D49" s="33">
-        <f t="shared" si="9"/>
-        <v>5.2921783539597103E-2</v>
+        <f>AVERAGE(D9,D89)</f>
+        <v>2.2587406471325601E-2</v>
       </c>
       <c r="F49" s="33" t="s">
         <v>109</v>
       </c>
       <c r="G49" s="33" t="s">
-        <v>110</v>
+        <v>192</v>
       </c>
       <c r="H49" s="33" t="str">
-        <f>"R-S*_"&amp;F49&amp;"_"&amp;G49&amp;"*"</f>
-        <v>R-S*_Apt_PEA*</v>
+        <f t="shared" si="8"/>
+        <v>R-S*_Apt_LPG*</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
-        <v>1</v>
+        <v>198</v>
       </c>
       <c r="B50" s="32" t="str">
-        <f t="shared" si="11"/>
-        <v>R-SW*Apt_SMF*</v>
+        <f>"R-SW*"&amp;F50&amp;"_"&amp;G50&amp;"*"</f>
+        <v>R-SW*Apt_ELC*</v>
       </c>
       <c r="C50" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f>"RSDSH_"&amp;F50&amp;",RSDWH_"&amp;F62</f>
         <v>RSDSH_Apt,RSDWH_Att</v>
       </c>
       <c r="D50" s="32">
-        <f t="shared" si="9"/>
-        <v>4.9506675305099501E-2</v>
+        <f>AVERAGE(D10,D90)</f>
+        <v>2.5406290924250299E-2</v>
       </c>
       <c r="F50" s="32" t="s">
         <v>109</v>
       </c>
       <c r="G50" s="32" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="H50" s="32" t="str">
         <f>"R-S*_"&amp;F50&amp;"_"&amp;G50&amp;"*"</f>
-        <v>R-S*_Apt_SMF*</v>
+        <v>R-S*_Apt_ELC*</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -6474,26 +6439,26 @@
         <v>198</v>
       </c>
       <c r="B51" s="33" t="str">
-        <f t="shared" si="11"/>
-        <v>R-SW*Apt_WOO*</v>
+        <f t="shared" ref="B51:B56" si="9">"R-SW*"&amp;F51&amp;"_"&amp;G51&amp;"*"</f>
+        <v>R-SW*Apt_KER*</v>
       </c>
       <c r="C51" s="33" t="str">
-        <f t="shared" si="8"/>
+        <f>"RSDSH_"&amp;F51&amp;",RSDWH_"&amp;F63</f>
         <v>RSDSH_Apt,RSDWH_Att</v>
       </c>
       <c r="D51" s="33">
-        <f t="shared" si="9"/>
-        <v>1.738190021295305E-2</v>
+        <f>AVERAGE(D11,D91)</f>
+        <v>3.0423648377750551E-2</v>
       </c>
       <c r="F51" s="33" t="s">
         <v>109</v>
       </c>
       <c r="G51" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H51" s="33" t="str">
-        <f>"R-S*_"&amp;F51&amp;"_"&amp;G51&amp;"*"</f>
-        <v>R-S*_Apt_WOO*</v>
+        <f t="shared" ref="H51" si="10">"R-S*_"&amp;F51&amp;"_"&amp;G51&amp;"*"</f>
+        <v>R-S*_Apt_KER*</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -6501,281 +6466,281 @@
         <v>198</v>
       </c>
       <c r="B52" s="32" t="str">
-        <f t="shared" si="11"/>
-        <v>R-SW*Apt_HET*</v>
+        <f t="shared" si="9"/>
+        <v>R-SW*Apt_GAS*</v>
       </c>
       <c r="C52" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f>"RSDSH_"&amp;F52&amp;",RSDWH_"&amp;F65</f>
         <v>RSDSH_Apt,RSDWH_Att</v>
       </c>
       <c r="D52" s="32">
-        <f t="shared" si="9"/>
-        <v>8.9890643927955554E-4</v>
+        <f>AVERAGE(D12,D92)</f>
+        <v>1.2023720455024919E-2</v>
       </c>
       <c r="F52" s="32" t="s">
         <v>109</v>
       </c>
       <c r="G52" s="32" t="s">
-        <v>84</v>
+        <v>194</v>
       </c>
       <c r="H52" s="32" t="str">
-        <f>"R-S*_"&amp;F52&amp;"_"&amp;G52&amp;"*"</f>
-        <v>R-S*_Apt_HET*</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
+        <f>"R-S*_"&amp;F51&amp;"_"&amp;G52&amp;"*"</f>
+        <v>R-S*_Apt_GAS*</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="33" t="str">
+        <f t="shared" si="9"/>
+        <v>R-SW*Apt_PEA*</v>
+      </c>
+      <c r="C53" s="33" t="str">
+        <f>"RSDSH_"&amp;F53&amp;",RSDWH_"&amp;F66</f>
+        <v>RSDSH_Apt,RSDWH_Att</v>
+      </c>
+      <c r="D53" s="33">
+        <f>AVERAGE(D13,D93)</f>
+        <v>5.2921783539597103E-2</v>
+      </c>
+      <c r="F53" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="G53" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="H53" s="33" t="str">
+        <f>"R-S*_"&amp;F53&amp;"_"&amp;G53&amp;"*"</f>
+        <v>R-S*_Apt_PEA*</v>
+      </c>
     </row>
     <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B54" s="32" t="str">
-        <f>"R-SW*"&amp;F54&amp;"_"&amp;G54&amp;"*"</f>
-        <v>R-SW*Att_COA*</v>
+        <f t="shared" si="9"/>
+        <v>R-SW*Apt_SMF*</v>
       </c>
       <c r="C54" s="32" t="str">
-        <f>"RSDSH_"&amp;F54&amp;",RSDWH_"&amp;F54</f>
-        <v>RSDSH_Att,RSDWH_Att</v>
+        <f>"RSDSH_"&amp;F54&amp;",RSDWH_"&amp;F67</f>
+        <v>RSDSH_Apt,RSDWH_Att</v>
       </c>
       <c r="D54" s="32">
-        <f t="shared" ref="D54:D64" si="13">AVERAGE(D18,D91)</f>
-        <v>0.13757508933389442</v>
+        <f>AVERAGE(D14,D94)</f>
+        <v>4.9506675305099501E-2</v>
       </c>
       <c r="F54" s="32" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G54" s="32" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="H54" s="32" t="str">
-        <f t="shared" ref="H54:H57" si="14">"R-S*_"&amp;F54&amp;"_"&amp;G54&amp;"*"</f>
-        <v>R-S*_Att_COA*</v>
+        <f>"R-S*_"&amp;F54&amp;"_"&amp;G54&amp;"*"</f>
+        <v>R-S*_Apt_SMF*</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="33" t="s">
-        <v>1</v>
+        <v>198</v>
       </c>
       <c r="B55" s="33" t="str">
-        <f>"R-SW*"&amp;F55&amp;"_"&amp;G55&amp;"*"</f>
-        <v>R-SW*Att_BDL*</v>
+        <f t="shared" si="9"/>
+        <v>R-SW*Apt_WOO*</v>
       </c>
       <c r="C55" s="33" t="str">
-        <f t="shared" ref="C55:C64" si="15">"RSDSH_"&amp;F55&amp;",RSDWH_"&amp;F55</f>
-        <v>RSDSH_Att,RSDWH_Att</v>
+        <f>"RSDSH_"&amp;F55&amp;",RSDWH_"&amp;F68</f>
+        <v>RSDSH_Apt,RSDWH_Att</v>
       </c>
       <c r="D55" s="33">
-        <f t="shared" si="13"/>
-        <v>1.8755504737112953E-2</v>
+        <f>AVERAGE(D15,D95)</f>
+        <v>1.738190021295305E-2</v>
       </c>
       <c r="F55" s="33" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G55" s="33" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H55" s="33" t="str">
-        <f t="shared" si="14"/>
-        <v>R-S*_Att_BDL*</v>
+        <f>"R-S*_"&amp;F55&amp;"_"&amp;G55&amp;"*"</f>
+        <v>R-S*_Apt_WOO*</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="32" t="s">
-        <v>1</v>
+        <v>198</v>
       </c>
       <c r="B56" s="32" t="str">
-        <f>"R-SW*"&amp;F56&amp;"_"&amp;G56&amp;"*"</f>
-        <v>R-SW*Att_ETH*</v>
+        <f t="shared" si="9"/>
+        <v>R-SW*Apt_HET*</v>
       </c>
       <c r="C56" s="32" t="str">
-        <f t="shared" si="15"/>
-        <v>RSDSH_Att,RSDWH_Att</v>
+        <f t="shared" ref="C56" si="11">"RSDSH_"&amp;F56&amp;",RSDWH_"&amp;F70</f>
+        <v>RSDSH_Apt,RSDWH_Att</v>
       </c>
       <c r="D56" s="32">
-        <f t="shared" si="13"/>
-        <v>6.72123287671235E-3</v>
+        <f>AVERAGE(D16,D96)</f>
+        <v>8.9890643927955554E-4</v>
       </c>
       <c r="F56" s="32" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G56" s="32" t="s">
-        <v>190</v>
+        <v>84</v>
       </c>
       <c r="H56" s="32" t="str">
-        <f t="shared" si="14"/>
-        <v>R-S*_Att_ETH*</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="B57" s="33" t="str">
-        <f>"R-SW*"&amp;F57&amp;"_"&amp;G57&amp;"*"</f>
-        <v>R-SW*Att_LPG*</v>
-      </c>
-      <c r="C57" s="33" t="str">
-        <f t="shared" si="15"/>
-        <v>RSDSH_Att,RSDWH_Att</v>
-      </c>
-      <c r="D57" s="33">
-        <f t="shared" si="13"/>
-        <v>2.9676777946404852E-2</v>
-      </c>
-      <c r="F57" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="G57" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="H57" s="33" t="str">
-        <f t="shared" si="14"/>
-        <v>R-S*_Att_LPG*</v>
-      </c>
+        <f>"R-S*_"&amp;F56&amp;"_"&amp;G56&amp;"*"</f>
+        <v>R-S*_Apt_HET*</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A57" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
     </row>
     <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="32" t="s">
-        <v>198</v>
+        <v>1</v>
       </c>
       <c r="B58" s="32" t="str">
         <f>"R-SW*"&amp;F58&amp;"_"&amp;G58&amp;"*"</f>
-        <v>R-SW*Att_ELC*</v>
+        <v>R-SW*Att_COA*</v>
       </c>
       <c r="C58" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>"RSDSH_"&amp;F58&amp;",RSDWH_"&amp;F58</f>
         <v>RSDSH_Att,RSDWH_Att</v>
       </c>
       <c r="D58" s="32">
-        <f t="shared" si="13"/>
-        <v>2.3774911335309026E-2</v>
+        <f>AVERAGE(D18,D99)</f>
+        <v>0.13757508933389442</v>
       </c>
       <c r="F58" s="32" t="s">
         <v>105</v>
       </c>
       <c r="G58" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H58" s="32" t="str">
-        <f>"R-S*_"&amp;F58&amp;"_"&amp;G58&amp;"*"</f>
-        <v>R-S*_Att_ELC*</v>
+        <f t="shared" ref="H58:H61" si="12">"R-S*_"&amp;F58&amp;"_"&amp;G58&amp;"*"</f>
+        <v>R-S*_Att_COA*</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="33" t="s">
-        <v>198</v>
+        <v>1</v>
       </c>
       <c r="B59" s="33" t="str">
-        <f t="shared" ref="B59:B64" si="16">"R-SW*"&amp;F59&amp;"_"&amp;G59&amp;"*"</f>
-        <v>R-SW*Att_KER*</v>
+        <f>"R-SW*"&amp;F59&amp;"_"&amp;G59&amp;"*"</f>
+        <v>R-SW*Att_BDL*</v>
       </c>
       <c r="C59" s="33" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="C59:C70" si="13">"RSDSH_"&amp;F59&amp;",RSDWH_"&amp;F59</f>
         <v>RSDSH_Att,RSDWH_Att</v>
       </c>
       <c r="D59" s="33">
-        <f t="shared" si="13"/>
-        <v>2.4961878258338448E-2</v>
+        <f>AVERAGE(D19,D100)</f>
+        <v>1.8755504737112953E-2</v>
       </c>
       <c r="F59" s="33" t="s">
         <v>105</v>
       </c>
       <c r="G59" s="33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H59" s="33" t="str">
-        <f t="shared" ref="H59" si="17">"R-S*_"&amp;F59&amp;"_"&amp;G59&amp;"*"</f>
-        <v>R-S*_Att_KER*</v>
+        <f t="shared" si="12"/>
+        <v>R-S*_Att_BDL*</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="32" t="s">
-        <v>198</v>
+        <v>1</v>
       </c>
       <c r="B60" s="32" t="str">
-        <f t="shared" si="16"/>
-        <v>R-SW*Att_GAS*</v>
+        <f>"R-SW*"&amp;F60&amp;"_"&amp;G60&amp;"*"</f>
+        <v>R-SW*Att_ETH*</v>
       </c>
       <c r="C60" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>RSDSH_Att,RSDWH_Att</v>
       </c>
       <c r="D60" s="32">
-        <f t="shared" si="13"/>
-        <v>1.9851979150358402E-2</v>
+        <f>AVERAGE(D20,D101)</f>
+        <v>6.72123287671235E-3</v>
       </c>
       <c r="F60" s="32" t="s">
         <v>105</v>
       </c>
       <c r="G60" s="32" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H60" s="32" t="str">
-        <f>"R-S*_"&amp;F59&amp;"_"&amp;G60&amp;"*"</f>
-        <v>R-S*_Att_GAS*</v>
+        <f t="shared" si="12"/>
+        <v>R-S*_Att_ETH*</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="33" t="s">
-        <v>1</v>
+        <v>198</v>
       </c>
       <c r="B61" s="33" t="str">
-        <f t="shared" si="16"/>
-        <v>R-SW*Att_PEA*</v>
+        <f>"R-SW*"&amp;F61&amp;"_"&amp;G61&amp;"*"</f>
+        <v>R-SW*Att_LPG*</v>
       </c>
       <c r="C61" s="33" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>RSDSH_Att,RSDWH_Att</v>
       </c>
       <c r="D61" s="33">
-        <f t="shared" si="13"/>
-        <v>3.5251852813074448E-2</v>
+        <f>AVERAGE(D21,D102)</f>
+        <v>2.9676777946404852E-2</v>
       </c>
       <c r="F61" s="33" t="s">
         <v>105</v>
       </c>
       <c r="G61" s="33" t="s">
-        <v>110</v>
+        <v>192</v>
       </c>
       <c r="H61" s="33" t="str">
-        <f>"R-S*_"&amp;F61&amp;"_"&amp;G61&amp;"*"</f>
-        <v>R-S*_Att_PEA*</v>
+        <f t="shared" si="12"/>
+        <v>R-S*_Att_LPG*</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
-        <v>1</v>
+        <v>198</v>
       </c>
       <c r="B62" s="32" t="str">
-        <f t="shared" si="16"/>
-        <v>R-SW*Att_SMF*</v>
+        <f>"R-SW*"&amp;F62&amp;"_"&amp;G62&amp;"*"</f>
+        <v>R-SW*Att_ELC*</v>
       </c>
       <c r="C62" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>RSDSH_Att,RSDWH_Att</v>
       </c>
       <c r="D62" s="32">
-        <f t="shared" si="13"/>
-        <v>3.5356636251858302E-2</v>
+        <f>AVERAGE(D22,D103)</f>
+        <v>2.3774911335309026E-2</v>
       </c>
       <c r="F62" s="32" t="s">
         <v>105</v>
       </c>
       <c r="G62" s="32" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="H62" s="32" t="str">
         <f>"R-S*_"&amp;F62&amp;"_"&amp;G62&amp;"*"</f>
-        <v>R-S*_Att_SMF*</v>
+        <v>R-S*_Att_ELC*</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -6783,254 +6748,238 @@
         <v>198</v>
       </c>
       <c r="B63" s="33" t="str">
-        <f t="shared" si="16"/>
-        <v>R-SW*Att_WOO*</v>
+        <f t="shared" ref="B63:B70" si="14">"R-SW*"&amp;F63&amp;"_"&amp;G63&amp;"*"</f>
+        <v>R-SW*Att_KER*</v>
       </c>
       <c r="C63" s="33" t="str">
-        <f t="shared" si="15"/>
+        <f>"RSDSH_"&amp;F63&amp;",RSDWH_"&amp;F63</f>
         <v>RSDSH_Att,RSDWH_Att</v>
       </c>
       <c r="D63" s="33">
-        <f t="shared" si="13"/>
-        <v>5.4484908352032999E-2</v>
+        <f>AVERAGE(D23,D104)</f>
+        <v>2.4961878258338448E-2</v>
       </c>
       <c r="F63" s="33" t="s">
         <v>105</v>
       </c>
       <c r="G63" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="H63" s="33" t="str">
+        <f t="shared" ref="H63" si="15">"R-S*_"&amp;F63&amp;"_"&amp;G63&amp;"*"</f>
+        <v>R-S*_Att_KER*</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="B64" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="C64" s="33" t="str">
+        <f>"RSDSH_"&amp;F63&amp;",RSDWH_"&amp;F63</f>
+        <v>RSDSH_Att,RSDWH_Att</v>
+      </c>
+      <c r="D64" s="33">
+        <f>D63</f>
+        <v>2.4961878258338448E-2</v>
+      </c>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+    </row>
+    <row r="65" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="B65" s="32" t="str">
+        <f t="shared" si="14"/>
+        <v>R-SW*Att_GAS*</v>
+      </c>
+      <c r="C65" s="32" t="str">
+        <f t="shared" si="13"/>
+        <v>RSDSH_Att,RSDWH_Att</v>
+      </c>
+      <c r="D65" s="32">
+        <f>AVERAGE(D25,D105)</f>
+        <v>1.9851979150358402E-2</v>
+      </c>
+      <c r="F65" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="G65" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="H65" s="32" t="str">
+        <f>"R-S*_"&amp;F63&amp;"_"&amp;G65&amp;"*"</f>
+        <v>R-S*_Att_GAS*</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="33" t="str">
+        <f t="shared" si="14"/>
+        <v>R-SW*Att_PEA*</v>
+      </c>
+      <c r="C66" s="33" t="str">
+        <f t="shared" si="13"/>
+        <v>RSDSH_Att,RSDWH_Att</v>
+      </c>
+      <c r="D66" s="33">
+        <f>AVERAGE(D26,D106)</f>
+        <v>3.5251852813074448E-2</v>
+      </c>
+      <c r="F66" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="G66" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="H66" s="33" t="str">
+        <f>"R-S*_"&amp;F66&amp;"_"&amp;G66&amp;"*"</f>
+        <v>R-S*_Att_PEA*</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="32" t="str">
+        <f t="shared" si="14"/>
+        <v>R-SW*Att_SMF*</v>
+      </c>
+      <c r="C67" s="32" t="str">
+        <f t="shared" si="13"/>
+        <v>RSDSH_Att,RSDWH_Att</v>
+      </c>
+      <c r="D67" s="32">
+        <f>AVERAGE(D27,D107)</f>
+        <v>3.5356636251858302E-2</v>
+      </c>
+      <c r="F67" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="G67" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="H67" s="32" t="str">
+        <f>"R-S*_"&amp;F67&amp;"_"&amp;G67&amp;"*"</f>
+        <v>R-S*_Att_SMF*</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="B68" s="33" t="str">
+        <f t="shared" si="14"/>
+        <v>R-SW*Att_WOO*</v>
+      </c>
+      <c r="C68" s="33" t="str">
+        <f>"RSDSH_"&amp;F68&amp;",RSDWH_"&amp;F68</f>
+        <v>RSDSH_Att,RSDWH_Att</v>
+      </c>
+      <c r="D68" s="33">
+        <f>AVERAGE(D28,D108)</f>
+        <v>5.4484908352032999E-2</v>
+      </c>
+      <c r="F68" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="G68" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="H63" s="33" t="str">
-        <f>"R-S*_"&amp;F63&amp;"_"&amp;G63&amp;"*"</f>
+      <c r="H68" s="33" t="str">
+        <f>"R-S*_"&amp;F68&amp;"_"&amp;G68&amp;"*"</f>
         <v>R-S*_Att_WOO*</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="B64" s="32" t="str">
-        <f t="shared" si="16"/>
-        <v>R-SW*Att_HET*</v>
-      </c>
-      <c r="C64" s="32" t="str">
-        <f t="shared" si="15"/>
-        <v>RSDSH_Att,RSDWH_Att</v>
-      </c>
-      <c r="D64" s="32">
-        <f t="shared" si="13"/>
-        <v>9.6371031258262324E-3</v>
-      </c>
-      <c r="F64" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="G64" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="H64" s="32" t="str">
-        <f>"R-S*_"&amp;F64&amp;"_"&amp;G64&amp;"*"</f>
-        <v>R-S*_Att_HET*</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A65" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="B65" s="30"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="30"/>
-    </row>
-    <row r="66" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B66" s="32" t="str">
-        <f>"R-SW*"&amp;F66&amp;"_"&amp;G66&amp;"*"</f>
-        <v>R-SW*Det_COA*</v>
-      </c>
-      <c r="C66" s="32" t="str">
-        <f>"RSDSH_"&amp;F66&amp;",RSDWH_"&amp;F66</f>
-        <v>RSDSH_Det,RSDWH_Det</v>
-      </c>
-      <c r="D66" s="32">
-        <f t="shared" ref="D66:D76" si="18">AVERAGE(D30,D104)</f>
-        <v>0.29527340147394254</v>
-      </c>
-      <c r="F66" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="G66" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="H66" s="32" t="str">
-        <f t="shared" ref="H66:H70" si="19">"R-S*_"&amp;F66&amp;"_"&amp;G66&amp;"*"</f>
-        <v>R-S*_Det_COA*</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B67" s="33" t="str">
-        <f>"R-SW*"&amp;F67&amp;"_"&amp;G67&amp;"*"</f>
-        <v>R-SW*Det_BDL*</v>
-      </c>
-      <c r="C67" s="33" t="str">
-        <f t="shared" ref="C67:C76" si="20">"RSDSH_"&amp;F67&amp;",RSDWH_"&amp;F67</f>
-        <v>RSDSH_Det,RSDWH_Det</v>
-      </c>
-      <c r="D67" s="33">
-        <f t="shared" si="18"/>
-        <v>6.7726027397260503E-3</v>
-      </c>
-      <c r="F67" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="G67" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="H67" s="33" t="str">
-        <f t="shared" si="19"/>
-        <v>R-S*_Det_BDL*</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A68" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="32" t="str">
-        <f>"R-SW*"&amp;F68&amp;"_"&amp;G68&amp;"*"</f>
-        <v>R-SW*Det_ETH*</v>
-      </c>
-      <c r="C68" s="32" t="str">
-        <f t="shared" si="20"/>
-        <v>RSDSH_Det,RSDWH_Det</v>
-      </c>
-      <c r="D68" s="32">
-        <f t="shared" si="18"/>
-        <v>7.6715753424657501E-3</v>
-      </c>
-      <c r="F68" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="G68" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="H68" s="32" t="str">
-        <f t="shared" si="19"/>
-        <v>R-S*_Det_ETH*</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="B69" s="33" t="str">
-        <f>"R-SW*"&amp;F69&amp;"_"&amp;G69&amp;"*"</f>
-        <v>R-SW*Det_LPG*</v>
+      <c r="B69" s="33" t="s">
+        <v>271</v>
       </c>
       <c r="C69" s="33" t="str">
-        <f t="shared" si="20"/>
-        <v>RSDSH_Det,RSDWH_Det</v>
+        <f>"RSDSH_"&amp;F68&amp;",RSDWH_"&amp;F68</f>
+        <v>RSDSH_Att,RSDWH_Att</v>
       </c>
       <c r="D69" s="33">
-        <f t="shared" si="18"/>
-        <v>5.3518479911912255E-2</v>
-      </c>
-      <c r="F69" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="G69" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="H69" s="33" t="str">
-        <f t="shared" si="19"/>
-        <v>R-S*_Det_LPG*</v>
-      </c>
+        <f>D68</f>
+        <v>5.4484908352032999E-2</v>
+      </c>
+      <c r="F69" s="33"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="33"/>
     </row>
     <row r="70" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="32" t="s">
         <v>198</v>
       </c>
       <c r="B70" s="32" t="str">
-        <f>"R-SW*"&amp;F70&amp;"_"&amp;G70&amp;"*"</f>
-        <v>R-SW*Det_ELC*</v>
+        <f t="shared" si="14"/>
+        <v>R-SW*Att_HET*</v>
       </c>
       <c r="C70" s="32" t="str">
-        <f t="shared" si="20"/>
-        <v>RSDSH_Det,RSDWH_Det</v>
+        <f t="shared" si="13"/>
+        <v>RSDSH_Att,RSDWH_Att</v>
       </c>
       <c r="D70" s="32">
-        <f t="shared" si="18"/>
-        <v>3.4771475539781452E-2</v>
+        <f>AVERAGE(D30,D109)</f>
+        <v>9.6371031258262324E-3</v>
       </c>
       <c r="F70" s="32" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="G70" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H70" s="32" t="str">
-        <f t="shared" si="19"/>
-        <v>R-S*_Det_ELC*</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A71" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="B71" s="33" t="str">
-        <f t="shared" ref="B71:B76" si="21">"R-SW*"&amp;F71&amp;"_"&amp;G71&amp;"*"</f>
-        <v>R-SW*Det_KER*</v>
-      </c>
-      <c r="C71" s="33" t="str">
-        <f t="shared" si="20"/>
-        <v>RSDSH_Det,RSDWH_Det</v>
-      </c>
-      <c r="D71" s="33">
-        <f t="shared" si="18"/>
-        <v>3.8152557611937102E-2</v>
-      </c>
-      <c r="F71" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="G71" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="H71" s="33" t="str">
-        <f t="shared" ref="H71" si="22">"R-S*_"&amp;F71&amp;"_"&amp;G71&amp;"*"</f>
-        <v>R-S*_Det_KER*</v>
-      </c>
+        <f>"R-S*_"&amp;F70&amp;"_"&amp;G70&amp;"*"</f>
+        <v>R-S*_Att_HET*</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A71" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
     </row>
     <row r="72" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="32" t="s">
-        <v>198</v>
+        <v>1</v>
       </c>
       <c r="B72" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v>R-SW*Det_GAS*</v>
+        <f>"R-SW*"&amp;F72&amp;"_"&amp;G72&amp;"*"</f>
+        <v>R-SW*Det_COA*</v>
       </c>
       <c r="C72" s="32" t="str">
-        <f t="shared" si="20"/>
+        <f>"RSDSH_"&amp;F72&amp;",RSDWH_"&amp;F72</f>
         <v>RSDSH_Det,RSDWH_Det</v>
       </c>
       <c r="D72" s="32">
-        <f t="shared" si="18"/>
-        <v>3.1008650759600302E-2</v>
+        <f>AVERAGE(D32,D112)</f>
+        <v>0.29527340147394254</v>
       </c>
       <c r="F72" s="32" t="s">
         <v>114</v>
       </c>
       <c r="G72" s="32" t="s">
-        <v>194</v>
+        <v>82</v>
       </c>
       <c r="H72" s="32" t="str">
-        <f>"R-S*_"&amp;F71&amp;"_"&amp;G72&amp;"*"</f>
-        <v>R-S*_Det_GAS*</v>
+        <f t="shared" ref="H72:H76" si="16">"R-S*_"&amp;F72&amp;"_"&amp;G72&amp;"*"</f>
+        <v>R-S*_Det_COA*</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -7038,26 +6987,26 @@
         <v>1</v>
       </c>
       <c r="B73" s="33" t="str">
-        <f t="shared" si="21"/>
-        <v>R-SW*Det_PEA*</v>
+        <f>"R-SW*"&amp;F73&amp;"_"&amp;G73&amp;"*"</f>
+        <v>R-SW*Det_BDL*</v>
       </c>
       <c r="C73" s="33" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="C73:C84" si="17">"RSDSH_"&amp;F73&amp;",RSDWH_"&amp;F73</f>
         <v>RSDSH_Det,RSDWH_Det</v>
       </c>
       <c r="D73" s="33">
-        <f t="shared" si="18"/>
-        <v>6.8174234439631151E-2</v>
+        <f>AVERAGE(D33,D113)</f>
+        <v>6.7726027397260503E-3</v>
       </c>
       <c r="F73" s="33" t="s">
         <v>114</v>
       </c>
       <c r="G73" s="33" t="s">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="H73" s="33" t="str">
-        <f>"R-S*_"&amp;F73&amp;"_"&amp;G73&amp;"*"</f>
-        <v>R-S*_Det_PEA*</v>
+        <f t="shared" si="16"/>
+        <v>R-S*_Det_BDL*</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -7065,26 +7014,26 @@
         <v>1</v>
       </c>
       <c r="B74" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v>R-SW*Det_SMF*</v>
+        <f>"R-SW*"&amp;F74&amp;"_"&amp;G74&amp;"*"</f>
+        <v>R-SW*Det_ETH*</v>
       </c>
       <c r="C74" s="32" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>RSDSH_Det,RSDWH_Det</v>
       </c>
       <c r="D74" s="32">
-        <f t="shared" si="18"/>
-        <v>8.9483268751498007E-2</v>
+        <f>AVERAGE(D34,D114)</f>
+        <v>7.6715753424657501E-3</v>
       </c>
       <c r="F74" s="32" t="s">
         <v>114</v>
       </c>
       <c r="G74" s="32" t="s">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c r="H74" s="32" t="str">
-        <f>"R-S*_"&amp;F74&amp;"_"&amp;G74&amp;"*"</f>
-        <v>R-S*_Det_SMF*</v>
+        <f t="shared" si="16"/>
+        <v>R-S*_Det_ETH*</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -7092,26 +7041,26 @@
         <v>198</v>
       </c>
       <c r="B75" s="33" t="str">
-        <f t="shared" si="21"/>
-        <v>R-SW*Det_WOO*</v>
+        <f>"R-SW*"&amp;F75&amp;"_"&amp;G75&amp;"*"</f>
+        <v>R-SW*Det_LPG*</v>
       </c>
       <c r="C75" s="33" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>RSDSH_Det,RSDWH_Det</v>
       </c>
       <c r="D75" s="33">
-        <f t="shared" si="18"/>
-        <v>6.705720075762131E-2</v>
+        <f>AVERAGE(D35,D115)</f>
+        <v>5.3518479911912255E-2</v>
       </c>
       <c r="F75" s="33" t="s">
         <v>114</v>
       </c>
       <c r="G75" s="33" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H75" s="33" t="str">
-        <f>"R-S*_"&amp;F75&amp;"_"&amp;G75&amp;"*"</f>
-        <v>R-S*_Det_WOO*</v>
+        <f t="shared" si="16"/>
+        <v>R-S*_Det_LPG*</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -7119,253 +7068,261 @@
         <v>198</v>
       </c>
       <c r="B76" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v>R-SW*Det_HET*</v>
+        <f>"R-SW*"&amp;F76&amp;"_"&amp;G76&amp;"*"</f>
+        <v>R-SW*Det_ELC*</v>
       </c>
       <c r="C76" s="32" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>RSDSH_Det,RSDWH_Det</v>
       </c>
       <c r="D76" s="32">
-        <f t="shared" si="18"/>
-        <v>0.12131157231005595</v>
+        <f>AVERAGE(D36,D116)</f>
+        <v>3.4771475539781452E-2</v>
       </c>
       <c r="F76" s="32" t="s">
         <v>114</v>
       </c>
       <c r="G76" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H76" s="32" t="str">
-        <f>"R-S*_"&amp;F76&amp;"_"&amp;G76&amp;"*"</f>
-        <v>R-S*_Det_HET*</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A77" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="B77" s="30"/>
-      <c r="C77" s="30"/>
-      <c r="D77" s="31"/>
-      <c r="F77" s="30"/>
-      <c r="G77" s="30"/>
-      <c r="H77" s="30"/>
+        <f t="shared" si="16"/>
+        <v>R-S*_Det_ELC*</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A77" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="B77" s="33" t="str">
+        <f t="shared" ref="B77:B84" si="18">"R-SW*"&amp;F77&amp;"_"&amp;G77&amp;"*"</f>
+        <v>R-SW*Det_KER*</v>
+      </c>
+      <c r="C77" s="33" t="str">
+        <f t="shared" si="17"/>
+        <v>RSDSH_Det,RSDWH_Det</v>
+      </c>
+      <c r="D77" s="33">
+        <f>AVERAGE(D37,D117)</f>
+        <v>3.8152557611937102E-2</v>
+      </c>
+      <c r="F77" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G77" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="H77" s="33" t="str">
+        <f t="shared" ref="H77" si="19">"R-S*_"&amp;F77&amp;"_"&amp;G77&amp;"*"</f>
+        <v>R-S*_Det_KER*</v>
+      </c>
     </row>
     <row r="78" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A78" s="32" t="s">
+      <c r="A78" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="B78" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="C78" s="33" t="str">
+        <f>"RSDSH_"&amp;F77&amp;",RSDWH_"&amp;F77</f>
+        <v>RSDSH_Det,RSDWH_Det</v>
+      </c>
+      <c r="D78" s="33">
+        <f>D77</f>
+        <v>3.8152557611937102E-2</v>
+      </c>
+      <c r="F78" s="33"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="33"/>
+    </row>
+    <row r="79" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A79" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="B79" s="32" t="str">
+        <f t="shared" si="18"/>
+        <v>R-SW*Det_GAS*</v>
+      </c>
+      <c r="C79" s="32" t="str">
+        <f t="shared" si="17"/>
+        <v>RSDSH_Det,RSDWH_Det</v>
+      </c>
+      <c r="D79" s="32">
+        <f>AVERAGE(D39,D118)</f>
+        <v>3.1008650759600302E-2</v>
+      </c>
+      <c r="F79" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G79" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="H79" s="32" t="str">
+        <f>"R-S*_"&amp;F77&amp;"_"&amp;G79&amp;"*"</f>
+        <v>R-S*_Det_GAS*</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A80" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B78" s="32" t="str">
-        <f t="shared" ref="B78:B88" si="23">"R-WH_"&amp;F78&amp;"_"&amp;G78&amp;"*"</f>
-        <v>R-WH_Apt_COA*</v>
-      </c>
-      <c r="C78" s="32"/>
-      <c r="D78" s="32">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H78,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.4306956259161203E-2</v>
-      </c>
-      <c r="F78" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="G78" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="H78" s="32" t="str">
-        <f t="shared" ref="H78:H83" si="24">"R-WH_"&amp;F78&amp;"_"&amp;G78&amp;"*"</f>
-        <v>R-WH_Apt_COA*</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A79" s="33" t="s">
+      <c r="B80" s="33" t="str">
+        <f t="shared" si="18"/>
+        <v>R-SW*Det_PEA*</v>
+      </c>
+      <c r="C80" s="33" t="str">
+        <f t="shared" si="17"/>
+        <v>RSDSH_Det,RSDWH_Det</v>
+      </c>
+      <c r="D80" s="33">
+        <f>AVERAGE(D40,D119)</f>
+        <v>6.8174234439631151E-2</v>
+      </c>
+      <c r="F80" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G80" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="H80" s="33" t="str">
+        <f>"R-S*_"&amp;F80&amp;"_"&amp;G80&amp;"*"</f>
+        <v>R-S*_Det_PEA*</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A81" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B79" s="33" t="str">
-        <f t="shared" si="23"/>
-        <v>R-WH_Apt_BDL*</v>
-      </c>
-      <c r="C79" s="33"/>
-      <c r="D79" s="33">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H79,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.0061643835616396E-3</v>
-      </c>
-      <c r="F79" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="G79" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="H79" s="33" t="str">
-        <f t="shared" si="24"/>
-        <v>R-WH_Apt_BDL*</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A80" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B80" s="32" t="str">
-        <f t="shared" si="23"/>
-        <v>R-WH_Apt_ETH*</v>
-      </c>
-      <c r="C80" s="32"/>
-      <c r="D80" s="32">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H80,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.08506849315068E-2</v>
-      </c>
-      <c r="F80" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="G80" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="H80" s="32" t="str">
-        <f t="shared" si="24"/>
-        <v>R-WH_Apt_ETH*</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A81" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B81" s="33" t="str">
-        <f t="shared" si="23"/>
-        <v>R-WH_Apt_LPG*</v>
-      </c>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H81,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.5902117368476298E-2</v>
-      </c>
-      <c r="F81" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="G81" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="H81" s="33" t="str">
-        <f t="shared" si="24"/>
-        <v>R-WH_Apt_LPG*</v>
+      <c r="B81" s="32" t="str">
+        <f t="shared" si="18"/>
+        <v>R-SW*Det_SMF*</v>
+      </c>
+      <c r="C81" s="32" t="str">
+        <f t="shared" si="17"/>
+        <v>RSDSH_Det,RSDWH_Det</v>
+      </c>
+      <c r="D81" s="32">
+        <f>AVERAGE(D41,D120)</f>
+        <v>8.9483268751498007E-2</v>
+      </c>
+      <c r="F81" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G81" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="H81" s="32" t="str">
+        <f>"R-S*_"&amp;F81&amp;"_"&amp;G81&amp;"*"</f>
+        <v>R-S*_Det_SMF*</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A82" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="B82" s="32" t="str">
-        <f t="shared" si="23"/>
-        <v>R-WH_Apt_ELC*</v>
-      </c>
-      <c r="C82" s="32"/>
-      <c r="D82" s="32">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H82,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.8837772266824751E-2</v>
-      </c>
-      <c r="F82" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="G82" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="H82" s="32" t="str">
-        <f>B82</f>
-        <v>R-WH_Apt_ELC*</v>
+      <c r="A82" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="B82" s="33" t="str">
+        <f t="shared" si="18"/>
+        <v>R-SW*Det_WOO*</v>
+      </c>
+      <c r="C82" s="33" t="str">
+        <f t="shared" si="17"/>
+        <v>RSDSH_Det,RSDWH_Det</v>
+      </c>
+      <c r="D82" s="33">
+        <f>AVERAGE(D42,D121)</f>
+        <v>6.705720075762131E-2</v>
+      </c>
+      <c r="F82" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G82" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="H82" s="33" t="str">
+        <f>"R-S*_"&amp;F82&amp;"_"&amp;G82&amp;"*"</f>
+        <v>R-S*_Det_WOO*</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B83" s="33" t="str">
-        <f t="shared" si="23"/>
-        <v>R-WH_Apt_KER*</v>
-      </c>
-      <c r="C83" s="33"/>
+        <v>198</v>
+      </c>
+      <c r="B83" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="C83" s="33" t="str">
+        <f>"RSDSH_"&amp;F82&amp;",RSDWH_"&amp;F82</f>
+        <v>RSDSH_Det,RSDWH_Det</v>
+      </c>
       <c r="D83" s="33">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H83,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.34604040212748E-2</v>
-      </c>
-      <c r="F83" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="G83" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="H83" s="33" t="str">
-        <f t="shared" si="24"/>
-        <v>R-WH_Apt_KER*</v>
-      </c>
+        <f>D82</f>
+        <v>6.705720075762131E-2</v>
+      </c>
+      <c r="F83" s="33"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="33"/>
     </row>
     <row r="84" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="32" t="s">
-        <v>1</v>
+        <v>198</v>
       </c>
       <c r="B84" s="32" t="str">
-        <f t="shared" si="23"/>
-        <v>R-WH_Apt_GAS*</v>
-      </c>
-      <c r="C84" s="32"/>
+        <f t="shared" si="18"/>
+        <v>R-SW*Det_HET*</v>
+      </c>
+      <c r="C84" s="32" t="str">
+        <f t="shared" si="17"/>
+        <v>RSDSH_Det,RSDWH_Det</v>
+      </c>
       <c r="D84" s="32">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H84,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.0054738416460393E-3</v>
+        <f>AVERAGE(D44,D122)</f>
+        <v>0.12131157231005595</v>
       </c>
       <c r="F84" s="32" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G84" s="32" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
       <c r="H84" s="32" t="str">
-        <f>"R-WH_"&amp;F83&amp;"_"&amp;G84&amp;"*"</f>
-        <v>R-WH_Apt_GAS*</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A85" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B85" s="33" t="str">
-        <f t="shared" si="23"/>
-        <v>R-WH_Apt_PEA*</v>
-      </c>
-      <c r="C85" s="33"/>
-      <c r="D85" s="33">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H85,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.0875263435194901E-2</v>
-      </c>
-      <c r="F85" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="G85" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="H85" s="33" t="str">
-        <f t="shared" ref="H85:H89" si="25">"R-WH_"&amp;F85&amp;"_"&amp;G85&amp;"*"</f>
-        <v>R-WH_Apt_PEA*</v>
-      </c>
+        <f>"R-S*_"&amp;F84&amp;"_"&amp;G84&amp;"*"</f>
+        <v>R-S*_Det_HET*</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A85" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B85" s="30"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="31"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="30"/>
     </row>
     <row r="86" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B86" s="32" t="str">
-        <f t="shared" si="23"/>
-        <v>R-WH_Apt_SMF*</v>
+        <f t="shared" ref="B86:B96" si="20">"R-WH_"&amp;F86&amp;"_"&amp;G86&amp;"*"</f>
+        <v>R-WH_Apt_COA*</v>
       </c>
       <c r="C86" s="32"/>
       <c r="D86" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H86,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.0823557576601301E-2</v>
+        <v>5.4306956259161203E-2</v>
       </c>
       <c r="F86" s="32" t="s">
         <v>109</v>
       </c>
       <c r="G86" s="32" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="H86" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>R-WH_Apt_SMF*</v>
+        <f t="shared" ref="H86:H91" si="21">"R-WH_"&amp;F86&amp;"_"&amp;G86&amp;"*"</f>
+        <v>R-WH_Apt_COA*</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -7373,23 +7330,23 @@
         <v>1</v>
       </c>
       <c r="B87" s="33" t="str">
-        <f t="shared" si="23"/>
-        <v>R-WH_Apt_WOO*</v>
+        <f t="shared" si="20"/>
+        <v>R-WH_Apt_BDL*</v>
       </c>
       <c r="C87" s="33"/>
       <c r="D87" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H87,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.23793448122469E-2</v>
+        <v>9.0061643835616396E-3</v>
       </c>
       <c r="F87" s="33" t="s">
         <v>109</v>
       </c>
       <c r="G87" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H87" s="33" t="str">
-        <f t="shared" si="25"/>
-        <v>R-WH_Apt_WOO*</v>
+        <f t="shared" si="21"/>
+        <v>R-WH_Apt_BDL*</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -7397,275 +7354,275 @@
         <v>1</v>
       </c>
       <c r="B88" s="32" t="str">
-        <f t="shared" si="23"/>
-        <v>R-WH_Apt_HET*</v>
+        <f t="shared" si="20"/>
+        <v>R-WH_Apt_ETH*</v>
       </c>
       <c r="C88" s="32"/>
       <c r="D88" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H88,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.8847834889027099E-4</v>
+        <v>1.08506849315068E-2</v>
       </c>
       <c r="F88" s="32" t="s">
         <v>109</v>
       </c>
       <c r="G88" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="H88" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>R-WH_Apt_ETH*</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A89" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89" s="33" t="str">
+        <f t="shared" si="20"/>
+        <v>R-WH_Apt_LPG*</v>
+      </c>
+      <c r="C89" s="33"/>
+      <c r="D89" s="33">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H89,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.5902117368476298E-2</v>
+      </c>
+      <c r="F89" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="G89" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="H89" s="33" t="str">
+        <f t="shared" si="21"/>
+        <v>R-WH_Apt_LPG*</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A90" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="B90" s="32" t="str">
+        <f t="shared" si="20"/>
+        <v>R-WH_Apt_ELC*</v>
+      </c>
+      <c r="C90" s="32"/>
+      <c r="D90" s="32">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H90,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>2.8837772266824751E-2</v>
+      </c>
+      <c r="F90" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G90" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="H90" s="32" t="str">
+        <f>B90</f>
+        <v>R-WH_Apt_ELC*</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A91" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91" s="33" t="str">
+        <f t="shared" si="20"/>
+        <v>R-WH_Apt_KER*</v>
+      </c>
+      <c r="C91" s="33"/>
+      <c r="D91" s="33">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H91,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.34604040212748E-2</v>
+      </c>
+      <c r="F91" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="G91" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="H91" s="33" t="str">
+        <f t="shared" si="21"/>
+        <v>R-WH_Apt_KER*</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A92" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="32" t="str">
+        <f t="shared" si="20"/>
+        <v>R-WH_Apt_GAS*</v>
+      </c>
+      <c r="C92" s="32"/>
+      <c r="D92" s="32">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H92,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>9.0054738416460393E-3</v>
+      </c>
+      <c r="F92" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G92" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="H92" s="32" t="str">
+        <f>"R-WH_"&amp;F91&amp;"_"&amp;G92&amp;"*"</f>
+        <v>R-WH_Apt_GAS*</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A93" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="33" t="str">
+        <f t="shared" si="20"/>
+        <v>R-WH_Apt_PEA*</v>
+      </c>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H93,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.0875263435194901E-2</v>
+      </c>
+      <c r="F93" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="G93" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="H93" s="33" t="str">
+        <f t="shared" ref="H93:H97" si="22">"R-WH_"&amp;F93&amp;"_"&amp;G93&amp;"*"</f>
+        <v>R-WH_Apt_PEA*</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A94" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94" s="32" t="str">
+        <f t="shared" si="20"/>
+        <v>R-WH_Apt_SMF*</v>
+      </c>
+      <c r="C94" s="32"/>
+      <c r="D94" s="32">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H94,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.0823557576601301E-2</v>
+      </c>
+      <c r="F94" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G94" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="H94" s="32" t="str">
+        <f t="shared" si="22"/>
+        <v>R-WH_Apt_SMF*</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A95" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95" s="33" t="str">
+        <f t="shared" si="20"/>
+        <v>R-WH_Apt_WOO*</v>
+      </c>
+      <c r="C95" s="33"/>
+      <c r="D95" s="33">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H95,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.23793448122469E-2</v>
+      </c>
+      <c r="F95" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="G95" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="H95" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>R-WH_Apt_WOO*</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A96" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B96" s="32" t="str">
+        <f t="shared" si="20"/>
+        <v>R-WH_Apt_HET*</v>
+      </c>
+      <c r="C96" s="32"/>
+      <c r="D96" s="32">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H96,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>3.8847834889027099E-4</v>
+      </c>
+      <c r="F96" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G96" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="H88" s="32" t="str">
-        <f t="shared" si="25"/>
+      <c r="H96" s="32" t="str">
+        <f t="shared" si="22"/>
         <v>R-WH_Apt_HET*</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A89" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="B89" s="32" t="str">
-        <f>"R-WH_"&amp;F89&amp;"_"&amp;G89&amp;"*"</f>
-        <v>R-WH_Apt_SOL*</v>
-      </c>
-      <c r="C89" s="32"/>
-      <c r="D89" s="32">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H89,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.0946059106357601E-2</v>
-      </c>
-      <c r="F89" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="G89" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="H89" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v>R-WH_Apt_SOL*</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A90" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="B90" s="30"/>
-      <c r="C90" s="30"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="30"/>
-      <c r="F90" s="30"/>
-      <c r="G90" s="30"/>
-      <c r="H90" s="30"/>
-    </row>
-    <row r="91" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A91" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B91" s="32" t="str">
-        <f t="shared" ref="B91:B101" si="26">"R-WH_"&amp;F91&amp;"_"&amp;G91&amp;"*"</f>
-        <v>R-WH_Att_COA*</v>
-      </c>
-      <c r="C91" s="32"/>
-      <c r="D91" s="32">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H91,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.0871971515326802E-2</v>
-      </c>
-      <c r="F91" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="G91" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="H91" s="32" t="str">
-        <f t="shared" ref="H91:H96" si="27">"R-WH_"&amp;F91&amp;"_"&amp;G91&amp;"*"</f>
-        <v>R-WH_Att_COA*</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A92" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B92" s="33" t="str">
-        <f t="shared" si="26"/>
-        <v>R-WH_Att_BDL*</v>
-      </c>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H92,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.7783866057838701E-2</v>
-      </c>
-      <c r="F92" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="G92" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="H92" s="33" t="str">
-        <f t="shared" si="27"/>
-        <v>R-WH_Att_BDL*</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A93" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B93" s="32" t="str">
-        <f t="shared" si="26"/>
-        <v>R-WH_Att_ETH*</v>
-      </c>
-      <c r="C93" s="32"/>
-      <c r="D93" s="32">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H93,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.34424657534247E-2</v>
-      </c>
-      <c r="F93" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="G93" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="H93" s="32" t="str">
-        <f t="shared" si="27"/>
-        <v>R-WH_Att_ETH*</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A94" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B94" s="33" t="str">
-        <f t="shared" si="26"/>
-        <v>R-WH_Att_LPG*</v>
-      </c>
-      <c r="C94" s="33"/>
-      <c r="D94" s="33">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H94,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.01134837356341E-2</v>
-      </c>
-      <c r="F94" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="G94" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="H94" s="33" t="str">
-        <f t="shared" si="27"/>
-        <v>R-WH_Att_LPG*</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A95" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="B95" s="32" t="str">
-        <f t="shared" si="26"/>
-        <v>R-WH_Att_ELC*</v>
-      </c>
-      <c r="C95" s="32"/>
-      <c r="D95" s="32">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H95,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.6397220281969702E-2</v>
-      </c>
-      <c r="F95" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="G95" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="H95" s="32" t="str">
-        <f>"R-WH_"&amp;F95&amp;"_"&amp;G95&amp;"*X0"</f>
-        <v>R-WH_Att_ELC*X0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A96" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B96" s="33" t="str">
-        <f t="shared" si="26"/>
-        <v>R-WH_Att_KER*</v>
-      </c>
-      <c r="C96" s="33"/>
-      <c r="D96" s="33">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H96,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.39410555733958E-2</v>
-      </c>
-      <c r="F96" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="G96" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="H96" s="33" t="str">
-        <f t="shared" si="27"/>
-        <v>R-WH_Att_KER*</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="32" t="s">
-        <v>1</v>
+        <v>244</v>
       </c>
       <c r="B97" s="32" t="str">
-        <f t="shared" si="26"/>
-        <v>R-WH_Att_GAS*</v>
+        <f>"R-WH_"&amp;F97&amp;"_"&amp;G97&amp;"*"</f>
+        <v>R-WH_Apt_SOL*</v>
       </c>
       <c r="C97" s="32"/>
       <c r="D97" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H97,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.16777135974941E-2</v>
+        <v>1.0946059106357601E-2</v>
       </c>
       <c r="F97" s="32" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G97" s="32" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="H97" s="32" t="str">
-        <f>"R-WH_"&amp;F96&amp;"_"&amp;G97&amp;"*"</f>
-        <v>R-WH_Att_GAS*</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A98" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B98" s="33" t="str">
-        <f t="shared" si="26"/>
-        <v>R-WH_Att_PEA*</v>
-      </c>
-      <c r="C98" s="33"/>
-      <c r="D98" s="33">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H98,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.3788861785020401E-2</v>
-      </c>
-      <c r="F98" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="G98" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="H98" s="33" t="str">
-        <f t="shared" ref="H98:H102" si="28">"R-WH_"&amp;F98&amp;"_"&amp;G98&amp;"*"</f>
-        <v>R-WH_Att_PEA*</v>
-      </c>
+        <f t="shared" si="22"/>
+        <v>R-WH_Apt_SOL*</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A98" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B98" s="30"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="30"/>
+      <c r="E98" s="30"/>
+      <c r="F98" s="30"/>
+      <c r="G98" s="30"/>
+      <c r="H98" s="30"/>
     </row>
     <row r="99" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B99" s="32" t="str">
-        <f t="shared" si="26"/>
-        <v>R-WH_Att_SMF*</v>
+        <f t="shared" ref="B99:B109" si="23">"R-WH_"&amp;F99&amp;"_"&amp;G99&amp;"*"</f>
+        <v>R-WH_Att_COA*</v>
       </c>
       <c r="C99" s="32"/>
       <c r="D99" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H99,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.1808127750471799E-2</v>
+        <v>2.0871971515326802E-2</v>
       </c>
       <c r="F99" s="32" t="s">
         <v>105</v>
       </c>
       <c r="G99" s="32" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="H99" s="32" t="str">
-        <f t="shared" si="28"/>
-        <v>R-WH_Att_SMF*</v>
+        <f t="shared" ref="H99:H104" si="24">"R-WH_"&amp;F99&amp;"_"&amp;G99&amp;"*"</f>
+        <v>R-WH_Att_COA*</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -7673,23 +7630,23 @@
         <v>1</v>
       </c>
       <c r="B100" s="33" t="str">
-        <f t="shared" si="26"/>
-        <v>R-WH_Att_WOO*</v>
+        <f t="shared" si="23"/>
+        <v>R-WH_Att_BDL*</v>
       </c>
       <c r="C100" s="33"/>
       <c r="D100" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H100,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.3755627925516699E-2</v>
+        <v>1.7783866057838701E-2</v>
       </c>
       <c r="F100" s="33" t="s">
         <v>105</v>
       </c>
       <c r="G100" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H100" s="33" t="str">
-        <f t="shared" si="28"/>
-        <v>R-WH_Att_WOO*</v>
+        <f t="shared" si="24"/>
+        <v>R-WH_Att_BDL*</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -7697,275 +7654,275 @@
         <v>1</v>
       </c>
       <c r="B101" s="32" t="str">
-        <f t="shared" si="26"/>
-        <v>R-WH_Att_HET*</v>
+        <f t="shared" si="23"/>
+        <v>R-WH_Att_ETH*</v>
       </c>
       <c r="C101" s="32"/>
       <c r="D101" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H101,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.7589168523886695E-4</v>
+        <v>1.34424657534247E-2</v>
       </c>
       <c r="F101" s="32" t="s">
         <v>105</v>
       </c>
       <c r="G101" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="H101" s="32" t="str">
+        <f t="shared" si="24"/>
+        <v>R-WH_Att_ETH*</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A102" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>R-WH_Att_LPG*</v>
+      </c>
+      <c r="C102" s="33"/>
+      <c r="D102" s="33">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H102,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>2.01134837356341E-2</v>
+      </c>
+      <c r="F102" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="G102" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="H102" s="33" t="str">
+        <f t="shared" si="24"/>
+        <v>R-WH_Att_LPG*</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A103" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="B103" s="32" t="str">
+        <f t="shared" si="23"/>
+        <v>R-WH_Att_ELC*</v>
+      </c>
+      <c r="C103" s="32"/>
+      <c r="D103" s="32">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H103,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.6397220281969702E-2</v>
+      </c>
+      <c r="F103" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="G103" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="H103" s="32" t="str">
+        <f>"R-WH_"&amp;F103&amp;"_"&amp;G103&amp;"*X0"</f>
+        <v>R-WH_Att_ELC*X0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A104" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B104" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>R-WH_Att_KER*</v>
+      </c>
+      <c r="C104" s="33"/>
+      <c r="D104" s="33">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H104,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.39410555733958E-2</v>
+      </c>
+      <c r="F104" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="G104" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="H104" s="33" t="str">
+        <f t="shared" si="24"/>
+        <v>R-WH_Att_KER*</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A105" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B105" s="32" t="str">
+        <f t="shared" si="23"/>
+        <v>R-WH_Att_GAS*</v>
+      </c>
+      <c r="C105" s="32"/>
+      <c r="D105" s="32">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H105,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.16777135974941E-2</v>
+      </c>
+      <c r="F105" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="G105" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="H105" s="32" t="str">
+        <f>"R-WH_"&amp;F104&amp;"_"&amp;G105&amp;"*"</f>
+        <v>R-WH_Att_GAS*</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A106" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>R-WH_Att_PEA*</v>
+      </c>
+      <c r="C106" s="33"/>
+      <c r="D106" s="33">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H106,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.3788861785020401E-2</v>
+      </c>
+      <c r="F106" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="G106" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="H106" s="33" t="str">
+        <f t="shared" ref="H106:H110" si="25">"R-WH_"&amp;F106&amp;"_"&amp;G106&amp;"*"</f>
+        <v>R-WH_Att_PEA*</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A107" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B107" s="32" t="str">
+        <f t="shared" si="23"/>
+        <v>R-WH_Att_SMF*</v>
+      </c>
+      <c r="C107" s="32"/>
+      <c r="D107" s="32">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H107,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.1808127750471799E-2</v>
+      </c>
+      <c r="F107" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="G107" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="H107" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v>R-WH_Att_SMF*</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A108" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B108" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>R-WH_Att_WOO*</v>
+      </c>
+      <c r="C108" s="33"/>
+      <c r="D108" s="33">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H108,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.3755627925516699E-2</v>
+      </c>
+      <c r="F108" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="G108" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="H108" s="33" t="str">
+        <f t="shared" si="25"/>
+        <v>R-WH_Att_WOO*</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A109" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109" s="32" t="str">
+        <f t="shared" si="23"/>
+        <v>R-WH_Att_HET*</v>
+      </c>
+      <c r="C109" s="32"/>
+      <c r="D109" s="32">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H109,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>9.7589168523886695E-4</v>
+      </c>
+      <c r="F109" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="G109" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="H101" s="32" t="str">
-        <f t="shared" si="28"/>
+      <c r="H109" s="32" t="str">
+        <f t="shared" si="25"/>
         <v>R-WH_Att_HET*</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A102" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="B102" s="32" t="str">
-        <f>"R-WH_"&amp;F102&amp;"_"&amp;G102&amp;"*"</f>
-        <v>R-WH_Att_SOL*</v>
-      </c>
-      <c r="C102" s="32"/>
-      <c r="D102" s="32">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H102,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.36448583018159E-2</v>
-      </c>
-      <c r="F102" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="G102" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="H102" s="32" t="str">
-        <f t="shared" si="28"/>
-        <v>R-WH_Att_SOL*</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A103" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="B103" s="30"/>
-      <c r="C103" s="30"/>
-      <c r="D103" s="30"/>
-      <c r="E103" s="30"/>
-      <c r="F103" s="30"/>
-      <c r="G103" s="30"/>
-      <c r="H103" s="30"/>
-    </row>
-    <row r="104" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A104" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B104" s="32" t="str">
-        <f t="shared" ref="B104:B114" si="29">"R-WH_"&amp;F104&amp;"_"&amp;G104&amp;"*"</f>
-        <v>R-WH_Det_COA*</v>
-      </c>
-      <c r="C104" s="32"/>
-      <c r="D104" s="32">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H104,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.3205860842012E-2</v>
-      </c>
-      <c r="F104" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="G104" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="H104" s="32" t="str">
-        <f t="shared" ref="H104:H109" si="30">"R-WH_"&amp;F104&amp;"_"&amp;G104&amp;"*"</f>
-        <v>R-WH_Det_COA*</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A105" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B105" s="33" t="str">
-        <f t="shared" si="29"/>
-        <v>R-WH_Det_BDL*</v>
-      </c>
-      <c r="C105" s="33"/>
-      <c r="D105" s="33">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H105,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.3545205479452101E-2</v>
-      </c>
-      <c r="F105" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="G105" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="H105" s="33" t="str">
-        <f t="shared" si="30"/>
-        <v>R-WH_Det_BDL*</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A106" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B106" s="32" t="str">
-        <f t="shared" si="29"/>
-        <v>R-WH_Det_ETH*</v>
-      </c>
-      <c r="C106" s="32"/>
-      <c r="D106" s="32">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H106,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.53431506849315E-2</v>
-      </c>
-      <c r="F106" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="G106" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="H106" s="32" t="str">
-        <f t="shared" si="30"/>
-        <v>R-WH_Det_ETH*</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A107" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B107" s="33" t="str">
-        <f t="shared" si="29"/>
-        <v>R-WH_Det_LPG*</v>
-      </c>
-      <c r="C107" s="33"/>
-      <c r="D107" s="33">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H107,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.20120031139646E-2</v>
-      </c>
-      <c r="F107" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="G107" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="H107" s="33" t="str">
-        <f t="shared" si="30"/>
-        <v>R-WH_Det_LPG*</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A108" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="B108" s="32" t="str">
-        <f t="shared" si="29"/>
-        <v>R-WH_Det_ELC*</v>
-      </c>
-      <c r="C108" s="32"/>
-      <c r="D108" s="32">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H108,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.6905741708612799E-2</v>
-      </c>
-      <c r="F108" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="G108" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="H108" s="32" t="str">
-        <f>"R-WH_"&amp;F108&amp;"_"&amp;G108&amp;"*X0"</f>
-        <v>R-WH_Det_ELC*X0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A109" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B109" s="33" t="str">
-        <f t="shared" si="29"/>
-        <v>R-WH_Det_KER*</v>
-      </c>
-      <c r="C109" s="33"/>
-      <c r="D109" s="33">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H109,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.71705033816347E-2</v>
-      </c>
-      <c r="F109" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="G109" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="H109" s="33" t="str">
-        <f t="shared" si="30"/>
-        <v>R-WH_Det_KER*</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="32" t="s">
-        <v>1</v>
+        <v>244</v>
       </c>
       <c r="B110" s="32" t="str">
-        <f t="shared" si="29"/>
-        <v>R-WH_Det_GAS*</v>
+        <f>"R-WH_"&amp;F110&amp;"_"&amp;G110&amp;"*"</f>
+        <v>R-WH_Att_SOL*</v>
       </c>
       <c r="C110" s="32"/>
       <c r="D110" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H110,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.5035273157845299E-2</v>
+        <v>4.36448583018159E-2</v>
       </c>
       <c r="F110" s="32" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="G110" s="32" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="H110" s="32" t="str">
-        <f>"R-WH_"&amp;F109&amp;"_"&amp;G110&amp;"*"</f>
-        <v>R-WH_Det_GAS*</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A111" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B111" s="33" t="str">
-        <f t="shared" si="29"/>
-        <v>R-WH_Det_PEA*</v>
-      </c>
-      <c r="C111" s="33"/>
-      <c r="D111" s="33">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H111,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.5844216359380301E-2</v>
-      </c>
-      <c r="F111" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="G111" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="H111" s="33" t="str">
-        <f t="shared" ref="H111:H115" si="31">"R-WH_"&amp;F111&amp;"_"&amp;G111&amp;"*"</f>
-        <v>R-WH_Det_PEA*</v>
-      </c>
+        <f t="shared" si="25"/>
+        <v>R-WH_Att_SOL*</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A111" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B111" s="30"/>
+      <c r="C111" s="30"/>
+      <c r="D111" s="30"/>
+      <c r="E111" s="30"/>
+      <c r="F111" s="30"/>
+      <c r="G111" s="30"/>
+      <c r="H111" s="30"/>
     </row>
     <row r="112" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B112" s="32" t="str">
-        <f t="shared" si="29"/>
-        <v>R-WH_Det_SMF*</v>
+        <f t="shared" ref="B112:B122" si="26">"R-WH_"&amp;F112&amp;"_"&amp;G112&amp;"*"</f>
+        <v>R-WH_Det_COA*</v>
       </c>
       <c r="C112" s="32"/>
       <c r="D112" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H112,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.4316024530344E-2</v>
+        <v>2.3205860842012E-2</v>
       </c>
       <c r="F112" s="32" t="s">
         <v>114</v>
       </c>
       <c r="G112" s="32" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="H112" s="32" t="str">
-        <f t="shared" si="31"/>
-        <v>R-WH_Det_SMF*</v>
+        <f t="shared" ref="H112:H117" si="27">"R-WH_"&amp;F112&amp;"_"&amp;G112&amp;"*"</f>
+        <v>R-WH_Det_COA*</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -7973,23 +7930,23 @@
         <v>1</v>
       </c>
       <c r="B113" s="33" t="str">
-        <f t="shared" si="29"/>
-        <v>R-WH_Det_WOO*</v>
+        <f t="shared" si="26"/>
+        <v>R-WH_Det_BDL*</v>
       </c>
       <c r="C113" s="33"/>
       <c r="D113" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H113,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.8495641261436602E-2</v>
+        <v>1.3545205479452101E-2</v>
       </c>
       <c r="F113" s="33" t="s">
         <v>114</v>
       </c>
       <c r="G113" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H113" s="33" t="str">
-        <f t="shared" si="31"/>
-        <v>R-WH_Det_WOO*</v>
+        <f t="shared" si="27"/>
+        <v>R-WH_Det_BDL*</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -7997,229 +7954,244 @@
         <v>1</v>
       </c>
       <c r="B114" s="32" t="str">
-        <f t="shared" si="29"/>
-        <v>R-WH_Det_HET*</v>
+        <f t="shared" si="26"/>
+        <v>R-WH_Det_ETH*</v>
       </c>
       <c r="C114" s="32"/>
       <c r="D114" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H114,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.6330345396658901E-3</v>
+        <v>1.53431506849315E-2</v>
       </c>
       <c r="F114" s="32" t="s">
         <v>114</v>
       </c>
       <c r="G114" s="32" t="s">
-        <v>84</v>
+        <v>190</v>
       </c>
       <c r="H114" s="32" t="str">
-        <f t="shared" si="31"/>
-        <v>R-WH_Det_HET*</v>
+        <f t="shared" si="27"/>
+        <v>R-WH_Det_ETH*</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A115" s="32" t="s">
+      <c r="A115" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B115" s="33" t="str">
+        <f t="shared" si="26"/>
+        <v>R-WH_Det_LPG*</v>
+      </c>
+      <c r="C115" s="33"/>
+      <c r="D115" s="33">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H115,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>2.20120031139646E-2</v>
+      </c>
+      <c r="F115" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G115" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="H115" s="33" t="str">
+        <f t="shared" si="27"/>
+        <v>R-WH_Det_LPG*</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A116" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="B115" s="32" t="str">
-        <f>"R-WH_"&amp;F115&amp;"_"&amp;G115&amp;"*"</f>
-        <v>R-WH_Det_SOL*</v>
-      </c>
-      <c r="C115" s="32"/>
-      <c r="D115" s="40">
-        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H115,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.6408942067286699E-2</v>
-      </c>
-      <c r="F115" s="32" t="s">
+      <c r="B116" s="32" t="str">
+        <f t="shared" si="26"/>
+        <v>R-WH_Det_ELC*</v>
+      </c>
+      <c r="C116" s="32"/>
+      <c r="D116" s="32">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H116,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.6905741708612799E-2</v>
+      </c>
+      <c r="F116" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="G115" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="H115" s="32" t="str">
-        <f t="shared" si="31"/>
-        <v>R-WH_Det_SOL*</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A116" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="B116" s="30"/>
-      <c r="C116" s="31"/>
-      <c r="D116" s="30"/>
-      <c r="E116" s="30"/>
-      <c r="F116" s="30"/>
-      <c r="G116" s="30"/>
-      <c r="H116" s="30"/>
+      <c r="G116" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="H116" s="32" t="str">
+        <f>"R-WH_"&amp;F116&amp;"_"&amp;G116&amp;"*X0"</f>
+        <v>R-WH_Det_ELC*X0</v>
+      </c>
     </row>
     <row r="117" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A117" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="B117" s="32" t="str">
-        <f>"R-SC_"&amp;F117&amp;"_"&amp;G117&amp;"_N1"</f>
-        <v>R-SC_Apt_ELC_N1</v>
-      </c>
-      <c r="C117" s="32"/>
-      <c r="D117" s="32">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H117,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.6752418704136399E-2</v>
-      </c>
-      <c r="F117" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="G117" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="H117" s="37" t="str">
-        <f t="shared" ref="H117:H119" si="32">"R-SH_"&amp;F117&amp;"_"&amp;G117&amp;"*X1"</f>
-        <v>R-SH_Apt_ELC*X1</v>
+      <c r="A117" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B117" s="33" t="str">
+        <f t="shared" si="26"/>
+        <v>R-WH_Det_KER*</v>
+      </c>
+      <c r="C117" s="33"/>
+      <c r="D117" s="33">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H117,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.71705033816347E-2</v>
+      </c>
+      <c r="F117" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G117" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="H117" s="33" t="str">
+        <f t="shared" si="27"/>
+        <v>R-WH_Det_KER*</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="32" t="s">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="B118" s="32" t="str">
-        <f>"R-SC_"&amp;F118&amp;"_"&amp;G118&amp;"_N1"</f>
-        <v>R-SC_Att_ELC_N1</v>
+        <f t="shared" si="26"/>
+        <v>R-WH_Det_GAS*</v>
       </c>
       <c r="C118" s="32"/>
       <c r="D118" s="32">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H118,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.1795378605209401E-2</v>
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H118,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.5035273157845299E-2</v>
       </c>
       <c r="F118" s="32" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G118" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="H118" s="37" t="str">
-        <f t="shared" si="32"/>
-        <v>R-SH_Att_ELC*X1</v>
+        <v>194</v>
+      </c>
+      <c r="H118" s="32" t="str">
+        <f>"R-WH_"&amp;F117&amp;"_"&amp;G118&amp;"*"</f>
+        <v>R-WH_Det_GAS*</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A119" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="B119" s="32" t="str">
-        <f>"R-SC_"&amp;F119&amp;"_"&amp;G119&amp;"_N1"</f>
-        <v>R-SC_Det_ELC_N1</v>
-      </c>
-      <c r="C119" s="32"/>
-      <c r="D119" s="32">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H119,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.0026061338975703E-2</v>
-      </c>
-      <c r="F119" s="32" t="s">
+      <c r="A119" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B119" s="33" t="str">
+        <f t="shared" si="26"/>
+        <v>R-WH_Det_PEA*</v>
+      </c>
+      <c r="C119" s="33"/>
+      <c r="D119" s="33">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H119,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.5844216359380301E-2</v>
+      </c>
+      <c r="F119" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="G119" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="H119" s="37" t="str">
-        <f t="shared" si="32"/>
-        <v>R-SH_Det_ELC*X1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A120" s="29" t="s">
-        <v>247</v>
-      </c>
-      <c r="B120" s="30"/>
-      <c r="C120" s="31"/>
-      <c r="D120" s="30"/>
-      <c r="E120" s="30"/>
-      <c r="F120" s="30"/>
-      <c r="G120" s="30"/>
-      <c r="H120" s="30"/>
+      <c r="G119" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="H119" s="33" t="str">
+        <f t="shared" ref="H119:H123" si="28">"R-WH_"&amp;F119&amp;"_"&amp;G119&amp;"*"</f>
+        <v>R-WH_Det_PEA*</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A120" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B120" s="32" t="str">
+        <f t="shared" si="26"/>
+        <v>R-WH_Det_SMF*</v>
+      </c>
+      <c r="C120" s="32"/>
+      <c r="D120" s="32">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H120,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.4316024530344E-2</v>
+      </c>
+      <c r="F120" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G120" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="H120" s="32" t="str">
+        <f t="shared" si="28"/>
+        <v>R-WH_Det_SMF*</v>
+      </c>
     </row>
     <row r="121" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A121" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="B121" s="32" t="str">
-        <f>"R-HC_"&amp;F121&amp;"_"&amp;G121&amp;"_HPN*"</f>
-        <v>R-HC_Apt_ELC_HPN*</v>
-      </c>
-      <c r="C121" s="32" t="str">
-        <f>"RSDSC_"&amp;F121</f>
-        <v>RSDSC_Apt</v>
-      </c>
-      <c r="D121" s="32">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H121,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.6752418704136399E-2</v>
-      </c>
-      <c r="F121" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="G121" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="H121" s="37" t="str">
-        <f t="shared" ref="H121:H123" si="33">"R-SH_"&amp;F121&amp;"_"&amp;G121&amp;"*X1"</f>
-        <v>R-SH_Apt_ELC*X1</v>
+      <c r="A121" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B121" s="33" t="str">
+        <f t="shared" si="26"/>
+        <v>R-WH_Det_WOO*</v>
+      </c>
+      <c r="C121" s="33"/>
+      <c r="D121" s="33">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H121,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.8495641261436602E-2</v>
+      </c>
+      <c r="F121" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G121" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="H121" s="33" t="str">
+        <f t="shared" si="28"/>
+        <v>R-WH_Det_WOO*</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="32" t="s">
-        <v>245</v>
+        <v>1</v>
       </c>
       <c r="B122" s="32" t="str">
-        <f>"R-HC_"&amp;F122&amp;"_"&amp;G122&amp;"_HPN*"</f>
-        <v>R-HC_Att_ELC_HPN*</v>
-      </c>
-      <c r="C122" s="32" t="str">
-        <f>"RSDSC_"&amp;F122</f>
-        <v>RSDSC_Att</v>
-      </c>
+        <f t="shared" si="26"/>
+        <v>R-WH_Det_HET*</v>
+      </c>
+      <c r="C122" s="32"/>
       <c r="D122" s="32">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H122,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.1795378605209401E-2</v>
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H122,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>1.6330345396658901E-3</v>
       </c>
       <c r="F122" s="32" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G122" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="H122" s="37" t="str">
-        <f t="shared" si="33"/>
-        <v>R-SH_Att_ELC*X1</v>
+        <v>84</v>
+      </c>
+      <c r="H122" s="32" t="str">
+        <f t="shared" si="28"/>
+        <v>R-WH_Det_HET*</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A123" s="38" t="s">
-        <v>245</v>
-      </c>
-      <c r="B123" s="38" t="str">
-        <f>"R-HC_"&amp;F123&amp;"_"&amp;G123&amp;"_HPN*"</f>
-        <v>R-HC_Det_ELC_HPN*</v>
-      </c>
-      <c r="C123" s="38" t="str">
-        <f>"RSDSC_"&amp;F123</f>
-        <v>RSDSC_Det</v>
-      </c>
-      <c r="D123" s="38">
-        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H123,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.0026061338975703E-2</v>
-      </c>
-      <c r="F123" s="38" t="s">
+      <c r="A123" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="B123" s="32" t="str">
+        <f>"R-WH_"&amp;F123&amp;"_"&amp;G123&amp;"*"</f>
+        <v>R-WH_Det_SOL*</v>
+      </c>
+      <c r="C123" s="32"/>
+      <c r="D123" s="40">
+        <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H123,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>4.6408942067286699E-2</v>
+      </c>
+      <c r="F123" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="G123" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="H123" s="39" t="str">
-        <f t="shared" si="33"/>
-        <v>R-SH_Det_ELC*X1</v>
+      <c r="G123" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="H123" s="32" t="str">
+        <f t="shared" si="28"/>
+        <v>R-WH_Det_SOL*</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="29" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B124" s="30"/>
       <c r="C124" s="31"/>
@@ -8231,16 +8203,13 @@
     </row>
     <row r="125" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="32" t="s">
-        <v>245</v>
+        <v>78</v>
       </c>
       <c r="B125" s="32" t="str">
-        <f>"R-HC_"&amp;F125&amp;"_"&amp;G125&amp;"_HPN*"</f>
-        <v>R-HC_Apt_ELC_HPN*</v>
-      </c>
-      <c r="C125" s="32" t="str">
-        <f>"RSDSH_"&amp;F125</f>
-        <v>RSDSH_Apt</v>
-      </c>
+        <f>"R-SC_"&amp;F125&amp;"_"&amp;G125&amp;"_N1"</f>
+        <v>R-SC_Apt_ELC_N1</v>
+      </c>
+      <c r="C125" s="32"/>
       <c r="D125" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H125,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>2.6752418704136399E-2</v>
@@ -8251,23 +8220,20 @@
       <c r="G125" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="H125" s="32" t="str">
-        <f t="shared" ref="H125:H127" si="34">"R-SH_"&amp;F125&amp;"_"&amp;G125&amp;"*X1"</f>
+      <c r="H125" s="37" t="str">
+        <f t="shared" ref="H125:H127" si="29">"R-SH_"&amp;F125&amp;"_"&amp;G125&amp;"*X1"</f>
         <v>R-SH_Apt_ELC*X1</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="32" t="s">
-        <v>245</v>
+        <v>78</v>
       </c>
       <c r="B126" s="32" t="str">
-        <f>"R-HC_"&amp;F126&amp;"_"&amp;G126&amp;"_HPN*"</f>
-        <v>R-HC_Att_ELC_HPN*</v>
-      </c>
-      <c r="C126" s="32" t="str">
-        <f>"RSDSH_"&amp;F126</f>
-        <v>RSDSH_Att</v>
-      </c>
+        <f>"R-SC_"&amp;F126&amp;"_"&amp;G126&amp;"_N1"</f>
+        <v>R-SC_Att_ELC_N1</v>
+      </c>
+      <c r="C126" s="32"/>
       <c r="D126" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H126,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>2.1795378605209401E-2</v>
@@ -8278,35 +8244,218 @@
       <c r="G126" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="H126" s="32" t="str">
-        <f t="shared" si="34"/>
+      <c r="H126" s="37" t="str">
+        <f t="shared" si="29"/>
         <v>R-SH_Att_ELC*X1</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A127" s="38" t="s">
-        <v>245</v>
-      </c>
-      <c r="B127" s="38" t="str">
-        <f>"R-HC_"&amp;F127&amp;"_"&amp;G127&amp;"_HPN*"</f>
-        <v>R-HC_Det_ELC_HPN*</v>
-      </c>
-      <c r="C127" s="38" t="str">
-        <f>"RSDSH_"&amp;F127</f>
-        <v>RSDSH_Det</v>
-      </c>
-      <c r="D127" s="38">
+      <c r="A127" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B127" s="32" t="str">
+        <f>"R-SC_"&amp;F127&amp;"_"&amp;G127&amp;"_N1"</f>
+        <v>R-SC_Det_ELC_N1</v>
+      </c>
+      <c r="C127" s="32"/>
+      <c r="D127" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H127,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>4.0026061338975703E-2</v>
       </c>
-      <c r="F127" s="38" t="s">
+      <c r="F127" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="G127" s="38" t="s">
+      <c r="G127" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="H127" s="38" t="str">
-        <f t="shared" si="34"/>
+      <c r="H127" s="37" t="str">
+        <f t="shared" si="29"/>
+        <v>R-SH_Det_ELC*X1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A128" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="B128" s="30"/>
+      <c r="C128" s="31"/>
+      <c r="D128" s="30"/>
+      <c r="E128" s="30"/>
+      <c r="F128" s="30"/>
+      <c r="G128" s="30"/>
+      <c r="H128" s="30"/>
+    </row>
+    <row r="129" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A129" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="B129" s="32" t="str">
+        <f>"R-HC_"&amp;F129&amp;"_"&amp;G129&amp;"_HPN*"</f>
+        <v>R-HC_Apt_ELC_HPN*</v>
+      </c>
+      <c r="C129" s="32" t="str">
+        <f>"RSDSC_"&amp;F129</f>
+        <v>RSDSC_Apt</v>
+      </c>
+      <c r="D129" s="32">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H129,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>2.6752418704136399E-2</v>
+      </c>
+      <c r="F129" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G129" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="H129" s="37" t="str">
+        <f t="shared" ref="H129:H131" si="30">"R-SH_"&amp;F129&amp;"_"&amp;G129&amp;"*X1"</f>
+        <v>R-SH_Apt_ELC*X1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A130" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="B130" s="32" t="str">
+        <f>"R-HC_"&amp;F130&amp;"_"&amp;G130&amp;"_HPN*"</f>
+        <v>R-HC_Att_ELC_HPN*</v>
+      </c>
+      <c r="C130" s="32" t="str">
+        <f>"RSDSC_"&amp;F130</f>
+        <v>RSDSC_Att</v>
+      </c>
+      <c r="D130" s="32">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H130,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>2.1795378605209401E-2</v>
+      </c>
+      <c r="F130" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="G130" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="H130" s="37" t="str">
+        <f t="shared" si="30"/>
+        <v>R-SH_Att_ELC*X1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A131" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="B131" s="38" t="str">
+        <f>"R-HC_"&amp;F131&amp;"_"&amp;G131&amp;"_HPN*"</f>
+        <v>R-HC_Det_ELC_HPN*</v>
+      </c>
+      <c r="C131" s="38" t="str">
+        <f>"RSDSC_"&amp;F131</f>
+        <v>RSDSC_Det</v>
+      </c>
+      <c r="D131" s="38">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H131,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>4.0026061338975703E-2</v>
+      </c>
+      <c r="F131" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="G131" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="H131" s="39" t="str">
+        <f t="shared" si="30"/>
+        <v>R-SH_Det_ELC*X1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A132" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="B132" s="30"/>
+      <c r="C132" s="31"/>
+      <c r="D132" s="30"/>
+      <c r="E132" s="30"/>
+      <c r="F132" s="30"/>
+      <c r="G132" s="30"/>
+      <c r="H132" s="30"/>
+    </row>
+    <row r="133" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A133" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="B133" s="32" t="str">
+        <f>"R-HC_"&amp;F133&amp;"_"&amp;G133&amp;"_HPN*"</f>
+        <v>R-HC_Apt_ELC_HPN*</v>
+      </c>
+      <c r="C133" s="32" t="str">
+        <f>"RSDSH_"&amp;F133</f>
+        <v>RSDSH_Apt</v>
+      </c>
+      <c r="D133" s="32">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H133,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>2.6752418704136399E-2</v>
+      </c>
+      <c r="F133" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G133" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="H133" s="32" t="str">
+        <f t="shared" ref="H133:H135" si="31">"R-SH_"&amp;F133&amp;"_"&amp;G133&amp;"*X1"</f>
+        <v>R-SH_Apt_ELC*X1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A134" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="B134" s="32" t="str">
+        <f>"R-HC_"&amp;F134&amp;"_"&amp;G134&amp;"_HPN*"</f>
+        <v>R-HC_Att_ELC_HPN*</v>
+      </c>
+      <c r="C134" s="32" t="str">
+        <f>"RSDSH_"&amp;F134</f>
+        <v>RSDSH_Att</v>
+      </c>
+      <c r="D134" s="32">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H134,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>2.1795378605209401E-2</v>
+      </c>
+      <c r="F134" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="G134" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="H134" s="32" t="str">
+        <f t="shared" si="31"/>
+        <v>R-SH_Att_ELC*X1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A135" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="B135" s="38" t="str">
+        <f>"R-HC_"&amp;F135&amp;"_"&amp;G135&amp;"_HPN*"</f>
+        <v>R-HC_Det_ELC_HPN*</v>
+      </c>
+      <c r="C135" s="38" t="str">
+        <f>"RSDSH_"&amp;F135</f>
+        <v>RSDSH_Det</v>
+      </c>
+      <c r="D135" s="38">
+        <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H135,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
+        <v>4.0026061338975703E-2</v>
+      </c>
+      <c r="F135" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="G135" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="H135" s="38" t="str">
+        <f t="shared" si="31"/>
         <v>R-SH_Det_ELC*X1</v>
       </c>
     </row>
@@ -8324,9 +8473,8 @@
   <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10253,7 +10401,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11910,9 +12057,6 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1">
-      <selection activeCell="L17" sqref="L17:L18"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13446,7 +13590,6 @@
   <dimension ref="A1:M76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/SubRES_TMPL/SubRes_RSD_Trans.xlsx
+++ b/SubRES_TMPL/SubRes_RSD_Trans.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VEDA_Models\2-NewVeda\TIMES-Ireland-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9039865B-23C2-4EB9-B006-4CDDA97CFB80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320BEF39-B02D-4599-B7F6-C02704756940}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="819" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" firstSheet="6" activeTab="6" xr2:uid="{DF4C35E6-02C2-4233-84CE-A7CCAFFA4B20}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" tabRatio="819" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" firstSheet="6" activeTab="6" xr2:uid="{DF4C35E6-02C2-4233-84CE-A7CCAFFA4B20}"/>
   </bookViews>
   <sheets>
     <sheet name="LOG" sheetId="64" r:id="rId1"/>
@@ -5255,7 +5255,7 @@
       <c r="C6" s="32"/>
       <c r="D6" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H6,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.41882471081785599</v>
+        <v>0.251294826490714</v>
       </c>
       <c r="F6" s="32" t="s">
         <v>109</v>
@@ -5290,7 +5290,7 @@
       <c r="C7" s="33"/>
       <c r="D7" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H7,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.4570753703752605E-3</v>
+        <v>5.6742452222251502E-3</v>
       </c>
       <c r="F7" s="33" t="s">
         <v>109</v>
@@ -5325,7 +5325,7 @@
       <c r="C8" s="32"/>
       <c r="D8" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H8,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.0352386019458902E-5</v>
+        <v>1.22114316116754E-5</v>
       </c>
       <c r="F8" s="32" t="s">
         <v>109</v>
@@ -5360,7 +5360,7 @@
       <c r="C9" s="33"/>
       <c r="D9" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H9,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.8787825956958103E-2</v>
+        <v>2.92726955741749E-2</v>
       </c>
       <c r="F9" s="33" t="s">
         <v>109</v>
@@ -5395,7 +5395,7 @@
       <c r="C10" s="32"/>
       <c r="D10" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H10,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.10040134293076135</v>
+        <v>2.1974809581675851E-2</v>
       </c>
       <c r="F10" s="32" t="s">
         <v>109</v>
@@ -5430,7 +5430,7 @@
       <c r="C11" s="33"/>
       <c r="D11" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H11,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>7.8978154557043795E-2</v>
+        <v>4.7386892734226298E-2</v>
       </c>
       <c r="F11" s="33" t="s">
         <v>109</v>
@@ -5465,7 +5465,7 @@
       <c r="C12" s="32"/>
       <c r="D12" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H12,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.5069945114006401E-2</v>
+        <v>1.50419670684038E-2</v>
       </c>
       <c r="F12" s="32" t="s">
         <v>109</v>
@@ -5500,7 +5500,7 @@
       <c r="C13" s="33"/>
       <c r="D13" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H13,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.15828050607333199</v>
+        <v>9.4968303643999302E-2</v>
       </c>
       <c r="F13" s="33" t="s">
         <v>109</v>
@@ -5524,7 +5524,7 @@
       <c r="C14" s="32"/>
       <c r="D14" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H14,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.14698298838932999</v>
+        <v>8.8189793033597697E-2</v>
       </c>
       <c r="F14" s="32" t="s">
         <v>109</v>
@@ -5548,7 +5548,7 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H15,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.7307426022765301E-2</v>
+        <v>2.2384455613659201E-2</v>
       </c>
       <c r="F15" s="33" t="s">
         <v>109</v>
@@ -5575,7 +5575,7 @@
       <c r="C16" s="32"/>
       <c r="D16" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H16,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.3488908827814098E-3</v>
+        <v>1.40933452966884E-3</v>
       </c>
       <c r="F16" s="32" t="s">
         <v>109</v>
@@ -5625,7 +5625,7 @@
       <c r="C18" s="32"/>
       <c r="D18" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H18,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.31784775894057798</v>
+        <v>0.25427820715246202</v>
       </c>
       <c r="F18" s="32" t="s">
         <v>105</v>
@@ -5659,7 +5659,7 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H19,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.4658929270483999E-2</v>
+        <v>1.9727143416387202E-2</v>
       </c>
       <c r="F19" s="33" t="s">
         <v>105</v>
@@ -5727,7 +5727,7 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H21,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.9050090196469498E-2</v>
+        <v>3.92400721571756E-2</v>
       </c>
       <c r="F21" s="33" t="s">
         <v>105</v>
@@ -5761,7 +5761,7 @@
       <c r="C22" s="32"/>
       <c r="D22" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H22,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>7.537088345132234E-2</v>
+        <v>3.1152602388648351E-2</v>
       </c>
       <c r="F22" s="32" t="s">
         <v>105</v>
@@ -5795,7 +5795,7 @@
       <c r="C23" s="33"/>
       <c r="D23" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H23,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.4978376179101401E-2</v>
+        <v>3.5982700943281098E-2</v>
       </c>
       <c r="F23" s="33" t="s">
         <v>105</v>
@@ -5829,7 +5829,7 @@
       <c r="C24" s="32"/>
       <c r="D24" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H24,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.5032805879028399E-2</v>
+        <v>2.8026244703222701E-2</v>
       </c>
       <c r="F24" s="32" t="s">
         <v>105</v>
@@ -5853,7 +5853,7 @@
       <c r="C25" s="33"/>
       <c r="D25" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H25,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>7.0893554801410602E-2</v>
+        <v>5.6714843841128501E-2</v>
       </c>
       <c r="F25" s="33" t="s">
         <v>105</v>
@@ -5877,7 +5877,7 @@
       <c r="C26" s="32"/>
       <c r="D26" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H26,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>7.3631430941555998E-2</v>
+        <v>5.8905144753244799E-2</v>
       </c>
       <c r="F26" s="32" t="s">
         <v>105</v>
@@ -5901,7 +5901,7 @@
       <c r="C27" s="33"/>
       <c r="D27" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H27,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.119017735973187</v>
+        <v>9.52141887785493E-2</v>
       </c>
       <c r="F27" s="33" t="s">
         <v>105</v>
@@ -5925,7 +5925,7 @@
       <c r="C28" s="32"/>
       <c r="D28" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H28,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.2872893208017001E-2</v>
+        <v>1.82983145664136E-2</v>
       </c>
       <c r="F28" s="32" t="s">
         <v>105</v>
@@ -5961,7 +5961,7 @@
       <c r="C30" s="32"/>
       <c r="D30" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H30,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.47278411842156098</v>
+        <v>0.56734094210587305</v>
       </c>
       <c r="F30" s="32" t="s">
         <v>114</v>
@@ -6034,7 +6034,7 @@
       <c r="C33" s="33"/>
       <c r="D33" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H33,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>7.0854130591549894E-2</v>
+        <v>8.5024956709859906E-2</v>
       </c>
       <c r="F33" s="33" t="s">
         <v>114</v>
@@ -6058,7 +6058,7 @@
       <c r="C34" s="32"/>
       <c r="D34" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H34,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.5759782196410553E-2</v>
+        <v>5.2637209370950108E-2</v>
       </c>
       <c r="F34" s="32" t="s">
         <v>114</v>
@@ -6082,7 +6082,7 @@
       <c r="C35" s="33"/>
       <c r="D35" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H35,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.92788432018662E-2</v>
+        <v>5.9134611842239497E-2</v>
       </c>
       <c r="F35" s="33" t="s">
         <v>114</v>
@@ -6106,7 +6106,7 @@
       <c r="C36" s="32"/>
       <c r="D36" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H36,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.9151690301129402E-2</v>
+        <v>4.6982028361355302E-2</v>
       </c>
       <c r="F36" s="32" t="s">
         <v>114</v>
@@ -6130,7 +6130,7 @@
       <c r="C37" s="33"/>
       <c r="D37" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H37,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.100420210433235</v>
+        <v>0.120504252519882</v>
       </c>
       <c r="F37" s="33" t="s">
         <v>114</v>
@@ -6154,7 +6154,7 @@
       <c r="C38" s="32"/>
       <c r="D38" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H38,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.13720876081054401</v>
+        <v>0.16465051297265201</v>
       </c>
       <c r="F38" s="32" t="s">
         <v>114</v>
@@ -6178,7 +6178,7 @@
       <c r="C39" s="33"/>
       <c r="D39" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H39,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.6348966878171502E-2</v>
+        <v>0.115618760253806</v>
       </c>
       <c r="F39" s="33" t="s">
         <v>114</v>
@@ -6202,7 +6202,7 @@
       <c r="C40" s="32"/>
       <c r="D40" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H40,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.200825091733705</v>
+        <v>0.24099011008044599</v>
       </c>
       <c r="F40" s="32" t="s">
         <v>114</v>
@@ -6240,7 +6240,7 @@
       </c>
       <c r="D42" s="32">
         <f t="shared" ref="D42:D52" si="9">AVERAGE(D6,D78)</f>
-        <v>0.43569133982209951</v>
+        <v>0.1528008913749376</v>
       </c>
       <c r="F42" s="32" t="s">
         <v>109</v>
@@ -6267,7 +6267,7 @@
       </c>
       <c r="D43" s="33">
         <f t="shared" si="9"/>
-        <v>4.2254222616694481E-2</v>
+        <v>7.3402048028933953E-3</v>
       </c>
       <c r="F43" s="33" t="s">
         <v>109</v>
@@ -6294,7 +6294,7 @@
       </c>
       <c r="D44" s="32">
         <f t="shared" si="9"/>
-        <v>4.5221363407621576E-2</v>
+        <v>5.4314481815592374E-3</v>
       </c>
       <c r="F44" s="32" t="s">
         <v>109</v>
@@ -6321,7 +6321,7 @@
       </c>
       <c r="D45" s="33">
         <f t="shared" si="9"/>
-        <v>9.0652735347130045E-2</v>
+        <v>2.2587406471325601E-2</v>
       </c>
       <c r="F45" s="33" t="s">
         <v>109</v>
@@ -6348,7 +6348,7 @@
       </c>
       <c r="D46" s="32">
         <f t="shared" si="9"/>
-        <v>0.44216237015129278</v>
+        <v>2.5406290924250299E-2</v>
       </c>
       <c r="F46" s="32" t="s">
         <v>109</v>
@@ -6375,7 +6375,7 @@
       </c>
       <c r="D47" s="33">
         <f t="shared" si="9"/>
-        <v>9.5574094033833407E-2</v>
+        <v>3.0423648377750551E-2</v>
       </c>
       <c r="F47" s="33" t="s">
         <v>109</v>
@@ -6402,7 +6402,7 @@
       </c>
       <c r="D48" s="32">
         <f t="shared" si="9"/>
-        <v>5.005778023052835E-2</v>
+        <v>1.2023720455024919E-2</v>
       </c>
       <c r="F48" s="32" t="s">
         <v>109</v>
@@ -6429,7 +6429,7 @@
       </c>
       <c r="D49" s="33">
         <f t="shared" si="9"/>
-        <v>0.12445385068331161</v>
+        <v>5.2921783539597103E-2</v>
       </c>
       <c r="F49" s="33" t="s">
         <v>109</v>
@@ -6456,7 +6456,7 @@
       </c>
       <c r="D50" s="32">
         <f t="shared" si="9"/>
-        <v>0.11858965076383715</v>
+        <v>4.9506675305099501E-2</v>
       </c>
       <c r="F50" s="32" t="s">
         <v>109</v>
@@ -6483,7 +6483,7 @@
       </c>
       <c r="D51" s="33">
         <f t="shared" si="9"/>
-        <v>7.023431639574465E-2</v>
+        <v>1.738190021295305E-2</v>
       </c>
       <c r="F51" s="33" t="s">
         <v>109</v>
@@ -6510,7 +6510,7 @@
       </c>
       <c r="D52" s="32">
         <f t="shared" si="9"/>
-        <v>2.7931052284335001E-3</v>
+        <v>8.9890643927955554E-4</v>
       </c>
       <c r="F52" s="32" t="s">
         <v>109</v>
@@ -6549,7 +6549,7 @@
       </c>
       <c r="D54" s="32">
         <f t="shared" ref="D54:D64" si="13">AVERAGE(D18,D91)</f>
-        <v>0.211103808258606</v>
+        <v>0.13757508933389442</v>
       </c>
       <c r="F54" s="32" t="s">
         <v>105</v>
@@ -6576,7 +6576,7 @@
       </c>
       <c r="D55" s="33">
         <f t="shared" si="13"/>
-        <v>5.6789129779838646E-2</v>
+        <v>1.8755504737112953E-2</v>
       </c>
       <c r="F55" s="33" t="s">
         <v>105</v>
@@ -6603,7 +6603,7 @@
       </c>
       <c r="D56" s="32">
         <f t="shared" si="13"/>
-        <v>3.3606164383561649E-2</v>
+        <v>6.72123287671235E-3</v>
       </c>
       <c r="F56" s="32" t="s">
         <v>105</v>
@@ -6630,7 +6630,7 @@
       </c>
       <c r="D57" s="33">
         <f t="shared" si="13"/>
-        <v>7.4808754437320241E-2</v>
+        <v>2.9676777946404852E-2</v>
       </c>
       <c r="F57" s="33" t="s">
         <v>105</v>
@@ -6657,7 +6657,7 @@
       </c>
       <c r="D58" s="32">
         <f t="shared" si="13"/>
-        <v>7.0886712228430571E-2</v>
+        <v>2.3774911335309026E-2</v>
       </c>
       <c r="F58" s="32" t="s">
         <v>105</v>
@@ -6684,7 +6684,7 @@
       </c>
       <c r="D59" s="33">
         <f t="shared" si="13"/>
-        <v>5.7341827023040151E-2</v>
+        <v>2.4961878258338448E-2</v>
       </c>
       <c r="F59" s="33" t="s">
         <v>105</v>
@@ -6711,7 +6711,7 @@
       </c>
       <c r="D60" s="32">
         <f t="shared" si="13"/>
-        <v>4.6710686933249396E-2</v>
+        <v>1.9851979150358402E-2</v>
       </c>
       <c r="F60" s="32" t="s">
         <v>105</v>
@@ -6738,7 +6738,7 @@
       </c>
       <c r="D61" s="33">
         <f t="shared" si="13"/>
-        <v>6.9918931863256345E-2</v>
+        <v>3.5251852813074448E-2</v>
       </c>
       <c r="F61" s="33" t="s">
         <v>105</v>
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D62" s="32">
         <f t="shared" si="13"/>
-        <v>6.6336034846957451E-2</v>
+        <v>3.5356636251858302E-2</v>
       </c>
       <c r="F62" s="32" t="s">
         <v>105</v>
@@ -6792,7 +6792,7 @@
       </c>
       <c r="D63" s="33">
         <f t="shared" si="13"/>
-        <v>9.3897937800385162E-2</v>
+        <v>5.4484908352032999E-2</v>
       </c>
       <c r="F63" s="33" t="s">
         <v>105</v>
@@ -6819,7 +6819,7 @@
       </c>
       <c r="D64" s="32">
         <f t="shared" si="13"/>
-        <v>1.3876175817105671E-2</v>
+        <v>9.6371031258262324E-3</v>
       </c>
       <c r="F64" s="32" t="s">
         <v>105</v>
@@ -6858,7 +6858,7 @@
       </c>
       <c r="D66" s="32">
         <f t="shared" ref="D66:D76" si="18">AVERAGE(D30,D104)</f>
-        <v>0.27265121677642429</v>
+        <v>0.29527340147394254</v>
       </c>
       <c r="F66" s="32" t="s">
         <v>114</v>
@@ -6885,7 +6885,7 @@
       </c>
       <c r="D67" s="33">
         <f t="shared" si="18"/>
-        <v>2.1164383561643851E-2</v>
+        <v>6.7726027397260503E-3</v>
       </c>
       <c r="F67" s="33" t="s">
         <v>114</v>
@@ -6912,7 +6912,7 @@
       </c>
       <c r="D68" s="32">
         <f t="shared" si="18"/>
-        <v>2.3973672945205499E-2</v>
+        <v>7.6715753424657501E-3</v>
       </c>
       <c r="F68" s="32" t="s">
         <v>114</v>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="D69" s="33">
         <f t="shared" si="18"/>
-        <v>6.9820820161344596E-2</v>
+        <v>5.3518479911912255E-2</v>
       </c>
       <c r="F69" s="33" t="s">
         <v>114</v>
@@ -6966,7 +6966,7 @@
       </c>
       <c r="D70" s="32">
         <f t="shared" si="18"/>
-        <v>4.6137119620811927E-2</v>
+        <v>3.4771475539781452E-2</v>
       </c>
       <c r="F70" s="32" t="s">
         <v>114</v>
@@ -6993,7 +6993,7 @@
       </c>
       <c r="D71" s="33">
         <f t="shared" si="18"/>
-        <v>5.1468333134737351E-2</v>
+        <v>3.8152557611937102E-2</v>
       </c>
       <c r="F71" s="33" t="s">
         <v>114</v>
@@ -7020,7 +7020,7 @@
       </c>
       <c r="D72" s="32">
         <f t="shared" si="18"/>
-        <v>4.3068459459698047E-2</v>
+        <v>3.1008650759600302E-2</v>
       </c>
       <c r="F72" s="32" t="s">
         <v>114</v>
@@ -7047,7 +7047,7 @@
       </c>
       <c r="D73" s="33">
         <f t="shared" si="18"/>
-        <v>6.2025894676084901E-2</v>
+        <v>6.8174234439631151E-2</v>
       </c>
       <c r="F73" s="33" t="s">
         <v>114</v>
@@ -7074,7 +7074,7 @@
       </c>
       <c r="D74" s="32">
         <f t="shared" si="18"/>
-        <v>9.0973168733934545E-2</v>
+        <v>8.9483268751498007E-2</v>
       </c>
       <c r="F74" s="32" t="s">
         <v>114</v>
@@ -7101,7 +7101,7 @@
       </c>
       <c r="D75" s="33">
         <f t="shared" si="18"/>
-        <v>7.7073922910080403E-2</v>
+        <v>6.705720075762131E-2</v>
       </c>
       <c r="F75" s="33" t="s">
         <v>114</v>
@@ -7128,7 +7128,7 @@
       </c>
       <c r="D76" s="32">
         <f t="shared" si="18"/>
-        <v>0.10296416233508046</v>
+        <v>0.12131157231005595</v>
       </c>
       <c r="F76" s="32" t="s">
         <v>114</v>
@@ -7163,7 +7163,7 @@
       <c r="C78" s="32"/>
       <c r="D78" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H78,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.45255796882634303</v>
+        <v>5.4306956259161203E-2</v>
       </c>
       <c r="F78" s="32" t="s">
         <v>109</v>
@@ -7187,7 +7187,7 @@
       <c r="C79" s="33"/>
       <c r="D79" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H79,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>7.5051369863013695E-2</v>
+        <v>9.0061643835616396E-3</v>
       </c>
       <c r="F79" s="33" t="s">
         <v>109</v>
@@ -7211,7 +7211,7 @@
       <c r="C80" s="32"/>
       <c r="D80" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H80,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.0422374429223698E-2</v>
+        <v>1.08506849315068E-2</v>
       </c>
       <c r="F80" s="32" t="s">
         <v>109</v>
@@ -7235,7 +7235,7 @@
       <c r="C81" s="33"/>
       <c r="D81" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H81,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.13251764473730199</v>
+        <v>1.5902117368476298E-2</v>
       </c>
       <c r="F81" s="33" t="s">
         <v>109</v>
@@ -7259,7 +7259,7 @@
       <c r="C82" s="32"/>
       <c r="D82" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H82,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.78392339737182426</v>
+        <v>2.8837772266824751E-2</v>
       </c>
       <c r="F82" s="32" t="s">
         <v>109</v>
@@ -7283,7 +7283,7 @@
       <c r="C83" s="33"/>
       <c r="D83" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H83,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.112170033510623</v>
+        <v>1.34604040212748E-2</v>
       </c>
       <c r="F83" s="33" t="s">
         <v>109</v>
@@ -7307,7 +7307,7 @@
       <c r="C84" s="32"/>
       <c r="D84" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H84,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>7.5045615347050301E-2</v>
+        <v>9.0054738416460393E-3</v>
       </c>
       <c r="F84" s="32" t="s">
         <v>109</v>
@@ -7331,7 +7331,7 @@
       <c r="C85" s="33"/>
       <c r="D85" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H85,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.0627195293291204E-2</v>
+        <v>1.0875263435194901E-2</v>
       </c>
       <c r="F85" s="33" t="s">
         <v>109</v>
@@ -7355,7 +7355,7 @@
       <c r="C86" s="32"/>
       <c r="D86" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H86,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.0196313138344295E-2</v>
+        <v>1.0823557576601301E-2</v>
       </c>
       <c r="F86" s="32" t="s">
         <v>109</v>
@@ -7379,7 +7379,7 @@
       <c r="C87" s="33"/>
       <c r="D87" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H87,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.10316120676872401</v>
+        <v>1.23793448122469E-2</v>
       </c>
       <c r="F87" s="33" t="s">
         <v>109</v>
@@ -7403,7 +7403,7 @@
       <c r="C88" s="32"/>
       <c r="D88" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H88,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.2373195740855901E-3</v>
+        <v>3.8847834889027099E-4</v>
       </c>
       <c r="F88" s="32" t="s">
         <v>109</v>
@@ -7427,7 +7427,7 @@
       <c r="C89" s="32"/>
       <c r="D89" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H89,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.143159113753899</v>
+        <v>1.0946059106357601E-2</v>
       </c>
       <c r="F89" s="32" t="s">
         <v>109</v>
@@ -7463,7 +7463,7 @@
       <c r="C91" s="32"/>
       <c r="D91" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H91,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.104359857576634</v>
+        <v>2.0871971515326802E-2</v>
       </c>
       <c r="F91" s="32" t="s">
         <v>105</v>
@@ -7487,7 +7487,7 @@
       <c r="C92" s="33"/>
       <c r="D92" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H92,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>8.8919330289193299E-2</v>
+        <v>1.7783866057838701E-2</v>
       </c>
       <c r="F92" s="33" t="s">
         <v>105</v>
@@ -7511,7 +7511,7 @@
       <c r="C93" s="32"/>
       <c r="D93" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H93,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>6.7212328767123297E-2</v>
+        <v>1.34424657534247E-2</v>
       </c>
       <c r="F93" s="32" t="s">
         <v>105</v>
@@ -7535,7 +7535,7 @@
       <c r="C94" s="33"/>
       <c r="D94" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H94,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.100567418678171</v>
+        <v>2.01134837356341E-2</v>
       </c>
       <c r="F94" s="33" t="s">
         <v>105</v>
@@ -7559,7 +7559,7 @@
       <c r="C95" s="32"/>
       <c r="D95" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H95,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>6.6402541005538801E-2</v>
+        <v>1.6397220281969702E-2</v>
       </c>
       <c r="F95" s="32" t="s">
         <v>105</v>
@@ -7583,7 +7583,7 @@
       <c r="C96" s="33"/>
       <c r="D96" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H96,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>6.9705277866978901E-2</v>
+        <v>1.39410555733958E-2</v>
       </c>
       <c r="F96" s="33" t="s">
         <v>105</v>
@@ -7607,7 +7607,7 @@
       <c r="C97" s="32"/>
       <c r="D97" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H97,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.8388567987470399E-2</v>
+        <v>1.16777135974941E-2</v>
       </c>
       <c r="F97" s="32" t="s">
         <v>105</v>
@@ -7631,7 +7631,7 @@
       <c r="C98" s="33"/>
       <c r="D98" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H98,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>6.8944308925102102E-2</v>
+        <v>1.3788861785020401E-2</v>
       </c>
       <c r="F98" s="33" t="s">
         <v>105</v>
@@ -7655,7 +7655,7 @@
       <c r="C99" s="32"/>
       <c r="D99" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H99,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.9040638752358897E-2</v>
+        <v>1.1808127750471799E-2</v>
       </c>
       <c r="F99" s="32" t="s">
         <v>105</v>
@@ -7679,7 +7679,7 @@
       <c r="C100" s="33"/>
       <c r="D100" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H100,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>6.8778139627583307E-2</v>
+        <v>1.3755627925516699E-2</v>
       </c>
       <c r="F100" s="33" t="s">
         <v>105</v>
@@ -7703,7 +7703,7 @@
       <c r="C101" s="32"/>
       <c r="D101" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H101,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.8794584261943399E-3</v>
+        <v>9.7589168523886695E-4</v>
       </c>
       <c r="F101" s="32" t="s">
         <v>105</v>
@@ -7727,7 +7727,7 @@
       <c r="C102" s="32"/>
       <c r="D102" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H102,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.220198275095671</v>
+        <v>4.36448583018159E-2</v>
       </c>
       <c r="F102" s="32" t="s">
         <v>105</v>
@@ -7763,7 +7763,7 @@
       <c r="C104" s="32"/>
       <c r="D104" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H104,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>7.2518315131287606E-2</v>
+        <v>2.3205860842012E-2</v>
       </c>
       <c r="F104" s="32" t="s">
         <v>114</v>
@@ -7787,7 +7787,7 @@
       <c r="C105" s="33"/>
       <c r="D105" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H105,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.2328767123287703E-2</v>
+        <v>1.3545205479452101E-2</v>
       </c>
       <c r="F105" s="33" t="s">
         <v>114</v>
@@ -7811,7 +7811,7 @@
       <c r="C106" s="32"/>
       <c r="D106" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H106,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.7947345890410997E-2</v>
+        <v>1.53431506849315E-2</v>
       </c>
       <c r="F106" s="32" t="s">
         <v>114</v>
@@ -7835,7 +7835,7 @@
       <c r="C107" s="33"/>
       <c r="D107" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H107,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>6.8787509731139299E-2</v>
+        <v>2.20120031139646E-2</v>
       </c>
       <c r="F107" s="33" t="s">
         <v>114</v>
@@ -7859,7 +7859,7 @@
       <c r="C108" s="32"/>
       <c r="D108" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H108,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.65144570452133E-2</v>
+        <v>1.6905741708612799E-2</v>
       </c>
       <c r="F108" s="32" t="s">
         <v>114</v>
@@ -7883,7 +7883,7 @@
       <c r="C109" s="33"/>
       <c r="D109" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H109,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.3657823067608502E-2</v>
+        <v>1.71705033816347E-2</v>
       </c>
       <c r="F109" s="33" t="s">
         <v>114</v>
@@ -7907,7 +7907,7 @@
       <c r="C110" s="32"/>
       <c r="D110" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H110,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.6985228618266699E-2</v>
+        <v>1.5035273157845299E-2</v>
       </c>
       <c r="F110" s="32" t="s">
         <v>114</v>
@@ -7931,7 +7931,7 @@
       <c r="C111" s="33"/>
       <c r="D111" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H111,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.36315789189348E-2</v>
+        <v>1.5844216359380301E-2</v>
       </c>
       <c r="F111" s="33" t="s">
         <v>114</v>
@@ -7955,7 +7955,7 @@
       <c r="C112" s="32"/>
       <c r="D112" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H112,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.4737576657325098E-2</v>
+        <v>1.4316024530344E-2</v>
       </c>
       <c r="F112" s="32" t="s">
         <v>114</v>
@@ -7979,7 +7979,7 @@
       <c r="C113" s="33"/>
       <c r="D113" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H113,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.7798878941989297E-2</v>
+        <v>1.8495641261436602E-2</v>
       </c>
       <c r="F113" s="33" t="s">
         <v>114</v>
@@ -8003,7 +8003,7 @@
       <c r="C114" s="32"/>
       <c r="D114" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H114,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.1032329364559198E-3</v>
+        <v>1.6330345396658901E-3</v>
       </c>
       <c r="F114" s="32" t="s">
         <v>114</v>
@@ -8027,7 +8027,7 @@
       <c r="C115" s="32"/>
       <c r="D115" s="40">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H115,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.145588074596397</v>
+        <v>4.6408942067286699E-2</v>
       </c>
       <c r="F115" s="32" t="s">
         <v>114</v>
@@ -8063,7 +8063,7 @@
       <c r="C117" s="32"/>
       <c r="D117" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H117,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.183575067201909</v>
+        <v>2.6752418704136399E-2</v>
       </c>
       <c r="F117" s="32" t="s">
         <v>109</v>
@@ -8087,7 +8087,7 @@
       <c r="C118" s="32"/>
       <c r="D118" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H118,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.113204385544111</v>
+        <v>2.1795378605209401E-2</v>
       </c>
       <c r="F118" s="32" t="s">
         <v>105</v>
@@ -8111,7 +8111,7 @@
       <c r="C119" s="32"/>
       <c r="D119" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H119,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.5889115871067698E-2</v>
+        <v>4.0026061338975703E-2</v>
       </c>
       <c r="F119" s="32" t="s">
         <v>114</v>
@@ -8150,7 +8150,7 @@
       </c>
       <c r="D121" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H121,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.183575067201909</v>
+        <v>2.6752418704136399E-2</v>
       </c>
       <c r="F121" s="32" t="s">
         <v>109</v>
@@ -8177,7 +8177,7 @@
       </c>
       <c r="D122" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H122,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.113204385544111</v>
+        <v>2.1795378605209401E-2</v>
       </c>
       <c r="F122" s="32" t="s">
         <v>105</v>
@@ -8204,7 +8204,7 @@
       </c>
       <c r="D123" s="38">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H123,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.5889115871067698E-2</v>
+        <v>4.0026061338975703E-2</v>
       </c>
       <c r="F123" s="38" t="s">
         <v>114</v>
@@ -8243,7 +8243,7 @@
       </c>
       <c r="D125" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H125,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.183575067201909</v>
+        <v>2.6752418704136399E-2</v>
       </c>
       <c r="F125" s="32" t="s">
         <v>109</v>
@@ -8270,7 +8270,7 @@
       </c>
       <c r="D126" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H126,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.113204385544111</v>
+        <v>2.1795378605209401E-2</v>
       </c>
       <c r="F126" s="32" t="s">
         <v>105</v>
@@ -8297,7 +8297,7 @@
       </c>
       <c r="D127" s="38">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H127,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.5889115871067698E-2</v>
+        <v>4.0026061338975703E-2</v>
       </c>
       <c r="F127" s="38" t="s">
         <v>114</v>
@@ -10336,10 +10336,10 @@
         <v>131</v>
       </c>
       <c r="L2">
-        <v>7.5051369863013695E-2</v>
+        <v>9.0061643835616396E-3</v>
       </c>
       <c r="M2">
-        <v>7.5051369863013695E-2</v>
+        <v>9.0061643835616396E-3</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -10377,10 +10377,10 @@
         <v>131</v>
       </c>
       <c r="L3">
-        <v>0.45255796882634303</v>
+        <v>5.4306956259161203E-2</v>
       </c>
       <c r="M3">
-        <v>0.45255796882634303</v>
+        <v>5.4306956259161203E-2</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -10418,10 +10418,10 @@
         <v>131</v>
       </c>
       <c r="L4">
-        <v>6.2549233288808403E-2</v>
+        <v>1.0747850331916199E-2</v>
       </c>
       <c r="M4">
-        <v>6.2549233288808403E-2</v>
+        <v>1.0747850331916199E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -10459,10 +10459,10 @@
         <v>131</v>
       </c>
       <c r="L5">
-        <v>1.5052975614548401</v>
+        <v>4.6927694201733303E-2</v>
       </c>
       <c r="M5">
-        <v>1.5052975614548401</v>
+        <v>4.6927694201733303E-2</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -10500,10 +10500,10 @@
         <v>131</v>
       </c>
       <c r="L6">
-        <v>9.0422374429223698E-2</v>
+        <v>1.08506849315068E-2</v>
       </c>
       <c r="M6">
-        <v>9.0422374429223698E-2</v>
+        <v>1.08506849315068E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -10541,10 +10541,10 @@
         <v>131</v>
       </c>
       <c r="L7">
-        <v>7.5045615347050301E-2</v>
+        <v>9.0054738416460393E-3</v>
       </c>
       <c r="M7">
-        <v>7.5045615347050301E-2</v>
+        <v>9.0054738416460393E-3</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -10582,10 +10582,10 @@
         <v>131</v>
       </c>
       <c r="L8">
-        <v>3.2373195740855901E-3</v>
+        <v>3.8847834889027099E-4</v>
       </c>
       <c r="M8">
-        <v>3.2373195740855901E-3</v>
+        <v>3.8847834889027099E-4</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -10623,10 +10623,10 @@
         <v>131</v>
       </c>
       <c r="L9">
-        <v>0.112170033510623</v>
+        <v>1.34604040212748E-2</v>
       </c>
       <c r="M9">
-        <v>0.112170033510623</v>
+        <v>1.34604040212748E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -10664,10 +10664,10 @@
         <v>131</v>
       </c>
       <c r="L10">
-        <v>0.13251764473730199</v>
+        <v>1.5902117368476298E-2</v>
       </c>
       <c r="M10">
-        <v>0.13251764473730199</v>
+        <v>1.5902117368476298E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -10705,10 +10705,10 @@
         <v>131</v>
       </c>
       <c r="L11">
-        <v>9.0627195293291204E-2</v>
+        <v>1.0875263435194901E-2</v>
       </c>
       <c r="M11">
-        <v>9.0627195293291204E-2</v>
+        <v>1.0875263435194901E-2</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -10746,10 +10746,10 @@
         <v>131</v>
       </c>
       <c r="L12">
-        <v>9.0196313138344295E-2</v>
+        <v>1.0823557576601301E-2</v>
       </c>
       <c r="M12">
-        <v>9.0196313138344295E-2</v>
+        <v>1.0823557576601301E-2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -10787,10 +10787,10 @@
         <v>131</v>
       </c>
       <c r="L13">
-        <v>0.143159113753899</v>
+        <v>1.0946059106357601E-2</v>
       </c>
       <c r="M13">
-        <v>0.143159113753899</v>
+        <v>1.0946059106357601E-2</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -10828,10 +10828,10 @@
         <v>131</v>
       </c>
       <c r="L14">
-        <v>0.10316120676872401</v>
+        <v>1.23793448122469E-2</v>
       </c>
       <c r="M14">
-        <v>0.10316120676872401</v>
+        <v>1.23793448122469E-2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -10869,10 +10869,10 @@
         <v>131</v>
       </c>
       <c r="L15">
-        <v>8.8919330289193299E-2</v>
+        <v>1.7783866057838701E-2</v>
       </c>
       <c r="M15">
-        <v>8.8919330289193299E-2</v>
+        <v>1.7783866057838701E-2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -10910,10 +10910,10 @@
         <v>131</v>
       </c>
       <c r="L16">
-        <v>0.104359857576634</v>
+        <v>2.0871971515326802E-2</v>
       </c>
       <c r="M16">
-        <v>0.104359857576634</v>
+        <v>2.0871971515326802E-2</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -10951,10 +10951,10 @@
         <v>131</v>
       </c>
       <c r="L17">
-        <v>6.6402541005538801E-2</v>
+        <v>1.6397220281969702E-2</v>
       </c>
       <c r="M17">
-        <v>6.6402541005538801E-2</v>
+        <v>1.6397220281969702E-2</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -10992,10 +10992,10 @@
         <v>131</v>
       </c>
       <c r="L18">
-        <v>0.66825318875216799</v>
+        <v>2.9986743667255199E-2</v>
       </c>
       <c r="M18">
-        <v>0.66825318875216799</v>
+        <v>2.9986743667255199E-2</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -11033,10 +11033,10 @@
         <v>131</v>
       </c>
       <c r="L19">
-        <v>6.7212328767123297E-2</v>
+        <v>1.34424657534247E-2</v>
       </c>
       <c r="M19">
-        <v>6.7212328767123297E-2</v>
+        <v>1.34424657534247E-2</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -11074,10 +11074,10 @@
         <v>131</v>
       </c>
       <c r="L20">
-        <v>5.8388567987470399E-2</v>
+        <v>1.16777135974941E-2</v>
       </c>
       <c r="M20">
-        <v>5.8388567987470399E-2</v>
+        <v>1.16777135974941E-2</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -11115,10 +11115,10 @@
         <v>131</v>
       </c>
       <c r="L21">
-        <v>4.8794584261943399E-3</v>
+        <v>9.7589168523886695E-4</v>
       </c>
       <c r="M21">
-        <v>4.8794584261943399E-3</v>
+        <v>9.7589168523886695E-4</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -11156,10 +11156,10 @@
         <v>131</v>
       </c>
       <c r="L22">
-        <v>6.9705277866978901E-2</v>
+        <v>1.39410555733958E-2</v>
       </c>
       <c r="M22">
-        <v>6.9705277866978901E-2</v>
+        <v>1.39410555733958E-2</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -11197,10 +11197,10 @@
         <v>131</v>
       </c>
       <c r="L23">
-        <v>0.100567418678171</v>
+        <v>2.01134837356341E-2</v>
       </c>
       <c r="M23">
-        <v>0.100567418678171</v>
+        <v>2.01134837356341E-2</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -11238,10 +11238,10 @@
         <v>131</v>
       </c>
       <c r="L24">
-        <v>6.8944308925102102E-2</v>
+        <v>1.3788861785020401E-2</v>
       </c>
       <c r="M24">
-        <v>6.8944308925102102E-2</v>
+        <v>1.3788861785020401E-2</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -11279,10 +11279,10 @@
         <v>131</v>
       </c>
       <c r="L25">
-        <v>5.9040638752358897E-2</v>
+        <v>1.1808127750471799E-2</v>
       </c>
       <c r="M25">
-        <v>5.9040638752358897E-2</v>
+        <v>1.1808127750471799E-2</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -11320,10 +11320,10 @@
         <v>131</v>
       </c>
       <c r="L26">
-        <v>0.220198275095671</v>
+        <v>4.36448583018159E-2</v>
       </c>
       <c r="M26">
-        <v>0.220198275095671</v>
+        <v>4.36448583018159E-2</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -11361,10 +11361,10 @@
         <v>131</v>
       </c>
       <c r="L27">
-        <v>6.8778139627583307E-2</v>
+        <v>1.3755627925516699E-2</v>
       </c>
       <c r="M27">
-        <v>6.8778139627583307E-2</v>
+        <v>1.3755627925516699E-2</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -11402,10 +11402,10 @@
         <v>131</v>
       </c>
       <c r="L28">
-        <v>4.2328767123287703E-2</v>
+        <v>1.3545205479452101E-2</v>
       </c>
       <c r="M28">
-        <v>4.2328767123287703E-2</v>
+        <v>1.3545205479452101E-2</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -11443,10 +11443,10 @@
         <v>131</v>
       </c>
       <c r="L29">
-        <v>7.2518315131287606E-2</v>
+        <v>2.3205860842012E-2</v>
       </c>
       <c r="M29">
-        <v>7.2518315131287606E-2</v>
+        <v>2.3205860842012E-2</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -11484,10 +11484,10 @@
         <v>131</v>
       </c>
       <c r="L30">
-        <v>4.65144570452133E-2</v>
+        <v>1.6905741708612799E-2</v>
       </c>
       <c r="M30">
-        <v>4.65144570452133E-2</v>
+        <v>1.6905741708612799E-2</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -11525,10 +11525,10 @@
         <v>131</v>
       </c>
       <c r="L31">
-        <v>0.45983560612562002</v>
+        <v>2.8537772759784301E-2</v>
       </c>
       <c r="M31">
-        <v>0.45983560612562002</v>
+        <v>2.8537772759784301E-2</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -11566,10 +11566,10 @@
         <v>131</v>
       </c>
       <c r="L32">
-        <v>4.7947345890410997E-2</v>
+        <v>1.53431506849315E-2</v>
       </c>
       <c r="M32">
-        <v>4.7947345890410997E-2</v>
+        <v>1.53431506849315E-2</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -11607,10 +11607,10 @@
         <v>131</v>
       </c>
       <c r="L33">
-        <v>4.6985228618266699E-2</v>
+        <v>1.5035273157845299E-2</v>
       </c>
       <c r="M33">
-        <v>4.6985228618266699E-2</v>
+        <v>1.5035273157845299E-2</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -11648,10 +11648,10 @@
         <v>131</v>
       </c>
       <c r="L34">
-        <v>5.1032329364559198E-3</v>
+        <v>1.6330345396658901E-3</v>
       </c>
       <c r="M34">
-        <v>5.1032329364559198E-3</v>
+        <v>1.6330345396658901E-3</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -11689,10 +11689,10 @@
         <v>131</v>
       </c>
       <c r="L35">
-        <v>5.3657823067608502E-2</v>
+        <v>1.71705033816347E-2</v>
       </c>
       <c r="M35">
-        <v>5.3657823067608502E-2</v>
+        <v>1.71705033816347E-2</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -11730,10 +11730,10 @@
         <v>131</v>
       </c>
       <c r="L36">
-        <v>6.8787509731139299E-2</v>
+        <v>2.20120031139646E-2</v>
       </c>
       <c r="M36">
-        <v>6.8787509731139299E-2</v>
+        <v>2.20120031139646E-2</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -11771,10 +11771,10 @@
         <v>131</v>
       </c>
       <c r="L37">
-        <v>2.36315789189348E-2</v>
+        <v>1.5844216359380301E-2</v>
       </c>
       <c r="M37">
-        <v>2.36315789189348E-2</v>
+        <v>1.5844216359380301E-2</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -11812,10 +11812,10 @@
         <v>131</v>
       </c>
       <c r="L38">
-        <v>4.4737576657325098E-2</v>
+        <v>1.4316024530344E-2</v>
       </c>
       <c r="M38">
-        <v>4.4737576657325098E-2</v>
+        <v>1.4316024530344E-2</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
@@ -11853,10 +11853,10 @@
         <v>131</v>
       </c>
       <c r="L39">
-        <v>0.145588074596397</v>
+        <v>4.6408942067286699E-2</v>
       </c>
       <c r="M39">
-        <v>0.145588074596397</v>
+        <v>4.6408942067286699E-2</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -11894,10 +11894,10 @@
         <v>131</v>
       </c>
       <c r="L40">
-        <v>5.7798878941989297E-2</v>
+        <v>1.8495641261436602E-2</v>
       </c>
       <c r="M40">
-        <v>5.7798878941989297E-2</v>
+        <v>1.8495641261436602E-2</v>
       </c>
     </row>
   </sheetData>
@@ -11995,10 +11995,10 @@
         <v>131</v>
       </c>
       <c r="L2">
-        <v>9.4570753703752605E-3</v>
+        <v>5.6742452222251502E-3</v>
       </c>
       <c r="M2">
-        <v>9.4570753703752605E-3</v>
+        <v>5.6742452222251502E-3</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -12036,10 +12036,10 @@
         <v>131</v>
       </c>
       <c r="L3">
-        <v>0.41882471081785599</v>
+        <v>0.251294826490714</v>
       </c>
       <c r="M3">
-        <v>0.41882471081785599</v>
+        <v>0.251294826490714</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -12077,10 +12077,10 @@
         <v>131</v>
       </c>
       <c r="L4">
-        <v>1.7227618659613701E-2</v>
+        <v>1.71972004592153E-2</v>
       </c>
       <c r="M4">
-        <v>1.7227618659613701E-2</v>
+        <v>1.71972004592153E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -12118,10 +12118,10 @@
         <v>131</v>
       </c>
       <c r="L5">
-        <v>0.183575067201909</v>
+        <v>2.6752418704136399E-2</v>
       </c>
       <c r="M5">
-        <v>0.183575067201909</v>
+        <v>2.6752418704136399E-2</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -12159,10 +12159,10 @@
         <v>131</v>
       </c>
       <c r="L6">
-        <v>2.0352386019458902E-5</v>
+        <v>1.22114316116754E-5</v>
       </c>
       <c r="M6">
-        <v>2.0352386019458902E-5</v>
+        <v>1.22114316116754E-5</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -12200,10 +12200,10 @@
         <v>131</v>
       </c>
       <c r="L7">
-        <v>2.5069945114006401E-2</v>
+        <v>1.50419670684038E-2</v>
       </c>
       <c r="M7">
-        <v>2.5069945114006401E-2</v>
+        <v>1.50419670684038E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -12241,10 +12241,10 @@
         <v>131</v>
       </c>
       <c r="L8">
-        <v>2.3488908827814098E-3</v>
+        <v>1.40933452966884E-3</v>
       </c>
       <c r="M8">
-        <v>2.3488908827814098E-3</v>
+        <v>1.40933452966884E-3</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -12282,10 +12282,10 @@
         <v>131</v>
       </c>
       <c r="L9">
-        <v>7.8978154557043795E-2</v>
+        <v>4.7386892734226298E-2</v>
       </c>
       <c r="M9">
-        <v>7.8978154557043795E-2</v>
+        <v>4.7386892734226298E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -12323,10 +12323,10 @@
         <v>131</v>
       </c>
       <c r="L10">
-        <v>4.8787825956958103E-2</v>
+        <v>2.92726955741749E-2</v>
       </c>
       <c r="M10">
-        <v>4.8787825956958103E-2</v>
+        <v>2.92726955741749E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -12364,10 +12364,10 @@
         <v>131</v>
       </c>
       <c r="L11">
-        <v>0.15828050607333199</v>
+        <v>9.4968303643999302E-2</v>
       </c>
       <c r="M11">
-        <v>0.15828050607333199</v>
+        <v>9.4968303643999302E-2</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -12405,10 +12405,10 @@
         <v>131</v>
       </c>
       <c r="L12">
-        <v>0.14698298838932999</v>
+        <v>8.8189793033597697E-2</v>
       </c>
       <c r="M12">
-        <v>0.14698298838932999</v>
+        <v>8.8189793033597697E-2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -12446,10 +12446,10 @@
         <v>131</v>
       </c>
       <c r="L13">
-        <v>3.7307426022765301E-2</v>
+        <v>2.2384455613659201E-2</v>
       </c>
       <c r="M13">
-        <v>3.7307426022765301E-2</v>
+        <v>2.2384455613659201E-2</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -12487,10 +12487,10 @@
         <v>131</v>
       </c>
       <c r="L14">
-        <v>2.4658929270483999E-2</v>
+        <v>1.9727143416387202E-2</v>
       </c>
       <c r="M14">
-        <v>2.4658929270483999E-2</v>
+        <v>1.9727143416387202E-2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -12528,10 +12528,10 @@
         <v>131</v>
       </c>
       <c r="L15">
-        <v>0.31784775894057798</v>
+        <v>0.25427820715246202</v>
       </c>
       <c r="M15">
-        <v>0.31784775894057798</v>
+        <v>0.25427820715246202</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -12569,10 +12569,10 @@
         <v>131</v>
       </c>
       <c r="L16">
-        <v>3.7537381358533697E-2</v>
+        <v>4.0509826172087302E-2</v>
       </c>
       <c r="M16">
-        <v>3.7537381358533697E-2</v>
+        <v>4.0509826172087302E-2</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -12610,10 +12610,10 @@
         <v>131</v>
       </c>
       <c r="L17">
-        <v>0.113204385544111</v>
+        <v>2.1795378605209401E-2</v>
       </c>
       <c r="M17">
-        <v>0.113204385544111</v>
+        <v>2.1795378605209401E-2</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -12692,10 +12692,10 @@
         <v>131</v>
       </c>
       <c r="L19">
-        <v>3.5032805879028399E-2</v>
+        <v>2.8026244703222701E-2</v>
       </c>
       <c r="M19">
-        <v>3.5032805879028399E-2</v>
+        <v>2.8026244703222701E-2</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -12733,10 +12733,10 @@
         <v>131</v>
       </c>
       <c r="L20">
-        <v>2.2872893208017001E-2</v>
+        <v>1.82983145664136E-2</v>
       </c>
       <c r="M20">
-        <v>2.2872893208017001E-2</v>
+        <v>1.82983145664136E-2</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -12774,10 +12774,10 @@
         <v>131</v>
       </c>
       <c r="L21">
-        <v>4.4978376179101401E-2</v>
+        <v>3.5982700943281098E-2</v>
       </c>
       <c r="M21">
-        <v>4.4978376179101401E-2</v>
+        <v>3.5982700943281098E-2</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -12815,10 +12815,10 @@
         <v>131</v>
       </c>
       <c r="L22">
-        <v>4.9050090196469498E-2</v>
+        <v>3.92400721571756E-2</v>
       </c>
       <c r="M22">
-        <v>4.9050090196469498E-2</v>
+        <v>3.92400721571756E-2</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -12856,10 +12856,10 @@
         <v>131</v>
       </c>
       <c r="L23">
-        <v>7.0893554801410602E-2</v>
+        <v>5.6714843841128501E-2</v>
       </c>
       <c r="M23">
-        <v>7.0893554801410602E-2</v>
+        <v>5.6714843841128501E-2</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -12897,10 +12897,10 @@
         <v>131</v>
       </c>
       <c r="L24">
-        <v>7.3631430941555998E-2</v>
+        <v>5.8905144753244799E-2</v>
       </c>
       <c r="M24">
-        <v>7.3631430941555998E-2</v>
+        <v>5.8905144753244799E-2</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -12938,10 +12938,10 @@
         <v>131</v>
       </c>
       <c r="L25">
-        <v>0.119017735973187</v>
+        <v>9.52141887785493E-2</v>
       </c>
       <c r="M25">
-        <v>0.119017735973187</v>
+        <v>9.52141887785493E-2</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -13020,10 +13020,10 @@
         <v>131</v>
       </c>
       <c r="L27">
-        <v>0.47278411842156098</v>
+        <v>0.56734094210587305</v>
       </c>
       <c r="M27">
-        <v>0.47278411842156098</v>
+        <v>0.56734094210587305</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -13061,10 +13061,10 @@
         <v>131</v>
       </c>
       <c r="L28">
-        <v>4.5630448521753401E-2</v>
+        <v>6.5248357402924506E-2</v>
       </c>
       <c r="M28">
-        <v>4.5630448521753401E-2</v>
+        <v>6.5248357402924506E-2</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -13102,10 +13102,10 @@
         <v>131</v>
       </c>
       <c r="L29">
-        <v>4.5889115871067698E-2</v>
+        <v>4.0026061338975703E-2</v>
       </c>
       <c r="M29">
-        <v>4.5889115871067698E-2</v>
+        <v>4.0026061338975703E-2</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -13184,10 +13184,10 @@
         <v>131</v>
       </c>
       <c r="L31">
-        <v>3.9151690301129402E-2</v>
+        <v>4.6982028361355302E-2</v>
       </c>
       <c r="M31">
-        <v>3.9151690301129402E-2</v>
+        <v>4.6982028361355302E-2</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -13225,10 +13225,10 @@
         <v>131</v>
       </c>
       <c r="L32">
-        <v>0.200825091733705</v>
+        <v>0.24099011008044599</v>
       </c>
       <c r="M32">
-        <v>0.200825091733705</v>
+        <v>0.24099011008044599</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -13266,10 +13266,10 @@
         <v>131</v>
       </c>
       <c r="L33">
-        <v>4.92788432018662E-2</v>
+        <v>5.9134611842239497E-2</v>
       </c>
       <c r="M33">
-        <v>4.92788432018662E-2</v>
+        <v>5.9134611842239497E-2</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -13307,10 +13307,10 @@
         <v>131</v>
       </c>
       <c r="L34">
-        <v>7.0854130591549894E-2</v>
+        <v>8.5024956709859906E-2</v>
       </c>
       <c r="M34">
-        <v>7.0854130591549894E-2</v>
+        <v>8.5024956709859906E-2</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -13348,10 +13348,10 @@
         <v>131</v>
       </c>
       <c r="L35">
-        <v>0.100420210433235</v>
+        <v>0.120504252519882</v>
       </c>
       <c r="M35">
-        <v>0.100420210433235</v>
+        <v>0.120504252519882</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -13389,10 +13389,10 @@
         <v>131</v>
       </c>
       <c r="L36">
-        <v>0.13720876081054401</v>
+        <v>0.16465051297265201</v>
       </c>
       <c r="M36">
-        <v>0.13720876081054401</v>
+        <v>0.16465051297265201</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -13430,10 +13430,10 @@
         <v>131</v>
       </c>
       <c r="L37">
-        <v>9.6348966878171502E-2</v>
+        <v>0.115618760253806</v>
       </c>
       <c r="M37">
-        <v>9.6348966878171502E-2</v>
+        <v>0.115618760253806</v>
       </c>
     </row>
   </sheetData>

--- a/SubRES_TMPL/SubRes_RSD_Trans.xlsx
+++ b/SubRES_TMPL/SubRes_RSD_Trans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VEDA_Models\2-NewVeda\TIMES-Ireland-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B608DC-1C07-4F49-91A3-521CF5249FB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FD058E-988F-4E8D-8099-74346547E78F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="819" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6675" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="819" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOG" sheetId="64" r:id="rId1"/>
@@ -5261,7 +5261,7 @@
       <c r="C6" s="32"/>
       <c r="D6" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H6,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.251294826490714</v>
+        <v>0.41882471081785599</v>
       </c>
       <c r="F6" s="32" t="s">
         <v>109</v>
@@ -5296,7 +5296,7 @@
       <c r="C7" s="33"/>
       <c r="D7" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H7,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.6742452222251502E-3</v>
+        <v>9.4570753703752605E-3</v>
       </c>
       <c r="F7" s="33" t="s">
         <v>109</v>
@@ -5331,7 +5331,7 @@
       <c r="C8" s="32"/>
       <c r="D8" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H8,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.22114316116754E-5</v>
+        <v>2.0352386019458902E-5</v>
       </c>
       <c r="F8" s="32" t="s">
         <v>109</v>
@@ -5366,7 +5366,7 @@
       <c r="C9" s="33"/>
       <c r="D9" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H9,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.92726955741749E-2</v>
+        <v>4.8787825956958103E-2</v>
       </c>
       <c r="F9" s="33" t="s">
         <v>109</v>
@@ -5401,7 +5401,7 @@
       <c r="C10" s="32"/>
       <c r="D10" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H10,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.1974809581675851E-2</v>
+        <v>0.10040134293076135</v>
       </c>
       <c r="F10" s="32" t="s">
         <v>109</v>
@@ -5436,7 +5436,7 @@
       <c r="C11" s="33"/>
       <c r="D11" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H11,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.7386892734226298E-2</v>
+        <v>7.8978154557043795E-2</v>
       </c>
       <c r="F11" s="33" t="s">
         <v>109</v>
@@ -5471,7 +5471,7 @@
       <c r="C12" s="32"/>
       <c r="D12" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H12,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.50419670684038E-2</v>
+        <v>2.5069945114006401E-2</v>
       </c>
       <c r="F12" s="32" t="s">
         <v>109</v>
@@ -5506,7 +5506,7 @@
       <c r="C13" s="33"/>
       <c r="D13" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H13,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.4968303643999302E-2</v>
+        <v>0.15828050607333199</v>
       </c>
       <c r="F13" s="33" t="s">
         <v>109</v>
@@ -5530,7 +5530,7 @@
       <c r="C14" s="32"/>
       <c r="D14" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H14,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>8.8189793033597697E-2</v>
+        <v>0.14698298838932999</v>
       </c>
       <c r="F14" s="32" t="s">
         <v>109</v>
@@ -5554,7 +5554,7 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H15,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.2384455613659201E-2</v>
+        <v>3.7307426022765301E-2</v>
       </c>
       <c r="F15" s="33" t="s">
         <v>109</v>
@@ -5581,7 +5581,7 @@
       <c r="C16" s="32"/>
       <c r="D16" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H16,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.40933452966884E-3</v>
+        <v>2.3488908827814098E-3</v>
       </c>
       <c r="F16" s="32" t="s">
         <v>109</v>
@@ -5631,7 +5631,7 @@
       <c r="C18" s="32"/>
       <c r="D18" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H18,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.25427820715246202</v>
+        <v>0.31784775894057798</v>
       </c>
       <c r="F18" s="32" t="s">
         <v>105</v>
@@ -5665,7 +5665,7 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H19,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.9727143416387202E-2</v>
+        <v>2.4658929270483999E-2</v>
       </c>
       <c r="F19" s="33" t="s">
         <v>105</v>
@@ -5733,7 +5733,7 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H21,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.92400721571756E-2</v>
+        <v>4.9050090196469498E-2</v>
       </c>
       <c r="F21" s="33" t="s">
         <v>105</v>
@@ -5767,7 +5767,7 @@
       <c r="C22" s="32"/>
       <c r="D22" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H22,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.1152602388648351E-2</v>
+        <v>7.537088345132234E-2</v>
       </c>
       <c r="F22" s="32" t="s">
         <v>105</v>
@@ -5801,7 +5801,7 @@
       <c r="C23" s="33"/>
       <c r="D23" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H23,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.5982700943281098E-2</v>
+        <v>4.4978376179101401E-2</v>
       </c>
       <c r="F23" s="33" t="s">
         <v>105</v>
@@ -5834,7 +5834,7 @@
       <c r="C24" s="33"/>
       <c r="D24" s="33">
         <f>D23</f>
-        <v>3.5982700943281098E-2</v>
+        <v>4.4978376179101401E-2</v>
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="33"/>
@@ -5854,7 +5854,7 @@
       <c r="C25" s="32"/>
       <c r="D25" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H25,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.8026244703222701E-2</v>
+        <v>3.5032805879028399E-2</v>
       </c>
       <c r="F25" s="32" t="s">
         <v>105</v>
@@ -5878,7 +5878,7 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H26,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.6714843841128501E-2</v>
+        <v>7.0893554801410602E-2</v>
       </c>
       <c r="F26" s="33" t="s">
         <v>105</v>
@@ -5902,7 +5902,7 @@
       <c r="C27" s="32"/>
       <c r="D27" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H27,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.8905144753244799E-2</v>
+        <v>7.3631430941555998E-2</v>
       </c>
       <c r="F27" s="32" t="s">
         <v>105</v>
@@ -5926,7 +5926,7 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H28,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.52141887785493E-2</v>
+        <v>0.119017735973187</v>
       </c>
       <c r="F28" s="33" t="s">
         <v>105</v>
@@ -5949,7 +5949,7 @@
       <c r="C29" s="33"/>
       <c r="D29" s="33">
         <f>D28</f>
-        <v>9.52141887785493E-2</v>
+        <v>0.119017735973187</v>
       </c>
       <c r="F29" s="33"/>
       <c r="G29" s="33"/>
@@ -5966,7 +5966,7 @@
       <c r="C30" s="32"/>
       <c r="D30" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H30,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.82983145664136E-2</v>
+        <v>2.2872893208017001E-2</v>
       </c>
       <c r="F30" s="32" t="s">
         <v>105</v>
@@ -6002,7 +6002,7 @@
       <c r="C32" s="32"/>
       <c r="D32" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H32,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.56734094210587305</v>
+        <v>0.47278411842156098</v>
       </c>
       <c r="F32" s="32" t="s">
         <v>114</v>
@@ -6075,7 +6075,7 @@
       <c r="C35" s="33"/>
       <c r="D35" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H35,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>8.5024956709859906E-2</v>
+        <v>7.0854130591549894E-2</v>
       </c>
       <c r="F35" s="33" t="s">
         <v>114</v>
@@ -6099,7 +6099,7 @@
       <c r="C36" s="32"/>
       <c r="D36" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H36,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.2637209370950108E-2</v>
+        <v>9.164889806747821E-2</v>
       </c>
       <c r="F36" s="32" t="s">
         <v>114</v>
@@ -6123,7 +6123,7 @@
       <c r="C37" s="33"/>
       <c r="D37" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H37,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.9134611842239497E-2</v>
+        <v>4.92788432018662E-2</v>
       </c>
       <c r="F37" s="33" t="s">
         <v>114</v>
@@ -6146,7 +6146,7 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33">
         <f>D37</f>
-        <v>5.9134611842239497E-2</v>
+        <v>4.92788432018662E-2</v>
       </c>
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
@@ -6163,7 +6163,7 @@
       <c r="C39" s="32"/>
       <c r="D39" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H39,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.6982028361355302E-2</v>
+        <v>3.9151690301129402E-2</v>
       </c>
       <c r="F39" s="32" t="s">
         <v>114</v>
@@ -6187,7 +6187,7 @@
       <c r="C40" s="33"/>
       <c r="D40" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H40,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.120504252519882</v>
+        <v>0.100420210433235</v>
       </c>
       <c r="F40" s="33" t="s">
         <v>114</v>
@@ -6211,7 +6211,7 @@
       <c r="C41" s="32"/>
       <c r="D41" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H41,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.16465051297265201</v>
+        <v>0.13720876081054401</v>
       </c>
       <c r="F41" s="32" t="s">
         <v>114</v>
@@ -6235,7 +6235,7 @@
       <c r="C42" s="33"/>
       <c r="D42" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H42,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.115618760253806</v>
+        <v>9.6348966878171502E-2</v>
       </c>
       <c r="F42" s="33" t="s">
         <v>114</v>
@@ -6258,7 +6258,7 @@
       <c r="C43" s="33"/>
       <c r="D43" s="33">
         <f>D42</f>
-        <v>0.115618760253806</v>
+        <v>9.6348966878171502E-2</v>
       </c>
       <c r="F43" s="33"/>
       <c r="G43" s="33"/>
@@ -6275,7 +6275,7 @@
       <c r="C44" s="32"/>
       <c r="D44" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H44,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.24099011008044599</v>
+        <v>0.200825091733705</v>
       </c>
       <c r="F44" s="32" t="s">
         <v>114</v>
@@ -6308,12 +6308,12 @@
         <v>R-SW*Apt_COA*</v>
       </c>
       <c r="C46" s="32" t="str">
-        <f>"RSDSH_"&amp;F46&amp;",RSDWH_"&amp;F58</f>
+        <f t="shared" ref="C46:C51" si="8">"RSDSH_"&amp;F46&amp;",RSDWH_"&amp;F58</f>
         <v>RSDSH_Apt,RSDWH_Att</v>
       </c>
       <c r="D46" s="32">
-        <f>AVERAGE(D6,D86)</f>
-        <v>0.1528008913749376</v>
+        <f t="shared" ref="D46:D56" si="9">AVERAGE(D6,D86)</f>
+        <v>0.43569133982209951</v>
       </c>
       <c r="F46" s="32" t="s">
         <v>109</v>
@@ -6322,7 +6322,7 @@
         <v>82</v>
       </c>
       <c r="H46" s="32" t="str">
-        <f t="shared" ref="H46:H49" si="8">"R-S*_"&amp;F46&amp;"_"&amp;G46&amp;"*"</f>
+        <f t="shared" ref="H46:H49" si="10">"R-S*_"&amp;F46&amp;"_"&amp;G46&amp;"*"</f>
         <v>R-S*_Apt_COA*</v>
       </c>
     </row>
@@ -6335,12 +6335,12 @@
         <v>R-SW*Apt_BDL*</v>
       </c>
       <c r="C47" s="33" t="str">
-        <f>"RSDSH_"&amp;F47&amp;",RSDWH_"&amp;F59</f>
+        <f t="shared" si="8"/>
         <v>RSDSH_Apt,RSDWH_Att</v>
       </c>
       <c r="D47" s="33">
-        <f>AVERAGE(D7,D87)</f>
-        <v>7.3402048028933953E-3</v>
+        <f t="shared" si="9"/>
+        <v>4.2254222616694481E-2</v>
       </c>
       <c r="F47" s="33" t="s">
         <v>109</v>
@@ -6349,7 +6349,7 @@
         <v>191</v>
       </c>
       <c r="H47" s="33" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>R-S*_Apt_BDL*</v>
       </c>
     </row>
@@ -6362,12 +6362,12 @@
         <v>R-SW*Apt_ETH*</v>
       </c>
       <c r="C48" s="32" t="str">
-        <f>"RSDSH_"&amp;F48&amp;",RSDWH_"&amp;F60</f>
+        <f t="shared" si="8"/>
         <v>RSDSH_Apt,RSDWH_Att</v>
       </c>
       <c r="D48" s="32">
-        <f>AVERAGE(D8,D88)</f>
-        <v>5.4314481815592374E-3</v>
+        <f t="shared" si="9"/>
+        <v>4.5221363407621576E-2</v>
       </c>
       <c r="F48" s="32" t="s">
         <v>109</v>
@@ -6376,7 +6376,7 @@
         <v>190</v>
       </c>
       <c r="H48" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>R-S*_Apt_ETH*</v>
       </c>
     </row>
@@ -6389,12 +6389,12 @@
         <v>R-SW*Apt_LPG*</v>
       </c>
       <c r="C49" s="33" t="str">
-        <f>"RSDSH_"&amp;F49&amp;",RSDWH_"&amp;F61</f>
+        <f t="shared" si="8"/>
         <v>RSDSH_Apt,RSDWH_Att</v>
       </c>
       <c r="D49" s="33">
-        <f>AVERAGE(D9,D89)</f>
-        <v>2.2587406471325601E-2</v>
+        <f t="shared" si="9"/>
+        <v>9.0652735347130045E-2</v>
       </c>
       <c r="F49" s="33" t="s">
         <v>109</v>
@@ -6403,7 +6403,7 @@
         <v>192</v>
       </c>
       <c r="H49" s="33" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>R-S*_Apt_LPG*</v>
       </c>
     </row>
@@ -6416,12 +6416,12 @@
         <v>R-SW*Apt_ELC*</v>
       </c>
       <c r="C50" s="32" t="str">
-        <f>"RSDSH_"&amp;F50&amp;",RSDWH_"&amp;F62</f>
+        <f t="shared" si="8"/>
         <v>RSDSH_Apt,RSDWH_Att</v>
       </c>
       <c r="D50" s="32">
-        <f>AVERAGE(D10,D90)</f>
-        <v>2.5406290924250299E-2</v>
+        <f t="shared" si="9"/>
+        <v>0.44216237015129278</v>
       </c>
       <c r="F50" s="32" t="s">
         <v>109</v>
@@ -6439,16 +6439,16 @@
         <v>198</v>
       </c>
       <c r="B51" s="33" t="str">
-        <f t="shared" ref="B51:B56" si="9">"R-SW*"&amp;F51&amp;"_"&amp;G51&amp;"*"</f>
+        <f t="shared" ref="B51:B56" si="11">"R-SW*"&amp;F51&amp;"_"&amp;G51&amp;"*"</f>
         <v>R-SW*Apt_KER*</v>
       </c>
       <c r="C51" s="33" t="str">
-        <f>"RSDSH_"&amp;F51&amp;",RSDWH_"&amp;F63</f>
+        <f t="shared" si="8"/>
         <v>RSDSH_Apt,RSDWH_Att</v>
       </c>
       <c r="D51" s="33">
-        <f>AVERAGE(D11,D91)</f>
-        <v>3.0423648377750551E-2</v>
+        <f t="shared" si="9"/>
+        <v>9.5574094033833407E-2</v>
       </c>
       <c r="F51" s="33" t="s">
         <v>109</v>
@@ -6457,7 +6457,7 @@
         <v>193</v>
       </c>
       <c r="H51" s="33" t="str">
-        <f t="shared" ref="H51" si="10">"R-S*_"&amp;F51&amp;"_"&amp;G51&amp;"*"</f>
+        <f t="shared" ref="H51" si="12">"R-S*_"&amp;F51&amp;"_"&amp;G51&amp;"*"</f>
         <v>R-S*_Apt_KER*</v>
       </c>
     </row>
@@ -6466,7 +6466,7 @@
         <v>198</v>
       </c>
       <c r="B52" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>R-SW*Apt_GAS*</v>
       </c>
       <c r="C52" s="32" t="str">
@@ -6474,8 +6474,8 @@
         <v>RSDSH_Apt,RSDWH_Att</v>
       </c>
       <c r="D52" s="32">
-        <f>AVERAGE(D12,D92)</f>
-        <v>1.2023720455024919E-2</v>
+        <f t="shared" si="9"/>
+        <v>5.005778023052835E-2</v>
       </c>
       <c r="F52" s="32" t="s">
         <v>109</v>
@@ -6493,7 +6493,7 @@
         <v>1</v>
       </c>
       <c r="B53" s="33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>R-SW*Apt_PEA*</v>
       </c>
       <c r="C53" s="33" t="str">
@@ -6501,8 +6501,8 @@
         <v>RSDSH_Apt,RSDWH_Att</v>
       </c>
       <c r="D53" s="33">
-        <f>AVERAGE(D13,D93)</f>
-        <v>5.2921783539597103E-2</v>
+        <f t="shared" si="9"/>
+        <v>0.12445385068331161</v>
       </c>
       <c r="F53" s="33" t="s">
         <v>109</v>
@@ -6520,7 +6520,7 @@
         <v>1</v>
       </c>
       <c r="B54" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>R-SW*Apt_SMF*</v>
       </c>
       <c r="C54" s="32" t="str">
@@ -6528,8 +6528,8 @@
         <v>RSDSH_Apt,RSDWH_Att</v>
       </c>
       <c r="D54" s="32">
-        <f>AVERAGE(D14,D94)</f>
-        <v>4.9506675305099501E-2</v>
+        <f t="shared" si="9"/>
+        <v>0.11858965076383715</v>
       </c>
       <c r="F54" s="32" t="s">
         <v>109</v>
@@ -6547,7 +6547,7 @@
         <v>198</v>
       </c>
       <c r="B55" s="33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>R-SW*Apt_WOO*</v>
       </c>
       <c r="C55" s="33" t="str">
@@ -6555,8 +6555,8 @@
         <v>RSDSH_Apt,RSDWH_Att</v>
       </c>
       <c r="D55" s="33">
-        <f>AVERAGE(D15,D95)</f>
-        <v>1.738190021295305E-2</v>
+        <f t="shared" si="9"/>
+        <v>7.023431639574465E-2</v>
       </c>
       <c r="F55" s="33" t="s">
         <v>109</v>
@@ -6574,16 +6574,16 @@
         <v>198</v>
       </c>
       <c r="B56" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v>R-SW*Apt_HET*</v>
+      </c>
+      <c r="C56" s="32" t="str">
+        <f t="shared" ref="C56" si="13">"RSDSH_"&amp;F56&amp;",RSDWH_"&amp;F70</f>
+        <v>RSDSH_Apt,RSDWH_Att</v>
+      </c>
+      <c r="D56" s="32">
         <f t="shared" si="9"/>
-        <v>R-SW*Apt_HET*</v>
-      </c>
-      <c r="C56" s="32" t="str">
-        <f t="shared" ref="C56" si="11">"RSDSH_"&amp;F56&amp;",RSDWH_"&amp;F70</f>
-        <v>RSDSH_Apt,RSDWH_Att</v>
-      </c>
-      <c r="D56" s="32">
-        <f>AVERAGE(D16,D96)</f>
-        <v>8.9890643927955554E-4</v>
+        <v>2.7931052284335001E-3</v>
       </c>
       <c r="F56" s="32" t="s">
         <v>109</v>
@@ -6621,8 +6621,8 @@
         <v>RSDSH_Att,RSDWH_Att</v>
       </c>
       <c r="D58" s="32">
-        <f>AVERAGE(D18,D99)</f>
-        <v>0.13757508933389442</v>
+        <f t="shared" ref="D58:D63" si="14">AVERAGE(D18,D99)</f>
+        <v>0.211103808258606</v>
       </c>
       <c r="F58" s="32" t="s">
         <v>105</v>
@@ -6631,7 +6631,7 @@
         <v>82</v>
       </c>
       <c r="H58" s="32" t="str">
-        <f t="shared" ref="H58:H61" si="12">"R-S*_"&amp;F58&amp;"_"&amp;G58&amp;"*"</f>
+        <f t="shared" ref="H58:H61" si="15">"R-S*_"&amp;F58&amp;"_"&amp;G58&amp;"*"</f>
         <v>R-S*_Att_COA*</v>
       </c>
     </row>
@@ -6644,12 +6644,12 @@
         <v>R-SW*Att_BDL*</v>
       </c>
       <c r="C59" s="33" t="str">
-        <f t="shared" ref="C59:C70" si="13">"RSDSH_"&amp;F59&amp;",RSDWH_"&amp;F59</f>
+        <f t="shared" ref="C59:C70" si="16">"RSDSH_"&amp;F59&amp;",RSDWH_"&amp;F59</f>
         <v>RSDSH_Att,RSDWH_Att</v>
       </c>
       <c r="D59" s="33">
-        <f>AVERAGE(D19,D100)</f>
-        <v>1.8755504737112953E-2</v>
+        <f t="shared" si="14"/>
+        <v>5.6789129779838646E-2</v>
       </c>
       <c r="F59" s="33" t="s">
         <v>105</v>
@@ -6658,7 +6658,7 @@
         <v>191</v>
       </c>
       <c r="H59" s="33" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>R-S*_Att_BDL*</v>
       </c>
     </row>
@@ -6671,12 +6671,12 @@
         <v>R-SW*Att_ETH*</v>
       </c>
       <c r="C60" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>RSDSH_Att,RSDWH_Att</v>
       </c>
       <c r="D60" s="32">
-        <f>AVERAGE(D20,D101)</f>
-        <v>6.72123287671235E-3</v>
+        <f t="shared" si="14"/>
+        <v>3.3606164383561649E-2</v>
       </c>
       <c r="F60" s="32" t="s">
         <v>105</v>
@@ -6685,7 +6685,7 @@
         <v>190</v>
       </c>
       <c r="H60" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>R-S*_Att_ETH*</v>
       </c>
     </row>
@@ -6698,12 +6698,12 @@
         <v>R-SW*Att_LPG*</v>
       </c>
       <c r="C61" s="33" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>RSDSH_Att,RSDWH_Att</v>
       </c>
       <c r="D61" s="33">
-        <f>AVERAGE(D21,D102)</f>
-        <v>2.9676777946404852E-2</v>
+        <f t="shared" si="14"/>
+        <v>7.4808754437320241E-2</v>
       </c>
       <c r="F61" s="33" t="s">
         <v>105</v>
@@ -6712,7 +6712,7 @@
         <v>192</v>
       </c>
       <c r="H61" s="33" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>R-S*_Att_LPG*</v>
       </c>
     </row>
@@ -6725,12 +6725,12 @@
         <v>R-SW*Att_ELC*</v>
       </c>
       <c r="C62" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>RSDSH_Att,RSDWH_Att</v>
       </c>
       <c r="D62" s="32">
-        <f>AVERAGE(D22,D103)</f>
-        <v>2.3774911335309026E-2</v>
+        <f t="shared" si="14"/>
+        <v>7.0886712228430571E-2</v>
       </c>
       <c r="F62" s="32" t="s">
         <v>105</v>
@@ -6748,7 +6748,7 @@
         <v>198</v>
       </c>
       <c r="B63" s="33" t="str">
-        <f t="shared" ref="B63:B70" si="14">"R-SW*"&amp;F63&amp;"_"&amp;G63&amp;"*"</f>
+        <f t="shared" ref="B63:B70" si="17">"R-SW*"&amp;F63&amp;"_"&amp;G63&amp;"*"</f>
         <v>R-SW*Att_KER*</v>
       </c>
       <c r="C63" s="33" t="str">
@@ -6756,8 +6756,8 @@
         <v>RSDSH_Att,RSDWH_Att</v>
       </c>
       <c r="D63" s="33">
-        <f>AVERAGE(D23,D104)</f>
-        <v>2.4961878258338448E-2</v>
+        <f t="shared" si="14"/>
+        <v>5.7341827023040151E-2</v>
       </c>
       <c r="F63" s="33" t="s">
         <v>105</v>
@@ -6766,7 +6766,7 @@
         <v>193</v>
       </c>
       <c r="H63" s="33" t="str">
-        <f t="shared" ref="H63" si="15">"R-S*_"&amp;F63&amp;"_"&amp;G63&amp;"*"</f>
+        <f t="shared" ref="H63" si="18">"R-S*_"&amp;F63&amp;"_"&amp;G63&amp;"*"</f>
         <v>R-S*_Att_KER*</v>
       </c>
     </row>
@@ -6783,7 +6783,7 @@
       </c>
       <c r="D64" s="33">
         <f>D63</f>
-        <v>2.4961878258338448E-2</v>
+        <v>5.7341827023040151E-2</v>
       </c>
       <c r="F64" s="33"/>
       <c r="G64" s="33"/>
@@ -6794,16 +6794,16 @@
         <v>198</v>
       </c>
       <c r="B65" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>R-SW*Att_GAS*</v>
       </c>
       <c r="C65" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>RSDSH_Att,RSDWH_Att</v>
       </c>
       <c r="D65" s="32">
         <f>AVERAGE(D25,D105)</f>
-        <v>1.9851979150358402E-2</v>
+        <v>4.6710686933249396E-2</v>
       </c>
       <c r="F65" s="32" t="s">
         <v>105</v>
@@ -6821,16 +6821,16 @@
         <v>1</v>
       </c>
       <c r="B66" s="33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>R-SW*Att_PEA*</v>
       </c>
       <c r="C66" s="33" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>RSDSH_Att,RSDWH_Att</v>
       </c>
       <c r="D66" s="33">
         <f>AVERAGE(D26,D106)</f>
-        <v>3.5251852813074448E-2</v>
+        <v>6.9918931863256345E-2</v>
       </c>
       <c r="F66" s="33" t="s">
         <v>105</v>
@@ -6848,16 +6848,16 @@
         <v>1</v>
       </c>
       <c r="B67" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>R-SW*Att_SMF*</v>
       </c>
       <c r="C67" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>RSDSH_Att,RSDWH_Att</v>
       </c>
       <c r="D67" s="32">
         <f>AVERAGE(D27,D107)</f>
-        <v>3.5356636251858302E-2</v>
+        <v>6.6336034846957451E-2</v>
       </c>
       <c r="F67" s="32" t="s">
         <v>105</v>
@@ -6875,7 +6875,7 @@
         <v>198</v>
       </c>
       <c r="B68" s="33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>R-SW*Att_WOO*</v>
       </c>
       <c r="C68" s="33" t="str">
@@ -6884,7 +6884,7 @@
       </c>
       <c r="D68" s="33">
         <f>AVERAGE(D28,D108)</f>
-        <v>5.4484908352032999E-2</v>
+        <v>9.3897937800385162E-2</v>
       </c>
       <c r="F68" s="33" t="s">
         <v>105</v>
@@ -6910,7 +6910,7 @@
       </c>
       <c r="D69" s="33">
         <f>D68</f>
-        <v>5.4484908352032999E-2</v>
+        <v>9.3897937800385162E-2</v>
       </c>
       <c r="F69" s="33"/>
       <c r="G69" s="33"/>
@@ -6921,16 +6921,16 @@
         <v>198</v>
       </c>
       <c r="B70" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>R-SW*Att_HET*</v>
       </c>
       <c r="C70" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>RSDSH_Att,RSDWH_Att</v>
       </c>
       <c r="D70" s="32">
         <f>AVERAGE(D30,D109)</f>
-        <v>9.6371031258262324E-3</v>
+        <v>1.3876175817105671E-2</v>
       </c>
       <c r="F70" s="32" t="s">
         <v>105</v>
@@ -6968,8 +6968,8 @@
         <v>RSDSH_Det,RSDWH_Det</v>
       </c>
       <c r="D72" s="32">
-        <f>AVERAGE(D32,D112)</f>
-        <v>0.29527340147394254</v>
+        <f t="shared" ref="D72:D77" si="19">AVERAGE(D32,D112)</f>
+        <v>0.27265121677642429</v>
       </c>
       <c r="F72" s="32" t="s">
         <v>114</v>
@@ -6978,7 +6978,7 @@
         <v>82</v>
       </c>
       <c r="H72" s="32" t="str">
-        <f t="shared" ref="H72:H76" si="16">"R-S*_"&amp;F72&amp;"_"&amp;G72&amp;"*"</f>
+        <f t="shared" ref="H72:H76" si="20">"R-S*_"&amp;F72&amp;"_"&amp;G72&amp;"*"</f>
         <v>R-S*_Det_COA*</v>
       </c>
     </row>
@@ -6991,12 +6991,12 @@
         <v>R-SW*Det_BDL*</v>
       </c>
       <c r="C73" s="33" t="str">
-        <f t="shared" ref="C73:C84" si="17">"RSDSH_"&amp;F73&amp;",RSDWH_"&amp;F73</f>
+        <f t="shared" ref="C73:C84" si="21">"RSDSH_"&amp;F73&amp;",RSDWH_"&amp;F73</f>
         <v>RSDSH_Det,RSDWH_Det</v>
       </c>
       <c r="D73" s="33">
-        <f>AVERAGE(D33,D113)</f>
-        <v>6.7726027397260503E-3</v>
+        <f t="shared" si="19"/>
+        <v>2.1164383561643851E-2</v>
       </c>
       <c r="F73" s="33" t="s">
         <v>114</v>
@@ -7005,7 +7005,7 @@
         <v>191</v>
       </c>
       <c r="H73" s="33" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>R-S*_Det_BDL*</v>
       </c>
     </row>
@@ -7018,12 +7018,12 @@
         <v>R-SW*Det_ETH*</v>
       </c>
       <c r="C74" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>RSDSH_Det,RSDWH_Det</v>
       </c>
       <c r="D74" s="32">
-        <f>AVERAGE(D34,D114)</f>
-        <v>7.6715753424657501E-3</v>
+        <f t="shared" si="19"/>
+        <v>2.3973672945205499E-2</v>
       </c>
       <c r="F74" s="32" t="s">
         <v>114</v>
@@ -7032,7 +7032,7 @@
         <v>190</v>
       </c>
       <c r="H74" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>R-S*_Det_ETH*</v>
       </c>
     </row>
@@ -7045,12 +7045,12 @@
         <v>R-SW*Det_LPG*</v>
       </c>
       <c r="C75" s="33" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>RSDSH_Det,RSDWH_Det</v>
       </c>
       <c r="D75" s="33">
-        <f>AVERAGE(D35,D115)</f>
-        <v>5.3518479911912255E-2</v>
+        <f t="shared" si="19"/>
+        <v>6.9820820161344596E-2</v>
       </c>
       <c r="F75" s="33" t="s">
         <v>114</v>
@@ -7059,7 +7059,7 @@
         <v>192</v>
       </c>
       <c r="H75" s="33" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>R-S*_Det_LPG*</v>
       </c>
     </row>
@@ -7072,12 +7072,12 @@
         <v>R-SW*Det_ELC*</v>
       </c>
       <c r="C76" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>RSDSH_Det,RSDWH_Det</v>
       </c>
       <c r="D76" s="32">
-        <f>AVERAGE(D36,D116)</f>
-        <v>3.4771475539781452E-2</v>
+        <f t="shared" si="19"/>
+        <v>6.9081677556345755E-2</v>
       </c>
       <c r="F76" s="32" t="s">
         <v>114</v>
@@ -7086,7 +7086,7 @@
         <v>83</v>
       </c>
       <c r="H76" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>R-S*_Det_ELC*</v>
       </c>
     </row>
@@ -7095,16 +7095,16 @@
         <v>198</v>
       </c>
       <c r="B77" s="33" t="str">
-        <f t="shared" ref="B77:B84" si="18">"R-SW*"&amp;F77&amp;"_"&amp;G77&amp;"*"</f>
+        <f t="shared" ref="B77:B84" si="22">"R-SW*"&amp;F77&amp;"_"&amp;G77&amp;"*"</f>
         <v>R-SW*Det_KER*</v>
       </c>
       <c r="C77" s="33" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>RSDSH_Det,RSDWH_Det</v>
       </c>
       <c r="D77" s="33">
-        <f>AVERAGE(D37,D117)</f>
-        <v>3.8152557611937102E-2</v>
+        <f t="shared" si="19"/>
+        <v>5.1468333134737351E-2</v>
       </c>
       <c r="F77" s="33" t="s">
         <v>114</v>
@@ -7113,7 +7113,7 @@
         <v>193</v>
       </c>
       <c r="H77" s="33" t="str">
-        <f t="shared" ref="H77" si="19">"R-S*_"&amp;F77&amp;"_"&amp;G77&amp;"*"</f>
+        <f t="shared" ref="H77" si="23">"R-S*_"&amp;F77&amp;"_"&amp;G77&amp;"*"</f>
         <v>R-S*_Det_KER*</v>
       </c>
     </row>
@@ -7130,7 +7130,7 @@
       </c>
       <c r="D78" s="33">
         <f>D77</f>
-        <v>3.8152557611937102E-2</v>
+        <v>5.1468333134737351E-2</v>
       </c>
       <c r="F78" s="33"/>
       <c r="G78" s="33"/>
@@ -7141,16 +7141,16 @@
         <v>198</v>
       </c>
       <c r="B79" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>R-SW*Det_GAS*</v>
       </c>
       <c r="C79" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>RSDSH_Det,RSDWH_Det</v>
       </c>
       <c r="D79" s="32">
         <f>AVERAGE(D39,D118)</f>
-        <v>3.1008650759600302E-2</v>
+        <v>4.3068459459698047E-2</v>
       </c>
       <c r="F79" s="32" t="s">
         <v>114</v>
@@ -7168,16 +7168,16 @@
         <v>1</v>
       </c>
       <c r="B80" s="33" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>R-SW*Det_PEA*</v>
       </c>
       <c r="C80" s="33" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>RSDSH_Det,RSDWH_Det</v>
       </c>
       <c r="D80" s="33">
         <f>AVERAGE(D40,D119)</f>
-        <v>6.8174234439631151E-2</v>
+        <v>6.2025894676084901E-2</v>
       </c>
       <c r="F80" s="33" t="s">
         <v>114</v>
@@ -7195,16 +7195,16 @@
         <v>1</v>
       </c>
       <c r="B81" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>R-SW*Det_SMF*</v>
       </c>
       <c r="C81" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>RSDSH_Det,RSDWH_Det</v>
       </c>
       <c r="D81" s="32">
         <f>AVERAGE(D41,D120)</f>
-        <v>8.9483268751498007E-2</v>
+        <v>9.0973168733934545E-2</v>
       </c>
       <c r="F81" s="32" t="s">
         <v>114</v>
@@ -7222,16 +7222,16 @@
         <v>198</v>
       </c>
       <c r="B82" s="33" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>R-SW*Det_WOO*</v>
       </c>
       <c r="C82" s="33" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>RSDSH_Det,RSDWH_Det</v>
       </c>
       <c r="D82" s="33">
         <f>AVERAGE(D42,D121)</f>
-        <v>6.705720075762131E-2</v>
+        <v>7.7073922910080403E-2</v>
       </c>
       <c r="F82" s="33" t="s">
         <v>114</v>
@@ -7257,7 +7257,7 @@
       </c>
       <c r="D83" s="33">
         <f>D82</f>
-        <v>6.705720075762131E-2</v>
+        <v>7.7073922910080403E-2</v>
       </c>
       <c r="F83" s="33"/>
       <c r="G83" s="33"/>
@@ -7268,16 +7268,16 @@
         <v>198</v>
       </c>
       <c r="B84" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>R-SW*Det_HET*</v>
       </c>
       <c r="C84" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>RSDSH_Det,RSDWH_Det</v>
       </c>
       <c r="D84" s="32">
         <f>AVERAGE(D44,D122)</f>
-        <v>0.12131157231005595</v>
+        <v>0.10296416233508046</v>
       </c>
       <c r="F84" s="32" t="s">
         <v>114</v>
@@ -7306,13 +7306,13 @@
         <v>1</v>
       </c>
       <c r="B86" s="32" t="str">
-        <f t="shared" ref="B86:B96" si="20">"R-WH_"&amp;F86&amp;"_"&amp;G86&amp;"*"</f>
+        <f t="shared" ref="B86:B96" si="24">"R-WH_"&amp;F86&amp;"_"&amp;G86&amp;"*"</f>
         <v>R-WH_Apt_COA*</v>
       </c>
       <c r="C86" s="32"/>
       <c r="D86" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H86,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.4306956259161203E-2</v>
+        <v>0.45255796882634303</v>
       </c>
       <c r="F86" s="32" t="s">
         <v>109</v>
@@ -7321,7 +7321,7 @@
         <v>82</v>
       </c>
       <c r="H86" s="32" t="str">
-        <f t="shared" ref="H86:H91" si="21">"R-WH_"&amp;F86&amp;"_"&amp;G86&amp;"*"</f>
+        <f t="shared" ref="H86:H91" si="25">"R-WH_"&amp;F86&amp;"_"&amp;G86&amp;"*"</f>
         <v>R-WH_Apt_COA*</v>
       </c>
     </row>
@@ -7330,13 +7330,13 @@
         <v>1</v>
       </c>
       <c r="B87" s="33" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>R-WH_Apt_BDL*</v>
       </c>
       <c r="C87" s="33"/>
       <c r="D87" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H87,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.0061643835616396E-3</v>
+        <v>7.5051369863013695E-2</v>
       </c>
       <c r="F87" s="33" t="s">
         <v>109</v>
@@ -7345,7 +7345,7 @@
         <v>191</v>
       </c>
       <c r="H87" s="33" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>R-WH_Apt_BDL*</v>
       </c>
     </row>
@@ -7354,13 +7354,13 @@
         <v>1</v>
       </c>
       <c r="B88" s="32" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>R-WH_Apt_ETH*</v>
       </c>
       <c r="C88" s="32"/>
       <c r="D88" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H88,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.08506849315068E-2</v>
+        <v>9.0422374429223698E-2</v>
       </c>
       <c r="F88" s="32" t="s">
         <v>109</v>
@@ -7369,7 +7369,7 @@
         <v>190</v>
       </c>
       <c r="H88" s="32" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>R-WH_Apt_ETH*</v>
       </c>
     </row>
@@ -7378,13 +7378,13 @@
         <v>1</v>
       </c>
       <c r="B89" s="33" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>R-WH_Apt_LPG*</v>
       </c>
       <c r="C89" s="33"/>
       <c r="D89" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H89,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.5902117368476298E-2</v>
+        <v>0.13251764473730199</v>
       </c>
       <c r="F89" s="33" t="s">
         <v>109</v>
@@ -7393,7 +7393,7 @@
         <v>192</v>
       </c>
       <c r="H89" s="33" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>R-WH_Apt_LPG*</v>
       </c>
     </row>
@@ -7402,13 +7402,13 @@
         <v>244</v>
       </c>
       <c r="B90" s="32" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>R-WH_Apt_ELC*</v>
       </c>
       <c r="C90" s="32"/>
       <c r="D90" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H90,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.8837772266824751E-2</v>
+        <v>0.78392339737182426</v>
       </c>
       <c r="F90" s="32" t="s">
         <v>109</v>
@@ -7426,13 +7426,13 @@
         <v>1</v>
       </c>
       <c r="B91" s="33" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>R-WH_Apt_KER*</v>
       </c>
       <c r="C91" s="33"/>
       <c r="D91" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H91,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.34604040212748E-2</v>
+        <v>0.112170033510623</v>
       </c>
       <c r="F91" s="33" t="s">
         <v>109</v>
@@ -7441,7 +7441,7 @@
         <v>193</v>
       </c>
       <c r="H91" s="33" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>R-WH_Apt_KER*</v>
       </c>
     </row>
@@ -7450,13 +7450,13 @@
         <v>1</v>
       </c>
       <c r="B92" s="32" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>R-WH_Apt_GAS*</v>
       </c>
       <c r="C92" s="32"/>
       <c r="D92" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H92,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.0054738416460393E-3</v>
+        <v>7.5045615347050301E-2</v>
       </c>
       <c r="F92" s="32" t="s">
         <v>109</v>
@@ -7474,13 +7474,13 @@
         <v>1</v>
       </c>
       <c r="B93" s="33" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>R-WH_Apt_PEA*</v>
       </c>
       <c r="C93" s="33"/>
       <c r="D93" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H93,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.0875263435194901E-2</v>
+        <v>9.0627195293291204E-2</v>
       </c>
       <c r="F93" s="33" t="s">
         <v>109</v>
@@ -7489,7 +7489,7 @@
         <v>110</v>
       </c>
       <c r="H93" s="33" t="str">
-        <f t="shared" ref="H93:H97" si="22">"R-WH_"&amp;F93&amp;"_"&amp;G93&amp;"*"</f>
+        <f t="shared" ref="H93:H97" si="26">"R-WH_"&amp;F93&amp;"_"&amp;G93&amp;"*"</f>
         <v>R-WH_Apt_PEA*</v>
       </c>
     </row>
@@ -7498,13 +7498,13 @@
         <v>1</v>
       </c>
       <c r="B94" s="32" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>R-WH_Apt_SMF*</v>
       </c>
       <c r="C94" s="32"/>
       <c r="D94" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H94,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.0823557576601301E-2</v>
+        <v>9.0196313138344295E-2</v>
       </c>
       <c r="F94" s="32" t="s">
         <v>109</v>
@@ -7513,7 +7513,7 @@
         <v>111</v>
       </c>
       <c r="H94" s="32" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>R-WH_Apt_SMF*</v>
       </c>
     </row>
@@ -7522,13 +7522,13 @@
         <v>1</v>
       </c>
       <c r="B95" s="33" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>R-WH_Apt_WOO*</v>
       </c>
       <c r="C95" s="33"/>
       <c r="D95" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H95,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.23793448122469E-2</v>
+        <v>0.10316120676872401</v>
       </c>
       <c r="F95" s="33" t="s">
         <v>109</v>
@@ -7537,7 +7537,7 @@
         <v>195</v>
       </c>
       <c r="H95" s="33" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>R-WH_Apt_WOO*</v>
       </c>
     </row>
@@ -7546,13 +7546,13 @@
         <v>1</v>
       </c>
       <c r="B96" s="32" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>R-WH_Apt_HET*</v>
       </c>
       <c r="C96" s="32"/>
       <c r="D96" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H96,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.8847834889027099E-4</v>
+        <v>3.2373195740855901E-3</v>
       </c>
       <c r="F96" s="32" t="s">
         <v>109</v>
@@ -7561,7 +7561,7 @@
         <v>84</v>
       </c>
       <c r="H96" s="32" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>R-WH_Apt_HET*</v>
       </c>
     </row>
@@ -7576,7 +7576,7 @@
       <c r="C97" s="32"/>
       <c r="D97" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H97,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.0946059106357601E-2</v>
+        <v>0.143159113753899</v>
       </c>
       <c r="F97" s="32" t="s">
         <v>109</v>
@@ -7585,7 +7585,7 @@
         <v>231</v>
       </c>
       <c r="H97" s="32" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>R-WH_Apt_SOL*</v>
       </c>
     </row>
@@ -7606,13 +7606,13 @@
         <v>1</v>
       </c>
       <c r="B99" s="32" t="str">
-        <f t="shared" ref="B99:B109" si="23">"R-WH_"&amp;F99&amp;"_"&amp;G99&amp;"*"</f>
+        <f t="shared" ref="B99:B109" si="27">"R-WH_"&amp;F99&amp;"_"&amp;G99&amp;"*"</f>
         <v>R-WH_Att_COA*</v>
       </c>
       <c r="C99" s="32"/>
       <c r="D99" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H99,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.0871971515326802E-2</v>
+        <v>0.104359857576634</v>
       </c>
       <c r="F99" s="32" t="s">
         <v>105</v>
@@ -7621,7 +7621,7 @@
         <v>82</v>
       </c>
       <c r="H99" s="32" t="str">
-        <f t="shared" ref="H99:H104" si="24">"R-WH_"&amp;F99&amp;"_"&amp;G99&amp;"*"</f>
+        <f t="shared" ref="H99:H104" si="28">"R-WH_"&amp;F99&amp;"_"&amp;G99&amp;"*"</f>
         <v>R-WH_Att_COA*</v>
       </c>
     </row>
@@ -7630,13 +7630,13 @@
         <v>1</v>
       </c>
       <c r="B100" s="33" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>R-WH_Att_BDL*</v>
       </c>
       <c r="C100" s="33"/>
       <c r="D100" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H100,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.7783866057838701E-2</v>
+        <v>8.8919330289193299E-2</v>
       </c>
       <c r="F100" s="33" t="s">
         <v>105</v>
@@ -7645,7 +7645,7 @@
         <v>191</v>
       </c>
       <c r="H100" s="33" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>R-WH_Att_BDL*</v>
       </c>
     </row>
@@ -7654,13 +7654,13 @@
         <v>1</v>
       </c>
       <c r="B101" s="32" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>R-WH_Att_ETH*</v>
       </c>
       <c r="C101" s="32"/>
       <c r="D101" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H101,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.34424657534247E-2</v>
+        <v>6.7212328767123297E-2</v>
       </c>
       <c r="F101" s="32" t="s">
         <v>105</v>
@@ -7669,7 +7669,7 @@
         <v>190</v>
       </c>
       <c r="H101" s="32" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>R-WH_Att_ETH*</v>
       </c>
     </row>
@@ -7678,13 +7678,13 @@
         <v>1</v>
       </c>
       <c r="B102" s="33" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>R-WH_Att_LPG*</v>
       </c>
       <c r="C102" s="33"/>
       <c r="D102" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H102,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.01134837356341E-2</v>
+        <v>0.100567418678171</v>
       </c>
       <c r="F102" s="33" t="s">
         <v>105</v>
@@ -7693,7 +7693,7 @@
         <v>192</v>
       </c>
       <c r="H102" s="33" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>R-WH_Att_LPG*</v>
       </c>
     </row>
@@ -7702,13 +7702,13 @@
         <v>244</v>
       </c>
       <c r="B103" s="32" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>R-WH_Att_ELC*</v>
       </c>
       <c r="C103" s="32"/>
       <c r="D103" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H103,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.6397220281969702E-2</v>
+        <v>6.6402541005538801E-2</v>
       </c>
       <c r="F103" s="32" t="s">
         <v>105</v>
@@ -7726,13 +7726,13 @@
         <v>1</v>
       </c>
       <c r="B104" s="33" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>R-WH_Att_KER*</v>
       </c>
       <c r="C104" s="33"/>
       <c r="D104" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H104,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.39410555733958E-2</v>
+        <v>6.9705277866978901E-2</v>
       </c>
       <c r="F104" s="33" t="s">
         <v>105</v>
@@ -7741,7 +7741,7 @@
         <v>193</v>
       </c>
       <c r="H104" s="33" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>R-WH_Att_KER*</v>
       </c>
     </row>
@@ -7750,13 +7750,13 @@
         <v>1</v>
       </c>
       <c r="B105" s="32" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>R-WH_Att_GAS*</v>
       </c>
       <c r="C105" s="32"/>
       <c r="D105" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H105,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.16777135974941E-2</v>
+        <v>5.8388567987470399E-2</v>
       </c>
       <c r="F105" s="32" t="s">
         <v>105</v>
@@ -7774,13 +7774,13 @@
         <v>1</v>
       </c>
       <c r="B106" s="33" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>R-WH_Att_PEA*</v>
       </c>
       <c r="C106" s="33"/>
       <c r="D106" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H106,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.3788861785020401E-2</v>
+        <v>6.8944308925102102E-2</v>
       </c>
       <c r="F106" s="33" t="s">
         <v>105</v>
@@ -7789,7 +7789,7 @@
         <v>110</v>
       </c>
       <c r="H106" s="33" t="str">
-        <f t="shared" ref="H106:H110" si="25">"R-WH_"&amp;F106&amp;"_"&amp;G106&amp;"*"</f>
+        <f t="shared" ref="H106:H110" si="29">"R-WH_"&amp;F106&amp;"_"&amp;G106&amp;"*"</f>
         <v>R-WH_Att_PEA*</v>
       </c>
     </row>
@@ -7798,13 +7798,13 @@
         <v>1</v>
       </c>
       <c r="B107" s="32" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>R-WH_Att_SMF*</v>
       </c>
       <c r="C107" s="32"/>
       <c r="D107" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H107,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.1808127750471799E-2</v>
+        <v>5.9040638752358897E-2</v>
       </c>
       <c r="F107" s="32" t="s">
         <v>105</v>
@@ -7813,7 +7813,7 @@
         <v>111</v>
       </c>
       <c r="H107" s="32" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>R-WH_Att_SMF*</v>
       </c>
     </row>
@@ -7822,13 +7822,13 @@
         <v>1</v>
       </c>
       <c r="B108" s="33" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>R-WH_Att_WOO*</v>
       </c>
       <c r="C108" s="33"/>
       <c r="D108" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H108,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.3755627925516699E-2</v>
+        <v>6.8778139627583307E-2</v>
       </c>
       <c r="F108" s="33" t="s">
         <v>105</v>
@@ -7837,7 +7837,7 @@
         <v>195</v>
       </c>
       <c r="H108" s="33" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>R-WH_Att_WOO*</v>
       </c>
     </row>
@@ -7846,13 +7846,13 @@
         <v>1</v>
       </c>
       <c r="B109" s="32" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>R-WH_Att_HET*</v>
       </c>
       <c r="C109" s="32"/>
       <c r="D109" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H109,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.7589168523886695E-4</v>
+        <v>4.8794584261943399E-3</v>
       </c>
       <c r="F109" s="32" t="s">
         <v>105</v>
@@ -7861,7 +7861,7 @@
         <v>84</v>
       </c>
       <c r="H109" s="32" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>R-WH_Att_HET*</v>
       </c>
     </row>
@@ -7876,7 +7876,7 @@
       <c r="C110" s="32"/>
       <c r="D110" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H110,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.36448583018159E-2</v>
+        <v>0.220198275095671</v>
       </c>
       <c r="F110" s="32" t="s">
         <v>105</v>
@@ -7885,7 +7885,7 @@
         <v>231</v>
       </c>
       <c r="H110" s="32" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>R-WH_Att_SOL*</v>
       </c>
     </row>
@@ -7906,13 +7906,13 @@
         <v>1</v>
       </c>
       <c r="B112" s="32" t="str">
-        <f t="shared" ref="B112:B122" si="26">"R-WH_"&amp;F112&amp;"_"&amp;G112&amp;"*"</f>
+        <f t="shared" ref="B112:B122" si="30">"R-WH_"&amp;F112&amp;"_"&amp;G112&amp;"*"</f>
         <v>R-WH_Det_COA*</v>
       </c>
       <c r="C112" s="32"/>
       <c r="D112" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H112,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.3205860842012E-2</v>
+        <v>7.2518315131287606E-2</v>
       </c>
       <c r="F112" s="32" t="s">
         <v>114</v>
@@ -7921,7 +7921,7 @@
         <v>82</v>
       </c>
       <c r="H112" s="32" t="str">
-        <f t="shared" ref="H112:H117" si="27">"R-WH_"&amp;F112&amp;"_"&amp;G112&amp;"*"</f>
+        <f t="shared" ref="H112:H117" si="31">"R-WH_"&amp;F112&amp;"_"&amp;G112&amp;"*"</f>
         <v>R-WH_Det_COA*</v>
       </c>
     </row>
@@ -7930,13 +7930,13 @@
         <v>1</v>
       </c>
       <c r="B113" s="33" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>R-WH_Det_BDL*</v>
       </c>
       <c r="C113" s="33"/>
       <c r="D113" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H113,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.3545205479452101E-2</v>
+        <v>4.2328767123287703E-2</v>
       </c>
       <c r="F113" s="33" t="s">
         <v>114</v>
@@ -7945,7 +7945,7 @@
         <v>191</v>
       </c>
       <c r="H113" s="33" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>R-WH_Det_BDL*</v>
       </c>
     </row>
@@ -7954,13 +7954,13 @@
         <v>1</v>
       </c>
       <c r="B114" s="32" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>R-WH_Det_ETH*</v>
       </c>
       <c r="C114" s="32"/>
       <c r="D114" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H114,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.53431506849315E-2</v>
+        <v>4.7947345890410997E-2</v>
       </c>
       <c r="F114" s="32" t="s">
         <v>114</v>
@@ -7969,7 +7969,7 @@
         <v>190</v>
       </c>
       <c r="H114" s="32" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>R-WH_Det_ETH*</v>
       </c>
     </row>
@@ -7978,13 +7978,13 @@
         <v>1</v>
       </c>
       <c r="B115" s="33" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>R-WH_Det_LPG*</v>
       </c>
       <c r="C115" s="33"/>
       <c r="D115" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H115,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.20120031139646E-2</v>
+        <v>6.8787509731139299E-2</v>
       </c>
       <c r="F115" s="33" t="s">
         <v>114</v>
@@ -7993,7 +7993,7 @@
         <v>192</v>
       </c>
       <c r="H115" s="33" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>R-WH_Det_LPG*</v>
       </c>
     </row>
@@ -8002,13 +8002,13 @@
         <v>244</v>
       </c>
       <c r="B116" s="32" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>R-WH_Det_ELC*</v>
       </c>
       <c r="C116" s="32"/>
       <c r="D116" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H116,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.6905741708612799E-2</v>
+        <v>4.65144570452133E-2</v>
       </c>
       <c r="F116" s="32" t="s">
         <v>114</v>
@@ -8026,13 +8026,13 @@
         <v>1</v>
       </c>
       <c r="B117" s="33" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>R-WH_Det_KER*</v>
       </c>
       <c r="C117" s="33"/>
       <c r="D117" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H117,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.71705033816347E-2</v>
+        <v>5.3657823067608502E-2</v>
       </c>
       <c r="F117" s="33" t="s">
         <v>114</v>
@@ -8041,7 +8041,7 @@
         <v>193</v>
       </c>
       <c r="H117" s="33" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>R-WH_Det_KER*</v>
       </c>
     </row>
@@ -8050,13 +8050,13 @@
         <v>1</v>
       </c>
       <c r="B118" s="32" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>R-WH_Det_GAS*</v>
       </c>
       <c r="C118" s="32"/>
       <c r="D118" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H118,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.5035273157845299E-2</v>
+        <v>4.6985228618266699E-2</v>
       </c>
       <c r="F118" s="32" t="s">
         <v>114</v>
@@ -8074,13 +8074,13 @@
         <v>1</v>
       </c>
       <c r="B119" s="33" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>R-WH_Det_PEA*</v>
       </c>
       <c r="C119" s="33"/>
       <c r="D119" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H119,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.5844216359380301E-2</v>
+        <v>2.36315789189348E-2</v>
       </c>
       <c r="F119" s="33" t="s">
         <v>114</v>
@@ -8089,7 +8089,7 @@
         <v>110</v>
       </c>
       <c r="H119" s="33" t="str">
-        <f t="shared" ref="H119:H123" si="28">"R-WH_"&amp;F119&amp;"_"&amp;G119&amp;"*"</f>
+        <f t="shared" ref="H119:H123" si="32">"R-WH_"&amp;F119&amp;"_"&amp;G119&amp;"*"</f>
         <v>R-WH_Det_PEA*</v>
       </c>
     </row>
@@ -8098,13 +8098,13 @@
         <v>1</v>
       </c>
       <c r="B120" s="32" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>R-WH_Det_SMF*</v>
       </c>
       <c r="C120" s="32"/>
       <c r="D120" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H120,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.4316024530344E-2</v>
+        <v>4.4737576657325098E-2</v>
       </c>
       <c r="F120" s="32" t="s">
         <v>114</v>
@@ -8113,7 +8113,7 @@
         <v>111</v>
       </c>
       <c r="H120" s="32" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>R-WH_Det_SMF*</v>
       </c>
     </row>
@@ -8122,13 +8122,13 @@
         <v>1</v>
       </c>
       <c r="B121" s="33" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>R-WH_Det_WOO*</v>
       </c>
       <c r="C121" s="33"/>
       <c r="D121" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H121,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.8495641261436602E-2</v>
+        <v>5.7798878941989297E-2</v>
       </c>
       <c r="F121" s="33" t="s">
         <v>114</v>
@@ -8137,7 +8137,7 @@
         <v>195</v>
       </c>
       <c r="H121" s="33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>R-WH_Det_WOO*</v>
       </c>
     </row>
@@ -8146,13 +8146,13 @@
         <v>1</v>
       </c>
       <c r="B122" s="32" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>R-WH_Det_HET*</v>
       </c>
       <c r="C122" s="32"/>
       <c r="D122" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H122,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.6330345396658901E-3</v>
+        <v>5.1032329364559198E-3</v>
       </c>
       <c r="F122" s="32" t="s">
         <v>114</v>
@@ -8161,7 +8161,7 @@
         <v>84</v>
       </c>
       <c r="H122" s="32" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>R-WH_Det_HET*</v>
       </c>
     </row>
@@ -8176,7 +8176,7 @@
       <c r="C123" s="32"/>
       <c r="D123" s="40">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H123,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.6408942067286699E-2</v>
+        <v>0.145588074596397</v>
       </c>
       <c r="F123" s="32" t="s">
         <v>114</v>
@@ -8185,7 +8185,7 @@
         <v>231</v>
       </c>
       <c r="H123" s="32" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>R-WH_Det_SOL*</v>
       </c>
     </row>
@@ -8212,7 +8212,7 @@
       <c r="C125" s="32"/>
       <c r="D125" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H125,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.6752418704136399E-2</v>
+        <v>0.183575067201909</v>
       </c>
       <c r="F125" s="32" t="s">
         <v>109</v>
@@ -8221,7 +8221,7 @@
         <v>83</v>
       </c>
       <c r="H125" s="37" t="str">
-        <f t="shared" ref="H125:H127" si="29">"R-SH_"&amp;F125&amp;"_"&amp;G125&amp;"*X1"</f>
+        <f t="shared" ref="H125:H127" si="33">"R-SH_"&amp;F125&amp;"_"&amp;G125&amp;"*X1"</f>
         <v>R-SH_Apt_ELC*X1</v>
       </c>
     </row>
@@ -8236,7 +8236,7 @@
       <c r="C126" s="32"/>
       <c r="D126" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H126,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.1795378605209401E-2</v>
+        <v>0.113204385544111</v>
       </c>
       <c r="F126" s="32" t="s">
         <v>105</v>
@@ -8245,7 +8245,7 @@
         <v>83</v>
       </c>
       <c r="H126" s="37" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>R-SH_Att_ELC*X1</v>
       </c>
     </row>
@@ -8260,7 +8260,7 @@
       <c r="C127" s="32"/>
       <c r="D127" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H127,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.0026061338975703E-2</v>
+        <v>0.13766734761320301</v>
       </c>
       <c r="F127" s="32" t="s">
         <v>114</v>
@@ -8269,7 +8269,7 @@
         <v>83</v>
       </c>
       <c r="H127" s="37" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>R-SH_Det_ELC*X1</v>
       </c>
     </row>
@@ -8299,7 +8299,7 @@
       </c>
       <c r="D129" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H129,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.6752418704136399E-2</v>
+        <v>0.183575067201909</v>
       </c>
       <c r="F129" s="32" t="s">
         <v>109</v>
@@ -8308,7 +8308,7 @@
         <v>83</v>
       </c>
       <c r="H129" s="37" t="str">
-        <f t="shared" ref="H129:H131" si="30">"R-SH_"&amp;F129&amp;"_"&amp;G129&amp;"*X1"</f>
+        <f t="shared" ref="H129:H131" si="34">"R-SH_"&amp;F129&amp;"_"&amp;G129&amp;"*X1"</f>
         <v>R-SH_Apt_ELC*X1</v>
       </c>
     </row>
@@ -8326,7 +8326,7 @@
       </c>
       <c r="D130" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H130,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.1795378605209401E-2</v>
+        <v>0.113204385544111</v>
       </c>
       <c r="F130" s="32" t="s">
         <v>105</v>
@@ -8335,7 +8335,7 @@
         <v>83</v>
       </c>
       <c r="H130" s="37" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>R-SH_Att_ELC*X1</v>
       </c>
     </row>
@@ -8353,7 +8353,7 @@
       </c>
       <c r="D131" s="38">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H131,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.0026061338975703E-2</v>
+        <v>0.13766734761320301</v>
       </c>
       <c r="F131" s="38" t="s">
         <v>114</v>
@@ -8362,7 +8362,7 @@
         <v>83</v>
       </c>
       <c r="H131" s="39" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>R-SH_Det_ELC*X1</v>
       </c>
     </row>
@@ -8392,7 +8392,7 @@
       </c>
       <c r="D133" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H133,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.6752418704136399E-2</v>
+        <v>0.183575067201909</v>
       </c>
       <c r="F133" s="32" t="s">
         <v>109</v>
@@ -8401,7 +8401,7 @@
         <v>83</v>
       </c>
       <c r="H133" s="32" t="str">
-        <f t="shared" ref="H133:H135" si="31">"R-SH_"&amp;F133&amp;"_"&amp;G133&amp;"*X1"</f>
+        <f t="shared" ref="H133:H135" si="35">"R-SH_"&amp;F133&amp;"_"&amp;G133&amp;"*X1"</f>
         <v>R-SH_Apt_ELC*X1</v>
       </c>
     </row>
@@ -8419,7 +8419,7 @@
       </c>
       <c r="D134" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H134,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.1795378605209401E-2</v>
+        <v>0.113204385544111</v>
       </c>
       <c r="F134" s="32" t="s">
         <v>105</v>
@@ -8428,7 +8428,7 @@
         <v>83</v>
       </c>
       <c r="H134" s="32" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>R-SH_Att_ELC*X1</v>
       </c>
     </row>
@@ -8446,7 +8446,7 @@
       </c>
       <c r="D135" s="38">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H135,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.0026061338975703E-2</v>
+        <v>0.13766734761320301</v>
       </c>
       <c r="F135" s="38" t="s">
         <v>114</v>
@@ -8455,7 +8455,7 @@
         <v>83</v>
       </c>
       <c r="H135" s="38" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>R-SH_Det_ELC*X1</v>
       </c>
     </row>
@@ -10483,10 +10483,10 @@
         <v>131</v>
       </c>
       <c r="L2">
-        <v>9.0061643835616396E-3</v>
+        <v>7.5051369863013695E-2</v>
       </c>
       <c r="M2">
-        <v>9.0061643835616396E-3</v>
+        <v>7.5051369863013695E-2</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -10524,10 +10524,10 @@
         <v>131</v>
       </c>
       <c r="L3">
-        <v>5.4306956259161203E-2</v>
+        <v>0.45255796882634303</v>
       </c>
       <c r="M3">
-        <v>5.4306956259161203E-2</v>
+        <v>0.45255796882634303</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -10565,10 +10565,10 @@
         <v>131</v>
       </c>
       <c r="L4">
-        <v>1.0747850331916199E-2</v>
+        <v>6.2549233288808403E-2</v>
       </c>
       <c r="M4">
-        <v>1.0747850331916199E-2</v>
+        <v>6.2549233288808403E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -10606,10 +10606,10 @@
         <v>131</v>
       </c>
       <c r="L5">
-        <v>4.6927694201733303E-2</v>
+        <v>1.5052975614548401</v>
       </c>
       <c r="M5">
-        <v>4.6927694201733303E-2</v>
+        <v>1.5052975614548401</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -10647,10 +10647,10 @@
         <v>131</v>
       </c>
       <c r="L6">
-        <v>1.08506849315068E-2</v>
+        <v>9.0422374429223698E-2</v>
       </c>
       <c r="M6">
-        <v>1.08506849315068E-2</v>
+        <v>9.0422374429223698E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -10688,10 +10688,10 @@
         <v>131</v>
       </c>
       <c r="L7">
-        <v>9.0054738416460393E-3</v>
+        <v>7.5045615347050301E-2</v>
       </c>
       <c r="M7">
-        <v>9.0054738416460393E-3</v>
+        <v>7.5045615347050301E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -10729,10 +10729,10 @@
         <v>131</v>
       </c>
       <c r="L8">
-        <v>3.8847834889027099E-4</v>
+        <v>3.2373195740855901E-3</v>
       </c>
       <c r="M8">
-        <v>3.8847834889027099E-4</v>
+        <v>3.2373195740855901E-3</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -10770,10 +10770,10 @@
         <v>131</v>
       </c>
       <c r="L9">
-        <v>1.34604040212748E-2</v>
+        <v>0.112170033510623</v>
       </c>
       <c r="M9">
-        <v>1.34604040212748E-2</v>
+        <v>0.112170033510623</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -10811,10 +10811,10 @@
         <v>131</v>
       </c>
       <c r="L10">
-        <v>1.5902117368476298E-2</v>
+        <v>0.13251764473730199</v>
       </c>
       <c r="M10">
-        <v>1.5902117368476298E-2</v>
+        <v>0.13251764473730199</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -10852,10 +10852,10 @@
         <v>131</v>
       </c>
       <c r="L11">
-        <v>1.0875263435194901E-2</v>
+        <v>9.0627195293291204E-2</v>
       </c>
       <c r="M11">
-        <v>1.0875263435194901E-2</v>
+        <v>9.0627195293291204E-2</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -10893,10 +10893,10 @@
         <v>131</v>
       </c>
       <c r="L12">
-        <v>1.0823557576601301E-2</v>
+        <v>9.0196313138344295E-2</v>
       </c>
       <c r="M12">
-        <v>1.0823557576601301E-2</v>
+        <v>9.0196313138344295E-2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -10934,10 +10934,10 @@
         <v>131</v>
       </c>
       <c r="L13">
-        <v>1.0946059106357601E-2</v>
+        <v>0.143159113753899</v>
       </c>
       <c r="M13">
-        <v>1.0946059106357601E-2</v>
+        <v>0.143159113753899</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -10975,10 +10975,10 @@
         <v>131</v>
       </c>
       <c r="L14">
-        <v>1.23793448122469E-2</v>
+        <v>0.10316120676872401</v>
       </c>
       <c r="M14">
-        <v>1.23793448122469E-2</v>
+        <v>0.10316120676872401</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -11016,10 +11016,10 @@
         <v>131</v>
       </c>
       <c r="L15">
-        <v>1.7783866057838701E-2</v>
+        <v>8.8919330289193299E-2</v>
       </c>
       <c r="M15">
-        <v>1.7783866057838701E-2</v>
+        <v>8.8919330289193299E-2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -11057,10 +11057,10 @@
         <v>131</v>
       </c>
       <c r="L16">
-        <v>2.0871971515326802E-2</v>
+        <v>0.104359857576634</v>
       </c>
       <c r="M16">
-        <v>2.0871971515326802E-2</v>
+        <v>0.104359857576634</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -11098,10 +11098,10 @@
         <v>131</v>
       </c>
       <c r="L17">
-        <v>1.6397220281969702E-2</v>
+        <v>6.6402541005538801E-2</v>
       </c>
       <c r="M17">
-        <v>1.6397220281969702E-2</v>
+        <v>6.6402541005538801E-2</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -11139,10 +11139,10 @@
         <v>131</v>
       </c>
       <c r="L18">
-        <v>2.9986743667255199E-2</v>
+        <v>0.66825318875216799</v>
       </c>
       <c r="M18">
-        <v>2.9986743667255199E-2</v>
+        <v>0.66825318875216799</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -11180,10 +11180,10 @@
         <v>131</v>
       </c>
       <c r="L19">
-        <v>1.34424657534247E-2</v>
+        <v>6.7212328767123297E-2</v>
       </c>
       <c r="M19">
-        <v>1.34424657534247E-2</v>
+        <v>6.7212328767123297E-2</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -11221,10 +11221,10 @@
         <v>131</v>
       </c>
       <c r="L20">
-        <v>1.16777135974941E-2</v>
+        <v>5.8388567987470399E-2</v>
       </c>
       <c r="M20">
-        <v>1.16777135974941E-2</v>
+        <v>5.8388567987470399E-2</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -11262,10 +11262,10 @@
         <v>131</v>
       </c>
       <c r="L21">
-        <v>9.7589168523886695E-4</v>
+        <v>4.8794584261943399E-3</v>
       </c>
       <c r="M21">
-        <v>9.7589168523886695E-4</v>
+        <v>4.8794584261943399E-3</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -11303,10 +11303,10 @@
         <v>131</v>
       </c>
       <c r="L22">
-        <v>1.39410555733958E-2</v>
+        <v>6.9705277866978901E-2</v>
       </c>
       <c r="M22">
-        <v>1.39410555733958E-2</v>
+        <v>6.9705277866978901E-2</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -11344,10 +11344,10 @@
         <v>131</v>
       </c>
       <c r="L23">
-        <v>2.01134837356341E-2</v>
+        <v>0.100567418678171</v>
       </c>
       <c r="M23">
-        <v>2.01134837356341E-2</v>
+        <v>0.100567418678171</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -11385,10 +11385,10 @@
         <v>131</v>
       </c>
       <c r="L24">
-        <v>1.3788861785020401E-2</v>
+        <v>6.8944308925102102E-2</v>
       </c>
       <c r="M24">
-        <v>1.3788861785020401E-2</v>
+        <v>6.8944308925102102E-2</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -11426,10 +11426,10 @@
         <v>131</v>
       </c>
       <c r="L25">
-        <v>1.1808127750471799E-2</v>
+        <v>5.9040638752358897E-2</v>
       </c>
       <c r="M25">
-        <v>1.1808127750471799E-2</v>
+        <v>5.9040638752358897E-2</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -11467,10 +11467,10 @@
         <v>131</v>
       </c>
       <c r="L26">
-        <v>4.36448583018159E-2</v>
+        <v>0.220198275095671</v>
       </c>
       <c r="M26">
-        <v>4.36448583018159E-2</v>
+        <v>0.220198275095671</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -11508,10 +11508,10 @@
         <v>131</v>
       </c>
       <c r="L27">
-        <v>1.3755627925516699E-2</v>
+        <v>6.8778139627583307E-2</v>
       </c>
       <c r="M27">
-        <v>1.3755627925516699E-2</v>
+        <v>6.8778139627583307E-2</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -11549,10 +11549,10 @@
         <v>131</v>
       </c>
       <c r="L28">
-        <v>1.3545205479452101E-2</v>
+        <v>4.2328767123287703E-2</v>
       </c>
       <c r="M28">
-        <v>1.3545205479452101E-2</v>
+        <v>4.2328767123287703E-2</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -11590,10 +11590,10 @@
         <v>131</v>
       </c>
       <c r="L29">
-        <v>2.3205860842012E-2</v>
+        <v>7.2518315131287606E-2</v>
       </c>
       <c r="M29">
-        <v>2.3205860842012E-2</v>
+        <v>7.2518315131287606E-2</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -11631,10 +11631,10 @@
         <v>131</v>
       </c>
       <c r="L30">
-        <v>1.6905741708612799E-2</v>
+        <v>4.65144570452133E-2</v>
       </c>
       <c r="M30">
-        <v>1.6905741708612799E-2</v>
+        <v>4.65144570452133E-2</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -11672,10 +11672,10 @@
         <v>131</v>
       </c>
       <c r="L31">
-        <v>2.8537772759784301E-2</v>
+        <v>0.45983560612562002</v>
       </c>
       <c r="M31">
-        <v>2.8537772759784301E-2</v>
+        <v>0.45983560612562002</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -11713,10 +11713,10 @@
         <v>131</v>
       </c>
       <c r="L32">
-        <v>1.53431506849315E-2</v>
+        <v>4.7947345890410997E-2</v>
       </c>
       <c r="M32">
-        <v>1.53431506849315E-2</v>
+        <v>4.7947345890410997E-2</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -11754,10 +11754,10 @@
         <v>131</v>
       </c>
       <c r="L33">
-        <v>1.5035273157845299E-2</v>
+        <v>4.6985228618266699E-2</v>
       </c>
       <c r="M33">
-        <v>1.5035273157845299E-2</v>
+        <v>4.6985228618266699E-2</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -11795,10 +11795,10 @@
         <v>131</v>
       </c>
       <c r="L34">
-        <v>1.6330345396658901E-3</v>
+        <v>5.1032329364559198E-3</v>
       </c>
       <c r="M34">
-        <v>1.6330345396658901E-3</v>
+        <v>5.1032329364559198E-3</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -11836,10 +11836,10 @@
         <v>131</v>
       </c>
       <c r="L35">
-        <v>1.71705033816347E-2</v>
+        <v>5.3657823067608502E-2</v>
       </c>
       <c r="M35">
-        <v>1.71705033816347E-2</v>
+        <v>5.3657823067608502E-2</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -11877,10 +11877,10 @@
         <v>131</v>
       </c>
       <c r="L36">
-        <v>2.20120031139646E-2</v>
+        <v>6.8787509731139299E-2</v>
       </c>
       <c r="M36">
-        <v>2.20120031139646E-2</v>
+        <v>6.8787509731139299E-2</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -11918,10 +11918,10 @@
         <v>131</v>
       </c>
       <c r="L37">
-        <v>1.5844216359380301E-2</v>
+        <v>2.36315789189348E-2</v>
       </c>
       <c r="M37">
-        <v>1.5844216359380301E-2</v>
+        <v>2.36315789189348E-2</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -11959,10 +11959,10 @@
         <v>131</v>
       </c>
       <c r="L38">
-        <v>1.4316024530344E-2</v>
+        <v>4.4737576657325098E-2</v>
       </c>
       <c r="M38">
-        <v>1.4316024530344E-2</v>
+        <v>4.4737576657325098E-2</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
@@ -12000,10 +12000,10 @@
         <v>131</v>
       </c>
       <c r="L39">
-        <v>4.6408942067286699E-2</v>
+        <v>0.145588074596397</v>
       </c>
       <c r="M39">
-        <v>4.6408942067286699E-2</v>
+        <v>0.145588074596397</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -12041,10 +12041,10 @@
         <v>131</v>
       </c>
       <c r="L40">
-        <v>1.8495641261436602E-2</v>
+        <v>5.7798878941989297E-2</v>
       </c>
       <c r="M40">
-        <v>1.8495641261436602E-2</v>
+        <v>5.7798878941989297E-2</v>
       </c>
     </row>
   </sheetData>
@@ -12139,10 +12139,10 @@
         <v>131</v>
       </c>
       <c r="L2">
-        <v>5.6742452222251502E-3</v>
+        <v>9.4570753703752605E-3</v>
       </c>
       <c r="M2">
-        <v>5.6742452222251502E-3</v>
+        <v>9.4570753703752605E-3</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -12180,10 +12180,10 @@
         <v>131</v>
       </c>
       <c r="L3">
-        <v>0.251294826490714</v>
+        <v>0.41882471081785599</v>
       </c>
       <c r="M3">
-        <v>0.251294826490714</v>
+        <v>0.41882471081785599</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -12221,10 +12221,10 @@
         <v>131</v>
       </c>
       <c r="L4">
-        <v>1.71972004592153E-2</v>
+        <v>1.7227618659613701E-2</v>
       </c>
       <c r="M4">
-        <v>1.71972004592153E-2</v>
+        <v>1.7227618659613701E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -12262,10 +12262,10 @@
         <v>131</v>
       </c>
       <c r="L5">
-        <v>2.6752418704136399E-2</v>
+        <v>0.183575067201909</v>
       </c>
       <c r="M5">
-        <v>2.6752418704136399E-2</v>
+        <v>0.183575067201909</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -12303,10 +12303,10 @@
         <v>131</v>
       </c>
       <c r="L6">
-        <v>1.22114316116754E-5</v>
+        <v>2.0352386019458902E-5</v>
       </c>
       <c r="M6">
-        <v>1.22114316116754E-5</v>
+        <v>2.0352386019458902E-5</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -12344,10 +12344,10 @@
         <v>131</v>
       </c>
       <c r="L7">
-        <v>1.50419670684038E-2</v>
+        <v>2.5069945114006401E-2</v>
       </c>
       <c r="M7">
-        <v>1.50419670684038E-2</v>
+        <v>2.5069945114006401E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -12385,10 +12385,10 @@
         <v>131</v>
       </c>
       <c r="L8">
-        <v>1.40933452966884E-3</v>
+        <v>2.3488908827814098E-3</v>
       </c>
       <c r="M8">
-        <v>1.40933452966884E-3</v>
+        <v>2.3488908827814098E-3</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -12426,10 +12426,10 @@
         <v>131</v>
       </c>
       <c r="L9">
-        <v>4.7386892734226298E-2</v>
+        <v>7.8978154557043795E-2</v>
       </c>
       <c r="M9">
-        <v>4.7386892734226298E-2</v>
+        <v>7.8978154557043795E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -12467,10 +12467,10 @@
         <v>131</v>
       </c>
       <c r="L10">
-        <v>2.92726955741749E-2</v>
+        <v>4.8787825956958103E-2</v>
       </c>
       <c r="M10">
-        <v>2.92726955741749E-2</v>
+        <v>4.8787825956958103E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -12508,10 +12508,10 @@
         <v>131</v>
       </c>
       <c r="L11">
-        <v>9.4968303643999302E-2</v>
+        <v>0.15828050607333199</v>
       </c>
       <c r="M11">
-        <v>9.4968303643999302E-2</v>
+        <v>0.15828050607333199</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -12549,10 +12549,10 @@
         <v>131</v>
       </c>
       <c r="L12">
-        <v>8.8189793033597697E-2</v>
+        <v>0.14698298838932999</v>
       </c>
       <c r="M12">
-        <v>8.8189793033597697E-2</v>
+        <v>0.14698298838932999</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -12590,10 +12590,10 @@
         <v>131</v>
       </c>
       <c r="L13">
-        <v>2.2384455613659201E-2</v>
+        <v>3.7307426022765301E-2</v>
       </c>
       <c r="M13">
-        <v>2.2384455613659201E-2</v>
+        <v>3.7307426022765301E-2</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -12631,10 +12631,10 @@
         <v>131</v>
       </c>
       <c r="L14">
-        <v>1.9727143416387202E-2</v>
+        <v>2.4658929270483999E-2</v>
       </c>
       <c r="M14">
-        <v>1.9727143416387202E-2</v>
+        <v>2.4658929270483999E-2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -12672,10 +12672,10 @@
         <v>131</v>
       </c>
       <c r="L15">
-        <v>0.25427820715246202</v>
+        <v>0.31784775894057798</v>
       </c>
       <c r="M15">
-        <v>0.25427820715246202</v>
+        <v>0.31784775894057798</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -12713,10 +12713,10 @@
         <v>131</v>
       </c>
       <c r="L16">
-        <v>4.0509826172087302E-2</v>
+        <v>3.7537381358533697E-2</v>
       </c>
       <c r="M16">
-        <v>4.0509826172087302E-2</v>
+        <v>3.7537381358533697E-2</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -12754,10 +12754,10 @@
         <v>131</v>
       </c>
       <c r="L17">
-        <v>2.1795378605209401E-2</v>
+        <v>0.113204385544111</v>
       </c>
       <c r="M17">
-        <v>2.1795378605209401E-2</v>
+        <v>0.113204385544111</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -12836,10 +12836,10 @@
         <v>131</v>
       </c>
       <c r="L19">
-        <v>2.8026244703222701E-2</v>
+        <v>3.5032805879028399E-2</v>
       </c>
       <c r="M19">
-        <v>2.8026244703222701E-2</v>
+        <v>3.5032805879028399E-2</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -12877,10 +12877,10 @@
         <v>131</v>
       </c>
       <c r="L20">
-        <v>1.82983145664136E-2</v>
+        <v>2.2872893208017001E-2</v>
       </c>
       <c r="M20">
-        <v>1.82983145664136E-2</v>
+        <v>2.2872893208017001E-2</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -12918,10 +12918,10 @@
         <v>131</v>
       </c>
       <c r="L21">
-        <v>3.5982700943281098E-2</v>
+        <v>4.4978376179101401E-2</v>
       </c>
       <c r="M21">
-        <v>3.5982700943281098E-2</v>
+        <v>4.4978376179101401E-2</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -12959,10 +12959,10 @@
         <v>131</v>
       </c>
       <c r="L22">
-        <v>3.92400721571756E-2</v>
+        <v>4.9050090196469498E-2</v>
       </c>
       <c r="M22">
-        <v>3.92400721571756E-2</v>
+        <v>4.9050090196469498E-2</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -13000,10 +13000,10 @@
         <v>131</v>
       </c>
       <c r="L23">
-        <v>5.6714843841128501E-2</v>
+        <v>7.0893554801410602E-2</v>
       </c>
       <c r="M23">
-        <v>5.6714843841128501E-2</v>
+        <v>7.0893554801410602E-2</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -13041,10 +13041,10 @@
         <v>131</v>
       </c>
       <c r="L24">
-        <v>5.8905144753244799E-2</v>
+        <v>7.3631430941555998E-2</v>
       </c>
       <c r="M24">
-        <v>5.8905144753244799E-2</v>
+        <v>7.3631430941555998E-2</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -13082,10 +13082,10 @@
         <v>131</v>
       </c>
       <c r="L25">
-        <v>9.52141887785493E-2</v>
+        <v>0.119017735973187</v>
       </c>
       <c r="M25">
-        <v>9.52141887785493E-2</v>
+        <v>0.119017735973187</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -13164,10 +13164,10 @@
         <v>131</v>
       </c>
       <c r="L27">
-        <v>0.56734094210587305</v>
+        <v>0.47278411842156098</v>
       </c>
       <c r="M27">
-        <v>0.56734094210587305</v>
+        <v>0.47278411842156098</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -13205,10 +13205,10 @@
         <v>131</v>
       </c>
       <c r="L28">
-        <v>6.5248357402924506E-2</v>
+        <v>4.5630448521753401E-2</v>
       </c>
       <c r="M28">
-        <v>6.5248357402924506E-2</v>
+        <v>4.5630448521753401E-2</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -13246,10 +13246,10 @@
         <v>131</v>
       </c>
       <c r="L29">
-        <v>4.0026061338975703E-2</v>
+        <v>0.13766734761320301</v>
       </c>
       <c r="M29">
-        <v>4.0026061338975703E-2</v>
+        <v>0.13766734761320301</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -13328,10 +13328,10 @@
         <v>131</v>
       </c>
       <c r="L31">
-        <v>4.6982028361355302E-2</v>
+        <v>3.9151690301129402E-2</v>
       </c>
       <c r="M31">
-        <v>4.6982028361355302E-2</v>
+        <v>3.9151690301129402E-2</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -13369,10 +13369,10 @@
         <v>131</v>
       </c>
       <c r="L32">
-        <v>0.24099011008044599</v>
+        <v>0.200825091733705</v>
       </c>
       <c r="M32">
-        <v>0.24099011008044599</v>
+        <v>0.200825091733705</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -13410,10 +13410,10 @@
         <v>131</v>
       </c>
       <c r="L33">
-        <v>5.9134611842239497E-2</v>
+        <v>4.92788432018662E-2</v>
       </c>
       <c r="M33">
-        <v>5.9134611842239497E-2</v>
+        <v>4.92788432018662E-2</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -13451,10 +13451,10 @@
         <v>131</v>
       </c>
       <c r="L34">
-        <v>8.5024956709859906E-2</v>
+        <v>7.0854130591549894E-2</v>
       </c>
       <c r="M34">
-        <v>8.5024956709859906E-2</v>
+        <v>7.0854130591549894E-2</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -13492,10 +13492,10 @@
         <v>131</v>
       </c>
       <c r="L35">
-        <v>0.120504252519882</v>
+        <v>0.100420210433235</v>
       </c>
       <c r="M35">
-        <v>0.120504252519882</v>
+        <v>0.100420210433235</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -13533,10 +13533,10 @@
         <v>131</v>
       </c>
       <c r="L36">
-        <v>0.16465051297265201</v>
+        <v>0.13720876081054401</v>
       </c>
       <c r="M36">
-        <v>0.16465051297265201</v>
+        <v>0.13720876081054401</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -13574,10 +13574,10 @@
         <v>131</v>
       </c>
       <c r="L37">
-        <v>0.115618760253806</v>
+        <v>9.6348966878171502E-2</v>
       </c>
       <c r="M37">
-        <v>0.115618760253806</v>
+        <v>9.6348966878171502E-2</v>
       </c>
     </row>
   </sheetData>
